--- a/www/examples/fei4_140213.xlsx
+++ b/www/examples/fei4_140213.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="204">
   <si>
     <t>"Утверждаю"</t>
   </si>
@@ -605,6 +605,41 @@
   </si>
   <si>
     <t xml:space="preserve"> лаб. 3.03,31.03,28.04,26.05.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Хим.реакторы   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 23.03,6.04</t>
+    </r>
+  </si>
+  <si>
+    <t>Комп.графика</t>
+  </si>
+  <si>
+    <t>Химия</t>
+  </si>
+  <si>
+    <t>лаб. А-16</t>
+  </si>
+  <si>
+    <t>1 п/г</t>
+  </si>
+  <si>
+    <t>Саразов А.В.</t>
+  </si>
+  <si>
+    <t>лаб. Б-207</t>
+  </si>
+  <si>
+    <t>Перевалова</t>
   </si>
 </sst>
 </file>
@@ -614,7 +649,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
   </numFmts>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -914,6 +949,29 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="8"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -941,7 +999,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="70">
+  <borders count="71">
     <border>
       <left/>
       <right/>
@@ -1724,12 +1782,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="644">
+  <cellXfs count="651">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2975,12 +3046,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3116,142 +3181,526 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3273,135 +3722,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3409,9 +3729,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3429,259 +3746,10 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3700,28 +3768,50 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3734,9 +3824,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3774,7 +3864,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -3846,7 +3936,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4026,15 +4116,15 @@
   </sheetPr>
   <dimension ref="A1:AA210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="25" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H150" sqref="H150"/>
+    <sheetView tabSelected="1" topLeftCell="B115" zoomScaleNormal="25" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O129" sqref="O129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="451" customWidth="1"/>
-    <col min="2" max="6" width="5.7109375" style="451" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" style="451" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="449" customWidth="1"/>
+    <col min="2" max="6" width="5.7109375" style="449" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" style="449" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" style="9" customWidth="1"/>
     <col min="9" max="10" width="8" style="9" customWidth="1"/>
     <col min="11" max="11" width="15.42578125" style="9" customWidth="1"/>
@@ -4239,26 +4329,26 @@
       </c>
       <c r="L9" s="20"/>
       <c r="M9" s="21"/>
-      <c r="N9" s="555" t="s">
+      <c r="N9" s="580" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="556"/>
-      <c r="P9" s="557"/>
-      <c r="Q9" s="555" t="s">
+      <c r="O9" s="581"/>
+      <c r="P9" s="582"/>
+      <c r="Q9" s="580" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="556"/>
-      <c r="S9" s="557"/>
+      <c r="R9" s="581"/>
+      <c r="S9" s="582"/>
       <c r="T9" s="18" t="s">
         <v>18</v>
       </c>
       <c r="U9" s="18"/>
       <c r="V9" s="22"/>
-      <c r="W9" s="558" t="s">
+      <c r="W9" s="583" t="s">
         <v>19</v>
       </c>
-      <c r="X9" s="556"/>
-      <c r="Y9" s="557"/>
+      <c r="X9" s="581"/>
+      <c r="Y9" s="582"/>
     </row>
     <row r="10" spans="1:27" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
@@ -4288,27 +4378,28 @@
       <c r="W10" s="25"/>
       <c r="X10" s="25"/>
       <c r="Y10" s="25"/>
+      <c r="Z10" s="61"/>
     </row>
     <row r="11" spans="1:27" s="36" customFormat="1" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="483">
+      <c r="B11" s="552">
         <v>17</v>
       </c>
-      <c r="C11" s="483">
+      <c r="C11" s="552">
         <v>3</v>
       </c>
-      <c r="D11" s="483">
+      <c r="D11" s="552">
         <v>14</v>
       </c>
-      <c r="E11" s="483">
+      <c r="E11" s="552">
         <v>12</v>
       </c>
-      <c r="F11" s="483">
+      <c r="F11" s="552">
         <v>9</v>
       </c>
-      <c r="G11" s="601" t="s">
+      <c r="G11" s="554" t="s">
         <v>22</v>
       </c>
       <c r="H11" s="29"/>
@@ -4334,12 +4425,12 @@
       <c r="A12" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="472"/>
-      <c r="C12" s="472"/>
-      <c r="D12" s="472"/>
-      <c r="E12" s="472"/>
-      <c r="F12" s="472"/>
-      <c r="G12" s="602"/>
+      <c r="B12" s="551"/>
+      <c r="C12" s="551"/>
+      <c r="D12" s="551"/>
+      <c r="E12" s="551"/>
+      <c r="F12" s="551"/>
+      <c r="G12" s="555"/>
       <c r="H12" s="39"/>
       <c r="I12" s="39"/>
       <c r="J12" s="40"/>
@@ -4363,39 +4454,39 @@
       <c r="A13" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="471"/>
-      <c r="C13" s="471">
+      <c r="B13" s="550"/>
+      <c r="C13" s="550">
         <v>17</v>
       </c>
-      <c r="D13" s="471">
+      <c r="D13" s="550">
         <v>28</v>
       </c>
-      <c r="E13" s="471">
+      <c r="E13" s="550">
         <v>26</v>
       </c>
       <c r="F13" s="49"/>
-      <c r="G13" s="603" t="s">
+      <c r="G13" s="556" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="457" t="s">
+      <c r="H13" s="461" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="458"/>
-      <c r="J13" s="459"/>
-      <c r="K13" s="457" t="s">
+      <c r="I13" s="462"/>
+      <c r="J13" s="463"/>
+      <c r="K13" s="461" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="458"/>
-      <c r="M13" s="459"/>
+      <c r="L13" s="462"/>
+      <c r="M13" s="463"/>
       <c r="N13" s="53"/>
       <c r="O13" s="54"/>
       <c r="P13" s="55"/>
       <c r="Q13" s="56"/>
       <c r="R13" s="57"/>
       <c r="S13" s="57"/>
-      <c r="T13" s="559"/>
-      <c r="U13" s="470"/>
-      <c r="V13" s="560"/>
+      <c r="T13" s="584"/>
+      <c r="U13" s="494"/>
+      <c r="V13" s="528"/>
       <c r="W13" s="56"/>
       <c r="X13" s="57"/>
       <c r="Y13" s="58"/>
@@ -4404,12 +4495,12 @@
       <c r="A14" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="472"/>
-      <c r="C14" s="472"/>
-      <c r="D14" s="472"/>
-      <c r="E14" s="472"/>
+      <c r="B14" s="551"/>
+      <c r="C14" s="551"/>
+      <c r="D14" s="551"/>
+      <c r="E14" s="551"/>
       <c r="F14" s="38"/>
-      <c r="G14" s="602"/>
+      <c r="G14" s="555"/>
       <c r="H14" s="60" t="s">
         <v>29</v>
       </c>
@@ -4446,54 +4537,54 @@
         <v>34</v>
       </c>
       <c r="B15" s="73"/>
-      <c r="C15" s="471">
+      <c r="C15" s="550">
         <v>31</v>
       </c>
-      <c r="D15" s="471"/>
+      <c r="D15" s="550"/>
       <c r="E15" s="73"/>
       <c r="F15" s="74"/>
-      <c r="G15" s="603" t="s">
+      <c r="G15" s="556" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="463" t="s">
+      <c r="H15" s="487" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="455"/>
-      <c r="J15" s="455"/>
-      <c r="K15" s="454" t="s">
+      <c r="I15" s="478"/>
+      <c r="J15" s="478"/>
+      <c r="K15" s="477" t="s">
         <v>37</v>
       </c>
-      <c r="L15" s="455"/>
-      <c r="M15" s="456"/>
-      <c r="N15" s="457" t="s">
+      <c r="L15" s="478"/>
+      <c r="M15" s="488"/>
+      <c r="N15" s="461" t="s">
         <v>38</v>
       </c>
-      <c r="O15" s="458"/>
-      <c r="P15" s="459"/>
-      <c r="Q15" s="457" t="s">
+      <c r="O15" s="462"/>
+      <c r="P15" s="463"/>
+      <c r="Q15" s="461" t="s">
         <v>39</v>
       </c>
-      <c r="R15" s="458"/>
-      <c r="S15" s="458"/>
-      <c r="T15" s="561"/>
-      <c r="U15" s="562"/>
-      <c r="V15" s="563"/>
-      <c r="W15" s="455" t="s">
+      <c r="R15" s="462"/>
+      <c r="S15" s="462"/>
+      <c r="T15" s="585"/>
+      <c r="U15" s="530"/>
+      <c r="V15" s="531"/>
+      <c r="W15" s="478" t="s">
         <v>40</v>
       </c>
-      <c r="X15" s="455"/>
-      <c r="Y15" s="489"/>
+      <c r="X15" s="478"/>
+      <c r="Y15" s="479"/>
     </row>
     <row r="16" spans="1:27" s="36" customFormat="1" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="75"/>
-      <c r="C16" s="472"/>
-      <c r="D16" s="472"/>
+      <c r="C16" s="551"/>
+      <c r="D16" s="551"/>
       <c r="E16" s="75"/>
       <c r="F16" s="75"/>
-      <c r="G16" s="602"/>
+      <c r="G16" s="555"/>
       <c r="H16" s="76" t="s">
         <v>41</v>
       </c>
@@ -4531,13 +4622,13 @@
         <v>31</v>
       </c>
       <c r="T16" s="82"/>
-      <c r="U16" s="479"/>
-      <c r="V16" s="480"/>
-      <c r="W16" s="492" t="s">
+      <c r="U16" s="457"/>
+      <c r="V16" s="501"/>
+      <c r="W16" s="614" t="s">
         <v>195</v>
       </c>
-      <c r="X16" s="492"/>
-      <c r="Y16" s="493"/>
+      <c r="X16" s="614"/>
+      <c r="Y16" s="615"/>
     </row>
     <row r="17" spans="1:25" s="36" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
@@ -4548,35 +4639,35 @@
       <c r="D17" s="73"/>
       <c r="E17" s="73"/>
       <c r="F17" s="74"/>
-      <c r="G17" s="603" t="s">
+      <c r="G17" s="556" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="463" t="s">
+      <c r="H17" s="487" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="455"/>
-      <c r="J17" s="456"/>
-      <c r="K17" s="457" t="s">
+      <c r="I17" s="478"/>
+      <c r="J17" s="488"/>
+      <c r="K17" s="461" t="s">
         <v>48</v>
       </c>
-      <c r="L17" s="458"/>
-      <c r="M17" s="459"/>
-      <c r="N17" s="457" t="s">
+      <c r="L17" s="462"/>
+      <c r="M17" s="463"/>
+      <c r="N17" s="461" t="s">
         <v>38</v>
       </c>
-      <c r="O17" s="458"/>
-      <c r="P17" s="459"/>
-      <c r="Q17" s="469" t="s">
+      <c r="O17" s="462"/>
+      <c r="P17" s="463"/>
+      <c r="Q17" s="493" t="s">
         <v>49</v>
       </c>
-      <c r="R17" s="470"/>
-      <c r="S17" s="470"/>
-      <c r="T17" s="564"/>
-      <c r="U17" s="565"/>
-      <c r="V17" s="566"/>
-      <c r="W17" s="492"/>
-      <c r="X17" s="492"/>
-      <c r="Y17" s="493"/>
+      <c r="R17" s="494"/>
+      <c r="S17" s="494"/>
+      <c r="T17" s="586"/>
+      <c r="U17" s="587"/>
+      <c r="V17" s="588"/>
+      <c r="W17" s="614"/>
+      <c r="X17" s="614"/>
+      <c r="Y17" s="615"/>
     </row>
     <row r="18" spans="1:25" s="36" customFormat="1" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
@@ -4587,14 +4678,14 @@
       <c r="D18" s="85"/>
       <c r="E18" s="85"/>
       <c r="F18" s="85"/>
-      <c r="G18" s="602"/>
+      <c r="G18" s="555"/>
       <c r="H18" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="461" t="s">
+      <c r="I18" s="535" t="s">
         <v>52</v>
       </c>
-      <c r="J18" s="462"/>
+      <c r="J18" s="536"/>
       <c r="K18" s="88" t="s">
         <v>53</v>
       </c>
@@ -4625,15 +4716,15 @@
       <c r="T18" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="U18" s="567"/>
-      <c r="V18" s="568"/>
+      <c r="U18" s="589"/>
+      <c r="V18" s="590"/>
       <c r="W18" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="X18" s="553" t="s">
+      <c r="X18" s="629" t="s">
         <v>58</v>
       </c>
-      <c r="Y18" s="554"/>
+      <c r="Y18" s="630"/>
     </row>
     <row r="19" spans="1:25" s="36" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="37" t="s">
@@ -4644,7 +4735,7 @@
       <c r="D19" s="73"/>
       <c r="E19" s="73"/>
       <c r="F19" s="74"/>
-      <c r="G19" s="603" t="s">
+      <c r="G19" s="556" t="s">
         <v>59</v>
       </c>
       <c r="H19" s="95"/>
@@ -4653,26 +4744,26 @@
       <c r="K19" s="56"/>
       <c r="L19" s="57"/>
       <c r="M19" s="57"/>
-      <c r="N19" s="457" t="s">
+      <c r="N19" s="461" t="s">
         <v>38</v>
       </c>
-      <c r="O19" s="458"/>
-      <c r="P19" s="459"/>
-      <c r="Q19" s="469" t="s">
+      <c r="O19" s="462"/>
+      <c r="P19" s="463"/>
+      <c r="Q19" s="493" t="s">
         <v>49</v>
       </c>
-      <c r="R19" s="470"/>
-      <c r="S19" s="470"/>
-      <c r="T19" s="536" t="s">
+      <c r="R19" s="494"/>
+      <c r="S19" s="494"/>
+      <c r="T19" s="455" t="s">
         <v>60</v>
       </c>
-      <c r="U19" s="537"/>
-      <c r="V19" s="537"/>
-      <c r="W19" s="454" t="s">
+      <c r="U19" s="456"/>
+      <c r="V19" s="456"/>
+      <c r="W19" s="477" t="s">
         <v>40</v>
       </c>
-      <c r="X19" s="455"/>
-      <c r="Y19" s="489"/>
+      <c r="X19" s="478"/>
+      <c r="Y19" s="479"/>
     </row>
     <row r="20" spans="1:25" s="36" customFormat="1" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
@@ -4683,7 +4774,7 @@
       <c r="D20" s="85"/>
       <c r="E20" s="85"/>
       <c r="F20" s="85"/>
-      <c r="G20" s="602"/>
+      <c r="G20" s="555"/>
       <c r="H20" s="76" t="s">
         <v>41</v>
       </c>
@@ -4696,16 +4787,16 @@
       <c r="K20" s="99"/>
       <c r="L20" s="83"/>
       <c r="M20" s="83"/>
-      <c r="N20" s="464" t="s">
+      <c r="N20" s="458" t="s">
         <v>64</v>
       </c>
-      <c r="O20" s="465"/>
-      <c r="P20" s="466"/>
-      <c r="Q20" s="452" t="s">
+      <c r="O20" s="459"/>
+      <c r="P20" s="598"/>
+      <c r="Q20" s="544" t="s">
         <v>65</v>
       </c>
-      <c r="R20" s="453"/>
-      <c r="S20" s="453"/>
+      <c r="R20" s="594"/>
+      <c r="S20" s="594"/>
       <c r="T20" s="104" t="s">
         <v>66</v>
       </c>
@@ -4718,10 +4809,10 @@
       <c r="W20" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="X20" s="479" t="s">
+      <c r="X20" s="457" t="s">
         <v>67</v>
       </c>
-      <c r="Y20" s="514"/>
+      <c r="Y20" s="591"/>
     </row>
     <row r="21" spans="1:25" s="36" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="37" t="s">
@@ -4732,7 +4823,7 @@
       <c r="D21" s="73"/>
       <c r="E21" s="73"/>
       <c r="F21" s="74"/>
-      <c r="G21" s="603" t="s">
+      <c r="G21" s="556" t="s">
         <v>69</v>
       </c>
       <c r="H21" s="96"/>
@@ -4747,16 +4838,16 @@
       <c r="Q21" s="113"/>
       <c r="R21" s="96"/>
       <c r="S21" s="114"/>
-      <c r="T21" s="536" t="s">
+      <c r="T21" s="455" t="s">
         <v>60</v>
       </c>
-      <c r="U21" s="537"/>
-      <c r="V21" s="537"/>
-      <c r="W21" s="475" t="s">
+      <c r="U21" s="456"/>
+      <c r="V21" s="456"/>
+      <c r="W21" s="489" t="s">
         <v>70</v>
       </c>
-      <c r="X21" s="569"/>
-      <c r="Y21" s="570"/>
+      <c r="X21" s="592"/>
+      <c r="Y21" s="593"/>
     </row>
     <row r="22" spans="1:25" s="36" customFormat="1" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="115"/>
@@ -4765,7 +4856,7 @@
       <c r="D22" s="116"/>
       <c r="E22" s="116"/>
       <c r="F22" s="116"/>
-      <c r="G22" s="604"/>
+      <c r="G22" s="557"/>
       <c r="H22" s="117"/>
       <c r="I22" s="117"/>
       <c r="J22" s="118"/>
@@ -4811,19 +4902,19 @@
     </row>
     <row r="23" spans="1:25" s="128" customFormat="1" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A23" s="120"/>
-      <c r="B23" s="483">
+      <c r="B23" s="552">
         <v>18</v>
       </c>
-      <c r="C23" s="483">
+      <c r="C23" s="552">
         <v>4</v>
       </c>
-      <c r="D23" s="483">
+      <c r="D23" s="552">
         <v>1</v>
       </c>
-      <c r="E23" s="483">
+      <c r="E23" s="552">
         <v>13</v>
       </c>
-      <c r="F23" s="483">
+      <c r="F23" s="552">
         <v>10</v>
       </c>
       <c r="G23" s="121"/>
@@ -4836,9 +4927,9 @@
       <c r="N23" s="125"/>
       <c r="O23" s="123"/>
       <c r="P23" s="124"/>
-      <c r="Q23" s="467"/>
-      <c r="R23" s="468"/>
-      <c r="S23" s="468"/>
+      <c r="Q23" s="517"/>
+      <c r="R23" s="518"/>
+      <c r="S23" s="518"/>
       <c r="T23" s="126"/>
       <c r="U23" s="123"/>
       <c r="V23" s="123"/>
@@ -4848,11 +4939,11 @@
     </row>
     <row r="24" spans="1:25" s="136" customFormat="1" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="129"/>
-      <c r="B24" s="472"/>
-      <c r="C24" s="472"/>
-      <c r="D24" s="472"/>
-      <c r="E24" s="472"/>
-      <c r="F24" s="472"/>
+      <c r="B24" s="551"/>
+      <c r="C24" s="551"/>
+      <c r="D24" s="551"/>
+      <c r="E24" s="551"/>
+      <c r="F24" s="551"/>
       <c r="G24" s="130" t="s">
         <v>22</v>
       </c>
@@ -4879,68 +4970,68 @@
       <c r="A25" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="471"/>
-      <c r="C25" s="471">
+      <c r="B25" s="550"/>
+      <c r="C25" s="550">
         <v>18</v>
       </c>
-      <c r="D25" s="471">
+      <c r="D25" s="550">
         <v>15</v>
       </c>
-      <c r="E25" s="471">
+      <c r="E25" s="550">
         <v>27</v>
       </c>
-      <c r="F25" s="471"/>
+      <c r="F25" s="550"/>
       <c r="G25" s="138"/>
       <c r="H25" s="139" t="s">
         <v>75</v>
       </c>
       <c r="I25" s="140"/>
       <c r="J25" s="141"/>
-      <c r="K25" s="454" t="s">
+      <c r="K25" s="477" t="s">
         <v>76</v>
       </c>
-      <c r="L25" s="455"/>
-      <c r="M25" s="456"/>
-      <c r="N25" s="515"/>
-      <c r="O25" s="516"/>
-      <c r="P25" s="583"/>
-      <c r="Q25" s="457" t="s">
+      <c r="L25" s="478"/>
+      <c r="M25" s="488"/>
+      <c r="N25" s="480"/>
+      <c r="O25" s="481"/>
+      <c r="P25" s="502"/>
+      <c r="Q25" s="461" t="s">
         <v>77</v>
       </c>
-      <c r="R25" s="458"/>
-      <c r="S25" s="458"/>
+      <c r="R25" s="462"/>
+      <c r="S25" s="462"/>
       <c r="T25" s="142"/>
       <c r="U25" s="57"/>
       <c r="V25" s="57"/>
-      <c r="W25" s="497" t="s">
+      <c r="W25" s="617" t="s">
         <v>78</v>
       </c>
-      <c r="X25" s="498"/>
-      <c r="Y25" s="499"/>
+      <c r="X25" s="618"/>
+      <c r="Y25" s="619"/>
     </row>
     <row r="26" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="472"/>
-      <c r="C26" s="472"/>
-      <c r="D26" s="472"/>
-      <c r="E26" s="472"/>
-      <c r="F26" s="472"/>
+      <c r="B26" s="551"/>
+      <c r="C26" s="551"/>
+      <c r="D26" s="551"/>
+      <c r="E26" s="551"/>
+      <c r="F26" s="551"/>
       <c r="G26" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="H26" s="574"/>
-      <c r="I26" s="511"/>
-      <c r="J26" s="615"/>
-      <c r="K26" s="460" t="s">
+      <c r="H26" s="541"/>
+      <c r="I26" s="465"/>
+      <c r="J26" s="466"/>
+      <c r="K26" s="609" t="s">
         <v>51</v>
       </c>
-      <c r="L26" s="461"/>
-      <c r="M26" s="462"/>
-      <c r="N26" s="530"/>
-      <c r="O26" s="531"/>
-      <c r="P26" s="584"/>
+      <c r="L26" s="535"/>
+      <c r="M26" s="536"/>
+      <c r="N26" s="508"/>
+      <c r="O26" s="509"/>
+      <c r="P26" s="510"/>
       <c r="Q26" s="68" t="s">
         <v>80</v>
       </c>
@@ -4967,54 +5058,54 @@
       <c r="A27" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="471"/>
-      <c r="C27" s="471"/>
-      <c r="D27" s="471"/>
-      <c r="E27" s="471"/>
-      <c r="F27" s="471"/>
+      <c r="B27" s="550"/>
+      <c r="C27" s="550"/>
+      <c r="D27" s="550"/>
+      <c r="E27" s="550"/>
+      <c r="F27" s="550"/>
       <c r="G27" s="138"/>
-      <c r="H27" s="574" t="s">
+      <c r="H27" s="541" t="s">
         <v>83</v>
       </c>
-      <c r="I27" s="511"/>
-      <c r="J27" s="511"/>
+      <c r="I27" s="465"/>
+      <c r="J27" s="465"/>
       <c r="K27" s="147"/>
       <c r="L27" s="148"/>
       <c r="M27" s="149"/>
       <c r="N27" s="150"/>
       <c r="O27" s="150"/>
       <c r="P27" s="151"/>
-      <c r="Q27" s="457" t="s">
+      <c r="Q27" s="461" t="s">
         <v>77</v>
       </c>
-      <c r="R27" s="458"/>
-      <c r="S27" s="458"/>
+      <c r="R27" s="462"/>
+      <c r="S27" s="462"/>
       <c r="T27" s="152"/>
       <c r="U27" s="61"/>
       <c r="V27" s="61"/>
-      <c r="W27" s="500" t="s">
+      <c r="W27" s="620" t="s">
         <v>84</v>
       </c>
-      <c r="X27" s="501"/>
-      <c r="Y27" s="502"/>
+      <c r="X27" s="621"/>
+      <c r="Y27" s="622"/>
     </row>
     <row r="28" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="472"/>
-      <c r="C28" s="472"/>
-      <c r="D28" s="472"/>
-      <c r="E28" s="472"/>
-      <c r="F28" s="472"/>
+      <c r="B28" s="551"/>
+      <c r="C28" s="551"/>
+      <c r="D28" s="551"/>
+      <c r="E28" s="551"/>
+      <c r="F28" s="551"/>
       <c r="G28" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="H28" s="624" t="s">
+      <c r="H28" s="549" t="s">
         <v>86</v>
       </c>
-      <c r="I28" s="479"/>
-      <c r="J28" s="479"/>
+      <c r="I28" s="457"/>
+      <c r="J28" s="457"/>
       <c r="K28" s="78" t="s">
         <v>87</v>
       </c>
@@ -5027,19 +5118,19 @@
       <c r="N28" s="77"/>
       <c r="O28" s="77"/>
       <c r="P28" s="132"/>
-      <c r="Q28" s="505" t="s">
+      <c r="Q28" s="612" t="s">
         <v>89</v>
       </c>
-      <c r="R28" s="506"/>
-      <c r="S28" s="506"/>
+      <c r="R28" s="613"/>
+      <c r="S28" s="613"/>
       <c r="T28" s="135"/>
       <c r="U28" s="93"/>
       <c r="V28" s="40"/>
-      <c r="W28" s="550" t="s">
+      <c r="W28" s="626" t="s">
         <v>90</v>
       </c>
-      <c r="X28" s="551"/>
-      <c r="Y28" s="552"/>
+      <c r="X28" s="627"/>
+      <c r="Y28" s="628"/>
     </row>
     <row r="29" spans="1:25" s="10" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="137" t="s">
@@ -5054,23 +5145,23 @@
       <c r="H29" s="154"/>
       <c r="I29" s="111"/>
       <c r="J29" s="155"/>
-      <c r="K29" s="454" t="s">
+      <c r="K29" s="477" t="s">
         <v>76</v>
       </c>
-      <c r="L29" s="455"/>
-      <c r="M29" s="456"/>
+      <c r="L29" s="478"/>
+      <c r="M29" s="488"/>
       <c r="N29" s="54"/>
       <c r="O29" s="54"/>
       <c r="P29" s="55"/>
-      <c r="Q29" s="504"/>
-      <c r="R29" s="491"/>
-      <c r="S29" s="491"/>
-      <c r="T29" s="549"/>
-      <c r="U29" s="455"/>
-      <c r="V29" s="455"/>
-      <c r="W29" s="546"/>
-      <c r="X29" s="547"/>
-      <c r="Y29" s="548"/>
+      <c r="Q29" s="611"/>
+      <c r="R29" s="563"/>
+      <c r="S29" s="563"/>
+      <c r="T29" s="540"/>
+      <c r="U29" s="478"/>
+      <c r="V29" s="478"/>
+      <c r="W29" s="623"/>
+      <c r="X29" s="624"/>
+      <c r="Y29" s="625"/>
     </row>
     <row r="30" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="137" t="s">
@@ -5133,28 +5224,28 @@
       <c r="E31" s="73"/>
       <c r="F31" s="74"/>
       <c r="G31" s="138"/>
-      <c r="H31" s="575"/>
-      <c r="I31" s="458"/>
-      <c r="J31" s="459"/>
-      <c r="K31" s="454" t="s">
+      <c r="H31" s="490"/>
+      <c r="I31" s="462"/>
+      <c r="J31" s="463"/>
+      <c r="K31" s="477" t="s">
         <v>76</v>
       </c>
-      <c r="L31" s="455"/>
-      <c r="M31" s="456"/>
-      <c r="N31" s="457"/>
-      <c r="O31" s="458"/>
-      <c r="P31" s="459"/>
-      <c r="Q31" s="457"/>
-      <c r="R31" s="458"/>
-      <c r="S31" s="458"/>
-      <c r="T31" s="549" t="s">
+      <c r="L31" s="478"/>
+      <c r="M31" s="488"/>
+      <c r="N31" s="461"/>
+      <c r="O31" s="462"/>
+      <c r="P31" s="463"/>
+      <c r="Q31" s="461"/>
+      <c r="R31" s="462"/>
+      <c r="S31" s="462"/>
+      <c r="T31" s="540" t="s">
         <v>92</v>
       </c>
-      <c r="U31" s="455"/>
-      <c r="V31" s="455"/>
-      <c r="W31" s="454"/>
-      <c r="X31" s="455"/>
-      <c r="Y31" s="489"/>
+      <c r="U31" s="478"/>
+      <c r="V31" s="478"/>
+      <c r="W31" s="477"/>
+      <c r="X31" s="478"/>
+      <c r="Y31" s="479"/>
     </row>
     <row r="32" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="137"/>
@@ -5166,14 +5257,14 @@
       <c r="G32" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="H32" s="621"/>
-      <c r="I32" s="622"/>
-      <c r="J32" s="623"/>
-      <c r="K32" s="460" t="s">
+      <c r="H32" s="548"/>
+      <c r="I32" s="497"/>
+      <c r="J32" s="498"/>
+      <c r="K32" s="609" t="s">
         <v>52</v>
       </c>
-      <c r="L32" s="461"/>
-      <c r="M32" s="462"/>
+      <c r="L32" s="535"/>
+      <c r="M32" s="536"/>
       <c r="N32" s="80"/>
       <c r="O32" s="81"/>
       <c r="P32" s="158"/>
@@ -5207,17 +5298,17 @@
       <c r="K33" s="147"/>
       <c r="L33" s="148"/>
       <c r="M33" s="149"/>
-      <c r="N33" s="457"/>
-      <c r="O33" s="458"/>
-      <c r="P33" s="459"/>
+      <c r="N33" s="461"/>
+      <c r="O33" s="462"/>
+      <c r="P33" s="463"/>
       <c r="Q33" s="50"/>
       <c r="R33" s="51"/>
       <c r="S33" s="51"/>
-      <c r="T33" s="549" t="s">
+      <c r="T33" s="540" t="s">
         <v>92</v>
       </c>
-      <c r="U33" s="455"/>
-      <c r="V33" s="455"/>
+      <c r="U33" s="478"/>
+      <c r="V33" s="478"/>
       <c r="W33" s="50"/>
       <c r="X33" s="51"/>
       <c r="Y33" s="159"/>
@@ -5265,19 +5356,19 @@
     </row>
     <row r="35" spans="1:25" s="128" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A35" s="120"/>
-      <c r="B35" s="483">
+      <c r="B35" s="552">
         <v>19</v>
       </c>
-      <c r="C35" s="483">
+      <c r="C35" s="552">
         <v>5</v>
       </c>
-      <c r="D35" s="483">
+      <c r="D35" s="552">
         <v>2</v>
       </c>
-      <c r="E35" s="585">
+      <c r="E35" s="569">
         <v>14</v>
       </c>
-      <c r="F35" s="585">
+      <c r="F35" s="569">
         <v>11</v>
       </c>
       <c r="G35" s="121"/>
@@ -5287,14 +5378,14 @@
       <c r="K35" s="110"/>
       <c r="L35" s="111"/>
       <c r="M35" s="157"/>
-      <c r="N35" s="467" t="s">
+      <c r="N35" s="517" t="s">
         <v>95</v>
       </c>
-      <c r="O35" s="468"/>
-      <c r="P35" s="468"/>
-      <c r="Q35" s="468"/>
-      <c r="R35" s="468"/>
-      <c r="S35" s="468"/>
+      <c r="O35" s="518"/>
+      <c r="P35" s="518"/>
+      <c r="Q35" s="518"/>
+      <c r="R35" s="518"/>
+      <c r="S35" s="518"/>
       <c r="T35" s="126"/>
       <c r="U35" s="123"/>
       <c r="V35" s="176"/>
@@ -5306,11 +5397,11 @@
       <c r="A36" s="178" t="s">
         <v>96</v>
       </c>
-      <c r="B36" s="472"/>
-      <c r="C36" s="472"/>
-      <c r="D36" s="472"/>
-      <c r="E36" s="586"/>
-      <c r="F36" s="586"/>
+      <c r="B36" s="551"/>
+      <c r="C36" s="551"/>
+      <c r="D36" s="551"/>
+      <c r="E36" s="570"/>
+      <c r="F36" s="570"/>
       <c r="G36" s="130" t="s">
         <v>22</v>
       </c>
@@ -5324,8 +5415,8 @@
         <v>42</v>
       </c>
       <c r="O36" s="40"/>
-      <c r="P36" s="479"/>
-      <c r="Q36" s="479"/>
+      <c r="P36" s="457"/>
+      <c r="Q36" s="457"/>
       <c r="R36" s="182" t="s">
         <v>97</v>
       </c>
@@ -5341,52 +5432,52 @@
     </row>
     <row r="37" spans="1:25" s="10" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="137"/>
-      <c r="B37" s="471"/>
-      <c r="C37" s="471">
+      <c r="B37" s="550"/>
+      <c r="C37" s="550">
         <v>19</v>
       </c>
-      <c r="D37" s="471">
+      <c r="D37" s="550">
         <v>16</v>
       </c>
-      <c r="E37" s="471">
+      <c r="E37" s="550">
         <v>28</v>
       </c>
-      <c r="F37" s="471"/>
+      <c r="F37" s="550"/>
       <c r="G37" s="138"/>
-      <c r="H37" s="579" t="s">
+      <c r="H37" s="527" t="s">
         <v>98</v>
       </c>
-      <c r="I37" s="470"/>
-      <c r="J37" s="560"/>
+      <c r="I37" s="494"/>
+      <c r="J37" s="528"/>
       <c r="K37" s="53"/>
       <c r="L37" s="54"/>
       <c r="M37" s="54"/>
-      <c r="N37" s="457" t="s">
+      <c r="N37" s="461" t="s">
         <v>95</v>
       </c>
-      <c r="O37" s="458"/>
-      <c r="P37" s="459"/>
-      <c r="Q37" s="457" t="s">
+      <c r="O37" s="462"/>
+      <c r="P37" s="463"/>
+      <c r="Q37" s="461" t="s">
         <v>99</v>
       </c>
-      <c r="R37" s="458"/>
-      <c r="S37" s="458"/>
-      <c r="T37" s="494"/>
-      <c r="U37" s="495"/>
-      <c r="V37" s="496"/>
-      <c r="W37" s="457"/>
-      <c r="X37" s="458"/>
-      <c r="Y37" s="485"/>
+      <c r="R37" s="462"/>
+      <c r="S37" s="462"/>
+      <c r="T37" s="450"/>
+      <c r="U37" s="451"/>
+      <c r="V37" s="616"/>
+      <c r="W37" s="461"/>
+      <c r="X37" s="462"/>
+      <c r="Y37" s="476"/>
     </row>
     <row r="38" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="472"/>
-      <c r="C38" s="472"/>
-      <c r="D38" s="472"/>
-      <c r="E38" s="472"/>
-      <c r="F38" s="472"/>
+      <c r="B38" s="551"/>
+      <c r="C38" s="551"/>
+      <c r="D38" s="551"/>
+      <c r="E38" s="551"/>
+      <c r="F38" s="551"/>
       <c r="G38" s="130" t="s">
         <v>25</v>
       </c>
@@ -5429,51 +5520,51 @@
     </row>
     <row r="39" spans="1:25" s="10" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="137"/>
-      <c r="B39" s="471"/>
-      <c r="C39" s="471"/>
-      <c r="D39" s="471">
+      <c r="B39" s="550"/>
+      <c r="C39" s="550"/>
+      <c r="D39" s="550">
         <v>30</v>
       </c>
-      <c r="E39" s="471"/>
+      <c r="E39" s="550"/>
       <c r="F39" s="191"/>
       <c r="G39" s="138"/>
       <c r="H39" s="192" t="s">
         <v>103</v>
       </c>
-      <c r="I39" s="616" t="s">
+      <c r="I39" s="542" t="s">
         <v>104</v>
       </c>
-      <c r="J39" s="617"/>
-      <c r="K39" s="457" t="s">
+      <c r="J39" s="543"/>
+      <c r="K39" s="461" t="s">
         <v>48</v>
       </c>
-      <c r="L39" s="458"/>
-      <c r="M39" s="459"/>
-      <c r="N39" s="457" t="s">
+      <c r="L39" s="462"/>
+      <c r="M39" s="463"/>
+      <c r="N39" s="461" t="s">
         <v>39</v>
       </c>
-      <c r="O39" s="458"/>
-      <c r="P39" s="459"/>
-      <c r="Q39" s="457" t="s">
+      <c r="O39" s="462"/>
+      <c r="P39" s="463"/>
+      <c r="Q39" s="461" t="s">
         <v>95</v>
       </c>
-      <c r="R39" s="458"/>
-      <c r="S39" s="458"/>
-      <c r="T39" s="494"/>
-      <c r="U39" s="495"/>
-      <c r="V39" s="496"/>
-      <c r="W39" s="454"/>
-      <c r="X39" s="455"/>
-      <c r="Y39" s="489"/>
+      <c r="R39" s="462"/>
+      <c r="S39" s="462"/>
+      <c r="T39" s="450"/>
+      <c r="U39" s="451"/>
+      <c r="V39" s="616"/>
+      <c r="W39" s="477"/>
+      <c r="X39" s="478"/>
+      <c r="Y39" s="479"/>
     </row>
     <row r="40" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="472"/>
-      <c r="C40" s="472"/>
-      <c r="D40" s="472"/>
-      <c r="E40" s="472"/>
+      <c r="B40" s="551"/>
+      <c r="C40" s="551"/>
+      <c r="D40" s="551"/>
+      <c r="E40" s="551"/>
       <c r="F40" s="38"/>
       <c r="G40" s="130" t="s">
         <v>35</v>
@@ -5524,31 +5615,31 @@
       <c r="H41" s="199" t="s">
         <v>108</v>
       </c>
-      <c r="I41" s="452" t="s">
+      <c r="I41" s="544" t="s">
         <v>109</v>
       </c>
-      <c r="J41" s="618"/>
-      <c r="K41" s="460" t="s">
+      <c r="J41" s="545"/>
+      <c r="K41" s="609" t="s">
         <v>51</v>
       </c>
-      <c r="L41" s="461"/>
-      <c r="M41" s="462"/>
-      <c r="N41" s="457" t="s">
+      <c r="L41" s="535"/>
+      <c r="M41" s="536"/>
+      <c r="N41" s="461" t="s">
         <v>39</v>
       </c>
-      <c r="O41" s="458"/>
-      <c r="P41" s="459"/>
-      <c r="Q41" s="481"/>
-      <c r="R41" s="482"/>
-      <c r="S41" s="482"/>
+      <c r="O41" s="462"/>
+      <c r="P41" s="463"/>
+      <c r="Q41" s="631"/>
+      <c r="R41" s="632"/>
+      <c r="S41" s="632"/>
       <c r="T41" s="200"/>
       <c r="U41" s="201"/>
       <c r="V41" s="202"/>
-      <c r="W41" s="484" t="s">
+      <c r="W41" s="483" t="s">
         <v>110</v>
       </c>
-      <c r="X41" s="458"/>
-      <c r="Y41" s="485"/>
+      <c r="X41" s="462"/>
+      <c r="Y41" s="476"/>
     </row>
     <row r="42" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="137" t="s">
@@ -5611,25 +5702,25 @@
       <c r="E43" s="73"/>
       <c r="F43" s="74"/>
       <c r="G43" s="138"/>
-      <c r="H43" s="593" t="s">
+      <c r="H43" s="524" t="s">
         <v>114</v>
       </c>
-      <c r="I43" s="594"/>
-      <c r="J43" s="595"/>
-      <c r="K43" s="457" t="s">
+      <c r="I43" s="525"/>
+      <c r="J43" s="526"/>
+      <c r="K43" s="461" t="s">
         <v>48</v>
       </c>
-      <c r="L43" s="458"/>
-      <c r="M43" s="459"/>
+      <c r="L43" s="462"/>
+      <c r="M43" s="463"/>
       <c r="N43" s="53"/>
       <c r="O43" s="54"/>
       <c r="P43" s="55"/>
       <c r="Q43" s="50"/>
       <c r="R43" s="208"/>
       <c r="S43" s="208"/>
-      <c r="T43" s="571"/>
-      <c r="U43" s="572"/>
-      <c r="V43" s="573"/>
+      <c r="T43" s="514"/>
+      <c r="U43" s="515"/>
+      <c r="V43" s="516"/>
       <c r="W43" s="209" t="s">
         <v>110</v>
       </c>
@@ -5669,9 +5760,9 @@
       <c r="T44" s="204"/>
       <c r="U44" s="213"/>
       <c r="V44" s="214"/>
-      <c r="W44" s="464"/>
-      <c r="X44" s="465"/>
-      <c r="Y44" s="513"/>
+      <c r="W44" s="458"/>
+      <c r="X44" s="459"/>
+      <c r="Y44" s="460"/>
     </row>
     <row r="45" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="137"/>
@@ -5684,23 +5775,23 @@
       <c r="H45" s="215"/>
       <c r="I45" s="109"/>
       <c r="J45" s="112"/>
-      <c r="K45" s="460" t="s">
+      <c r="K45" s="609" t="s">
         <v>52</v>
       </c>
-      <c r="L45" s="461"/>
-      <c r="M45" s="462"/>
+      <c r="L45" s="535"/>
+      <c r="M45" s="536"/>
       <c r="N45" s="100"/>
       <c r="O45" s="87"/>
       <c r="P45" s="155"/>
       <c r="Q45" s="100"/>
       <c r="R45" s="87"/>
       <c r="S45" s="111"/>
-      <c r="T45" s="486"/>
-      <c r="U45" s="487"/>
-      <c r="V45" s="488"/>
-      <c r="W45" s="464"/>
-      <c r="X45" s="465"/>
-      <c r="Y45" s="513"/>
+      <c r="T45" s="511"/>
+      <c r="U45" s="512"/>
+      <c r="V45" s="513"/>
+      <c r="W45" s="458"/>
+      <c r="X45" s="459"/>
+      <c r="Y45" s="460"/>
     </row>
     <row r="46" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="160"/>
@@ -5745,28 +5836,28 @@
     </row>
     <row r="47" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A47" s="120"/>
-      <c r="B47" s="483">
+      <c r="B47" s="552">
         <v>20</v>
       </c>
-      <c r="C47" s="483">
+      <c r="C47" s="552">
         <v>6</v>
       </c>
-      <c r="D47" s="483">
+      <c r="D47" s="552">
         <v>3</v>
       </c>
-      <c r="E47" s="473">
+      <c r="E47" s="571">
         <v>1</v>
       </c>
-      <c r="F47" s="473">
+      <c r="F47" s="571">
         <v>12</v>
       </c>
       <c r="G47" s="223"/>
-      <c r="H47" s="590"/>
-      <c r="I47" s="591"/>
-      <c r="J47" s="592"/>
-      <c r="K47" s="467"/>
-      <c r="L47" s="468"/>
-      <c r="M47" s="606"/>
+      <c r="H47" s="573"/>
+      <c r="I47" s="574"/>
+      <c r="J47" s="575"/>
+      <c r="K47" s="517"/>
+      <c r="L47" s="518"/>
+      <c r="M47" s="519"/>
       <c r="N47" s="110"/>
       <c r="O47" s="111"/>
       <c r="P47" s="155"/>
@@ -5782,11 +5873,11 @@
     </row>
     <row r="48" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="178"/>
-      <c r="B48" s="472"/>
-      <c r="C48" s="472"/>
-      <c r="D48" s="472"/>
-      <c r="E48" s="474"/>
-      <c r="F48" s="474"/>
+      <c r="B48" s="551"/>
+      <c r="C48" s="551"/>
+      <c r="D48" s="551"/>
+      <c r="E48" s="572"/>
+      <c r="F48" s="572"/>
       <c r="G48" s="226" t="s">
         <v>22</v>
       </c>
@@ -5813,37 +5904,37 @@
       <c r="A49" s="178" t="s">
         <v>116</v>
       </c>
-      <c r="B49" s="471"/>
-      <c r="C49" s="471">
+      <c r="B49" s="550"/>
+      <c r="C49" s="550">
         <v>20</v>
       </c>
-      <c r="D49" s="471">
+      <c r="D49" s="550">
         <v>17</v>
       </c>
-      <c r="E49" s="471">
+      <c r="E49" s="550">
         <v>15</v>
       </c>
       <c r="F49" s="49"/>
       <c r="G49" s="230"/>
-      <c r="H49" s="579" t="s">
+      <c r="H49" s="527" t="s">
         <v>117</v>
       </c>
-      <c r="I49" s="470"/>
-      <c r="J49" s="560"/>
-      <c r="K49" s="457"/>
-      <c r="L49" s="458"/>
-      <c r="M49" s="459"/>
-      <c r="N49" s="454"/>
-      <c r="O49" s="455"/>
-      <c r="P49" s="456"/>
-      <c r="Q49" s="454" t="s">
+      <c r="I49" s="494"/>
+      <c r="J49" s="528"/>
+      <c r="K49" s="461"/>
+      <c r="L49" s="462"/>
+      <c r="M49" s="463"/>
+      <c r="N49" s="477"/>
+      <c r="O49" s="478"/>
+      <c r="P49" s="488"/>
+      <c r="Q49" s="477" t="s">
         <v>118</v>
       </c>
-      <c r="R49" s="455"/>
-      <c r="S49" s="455"/>
-      <c r="T49" s="494"/>
-      <c r="U49" s="495"/>
-      <c r="V49" s="495"/>
+      <c r="R49" s="478"/>
+      <c r="S49" s="478"/>
+      <c r="T49" s="450"/>
+      <c r="U49" s="451"/>
+      <c r="V49" s="451"/>
       <c r="W49" s="231"/>
       <c r="X49" s="232"/>
       <c r="Y49" s="233"/>
@@ -5852,10 +5943,10 @@
       <c r="A50" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="472"/>
-      <c r="C50" s="472"/>
-      <c r="D50" s="472"/>
-      <c r="E50" s="472"/>
+      <c r="B50" s="551"/>
+      <c r="C50" s="551"/>
+      <c r="D50" s="551"/>
+      <c r="E50" s="551"/>
       <c r="F50" s="38"/>
       <c r="G50" s="226" t="s">
         <v>25</v>
@@ -5863,10 +5954,10 @@
       <c r="H50" s="234" t="s">
         <v>57</v>
       </c>
-      <c r="I50" s="461" t="s">
+      <c r="I50" s="535" t="s">
         <v>119</v>
       </c>
-      <c r="J50" s="462"/>
+      <c r="J50" s="536"/>
       <c r="K50" s="68"/>
       <c r="L50" s="93"/>
       <c r="M50" s="132"/>
@@ -5893,52 +5984,52 @@
       <c r="A51" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="471"/>
-      <c r="C51" s="471"/>
-      <c r="D51" s="471"/>
-      <c r="E51" s="471">
+      <c r="B51" s="550"/>
+      <c r="C51" s="550"/>
+      <c r="D51" s="550"/>
+      <c r="E51" s="550">
         <v>29</v>
       </c>
-      <c r="F51" s="471"/>
+      <c r="F51" s="550"/>
       <c r="G51" s="230"/>
       <c r="H51" s="192" t="s">
         <v>122</v>
       </c>
-      <c r="I51" s="469" t="s">
+      <c r="I51" s="493" t="s">
         <v>37</v>
       </c>
-      <c r="J51" s="560"/>
-      <c r="K51" s="457" t="s">
+      <c r="J51" s="528"/>
+      <c r="K51" s="461" t="s">
         <v>123</v>
       </c>
-      <c r="L51" s="458"/>
-      <c r="M51" s="459"/>
-      <c r="N51" s="454" t="s">
+      <c r="L51" s="462"/>
+      <c r="M51" s="463"/>
+      <c r="N51" s="477" t="s">
         <v>118</v>
       </c>
-      <c r="O51" s="455"/>
-      <c r="P51" s="456"/>
-      <c r="Q51" s="457" t="s">
+      <c r="O51" s="478"/>
+      <c r="P51" s="488"/>
+      <c r="Q51" s="461" t="s">
         <v>124</v>
       </c>
-      <c r="R51" s="458"/>
-      <c r="S51" s="458"/>
-      <c r="T51" s="641"/>
-      <c r="U51" s="642"/>
-      <c r="V51" s="643"/>
-      <c r="W51" s="484"/>
-      <c r="X51" s="458"/>
-      <c r="Y51" s="485"/>
+      <c r="R51" s="462"/>
+      <c r="S51" s="462"/>
+      <c r="T51" s="452"/>
+      <c r="U51" s="453"/>
+      <c r="V51" s="454"/>
+      <c r="W51" s="483"/>
+      <c r="X51" s="462"/>
+      <c r="Y51" s="476"/>
     </row>
     <row r="52" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="B52" s="472"/>
-      <c r="C52" s="472"/>
-      <c r="D52" s="472"/>
-      <c r="E52" s="472"/>
-      <c r="F52" s="472"/>
+      <c r="B52" s="551"/>
+      <c r="C52" s="551"/>
+      <c r="D52" s="551"/>
+      <c r="E52" s="551"/>
+      <c r="F52" s="551"/>
       <c r="G52" s="239" t="s">
         <v>35</v>
       </c>
@@ -5985,60 +6076,60 @@
       <c r="A53" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="471"/>
-      <c r="C53" s="471"/>
-      <c r="D53" s="471"/>
-      <c r="E53" s="471"/>
-      <c r="F53" s="471"/>
+      <c r="B53" s="550"/>
+      <c r="C53" s="550"/>
+      <c r="D53" s="550"/>
+      <c r="E53" s="550"/>
+      <c r="F53" s="550"/>
       <c r="G53" s="243"/>
       <c r="H53" s="244" t="s">
         <v>128</v>
       </c>
-      <c r="I53" s="580" t="s">
+      <c r="I53" s="499" t="s">
         <v>129</v>
       </c>
-      <c r="J53" s="582"/>
-      <c r="K53" s="454" t="s">
+      <c r="J53" s="500"/>
+      <c r="K53" s="477" t="s">
         <v>130</v>
       </c>
-      <c r="L53" s="455"/>
-      <c r="M53" s="456"/>
-      <c r="N53" s="454" t="s">
+      <c r="L53" s="478"/>
+      <c r="M53" s="488"/>
+      <c r="N53" s="477" t="s">
         <v>118</v>
       </c>
-      <c r="O53" s="455"/>
-      <c r="P53" s="456"/>
-      <c r="Q53" s="457" t="s">
+      <c r="O53" s="478"/>
+      <c r="P53" s="488"/>
+      <c r="Q53" s="461" t="s">
         <v>124</v>
       </c>
-      <c r="R53" s="458"/>
-      <c r="S53" s="458"/>
-      <c r="T53" s="641"/>
-      <c r="U53" s="642"/>
-      <c r="V53" s="643"/>
-      <c r="W53" s="484"/>
-      <c r="X53" s="458"/>
-      <c r="Y53" s="485"/>
+      <c r="R53" s="462"/>
+      <c r="S53" s="462"/>
+      <c r="T53" s="452"/>
+      <c r="U53" s="453"/>
+      <c r="V53" s="454"/>
+      <c r="W53" s="483"/>
+      <c r="X53" s="462"/>
+      <c r="Y53" s="476"/>
     </row>
     <row r="54" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="B54" s="472"/>
-      <c r="C54" s="472"/>
-      <c r="D54" s="472"/>
-      <c r="E54" s="472"/>
-      <c r="F54" s="472"/>
+      <c r="B54" s="551"/>
+      <c r="C54" s="551"/>
+      <c r="D54" s="551"/>
+      <c r="E54" s="551"/>
+      <c r="F54" s="551"/>
       <c r="G54" s="239" t="s">
         <v>47</v>
       </c>
       <c r="H54" s="245" t="s">
         <v>131</v>
       </c>
-      <c r="I54" s="619" t="s">
+      <c r="I54" s="546" t="s">
         <v>132</v>
       </c>
-      <c r="J54" s="620"/>
+      <c r="J54" s="547"/>
       <c r="K54" s="80" t="s">
         <v>133</v>
       </c>
@@ -6083,27 +6174,27 @@
       <c r="E55" s="73"/>
       <c r="F55" s="73"/>
       <c r="G55" s="230"/>
-      <c r="H55" s="575" t="s">
+      <c r="H55" s="490" t="s">
         <v>37</v>
       </c>
-      <c r="I55" s="458"/>
-      <c r="J55" s="459"/>
-      <c r="K55" s="454" t="s">
+      <c r="I55" s="462"/>
+      <c r="J55" s="463"/>
+      <c r="K55" s="477" t="s">
         <v>130</v>
       </c>
-      <c r="L55" s="455"/>
-      <c r="M55" s="456"/>
-      <c r="N55" s="454" t="s">
+      <c r="L55" s="478"/>
+      <c r="M55" s="488"/>
+      <c r="N55" s="477" t="s">
         <v>135</v>
       </c>
-      <c r="O55" s="455"/>
-      <c r="P55" s="456"/>
+      <c r="O55" s="478"/>
+      <c r="P55" s="488"/>
       <c r="Q55" s="56"/>
       <c r="R55" s="57"/>
       <c r="S55" s="57"/>
-      <c r="T55" s="486"/>
-      <c r="U55" s="487"/>
-      <c r="V55" s="488"/>
+      <c r="T55" s="511"/>
+      <c r="U55" s="512"/>
+      <c r="V55" s="513"/>
       <c r="W55" s="209"/>
       <c r="X55" s="57"/>
       <c r="Y55" s="58"/>
@@ -6151,9 +6242,9 @@
       <c r="T56" s="204"/>
       <c r="U56" s="205"/>
       <c r="V56" s="247"/>
-      <c r="W56" s="464"/>
-      <c r="X56" s="465"/>
-      <c r="Y56" s="513"/>
+      <c r="W56" s="458"/>
+      <c r="X56" s="459"/>
+      <c r="Y56" s="460"/>
     </row>
     <row r="57" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="137"/>
@@ -6166,23 +6257,23 @@
       <c r="H57" s="215"/>
       <c r="I57" s="109"/>
       <c r="J57" s="102"/>
-      <c r="K57" s="457" t="s">
+      <c r="K57" s="461" t="s">
         <v>138</v>
       </c>
-      <c r="L57" s="458"/>
-      <c r="M57" s="459"/>
-      <c r="N57" s="457"/>
-      <c r="O57" s="458"/>
-      <c r="P57" s="459"/>
+      <c r="L57" s="462"/>
+      <c r="M57" s="463"/>
+      <c r="N57" s="461"/>
+      <c r="O57" s="462"/>
+      <c r="P57" s="463"/>
       <c r="Q57" s="197"/>
       <c r="R57" s="248"/>
       <c r="S57" s="249"/>
-      <c r="T57" s="486"/>
-      <c r="U57" s="487"/>
-      <c r="V57" s="488"/>
-      <c r="W57" s="464"/>
-      <c r="X57" s="465"/>
-      <c r="Y57" s="513"/>
+      <c r="T57" s="511"/>
+      <c r="U57" s="512"/>
+      <c r="V57" s="513"/>
+      <c r="W57" s="458"/>
+      <c r="X57" s="459"/>
+      <c r="Y57" s="460"/>
     </row>
     <row r="58" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="160"/>
@@ -6221,25 +6312,25 @@
     </row>
     <row r="59" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A59" s="120"/>
-      <c r="B59" s="483">
+      <c r="B59" s="552">
         <v>21</v>
       </c>
-      <c r="C59" s="585">
+      <c r="C59" s="569">
         <v>7</v>
       </c>
-      <c r="D59" s="483">
+      <c r="D59" s="552">
         <v>4</v>
       </c>
-      <c r="E59" s="473">
+      <c r="E59" s="571">
         <v>2</v>
       </c>
-      <c r="F59" s="473">
+      <c r="F59" s="571">
         <v>13</v>
       </c>
       <c r="G59" s="121"/>
-      <c r="H59" s="587"/>
-      <c r="I59" s="588"/>
-      <c r="J59" s="589"/>
+      <c r="H59" s="638"/>
+      <c r="I59" s="639"/>
+      <c r="J59" s="640"/>
       <c r="K59" s="254"/>
       <c r="L59" s="255"/>
       <c r="M59" s="255"/>
@@ -6249,20 +6340,20 @@
       <c r="Q59" s="125"/>
       <c r="R59" s="111"/>
       <c r="S59" s="109"/>
-      <c r="T59" s="503"/>
-      <c r="U59" s="468"/>
-      <c r="V59" s="468"/>
+      <c r="T59" s="610"/>
+      <c r="U59" s="518"/>
+      <c r="V59" s="518"/>
       <c r="W59" s="125"/>
       <c r="X59" s="111"/>
       <c r="Y59" s="256"/>
     </row>
     <row r="60" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="178"/>
-      <c r="B60" s="472"/>
-      <c r="C60" s="586"/>
-      <c r="D60" s="472"/>
-      <c r="E60" s="474"/>
-      <c r="F60" s="474"/>
+      <c r="B60" s="551"/>
+      <c r="C60" s="570"/>
+      <c r="D60" s="551"/>
+      <c r="E60" s="572"/>
+      <c r="F60" s="572"/>
       <c r="G60" s="130" t="s">
         <v>22</v>
       </c>
@@ -6289,17 +6380,17 @@
       <c r="A61" s="178" t="s">
         <v>21</v>
       </c>
-      <c r="B61" s="471"/>
-      <c r="C61" s="471">
+      <c r="B61" s="550"/>
+      <c r="C61" s="550">
         <v>21</v>
       </c>
-      <c r="D61" s="471">
+      <c r="D61" s="550">
         <v>18</v>
       </c>
-      <c r="E61" s="471">
+      <c r="E61" s="550">
         <v>16</v>
       </c>
-      <c r="F61" s="471"/>
+      <c r="F61" s="550"/>
       <c r="G61" s="138"/>
       <c r="H61" s="139"/>
       <c r="I61" s="140"/>
@@ -6307,15 +6398,15 @@
       <c r="K61" s="56"/>
       <c r="L61" s="57"/>
       <c r="M61" s="57"/>
-      <c r="N61" s="457"/>
-      <c r="O61" s="458"/>
-      <c r="P61" s="458"/>
-      <c r="Q61" s="458"/>
-      <c r="R61" s="458"/>
-      <c r="S61" s="458"/>
-      <c r="T61" s="490"/>
-      <c r="U61" s="491"/>
-      <c r="V61" s="491"/>
+      <c r="N61" s="461"/>
+      <c r="O61" s="462"/>
+      <c r="P61" s="462"/>
+      <c r="Q61" s="462"/>
+      <c r="R61" s="462"/>
+      <c r="S61" s="462"/>
+      <c r="T61" s="597"/>
+      <c r="U61" s="563"/>
+      <c r="V61" s="563"/>
       <c r="W61" s="56"/>
       <c r="X61" s="57"/>
       <c r="Y61" s="262"/>
@@ -6324,29 +6415,29 @@
       <c r="A62" s="137" t="s">
         <v>140</v>
       </c>
-      <c r="B62" s="472"/>
-      <c r="C62" s="472"/>
-      <c r="D62" s="472"/>
-      <c r="E62" s="472"/>
-      <c r="F62" s="472"/>
+      <c r="B62" s="551"/>
+      <c r="C62" s="551"/>
+      <c r="D62" s="551"/>
+      <c r="E62" s="551"/>
+      <c r="F62" s="551"/>
       <c r="G62" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="H62" s="574"/>
-      <c r="I62" s="511"/>
-      <c r="J62" s="615"/>
+      <c r="H62" s="541"/>
+      <c r="I62" s="465"/>
+      <c r="J62" s="466"/>
       <c r="K62" s="88"/>
       <c r="L62" s="109"/>
       <c r="M62" s="109"/>
       <c r="N62" s="68"/>
       <c r="O62" s="83"/>
-      <c r="P62" s="479"/>
-      <c r="Q62" s="479"/>
+      <c r="P62" s="457"/>
+      <c r="Q62" s="457"/>
       <c r="R62" s="83"/>
       <c r="S62" s="83"/>
       <c r="T62" s="69"/>
-      <c r="U62" s="479"/>
-      <c r="V62" s="480"/>
+      <c r="U62" s="457"/>
+      <c r="V62" s="501"/>
       <c r="W62" s="99"/>
       <c r="X62" s="83"/>
       <c r="Y62" s="107"/>
@@ -6355,13 +6446,13 @@
       <c r="A63" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="B63" s="471"/>
-      <c r="C63" s="471"/>
-      <c r="D63" s="471"/>
-      <c r="E63" s="471">
+      <c r="B63" s="550"/>
+      <c r="C63" s="550"/>
+      <c r="D63" s="550"/>
+      <c r="E63" s="550">
         <v>30</v>
       </c>
-      <c r="F63" s="471"/>
+      <c r="F63" s="550"/>
       <c r="G63" s="138"/>
       <c r="H63" s="633"/>
       <c r="I63" s="634"/>
@@ -6371,17 +6462,17 @@
       </c>
       <c r="L63" s="140"/>
       <c r="M63" s="141"/>
-      <c r="N63" s="457" t="s">
+      <c r="N63" s="461" t="s">
         <v>141</v>
       </c>
-      <c r="O63" s="458"/>
-      <c r="P63" s="458"/>
-      <c r="Q63" s="458"/>
-      <c r="R63" s="458"/>
-      <c r="S63" s="458"/>
-      <c r="T63" s="490"/>
-      <c r="U63" s="491"/>
-      <c r="V63" s="491"/>
+      <c r="O63" s="462"/>
+      <c r="P63" s="462"/>
+      <c r="Q63" s="462"/>
+      <c r="R63" s="462"/>
+      <c r="S63" s="462"/>
+      <c r="T63" s="597"/>
+      <c r="U63" s="563"/>
+      <c r="V63" s="563"/>
       <c r="W63" s="156"/>
       <c r="X63" s="157"/>
       <c r="Y63" s="264"/>
@@ -6390,26 +6481,26 @@
       <c r="A64" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="B64" s="472"/>
-      <c r="C64" s="472"/>
-      <c r="D64" s="472"/>
-      <c r="E64" s="472"/>
-      <c r="F64" s="472"/>
+      <c r="B64" s="551"/>
+      <c r="C64" s="551"/>
+      <c r="D64" s="551"/>
+      <c r="E64" s="551"/>
+      <c r="F64" s="551"/>
       <c r="G64" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="H64" s="624"/>
-      <c r="I64" s="479"/>
-      <c r="J64" s="480"/>
-      <c r="K64" s="510"/>
-      <c r="L64" s="511"/>
-      <c r="M64" s="615"/>
+      <c r="H64" s="549"/>
+      <c r="I64" s="457"/>
+      <c r="J64" s="501"/>
+      <c r="K64" s="464"/>
+      <c r="L64" s="465"/>
+      <c r="M64" s="466"/>
       <c r="N64" s="68" t="s">
         <v>101</v>
       </c>
       <c r="O64" s="83"/>
-      <c r="P64" s="479"/>
-      <c r="Q64" s="479"/>
+      <c r="P64" s="457"/>
+      <c r="Q64" s="457"/>
       <c r="R64" s="83" t="s">
         <v>43</v>
       </c>
@@ -6417,8 +6508,8 @@
         <v>31</v>
       </c>
       <c r="T64" s="82"/>
-      <c r="U64" s="465"/>
-      <c r="V64" s="466"/>
+      <c r="U64" s="459"/>
+      <c r="V64" s="598"/>
       <c r="W64" s="68"/>
       <c r="X64" s="40"/>
       <c r="Y64" s="72"/>
@@ -6434,29 +6525,29 @@
       <c r="F65" s="74"/>
       <c r="G65" s="138"/>
       <c r="H65" s="637"/>
-      <c r="I65" s="565"/>
-      <c r="J65" s="565"/>
-      <c r="K65" s="510" t="s">
+      <c r="I65" s="587"/>
+      <c r="J65" s="587"/>
+      <c r="K65" s="464" t="s">
         <v>142</v>
       </c>
-      <c r="L65" s="511"/>
-      <c r="M65" s="615"/>
-      <c r="N65" s="457" t="s">
+      <c r="L65" s="465"/>
+      <c r="M65" s="466"/>
+      <c r="N65" s="461" t="s">
         <v>143</v>
       </c>
-      <c r="O65" s="458"/>
-      <c r="P65" s="459"/>
-      <c r="Q65" s="457" t="s">
+      <c r="O65" s="462"/>
+      <c r="P65" s="463"/>
+      <c r="Q65" s="461" t="s">
         <v>141</v>
       </c>
-      <c r="R65" s="458"/>
-      <c r="S65" s="458"/>
-      <c r="T65" s="512"/>
-      <c r="U65" s="458"/>
-      <c r="V65" s="459"/>
-      <c r="W65" s="457"/>
-      <c r="X65" s="458"/>
-      <c r="Y65" s="485"/>
+      <c r="R65" s="462"/>
+      <c r="S65" s="462"/>
+      <c r="T65" s="577"/>
+      <c r="U65" s="462"/>
+      <c r="V65" s="463"/>
+      <c r="W65" s="461"/>
+      <c r="X65" s="462"/>
+      <c r="Y65" s="476"/>
     </row>
     <row r="66" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="137" t="s">
@@ -6471,13 +6562,13 @@
         <v>47</v>
       </c>
       <c r="H66" s="636"/>
-      <c r="I66" s="567"/>
-      <c r="J66" s="567"/>
-      <c r="K66" s="478" t="s">
+      <c r="I66" s="589"/>
+      <c r="J66" s="589"/>
+      <c r="K66" s="495" t="s">
         <v>145</v>
       </c>
-      <c r="L66" s="479"/>
-      <c r="M66" s="480"/>
+      <c r="L66" s="457"/>
+      <c r="M66" s="501"/>
       <c r="N66" s="80" t="s">
         <v>146</v>
       </c>
@@ -6499,8 +6590,8 @@
       <c r="T66" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="U66" s="479"/>
-      <c r="V66" s="480"/>
+      <c r="U66" s="457"/>
+      <c r="V66" s="501"/>
       <c r="W66" s="68"/>
       <c r="X66" s="93"/>
       <c r="Y66" s="94"/>
@@ -6518,27 +6609,27 @@
       <c r="H67" s="266"/>
       <c r="I67" s="267"/>
       <c r="J67" s="268"/>
-      <c r="K67" s="457"/>
-      <c r="L67" s="458"/>
-      <c r="M67" s="459"/>
-      <c r="N67" s="457" t="s">
+      <c r="K67" s="461"/>
+      <c r="L67" s="462"/>
+      <c r="M67" s="463"/>
+      <c r="N67" s="461" t="s">
         <v>141</v>
       </c>
-      <c r="O67" s="458"/>
-      <c r="P67" s="459"/>
-      <c r="Q67" s="457" t="s">
+      <c r="O67" s="462"/>
+      <c r="P67" s="463"/>
+      <c r="Q67" s="461" t="s">
         <v>143</v>
       </c>
-      <c r="R67" s="458"/>
-      <c r="S67" s="458"/>
-      <c r="T67" s="536" t="s">
+      <c r="R67" s="462"/>
+      <c r="S67" s="462"/>
+      <c r="T67" s="455" t="s">
         <v>147</v>
       </c>
-      <c r="U67" s="537"/>
-      <c r="V67" s="537"/>
-      <c r="W67" s="457"/>
-      <c r="X67" s="458"/>
-      <c r="Y67" s="485"/>
+      <c r="U67" s="456"/>
+      <c r="V67" s="456"/>
+      <c r="W67" s="461"/>
+      <c r="X67" s="462"/>
+      <c r="Y67" s="476"/>
     </row>
     <row r="68" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="137"/>
@@ -6601,19 +6692,19 @@
       <c r="K69" s="53"/>
       <c r="L69" s="54"/>
       <c r="M69" s="54"/>
-      <c r="N69" s="457" t="s">
+      <c r="N69" s="461" t="s">
         <v>149</v>
       </c>
-      <c r="O69" s="458"/>
-      <c r="P69" s="458"/>
-      <c r="Q69" s="458"/>
-      <c r="R69" s="458"/>
-      <c r="S69" s="458"/>
-      <c r="T69" s="536" t="s">
+      <c r="O69" s="462"/>
+      <c r="P69" s="462"/>
+      <c r="Q69" s="462"/>
+      <c r="R69" s="462"/>
+      <c r="S69" s="462"/>
+      <c r="T69" s="455" t="s">
         <v>150</v>
       </c>
-      <c r="U69" s="537"/>
-      <c r="V69" s="538"/>
+      <c r="U69" s="456"/>
+      <c r="V69" s="602"/>
       <c r="W69" s="50"/>
       <c r="X69" s="51"/>
       <c r="Y69" s="159"/>
@@ -6661,25 +6752,25 @@
     </row>
     <row r="71" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A71" s="120"/>
-      <c r="B71" s="585">
+      <c r="B71" s="569">
         <v>22</v>
       </c>
-      <c r="C71" s="473">
+      <c r="C71" s="571">
         <v>8</v>
       </c>
-      <c r="D71" s="483">
+      <c r="D71" s="552">
         <v>5</v>
       </c>
-      <c r="E71" s="473">
+      <c r="E71" s="571">
         <v>3</v>
       </c>
-      <c r="F71" s="473">
+      <c r="F71" s="571">
         <v>14</v>
       </c>
       <c r="G71" s="121"/>
       <c r="H71" s="578"/>
-      <c r="I71" s="562"/>
-      <c r="J71" s="560"/>
+      <c r="I71" s="530"/>
+      <c r="J71" s="528"/>
       <c r="K71" s="280"/>
       <c r="L71" s="281"/>
       <c r="M71" s="281"/>
@@ -6689,20 +6780,20 @@
       <c r="Q71" s="125"/>
       <c r="R71" s="123"/>
       <c r="S71" s="123"/>
-      <c r="T71" s="533"/>
-      <c r="U71" s="534"/>
-      <c r="V71" s="535"/>
-      <c r="W71" s="457"/>
-      <c r="X71" s="458"/>
-      <c r="Y71" s="485"/>
+      <c r="T71" s="599"/>
+      <c r="U71" s="600"/>
+      <c r="V71" s="601"/>
+      <c r="W71" s="461"/>
+      <c r="X71" s="462"/>
+      <c r="Y71" s="476"/>
     </row>
     <row r="72" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="178"/>
-      <c r="B72" s="586"/>
-      <c r="C72" s="474"/>
-      <c r="D72" s="472"/>
-      <c r="E72" s="474"/>
-      <c r="F72" s="474"/>
+      <c r="B72" s="570"/>
+      <c r="C72" s="572"/>
+      <c r="D72" s="551"/>
+      <c r="E72" s="572"/>
+      <c r="F72" s="572"/>
       <c r="G72" s="130" t="s">
         <v>22</v>
       </c>
@@ -6729,48 +6820,48 @@
       <c r="A73" s="178" t="s">
         <v>96</v>
       </c>
-      <c r="B73" s="471"/>
-      <c r="C73" s="471">
+      <c r="B73" s="550"/>
+      <c r="C73" s="550">
         <v>22</v>
       </c>
-      <c r="D73" s="471">
+      <c r="D73" s="550">
         <v>19</v>
       </c>
-      <c r="E73" s="471">
+      <c r="E73" s="550">
         <v>17</v>
       </c>
-      <c r="F73" s="471"/>
+      <c r="F73" s="550"/>
       <c r="G73" s="138"/>
       <c r="H73" s="578"/>
-      <c r="I73" s="562"/>
-      <c r="J73" s="560"/>
-      <c r="K73" s="457"/>
-      <c r="L73" s="458"/>
-      <c r="M73" s="458"/>
+      <c r="I73" s="530"/>
+      <c r="J73" s="528"/>
+      <c r="K73" s="461"/>
+      <c r="L73" s="462"/>
+      <c r="M73" s="462"/>
       <c r="N73" s="63"/>
       <c r="O73" s="54"/>
       <c r="P73" s="55"/>
       <c r="Q73" s="63"/>
       <c r="R73" s="54"/>
       <c r="S73" s="54"/>
-      <c r="T73" s="536" t="s">
+      <c r="T73" s="455" t="s">
         <v>151</v>
       </c>
-      <c r="U73" s="537"/>
-      <c r="V73" s="537"/>
-      <c r="W73" s="454"/>
-      <c r="X73" s="455"/>
-      <c r="Y73" s="489"/>
+      <c r="U73" s="456"/>
+      <c r="V73" s="456"/>
+      <c r="W73" s="477"/>
+      <c r="X73" s="478"/>
+      <c r="Y73" s="479"/>
     </row>
     <row r="74" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="B74" s="472"/>
-      <c r="C74" s="472"/>
-      <c r="D74" s="472"/>
-      <c r="E74" s="472"/>
-      <c r="F74" s="472"/>
+      <c r="B74" s="551"/>
+      <c r="C74" s="551"/>
+      <c r="D74" s="551"/>
+      <c r="E74" s="551"/>
+      <c r="F74" s="551"/>
       <c r="G74" s="130" t="s">
         <v>25</v>
       </c>
@@ -6797,29 +6888,29 @@
       <c r="A75" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="B75" s="471"/>
-      <c r="C75" s="471"/>
-      <c r="D75" s="471"/>
-      <c r="E75" s="471">
+      <c r="B75" s="550"/>
+      <c r="C75" s="550"/>
+      <c r="D75" s="550"/>
+      <c r="E75" s="550">
         <v>31</v>
       </c>
-      <c r="F75" s="471"/>
+      <c r="F75" s="550"/>
       <c r="G75" s="138"/>
-      <c r="H75" s="579"/>
-      <c r="I75" s="470"/>
-      <c r="J75" s="560"/>
-      <c r="K75" s="457"/>
-      <c r="L75" s="458"/>
-      <c r="M75" s="458"/>
+      <c r="H75" s="527"/>
+      <c r="I75" s="494"/>
+      <c r="J75" s="528"/>
+      <c r="K75" s="461"/>
+      <c r="L75" s="462"/>
+      <c r="M75" s="462"/>
       <c r="N75" s="56"/>
       <c r="O75" s="51"/>
       <c r="P75" s="52"/>
       <c r="Q75" s="56"/>
       <c r="R75" s="51"/>
       <c r="S75" s="51"/>
-      <c r="T75" s="612"/>
-      <c r="U75" s="613"/>
-      <c r="V75" s="614"/>
+      <c r="T75" s="484"/>
+      <c r="U75" s="485"/>
+      <c r="V75" s="486"/>
       <c r="W75" s="286"/>
       <c r="X75" s="248"/>
       <c r="Y75" s="287"/>
@@ -6828,11 +6919,11 @@
       <c r="A76" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="B76" s="472"/>
-      <c r="C76" s="472"/>
-      <c r="D76" s="472"/>
-      <c r="E76" s="472"/>
-      <c r="F76" s="472"/>
+      <c r="B76" s="551"/>
+      <c r="C76" s="551"/>
+      <c r="D76" s="551"/>
+      <c r="E76" s="551"/>
+      <c r="F76" s="551"/>
       <c r="G76" s="130" t="s">
         <v>35</v>
       </c>
@@ -6883,9 +6974,9 @@
       <c r="Q77" s="56"/>
       <c r="R77" s="57"/>
       <c r="S77" s="57"/>
-      <c r="T77" s="486"/>
-      <c r="U77" s="487"/>
-      <c r="V77" s="488"/>
+      <c r="T77" s="511"/>
+      <c r="U77" s="512"/>
+      <c r="V77" s="513"/>
       <c r="W77" s="56"/>
       <c r="X77" s="57"/>
       <c r="Y77" s="58"/>
@@ -7066,27 +7157,27 @@
       <c r="A84" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="B84" s="483">
+      <c r="B84" s="552">
         <v>10</v>
       </c>
-      <c r="C84" s="483">
+      <c r="C84" s="552">
         <v>10</v>
       </c>
-      <c r="D84" s="483">
+      <c r="D84" s="552">
         <v>7</v>
       </c>
-      <c r="E84" s="483">
+      <c r="E84" s="552">
         <v>5</v>
       </c>
-      <c r="F84" s="483">
+      <c r="F84" s="552">
         <v>2</v>
       </c>
-      <c r="G84" s="600" t="s">
+      <c r="G84" s="561" t="s">
         <v>22</v>
       </c>
-      <c r="H84" s="457"/>
-      <c r="I84" s="458"/>
-      <c r="J84" s="459"/>
+      <c r="H84" s="461"/>
+      <c r="I84" s="462"/>
+      <c r="J84" s="463"/>
       <c r="K84" s="281"/>
       <c r="L84" s="281"/>
       <c r="M84" s="318"/>
@@ -7107,12 +7198,12 @@
       <c r="A85" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="B85" s="472"/>
-      <c r="C85" s="472"/>
-      <c r="D85" s="472"/>
-      <c r="E85" s="472"/>
-      <c r="F85" s="472"/>
-      <c r="G85" s="577"/>
+      <c r="B85" s="551"/>
+      <c r="C85" s="551"/>
+      <c r="D85" s="551"/>
+      <c r="E85" s="551"/>
+      <c r="F85" s="551"/>
+      <c r="G85" s="559"/>
       <c r="H85" s="63"/>
       <c r="I85" s="4"/>
       <c r="J85" s="64"/>
@@ -7136,57 +7227,57 @@
       <c r="A86" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="B86" s="471">
+      <c r="B86" s="550">
         <v>24</v>
       </c>
-      <c r="C86" s="471">
+      <c r="C86" s="550">
         <v>24</v>
       </c>
-      <c r="D86" s="471">
+      <c r="D86" s="550">
         <v>21</v>
       </c>
-      <c r="E86" s="471">
+      <c r="E86" s="550">
         <v>19</v>
       </c>
       <c r="F86" s="49"/>
-      <c r="G86" s="576" t="s">
+      <c r="G86" s="558" t="s">
         <v>25</v>
       </c>
-      <c r="H86" s="575" t="s">
+      <c r="H86" s="490" t="s">
         <v>155</v>
       </c>
-      <c r="I86" s="458"/>
-      <c r="J86" s="459"/>
+      <c r="I86" s="462"/>
+      <c r="J86" s="463"/>
       <c r="K86" s="53"/>
       <c r="L86" s="54"/>
       <c r="M86" s="54"/>
       <c r="N86" s="53"/>
       <c r="O86" s="54"/>
       <c r="P86" s="55"/>
-      <c r="Q86" s="457" t="s">
+      <c r="Q86" s="461" t="s">
         <v>39</v>
       </c>
-      <c r="R86" s="458"/>
-      <c r="S86" s="458"/>
+      <c r="R86" s="462"/>
+      <c r="S86" s="462"/>
       <c r="T86" s="328"/>
       <c r="U86" s="54"/>
       <c r="V86" s="54"/>
-      <c r="W86" s="457" t="s">
+      <c r="W86" s="461" t="s">
         <v>156</v>
       </c>
-      <c r="X86" s="458"/>
-      <c r="Y86" s="485"/>
+      <c r="X86" s="462"/>
+      <c r="Y86" s="476"/>
     </row>
     <row r="87" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B87" s="472"/>
-      <c r="C87" s="472"/>
-      <c r="D87" s="472"/>
-      <c r="E87" s="472"/>
+      <c r="B87" s="551"/>
+      <c r="C87" s="551"/>
+      <c r="D87" s="551"/>
+      <c r="E87" s="551"/>
       <c r="F87" s="38"/>
-      <c r="G87" s="577"/>
+      <c r="G87" s="559"/>
       <c r="H87" s="68" t="s">
         <v>157</v>
       </c>
@@ -7228,49 +7319,49 @@
       <c r="A88" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="B88" s="471"/>
-      <c r="C88" s="471"/>
-      <c r="D88" s="471"/>
-      <c r="E88" s="471"/>
-      <c r="F88" s="471"/>
-      <c r="G88" s="576" t="s">
+      <c r="B88" s="550"/>
+      <c r="C88" s="550"/>
+      <c r="D88" s="550"/>
+      <c r="E88" s="550"/>
+      <c r="F88" s="550"/>
+      <c r="G88" s="558" t="s">
         <v>35</v>
       </c>
-      <c r="H88" s="575" t="s">
+      <c r="H88" s="490" t="s">
         <v>36</v>
       </c>
-      <c r="I88" s="458"/>
-      <c r="J88" s="459"/>
+      <c r="I88" s="462"/>
+      <c r="J88" s="463"/>
       <c r="K88" s="53"/>
       <c r="L88" s="54"/>
       <c r="M88" s="55"/>
       <c r="N88" s="53"/>
       <c r="O88" s="54"/>
       <c r="P88" s="55"/>
-      <c r="Q88" s="457" t="s">
+      <c r="Q88" s="461" t="s">
         <v>39</v>
       </c>
-      <c r="R88" s="458"/>
-      <c r="S88" s="458"/>
+      <c r="R88" s="462"/>
+      <c r="S88" s="462"/>
       <c r="T88" s="152"/>
       <c r="U88" s="61"/>
       <c r="V88" s="61"/>
-      <c r="W88" s="454" t="s">
+      <c r="W88" s="477" t="s">
         <v>156</v>
       </c>
-      <c r="X88" s="455"/>
-      <c r="Y88" s="489"/>
+      <c r="X88" s="478"/>
+      <c r="Y88" s="479"/>
     </row>
     <row r="89" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B89" s="472"/>
-      <c r="C89" s="472"/>
-      <c r="D89" s="472"/>
-      <c r="E89" s="472"/>
-      <c r="F89" s="472"/>
-      <c r="G89" s="577"/>
+      <c r="B89" s="551"/>
+      <c r="C89" s="551"/>
+      <c r="D89" s="551"/>
+      <c r="E89" s="551"/>
+      <c r="F89" s="551"/>
+      <c r="G89" s="559"/>
       <c r="H89" s="76" t="s">
         <v>41</v>
       </c>
@@ -7298,57 +7389,57 @@
       <c r="T89" s="330"/>
       <c r="U89" s="77"/>
       <c r="V89" s="77"/>
-      <c r="W89" s="464"/>
-      <c r="X89" s="465"/>
-      <c r="Y89" s="513"/>
+      <c r="W89" s="458"/>
+      <c r="X89" s="459"/>
+      <c r="Y89" s="460"/>
     </row>
     <row r="90" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="B90" s="471"/>
-      <c r="C90" s="471"/>
-      <c r="D90" s="471"/>
-      <c r="E90" s="471"/>
-      <c r="F90" s="471"/>
-      <c r="G90" s="576" t="s">
+      <c r="B90" s="550"/>
+      <c r="C90" s="550"/>
+      <c r="D90" s="550"/>
+      <c r="E90" s="550"/>
+      <c r="F90" s="550"/>
+      <c r="G90" s="558" t="s">
         <v>47</v>
       </c>
-      <c r="H90" s="457" t="s">
+      <c r="H90" s="461" t="s">
         <v>26</v>
       </c>
-      <c r="I90" s="458"/>
-      <c r="J90" s="459"/>
-      <c r="K90" s="454" t="s">
+      <c r="I90" s="462"/>
+      <c r="J90" s="463"/>
+      <c r="K90" s="477" t="s">
         <v>130</v>
       </c>
-      <c r="L90" s="455"/>
-      <c r="M90" s="456"/>
+      <c r="L90" s="478"/>
+      <c r="M90" s="488"/>
       <c r="N90" s="54"/>
       <c r="O90" s="54"/>
       <c r="P90" s="55"/>
-      <c r="Q90" s="457" t="s">
+      <c r="Q90" s="461" t="s">
         <v>124</v>
       </c>
-      <c r="R90" s="458"/>
-      <c r="S90" s="458"/>
+      <c r="R90" s="462"/>
+      <c r="S90" s="462"/>
       <c r="T90" s="142"/>
       <c r="U90" s="57"/>
       <c r="V90" s="57"/>
-      <c r="W90" s="464"/>
-      <c r="X90" s="465"/>
-      <c r="Y90" s="513"/>
+      <c r="W90" s="458"/>
+      <c r="X90" s="459"/>
+      <c r="Y90" s="460"/>
     </row>
     <row r="91" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="B91" s="472"/>
-      <c r="C91" s="472"/>
-      <c r="D91" s="472"/>
-      <c r="E91" s="472"/>
-      <c r="F91" s="472"/>
-      <c r="G91" s="577"/>
+      <c r="B91" s="551"/>
+      <c r="C91" s="551"/>
+      <c r="D91" s="551"/>
+      <c r="E91" s="551"/>
+      <c r="F91" s="551"/>
+      <c r="G91" s="559"/>
       <c r="H91" s="60" t="s">
         <v>29</v>
       </c>
@@ -7398,51 +7489,51 @@
       <c r="A92" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="B92" s="471"/>
-      <c r="C92" s="471"/>
-      <c r="D92" s="471"/>
-      <c r="E92" s="471"/>
-      <c r="F92" s="471"/>
-      <c r="G92" s="576" t="s">
+      <c r="B92" s="550"/>
+      <c r="C92" s="550"/>
+      <c r="D92" s="550"/>
+      <c r="E92" s="550"/>
+      <c r="F92" s="550"/>
+      <c r="G92" s="558" t="s">
         <v>59</v>
       </c>
-      <c r="H92" s="575" t="s">
+      <c r="H92" s="490" t="s">
         <v>26</v>
       </c>
-      <c r="I92" s="458"/>
-      <c r="J92" s="459"/>
-      <c r="K92" s="457" t="s">
+      <c r="I92" s="462"/>
+      <c r="J92" s="463"/>
+      <c r="K92" s="461" t="s">
         <v>138</v>
       </c>
-      <c r="L92" s="458"/>
-      <c r="M92" s="459"/>
+      <c r="L92" s="462"/>
+      <c r="M92" s="463"/>
       <c r="N92" s="54"/>
       <c r="O92" s="54"/>
       <c r="P92" s="55"/>
-      <c r="Q92" s="457"/>
-      <c r="R92" s="458"/>
-      <c r="S92" s="458"/>
-      <c r="T92" s="512" t="s">
+      <c r="Q92" s="461"/>
+      <c r="R92" s="462"/>
+      <c r="S92" s="462"/>
+      <c r="T92" s="577" t="s">
         <v>160</v>
       </c>
-      <c r="U92" s="458"/>
-      <c r="V92" s="459"/>
-      <c r="W92" s="484" t="s">
+      <c r="U92" s="462"/>
+      <c r="V92" s="463"/>
+      <c r="W92" s="483" t="s">
         <v>110</v>
       </c>
-      <c r="X92" s="458"/>
-      <c r="Y92" s="485"/>
+      <c r="X92" s="462"/>
+      <c r="Y92" s="476"/>
     </row>
     <row r="93" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="137" t="s">
         <v>61</v>
       </c>
-      <c r="B93" s="472"/>
-      <c r="C93" s="472"/>
-      <c r="D93" s="472"/>
-      <c r="E93" s="472"/>
-      <c r="F93" s="472"/>
-      <c r="G93" s="577"/>
+      <c r="B93" s="551"/>
+      <c r="C93" s="551"/>
+      <c r="D93" s="551"/>
+      <c r="E93" s="551"/>
+      <c r="F93" s="551"/>
+      <c r="G93" s="559"/>
       <c r="H93" s="331" t="s">
         <v>29</v>
       </c>
@@ -7467,11 +7558,11 @@
       <c r="Q93" s="68"/>
       <c r="R93" s="40"/>
       <c r="S93" s="93"/>
-      <c r="T93" s="611" t="s">
+      <c r="T93" s="608" t="s">
         <v>161</v>
       </c>
-      <c r="U93" s="465"/>
-      <c r="V93" s="466"/>
+      <c r="U93" s="459"/>
+      <c r="V93" s="598"/>
       <c r="W93" s="68" t="s">
         <v>162</v>
       </c>
@@ -7491,23 +7582,23 @@
       <c r="D94" s="73"/>
       <c r="E94" s="73"/>
       <c r="F94" s="74"/>
-      <c r="G94" s="576" t="s">
+      <c r="G94" s="558" t="s">
         <v>69</v>
       </c>
       <c r="H94" s="88"/>
       <c r="I94" s="109"/>
       <c r="J94" s="252"/>
-      <c r="K94" s="457" t="s">
+      <c r="K94" s="461" t="s">
         <v>138</v>
       </c>
-      <c r="L94" s="458"/>
-      <c r="M94" s="459"/>
-      <c r="N94" s="454"/>
-      <c r="O94" s="639"/>
-      <c r="P94" s="640"/>
-      <c r="Q94" s="457"/>
-      <c r="R94" s="458"/>
-      <c r="S94" s="458"/>
+      <c r="L94" s="462"/>
+      <c r="M94" s="463"/>
+      <c r="N94" s="477"/>
+      <c r="O94" s="491"/>
+      <c r="P94" s="492"/>
+      <c r="Q94" s="461"/>
+      <c r="R94" s="462"/>
+      <c r="S94" s="462"/>
       <c r="T94" s="332"/>
       <c r="U94" s="333"/>
       <c r="V94" s="334"/>
@@ -7522,7 +7613,7 @@
       <c r="D95" s="116"/>
       <c r="E95" s="116"/>
       <c r="F95" s="116"/>
-      <c r="G95" s="597"/>
+      <c r="G95" s="566"/>
       <c r="H95" s="337"/>
       <c r="I95" s="338"/>
       <c r="J95" s="217"/>
@@ -7556,27 +7647,27 @@
     </row>
     <row r="96" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A96" s="120"/>
-      <c r="B96" s="483">
+      <c r="B96" s="552">
         <v>11</v>
       </c>
-      <c r="C96" s="483">
+      <c r="C96" s="552">
         <v>11</v>
       </c>
-      <c r="D96" s="483">
+      <c r="D96" s="552">
         <v>8</v>
       </c>
-      <c r="E96" s="483">
+      <c r="E96" s="552">
         <v>6</v>
       </c>
-      <c r="F96" s="483">
+      <c r="F96" s="552">
         <v>3</v>
       </c>
-      <c r="G96" s="600" t="s">
+      <c r="G96" s="561" t="s">
         <v>22</v>
       </c>
-      <c r="H96" s="468"/>
-      <c r="I96" s="468"/>
-      <c r="J96" s="468"/>
+      <c r="H96" s="518"/>
+      <c r="I96" s="518"/>
+      <c r="J96" s="518"/>
       <c r="K96" s="125"/>
       <c r="L96" s="123"/>
       <c r="M96" s="124"/>
@@ -7595,12 +7686,12 @@
     </row>
     <row r="97" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="129"/>
-      <c r="B97" s="472"/>
-      <c r="C97" s="472"/>
-      <c r="D97" s="472"/>
-      <c r="E97" s="472"/>
-      <c r="F97" s="472"/>
-      <c r="G97" s="577"/>
+      <c r="B97" s="551"/>
+      <c r="C97" s="551"/>
+      <c r="D97" s="551"/>
+      <c r="E97" s="551"/>
+      <c r="F97" s="551"/>
+      <c r="G97" s="559"/>
       <c r="H97" s="109"/>
       <c r="I97" s="347"/>
       <c r="J97" s="183"/>
@@ -7624,30 +7715,30 @@
       <c r="A98" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="B98" s="471">
+      <c r="B98" s="550">
         <v>25</v>
       </c>
-      <c r="C98" s="471">
+      <c r="C98" s="550">
         <v>25</v>
       </c>
-      <c r="D98" s="471">
+      <c r="D98" s="550">
         <v>22</v>
       </c>
-      <c r="E98" s="471">
+      <c r="E98" s="550">
         <v>20</v>
       </c>
-      <c r="F98" s="471"/>
-      <c r="G98" s="576" t="s">
+      <c r="F98" s="550"/>
+      <c r="G98" s="558" t="s">
         <v>25</v>
       </c>
-      <c r="H98" s="470"/>
-      <c r="I98" s="470"/>
-      <c r="J98" s="470"/>
-      <c r="K98" s="457" t="s">
+      <c r="H98" s="494"/>
+      <c r="I98" s="494"/>
+      <c r="J98" s="494"/>
+      <c r="K98" s="461" t="s">
         <v>155</v>
       </c>
-      <c r="L98" s="458"/>
-      <c r="M98" s="459"/>
+      <c r="L98" s="462"/>
+      <c r="M98" s="463"/>
       <c r="N98" s="348"/>
       <c r="O98" s="349"/>
       <c r="P98" s="350"/>
@@ -7657,20 +7748,20 @@
       <c r="T98" s="142"/>
       <c r="U98" s="57"/>
       <c r="V98" s="57"/>
-      <c r="W98" s="515"/>
-      <c r="X98" s="516"/>
-      <c r="Y98" s="517"/>
+      <c r="W98" s="480"/>
+      <c r="X98" s="481"/>
+      <c r="Y98" s="482"/>
     </row>
     <row r="99" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="B99" s="472"/>
-      <c r="C99" s="472"/>
-      <c r="D99" s="472"/>
-      <c r="E99" s="472"/>
-      <c r="F99" s="472"/>
-      <c r="G99" s="577"/>
+      <c r="B99" s="551"/>
+      <c r="C99" s="551"/>
+      <c r="D99" s="551"/>
+      <c r="E99" s="551"/>
+      <c r="F99" s="551"/>
+      <c r="G99" s="559"/>
       <c r="H99" s="60"/>
       <c r="I99" s="61"/>
       <c r="J99" s="61"/>
@@ -7700,47 +7791,47 @@
       <c r="A100" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="B100" s="471"/>
-      <c r="C100" s="471"/>
-      <c r="D100" s="471"/>
-      <c r="E100" s="471"/>
-      <c r="F100" s="471"/>
-      <c r="G100" s="576" t="s">
+      <c r="B100" s="550"/>
+      <c r="C100" s="550"/>
+      <c r="D100" s="550"/>
+      <c r="E100" s="550"/>
+      <c r="F100" s="550"/>
+      <c r="G100" s="558" t="s">
         <v>35</v>
       </c>
-      <c r="H100" s="457" t="s">
+      <c r="H100" s="461" t="s">
         <v>138</v>
       </c>
-      <c r="I100" s="458"/>
-      <c r="J100" s="459"/>
-      <c r="K100" s="475" t="s">
+      <c r="I100" s="462"/>
+      <c r="J100" s="463"/>
+      <c r="K100" s="489" t="s">
         <v>166</v>
       </c>
-      <c r="L100" s="476"/>
-      <c r="M100" s="477"/>
-      <c r="N100" s="457"/>
-      <c r="O100" s="458"/>
-      <c r="P100" s="459"/>
-      <c r="Q100" s="454"/>
-      <c r="R100" s="455"/>
-      <c r="S100" s="455"/>
+      <c r="L100" s="467"/>
+      <c r="M100" s="468"/>
+      <c r="N100" s="461"/>
+      <c r="O100" s="462"/>
+      <c r="P100" s="463"/>
+      <c r="Q100" s="477"/>
+      <c r="R100" s="478"/>
+      <c r="S100" s="478"/>
       <c r="T100" s="357"/>
       <c r="U100" s="4"/>
       <c r="V100" s="4"/>
-      <c r="W100" s="515"/>
-      <c r="X100" s="516"/>
-      <c r="Y100" s="517"/>
+      <c r="W100" s="480"/>
+      <c r="X100" s="481"/>
+      <c r="Y100" s="482"/>
     </row>
     <row r="101" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="B101" s="472"/>
-      <c r="C101" s="472"/>
-      <c r="D101" s="472"/>
-      <c r="E101" s="472"/>
-      <c r="F101" s="472"/>
-      <c r="G101" s="577"/>
+      <c r="B101" s="551"/>
+      <c r="C101" s="551"/>
+      <c r="D101" s="551"/>
+      <c r="E101" s="551"/>
+      <c r="F101" s="551"/>
+      <c r="G101" s="559"/>
       <c r="H101" s="131" t="s">
         <v>167</v>
       </c>
@@ -7781,30 +7872,30 @@
       <c r="D102" s="73"/>
       <c r="E102" s="73"/>
       <c r="F102" s="74"/>
-      <c r="G102" s="576" t="s">
+      <c r="G102" s="558" t="s">
         <v>47</v>
       </c>
-      <c r="H102" s="457" t="s">
+      <c r="H102" s="461" t="s">
         <v>138</v>
       </c>
-      <c r="I102" s="458"/>
-      <c r="J102" s="459"/>
-      <c r="K102" s="475" t="s">
+      <c r="I102" s="462"/>
+      <c r="J102" s="463"/>
+      <c r="K102" s="489" t="s">
         <v>166</v>
       </c>
-      <c r="L102" s="476"/>
-      <c r="M102" s="477"/>
-      <c r="N102" s="454" t="s">
+      <c r="L102" s="467"/>
+      <c r="M102" s="468"/>
+      <c r="N102" s="477" t="s">
         <v>149</v>
       </c>
-      <c r="O102" s="455"/>
-      <c r="P102" s="455"/>
-      <c r="Q102" s="455"/>
-      <c r="R102" s="455"/>
-      <c r="S102" s="455"/>
-      <c r="T102" s="549"/>
-      <c r="U102" s="455"/>
-      <c r="V102" s="455"/>
+      <c r="O102" s="478"/>
+      <c r="P102" s="478"/>
+      <c r="Q102" s="478"/>
+      <c r="R102" s="478"/>
+      <c r="S102" s="478"/>
+      <c r="T102" s="540"/>
+      <c r="U102" s="478"/>
+      <c r="V102" s="478"/>
       <c r="W102" s="63"/>
       <c r="X102" s="4"/>
       <c r="Y102" s="358"/>
@@ -7818,7 +7909,7 @@
       <c r="D103" s="85"/>
       <c r="E103" s="85"/>
       <c r="F103" s="85"/>
-      <c r="G103" s="577"/>
+      <c r="G103" s="559"/>
       <c r="H103" s="131" t="s">
         <v>167</v>
       </c>
@@ -7835,8 +7926,8 @@
         <v>146</v>
       </c>
       <c r="O103" s="83"/>
-      <c r="P103" s="479"/>
-      <c r="Q103" s="479"/>
+      <c r="P103" s="457"/>
+      <c r="Q103" s="457"/>
       <c r="R103" s="45" t="s">
         <v>81</v>
       </c>
@@ -7861,36 +7952,36 @@
       <c r="D104" s="73"/>
       <c r="E104" s="73"/>
       <c r="F104" s="74"/>
-      <c r="G104" s="576" t="s">
+      <c r="G104" s="558" t="s">
         <v>59</v>
       </c>
-      <c r="H104" s="463" t="s">
+      <c r="H104" s="487" t="s">
         <v>77</v>
       </c>
-      <c r="I104" s="455"/>
-      <c r="J104" s="456"/>
+      <c r="I104" s="478"/>
+      <c r="J104" s="488"/>
       <c r="K104" s="360" t="s">
         <v>51</v>
       </c>
-      <c r="L104" s="580" t="s">
+      <c r="L104" s="499" t="s">
         <v>52</v>
       </c>
-      <c r="M104" s="582"/>
-      <c r="N104" s="457" t="s">
+      <c r="M104" s="500"/>
+      <c r="N104" s="461" t="s">
         <v>149</v>
       </c>
-      <c r="O104" s="458"/>
-      <c r="P104" s="459"/>
-      <c r="Q104" s="469" t="s">
+      <c r="O104" s="462"/>
+      <c r="P104" s="463"/>
+      <c r="Q104" s="493" t="s">
         <v>49</v>
       </c>
-      <c r="R104" s="470"/>
-      <c r="S104" s="470"/>
-      <c r="T104" s="507" t="s">
+      <c r="R104" s="494"/>
+      <c r="S104" s="494"/>
+      <c r="T104" s="473" t="s">
         <v>150</v>
       </c>
-      <c r="U104" s="508"/>
-      <c r="V104" s="509"/>
+      <c r="U104" s="474"/>
+      <c r="V104" s="475"/>
       <c r="W104" s="56"/>
       <c r="X104" s="57"/>
       <c r="Y104" s="159"/>
@@ -7902,7 +7993,7 @@
       <c r="D105" s="85"/>
       <c r="E105" s="85"/>
       <c r="F105" s="85"/>
-      <c r="G105" s="577"/>
+      <c r="G105" s="559"/>
       <c r="H105" s="40" t="s">
         <v>80</v>
       </c>
@@ -7912,11 +8003,11 @@
       <c r="J105" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="K105" s="478" t="s">
+      <c r="K105" s="495" t="s">
         <v>169</v>
       </c>
-      <c r="L105" s="479"/>
-      <c r="M105" s="480"/>
+      <c r="L105" s="457"/>
+      <c r="M105" s="501"/>
       <c r="N105" s="68" t="s">
         <v>146</v>
       </c>
@@ -7955,32 +8046,32 @@
       <c r="D106" s="73"/>
       <c r="E106" s="73"/>
       <c r="F106" s="74"/>
-      <c r="G106" s="576" t="s">
+      <c r="G106" s="558" t="s">
         <v>69</v>
       </c>
-      <c r="H106" s="463" t="s">
+      <c r="H106" s="487" t="s">
         <v>77</v>
       </c>
-      <c r="I106" s="455"/>
-      <c r="J106" s="456"/>
-      <c r="K106" s="454"/>
-      <c r="L106" s="455"/>
-      <c r="M106" s="455"/>
-      <c r="N106" s="457" t="s">
+      <c r="I106" s="478"/>
+      <c r="J106" s="488"/>
+      <c r="K106" s="477"/>
+      <c r="L106" s="478"/>
+      <c r="M106" s="478"/>
+      <c r="N106" s="461" t="s">
         <v>170</v>
       </c>
-      <c r="O106" s="458"/>
-      <c r="P106" s="459"/>
-      <c r="Q106" s="469" t="s">
+      <c r="O106" s="462"/>
+      <c r="P106" s="463"/>
+      <c r="Q106" s="493" t="s">
         <v>49</v>
       </c>
-      <c r="R106" s="470"/>
-      <c r="S106" s="470"/>
-      <c r="T106" s="507" t="s">
+      <c r="R106" s="494"/>
+      <c r="S106" s="494"/>
+      <c r="T106" s="473" t="s">
         <v>150</v>
       </c>
-      <c r="U106" s="508"/>
-      <c r="V106" s="509"/>
+      <c r="U106" s="474"/>
+      <c r="V106" s="475"/>
       <c r="W106" s="56"/>
       <c r="X106" s="57"/>
       <c r="Y106" s="58"/>
@@ -7992,7 +8083,7 @@
       <c r="D107" s="116"/>
       <c r="E107" s="116"/>
       <c r="F107" s="116"/>
-      <c r="G107" s="597"/>
+      <c r="G107" s="566"/>
       <c r="H107" s="109" t="s">
         <v>80</v>
       </c>
@@ -8038,32 +8129,32 @@
     </row>
     <row r="108" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A108" s="120"/>
-      <c r="B108" s="483">
+      <c r="B108" s="552">
         <v>12</v>
       </c>
-      <c r="C108" s="483">
+      <c r="C108" s="552">
         <v>12</v>
       </c>
-      <c r="D108" s="483">
+      <c r="D108" s="552">
         <v>9</v>
       </c>
-      <c r="E108" s="483">
+      <c r="E108" s="552">
         <v>7</v>
       </c>
-      <c r="F108" s="483">
+      <c r="F108" s="552">
         <v>4</v>
       </c>
-      <c r="G108" s="600" t="s">
+      <c r="G108" s="561" t="s">
         <v>22</v>
       </c>
-      <c r="H108" s="605"/>
-      <c r="I108" s="468"/>
-      <c r="J108" s="606"/>
-      <c r="K108" s="457" t="s">
+      <c r="H108" s="560"/>
+      <c r="I108" s="518"/>
+      <c r="J108" s="519"/>
+      <c r="K108" s="461" t="s">
         <v>27</v>
       </c>
-      <c r="L108" s="458"/>
-      <c r="M108" s="459"/>
+      <c r="L108" s="462"/>
+      <c r="M108" s="463"/>
       <c r="N108" s="363" t="s">
         <v>75</v>
       </c>
@@ -8083,15 +8174,15 @@
       <c r="A109" s="178" t="s">
         <v>96</v>
       </c>
-      <c r="B109" s="472"/>
-      <c r="C109" s="472"/>
-      <c r="D109" s="472"/>
-      <c r="E109" s="472"/>
-      <c r="F109" s="472"/>
-      <c r="G109" s="577"/>
+      <c r="B109" s="551"/>
+      <c r="C109" s="551"/>
+      <c r="D109" s="551"/>
+      <c r="E109" s="551"/>
+      <c r="F109" s="551"/>
+      <c r="G109" s="559"/>
       <c r="H109" s="153"/>
-      <c r="I109" s="479"/>
-      <c r="J109" s="480"/>
+      <c r="I109" s="457"/>
+      <c r="J109" s="501"/>
       <c r="K109" s="63" t="s">
         <v>32</v>
       </c>
@@ -8101,9 +8192,9 @@
       <c r="M109" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="N109" s="510"/>
-      <c r="O109" s="511"/>
-      <c r="P109" s="615"/>
+      <c r="N109" s="464"/>
+      <c r="O109" s="465"/>
+      <c r="P109" s="466"/>
       <c r="Q109" s="302"/>
       <c r="R109" s="302"/>
       <c r="S109" s="40"/>
@@ -8116,55 +8207,55 @@
     </row>
     <row r="110" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="137"/>
-      <c r="B110" s="471">
+      <c r="B110" s="550">
         <v>26</v>
       </c>
-      <c r="C110" s="471">
+      <c r="C110" s="550">
         <v>26</v>
       </c>
-      <c r="D110" s="471">
+      <c r="D110" s="550">
         <v>23</v>
       </c>
-      <c r="E110" s="471">
+      <c r="E110" s="550">
         <v>21</v>
       </c>
-      <c r="F110" s="471"/>
-      <c r="G110" s="576" t="s">
+      <c r="F110" s="550"/>
+      <c r="G110" s="558" t="s">
         <v>25</v>
       </c>
       <c r="H110" s="369"/>
       <c r="I110" s="370"/>
       <c r="J110" s="371"/>
-      <c r="K110" s="457" t="s">
+      <c r="K110" s="461" t="s">
         <v>48</v>
       </c>
-      <c r="L110" s="458"/>
-      <c r="M110" s="459"/>
-      <c r="N110" s="510" t="s">
+      <c r="L110" s="462"/>
+      <c r="M110" s="463"/>
+      <c r="N110" s="464" t="s">
         <v>171</v>
       </c>
-      <c r="O110" s="511"/>
-      <c r="P110" s="615"/>
+      <c r="O110" s="465"/>
+      <c r="P110" s="466"/>
       <c r="Q110" s="372"/>
       <c r="R110" s="372"/>
       <c r="S110" s="248"/>
       <c r="T110" s="265"/>
-      <c r="U110" s="458"/>
-      <c r="V110" s="458"/>
-      <c r="W110" s="454"/>
-      <c r="X110" s="455"/>
-      <c r="Y110" s="489"/>
+      <c r="U110" s="462"/>
+      <c r="V110" s="462"/>
+      <c r="W110" s="477"/>
+      <c r="X110" s="478"/>
+      <c r="Y110" s="479"/>
     </row>
     <row r="111" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="B111" s="472"/>
-      <c r="C111" s="472"/>
-      <c r="D111" s="472"/>
-      <c r="E111" s="472"/>
-      <c r="F111" s="472"/>
-      <c r="G111" s="577"/>
+      <c r="B111" s="551"/>
+      <c r="C111" s="551"/>
+      <c r="D111" s="551"/>
+      <c r="E111" s="551"/>
+      <c r="F111" s="551"/>
+      <c r="G111" s="559"/>
       <c r="H111" s="373"/>
       <c r="I111" s="70"/>
       <c r="J111" s="98"/>
@@ -8177,11 +8268,11 @@
       <c r="M111" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="N111" s="478" t="s">
+      <c r="N111" s="495" t="s">
         <v>172</v>
       </c>
-      <c r="O111" s="479"/>
-      <c r="P111" s="480"/>
+      <c r="O111" s="457"/>
+      <c r="P111" s="501"/>
       <c r="Q111" s="77"/>
       <c r="R111" s="77"/>
       <c r="S111" s="93"/>
@@ -8189,27 +8280,27 @@
       <c r="U111" s="81"/>
       <c r="V111" s="81"/>
       <c r="W111" s="40"/>
-      <c r="X111" s="479"/>
-      <c r="Y111" s="514"/>
+      <c r="X111" s="457"/>
+      <c r="Y111" s="591"/>
     </row>
     <row r="112" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="137"/>
-      <c r="B112" s="471"/>
-      <c r="C112" s="471"/>
-      <c r="D112" s="471"/>
-      <c r="E112" s="471"/>
+      <c r="B112" s="550"/>
+      <c r="C112" s="550"/>
+      <c r="D112" s="550"/>
+      <c r="E112" s="550"/>
       <c r="F112" s="191"/>
-      <c r="G112" s="576" t="s">
+      <c r="G112" s="558" t="s">
         <v>35</v>
       </c>
-      <c r="H112" s="575"/>
-      <c r="I112" s="458"/>
-      <c r="J112" s="459"/>
-      <c r="K112" s="457" t="s">
+      <c r="H112" s="490"/>
+      <c r="I112" s="462"/>
+      <c r="J112" s="463"/>
+      <c r="K112" s="461" t="s">
         <v>27</v>
       </c>
-      <c r="L112" s="458"/>
-      <c r="M112" s="459"/>
+      <c r="L112" s="462"/>
+      <c r="M112" s="463"/>
       <c r="N112" s="374"/>
       <c r="O112" s="374"/>
       <c r="P112" s="375"/>
@@ -8219,24 +8310,24 @@
       <c r="R112" s="140"/>
       <c r="S112" s="140"/>
       <c r="T112" s="376"/>
-      <c r="U112" s="476"/>
-      <c r="V112" s="477"/>
-      <c r="W112" s="515" t="s">
+      <c r="U112" s="467"/>
+      <c r="V112" s="468"/>
+      <c r="W112" s="480" t="s">
         <v>173</v>
       </c>
-      <c r="X112" s="516"/>
-      <c r="Y112" s="517"/>
+      <c r="X112" s="481"/>
+      <c r="Y112" s="482"/>
     </row>
     <row r="113" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B113" s="472"/>
-      <c r="C113" s="472"/>
-      <c r="D113" s="472"/>
-      <c r="E113" s="472"/>
+      <c r="B113" s="551"/>
+      <c r="C113" s="551"/>
+      <c r="D113" s="551"/>
+      <c r="E113" s="551"/>
       <c r="F113" s="38"/>
-      <c r="G113" s="577"/>
+      <c r="G113" s="559"/>
       <c r="H113" s="76"/>
       <c r="I113" s="81"/>
       <c r="J113" s="89"/>
@@ -8246,9 +8337,9 @@
       <c r="N113" s="380"/>
       <c r="O113" s="42"/>
       <c r="P113" s="98"/>
-      <c r="Q113" s="510"/>
-      <c r="R113" s="511"/>
-      <c r="S113" s="511"/>
+      <c r="Q113" s="464"/>
+      <c r="R113" s="465"/>
+      <c r="S113" s="465"/>
       <c r="T113" s="330"/>
       <c r="U113" s="77"/>
       <c r="V113" s="79"/>
@@ -8269,37 +8360,37 @@
       <c r="D114" s="73"/>
       <c r="E114" s="73"/>
       <c r="F114" s="74"/>
-      <c r="G114" s="576" t="s">
+      <c r="G114" s="558" t="s">
         <v>47</v>
       </c>
-      <c r="H114" s="580"/>
-      <c r="I114" s="581"/>
-      <c r="J114" s="582"/>
+      <c r="H114" s="499"/>
+      <c r="I114" s="579"/>
+      <c r="J114" s="500"/>
       <c r="K114" s="360" t="s">
         <v>51</v>
       </c>
-      <c r="L114" s="580" t="s">
+      <c r="L114" s="499" t="s">
         <v>52</v>
       </c>
-      <c r="M114" s="582"/>
-      <c r="N114" s="454" t="s">
+      <c r="M114" s="500"/>
+      <c r="N114" s="477" t="s">
         <v>135</v>
       </c>
-      <c r="O114" s="455"/>
-      <c r="P114" s="456"/>
-      <c r="Q114" s="510" t="s">
+      <c r="O114" s="478"/>
+      <c r="P114" s="488"/>
+      <c r="Q114" s="464" t="s">
         <v>83</v>
       </c>
-      <c r="R114" s="511"/>
-      <c r="S114" s="511"/>
+      <c r="R114" s="465"/>
+      <c r="S114" s="465"/>
       <c r="T114" s="265"/>
-      <c r="U114" s="458"/>
-      <c r="V114" s="459"/>
-      <c r="W114" s="515" t="s">
+      <c r="U114" s="462"/>
+      <c r="V114" s="463"/>
+      <c r="W114" s="480" t="s">
         <v>173</v>
       </c>
-      <c r="X114" s="516"/>
-      <c r="Y114" s="517"/>
+      <c r="X114" s="481"/>
+      <c r="Y114" s="482"/>
     </row>
     <row r="115" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="137" t="s">
@@ -8310,15 +8401,15 @@
       <c r="D115" s="85"/>
       <c r="E115" s="85"/>
       <c r="F115" s="85"/>
-      <c r="G115" s="577"/>
+      <c r="G115" s="559"/>
       <c r="H115" s="78"/>
       <c r="I115" s="77"/>
       <c r="J115" s="89"/>
-      <c r="K115" s="638" t="s">
+      <c r="K115" s="496" t="s">
         <v>174</v>
       </c>
-      <c r="L115" s="622"/>
-      <c r="M115" s="623"/>
+      <c r="L115" s="497"/>
+      <c r="M115" s="498"/>
       <c r="N115" s="63" t="s">
         <v>137</v>
       </c>
@@ -8328,11 +8419,11 @@
       <c r="P115" s="295" t="s">
         <v>31</v>
       </c>
-      <c r="Q115" s="478" t="s">
+      <c r="Q115" s="495" t="s">
         <v>175</v>
       </c>
-      <c r="R115" s="479"/>
-      <c r="S115" s="479"/>
+      <c r="R115" s="457"/>
+      <c r="S115" s="457"/>
       <c r="T115" s="326"/>
       <c r="U115" s="81"/>
       <c r="V115" s="89"/>
@@ -8353,29 +8444,29 @@
       <c r="D116" s="73"/>
       <c r="E116" s="73"/>
       <c r="F116" s="74"/>
-      <c r="G116" s="576" t="s">
+      <c r="G116" s="558" t="s">
         <v>59</v>
       </c>
       <c r="H116" s="381"/>
       <c r="I116" s="249"/>
       <c r="J116" s="292"/>
-      <c r="K116" s="457"/>
-      <c r="L116" s="458"/>
-      <c r="M116" s="458"/>
-      <c r="N116" s="454" t="s">
+      <c r="K116" s="461"/>
+      <c r="L116" s="462"/>
+      <c r="M116" s="462"/>
+      <c r="N116" s="477" t="s">
         <v>135</v>
       </c>
-      <c r="O116" s="455"/>
-      <c r="P116" s="456"/>
-      <c r="Q116" s="524"/>
-      <c r="R116" s="525"/>
-      <c r="S116" s="525"/>
-      <c r="T116" s="507"/>
-      <c r="U116" s="508"/>
-      <c r="V116" s="509"/>
-      <c r="W116" s="525"/>
-      <c r="X116" s="525"/>
-      <c r="Y116" s="526"/>
+      <c r="O116" s="478"/>
+      <c r="P116" s="488"/>
+      <c r="Q116" s="506"/>
+      <c r="R116" s="469"/>
+      <c r="S116" s="469"/>
+      <c r="T116" s="473"/>
+      <c r="U116" s="474"/>
+      <c r="V116" s="475"/>
+      <c r="W116" s="469"/>
+      <c r="X116" s="469"/>
+      <c r="Y116" s="470"/>
     </row>
     <row r="117" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="137" t="s">
@@ -8386,7 +8477,7 @@
       <c r="D117" s="85"/>
       <c r="E117" s="85"/>
       <c r="F117" s="85"/>
-      <c r="G117" s="577"/>
+      <c r="G117" s="559"/>
       <c r="H117" s="80"/>
       <c r="I117" s="81"/>
       <c r="J117" s="89"/>
@@ -8402,15 +8493,15 @@
       <c r="P117" s="303" t="s">
         <v>54</v>
       </c>
-      <c r="Q117" s="527"/>
-      <c r="R117" s="528"/>
-      <c r="S117" s="528"/>
+      <c r="Q117" s="507"/>
+      <c r="R117" s="471"/>
+      <c r="S117" s="471"/>
       <c r="T117" s="361"/>
       <c r="U117" s="190"/>
       <c r="V117" s="362"/>
-      <c r="W117" s="528"/>
-      <c r="X117" s="528"/>
-      <c r="Y117" s="529"/>
+      <c r="W117" s="471"/>
+      <c r="X117" s="471"/>
+      <c r="Y117" s="472"/>
     </row>
     <row r="118" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="137"/>
@@ -8419,21 +8510,21 @@
       <c r="D118" s="73"/>
       <c r="E118" s="73"/>
       <c r="F118" s="74"/>
-      <c r="G118" s="576" t="s">
+      <c r="G118" s="558" t="s">
         <v>69</v>
       </c>
-      <c r="K118" s="457"/>
-      <c r="L118" s="458"/>
-      <c r="M118" s="458"/>
+      <c r="K118" s="461"/>
+      <c r="L118" s="462"/>
+      <c r="M118" s="462"/>
       <c r="N118" s="381"/>
       <c r="O118" s="249"/>
       <c r="P118" s="292"/>
       <c r="Q118" s="63"/>
       <c r="R118" s="4"/>
       <c r="S118" s="4"/>
-      <c r="T118" s="521"/>
-      <c r="U118" s="522"/>
-      <c r="V118" s="523"/>
+      <c r="T118" s="537"/>
+      <c r="U118" s="538"/>
+      <c r="V118" s="539"/>
       <c r="W118" s="63"/>
       <c r="X118" s="4"/>
       <c r="Y118" s="358"/>
@@ -8445,7 +8536,7 @@
       <c r="D119" s="116"/>
       <c r="E119" s="116"/>
       <c r="F119" s="116"/>
-      <c r="G119" s="597"/>
+      <c r="G119" s="566"/>
       <c r="K119" s="63"/>
       <c r="L119" s="134"/>
       <c r="M119" s="134"/>
@@ -8464,60 +8555,68 @@
     </row>
     <row r="120" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A120" s="120"/>
-      <c r="B120" s="483">
+      <c r="B120" s="552">
         <v>13</v>
       </c>
-      <c r="C120" s="585">
+      <c r="C120" s="569">
         <v>13</v>
       </c>
-      <c r="D120" s="483">
+      <c r="D120" s="552">
         <v>10</v>
       </c>
-      <c r="E120" s="585">
+      <c r="E120" s="569">
         <v>8</v>
       </c>
-      <c r="F120" s="483">
+      <c r="F120" s="552">
         <v>5</v>
       </c>
-      <c r="G120" s="600" t="s">
+      <c r="G120" s="561" t="s">
         <v>22</v>
       </c>
-      <c r="H120" s="629"/>
-      <c r="I120" s="630"/>
-      <c r="J120" s="631"/>
-      <c r="K120" s="467"/>
-      <c r="L120" s="468"/>
-      <c r="M120" s="610"/>
-      <c r="N120" s="110"/>
-      <c r="O120" s="111"/>
-      <c r="P120" s="155"/>
+      <c r="H120" s="532"/>
+      <c r="I120" s="533"/>
+      <c r="J120" s="534"/>
+      <c r="K120" s="517"/>
+      <c r="L120" s="518"/>
+      <c r="M120" s="553"/>
+      <c r="N120" s="461" t="s">
+        <v>196</v>
+      </c>
+      <c r="O120" s="462"/>
+      <c r="P120" s="463"/>
       <c r="Q120" s="110"/>
       <c r="R120" s="111"/>
       <c r="S120" s="111"/>
-      <c r="T120" s="571"/>
-      <c r="U120" s="572"/>
-      <c r="V120" s="573"/>
+      <c r="T120" s="514"/>
+      <c r="U120" s="515"/>
+      <c r="V120" s="516"/>
       <c r="W120" s="110"/>
       <c r="X120" s="111"/>
       <c r="Y120" s="225"/>
     </row>
     <row r="121" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="178"/>
-      <c r="B121" s="472"/>
-      <c r="C121" s="586"/>
-      <c r="D121" s="472"/>
-      <c r="E121" s="586"/>
-      <c r="F121" s="472"/>
-      <c r="G121" s="577"/>
+      <c r="B121" s="551"/>
+      <c r="C121" s="570"/>
+      <c r="D121" s="551"/>
+      <c r="E121" s="570"/>
+      <c r="F121" s="551"/>
+      <c r="G121" s="559"/>
       <c r="H121" s="388"/>
       <c r="I121" s="389"/>
       <c r="J121" s="390"/>
       <c r="K121" s="68"/>
       <c r="L121" s="93"/>
       <c r="M121" s="132"/>
-      <c r="N121" s="133"/>
-      <c r="O121" s="93"/>
-      <c r="P121" s="132"/>
+      <c r="N121" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="O121" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="P121" s="62" t="s">
+        <v>31</v>
+      </c>
       <c r="Q121" s="133"/>
       <c r="R121" s="93"/>
       <c r="S121" s="93"/>
@@ -8532,39 +8631,39 @@
       <c r="A122" s="178" t="s">
         <v>116</v>
       </c>
-      <c r="B122" s="596">
+      <c r="B122" s="576">
         <v>27</v>
       </c>
-      <c r="C122" s="471">
+      <c r="C122" s="550">
         <v>27</v>
       </c>
-      <c r="D122" s="471">
+      <c r="D122" s="550">
         <v>24</v>
       </c>
-      <c r="E122" s="471">
+      <c r="E122" s="550">
         <v>22</v>
       </c>
       <c r="F122" s="49"/>
-      <c r="G122" s="576" t="s">
+      <c r="G122" s="558" t="s">
         <v>25</v>
       </c>
-      <c r="H122" s="626"/>
-      <c r="I122" s="544"/>
-      <c r="J122" s="545"/>
-      <c r="K122" s="454" t="s">
+      <c r="H122" s="521"/>
+      <c r="I122" s="522"/>
+      <c r="J122" s="523"/>
+      <c r="K122" s="477" t="s">
         <v>37</v>
       </c>
-      <c r="L122" s="455"/>
-      <c r="M122" s="456"/>
+      <c r="L122" s="478"/>
+      <c r="M122" s="488"/>
       <c r="N122" s="54"/>
       <c r="O122" s="54"/>
       <c r="P122" s="54"/>
       <c r="Q122" s="56"/>
       <c r="R122" s="57"/>
       <c r="S122" s="57"/>
-      <c r="T122" s="486"/>
-      <c r="U122" s="487"/>
-      <c r="V122" s="488"/>
+      <c r="T122" s="511"/>
+      <c r="U122" s="512"/>
+      <c r="V122" s="513"/>
       <c r="W122" s="56"/>
       <c r="X122" s="57"/>
       <c r="Y122" s="58"/>
@@ -8573,12 +8672,12 @@
       <c r="A123" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B123" s="586"/>
-      <c r="C123" s="472"/>
-      <c r="D123" s="472"/>
-      <c r="E123" s="472"/>
+      <c r="B123" s="570"/>
+      <c r="C123" s="551"/>
+      <c r="D123" s="551"/>
+      <c r="E123" s="551"/>
       <c r="F123" s="38"/>
-      <c r="G123" s="577"/>
+      <c r="G123" s="559"/>
       <c r="H123" s="391"/>
       <c r="I123" s="392"/>
       <c r="J123" s="393"/>
@@ -8608,33 +8707,35 @@
       <c r="A124" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="B124" s="471"/>
-      <c r="C124" s="471"/>
-      <c r="D124" s="471"/>
-      <c r="E124" s="471"/>
-      <c r="F124" s="471"/>
-      <c r="G124" s="576" t="s">
+      <c r="B124" s="550"/>
+      <c r="C124" s="550"/>
+      <c r="D124" s="550"/>
+      <c r="E124" s="550"/>
+      <c r="F124" s="550"/>
+      <c r="G124" s="558" t="s">
         <v>35</v>
       </c>
       <c r="H124" s="394"/>
       <c r="I124" s="395"/>
       <c r="J124" s="396"/>
-      <c r="K124" s="454" t="s">
+      <c r="K124" s="477" t="s">
         <v>37</v>
       </c>
-      <c r="L124" s="455"/>
-      <c r="M124" s="456"/>
-      <c r="N124" s="54"/>
-      <c r="O124" s="54"/>
+      <c r="L124" s="478"/>
+      <c r="M124" s="488"/>
+      <c r="N124" s="642"/>
+      <c r="O124" s="646" t="s">
+        <v>197</v>
+      </c>
       <c r="P124" s="54"/>
-      <c r="Q124" s="454" t="s">
+      <c r="Q124" s="477" t="s">
         <v>118</v>
       </c>
-      <c r="R124" s="455"/>
-      <c r="S124" s="455"/>
-      <c r="T124" s="486"/>
-      <c r="U124" s="487"/>
-      <c r="V124" s="488"/>
+      <c r="R124" s="478"/>
+      <c r="S124" s="478"/>
+      <c r="T124" s="511"/>
+      <c r="U124" s="512"/>
+      <c r="V124" s="513"/>
       <c r="W124" s="397"/>
       <c r="X124" s="4"/>
       <c r="Y124" s="358"/>
@@ -8643,20 +8744,20 @@
       <c r="A125" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="B125" s="472"/>
-      <c r="C125" s="472"/>
-      <c r="D125" s="472"/>
-      <c r="E125" s="472"/>
-      <c r="F125" s="472"/>
-      <c r="G125" s="577"/>
+      <c r="B125" s="551"/>
+      <c r="C125" s="551"/>
+      <c r="D125" s="551"/>
+      <c r="E125" s="551"/>
+      <c r="F125" s="551"/>
+      <c r="G125" s="559"/>
       <c r="H125" s="398"/>
       <c r="I125" s="399"/>
       <c r="J125" s="400"/>
       <c r="K125" s="377"/>
       <c r="L125" s="378"/>
       <c r="M125" s="379"/>
-      <c r="N125" s="40"/>
-      <c r="O125" s="4"/>
+      <c r="N125" s="643"/>
+      <c r="O125" s="648"/>
       <c r="P125" s="4"/>
       <c r="Q125" s="78" t="s">
         <v>120</v>
@@ -8678,37 +8779,40 @@
       <c r="A126" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B126" s="471"/>
-      <c r="C126" s="471"/>
-      <c r="D126" s="471"/>
-      <c r="E126" s="471"/>
-      <c r="F126" s="471"/>
-      <c r="G126" s="576" t="s">
+      <c r="B126" s="550"/>
+      <c r="C126" s="550"/>
+      <c r="D126" s="550"/>
+      <c r="E126" s="550"/>
+      <c r="F126" s="550"/>
+      <c r="G126" s="558" t="s">
         <v>47</v>
       </c>
-      <c r="H126" s="575" t="s">
+      <c r="H126" s="490" t="s">
         <v>37</v>
       </c>
-      <c r="I126" s="458"/>
-      <c r="J126" s="459"/>
+      <c r="I126" s="462"/>
+      <c r="J126" s="463"/>
       <c r="K126" s="360" t="s">
         <v>51</v>
       </c>
-      <c r="L126" s="580" t="s">
+      <c r="L126" s="499" t="s">
         <v>52</v>
       </c>
-      <c r="M126" s="582"/>
-      <c r="N126" s="54"/>
-      <c r="O126" s="54"/>
-      <c r="P126" s="54"/>
-      <c r="Q126" s="454" t="s">
+      <c r="M126" s="500"/>
+      <c r="N126" s="649" t="s">
+        <v>198</v>
+      </c>
+      <c r="O126" s="648" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q126" s="477" t="s">
         <v>118</v>
       </c>
-      <c r="R126" s="455"/>
-      <c r="S126" s="455"/>
-      <c r="T126" s="571"/>
-      <c r="U126" s="572"/>
-      <c r="V126" s="573"/>
+      <c r="R126" s="478"/>
+      <c r="S126" s="478"/>
+      <c r="T126" s="514"/>
+      <c r="U126" s="515"/>
+      <c r="V126" s="516"/>
       <c r="W126" s="53"/>
       <c r="X126" s="54"/>
       <c r="Y126" s="401"/>
@@ -8717,12 +8821,12 @@
       <c r="A127" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="B127" s="472"/>
-      <c r="C127" s="472"/>
-      <c r="D127" s="472"/>
-      <c r="E127" s="472"/>
-      <c r="F127" s="472"/>
-      <c r="G127" s="577"/>
+      <c r="B127" s="551"/>
+      <c r="C127" s="551"/>
+      <c r="D127" s="551"/>
+      <c r="E127" s="551"/>
+      <c r="F127" s="551"/>
+      <c r="G127" s="559"/>
       <c r="H127" s="131" t="s">
         <v>136</v>
       </c>
@@ -8741,9 +8845,12 @@
       <c r="M127" s="132" t="s">
         <v>71</v>
       </c>
-      <c r="N127" s="40"/>
-      <c r="O127" s="40"/>
-      <c r="P127" s="93"/>
+      <c r="N127" s="650" t="s">
+        <v>200</v>
+      </c>
+      <c r="O127" s="647" t="s">
+        <v>201</v>
+      </c>
       <c r="Q127" s="78" t="s">
         <v>120</v>
       </c>
@@ -8769,26 +8876,28 @@
       <c r="D128" s="73"/>
       <c r="E128" s="73"/>
       <c r="F128" s="73"/>
-      <c r="G128" s="576" t="s">
+      <c r="G128" s="558" t="s">
         <v>59</v>
       </c>
-      <c r="H128" s="579" t="s">
+      <c r="H128" s="527" t="s">
         <v>117</v>
       </c>
-      <c r="I128" s="470"/>
-      <c r="J128" s="560"/>
+      <c r="I128" s="494"/>
+      <c r="J128" s="528"/>
       <c r="K128" s="56"/>
       <c r="L128" s="57"/>
       <c r="M128" s="402"/>
-      <c r="N128" s="627"/>
-      <c r="O128" s="594"/>
-      <c r="P128" s="595"/>
+      <c r="N128" s="650" t="s">
+        <v>202</v>
+      </c>
+      <c r="O128" s="644"/>
+      <c r="P128" s="641"/>
       <c r="Q128" s="403"/>
       <c r="R128" s="207"/>
       <c r="S128" s="207"/>
-      <c r="T128" s="486"/>
-      <c r="U128" s="487"/>
-      <c r="V128" s="488"/>
+      <c r="T128" s="511"/>
+      <c r="U128" s="512"/>
+      <c r="V128" s="513"/>
       <c r="W128" s="403"/>
       <c r="X128" s="207"/>
       <c r="Y128" s="404"/>
@@ -8800,20 +8909,22 @@
       <c r="D129" s="75"/>
       <c r="E129" s="75"/>
       <c r="F129" s="75"/>
-      <c r="G129" s="577"/>
+      <c r="G129" s="559"/>
       <c r="H129" s="234" t="s">
         <v>57</v>
       </c>
-      <c r="I129" s="461" t="s">
+      <c r="I129" s="535" t="s">
         <v>119</v>
       </c>
-      <c r="J129" s="462"/>
+      <c r="J129" s="536"/>
       <c r="K129" s="80"/>
       <c r="L129" s="81"/>
       <c r="M129" s="89"/>
-      <c r="N129" s="405"/>
-      <c r="O129" s="406"/>
-      <c r="P129" s="407"/>
+      <c r="N129" s="647" t="s">
+        <v>203</v>
+      </c>
+      <c r="O129" s="645"/>
+      <c r="P129" s="405"/>
       <c r="Q129" s="68"/>
       <c r="R129" s="40"/>
       <c r="S129" s="40"/>
@@ -8831,26 +8942,26 @@
       <c r="D130" s="73"/>
       <c r="E130" s="73"/>
       <c r="F130" s="74"/>
-      <c r="G130" s="576" t="s">
+      <c r="G130" s="558" t="s">
         <v>69</v>
       </c>
-      <c r="H130" s="579" t="s">
+      <c r="H130" s="527" t="s">
         <v>117</v>
       </c>
-      <c r="I130" s="470"/>
-      <c r="J130" s="560"/>
+      <c r="I130" s="494"/>
+      <c r="J130" s="528"/>
       <c r="K130" s="88"/>
       <c r="L130" s="109"/>
       <c r="M130" s="252"/>
-      <c r="N130" s="408"/>
-      <c r="O130" s="409"/>
-      <c r="P130" s="410"/>
+      <c r="N130" s="406"/>
+      <c r="O130" s="407"/>
+      <c r="P130" s="408"/>
       <c r="Q130" s="56"/>
       <c r="R130" s="57"/>
       <c r="S130" s="57"/>
-      <c r="T130" s="486"/>
-      <c r="U130" s="487"/>
-      <c r="V130" s="488"/>
+      <c r="T130" s="511"/>
+      <c r="U130" s="512"/>
+      <c r="V130" s="513"/>
       <c r="W130" s="56"/>
       <c r="X130" s="57"/>
       <c r="Y130" s="58"/>
@@ -8862,14 +8973,14 @@
       <c r="D131" s="250"/>
       <c r="E131" s="250"/>
       <c r="F131" s="250"/>
-      <c r="G131" s="597"/>
+      <c r="G131" s="566"/>
       <c r="H131" s="234" t="s">
         <v>57</v>
       </c>
-      <c r="I131" s="461" t="s">
+      <c r="I131" s="535" t="s">
         <v>176</v>
       </c>
-      <c r="J131" s="462"/>
+      <c r="J131" s="536"/>
       <c r="K131" s="337"/>
       <c r="L131" s="338"/>
       <c r="M131" s="217"/>
@@ -8888,53 +8999,53 @@
     </row>
     <row r="132" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A132" s="120"/>
-      <c r="B132" s="483">
+      <c r="B132" s="552">
         <v>14</v>
       </c>
-      <c r="C132" s="483">
+      <c r="C132" s="552">
         <v>14</v>
       </c>
-      <c r="D132" s="483">
+      <c r="D132" s="552">
         <v>11</v>
       </c>
-      <c r="E132" s="473">
+      <c r="E132" s="571">
         <v>9</v>
       </c>
-      <c r="F132" s="483">
+      <c r="F132" s="552">
         <v>6</v>
       </c>
-      <c r="G132" s="600" t="s">
+      <c r="G132" s="561" t="s">
         <v>22</v>
       </c>
       <c r="H132" s="280"/>
       <c r="I132" s="281"/>
       <c r="J132" s="318"/>
-      <c r="K132" s="467" t="s">
+      <c r="K132" s="517" t="s">
         <v>123</v>
       </c>
-      <c r="L132" s="468"/>
-      <c r="M132" s="606"/>
+      <c r="L132" s="518"/>
+      <c r="M132" s="519"/>
       <c r="N132" s="53"/>
-      <c r="O132" s="411"/>
-      <c r="P132" s="412"/>
+      <c r="O132" s="409"/>
+      <c r="P132" s="410"/>
       <c r="Q132" s="110"/>
       <c r="R132" s="111"/>
       <c r="S132" s="111"/>
-      <c r="T132" s="413"/>
-      <c r="U132" s="414"/>
-      <c r="V132" s="415"/>
+      <c r="T132" s="411"/>
+      <c r="U132" s="412"/>
+      <c r="V132" s="413"/>
       <c r="W132" s="110"/>
       <c r="X132" s="111"/>
       <c r="Y132" s="225"/>
     </row>
     <row r="133" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="178"/>
-      <c r="B133" s="472"/>
-      <c r="C133" s="472"/>
-      <c r="D133" s="472"/>
-      <c r="E133" s="474"/>
-      <c r="F133" s="472"/>
-      <c r="G133" s="577"/>
+      <c r="B133" s="551"/>
+      <c r="C133" s="551"/>
+      <c r="D133" s="551"/>
+      <c r="E133" s="572"/>
+      <c r="F133" s="551"/>
+      <c r="G133" s="559"/>
       <c r="H133" s="88"/>
       <c r="I133" s="109"/>
       <c r="J133" s="64"/>
@@ -8949,11 +9060,11 @@
       </c>
       <c r="N133" s="80"/>
       <c r="O133" s="228"/>
-      <c r="P133" s="416"/>
+      <c r="P133" s="414"/>
       <c r="Q133" s="133"/>
       <c r="R133" s="93"/>
       <c r="S133" s="93"/>
-      <c r="T133" s="417"/>
+      <c r="T133" s="415"/>
       <c r="U133" s="247"/>
       <c r="V133" s="214"/>
       <c r="W133" s="133"/>
@@ -8964,57 +9075,57 @@
       <c r="A134" s="178" t="s">
         <v>21</v>
       </c>
-      <c r="B134" s="471">
+      <c r="B134" s="550">
         <v>28</v>
       </c>
-      <c r="C134" s="471">
+      <c r="C134" s="550">
         <v>28</v>
       </c>
-      <c r="D134" s="471">
+      <c r="D134" s="550">
         <v>25</v>
       </c>
-      <c r="E134" s="471">
+      <c r="E134" s="550">
         <v>23</v>
       </c>
-      <c r="F134" s="471"/>
-      <c r="G134" s="576" t="s">
+      <c r="F134" s="550"/>
+      <c r="G134" s="558" t="s">
         <v>25</v>
       </c>
-      <c r="H134" s="579" t="s">
+      <c r="H134" s="527" t="s">
         <v>98</v>
       </c>
-      <c r="I134" s="470"/>
-      <c r="J134" s="560"/>
-      <c r="K134" s="457" t="s">
+      <c r="I134" s="494"/>
+      <c r="J134" s="528"/>
+      <c r="K134" s="461" t="s">
         <v>123</v>
       </c>
-      <c r="L134" s="458"/>
-      <c r="M134" s="459"/>
-      <c r="N134" s="454" t="s">
+      <c r="L134" s="462"/>
+      <c r="M134" s="463"/>
+      <c r="N134" s="477" t="s">
         <v>95</v>
       </c>
-      <c r="O134" s="455"/>
-      <c r="P134" s="455"/>
-      <c r="Q134" s="455"/>
-      <c r="R134" s="455"/>
-      <c r="S134" s="455"/>
-      <c r="T134" s="486"/>
-      <c r="U134" s="487"/>
-      <c r="V134" s="488"/>
-      <c r="W134" s="457"/>
-      <c r="X134" s="458"/>
-      <c r="Y134" s="485"/>
+      <c r="O134" s="478"/>
+      <c r="P134" s="478"/>
+      <c r="Q134" s="478"/>
+      <c r="R134" s="478"/>
+      <c r="S134" s="478"/>
+      <c r="T134" s="511"/>
+      <c r="U134" s="512"/>
+      <c r="V134" s="513"/>
+      <c r="W134" s="461"/>
+      <c r="X134" s="462"/>
+      <c r="Y134" s="476"/>
     </row>
     <row r="135" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="137" t="s">
         <v>140</v>
       </c>
-      <c r="B135" s="472"/>
-      <c r="C135" s="472"/>
-      <c r="D135" s="472"/>
-      <c r="E135" s="472"/>
-      <c r="F135" s="472"/>
-      <c r="G135" s="577"/>
+      <c r="B135" s="551"/>
+      <c r="C135" s="551"/>
+      <c r="D135" s="551"/>
+      <c r="E135" s="551"/>
+      <c r="F135" s="551"/>
+      <c r="G135" s="559"/>
       <c r="H135" s="184" t="s">
         <v>72</v>
       </c>
@@ -9027,16 +9138,16 @@
       <c r="K135" s="360" t="s">
         <v>51</v>
       </c>
-      <c r="L135" s="580" t="s">
+      <c r="L135" s="499" t="s">
         <v>52</v>
       </c>
-      <c r="M135" s="582"/>
+      <c r="M135" s="500"/>
       <c r="N135" s="68" t="s">
         <v>42</v>
       </c>
       <c r="O135" s="40"/>
-      <c r="P135" s="479"/>
-      <c r="Q135" s="479"/>
+      <c r="P135" s="457"/>
+      <c r="Q135" s="457"/>
       <c r="R135" s="83" t="s">
         <v>43</v>
       </c>
@@ -9045,7 +9156,7 @@
       </c>
       <c r="T135" s="204"/>
       <c r="U135" s="205"/>
-      <c r="V135" s="418"/>
+      <c r="V135" s="416"/>
       <c r="W135" s="68"/>
       <c r="X135" s="83"/>
       <c r="Y135" s="94"/>
@@ -9054,39 +9165,39 @@
       <c r="A136" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="B136" s="471"/>
-      <c r="C136" s="471"/>
-      <c r="D136" s="471"/>
-      <c r="E136" s="471"/>
-      <c r="F136" s="471"/>
-      <c r="G136" s="576" t="s">
+      <c r="B136" s="550"/>
+      <c r="C136" s="550"/>
+      <c r="D136" s="550"/>
+      <c r="E136" s="550"/>
+      <c r="F136" s="550"/>
+      <c r="G136" s="558" t="s">
         <v>35</v>
       </c>
-      <c r="H136" s="593" t="s">
+      <c r="H136" s="524" t="s">
         <v>114</v>
       </c>
-      <c r="I136" s="594"/>
-      <c r="J136" s="595"/>
+      <c r="I136" s="525"/>
+      <c r="J136" s="526"/>
       <c r="K136" s="359"/>
       <c r="L136" s="61"/>
       <c r="M136" s="62"/>
-      <c r="N136" s="457" t="s">
+      <c r="N136" s="461" t="s">
         <v>95</v>
       </c>
-      <c r="O136" s="458"/>
-      <c r="P136" s="459"/>
-      <c r="Q136" s="457" t="s">
+      <c r="O136" s="462"/>
+      <c r="P136" s="463"/>
+      <c r="Q136" s="461" t="s">
         <v>99</v>
       </c>
-      <c r="R136" s="458"/>
-      <c r="S136" s="458"/>
-      <c r="T136" s="486"/>
-      <c r="U136" s="487"/>
-      <c r="V136" s="488"/>
-      <c r="W136" s="419" t="s">
+      <c r="R136" s="462"/>
+      <c r="S136" s="462"/>
+      <c r="T136" s="511"/>
+      <c r="U136" s="512"/>
+      <c r="V136" s="513"/>
+      <c r="W136" s="417" t="s">
         <v>177</v>
       </c>
-      <c r="X136" s="411" t="s">
+      <c r="X136" s="409" t="s">
         <v>178</v>
       </c>
       <c r="Y136" s="401"/>
@@ -9095,12 +9206,12 @@
       <c r="A137" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="B137" s="472"/>
-      <c r="C137" s="472"/>
-      <c r="D137" s="472"/>
-      <c r="E137" s="472"/>
-      <c r="F137" s="472"/>
-      <c r="G137" s="577"/>
+      <c r="B137" s="551"/>
+      <c r="C137" s="551"/>
+      <c r="D137" s="551"/>
+      <c r="E137" s="551"/>
+      <c r="F137" s="551"/>
+      <c r="G137" s="559"/>
       <c r="H137" s="131" t="s">
         <v>111</v>
       </c>
@@ -9139,8 +9250,8 @@
       </c>
       <c r="T137" s="204"/>
       <c r="U137" s="205"/>
-      <c r="V137" s="418"/>
-      <c r="W137" s="420" t="s">
+      <c r="V137" s="416"/>
+      <c r="W137" s="418" t="s">
         <v>180</v>
       </c>
       <c r="X137" s="232" t="s">
@@ -9157,37 +9268,37 @@
       <c r="D138" s="73"/>
       <c r="E138" s="73"/>
       <c r="F138" s="74"/>
-      <c r="G138" s="576" t="s">
+      <c r="G138" s="558" t="s">
         <v>47</v>
       </c>
-      <c r="H138" s="593" t="s">
+      <c r="H138" s="524" t="s">
         <v>114</v>
       </c>
-      <c r="I138" s="594"/>
-      <c r="J138" s="595"/>
+      <c r="I138" s="525"/>
+      <c r="J138" s="526"/>
       <c r="K138" s="249"/>
       <c r="L138" s="4"/>
       <c r="M138" s="64"/>
-      <c r="N138" s="457" t="s">
+      <c r="N138" s="461" t="s">
         <v>38</v>
       </c>
-      <c r="O138" s="458"/>
-      <c r="P138" s="459"/>
-      <c r="Q138" s="457" t="s">
+      <c r="O138" s="462"/>
+      <c r="P138" s="463"/>
+      <c r="Q138" s="461" t="s">
         <v>99</v>
       </c>
-      <c r="R138" s="458"/>
-      <c r="S138" s="458"/>
-      <c r="T138" s="543"/>
-      <c r="U138" s="544"/>
-      <c r="V138" s="545"/>
-      <c r="W138" s="421" t="s">
+      <c r="R138" s="462"/>
+      <c r="S138" s="462"/>
+      <c r="T138" s="607"/>
+      <c r="U138" s="522"/>
+      <c r="V138" s="523"/>
+      <c r="W138" s="419" t="s">
         <v>182</v>
       </c>
-      <c r="X138" s="542" t="s">
+      <c r="X138" s="606" t="s">
         <v>183</v>
       </c>
-      <c r="Y138" s="513"/>
+      <c r="Y138" s="460"/>
     </row>
     <row r="139" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="137" t="s">
@@ -9198,7 +9309,7 @@
       <c r="D139" s="75"/>
       <c r="E139" s="75"/>
       <c r="F139" s="75"/>
-      <c r="G139" s="577"/>
+      <c r="G139" s="559"/>
       <c r="H139" s="131" t="s">
         <v>111</v>
       </c>
@@ -9233,12 +9344,12 @@
         <v>56</v>
       </c>
       <c r="U139" s="205"/>
-      <c r="V139" s="418"/>
-      <c r="W139" s="478" t="s">
+      <c r="V139" s="416"/>
+      <c r="W139" s="495" t="s">
         <v>184</v>
       </c>
-      <c r="X139" s="479"/>
-      <c r="Y139" s="514"/>
+      <c r="X139" s="457"/>
+      <c r="Y139" s="591"/>
     </row>
     <row r="140" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="137" t="s">
@@ -9249,33 +9360,33 @@
       <c r="D140" s="73"/>
       <c r="E140" s="73"/>
       <c r="F140" s="74"/>
-      <c r="G140" s="576" t="s">
+      <c r="G140" s="558" t="s">
         <v>59</v>
       </c>
-      <c r="H140" s="469"/>
-      <c r="I140" s="470"/>
-      <c r="J140" s="560"/>
+      <c r="H140" s="493"/>
+      <c r="I140" s="494"/>
+      <c r="J140" s="528"/>
       <c r="K140" s="249"/>
       <c r="L140" s="249"/>
       <c r="M140" s="292"/>
-      <c r="N140" s="454" t="s">
+      <c r="N140" s="477" t="s">
         <v>185</v>
       </c>
-      <c r="O140" s="455"/>
-      <c r="P140" s="455"/>
-      <c r="Q140" s="455"/>
-      <c r="R140" s="455"/>
-      <c r="S140" s="455"/>
-      <c r="T140" s="507" t="s">
+      <c r="O140" s="478"/>
+      <c r="P140" s="478"/>
+      <c r="Q140" s="478"/>
+      <c r="R140" s="478"/>
+      <c r="S140" s="478"/>
+      <c r="T140" s="473" t="s">
         <v>147</v>
       </c>
-      <c r="U140" s="508"/>
-      <c r="V140" s="509"/>
-      <c r="W140" s="457" t="s">
+      <c r="U140" s="474"/>
+      <c r="V140" s="475"/>
+      <c r="W140" s="461" t="s">
         <v>186</v>
       </c>
-      <c r="X140" s="458"/>
-      <c r="Y140" s="485"/>
+      <c r="X140" s="462"/>
+      <c r="Y140" s="476"/>
     </row>
     <row r="141" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="137"/>
@@ -9284,7 +9395,7 @@
       <c r="D141" s="75"/>
       <c r="E141" s="75"/>
       <c r="F141" s="75"/>
-      <c r="G141" s="577"/>
+      <c r="G141" s="559"/>
       <c r="H141" s="68"/>
       <c r="I141" s="40"/>
       <c r="J141" s="89"/>
@@ -9295,8 +9406,8 @@
         <v>187</v>
       </c>
       <c r="O141" s="228"/>
-      <c r="P141" s="622"/>
-      <c r="Q141" s="622"/>
+      <c r="P141" s="497"/>
+      <c r="Q141" s="497"/>
       <c r="R141" s="93" t="s">
         <v>97</v>
       </c>
@@ -9318,7 +9429,7 @@
       <c r="X141" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="Y141" s="422" t="s">
+      <c r="Y141" s="420" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9329,26 +9440,26 @@
       <c r="D142" s="73"/>
       <c r="E142" s="73"/>
       <c r="F142" s="74"/>
-      <c r="G142" s="576" t="s">
+      <c r="G142" s="558" t="s">
         <v>69</v>
       </c>
-      <c r="H142" s="628"/>
-      <c r="I142" s="562"/>
-      <c r="J142" s="563"/>
+      <c r="H142" s="529"/>
+      <c r="I142" s="530"/>
+      <c r="J142" s="531"/>
       <c r="K142" s="4"/>
       <c r="L142" s="4"/>
       <c r="M142" s="4"/>
       <c r="N142" s="381"/>
-      <c r="O142" s="423"/>
+      <c r="O142" s="421"/>
       <c r="P142" s="292"/>
       <c r="Q142" s="50"/>
       <c r="R142" s="51"/>
       <c r="S142" s="51"/>
-      <c r="T142" s="507" t="s">
+      <c r="T142" s="473" t="s">
         <v>147</v>
       </c>
-      <c r="U142" s="508"/>
-      <c r="V142" s="509"/>
+      <c r="U142" s="474"/>
+      <c r="V142" s="475"/>
       <c r="W142" s="50"/>
       <c r="X142" s="51"/>
       <c r="Y142" s="159"/>
@@ -9360,16 +9471,16 @@
       <c r="D143" s="250"/>
       <c r="E143" s="250"/>
       <c r="F143" s="250"/>
-      <c r="G143" s="597"/>
+      <c r="G143" s="566"/>
       <c r="H143" s="218"/>
       <c r="I143" s="119"/>
-      <c r="J143" s="424"/>
+      <c r="J143" s="422"/>
       <c r="K143" s="168"/>
       <c r="L143" s="168"/>
-      <c r="M143" s="424"/>
+      <c r="M143" s="422"/>
       <c r="N143" s="168"/>
-      <c r="O143" s="425"/>
-      <c r="P143" s="424"/>
+      <c r="O143" s="423"/>
+      <c r="P143" s="422"/>
       <c r="Q143" s="78"/>
       <c r="R143" s="383"/>
       <c r="S143" s="383"/>
@@ -9384,58 +9495,58 @@
       </c>
       <c r="W143" s="78"/>
       <c r="X143" s="383"/>
-      <c r="Y143" s="426"/>
+      <c r="Y143" s="424"/>
     </row>
     <row r="144" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A144" s="120"/>
-      <c r="B144" s="483">
+      <c r="B144" s="552">
         <v>15</v>
       </c>
-      <c r="C144" s="483">
+      <c r="C144" s="552">
         <v>1</v>
       </c>
-      <c r="D144" s="483">
+      <c r="D144" s="552">
         <v>12</v>
       </c>
-      <c r="E144" s="473">
+      <c r="E144" s="571">
         <v>10</v>
       </c>
-      <c r="F144" s="483">
+      <c r="F144" s="552">
         <v>7</v>
       </c>
-      <c r="G144" s="600" t="s">
+      <c r="G144" s="561" t="s">
         <v>22</v>
       </c>
-      <c r="H144" s="609"/>
-      <c r="I144" s="468"/>
-      <c r="J144" s="606"/>
+      <c r="H144" s="565"/>
+      <c r="I144" s="518"/>
+      <c r="J144" s="519"/>
       <c r="K144" s="280"/>
       <c r="L144" s="281"/>
       <c r="M144" s="281"/>
-      <c r="N144" s="467" t="s">
+      <c r="N144" s="517" t="s">
         <v>188</v>
       </c>
-      <c r="O144" s="468"/>
-      <c r="P144" s="606"/>
+      <c r="O144" s="518"/>
+      <c r="P144" s="519"/>
       <c r="Q144" s="125"/>
       <c r="R144" s="123"/>
       <c r="S144" s="123"/>
-      <c r="T144" s="539"/>
-      <c r="U144" s="540"/>
-      <c r="V144" s="541"/>
+      <c r="T144" s="603"/>
+      <c r="U144" s="604"/>
+      <c r="V144" s="605"/>
       <c r="W144" s="125"/>
       <c r="X144" s="123"/>
       <c r="Y144" s="127"/>
     </row>
     <row r="145" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="178"/>
-      <c r="B145" s="472"/>
-      <c r="C145" s="472"/>
-      <c r="D145" s="472"/>
-      <c r="E145" s="474"/>
-      <c r="F145" s="472"/>
-      <c r="G145" s="577"/>
-      <c r="H145" s="427"/>
+      <c r="B145" s="551"/>
+      <c r="C145" s="551"/>
+      <c r="D145" s="551"/>
+      <c r="E145" s="572"/>
+      <c r="F145" s="551"/>
+      <c r="G145" s="559"/>
+      <c r="H145" s="425"/>
       <c r="I145" s="134"/>
       <c r="J145" s="163"/>
       <c r="K145" s="68"/>
@@ -9464,36 +9575,36 @@
       <c r="A146" s="178" t="s">
         <v>96</v>
       </c>
-      <c r="B146" s="471"/>
-      <c r="C146" s="471">
+      <c r="B146" s="550"/>
+      <c r="C146" s="550">
         <v>15</v>
       </c>
-      <c r="D146" s="471">
+      <c r="D146" s="550">
         <v>26</v>
       </c>
-      <c r="E146" s="471">
+      <c r="E146" s="550">
         <v>24</v>
       </c>
-      <c r="F146" s="471"/>
-      <c r="G146" s="576" t="s">
+      <c r="F146" s="550"/>
+      <c r="G146" s="558" t="s">
         <v>25</v>
       </c>
-      <c r="H146" s="625"/>
-      <c r="I146" s="458"/>
-      <c r="J146" s="459"/>
-      <c r="N146" s="457" t="s">
+      <c r="H146" s="520"/>
+      <c r="I146" s="462"/>
+      <c r="J146" s="463"/>
+      <c r="N146" s="461" t="s">
         <v>188</v>
       </c>
-      <c r="O146" s="458"/>
-      <c r="P146" s="459"/>
+      <c r="O146" s="462"/>
+      <c r="P146" s="463"/>
       <c r="Q146" s="197"/>
       <c r="R146" s="54"/>
       <c r="S146" s="54"/>
-      <c r="T146" s="521" t="s">
+      <c r="T146" s="537" t="s">
         <v>190</v>
       </c>
-      <c r="U146" s="522"/>
-      <c r="V146" s="523"/>
+      <c r="U146" s="538"/>
+      <c r="V146" s="539"/>
       <c r="W146" s="197"/>
       <c r="X146" s="54"/>
       <c r="Y146" s="401"/>
@@ -9502,13 +9613,13 @@
       <c r="A147" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="B147" s="472"/>
-      <c r="C147" s="472"/>
-      <c r="D147" s="472"/>
-      <c r="E147" s="472"/>
-      <c r="F147" s="472"/>
-      <c r="G147" s="577"/>
-      <c r="H147" s="428"/>
+      <c r="B147" s="551"/>
+      <c r="C147" s="551"/>
+      <c r="D147" s="551"/>
+      <c r="E147" s="551"/>
+      <c r="F147" s="551"/>
+      <c r="G147" s="559"/>
+      <c r="H147" s="426"/>
       <c r="I147" s="93"/>
       <c r="J147" s="132"/>
       <c r="N147" s="68" t="s">
@@ -9523,9 +9634,9 @@
       <c r="Q147" s="68"/>
       <c r="R147" s="40"/>
       <c r="S147" s="93"/>
-      <c r="T147" s="429"/>
-      <c r="U147" s="430"/>
-      <c r="V147" s="431"/>
+      <c r="T147" s="427"/>
+      <c r="U147" s="428"/>
+      <c r="V147" s="429"/>
       <c r="W147" s="68"/>
       <c r="X147" s="40"/>
       <c r="Y147" s="94"/>
@@ -9534,45 +9645,45 @@
       <c r="A148" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="B148" s="471"/>
-      <c r="C148" s="471">
+      <c r="B148" s="550"/>
+      <c r="C148" s="550">
         <v>29</v>
       </c>
-      <c r="D148" s="471"/>
-      <c r="E148" s="471"/>
-      <c r="F148" s="471"/>
-      <c r="G148" s="576" t="s">
+      <c r="D148" s="550"/>
+      <c r="E148" s="550"/>
+      <c r="F148" s="550"/>
+      <c r="G148" s="558" t="s">
         <v>35</v>
       </c>
-      <c r="H148" s="607"/>
-      <c r="I148" s="491"/>
-      <c r="J148" s="608"/>
-      <c r="K148" s="457"/>
-      <c r="L148" s="458"/>
-      <c r="M148" s="458"/>
-      <c r="N148" s="457"/>
-      <c r="O148" s="458"/>
-      <c r="P148" s="458"/>
-      <c r="Q148" s="524"/>
-      <c r="R148" s="525"/>
-      <c r="S148" s="525"/>
-      <c r="T148" s="521"/>
-      <c r="U148" s="522"/>
-      <c r="V148" s="523"/>
-      <c r="W148" s="524"/>
-      <c r="X148" s="525"/>
-      <c r="Y148" s="526"/>
+      <c r="H148" s="562"/>
+      <c r="I148" s="563"/>
+      <c r="J148" s="564"/>
+      <c r="K148" s="461"/>
+      <c r="L148" s="462"/>
+      <c r="M148" s="462"/>
+      <c r="N148" s="461"/>
+      <c r="O148" s="462"/>
+      <c r="P148" s="462"/>
+      <c r="Q148" s="506"/>
+      <c r="R148" s="469"/>
+      <c r="S148" s="469"/>
+      <c r="T148" s="537"/>
+      <c r="U148" s="538"/>
+      <c r="V148" s="539"/>
+      <c r="W148" s="506"/>
+      <c r="X148" s="469"/>
+      <c r="Y148" s="470"/>
     </row>
     <row r="149" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="B149" s="472"/>
-      <c r="C149" s="472"/>
-      <c r="D149" s="472"/>
-      <c r="E149" s="472"/>
-      <c r="F149" s="472"/>
-      <c r="G149" s="577"/>
+      <c r="B149" s="551"/>
+      <c r="C149" s="551"/>
+      <c r="D149" s="551"/>
+      <c r="E149" s="551"/>
+      <c r="F149" s="551"/>
+      <c r="G149" s="559"/>
       <c r="H149" s="143"/>
       <c r="I149" s="87"/>
       <c r="J149" s="64"/>
@@ -9582,21 +9693,21 @@
       <c r="N149" s="68"/>
       <c r="O149" s="93"/>
       <c r="P149" s="93"/>
-      <c r="Q149" s="527"/>
-      <c r="R149" s="528"/>
-      <c r="S149" s="528"/>
+      <c r="Q149" s="507"/>
+      <c r="R149" s="471"/>
+      <c r="S149" s="471"/>
       <c r="T149" s="361" t="s">
         <v>191</v>
       </c>
       <c r="U149" s="190" t="s">
         <v>45</v>
       </c>
-      <c r="V149" s="432" t="s">
+      <c r="V149" s="430" t="s">
         <v>54</v>
       </c>
-      <c r="W149" s="527"/>
-      <c r="X149" s="528"/>
-      <c r="Y149" s="529"/>
+      <c r="W149" s="507"/>
+      <c r="X149" s="471"/>
+      <c r="Y149" s="472"/>
     </row>
     <row r="150" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="137" t="s">
@@ -9607,27 +9718,27 @@
       <c r="D150" s="191"/>
       <c r="E150" s="191"/>
       <c r="F150" s="191"/>
-      <c r="G150" s="598" t="s">
+      <c r="G150" s="567" t="s">
         <v>47</v>
       </c>
-      <c r="H150" s="433"/>
+      <c r="H150" s="431"/>
       <c r="I150" s="57"/>
       <c r="J150" s="402"/>
-      <c r="K150" s="434"/>
+      <c r="K150" s="432"/>
       <c r="L150" s="150"/>
       <c r="M150" s="151"/>
       <c r="N150" s="150"/>
       <c r="O150" s="150"/>
       <c r="P150" s="151"/>
-      <c r="Q150" s="524"/>
-      <c r="R150" s="525"/>
-      <c r="S150" s="525"/>
-      <c r="T150" s="435"/>
-      <c r="U150" s="436"/>
-      <c r="V150" s="437"/>
-      <c r="W150" s="524"/>
-      <c r="X150" s="525"/>
-      <c r="Y150" s="526"/>
+      <c r="Q150" s="506"/>
+      <c r="R150" s="469"/>
+      <c r="S150" s="469"/>
+      <c r="T150" s="433"/>
+      <c r="U150" s="434"/>
+      <c r="V150" s="435"/>
+      <c r="W150" s="506"/>
+      <c r="X150" s="469"/>
+      <c r="Y150" s="470"/>
     </row>
     <row r="151" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="137" t="s">
@@ -9638,7 +9749,7 @@
       <c r="D151" s="38"/>
       <c r="E151" s="38"/>
       <c r="F151" s="38"/>
-      <c r="G151" s="599"/>
+      <c r="G151" s="568"/>
       <c r="H151" s="131"/>
       <c r="I151" s="40"/>
       <c r="J151" s="84"/>
@@ -9648,15 +9759,15 @@
       <c r="N151" s="77"/>
       <c r="O151" s="77"/>
       <c r="P151" s="132"/>
-      <c r="Q151" s="527"/>
-      <c r="R151" s="528"/>
-      <c r="S151" s="528"/>
+      <c r="Q151" s="507"/>
+      <c r="R151" s="471"/>
+      <c r="S151" s="471"/>
       <c r="T151" s="361"/>
       <c r="U151" s="190"/>
-      <c r="V151" s="432"/>
-      <c r="W151" s="527"/>
-      <c r="X151" s="528"/>
-      <c r="Y151" s="529"/>
+      <c r="V151" s="430"/>
+      <c r="W151" s="507"/>
+      <c r="X151" s="471"/>
+      <c r="Y151" s="472"/>
     </row>
     <row r="152" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="137" t="s">
@@ -9667,27 +9778,27 @@
       <c r="D152" s="74"/>
       <c r="E152" s="74"/>
       <c r="F152" s="74"/>
-      <c r="G152" s="576" t="s">
+      <c r="G152" s="558" t="s">
         <v>59</v>
       </c>
       <c r="H152" s="56"/>
       <c r="I152" s="57"/>
       <c r="J152" s="57"/>
-      <c r="K152" s="457"/>
-      <c r="L152" s="458"/>
-      <c r="M152" s="458"/>
-      <c r="N152" s="515"/>
-      <c r="O152" s="516"/>
-      <c r="P152" s="583"/>
-      <c r="Q152" s="515"/>
-      <c r="R152" s="516"/>
-      <c r="S152" s="516"/>
-      <c r="T152" s="438"/>
+      <c r="K152" s="461"/>
+      <c r="L152" s="462"/>
+      <c r="M152" s="462"/>
+      <c r="N152" s="480"/>
+      <c r="O152" s="481"/>
+      <c r="P152" s="502"/>
+      <c r="Q152" s="480"/>
+      <c r="R152" s="481"/>
+      <c r="S152" s="481"/>
+      <c r="T152" s="436"/>
       <c r="U152" s="392"/>
       <c r="V152" s="392"/>
-      <c r="W152" s="515"/>
-      <c r="X152" s="516"/>
-      <c r="Y152" s="517"/>
+      <c r="W152" s="480"/>
+      <c r="X152" s="481"/>
+      <c r="Y152" s="482"/>
     </row>
     <row r="153" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="137"/>
@@ -9696,25 +9807,25 @@
       <c r="D153" s="75"/>
       <c r="E153" s="75"/>
       <c r="F153" s="75"/>
-      <c r="G153" s="577"/>
+      <c r="G153" s="559"/>
       <c r="H153" s="99"/>
       <c r="I153" s="83"/>
-      <c r="J153" s="439"/>
+      <c r="J153" s="437"/>
       <c r="K153" s="68"/>
       <c r="L153" s="93"/>
       <c r="M153" s="93"/>
-      <c r="N153" s="530"/>
-      <c r="O153" s="531"/>
-      <c r="P153" s="584"/>
-      <c r="Q153" s="530"/>
-      <c r="R153" s="531"/>
-      <c r="S153" s="531"/>
-      <c r="T153" s="438"/>
+      <c r="N153" s="508"/>
+      <c r="O153" s="509"/>
+      <c r="P153" s="510"/>
+      <c r="Q153" s="508"/>
+      <c r="R153" s="509"/>
+      <c r="S153" s="509"/>
+      <c r="T153" s="436"/>
       <c r="U153" s="392"/>
       <c r="V153" s="392"/>
-      <c r="W153" s="530"/>
-      <c r="X153" s="531"/>
-      <c r="Y153" s="532"/>
+      <c r="W153" s="508"/>
+      <c r="X153" s="509"/>
+      <c r="Y153" s="596"/>
     </row>
     <row r="154" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="137"/>
@@ -9723,7 +9834,7 @@
       <c r="D154" s="73"/>
       <c r="E154" s="73"/>
       <c r="F154" s="74"/>
-      <c r="G154" s="576" t="s">
+      <c r="G154" s="558" t="s">
         <v>69</v>
       </c>
       <c r="H154" s="286"/>
@@ -9732,18 +9843,18 @@
       <c r="K154" s="381"/>
       <c r="L154" s="249"/>
       <c r="M154" s="249"/>
-      <c r="N154" s="515"/>
-      <c r="O154" s="516"/>
-      <c r="P154" s="583"/>
-      <c r="Q154" s="515"/>
-      <c r="R154" s="516"/>
-      <c r="S154" s="516"/>
-      <c r="T154" s="440"/>
-      <c r="U154" s="441"/>
-      <c r="V154" s="442"/>
-      <c r="W154" s="515"/>
-      <c r="X154" s="516"/>
-      <c r="Y154" s="517"/>
+      <c r="N154" s="480"/>
+      <c r="O154" s="481"/>
+      <c r="P154" s="502"/>
+      <c r="Q154" s="480"/>
+      <c r="R154" s="481"/>
+      <c r="S154" s="481"/>
+      <c r="T154" s="438"/>
+      <c r="U154" s="439"/>
+      <c r="V154" s="440"/>
+      <c r="W154" s="480"/>
+      <c r="X154" s="481"/>
+      <c r="Y154" s="482"/>
     </row>
     <row r="155" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="160"/>
@@ -9752,34 +9863,34 @@
       <c r="D155" s="250"/>
       <c r="E155" s="250"/>
       <c r="F155" s="250"/>
-      <c r="G155" s="597"/>
+      <c r="G155" s="566"/>
       <c r="H155" s="218"/>
       <c r="I155" s="119"/>
       <c r="J155" s="253"/>
       <c r="K155" s="167"/>
       <c r="L155" s="168"/>
       <c r="M155" s="168"/>
-      <c r="N155" s="518"/>
-      <c r="O155" s="519"/>
-      <c r="P155" s="632"/>
-      <c r="Q155" s="518"/>
-      <c r="R155" s="519"/>
-      <c r="S155" s="519"/>
-      <c r="T155" s="443"/>
-      <c r="U155" s="444"/>
-      <c r="V155" s="445"/>
-      <c r="W155" s="518"/>
-      <c r="X155" s="519"/>
-      <c r="Y155" s="520"/>
+      <c r="N155" s="503"/>
+      <c r="O155" s="504"/>
+      <c r="P155" s="505"/>
+      <c r="Q155" s="503"/>
+      <c r="R155" s="504"/>
+      <c r="S155" s="504"/>
+      <c r="T155" s="441"/>
+      <c r="U155" s="442"/>
+      <c r="V155" s="443"/>
+      <c r="W155" s="503"/>
+      <c r="X155" s="504"/>
+      <c r="Y155" s="595"/>
     </row>
     <row r="156" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="446"/>
-      <c r="B156" s="446"/>
-      <c r="C156" s="446"/>
-      <c r="D156" s="446"/>
-      <c r="E156" s="446"/>
-      <c r="F156" s="446"/>
-      <c r="G156" s="446"/>
+      <c r="A156" s="444"/>
+      <c r="B156" s="444"/>
+      <c r="C156" s="444"/>
+      <c r="D156" s="444"/>
+      <c r="E156" s="444"/>
+      <c r="F156" s="444"/>
+      <c r="G156" s="444"/>
       <c r="H156" s="3" t="s">
         <v>192</v>
       </c>
@@ -9787,20 +9898,20 @@
       <c r="J156" s="5"/>
       <c r="K156" s="6"/>
       <c r="L156" s="6"/>
-      <c r="M156" s="447"/>
-      <c r="P156" s="447"/>
-      <c r="S156" s="447"/>
-      <c r="V156" s="447"/>
-      <c r="Y156" s="447"/>
+      <c r="M156" s="445"/>
+      <c r="P156" s="445"/>
+      <c r="S156" s="445"/>
+      <c r="V156" s="445"/>
+      <c r="Y156" s="445"/>
     </row>
     <row r="157" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="446"/>
-      <c r="B157" s="446"/>
-      <c r="C157" s="446"/>
-      <c r="D157" s="446"/>
-      <c r="E157" s="446"/>
-      <c r="F157" s="446"/>
-      <c r="G157" s="446"/>
+      <c r="A157" s="444"/>
+      <c r="B157" s="444"/>
+      <c r="C157" s="444"/>
+      <c r="D157" s="444"/>
+      <c r="E157" s="444"/>
+      <c r="F157" s="444"/>
+      <c r="G157" s="444"/>
       <c r="H157" s="6" t="s">
         <v>193</v>
       </c>
@@ -9808,20 +9919,20 @@
       <c r="J157" s="5"/>
       <c r="K157" s="6"/>
       <c r="L157" s="6"/>
-      <c r="M157" s="448"/>
-      <c r="P157" s="448"/>
-      <c r="S157" s="448"/>
-      <c r="V157" s="448"/>
-      <c r="Y157" s="448"/>
+      <c r="M157" s="446"/>
+      <c r="P157" s="446"/>
+      <c r="S157" s="446"/>
+      <c r="V157" s="446"/>
+      <c r="Y157" s="446"/>
     </row>
     <row r="158" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="446"/>
-      <c r="B158" s="446"/>
-      <c r="C158" s="446"/>
-      <c r="D158" s="446"/>
-      <c r="E158" s="446"/>
-      <c r="F158" s="446"/>
-      <c r="G158" s="446"/>
+      <c r="A158" s="444"/>
+      <c r="B158" s="444"/>
+      <c r="C158" s="444"/>
+      <c r="D158" s="444"/>
+      <c r="E158" s="444"/>
+      <c r="F158" s="444"/>
+      <c r="G158" s="444"/>
       <c r="H158" s="6" t="s">
         <v>194</v>
       </c>
@@ -9829,779 +9940,1028 @@
       <c r="J158" s="5"/>
       <c r="K158" s="6"/>
       <c r="L158" s="6"/>
-      <c r="M158" s="448"/>
-      <c r="P158" s="448"/>
-      <c r="S158" s="448"/>
-      <c r="V158" s="448"/>
-      <c r="Y158" s="448"/>
+      <c r="M158" s="446"/>
+      <c r="P158" s="446"/>
+      <c r="S158" s="446"/>
+      <c r="V158" s="446"/>
+      <c r="Y158" s="446"/>
     </row>
     <row r="159" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="446"/>
-      <c r="B159" s="446"/>
-      <c r="C159" s="446"/>
-      <c r="D159" s="446"/>
-      <c r="E159" s="446"/>
-      <c r="F159" s="446"/>
-      <c r="G159" s="446"/>
+      <c r="A159" s="444"/>
+      <c r="B159" s="444"/>
+      <c r="C159" s="444"/>
+      <c r="D159" s="444"/>
+      <c r="E159" s="444"/>
+      <c r="F159" s="444"/>
+      <c r="G159" s="444"/>
       <c r="H159" s="5"/>
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
       <c r="K159" s="3"/>
       <c r="L159" s="3"/>
-      <c r="M159" s="447"/>
-      <c r="P159" s="447"/>
-      <c r="S159" s="447"/>
-      <c r="V159" s="447"/>
-      <c r="Y159" s="447"/>
+      <c r="M159" s="445"/>
+      <c r="P159" s="445"/>
+      <c r="S159" s="445"/>
+      <c r="V159" s="445"/>
+      <c r="Y159" s="445"/>
     </row>
     <row r="160" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="446"/>
-      <c r="B160" s="446"/>
-      <c r="C160" s="446"/>
-      <c r="D160" s="446"/>
-      <c r="E160" s="446"/>
-      <c r="F160" s="446"/>
-      <c r="G160" s="446"/>
+      <c r="A160" s="444"/>
+      <c r="B160" s="444"/>
+      <c r="C160" s="444"/>
+      <c r="D160" s="444"/>
+      <c r="E160" s="444"/>
+      <c r="F160" s="444"/>
+      <c r="G160" s="444"/>
       <c r="H160" s="5"/>
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
-      <c r="M160" s="447"/>
-      <c r="P160" s="447"/>
-      <c r="S160" s="447"/>
-      <c r="V160" s="447"/>
-      <c r="Y160" s="447"/>
+      <c r="M160" s="445"/>
+      <c r="P160" s="445"/>
+      <c r="S160" s="445"/>
+      <c r="V160" s="445"/>
+      <c r="Y160" s="445"/>
     </row>
     <row r="161" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="446"/>
-      <c r="B161" s="446"/>
-      <c r="C161" s="446"/>
-      <c r="D161" s="446"/>
-      <c r="E161" s="446"/>
-      <c r="F161" s="446"/>
-      <c r="G161" s="446"/>
+      <c r="A161" s="444"/>
+      <c r="B161" s="444"/>
+      <c r="C161" s="444"/>
+      <c r="D161" s="444"/>
+      <c r="E161" s="444"/>
+      <c r="F161" s="444"/>
+      <c r="G161" s="444"/>
       <c r="H161" s="5"/>
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
-      <c r="M161" s="447"/>
-      <c r="P161" s="447"/>
-      <c r="S161" s="447"/>
-      <c r="V161" s="447"/>
-      <c r="Y161" s="447"/>
+      <c r="M161" s="445"/>
+      <c r="P161" s="445"/>
+      <c r="S161" s="445"/>
+      <c r="V161" s="445"/>
+      <c r="Y161" s="445"/>
     </row>
     <row r="162" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="446"/>
-      <c r="B162" s="446"/>
-      <c r="C162" s="446"/>
-      <c r="D162" s="446"/>
-      <c r="E162" s="446"/>
-      <c r="F162" s="446"/>
-      <c r="G162" s="446"/>
+      <c r="A162" s="444"/>
+      <c r="B162" s="444"/>
+      <c r="C162" s="444"/>
+      <c r="D162" s="444"/>
+      <c r="E162" s="444"/>
+      <c r="F162" s="444"/>
+      <c r="G162" s="444"/>
       <c r="H162" s="5"/>
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
     </row>
     <row r="163" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="446"/>
-      <c r="B163" s="446"/>
-      <c r="C163" s="446"/>
-      <c r="D163" s="446"/>
-      <c r="E163" s="446"/>
-      <c r="F163" s="446"/>
-      <c r="G163" s="446"/>
+      <c r="A163" s="444"/>
+      <c r="B163" s="444"/>
+      <c r="C163" s="444"/>
+      <c r="D163" s="444"/>
+      <c r="E163" s="444"/>
+      <c r="F163" s="444"/>
+      <c r="G163" s="444"/>
       <c r="H163" s="5"/>
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
     </row>
     <row r="164" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="449"/>
-      <c r="B164" s="449"/>
-      <c r="C164" s="449"/>
-      <c r="D164" s="449"/>
-      <c r="E164" s="449"/>
-      <c r="F164" s="449"/>
-      <c r="G164" s="449"/>
+      <c r="A164" s="447"/>
+      <c r="B164" s="447"/>
+      <c r="C164" s="447"/>
+      <c r="D164" s="447"/>
+      <c r="E164" s="447"/>
+      <c r="F164" s="447"/>
+      <c r="G164" s="447"/>
       <c r="H164" s="5"/>
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
     </row>
     <row r="165" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="449"/>
-      <c r="B165" s="449"/>
-      <c r="C165" s="449"/>
-      <c r="D165" s="449"/>
-      <c r="E165" s="449"/>
-      <c r="F165" s="449"/>
-      <c r="G165" s="449"/>
+      <c r="A165" s="447"/>
+      <c r="B165" s="447"/>
+      <c r="C165" s="447"/>
+      <c r="D165" s="447"/>
+      <c r="E165" s="447"/>
+      <c r="F165" s="447"/>
+      <c r="G165" s="447"/>
       <c r="H165" s="5"/>
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
     </row>
     <row r="166" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="449"/>
-      <c r="B166" s="449"/>
-      <c r="C166" s="449"/>
-      <c r="D166" s="449"/>
-      <c r="E166" s="449"/>
-      <c r="F166" s="449"/>
-      <c r="G166" s="449"/>
+      <c r="A166" s="447"/>
+      <c r="B166" s="447"/>
+      <c r="C166" s="447"/>
+      <c r="D166" s="447"/>
+      <c r="E166" s="447"/>
+      <c r="F166" s="447"/>
+      <c r="G166" s="447"/>
       <c r="H166" s="5"/>
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
     </row>
     <row r="167" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="449"/>
-      <c r="B167" s="449"/>
-      <c r="C167" s="449"/>
-      <c r="D167" s="449"/>
-      <c r="E167" s="449"/>
-      <c r="F167" s="449"/>
-      <c r="G167" s="449"/>
+      <c r="A167" s="447"/>
+      <c r="B167" s="447"/>
+      <c r="C167" s="447"/>
+      <c r="D167" s="447"/>
+      <c r="E167" s="447"/>
+      <c r="F167" s="447"/>
+      <c r="G167" s="447"/>
       <c r="H167" s="5"/>
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
     </row>
     <row r="168" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="449"/>
-      <c r="B168" s="449"/>
-      <c r="C168" s="449"/>
-      <c r="D168" s="449"/>
-      <c r="E168" s="449"/>
-      <c r="F168" s="449"/>
-      <c r="G168" s="449"/>
+      <c r="A168" s="447"/>
+      <c r="B168" s="447"/>
+      <c r="C168" s="447"/>
+      <c r="D168" s="447"/>
+      <c r="E168" s="447"/>
+      <c r="F168" s="447"/>
+      <c r="G168" s="447"/>
       <c r="H168" s="5"/>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
     </row>
     <row r="169" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="449"/>
-      <c r="B169" s="449"/>
-      <c r="C169" s="449"/>
-      <c r="D169" s="449"/>
-      <c r="E169" s="449"/>
-      <c r="F169" s="449"/>
-      <c r="G169" s="449"/>
+      <c r="A169" s="447"/>
+      <c r="B169" s="447"/>
+      <c r="C169" s="447"/>
+      <c r="D169" s="447"/>
+      <c r="E169" s="447"/>
+      <c r="F169" s="447"/>
+      <c r="G169" s="447"/>
       <c r="H169" s="5"/>
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
     </row>
     <row r="170" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="449"/>
-      <c r="B170" s="449"/>
-      <c r="C170" s="449"/>
-      <c r="D170" s="449"/>
-      <c r="E170" s="449"/>
-      <c r="F170" s="449"/>
-      <c r="G170" s="449"/>
+      <c r="A170" s="447"/>
+      <c r="B170" s="447"/>
+      <c r="C170" s="447"/>
+      <c r="D170" s="447"/>
+      <c r="E170" s="447"/>
+      <c r="F170" s="447"/>
+      <c r="G170" s="447"/>
       <c r="H170" s="5"/>
       <c r="I170" s="5"/>
       <c r="J170" s="5"/>
     </row>
     <row r="171" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="449"/>
-      <c r="B171" s="449"/>
-      <c r="C171" s="449"/>
-      <c r="D171" s="449"/>
-      <c r="E171" s="449"/>
-      <c r="F171" s="449"/>
-      <c r="G171" s="449"/>
+      <c r="A171" s="447"/>
+      <c r="B171" s="447"/>
+      <c r="C171" s="447"/>
+      <c r="D171" s="447"/>
+      <c r="E171" s="447"/>
+      <c r="F171" s="447"/>
+      <c r="G171" s="447"/>
       <c r="H171" s="5"/>
       <c r="I171" s="5"/>
       <c r="J171" s="5"/>
     </row>
     <row r="172" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="449"/>
-      <c r="B172" s="449"/>
-      <c r="C172" s="449"/>
-      <c r="D172" s="449"/>
-      <c r="E172" s="449"/>
-      <c r="F172" s="449"/>
-      <c r="G172" s="449"/>
+      <c r="A172" s="447"/>
+      <c r="B172" s="447"/>
+      <c r="C172" s="447"/>
+      <c r="D172" s="447"/>
+      <c r="E172" s="447"/>
+      <c r="F172" s="447"/>
+      <c r="G172" s="447"/>
       <c r="H172" s="5"/>
       <c r="I172" s="5"/>
       <c r="J172" s="5"/>
     </row>
     <row r="173" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="450"/>
-      <c r="B173" s="450"/>
-      <c r="C173" s="450"/>
-      <c r="D173" s="450"/>
-      <c r="E173" s="450"/>
-      <c r="F173" s="450"/>
-      <c r="G173" s="450"/>
+      <c r="A173" s="448"/>
+      <c r="B173" s="448"/>
+      <c r="C173" s="448"/>
+      <c r="D173" s="448"/>
+      <c r="E173" s="448"/>
+      <c r="F173" s="448"/>
+      <c r="G173" s="448"/>
       <c r="H173" s="4"/>
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
     </row>
     <row r="174" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="450"/>
-      <c r="B174" s="450"/>
-      <c r="C174" s="450"/>
-      <c r="D174" s="450"/>
-      <c r="E174" s="450"/>
-      <c r="F174" s="450"/>
-      <c r="G174" s="450"/>
+      <c r="A174" s="448"/>
+      <c r="B174" s="448"/>
+      <c r="C174" s="448"/>
+      <c r="D174" s="448"/>
+      <c r="E174" s="448"/>
+      <c r="F174" s="448"/>
+      <c r="G174" s="448"/>
       <c r="H174" s="4"/>
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
     </row>
     <row r="175" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="450"/>
-      <c r="B175" s="450"/>
-      <c r="C175" s="450"/>
-      <c r="D175" s="450"/>
-      <c r="E175" s="450"/>
-      <c r="F175" s="450"/>
-      <c r="G175" s="450"/>
+      <c r="A175" s="448"/>
+      <c r="B175" s="448"/>
+      <c r="C175" s="448"/>
+      <c r="D175" s="448"/>
+      <c r="E175" s="448"/>
+      <c r="F175" s="448"/>
+      <c r="G175" s="448"/>
       <c r="H175" s="4"/>
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
     </row>
     <row r="176" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A176" s="450"/>
-      <c r="B176" s="450"/>
-      <c r="C176" s="450"/>
-      <c r="D176" s="450"/>
-      <c r="E176" s="450"/>
-      <c r="F176" s="450"/>
-      <c r="G176" s="450"/>
+      <c r="A176" s="448"/>
+      <c r="B176" s="448"/>
+      <c r="C176" s="448"/>
+      <c r="D176" s="448"/>
+      <c r="E176" s="448"/>
+      <c r="F176" s="448"/>
+      <c r="G176" s="448"/>
       <c r="H176" s="4"/>
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A177" s="450"/>
-      <c r="B177" s="450"/>
-      <c r="C177" s="450"/>
-      <c r="D177" s="450"/>
-      <c r="E177" s="450"/>
-      <c r="F177" s="450"/>
-      <c r="G177" s="450"/>
+      <c r="A177" s="448"/>
+      <c r="B177" s="448"/>
+      <c r="C177" s="448"/>
+      <c r="D177" s="448"/>
+      <c r="E177" s="448"/>
+      <c r="F177" s="448"/>
+      <c r="G177" s="448"/>
       <c r="H177" s="4"/>
       <c r="I177" s="4"/>
       <c r="J177" s="4"/>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A178" s="450"/>
-      <c r="B178" s="450"/>
-      <c r="C178" s="450"/>
-      <c r="D178" s="450"/>
-      <c r="E178" s="450"/>
-      <c r="F178" s="450"/>
-      <c r="G178" s="450"/>
+      <c r="A178" s="448"/>
+      <c r="B178" s="448"/>
+      <c r="C178" s="448"/>
+      <c r="D178" s="448"/>
+      <c r="E178" s="448"/>
+      <c r="F178" s="448"/>
+      <c r="G178" s="448"/>
       <c r="H178" s="4"/>
       <c r="I178" s="4"/>
       <c r="J178" s="4"/>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A179" s="450"/>
-      <c r="B179" s="450"/>
-      <c r="C179" s="450"/>
-      <c r="D179" s="450"/>
-      <c r="E179" s="450"/>
-      <c r="F179" s="450"/>
-      <c r="G179" s="450"/>
+      <c r="A179" s="448"/>
+      <c r="B179" s="448"/>
+      <c r="C179" s="448"/>
+      <c r="D179" s="448"/>
+      <c r="E179" s="448"/>
+      <c r="F179" s="448"/>
+      <c r="G179" s="448"/>
       <c r="H179" s="4"/>
       <c r="I179" s="4"/>
       <c r="J179" s="4"/>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A180" s="450"/>
-      <c r="B180" s="450"/>
-      <c r="C180" s="450"/>
-      <c r="D180" s="450"/>
-      <c r="E180" s="450"/>
-      <c r="F180" s="450"/>
-      <c r="G180" s="450"/>
+      <c r="A180" s="448"/>
+      <c r="B180" s="448"/>
+      <c r="C180" s="448"/>
+      <c r="D180" s="448"/>
+      <c r="E180" s="448"/>
+      <c r="F180" s="448"/>
+      <c r="G180" s="448"/>
       <c r="H180" s="4"/>
       <c r="I180" s="4"/>
       <c r="J180" s="4"/>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A181" s="450"/>
-      <c r="B181" s="450"/>
-      <c r="C181" s="450"/>
-      <c r="D181" s="450"/>
-      <c r="E181" s="450"/>
-      <c r="F181" s="450"/>
-      <c r="G181" s="450"/>
+      <c r="A181" s="448"/>
+      <c r="B181" s="448"/>
+      <c r="C181" s="448"/>
+      <c r="D181" s="448"/>
+      <c r="E181" s="448"/>
+      <c r="F181" s="448"/>
+      <c r="G181" s="448"/>
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
       <c r="J181" s="4"/>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A182" s="450"/>
-      <c r="B182" s="450"/>
-      <c r="C182" s="450"/>
-      <c r="D182" s="450"/>
-      <c r="E182" s="450"/>
-      <c r="F182" s="450"/>
-      <c r="G182" s="450"/>
+      <c r="A182" s="448"/>
+      <c r="B182" s="448"/>
+      <c r="C182" s="448"/>
+      <c r="D182" s="448"/>
+      <c r="E182" s="448"/>
+      <c r="F182" s="448"/>
+      <c r="G182" s="448"/>
       <c r="H182" s="4"/>
       <c r="I182" s="4"/>
       <c r="J182" s="4"/>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A183" s="450"/>
-      <c r="B183" s="450"/>
-      <c r="C183" s="450"/>
-      <c r="D183" s="450"/>
-      <c r="E183" s="450"/>
-      <c r="F183" s="450"/>
-      <c r="G183" s="450"/>
+      <c r="A183" s="448"/>
+      <c r="B183" s="448"/>
+      <c r="C183" s="448"/>
+      <c r="D183" s="448"/>
+      <c r="E183" s="448"/>
+      <c r="F183" s="448"/>
+      <c r="G183" s="448"/>
       <c r="H183" s="4"/>
       <c r="I183" s="4"/>
       <c r="J183" s="4"/>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A184" s="450"/>
-      <c r="B184" s="450"/>
-      <c r="C184" s="450"/>
-      <c r="D184" s="450"/>
-      <c r="E184" s="450"/>
-      <c r="F184" s="450"/>
-      <c r="G184" s="450"/>
+      <c r="A184" s="448"/>
+      <c r="B184" s="448"/>
+      <c r="C184" s="448"/>
+      <c r="D184" s="448"/>
+      <c r="E184" s="448"/>
+      <c r="F184" s="448"/>
+      <c r="G184" s="448"/>
       <c r="H184" s="4"/>
       <c r="I184" s="4"/>
       <c r="J184" s="4"/>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A185" s="450"/>
-      <c r="B185" s="450"/>
-      <c r="C185" s="450"/>
-      <c r="D185" s="450"/>
-      <c r="E185" s="450"/>
-      <c r="F185" s="450"/>
-      <c r="G185" s="450"/>
+      <c r="A185" s="448"/>
+      <c r="B185" s="448"/>
+      <c r="C185" s="448"/>
+      <c r="D185" s="448"/>
+      <c r="E185" s="448"/>
+      <c r="F185" s="448"/>
+      <c r="G185" s="448"/>
       <c r="H185" s="4"/>
       <c r="I185" s="4"/>
       <c r="J185" s="4"/>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A186" s="450"/>
-      <c r="B186" s="450"/>
-      <c r="C186" s="450"/>
-      <c r="D186" s="450"/>
-      <c r="E186" s="450"/>
-      <c r="F186" s="450"/>
-      <c r="G186" s="450"/>
+      <c r="A186" s="448"/>
+      <c r="B186" s="448"/>
+      <c r="C186" s="448"/>
+      <c r="D186" s="448"/>
+      <c r="E186" s="448"/>
+      <c r="F186" s="448"/>
+      <c r="G186" s="448"/>
       <c r="H186" s="4"/>
       <c r="I186" s="4"/>
       <c r="J186" s="4"/>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A187" s="450"/>
-      <c r="B187" s="450"/>
-      <c r="C187" s="450"/>
-      <c r="D187" s="450"/>
-      <c r="E187" s="450"/>
-      <c r="F187" s="450"/>
-      <c r="G187" s="450"/>
+      <c r="A187" s="448"/>
+      <c r="B187" s="448"/>
+      <c r="C187" s="448"/>
+      <c r="D187" s="448"/>
+      <c r="E187" s="448"/>
+      <c r="F187" s="448"/>
+      <c r="G187" s="448"/>
       <c r="H187" s="4"/>
       <c r="I187" s="4"/>
       <c r="J187" s="4"/>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A188" s="450"/>
-      <c r="B188" s="450"/>
-      <c r="C188" s="450"/>
-      <c r="D188" s="450"/>
-      <c r="E188" s="450"/>
-      <c r="F188" s="450"/>
-      <c r="G188" s="450"/>
+      <c r="A188" s="448"/>
+      <c r="B188" s="448"/>
+      <c r="C188" s="448"/>
+      <c r="D188" s="448"/>
+      <c r="E188" s="448"/>
+      <c r="F188" s="448"/>
+      <c r="G188" s="448"/>
       <c r="H188" s="4"/>
       <c r="I188" s="4"/>
       <c r="J188" s="4"/>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A189" s="450"/>
-      <c r="B189" s="450"/>
-      <c r="C189" s="450"/>
-      <c r="D189" s="450"/>
-      <c r="E189" s="450"/>
-      <c r="F189" s="450"/>
-      <c r="G189" s="450"/>
+      <c r="A189" s="448"/>
+      <c r="B189" s="448"/>
+      <c r="C189" s="448"/>
+      <c r="D189" s="448"/>
+      <c r="E189" s="448"/>
+      <c r="F189" s="448"/>
+      <c r="G189" s="448"/>
       <c r="H189" s="4"/>
       <c r="I189" s="4"/>
       <c r="J189" s="4"/>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A190" s="450"/>
-      <c r="B190" s="450"/>
-      <c r="C190" s="450"/>
-      <c r="D190" s="450"/>
-      <c r="E190" s="450"/>
-      <c r="F190" s="450"/>
-      <c r="G190" s="450"/>
+      <c r="A190" s="448"/>
+      <c r="B190" s="448"/>
+      <c r="C190" s="448"/>
+      <c r="D190" s="448"/>
+      <c r="E190" s="448"/>
+      <c r="F190" s="448"/>
+      <c r="G190" s="448"/>
       <c r="H190" s="4"/>
       <c r="I190" s="4"/>
       <c r="J190" s="4"/>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A191" s="450"/>
-      <c r="B191" s="450"/>
-      <c r="C191" s="450"/>
-      <c r="D191" s="450"/>
-      <c r="E191" s="450"/>
-      <c r="F191" s="450"/>
-      <c r="G191" s="450"/>
+      <c r="A191" s="448"/>
+      <c r="B191" s="448"/>
+      <c r="C191" s="448"/>
+      <c r="D191" s="448"/>
+      <c r="E191" s="448"/>
+      <c r="F191" s="448"/>
+      <c r="G191" s="448"/>
       <c r="H191" s="4"/>
       <c r="I191" s="4"/>
       <c r="J191" s="4"/>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A192" s="450"/>
-      <c r="B192" s="450"/>
-      <c r="C192" s="450"/>
-      <c r="D192" s="450"/>
-      <c r="E192" s="450"/>
-      <c r="F192" s="450"/>
-      <c r="G192" s="450"/>
+      <c r="A192" s="448"/>
+      <c r="B192" s="448"/>
+      <c r="C192" s="448"/>
+      <c r="D192" s="448"/>
+      <c r="E192" s="448"/>
+      <c r="F192" s="448"/>
+      <c r="G192" s="448"/>
       <c r="H192" s="4"/>
       <c r="I192" s="4"/>
       <c r="J192" s="4"/>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A193" s="450"/>
-      <c r="B193" s="450"/>
-      <c r="C193" s="450"/>
-      <c r="D193" s="450"/>
-      <c r="E193" s="450"/>
-      <c r="F193" s="450"/>
-      <c r="G193" s="450"/>
+      <c r="A193" s="448"/>
+      <c r="B193" s="448"/>
+      <c r="C193" s="448"/>
+      <c r="D193" s="448"/>
+      <c r="E193" s="448"/>
+      <c r="F193" s="448"/>
+      <c r="G193" s="448"/>
       <c r="H193" s="4"/>
       <c r="I193" s="4"/>
       <c r="J193" s="4"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A194" s="450"/>
-      <c r="B194" s="450"/>
-      <c r="C194" s="450"/>
-      <c r="D194" s="450"/>
-      <c r="E194" s="450"/>
-      <c r="F194" s="450"/>
-      <c r="G194" s="450"/>
+      <c r="A194" s="448"/>
+      <c r="B194" s="448"/>
+      <c r="C194" s="448"/>
+      <c r="D194" s="448"/>
+      <c r="E194" s="448"/>
+      <c r="F194" s="448"/>
+      <c r="G194" s="448"/>
       <c r="H194" s="4"/>
       <c r="I194" s="4"/>
       <c r="J194" s="4"/>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A195" s="450"/>
-      <c r="B195" s="450"/>
-      <c r="C195" s="450"/>
-      <c r="D195" s="450"/>
-      <c r="E195" s="450"/>
-      <c r="F195" s="450"/>
-      <c r="G195" s="450"/>
+      <c r="A195" s="448"/>
+      <c r="B195" s="448"/>
+      <c r="C195" s="448"/>
+      <c r="D195" s="448"/>
+      <c r="E195" s="448"/>
+      <c r="F195" s="448"/>
+      <c r="G195" s="448"/>
       <c r="H195" s="4"/>
       <c r="I195" s="4"/>
       <c r="J195" s="4"/>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A196" s="450"/>
-      <c r="B196" s="450"/>
-      <c r="C196" s="450"/>
-      <c r="D196" s="450"/>
-      <c r="E196" s="450"/>
-      <c r="F196" s="450"/>
-      <c r="G196" s="450"/>
+      <c r="A196" s="448"/>
+      <c r="B196" s="448"/>
+      <c r="C196" s="448"/>
+      <c r="D196" s="448"/>
+      <c r="E196" s="448"/>
+      <c r="F196" s="448"/>
+      <c r="G196" s="448"/>
       <c r="H196" s="4"/>
       <c r="I196" s="4"/>
       <c r="J196" s="4"/>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A197" s="450"/>
-      <c r="B197" s="450"/>
-      <c r="C197" s="450"/>
-      <c r="D197" s="450"/>
-      <c r="E197" s="450"/>
-      <c r="F197" s="450"/>
-      <c r="G197" s="450"/>
+      <c r="A197" s="448"/>
+      <c r="B197" s="448"/>
+      <c r="C197" s="448"/>
+      <c r="D197" s="448"/>
+      <c r="E197" s="448"/>
+      <c r="F197" s="448"/>
+      <c r="G197" s="448"/>
       <c r="H197" s="4"/>
       <c r="I197" s="4"/>
       <c r="J197" s="4"/>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A198" s="450"/>
-      <c r="B198" s="450"/>
-      <c r="C198" s="450"/>
-      <c r="D198" s="450"/>
-      <c r="E198" s="450"/>
-      <c r="F198" s="450"/>
-      <c r="G198" s="450"/>
+      <c r="A198" s="448"/>
+      <c r="B198" s="448"/>
+      <c r="C198" s="448"/>
+      <c r="D198" s="448"/>
+      <c r="E198" s="448"/>
+      <c r="F198" s="448"/>
+      <c r="G198" s="448"/>
       <c r="H198" s="4"/>
       <c r="I198" s="4"/>
       <c r="J198" s="4"/>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A199" s="450"/>
-      <c r="B199" s="450"/>
-      <c r="C199" s="450"/>
-      <c r="D199" s="450"/>
-      <c r="E199" s="450"/>
-      <c r="F199" s="450"/>
-      <c r="G199" s="450"/>
+      <c r="A199" s="448"/>
+      <c r="B199" s="448"/>
+      <c r="C199" s="448"/>
+      <c r="D199" s="448"/>
+      <c r="E199" s="448"/>
+      <c r="F199" s="448"/>
+      <c r="G199" s="448"/>
       <c r="H199" s="4"/>
       <c r="I199" s="4"/>
       <c r="J199" s="4"/>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A200" s="450"/>
-      <c r="B200" s="450"/>
-      <c r="C200" s="450"/>
-      <c r="D200" s="450"/>
-      <c r="E200" s="450"/>
-      <c r="F200" s="450"/>
-      <c r="G200" s="450"/>
+      <c r="A200" s="448"/>
+      <c r="B200" s="448"/>
+      <c r="C200" s="448"/>
+      <c r="D200" s="448"/>
+      <c r="E200" s="448"/>
+      <c r="F200" s="448"/>
+      <c r="G200" s="448"/>
       <c r="H200" s="4"/>
       <c r="I200" s="4"/>
       <c r="J200" s="4"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A201" s="450"/>
-      <c r="B201" s="450"/>
-      <c r="C201" s="450"/>
-      <c r="D201" s="450"/>
-      <c r="E201" s="450"/>
-      <c r="F201" s="450"/>
-      <c r="G201" s="450"/>
+      <c r="A201" s="448"/>
+      <c r="B201" s="448"/>
+      <c r="C201" s="448"/>
+      <c r="D201" s="448"/>
+      <c r="E201" s="448"/>
+      <c r="F201" s="448"/>
+      <c r="G201" s="448"/>
       <c r="H201" s="4"/>
       <c r="I201" s="4"/>
       <c r="J201" s="4"/>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A202" s="450"/>
-      <c r="B202" s="450"/>
-      <c r="C202" s="450"/>
-      <c r="D202" s="450"/>
-      <c r="E202" s="450"/>
-      <c r="F202" s="450"/>
-      <c r="G202" s="450"/>
+      <c r="A202" s="448"/>
+      <c r="B202" s="448"/>
+      <c r="C202" s="448"/>
+      <c r="D202" s="448"/>
+      <c r="E202" s="448"/>
+      <c r="F202" s="448"/>
+      <c r="G202" s="448"/>
       <c r="H202" s="4"/>
       <c r="I202" s="4"/>
       <c r="J202" s="4"/>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A203" s="450"/>
-      <c r="B203" s="450"/>
-      <c r="C203" s="450"/>
-      <c r="D203" s="450"/>
-      <c r="E203" s="450"/>
-      <c r="F203" s="450"/>
-      <c r="G203" s="450"/>
+      <c r="A203" s="448"/>
+      <c r="B203" s="448"/>
+      <c r="C203" s="448"/>
+      <c r="D203" s="448"/>
+      <c r="E203" s="448"/>
+      <c r="F203" s="448"/>
+      <c r="G203" s="448"/>
       <c r="H203" s="4"/>
       <c r="I203" s="4"/>
       <c r="J203" s="4"/>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A204" s="450"/>
-      <c r="B204" s="450"/>
-      <c r="C204" s="450"/>
-      <c r="D204" s="450"/>
-      <c r="E204" s="450"/>
-      <c r="F204" s="450"/>
-      <c r="G204" s="450"/>
+      <c r="A204" s="448"/>
+      <c r="B204" s="448"/>
+      <c r="C204" s="448"/>
+      <c r="D204" s="448"/>
+      <c r="E204" s="448"/>
+      <c r="F204" s="448"/>
+      <c r="G204" s="448"/>
       <c r="H204" s="4"/>
       <c r="I204" s="4"/>
       <c r="J204" s="4"/>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A205" s="450"/>
-      <c r="B205" s="450"/>
-      <c r="C205" s="450"/>
-      <c r="D205" s="450"/>
-      <c r="E205" s="450"/>
-      <c r="F205" s="450"/>
-      <c r="G205" s="450"/>
+      <c r="A205" s="448"/>
+      <c r="B205" s="448"/>
+      <c r="C205" s="448"/>
+      <c r="D205" s="448"/>
+      <c r="E205" s="448"/>
+      <c r="F205" s="448"/>
+      <c r="G205" s="448"/>
       <c r="H205" s="4"/>
       <c r="I205" s="4"/>
       <c r="J205" s="4"/>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A206" s="450"/>
-      <c r="B206" s="450"/>
-      <c r="C206" s="450"/>
-      <c r="D206" s="450"/>
-      <c r="E206" s="450"/>
-      <c r="F206" s="450"/>
-      <c r="G206" s="450"/>
+      <c r="A206" s="448"/>
+      <c r="B206" s="448"/>
+      <c r="C206" s="448"/>
+      <c r="D206" s="448"/>
+      <c r="E206" s="448"/>
+      <c r="F206" s="448"/>
+      <c r="G206" s="448"/>
       <c r="H206" s="4"/>
       <c r="I206" s="4"/>
       <c r="J206" s="4"/>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A207" s="450"/>
-      <c r="B207" s="450"/>
-      <c r="C207" s="450"/>
-      <c r="D207" s="450"/>
-      <c r="E207" s="450"/>
-      <c r="F207" s="450"/>
-      <c r="G207" s="450"/>
+      <c r="A207" s="448"/>
+      <c r="B207" s="448"/>
+      <c r="C207" s="448"/>
+      <c r="D207" s="448"/>
+      <c r="E207" s="448"/>
+      <c r="F207" s="448"/>
+      <c r="G207" s="448"/>
       <c r="H207" s="4"/>
       <c r="I207" s="4"/>
       <c r="J207" s="4"/>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A208" s="450"/>
-      <c r="B208" s="450"/>
-      <c r="C208" s="450"/>
-      <c r="D208" s="450"/>
-      <c r="E208" s="450"/>
-      <c r="F208" s="450"/>
-      <c r="G208" s="450"/>
+      <c r="A208" s="448"/>
+      <c r="B208" s="448"/>
+      <c r="C208" s="448"/>
+      <c r="D208" s="448"/>
+      <c r="E208" s="448"/>
+      <c r="F208" s="448"/>
+      <c r="G208" s="448"/>
       <c r="H208" s="4"/>
       <c r="I208" s="4"/>
       <c r="J208" s="4"/>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A209" s="450"/>
-      <c r="B209" s="450"/>
-      <c r="C209" s="450"/>
-      <c r="D209" s="450"/>
-      <c r="E209" s="450"/>
-      <c r="F209" s="450"/>
-      <c r="G209" s="450"/>
+      <c r="A209" s="448"/>
+      <c r="B209" s="448"/>
+      <c r="C209" s="448"/>
+      <c r="D209" s="448"/>
+      <c r="E209" s="448"/>
+      <c r="F209" s="448"/>
+      <c r="G209" s="448"/>
       <c r="H209" s="4"/>
       <c r="I209" s="4"/>
       <c r="J209" s="4"/>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A210" s="450"/>
-      <c r="B210" s="450"/>
-      <c r="C210" s="450"/>
-      <c r="D210" s="450"/>
-      <c r="E210" s="450"/>
-      <c r="F210" s="450"/>
-      <c r="G210" s="450"/>
+      <c r="A210" s="448"/>
+      <c r="B210" s="448"/>
+      <c r="C210" s="448"/>
+      <c r="D210" s="448"/>
+      <c r="E210" s="448"/>
+      <c r="F210" s="448"/>
+      <c r="G210" s="448"/>
       <c r="H210" s="4"/>
       <c r="I210" s="4"/>
       <c r="J210" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="526">
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="T51:V51"/>
-    <mergeCell ref="T53:V53"/>
-    <mergeCell ref="T67:V67"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="W56:Y57"/>
-    <mergeCell ref="N136:P136"/>
-    <mergeCell ref="N138:P138"/>
-    <mergeCell ref="N109:P109"/>
-    <mergeCell ref="N110:P110"/>
-    <mergeCell ref="N63:S63"/>
-    <mergeCell ref="N67:P67"/>
-    <mergeCell ref="U112:V112"/>
-    <mergeCell ref="W116:Y117"/>
-    <mergeCell ref="U114:V114"/>
-    <mergeCell ref="T116:V116"/>
-    <mergeCell ref="W71:Y71"/>
-    <mergeCell ref="W73:Y73"/>
-    <mergeCell ref="W65:Y65"/>
-    <mergeCell ref="W98:Y98"/>
-    <mergeCell ref="W100:Y100"/>
-    <mergeCell ref="W92:Y92"/>
-    <mergeCell ref="H100:J100"/>
-    <mergeCell ref="H104:J104"/>
-    <mergeCell ref="K100:M100"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="H112:J112"/>
-    <mergeCell ref="K98:M98"/>
-    <mergeCell ref="N94:P94"/>
-    <mergeCell ref="Q104:S104"/>
-    <mergeCell ref="Q115:S115"/>
-    <mergeCell ref="K65:M65"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="K90:M90"/>
-    <mergeCell ref="K92:M92"/>
-    <mergeCell ref="Q92:S92"/>
-    <mergeCell ref="K110:M110"/>
-    <mergeCell ref="K115:M115"/>
-    <mergeCell ref="L114:M114"/>
-    <mergeCell ref="L104:M104"/>
-    <mergeCell ref="K105:M105"/>
-    <mergeCell ref="N154:P155"/>
-    <mergeCell ref="Q148:S149"/>
-    <mergeCell ref="Q150:S151"/>
-    <mergeCell ref="Q152:S153"/>
-    <mergeCell ref="Q154:S155"/>
-    <mergeCell ref="N152:P153"/>
-    <mergeCell ref="N148:P148"/>
-    <mergeCell ref="T134:V134"/>
-    <mergeCell ref="T126:V126"/>
-    <mergeCell ref="T130:V130"/>
-    <mergeCell ref="T128:V128"/>
-    <mergeCell ref="N140:S140"/>
-    <mergeCell ref="N144:P144"/>
-    <mergeCell ref="N134:S134"/>
-    <mergeCell ref="P135:Q135"/>
-    <mergeCell ref="K152:M152"/>
-    <mergeCell ref="Q138:S138"/>
-    <mergeCell ref="N146:P146"/>
-    <mergeCell ref="H96:J96"/>
-    <mergeCell ref="K106:M106"/>
-    <mergeCell ref="H146:J146"/>
-    <mergeCell ref="H122:J122"/>
-    <mergeCell ref="I109:J109"/>
-    <mergeCell ref="H102:J102"/>
-    <mergeCell ref="H136:J136"/>
-    <mergeCell ref="Q116:S117"/>
-    <mergeCell ref="H134:J134"/>
-    <mergeCell ref="N128:P128"/>
-    <mergeCell ref="H142:J142"/>
-    <mergeCell ref="Q136:S136"/>
-    <mergeCell ref="H120:J120"/>
-    <mergeCell ref="P141:Q141"/>
-    <mergeCell ref="H130:J130"/>
-    <mergeCell ref="I131:J131"/>
-    <mergeCell ref="K134:M134"/>
-    <mergeCell ref="H128:J128"/>
-    <mergeCell ref="I129:J129"/>
-    <mergeCell ref="L135:M135"/>
-    <mergeCell ref="Q114:S114"/>
-    <mergeCell ref="T73:V73"/>
-    <mergeCell ref="T75:V75"/>
-    <mergeCell ref="T77:V77"/>
-    <mergeCell ref="T120:V120"/>
-    <mergeCell ref="T118:V118"/>
-    <mergeCell ref="T102:V102"/>
-    <mergeCell ref="K94:M94"/>
-    <mergeCell ref="N100:P100"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="F148:F149"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="F146:F147"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="F144:F145"/>
-    <mergeCell ref="T122:V122"/>
-    <mergeCell ref="T124:V124"/>
-    <mergeCell ref="H126:J126"/>
-    <mergeCell ref="K118:M118"/>
-    <mergeCell ref="K120:M120"/>
-    <mergeCell ref="K122:M122"/>
-    <mergeCell ref="K124:M124"/>
-    <mergeCell ref="L126:M126"/>
-    <mergeCell ref="Q124:S124"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="K64:M64"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="Q67:S67"/>
+    <mergeCell ref="Q65:S65"/>
+    <mergeCell ref="K67:M67"/>
+    <mergeCell ref="N116:P116"/>
+    <mergeCell ref="K116:M116"/>
+    <mergeCell ref="N111:P111"/>
+    <mergeCell ref="K108:M108"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="N69:S69"/>
+    <mergeCell ref="N57:P57"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="Q51:S51"/>
+    <mergeCell ref="W51:Y51"/>
+    <mergeCell ref="W53:Y53"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="W39:Y39"/>
+    <mergeCell ref="U62:V62"/>
+    <mergeCell ref="T57:V57"/>
+    <mergeCell ref="T55:V55"/>
+    <mergeCell ref="T61:V61"/>
+    <mergeCell ref="W16:Y17"/>
+    <mergeCell ref="T37:V37"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="W37:Y37"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="W31:Y31"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="W41:Y41"/>
+    <mergeCell ref="W44:Y45"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="T59:V59"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N61:S61"/>
+    <mergeCell ref="Q53:S53"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N35:S35"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="W88:Y88"/>
+    <mergeCell ref="T106:V106"/>
+    <mergeCell ref="Q113:S113"/>
+    <mergeCell ref="U110:V110"/>
+    <mergeCell ref="Q100:S100"/>
+    <mergeCell ref="Q106:S106"/>
+    <mergeCell ref="T92:V92"/>
+    <mergeCell ref="Q86:S86"/>
+    <mergeCell ref="Q88:S88"/>
+    <mergeCell ref="Q94:S94"/>
+    <mergeCell ref="W89:Y90"/>
+    <mergeCell ref="X111:Y111"/>
+    <mergeCell ref="T104:V104"/>
+    <mergeCell ref="T93:V93"/>
+    <mergeCell ref="N102:S102"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="N104:P104"/>
+    <mergeCell ref="Q90:S90"/>
+    <mergeCell ref="W154:Y155"/>
+    <mergeCell ref="T148:V148"/>
+    <mergeCell ref="W148:Y149"/>
+    <mergeCell ref="W150:Y151"/>
+    <mergeCell ref="W152:Y153"/>
+    <mergeCell ref="T140:V140"/>
+    <mergeCell ref="T142:V142"/>
+    <mergeCell ref="T63:V63"/>
+    <mergeCell ref="U64:V64"/>
+    <mergeCell ref="T146:V146"/>
+    <mergeCell ref="T136:V136"/>
+    <mergeCell ref="T71:V71"/>
+    <mergeCell ref="T69:V69"/>
+    <mergeCell ref="W67:Y67"/>
+    <mergeCell ref="T144:V144"/>
+    <mergeCell ref="W140:Y140"/>
+    <mergeCell ref="W139:Y139"/>
+    <mergeCell ref="X138:Y138"/>
+    <mergeCell ref="W134:Y134"/>
+    <mergeCell ref="W110:Y110"/>
+    <mergeCell ref="W112:Y112"/>
+    <mergeCell ref="W114:Y114"/>
+    <mergeCell ref="T138:V138"/>
+    <mergeCell ref="W86:Y86"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="N25:P26"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="T65:V65"/>
+    <mergeCell ref="U66:V66"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="G124:G125"/>
+    <mergeCell ref="G126:G127"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="N114:P114"/>
+    <mergeCell ref="N106:P106"/>
+    <mergeCell ref="H114:J114"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="Q126:S126"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="G112:G113"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="B146:B147"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="D146:D147"/>
+    <mergeCell ref="E146:E147"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="G150:G151"/>
+    <mergeCell ref="G152:G153"/>
+    <mergeCell ref="G154:G155"/>
+    <mergeCell ref="G142:G143"/>
+    <mergeCell ref="G144:G145"/>
+    <mergeCell ref="G146:G147"/>
+    <mergeCell ref="G148:G149"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="G94:G95"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="G138:G139"/>
+    <mergeCell ref="G128:G129"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="G122:G123"/>
+    <mergeCell ref="G134:G135"/>
+    <mergeCell ref="G136:G137"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="G21:G22"/>
@@ -10626,384 +10986,135 @@
     <mergeCell ref="G118:G119"/>
     <mergeCell ref="G120:G121"/>
     <mergeCell ref="K55:M55"/>
-    <mergeCell ref="G150:G151"/>
-    <mergeCell ref="G152:G153"/>
-    <mergeCell ref="G154:G155"/>
-    <mergeCell ref="G142:G143"/>
-    <mergeCell ref="G144:G145"/>
-    <mergeCell ref="G146:G147"/>
-    <mergeCell ref="G148:G149"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="G86:G87"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="G94:G95"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="G138:G139"/>
-    <mergeCell ref="G128:G129"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="G122:G123"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="G114:G115"/>
-    <mergeCell ref="G110:G111"/>
-    <mergeCell ref="G112:G113"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="B144:B145"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="E148:E149"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="B146:B147"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="D146:D147"/>
-    <mergeCell ref="E146:E147"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="T122:V122"/>
+    <mergeCell ref="T124:V124"/>
+    <mergeCell ref="H126:J126"/>
+    <mergeCell ref="K118:M118"/>
+    <mergeCell ref="K120:M120"/>
+    <mergeCell ref="K122:M122"/>
+    <mergeCell ref="K124:M124"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="Q124:S124"/>
+    <mergeCell ref="N120:P120"/>
+    <mergeCell ref="F148:F149"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="F146:F147"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="F144:F145"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="T77:V77"/>
+    <mergeCell ref="T120:V120"/>
+    <mergeCell ref="T118:V118"/>
+    <mergeCell ref="T102:V102"/>
+    <mergeCell ref="K94:M94"/>
+    <mergeCell ref="N100:P100"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="K49:M49"/>
     <mergeCell ref="K13:M13"/>
     <mergeCell ref="K15:M15"/>
-    <mergeCell ref="N25:P26"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="D134:D135"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="G134:G135"/>
-    <mergeCell ref="G136:G137"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="T65:V65"/>
-    <mergeCell ref="U66:V66"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="G124:G125"/>
-    <mergeCell ref="G126:G127"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="N114:P114"/>
-    <mergeCell ref="N106:P106"/>
-    <mergeCell ref="H114:J114"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="H90:J90"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="Q126:S126"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="W9:Y9"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="W15:Y15"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="W154:Y155"/>
-    <mergeCell ref="T148:V148"/>
-    <mergeCell ref="W148:Y149"/>
-    <mergeCell ref="W150:Y151"/>
-    <mergeCell ref="W152:Y153"/>
-    <mergeCell ref="T140:V140"/>
-    <mergeCell ref="T142:V142"/>
-    <mergeCell ref="T63:V63"/>
-    <mergeCell ref="U64:V64"/>
-    <mergeCell ref="T146:V146"/>
-    <mergeCell ref="T136:V136"/>
-    <mergeCell ref="T71:V71"/>
-    <mergeCell ref="T69:V69"/>
-    <mergeCell ref="W67:Y67"/>
-    <mergeCell ref="T144:V144"/>
-    <mergeCell ref="W140:Y140"/>
-    <mergeCell ref="W139:Y139"/>
-    <mergeCell ref="X138:Y138"/>
-    <mergeCell ref="W134:Y134"/>
-    <mergeCell ref="W110:Y110"/>
-    <mergeCell ref="W112:Y112"/>
-    <mergeCell ref="W114:Y114"/>
-    <mergeCell ref="T138:V138"/>
-    <mergeCell ref="W86:Y86"/>
-    <mergeCell ref="W88:Y88"/>
-    <mergeCell ref="T106:V106"/>
-    <mergeCell ref="Q113:S113"/>
-    <mergeCell ref="U110:V110"/>
-    <mergeCell ref="Q100:S100"/>
-    <mergeCell ref="Q106:S106"/>
-    <mergeCell ref="T92:V92"/>
-    <mergeCell ref="Q86:S86"/>
-    <mergeCell ref="Q88:S88"/>
-    <mergeCell ref="Q94:S94"/>
-    <mergeCell ref="W89:Y90"/>
-    <mergeCell ref="X111:Y111"/>
-    <mergeCell ref="T104:V104"/>
-    <mergeCell ref="T93:V93"/>
-    <mergeCell ref="N102:S102"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="N104:P104"/>
-    <mergeCell ref="Q90:S90"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="T59:V59"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N61:S61"/>
-    <mergeCell ref="Q53:S53"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N35:S35"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="W51:Y51"/>
-    <mergeCell ref="W53:Y53"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="W39:Y39"/>
-    <mergeCell ref="U62:V62"/>
-    <mergeCell ref="T57:V57"/>
-    <mergeCell ref="T55:V55"/>
-    <mergeCell ref="T61:V61"/>
-    <mergeCell ref="W16:Y17"/>
-    <mergeCell ref="T37:V37"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="W25:Y25"/>
-    <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="W37:Y37"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="T31:V31"/>
-    <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="T33:V33"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="W31:Y31"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="W41:Y41"/>
-    <mergeCell ref="W44:Y45"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="K152:M152"/>
+    <mergeCell ref="Q138:S138"/>
+    <mergeCell ref="N146:P146"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="K106:M106"/>
+    <mergeCell ref="H146:J146"/>
+    <mergeCell ref="H122:J122"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="H136:J136"/>
+    <mergeCell ref="Q116:S117"/>
+    <mergeCell ref="H134:J134"/>
+    <mergeCell ref="H142:J142"/>
+    <mergeCell ref="Q136:S136"/>
+    <mergeCell ref="H120:J120"/>
+    <mergeCell ref="P141:Q141"/>
+    <mergeCell ref="H130:J130"/>
+    <mergeCell ref="I131:J131"/>
+    <mergeCell ref="K134:M134"/>
+    <mergeCell ref="H128:J128"/>
+    <mergeCell ref="I129:J129"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="Q114:S114"/>
+    <mergeCell ref="N154:P155"/>
+    <mergeCell ref="Q148:S149"/>
+    <mergeCell ref="Q150:S151"/>
+    <mergeCell ref="Q152:S153"/>
+    <mergeCell ref="Q154:S155"/>
+    <mergeCell ref="N152:P153"/>
+    <mergeCell ref="N148:P148"/>
+    <mergeCell ref="T134:V134"/>
+    <mergeCell ref="T126:V126"/>
+    <mergeCell ref="T130:V130"/>
+    <mergeCell ref="T128:V128"/>
+    <mergeCell ref="N140:S140"/>
+    <mergeCell ref="N144:P144"/>
+    <mergeCell ref="N134:S134"/>
+    <mergeCell ref="P135:Q135"/>
+    <mergeCell ref="K65:M65"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="K90:M90"/>
+    <mergeCell ref="K92:M92"/>
+    <mergeCell ref="Q92:S92"/>
+    <mergeCell ref="K110:M110"/>
+    <mergeCell ref="K115:M115"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="K105:M105"/>
     <mergeCell ref="K73:M73"/>
     <mergeCell ref="K102:M102"/>
-    <mergeCell ref="N116:P116"/>
-    <mergeCell ref="K116:M116"/>
-    <mergeCell ref="N111:P111"/>
-    <mergeCell ref="K108:M108"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="N69:S69"/>
-    <mergeCell ref="N57:P57"/>
-    <mergeCell ref="N55:P55"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="Q51:S51"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="K64:M64"/>
-    <mergeCell ref="K66:M66"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="Q67:S67"/>
-    <mergeCell ref="Q65:S65"/>
-    <mergeCell ref="K67:M67"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="Q27:S27"/>
-    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="K100:M100"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="H112:J112"/>
+    <mergeCell ref="K98:M98"/>
+    <mergeCell ref="N94:P94"/>
+    <mergeCell ref="Q104:S104"/>
+    <mergeCell ref="Q115:S115"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="T51:V51"/>
+    <mergeCell ref="T53:V53"/>
+    <mergeCell ref="T67:V67"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="W56:Y57"/>
+    <mergeCell ref="N136:P136"/>
+    <mergeCell ref="N138:P138"/>
+    <mergeCell ref="N109:P109"/>
+    <mergeCell ref="N110:P110"/>
+    <mergeCell ref="N63:S63"/>
+    <mergeCell ref="N67:P67"/>
+    <mergeCell ref="U112:V112"/>
+    <mergeCell ref="W116:Y117"/>
+    <mergeCell ref="U114:V114"/>
+    <mergeCell ref="T116:V116"/>
+    <mergeCell ref="W71:Y71"/>
+    <mergeCell ref="W73:Y73"/>
+    <mergeCell ref="W65:Y65"/>
+    <mergeCell ref="W98:Y98"/>
+    <mergeCell ref="W100:Y100"/>
+    <mergeCell ref="W92:Y92"/>
+    <mergeCell ref="T73:V73"/>
+    <mergeCell ref="T75:V75"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/www/examples/fei4_140213.xlsx
+++ b/www/examples/fei4_140213.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="218">
   <si>
     <t>"Утверждаю"</t>
   </si>
@@ -641,6 +641,48 @@
   <si>
     <t>Перевалова</t>
   </si>
+  <si>
+    <t>Концепц.совр.естествозн</t>
+  </si>
+  <si>
+    <t>18.02,18.03,15.04,13.05</t>
+  </si>
+  <si>
+    <t>4.03,1.04,29.04,27.05</t>
+  </si>
+  <si>
+    <t>Д-202         лек.</t>
+  </si>
+  <si>
+    <t>Б-207          пр</t>
+  </si>
+  <si>
+    <t>Управление снабж.и сбытом</t>
+  </si>
+  <si>
+    <t>21.02,21.03,18.04 по 3ч.</t>
+  </si>
+  <si>
+    <t>7.03,4.04,16.05,30.05</t>
+  </si>
+  <si>
+    <t>Чеботарев            В-111</t>
+  </si>
+  <si>
+    <t>Прикладная механика(детали машин)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seregy.orlov@mail.ru </t>
+  </si>
+  <si>
+    <t>Орлов</t>
+  </si>
+  <si>
+    <t>20.02,20.03,17.04,29.05(0,5ч)</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
 </sst>
 </file>
 
@@ -649,7 +691,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
   </numFmts>
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -972,8 +1014,34 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -998,8 +1066,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor auto="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="71">
+  <borders count="68">
     <border>
       <left/>
       <right/>
@@ -1751,39 +1825,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -1796,11 +1837,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="651">
+  <cellXfs count="681">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2255,9 +2301,6 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3106,12 +3149,6 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3124,12 +3161,6 @@
     <xf numFmtId="0" fontId="31" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3181,6 +3212,194 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3196,149 +3415,6 @@
     <xf numFmtId="0" fontId="26" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3346,9 +3422,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3393,9 +3466,6 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3405,6 +3475,9 @@
     <xf numFmtId="0" fontId="35" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3443,10 +3516,28 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3489,21 +3580,39 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3520,131 +3629,92 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3780,38 +3850,82 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="34" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4116,21 +4230,23 @@
   </sheetPr>
   <dimension ref="A1:AA210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B115" zoomScaleNormal="25" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O129" sqref="O129"/>
+    <sheetView tabSelected="1" topLeftCell="G125" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L146" sqref="L146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="449" customWidth="1"/>
-    <col min="2" max="6" width="5.7109375" style="449" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" style="449" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="444" customWidth="1"/>
+    <col min="2" max="6" width="5.7109375" style="444" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" style="444" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" style="9" customWidth="1"/>
     <col min="9" max="10" width="8" style="9" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" style="9" customWidth="1"/>
-    <col min="12" max="13" width="8" style="9" customWidth="1"/>
+    <col min="11" max="11" width="12" style="9" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" style="9" customWidth="1"/>
+    <col min="13" max="13" width="8" style="9" customWidth="1"/>
     <col min="14" max="14" width="15.42578125" style="9" customWidth="1"/>
-    <col min="15" max="16" width="8" style="9" customWidth="1"/>
+    <col min="15" max="15" width="14" style="9" customWidth="1"/>
+    <col min="16" max="16" width="8" style="9" customWidth="1"/>
     <col min="17" max="17" width="15.42578125" style="9" customWidth="1"/>
     <col min="18" max="19" width="8" style="9" customWidth="1"/>
     <col min="20" max="20" width="16.42578125" style="9" customWidth="1"/>
@@ -4141,7 +4257,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -4329,26 +4447,26 @@
       </c>
       <c r="L9" s="20"/>
       <c r="M9" s="21"/>
-      <c r="N9" s="580" t="s">
+      <c r="N9" s="591" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="581"/>
-      <c r="P9" s="582"/>
-      <c r="Q9" s="580" t="s">
+      <c r="O9" s="592"/>
+      <c r="P9" s="593"/>
+      <c r="Q9" s="591" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="581"/>
-      <c r="S9" s="582"/>
+      <c r="R9" s="592"/>
+      <c r="S9" s="593"/>
       <c r="T9" s="18" t="s">
         <v>18</v>
       </c>
       <c r="U9" s="18"/>
       <c r="V9" s="22"/>
-      <c r="W9" s="583" t="s">
+      <c r="W9" s="594" t="s">
         <v>19</v>
       </c>
-      <c r="X9" s="581"/>
-      <c r="Y9" s="582"/>
+      <c r="X9" s="592"/>
+      <c r="Y9" s="593"/>
     </row>
     <row r="10" spans="1:27" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
@@ -4384,22 +4502,22 @@
       <c r="A11" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="552">
+      <c r="B11" s="553">
         <v>17</v>
       </c>
-      <c r="C11" s="552">
+      <c r="C11" s="553">
         <v>3</v>
       </c>
-      <c r="D11" s="552">
+      <c r="D11" s="553">
         <v>14</v>
       </c>
-      <c r="E11" s="552">
+      <c r="E11" s="553">
         <v>12</v>
       </c>
-      <c r="F11" s="552">
+      <c r="F11" s="553">
         <v>9</v>
       </c>
-      <c r="G11" s="554" t="s">
+      <c r="G11" s="579" t="s">
         <v>22</v>
       </c>
       <c r="H11" s="29"/>
@@ -4425,12 +4543,12 @@
       <c r="A12" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="551"/>
-      <c r="C12" s="551"/>
-      <c r="D12" s="551"/>
-      <c r="E12" s="551"/>
-      <c r="F12" s="551"/>
-      <c r="G12" s="555"/>
+      <c r="B12" s="554"/>
+      <c r="C12" s="554"/>
+      <c r="D12" s="554"/>
+      <c r="E12" s="554"/>
+      <c r="F12" s="554"/>
+      <c r="G12" s="580"/>
       <c r="H12" s="39"/>
       <c r="I12" s="39"/>
       <c r="J12" s="40"/>
@@ -4454,39 +4572,39 @@
       <c r="A13" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="550"/>
-      <c r="C13" s="550">
+      <c r="B13" s="555"/>
+      <c r="C13" s="555">
         <v>17</v>
       </c>
-      <c r="D13" s="550">
+      <c r="D13" s="555">
         <v>28</v>
       </c>
-      <c r="E13" s="550">
+      <c r="E13" s="555">
         <v>26</v>
       </c>
       <c r="F13" s="49"/>
-      <c r="G13" s="556" t="s">
+      <c r="G13" s="581" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="461" t="s">
+      <c r="H13" s="473" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="462"/>
-      <c r="J13" s="463"/>
-      <c r="K13" s="461" t="s">
+      <c r="I13" s="474"/>
+      <c r="J13" s="475"/>
+      <c r="K13" s="473" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="462"/>
-      <c r="M13" s="463"/>
+      <c r="L13" s="474"/>
+      <c r="M13" s="475"/>
       <c r="N13" s="53"/>
       <c r="O13" s="54"/>
       <c r="P13" s="55"/>
       <c r="Q13" s="56"/>
       <c r="R13" s="57"/>
       <c r="S13" s="57"/>
-      <c r="T13" s="584"/>
-      <c r="U13" s="494"/>
-      <c r="V13" s="528"/>
+      <c r="T13" s="595"/>
+      <c r="U13" s="508"/>
+      <c r="V13" s="541"/>
       <c r="W13" s="56"/>
       <c r="X13" s="57"/>
       <c r="Y13" s="58"/>
@@ -4495,12 +4613,12 @@
       <c r="A14" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="551"/>
-      <c r="C14" s="551"/>
-      <c r="D14" s="551"/>
-      <c r="E14" s="551"/>
+      <c r="B14" s="554"/>
+      <c r="C14" s="554"/>
+      <c r="D14" s="554"/>
+      <c r="E14" s="554"/>
       <c r="F14" s="38"/>
-      <c r="G14" s="555"/>
+      <c r="G14" s="580"/>
       <c r="H14" s="60" t="s">
         <v>29</v>
       </c>
@@ -4537,54 +4655,54 @@
         <v>34</v>
       </c>
       <c r="B15" s="73"/>
-      <c r="C15" s="550">
+      <c r="C15" s="555">
         <v>31</v>
       </c>
-      <c r="D15" s="550"/>
+      <c r="D15" s="555"/>
       <c r="E15" s="73"/>
       <c r="F15" s="74"/>
-      <c r="G15" s="556" t="s">
+      <c r="G15" s="581" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="487" t="s">
+      <c r="H15" s="501" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="478"/>
-      <c r="J15" s="478"/>
-      <c r="K15" s="477" t="s">
+      <c r="I15" s="490"/>
+      <c r="J15" s="490"/>
+      <c r="K15" s="489" t="s">
         <v>37</v>
       </c>
-      <c r="L15" s="478"/>
-      <c r="M15" s="488"/>
-      <c r="N15" s="461" t="s">
+      <c r="L15" s="490"/>
+      <c r="M15" s="502"/>
+      <c r="N15" s="473" t="s">
         <v>38</v>
       </c>
-      <c r="O15" s="462"/>
-      <c r="P15" s="463"/>
-      <c r="Q15" s="461" t="s">
+      <c r="O15" s="474"/>
+      <c r="P15" s="475"/>
+      <c r="Q15" s="473" t="s">
         <v>39</v>
       </c>
-      <c r="R15" s="462"/>
-      <c r="S15" s="462"/>
-      <c r="T15" s="585"/>
-      <c r="U15" s="530"/>
-      <c r="V15" s="531"/>
-      <c r="W15" s="478" t="s">
+      <c r="R15" s="474"/>
+      <c r="S15" s="474"/>
+      <c r="T15" s="596"/>
+      <c r="U15" s="543"/>
+      <c r="V15" s="544"/>
+      <c r="W15" s="490" t="s">
         <v>40</v>
       </c>
-      <c r="X15" s="478"/>
-      <c r="Y15" s="479"/>
+      <c r="X15" s="490"/>
+      <c r="Y15" s="491"/>
     </row>
     <row r="16" spans="1:27" s="36" customFormat="1" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="75"/>
-      <c r="C16" s="551"/>
-      <c r="D16" s="551"/>
+      <c r="C16" s="554"/>
+      <c r="D16" s="554"/>
       <c r="E16" s="75"/>
       <c r="F16" s="75"/>
-      <c r="G16" s="555"/>
+      <c r="G16" s="580"/>
       <c r="H16" s="76" t="s">
         <v>41</v>
       </c>
@@ -4622,13 +4740,13 @@
         <v>31</v>
       </c>
       <c r="T16" s="82"/>
-      <c r="U16" s="457"/>
-      <c r="V16" s="501"/>
-      <c r="W16" s="614" t="s">
+      <c r="U16" s="510"/>
+      <c r="V16" s="536"/>
+      <c r="W16" s="626" t="s">
         <v>195</v>
       </c>
-      <c r="X16" s="614"/>
-      <c r="Y16" s="615"/>
+      <c r="X16" s="626"/>
+      <c r="Y16" s="627"/>
     </row>
     <row r="17" spans="1:25" s="36" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
@@ -4639,35 +4757,35 @@
       <c r="D17" s="73"/>
       <c r="E17" s="73"/>
       <c r="F17" s="74"/>
-      <c r="G17" s="556" t="s">
+      <c r="G17" s="581" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="487" t="s">
+      <c r="H17" s="501" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="478"/>
-      <c r="J17" s="488"/>
-      <c r="K17" s="461" t="s">
+      <c r="I17" s="490"/>
+      <c r="J17" s="502"/>
+      <c r="K17" s="473" t="s">
         <v>48</v>
       </c>
-      <c r="L17" s="462"/>
-      <c r="M17" s="463"/>
-      <c r="N17" s="461" t="s">
+      <c r="L17" s="474"/>
+      <c r="M17" s="475"/>
+      <c r="N17" s="473" t="s">
         <v>38</v>
       </c>
-      <c r="O17" s="462"/>
-      <c r="P17" s="463"/>
-      <c r="Q17" s="493" t="s">
+      <c r="O17" s="474"/>
+      <c r="P17" s="475"/>
+      <c r="Q17" s="507" t="s">
         <v>49</v>
       </c>
-      <c r="R17" s="494"/>
-      <c r="S17" s="494"/>
-      <c r="T17" s="586"/>
-      <c r="U17" s="587"/>
-      <c r="V17" s="588"/>
-      <c r="W17" s="614"/>
-      <c r="X17" s="614"/>
-      <c r="Y17" s="615"/>
+      <c r="R17" s="508"/>
+      <c r="S17" s="508"/>
+      <c r="T17" s="597"/>
+      <c r="U17" s="598"/>
+      <c r="V17" s="599"/>
+      <c r="W17" s="626"/>
+      <c r="X17" s="626"/>
+      <c r="Y17" s="627"/>
     </row>
     <row r="18" spans="1:25" s="36" customFormat="1" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
@@ -4678,14 +4796,14 @@
       <c r="D18" s="85"/>
       <c r="E18" s="85"/>
       <c r="F18" s="85"/>
-      <c r="G18" s="555"/>
+      <c r="G18" s="580"/>
       <c r="H18" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="535" t="s">
+      <c r="I18" s="549" t="s">
         <v>52</v>
       </c>
-      <c r="J18" s="536"/>
+      <c r="J18" s="550"/>
       <c r="K18" s="88" t="s">
         <v>53</v>
       </c>
@@ -4716,15 +4834,15 @@
       <c r="T18" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="U18" s="589"/>
-      <c r="V18" s="590"/>
+      <c r="U18" s="600"/>
+      <c r="V18" s="601"/>
       <c r="W18" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="X18" s="629" t="s">
+      <c r="X18" s="641" t="s">
         <v>58</v>
       </c>
-      <c r="Y18" s="630"/>
+      <c r="Y18" s="642"/>
     </row>
     <row r="19" spans="1:25" s="36" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="37" t="s">
@@ -4735,7 +4853,7 @@
       <c r="D19" s="73"/>
       <c r="E19" s="73"/>
       <c r="F19" s="74"/>
-      <c r="G19" s="556" t="s">
+      <c r="G19" s="581" t="s">
         <v>59</v>
       </c>
       <c r="H19" s="95"/>
@@ -4744,26 +4862,26 @@
       <c r="K19" s="56"/>
       <c r="L19" s="57"/>
       <c r="M19" s="57"/>
-      <c r="N19" s="461" t="s">
+      <c r="N19" s="473" t="s">
         <v>38</v>
       </c>
-      <c r="O19" s="462"/>
-      <c r="P19" s="463"/>
-      <c r="Q19" s="493" t="s">
+      <c r="O19" s="474"/>
+      <c r="P19" s="475"/>
+      <c r="Q19" s="507" t="s">
         <v>49</v>
       </c>
-      <c r="R19" s="494"/>
-      <c r="S19" s="494"/>
-      <c r="T19" s="455" t="s">
+      <c r="R19" s="508"/>
+      <c r="S19" s="508"/>
+      <c r="T19" s="496" t="s">
         <v>60</v>
       </c>
-      <c r="U19" s="456"/>
-      <c r="V19" s="456"/>
-      <c r="W19" s="477" t="s">
+      <c r="U19" s="497"/>
+      <c r="V19" s="497"/>
+      <c r="W19" s="489" t="s">
         <v>40</v>
       </c>
-      <c r="X19" s="478"/>
-      <c r="Y19" s="479"/>
+      <c r="X19" s="490"/>
+      <c r="Y19" s="491"/>
     </row>
     <row r="20" spans="1:25" s="36" customFormat="1" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
@@ -4774,7 +4892,7 @@
       <c r="D20" s="85"/>
       <c r="E20" s="85"/>
       <c r="F20" s="85"/>
-      <c r="G20" s="555"/>
+      <c r="G20" s="580"/>
       <c r="H20" s="76" t="s">
         <v>41</v>
       </c>
@@ -4787,16 +4905,16 @@
       <c r="K20" s="99"/>
       <c r="L20" s="83"/>
       <c r="M20" s="83"/>
-      <c r="N20" s="458" t="s">
+      <c r="N20" s="470" t="s">
         <v>64</v>
       </c>
-      <c r="O20" s="459"/>
-      <c r="P20" s="598"/>
-      <c r="Q20" s="544" t="s">
+      <c r="O20" s="471"/>
+      <c r="P20" s="610"/>
+      <c r="Q20" s="563" t="s">
         <v>65</v>
       </c>
-      <c r="R20" s="594"/>
-      <c r="S20" s="594"/>
+      <c r="R20" s="605"/>
+      <c r="S20" s="605"/>
       <c r="T20" s="104" t="s">
         <v>66</v>
       </c>
@@ -4809,10 +4927,10 @@
       <c r="W20" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="X20" s="457" t="s">
+      <c r="X20" s="510" t="s">
         <v>67</v>
       </c>
-      <c r="Y20" s="591"/>
+      <c r="Y20" s="602"/>
     </row>
     <row r="21" spans="1:25" s="36" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="37" t="s">
@@ -4823,7 +4941,7 @@
       <c r="D21" s="73"/>
       <c r="E21" s="73"/>
       <c r="F21" s="74"/>
-      <c r="G21" s="556" t="s">
+      <c r="G21" s="581" t="s">
         <v>69</v>
       </c>
       <c r="H21" s="96"/>
@@ -4838,16 +4956,16 @@
       <c r="Q21" s="113"/>
       <c r="R21" s="96"/>
       <c r="S21" s="114"/>
-      <c r="T21" s="455" t="s">
+      <c r="T21" s="496" t="s">
         <v>60</v>
       </c>
-      <c r="U21" s="456"/>
-      <c r="V21" s="456"/>
-      <c r="W21" s="489" t="s">
+      <c r="U21" s="497"/>
+      <c r="V21" s="497"/>
+      <c r="W21" s="503" t="s">
         <v>70</v>
       </c>
-      <c r="X21" s="592"/>
-      <c r="Y21" s="593"/>
+      <c r="X21" s="603"/>
+      <c r="Y21" s="604"/>
     </row>
     <row r="22" spans="1:25" s="36" customFormat="1" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="115"/>
@@ -4856,7 +4974,7 @@
       <c r="D22" s="116"/>
       <c r="E22" s="116"/>
       <c r="F22" s="116"/>
-      <c r="G22" s="557"/>
+      <c r="G22" s="582"/>
       <c r="H22" s="117"/>
       <c r="I22" s="117"/>
       <c r="J22" s="118"/>
@@ -4902,19 +5020,19 @@
     </row>
     <row r="23" spans="1:25" s="128" customFormat="1" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A23" s="120"/>
-      <c r="B23" s="552">
+      <c r="B23" s="553">
         <v>18</v>
       </c>
-      <c r="C23" s="552">
+      <c r="C23" s="553">
         <v>4</v>
       </c>
-      <c r="D23" s="552">
+      <c r="D23" s="553">
         <v>1</v>
       </c>
-      <c r="E23" s="552">
+      <c r="E23" s="553">
         <v>13</v>
       </c>
-      <c r="F23" s="552">
+      <c r="F23" s="553">
         <v>10</v>
       </c>
       <c r="G23" s="121"/>
@@ -4927,9 +5045,9 @@
       <c r="N23" s="125"/>
       <c r="O23" s="123"/>
       <c r="P23" s="124"/>
-      <c r="Q23" s="517"/>
-      <c r="R23" s="518"/>
-      <c r="S23" s="518"/>
+      <c r="Q23" s="530"/>
+      <c r="R23" s="531"/>
+      <c r="S23" s="531"/>
       <c r="T23" s="126"/>
       <c r="U23" s="123"/>
       <c r="V23" s="123"/>
@@ -4939,11 +5057,11 @@
     </row>
     <row r="24" spans="1:25" s="136" customFormat="1" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="129"/>
-      <c r="B24" s="551"/>
-      <c r="C24" s="551"/>
-      <c r="D24" s="551"/>
-      <c r="E24" s="551"/>
-      <c r="F24" s="551"/>
+      <c r="B24" s="554"/>
+      <c r="C24" s="554"/>
+      <c r="D24" s="554"/>
+      <c r="E24" s="554"/>
+      <c r="F24" s="554"/>
       <c r="G24" s="130" t="s">
         <v>22</v>
       </c>
@@ -4970,68 +5088,68 @@
       <c r="A25" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="550"/>
-      <c r="C25" s="550">
+      <c r="B25" s="555"/>
+      <c r="C25" s="555">
         <v>18</v>
       </c>
-      <c r="D25" s="550">
+      <c r="D25" s="555">
         <v>15</v>
       </c>
-      <c r="E25" s="550">
+      <c r="E25" s="555">
         <v>27</v>
       </c>
-      <c r="F25" s="550"/>
+      <c r="F25" s="555"/>
       <c r="G25" s="138"/>
       <c r="H25" s="139" t="s">
         <v>75</v>
       </c>
       <c r="I25" s="140"/>
       <c r="J25" s="141"/>
-      <c r="K25" s="477" t="s">
+      <c r="K25" s="489" t="s">
         <v>76</v>
       </c>
-      <c r="L25" s="478"/>
-      <c r="M25" s="488"/>
-      <c r="N25" s="480"/>
-      <c r="O25" s="481"/>
-      <c r="P25" s="502"/>
-      <c r="Q25" s="461" t="s">
+      <c r="L25" s="490"/>
+      <c r="M25" s="502"/>
+      <c r="N25" s="492"/>
+      <c r="O25" s="493"/>
+      <c r="P25" s="516"/>
+      <c r="Q25" s="473" t="s">
         <v>77</v>
       </c>
-      <c r="R25" s="462"/>
-      <c r="S25" s="462"/>
+      <c r="R25" s="474"/>
+      <c r="S25" s="474"/>
       <c r="T25" s="142"/>
       <c r="U25" s="57"/>
       <c r="V25" s="57"/>
-      <c r="W25" s="617" t="s">
+      <c r="W25" s="629" t="s">
         <v>78</v>
       </c>
-      <c r="X25" s="618"/>
-      <c r="Y25" s="619"/>
+      <c r="X25" s="630"/>
+      <c r="Y25" s="631"/>
     </row>
     <row r="26" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="551"/>
-      <c r="C26" s="551"/>
-      <c r="D26" s="551"/>
-      <c r="E26" s="551"/>
-      <c r="F26" s="551"/>
+      <c r="B26" s="554"/>
+      <c r="C26" s="554"/>
+      <c r="D26" s="554"/>
+      <c r="E26" s="554"/>
+      <c r="F26" s="554"/>
       <c r="G26" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="H26" s="541"/>
-      <c r="I26" s="465"/>
-      <c r="J26" s="466"/>
-      <c r="K26" s="609" t="s">
+      <c r="H26" s="560"/>
+      <c r="I26" s="477"/>
+      <c r="J26" s="478"/>
+      <c r="K26" s="621" t="s">
         <v>51</v>
       </c>
-      <c r="L26" s="535"/>
-      <c r="M26" s="536"/>
-      <c r="N26" s="508"/>
-      <c r="O26" s="509"/>
-      <c r="P26" s="510"/>
+      <c r="L26" s="549"/>
+      <c r="M26" s="550"/>
+      <c r="N26" s="521"/>
+      <c r="O26" s="522"/>
+      <c r="P26" s="523"/>
       <c r="Q26" s="68" t="s">
         <v>80</v>
       </c>
@@ -5044,13 +5162,13 @@
       <c r="T26" s="69"/>
       <c r="U26" s="40"/>
       <c r="V26" s="40"/>
-      <c r="W26" s="144" t="s">
+      <c r="W26" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="X26" s="145" t="s">
+      <c r="X26" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="Y26" s="146" t="s">
+      <c r="Y26" s="145" t="s">
         <v>82</v>
       </c>
     </row>
@@ -5058,54 +5176,54 @@
       <c r="A27" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="550"/>
-      <c r="C27" s="550"/>
-      <c r="D27" s="550"/>
-      <c r="E27" s="550"/>
-      <c r="F27" s="550"/>
+      <c r="B27" s="555"/>
+      <c r="C27" s="555"/>
+      <c r="D27" s="555"/>
+      <c r="E27" s="555"/>
+      <c r="F27" s="555"/>
       <c r="G27" s="138"/>
-      <c r="H27" s="541" t="s">
+      <c r="H27" s="560" t="s">
         <v>83</v>
       </c>
-      <c r="I27" s="465"/>
-      <c r="J27" s="465"/>
-      <c r="K27" s="147"/>
-      <c r="L27" s="148"/>
-      <c r="M27" s="149"/>
-      <c r="N27" s="150"/>
-      <c r="O27" s="150"/>
-      <c r="P27" s="151"/>
-      <c r="Q27" s="461" t="s">
+      <c r="I27" s="477"/>
+      <c r="J27" s="477"/>
+      <c r="K27" s="146"/>
+      <c r="L27" s="147"/>
+      <c r="M27" s="148"/>
+      <c r="N27" s="149"/>
+      <c r="O27" s="149"/>
+      <c r="P27" s="150"/>
+      <c r="Q27" s="473" t="s">
         <v>77</v>
       </c>
-      <c r="R27" s="462"/>
-      <c r="S27" s="462"/>
-      <c r="T27" s="152"/>
+      <c r="R27" s="474"/>
+      <c r="S27" s="474"/>
+      <c r="T27" s="151"/>
       <c r="U27" s="61"/>
       <c r="V27" s="61"/>
-      <c r="W27" s="620" t="s">
+      <c r="W27" s="632" t="s">
         <v>84</v>
       </c>
-      <c r="X27" s="621"/>
-      <c r="Y27" s="622"/>
+      <c r="X27" s="633"/>
+      <c r="Y27" s="634"/>
     </row>
     <row r="28" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="551"/>
-      <c r="C28" s="551"/>
-      <c r="D28" s="551"/>
-      <c r="E28" s="551"/>
-      <c r="F28" s="551"/>
+      <c r="B28" s="554"/>
+      <c r="C28" s="554"/>
+      <c r="D28" s="554"/>
+      <c r="E28" s="554"/>
+      <c r="F28" s="554"/>
       <c r="G28" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="H28" s="549" t="s">
+      <c r="H28" s="569" t="s">
         <v>86</v>
       </c>
-      <c r="I28" s="457"/>
-      <c r="J28" s="457"/>
+      <c r="I28" s="510"/>
+      <c r="J28" s="510"/>
       <c r="K28" s="78" t="s">
         <v>87</v>
       </c>
@@ -5118,19 +5236,19 @@
       <c r="N28" s="77"/>
       <c r="O28" s="77"/>
       <c r="P28" s="132"/>
-      <c r="Q28" s="612" t="s">
+      <c r="Q28" s="624" t="s">
         <v>89</v>
       </c>
-      <c r="R28" s="613"/>
-      <c r="S28" s="613"/>
+      <c r="R28" s="625"/>
+      <c r="S28" s="625"/>
       <c r="T28" s="135"/>
       <c r="U28" s="93"/>
       <c r="V28" s="40"/>
-      <c r="W28" s="626" t="s">
+      <c r="W28" s="638" t="s">
         <v>90</v>
       </c>
-      <c r="X28" s="627"/>
-      <c r="Y28" s="628"/>
+      <c r="X28" s="639"/>
+      <c r="Y28" s="640"/>
     </row>
     <row r="29" spans="1:25" s="10" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="137" t="s">
@@ -5142,26 +5260,26 @@
       <c r="E29" s="73"/>
       <c r="F29" s="74"/>
       <c r="G29" s="138"/>
-      <c r="H29" s="154"/>
+      <c r="H29" s="153"/>
       <c r="I29" s="111"/>
-      <c r="J29" s="155"/>
-      <c r="K29" s="477" t="s">
+      <c r="J29" s="154"/>
+      <c r="K29" s="489" t="s">
         <v>76</v>
       </c>
-      <c r="L29" s="478"/>
-      <c r="M29" s="488"/>
+      <c r="L29" s="490"/>
+      <c r="M29" s="502"/>
       <c r="N29" s="54"/>
       <c r="O29" s="54"/>
       <c r="P29" s="55"/>
-      <c r="Q29" s="611"/>
-      <c r="R29" s="563"/>
-      <c r="S29" s="563"/>
-      <c r="T29" s="540"/>
-      <c r="U29" s="478"/>
-      <c r="V29" s="478"/>
-      <c r="W29" s="623"/>
-      <c r="X29" s="624"/>
-      <c r="Y29" s="625"/>
+      <c r="Q29" s="623"/>
+      <c r="R29" s="609"/>
+      <c r="S29" s="609"/>
+      <c r="T29" s="559"/>
+      <c r="U29" s="490"/>
+      <c r="V29" s="490"/>
+      <c r="W29" s="635"/>
+      <c r="X29" s="636"/>
+      <c r="Y29" s="637"/>
     </row>
     <row r="30" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="137" t="s">
@@ -5204,7 +5322,7 @@
       </c>
       <c r="U30" s="83"/>
       <c r="V30" s="93"/>
-      <c r="W30" s="144" t="s">
+      <c r="W30" s="143" t="s">
         <v>29</v>
       </c>
       <c r="X30" s="93" t="s">
@@ -5224,28 +5342,28 @@
       <c r="E31" s="73"/>
       <c r="F31" s="74"/>
       <c r="G31" s="138"/>
-      <c r="H31" s="490"/>
-      <c r="I31" s="462"/>
-      <c r="J31" s="463"/>
-      <c r="K31" s="477" t="s">
+      <c r="H31" s="504"/>
+      <c r="I31" s="474"/>
+      <c r="J31" s="475"/>
+      <c r="K31" s="489" t="s">
         <v>76</v>
       </c>
-      <c r="L31" s="478"/>
-      <c r="M31" s="488"/>
-      <c r="N31" s="461"/>
-      <c r="O31" s="462"/>
-      <c r="P31" s="463"/>
-      <c r="Q31" s="461"/>
-      <c r="R31" s="462"/>
-      <c r="S31" s="462"/>
-      <c r="T31" s="540" t="s">
+      <c r="L31" s="490"/>
+      <c r="M31" s="502"/>
+      <c r="N31" s="473"/>
+      <c r="O31" s="474"/>
+      <c r="P31" s="475"/>
+      <c r="Q31" s="473"/>
+      <c r="R31" s="474"/>
+      <c r="S31" s="474"/>
+      <c r="T31" s="559" t="s">
         <v>92</v>
       </c>
-      <c r="U31" s="478"/>
-      <c r="V31" s="478"/>
-      <c r="W31" s="477"/>
-      <c r="X31" s="478"/>
-      <c r="Y31" s="479"/>
+      <c r="U31" s="490"/>
+      <c r="V31" s="490"/>
+      <c r="W31" s="489"/>
+      <c r="X31" s="490"/>
+      <c r="Y31" s="491"/>
     </row>
     <row r="32" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="137"/>
@@ -5257,17 +5375,17 @@
       <c r="G32" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="H32" s="548"/>
-      <c r="I32" s="497"/>
-      <c r="J32" s="498"/>
-      <c r="K32" s="609" t="s">
+      <c r="H32" s="567"/>
+      <c r="I32" s="548"/>
+      <c r="J32" s="568"/>
+      <c r="K32" s="621" t="s">
         <v>52</v>
       </c>
-      <c r="L32" s="535"/>
-      <c r="M32" s="536"/>
+      <c r="L32" s="549"/>
+      <c r="M32" s="550"/>
       <c r="N32" s="80"/>
       <c r="O32" s="81"/>
-      <c r="P32" s="158"/>
+      <c r="P32" s="157"/>
       <c r="Q32" s="68"/>
       <c r="R32" s="83"/>
       <c r="S32" s="93"/>
@@ -5292,55 +5410,55 @@
       <c r="E33" s="73"/>
       <c r="F33" s="74"/>
       <c r="G33" s="138"/>
-      <c r="H33" s="154"/>
+      <c r="H33" s="153"/>
       <c r="I33" s="111"/>
-      <c r="J33" s="155"/>
-      <c r="K33" s="147"/>
-      <c r="L33" s="148"/>
-      <c r="M33" s="149"/>
-      <c r="N33" s="461"/>
-      <c r="O33" s="462"/>
-      <c r="P33" s="463"/>
+      <c r="J33" s="154"/>
+      <c r="K33" s="146"/>
+      <c r="L33" s="147"/>
+      <c r="M33" s="148"/>
+      <c r="N33" s="473"/>
+      <c r="O33" s="474"/>
+      <c r="P33" s="475"/>
       <c r="Q33" s="50"/>
       <c r="R33" s="51"/>
       <c r="S33" s="51"/>
-      <c r="T33" s="540" t="s">
+      <c r="T33" s="559" t="s">
         <v>92</v>
       </c>
-      <c r="U33" s="478"/>
-      <c r="V33" s="478"/>
+      <c r="U33" s="490"/>
+      <c r="V33" s="490"/>
       <c r="W33" s="50"/>
       <c r="X33" s="51"/>
-      <c r="Y33" s="159"/>
+      <c r="Y33" s="158"/>
     </row>
     <row r="34" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="160"/>
+      <c r="A34" s="159"/>
       <c r="B34" s="116"/>
       <c r="C34" s="116"/>
       <c r="D34" s="116"/>
       <c r="E34" s="116"/>
       <c r="F34" s="116"/>
-      <c r="G34" s="161" t="s">
+      <c r="G34" s="160" t="s">
         <v>69</v>
       </c>
-      <c r="H34" s="162"/>
+      <c r="H34" s="161"/>
       <c r="I34" s="134"/>
-      <c r="J34" s="163"/>
-      <c r="K34" s="164" t="s">
+      <c r="J34" s="162"/>
+      <c r="K34" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="L34" s="165" t="s">
+      <c r="L34" s="164" t="s">
         <v>88</v>
       </c>
-      <c r="M34" s="166" t="s">
+      <c r="M34" s="165" t="s">
         <v>63</v>
       </c>
-      <c r="N34" s="167"/>
-      <c r="O34" s="168"/>
-      <c r="P34" s="169"/>
-      <c r="Q34" s="170"/>
-      <c r="R34" s="171"/>
-      <c r="S34" s="171"/>
+      <c r="N34" s="166"/>
+      <c r="O34" s="167"/>
+      <c r="P34" s="168"/>
+      <c r="Q34" s="169"/>
+      <c r="R34" s="170"/>
+      <c r="S34" s="170"/>
       <c r="T34" s="69" t="s">
         <v>93</v>
       </c>
@@ -5350,64 +5468,64 @@
       <c r="V34" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="W34" s="170"/>
-      <c r="X34" s="171"/>
-      <c r="Y34" s="172"/>
+      <c r="W34" s="169"/>
+      <c r="X34" s="170"/>
+      <c r="Y34" s="171"/>
     </row>
     <row r="35" spans="1:25" s="128" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A35" s="120"/>
-      <c r="B35" s="552">
+      <c r="B35" s="553">
         <v>19</v>
       </c>
-      <c r="C35" s="552">
+      <c r="C35" s="553">
         <v>5</v>
       </c>
-      <c r="D35" s="552">
+      <c r="D35" s="553">
         <v>2</v>
       </c>
-      <c r="E35" s="569">
+      <c r="E35" s="583">
         <v>14</v>
       </c>
-      <c r="F35" s="569">
+      <c r="F35" s="583">
         <v>11</v>
       </c>
       <c r="G35" s="121"/>
-      <c r="H35" s="173"/>
-      <c r="I35" s="174"/>
-      <c r="J35" s="175"/>
+      <c r="H35" s="172"/>
+      <c r="I35" s="173"/>
+      <c r="J35" s="174"/>
       <c r="K35" s="110"/>
       <c r="L35" s="111"/>
-      <c r="M35" s="157"/>
-      <c r="N35" s="517" t="s">
+      <c r="M35" s="156"/>
+      <c r="N35" s="530" t="s">
         <v>95</v>
       </c>
-      <c r="O35" s="518"/>
-      <c r="P35" s="518"/>
-      <c r="Q35" s="518"/>
-      <c r="R35" s="518"/>
-      <c r="S35" s="518"/>
+      <c r="O35" s="531"/>
+      <c r="P35" s="531"/>
+      <c r="Q35" s="531"/>
+      <c r="R35" s="531"/>
+      <c r="S35" s="531"/>
       <c r="T35" s="126"/>
       <c r="U35" s="123"/>
-      <c r="V35" s="176"/>
+      <c r="V35" s="175"/>
       <c r="W35" s="125"/>
       <c r="X35" s="123"/>
-      <c r="Y35" s="177"/>
+      <c r="Y35" s="176"/>
     </row>
     <row r="36" spans="1:25" s="136" customFormat="1" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="178" t="s">
+      <c r="A36" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="B36" s="551"/>
-      <c r="C36" s="551"/>
-      <c r="D36" s="551"/>
-      <c r="E36" s="570"/>
-      <c r="F36" s="570"/>
+      <c r="B36" s="554"/>
+      <c r="C36" s="554"/>
+      <c r="D36" s="554"/>
+      <c r="E36" s="584"/>
+      <c r="F36" s="584"/>
       <c r="G36" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="H36" s="179"/>
-      <c r="I36" s="180"/>
-      <c r="J36" s="181"/>
+      <c r="H36" s="178"/>
+      <c r="I36" s="179"/>
+      <c r="J36" s="180"/>
       <c r="K36" s="99"/>
       <c r="L36" s="83"/>
       <c r="M36" s="83"/>
@@ -5415,9 +5533,9 @@
         <v>42</v>
       </c>
       <c r="O36" s="40"/>
-      <c r="P36" s="457"/>
-      <c r="Q36" s="457"/>
-      <c r="R36" s="182" t="s">
+      <c r="P36" s="510"/>
+      <c r="Q36" s="510"/>
+      <c r="R36" s="181" t="s">
         <v>97</v>
       </c>
       <c r="S36" s="134" t="s">
@@ -5425,75 +5543,75 @@
       </c>
       <c r="T36" s="69"/>
       <c r="U36" s="40"/>
-      <c r="V36" s="183"/>
+      <c r="V36" s="182"/>
       <c r="W36" s="68"/>
       <c r="X36" s="40"/>
       <c r="Y36" s="72"/>
     </row>
     <row r="37" spans="1:25" s="10" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="137"/>
-      <c r="B37" s="550"/>
-      <c r="C37" s="550">
+      <c r="B37" s="555"/>
+      <c r="C37" s="555">
         <v>19</v>
       </c>
-      <c r="D37" s="550">
+      <c r="D37" s="555">
         <v>16</v>
       </c>
-      <c r="E37" s="550">
+      <c r="E37" s="555">
         <v>28</v>
       </c>
-      <c r="F37" s="550"/>
+      <c r="F37" s="555"/>
       <c r="G37" s="138"/>
-      <c r="H37" s="527" t="s">
+      <c r="H37" s="540" t="s">
         <v>98</v>
       </c>
-      <c r="I37" s="494"/>
-      <c r="J37" s="528"/>
+      <c r="I37" s="508"/>
+      <c r="J37" s="541"/>
       <c r="K37" s="53"/>
       <c r="L37" s="54"/>
       <c r="M37" s="54"/>
-      <c r="N37" s="461" t="s">
+      <c r="N37" s="473" t="s">
         <v>95</v>
       </c>
-      <c r="O37" s="462"/>
-      <c r="P37" s="463"/>
-      <c r="Q37" s="461" t="s">
+      <c r="O37" s="474"/>
+      <c r="P37" s="475"/>
+      <c r="Q37" s="473" t="s">
         <v>99</v>
       </c>
-      <c r="R37" s="462"/>
-      <c r="S37" s="462"/>
-      <c r="T37" s="450"/>
-      <c r="U37" s="451"/>
-      <c r="V37" s="616"/>
-      <c r="W37" s="461"/>
-      <c r="X37" s="462"/>
-      <c r="Y37" s="476"/>
+      <c r="R37" s="474"/>
+      <c r="S37" s="474"/>
+      <c r="T37" s="511"/>
+      <c r="U37" s="512"/>
+      <c r="V37" s="628"/>
+      <c r="W37" s="473"/>
+      <c r="X37" s="474"/>
+      <c r="Y37" s="488"/>
     </row>
     <row r="38" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="551"/>
-      <c r="C38" s="551"/>
-      <c r="D38" s="551"/>
-      <c r="E38" s="551"/>
-      <c r="F38" s="551"/>
+      <c r="B38" s="554"/>
+      <c r="C38" s="554"/>
+      <c r="D38" s="554"/>
+      <c r="E38" s="554"/>
+      <c r="F38" s="554"/>
       <c r="G38" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="H38" s="184" t="s">
+      <c r="H38" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="I38" s="185" t="s">
+      <c r="I38" s="184" t="s">
         <v>100</v>
       </c>
-      <c r="J38" s="186" t="s">
+      <c r="J38" s="185" t="s">
         <v>31</v>
       </c>
-      <c r="K38" s="187"/>
-      <c r="L38" s="188"/>
-      <c r="M38" s="188"/>
-      <c r="N38" s="189" t="s">
+      <c r="K38" s="186"/>
+      <c r="L38" s="187"/>
+      <c r="M38" s="187"/>
+      <c r="N38" s="188" t="s">
         <v>42</v>
       </c>
       <c r="O38" s="81" t="s">
@@ -5505,7 +5623,7 @@
       <c r="Q38" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="R38" s="190" t="s">
+      <c r="R38" s="189" t="s">
         <v>102</v>
       </c>
       <c r="S38" s="134" t="s">
@@ -5520,62 +5638,62 @@
     </row>
     <row r="39" spans="1:25" s="10" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="137"/>
-      <c r="B39" s="550"/>
-      <c r="C39" s="550"/>
-      <c r="D39" s="550">
+      <c r="B39" s="555"/>
+      <c r="C39" s="555"/>
+      <c r="D39" s="555">
         <v>30</v>
       </c>
-      <c r="E39" s="550"/>
-      <c r="F39" s="191"/>
+      <c r="E39" s="555"/>
+      <c r="F39" s="190"/>
       <c r="G39" s="138"/>
-      <c r="H39" s="192" t="s">
+      <c r="H39" s="191" t="s">
         <v>103</v>
       </c>
-      <c r="I39" s="542" t="s">
+      <c r="I39" s="561" t="s">
         <v>104</v>
       </c>
-      <c r="J39" s="543"/>
-      <c r="K39" s="461" t="s">
+      <c r="J39" s="562"/>
+      <c r="K39" s="473" t="s">
         <v>48</v>
       </c>
-      <c r="L39" s="462"/>
-      <c r="M39" s="463"/>
-      <c r="N39" s="461" t="s">
+      <c r="L39" s="474"/>
+      <c r="M39" s="475"/>
+      <c r="N39" s="473" t="s">
         <v>39</v>
       </c>
-      <c r="O39" s="462"/>
-      <c r="P39" s="463"/>
-      <c r="Q39" s="461" t="s">
+      <c r="O39" s="474"/>
+      <c r="P39" s="475"/>
+      <c r="Q39" s="473" t="s">
         <v>95</v>
       </c>
-      <c r="R39" s="462"/>
-      <c r="S39" s="462"/>
-      <c r="T39" s="450"/>
-      <c r="U39" s="451"/>
-      <c r="V39" s="616"/>
-      <c r="W39" s="477"/>
-      <c r="X39" s="478"/>
-      <c r="Y39" s="479"/>
+      <c r="R39" s="474"/>
+      <c r="S39" s="474"/>
+      <c r="T39" s="511"/>
+      <c r="U39" s="512"/>
+      <c r="V39" s="628"/>
+      <c r="W39" s="489"/>
+      <c r="X39" s="490"/>
+      <c r="Y39" s="491"/>
     </row>
     <row r="40" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="551"/>
-      <c r="C40" s="551"/>
-      <c r="D40" s="551"/>
-      <c r="E40" s="551"/>
+      <c r="B40" s="554"/>
+      <c r="C40" s="554"/>
+      <c r="D40" s="554"/>
+      <c r="E40" s="554"/>
       <c r="F40" s="38"/>
       <c r="G40" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="H40" s="193" t="s">
+      <c r="H40" s="192" t="s">
         <v>105</v>
       </c>
-      <c r="I40" s="194" t="s">
+      <c r="I40" s="193" t="s">
         <v>106</v>
       </c>
-      <c r="J40" s="195"/>
+      <c r="J40" s="194"/>
       <c r="K40" s="65"/>
       <c r="L40" s="66"/>
       <c r="M40" s="66"/>
@@ -5588,7 +5706,7 @@
       <c r="P40" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="Q40" s="189" t="s">
+      <c r="Q40" s="188" t="s">
         <v>42</v>
       </c>
       <c r="R40" s="81" t="s">
@@ -5597,12 +5715,12 @@
       <c r="S40" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="T40" s="196"/>
+      <c r="T40" s="195"/>
       <c r="U40" s="109"/>
-      <c r="V40" s="163"/>
-      <c r="W40" s="197"/>
+      <c r="V40" s="162"/>
+      <c r="W40" s="196"/>
       <c r="X40" s="61"/>
-      <c r="Y40" s="198"/>
+      <c r="Y40" s="197"/>
     </row>
     <row r="41" spans="1:25" s="10" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="137"/>
@@ -5612,34 +5730,34 @@
       <c r="E41" s="73"/>
       <c r="F41" s="74"/>
       <c r="G41" s="138"/>
-      <c r="H41" s="199" t="s">
+      <c r="H41" s="198" t="s">
         <v>108</v>
       </c>
-      <c r="I41" s="544" t="s">
+      <c r="I41" s="563" t="s">
         <v>109</v>
       </c>
-      <c r="J41" s="545"/>
-      <c r="K41" s="609" t="s">
+      <c r="J41" s="564"/>
+      <c r="K41" s="621" t="s">
         <v>51</v>
       </c>
-      <c r="L41" s="535"/>
-      <c r="M41" s="536"/>
-      <c r="N41" s="461" t="s">
+      <c r="L41" s="549"/>
+      <c r="M41" s="550"/>
+      <c r="N41" s="473" t="s">
         <v>39</v>
       </c>
-      <c r="O41" s="462"/>
-      <c r="P41" s="463"/>
-      <c r="Q41" s="631"/>
-      <c r="R41" s="632"/>
-      <c r="S41" s="632"/>
-      <c r="T41" s="200"/>
-      <c r="U41" s="201"/>
-      <c r="V41" s="202"/>
-      <c r="W41" s="483" t="s">
+      <c r="O41" s="474"/>
+      <c r="P41" s="475"/>
+      <c r="Q41" s="643"/>
+      <c r="R41" s="644"/>
+      <c r="S41" s="644"/>
+      <c r="T41" s="199"/>
+      <c r="U41" s="200"/>
+      <c r="V41" s="201"/>
+      <c r="W41" s="495" t="s">
         <v>110</v>
       </c>
-      <c r="X41" s="462"/>
-      <c r="Y41" s="476"/>
+      <c r="X41" s="474"/>
+      <c r="Y41" s="488"/>
     </row>
     <row r="42" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="137" t="s">
@@ -5653,7 +5771,7 @@
       <c r="G42" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="H42" s="203" t="s">
+      <c r="H42" s="202" t="s">
         <v>72</v>
       </c>
       <c r="I42" s="40" t="s">
@@ -5681,9 +5799,9 @@
       <c r="Q42" s="78"/>
       <c r="R42" s="77"/>
       <c r="S42" s="81"/>
-      <c r="T42" s="204"/>
-      <c r="U42" s="205"/>
-      <c r="V42" s="206"/>
+      <c r="T42" s="203"/>
+      <c r="U42" s="204"/>
+      <c r="V42" s="205"/>
       <c r="W42" s="68" t="s">
         <v>112</v>
       </c>
@@ -5702,26 +5820,26 @@
       <c r="E43" s="73"/>
       <c r="F43" s="74"/>
       <c r="G43" s="138"/>
-      <c r="H43" s="524" t="s">
+      <c r="H43" s="537" t="s">
         <v>114</v>
       </c>
-      <c r="I43" s="525"/>
-      <c r="J43" s="526"/>
-      <c r="K43" s="461" t="s">
+      <c r="I43" s="538"/>
+      <c r="J43" s="539"/>
+      <c r="K43" s="473" t="s">
         <v>48</v>
       </c>
-      <c r="L43" s="462"/>
-      <c r="M43" s="463"/>
+      <c r="L43" s="474"/>
+      <c r="M43" s="475"/>
       <c r="N43" s="53"/>
       <c r="O43" s="54"/>
       <c r="P43" s="55"/>
       <c r="Q43" s="50"/>
-      <c r="R43" s="208"/>
-      <c r="S43" s="208"/>
-      <c r="T43" s="514"/>
-      <c r="U43" s="515"/>
-      <c r="V43" s="516"/>
-      <c r="W43" s="209" t="s">
+      <c r="R43" s="207"/>
+      <c r="S43" s="207"/>
+      <c r="T43" s="527"/>
+      <c r="U43" s="528"/>
+      <c r="V43" s="529"/>
+      <c r="W43" s="208" t="s">
         <v>110</v>
       </c>
       <c r="X43" s="57"/>
@@ -5742,27 +5860,27 @@
       <c r="H44" s="131" t="s">
         <v>111</v>
       </c>
-      <c r="I44" s="185" t="s">
+      <c r="I44" s="184" t="s">
         <v>100</v>
       </c>
-      <c r="J44" s="186" t="s">
+      <c r="J44" s="185" t="s">
         <v>31</v>
       </c>
       <c r="K44" s="65"/>
       <c r="L44" s="66"/>
       <c r="M44" s="66"/>
-      <c r="N44" s="187"/>
-      <c r="O44" s="188"/>
-      <c r="P44" s="210"/>
-      <c r="Q44" s="211"/>
-      <c r="R44" s="212"/>
-      <c r="S44" s="212"/>
-      <c r="T44" s="204"/>
-      <c r="U44" s="213"/>
-      <c r="V44" s="214"/>
-      <c r="W44" s="458"/>
-      <c r="X44" s="459"/>
-      <c r="Y44" s="460"/>
+      <c r="N44" s="186"/>
+      <c r="O44" s="187"/>
+      <c r="P44" s="209"/>
+      <c r="Q44" s="210"/>
+      <c r="R44" s="211"/>
+      <c r="S44" s="211"/>
+      <c r="T44" s="203"/>
+      <c r="U44" s="212"/>
+      <c r="V44" s="213"/>
+      <c r="W44" s="470"/>
+      <c r="X44" s="471"/>
+      <c r="Y44" s="472"/>
     </row>
     <row r="45" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="137"/>
@@ -5772,40 +5890,40 @@
       <c r="E45" s="73"/>
       <c r="F45" s="74"/>
       <c r="G45" s="138"/>
-      <c r="H45" s="215"/>
+      <c r="H45" s="214"/>
       <c r="I45" s="109"/>
       <c r="J45" s="112"/>
-      <c r="K45" s="609" t="s">
+      <c r="K45" s="621" t="s">
         <v>52</v>
       </c>
-      <c r="L45" s="535"/>
-      <c r="M45" s="536"/>
+      <c r="L45" s="549"/>
+      <c r="M45" s="550"/>
       <c r="N45" s="100"/>
       <c r="O45" s="87"/>
-      <c r="P45" s="155"/>
+      <c r="P45" s="154"/>
       <c r="Q45" s="100"/>
       <c r="R45" s="87"/>
       <c r="S45" s="111"/>
-      <c r="T45" s="511"/>
-      <c r="U45" s="512"/>
-      <c r="V45" s="513"/>
-      <c r="W45" s="458"/>
-      <c r="X45" s="459"/>
-      <c r="Y45" s="460"/>
+      <c r="T45" s="524"/>
+      <c r="U45" s="525"/>
+      <c r="V45" s="526"/>
+      <c r="W45" s="470"/>
+      <c r="X45" s="471"/>
+      <c r="Y45" s="472"/>
     </row>
     <row r="46" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="160"/>
+      <c r="A46" s="159"/>
       <c r="B46" s="116"/>
       <c r="C46" s="116"/>
       <c r="D46" s="116"/>
       <c r="E46" s="116"/>
       <c r="F46" s="116"/>
-      <c r="G46" s="161" t="s">
+      <c r="G46" s="160" t="s">
         <v>69</v>
       </c>
-      <c r="H46" s="216"/>
+      <c r="H46" s="215"/>
       <c r="I46" s="119"/>
-      <c r="J46" s="217"/>
+      <c r="J46" s="216"/>
       <c r="K46" s="88" t="s">
         <v>53</v>
       </c>
@@ -5815,78 +5933,78 @@
       <c r="M46" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="N46" s="218"/>
-      <c r="O46" s="171"/>
-      <c r="P46" s="219"/>
-      <c r="Q46" s="218"/>
-      <c r="R46" s="171"/>
-      <c r="S46" s="171"/>
-      <c r="T46" s="220"/>
-      <c r="U46" s="221"/>
-      <c r="V46" s="222"/>
-      <c r="W46" s="164" t="s">
+      <c r="N46" s="217"/>
+      <c r="O46" s="170"/>
+      <c r="P46" s="218"/>
+      <c r="Q46" s="217"/>
+      <c r="R46" s="170"/>
+      <c r="S46" s="170"/>
+      <c r="T46" s="219"/>
+      <c r="U46" s="220"/>
+      <c r="V46" s="221"/>
+      <c r="W46" s="163" t="s">
         <v>112</v>
       </c>
-      <c r="X46" s="165" t="s">
+      <c r="X46" s="164" t="s">
         <v>113</v>
       </c>
-      <c r="Y46" s="172" t="s">
+      <c r="Y46" s="171" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A47" s="120"/>
-      <c r="B47" s="552">
+      <c r="B47" s="553">
         <v>20</v>
       </c>
-      <c r="C47" s="552">
+      <c r="C47" s="553">
         <v>6</v>
       </c>
-      <c r="D47" s="552">
+      <c r="D47" s="553">
         <v>3</v>
       </c>
-      <c r="E47" s="571">
+      <c r="E47" s="585">
         <v>1</v>
       </c>
-      <c r="F47" s="571">
+      <c r="F47" s="585">
         <v>12</v>
       </c>
-      <c r="G47" s="223"/>
-      <c r="H47" s="573"/>
-      <c r="I47" s="574"/>
-      <c r="J47" s="575"/>
-      <c r="K47" s="517"/>
-      <c r="L47" s="518"/>
-      <c r="M47" s="519"/>
+      <c r="G47" s="222"/>
+      <c r="H47" s="653"/>
+      <c r="I47" s="654"/>
+      <c r="J47" s="655"/>
+      <c r="K47" s="530"/>
+      <c r="L47" s="531"/>
+      <c r="M47" s="532"/>
       <c r="N47" s="110"/>
       <c r="O47" s="111"/>
-      <c r="P47" s="155"/>
+      <c r="P47" s="154"/>
       <c r="Q47" s="110"/>
       <c r="R47" s="111"/>
       <c r="S47" s="111"/>
-      <c r="T47" s="224"/>
+      <c r="T47" s="223"/>
       <c r="U47" s="111"/>
       <c r="V47" s="111"/>
       <c r="W47" s="110"/>
       <c r="X47" s="111"/>
-      <c r="Y47" s="225"/>
+      <c r="Y47" s="224"/>
     </row>
     <row r="48" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="178"/>
-      <c r="B48" s="551"/>
-      <c r="C48" s="551"/>
-      <c r="D48" s="551"/>
-      <c r="E48" s="572"/>
-      <c r="F48" s="572"/>
-      <c r="G48" s="226" t="s">
+      <c r="A48" s="177"/>
+      <c r="B48" s="554"/>
+      <c r="C48" s="554"/>
+      <c r="D48" s="554"/>
+      <c r="E48" s="586"/>
+      <c r="F48" s="586"/>
+      <c r="G48" s="225" t="s">
         <v>22</v>
       </c>
-      <c r="H48" s="227"/>
-      <c r="I48" s="228"/>
-      <c r="J48" s="229"/>
+      <c r="H48" s="226"/>
+      <c r="I48" s="227"/>
+      <c r="J48" s="228"/>
       <c r="K48" s="88"/>
       <c r="L48" s="134"/>
-      <c r="M48" s="163"/>
+      <c r="M48" s="162"/>
       <c r="N48" s="133"/>
       <c r="O48" s="93"/>
       <c r="P48" s="132"/>
@@ -5901,63 +6019,63 @@
       <c r="Y48" s="94"/>
     </row>
     <row r="49" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="178" t="s">
+      <c r="A49" s="177" t="s">
         <v>116</v>
       </c>
-      <c r="B49" s="550"/>
-      <c r="C49" s="550">
+      <c r="B49" s="555"/>
+      <c r="C49" s="555">
         <v>20</v>
       </c>
-      <c r="D49" s="550">
+      <c r="D49" s="555">
         <v>17</v>
       </c>
-      <c r="E49" s="550">
+      <c r="E49" s="555">
         <v>15</v>
       </c>
       <c r="F49" s="49"/>
-      <c r="G49" s="230"/>
-      <c r="H49" s="527" t="s">
+      <c r="G49" s="229"/>
+      <c r="H49" s="540" t="s">
         <v>117</v>
       </c>
-      <c r="I49" s="494"/>
-      <c r="J49" s="528"/>
-      <c r="K49" s="461"/>
-      <c r="L49" s="462"/>
-      <c r="M49" s="463"/>
-      <c r="N49" s="477"/>
-      <c r="O49" s="478"/>
-      <c r="P49" s="488"/>
-      <c r="Q49" s="477" t="s">
+      <c r="I49" s="508"/>
+      <c r="J49" s="541"/>
+      <c r="K49" s="473"/>
+      <c r="L49" s="474"/>
+      <c r="M49" s="475"/>
+      <c r="N49" s="489"/>
+      <c r="O49" s="490"/>
+      <c r="P49" s="502"/>
+      <c r="Q49" s="489" t="s">
         <v>118</v>
       </c>
-      <c r="R49" s="478"/>
-      <c r="S49" s="478"/>
-      <c r="T49" s="450"/>
-      <c r="U49" s="451"/>
-      <c r="V49" s="451"/>
-      <c r="W49" s="231"/>
-      <c r="X49" s="232"/>
-      <c r="Y49" s="233"/>
+      <c r="R49" s="490"/>
+      <c r="S49" s="490"/>
+      <c r="T49" s="511"/>
+      <c r="U49" s="512"/>
+      <c r="V49" s="512"/>
+      <c r="W49" s="230"/>
+      <c r="X49" s="231"/>
+      <c r="Y49" s="232"/>
     </row>
     <row r="50" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="551"/>
-      <c r="C50" s="551"/>
-      <c r="D50" s="551"/>
-      <c r="E50" s="551"/>
+      <c r="B50" s="554"/>
+      <c r="C50" s="554"/>
+      <c r="D50" s="554"/>
+      <c r="E50" s="554"/>
       <c r="F50" s="38"/>
-      <c r="G50" s="226" t="s">
+      <c r="G50" s="225" t="s">
         <v>25</v>
       </c>
-      <c r="H50" s="234" t="s">
+      <c r="H50" s="233" t="s">
         <v>57</v>
       </c>
-      <c r="I50" s="535" t="s">
+      <c r="I50" s="549" t="s">
         <v>119</v>
       </c>
-      <c r="J50" s="536"/>
+      <c r="J50" s="550"/>
       <c r="K50" s="68"/>
       <c r="L50" s="93"/>
       <c r="M50" s="132"/>
@@ -5973,71 +6091,71 @@
       <c r="S50" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="T50" s="235"/>
-      <c r="U50" s="236"/>
-      <c r="V50" s="237"/>
+      <c r="T50" s="234"/>
+      <c r="U50" s="235"/>
+      <c r="V50" s="236"/>
       <c r="W50" s="78"/>
       <c r="X50" s="77"/>
-      <c r="Y50" s="238"/>
+      <c r="Y50" s="237"/>
     </row>
     <row r="51" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="550"/>
-      <c r="C51" s="550"/>
-      <c r="D51" s="550"/>
-      <c r="E51" s="550">
+      <c r="B51" s="555"/>
+      <c r="C51" s="555"/>
+      <c r="D51" s="555"/>
+      <c r="E51" s="555">
         <v>29</v>
       </c>
-      <c r="F51" s="550"/>
-      <c r="G51" s="230"/>
-      <c r="H51" s="192" t="s">
+      <c r="F51" s="555"/>
+      <c r="G51" s="229"/>
+      <c r="H51" s="191" t="s">
         <v>122</v>
       </c>
-      <c r="I51" s="493" t="s">
+      <c r="I51" s="507" t="s">
         <v>37</v>
       </c>
-      <c r="J51" s="528"/>
-      <c r="K51" s="461" t="s">
+      <c r="J51" s="541"/>
+      <c r="K51" s="473" t="s">
         <v>123</v>
       </c>
-      <c r="L51" s="462"/>
-      <c r="M51" s="463"/>
-      <c r="N51" s="477" t="s">
+      <c r="L51" s="474"/>
+      <c r="M51" s="475"/>
+      <c r="N51" s="489" t="s">
         <v>118</v>
       </c>
-      <c r="O51" s="478"/>
-      <c r="P51" s="488"/>
-      <c r="Q51" s="461" t="s">
+      <c r="O51" s="490"/>
+      <c r="P51" s="502"/>
+      <c r="Q51" s="473" t="s">
         <v>124</v>
       </c>
-      <c r="R51" s="462"/>
-      <c r="S51" s="462"/>
-      <c r="T51" s="452"/>
-      <c r="U51" s="453"/>
-      <c r="V51" s="454"/>
-      <c r="W51" s="483"/>
-      <c r="X51" s="462"/>
-      <c r="Y51" s="476"/>
+      <c r="R51" s="474"/>
+      <c r="S51" s="474"/>
+      <c r="T51" s="513"/>
+      <c r="U51" s="514"/>
+      <c r="V51" s="515"/>
+      <c r="W51" s="495"/>
+      <c r="X51" s="474"/>
+      <c r="Y51" s="488"/>
     </row>
     <row r="52" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="B52" s="551"/>
-      <c r="C52" s="551"/>
-      <c r="D52" s="551"/>
-      <c r="E52" s="551"/>
-      <c r="F52" s="551"/>
-      <c r="G52" s="239" t="s">
+      <c r="B52" s="554"/>
+      <c r="C52" s="554"/>
+      <c r="D52" s="554"/>
+      <c r="E52" s="554"/>
+      <c r="F52" s="554"/>
+      <c r="G52" s="238" t="s">
         <v>35</v>
       </c>
       <c r="H52" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="I52" s="240"/>
-      <c r="J52" s="195"/>
+      <c r="I52" s="239"/>
+      <c r="J52" s="194"/>
       <c r="K52" s="68" t="s">
         <v>126</v>
       </c>
@@ -6065,9 +6183,9 @@
       <c r="S52" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="T52" s="235"/>
-      <c r="U52" s="241"/>
-      <c r="V52" s="242"/>
+      <c r="T52" s="234"/>
+      <c r="U52" s="240"/>
+      <c r="V52" s="241"/>
       <c r="W52" s="68"/>
       <c r="X52" s="40"/>
       <c r="Y52" s="94"/>
@@ -6076,60 +6194,60 @@
       <c r="A53" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="550"/>
-      <c r="C53" s="550"/>
-      <c r="D53" s="550"/>
-      <c r="E53" s="550"/>
-      <c r="F53" s="550"/>
-      <c r="G53" s="243"/>
-      <c r="H53" s="244" t="s">
+      <c r="B53" s="555"/>
+      <c r="C53" s="555"/>
+      <c r="D53" s="555"/>
+      <c r="E53" s="555"/>
+      <c r="F53" s="555"/>
+      <c r="G53" s="242"/>
+      <c r="H53" s="243" t="s">
         <v>128</v>
       </c>
-      <c r="I53" s="499" t="s">
+      <c r="I53" s="551" t="s">
         <v>129</v>
       </c>
-      <c r="J53" s="500"/>
-      <c r="K53" s="477" t="s">
+      <c r="J53" s="552"/>
+      <c r="K53" s="489" t="s">
         <v>130</v>
       </c>
-      <c r="L53" s="478"/>
-      <c r="M53" s="488"/>
-      <c r="N53" s="477" t="s">
+      <c r="L53" s="490"/>
+      <c r="M53" s="502"/>
+      <c r="N53" s="489" t="s">
         <v>118</v>
       </c>
-      <c r="O53" s="478"/>
-      <c r="P53" s="488"/>
-      <c r="Q53" s="461" t="s">
+      <c r="O53" s="490"/>
+      <c r="P53" s="502"/>
+      <c r="Q53" s="473" t="s">
         <v>124</v>
       </c>
-      <c r="R53" s="462"/>
-      <c r="S53" s="462"/>
-      <c r="T53" s="452"/>
-      <c r="U53" s="453"/>
-      <c r="V53" s="454"/>
-      <c r="W53" s="483"/>
-      <c r="X53" s="462"/>
-      <c r="Y53" s="476"/>
+      <c r="R53" s="474"/>
+      <c r="S53" s="474"/>
+      <c r="T53" s="513"/>
+      <c r="U53" s="514"/>
+      <c r="V53" s="515"/>
+      <c r="W53" s="495"/>
+      <c r="X53" s="474"/>
+      <c r="Y53" s="488"/>
     </row>
     <row r="54" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="B54" s="551"/>
-      <c r="C54" s="551"/>
-      <c r="D54" s="551"/>
-      <c r="E54" s="551"/>
-      <c r="F54" s="551"/>
-      <c r="G54" s="239" t="s">
+      <c r="B54" s="554"/>
+      <c r="C54" s="554"/>
+      <c r="D54" s="554"/>
+      <c r="E54" s="554"/>
+      <c r="F54" s="554"/>
+      <c r="G54" s="238" t="s">
         <v>47</v>
       </c>
-      <c r="H54" s="245" t="s">
+      <c r="H54" s="244" t="s">
         <v>131</v>
       </c>
-      <c r="I54" s="546" t="s">
+      <c r="I54" s="565" t="s">
         <v>132</v>
       </c>
-      <c r="J54" s="547"/>
+      <c r="J54" s="566"/>
       <c r="K54" s="80" t="s">
         <v>133</v>
       </c>
@@ -6157,9 +6275,9 @@
       <c r="S54" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="T54" s="235"/>
-      <c r="U54" s="241"/>
-      <c r="V54" s="242"/>
+      <c r="T54" s="234"/>
+      <c r="U54" s="240"/>
+      <c r="V54" s="241"/>
       <c r="W54" s="68"/>
       <c r="X54" s="40"/>
       <c r="Y54" s="94"/>
@@ -6173,29 +6291,29 @@
       <c r="D55" s="73"/>
       <c r="E55" s="73"/>
       <c r="F55" s="73"/>
-      <c r="G55" s="230"/>
-      <c r="H55" s="490" t="s">
+      <c r="G55" s="229"/>
+      <c r="H55" s="504" t="s">
         <v>37</v>
       </c>
-      <c r="I55" s="462"/>
-      <c r="J55" s="463"/>
-      <c r="K55" s="477" t="s">
+      <c r="I55" s="474"/>
+      <c r="J55" s="475"/>
+      <c r="K55" s="489" t="s">
         <v>130</v>
       </c>
-      <c r="L55" s="478"/>
-      <c r="M55" s="488"/>
-      <c r="N55" s="477" t="s">
+      <c r="L55" s="490"/>
+      <c r="M55" s="502"/>
+      <c r="N55" s="489" t="s">
         <v>135</v>
       </c>
-      <c r="O55" s="478"/>
-      <c r="P55" s="488"/>
+      <c r="O55" s="490"/>
+      <c r="P55" s="502"/>
       <c r="Q55" s="56"/>
       <c r="R55" s="57"/>
       <c r="S55" s="57"/>
-      <c r="T55" s="511"/>
-      <c r="U55" s="512"/>
-      <c r="V55" s="513"/>
-      <c r="W55" s="209"/>
+      <c r="T55" s="524"/>
+      <c r="U55" s="525"/>
+      <c r="V55" s="526"/>
+      <c r="W55" s="208"/>
       <c r="X55" s="57"/>
       <c r="Y55" s="58"/>
     </row>
@@ -6206,7 +6324,7 @@
       <c r="D56" s="75"/>
       <c r="E56" s="75"/>
       <c r="F56" s="75"/>
-      <c r="G56" s="226" t="s">
+      <c r="G56" s="225" t="s">
         <v>59</v>
       </c>
       <c r="H56" s="131" t="s">
@@ -6233,18 +6351,18 @@
       <c r="O56" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="P56" s="246" t="s">
+      <c r="P56" s="245" t="s">
         <v>54</v>
       </c>
       <c r="Q56" s="68"/>
       <c r="R56" s="93"/>
       <c r="S56" s="93"/>
-      <c r="T56" s="204"/>
-      <c r="U56" s="205"/>
-      <c r="V56" s="247"/>
-      <c r="W56" s="458"/>
-      <c r="X56" s="459"/>
-      <c r="Y56" s="460"/>
+      <c r="T56" s="203"/>
+      <c r="U56" s="204"/>
+      <c r="V56" s="246"/>
+      <c r="W56" s="470"/>
+      <c r="X56" s="471"/>
+      <c r="Y56" s="472"/>
     </row>
     <row r="57" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="137"/>
@@ -6253,41 +6371,41 @@
       <c r="D57" s="73"/>
       <c r="E57" s="73"/>
       <c r="F57" s="74"/>
-      <c r="G57" s="243"/>
-      <c r="H57" s="215"/>
+      <c r="G57" s="242"/>
+      <c r="H57" s="214"/>
       <c r="I57" s="109"/>
       <c r="J57" s="102"/>
-      <c r="K57" s="461" t="s">
+      <c r="K57" s="473" t="s">
         <v>138</v>
       </c>
-      <c r="L57" s="462"/>
-      <c r="M57" s="463"/>
-      <c r="N57" s="461"/>
-      <c r="O57" s="462"/>
-      <c r="P57" s="463"/>
-      <c r="Q57" s="197"/>
-      <c r="R57" s="248"/>
-      <c r="S57" s="249"/>
-      <c r="T57" s="511"/>
-      <c r="U57" s="512"/>
-      <c r="V57" s="513"/>
-      <c r="W57" s="458"/>
-      <c r="X57" s="459"/>
-      <c r="Y57" s="460"/>
+      <c r="L57" s="474"/>
+      <c r="M57" s="475"/>
+      <c r="N57" s="473"/>
+      <c r="O57" s="474"/>
+      <c r="P57" s="475"/>
+      <c r="Q57" s="196"/>
+      <c r="R57" s="247"/>
+      <c r="S57" s="248"/>
+      <c r="T57" s="524"/>
+      <c r="U57" s="525"/>
+      <c r="V57" s="526"/>
+      <c r="W57" s="470"/>
+      <c r="X57" s="471"/>
+      <c r="Y57" s="472"/>
     </row>
     <row r="58" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="160"/>
-      <c r="B58" s="250"/>
-      <c r="C58" s="250"/>
-      <c r="D58" s="250"/>
-      <c r="E58" s="250"/>
-      <c r="F58" s="250"/>
-      <c r="G58" s="251" t="s">
+      <c r="A58" s="159"/>
+      <c r="B58" s="249"/>
+      <c r="C58" s="249"/>
+      <c r="D58" s="249"/>
+      <c r="E58" s="249"/>
+      <c r="F58" s="249"/>
+      <c r="G58" s="250" t="s">
         <v>69</v>
       </c>
-      <c r="H58" s="215"/>
+      <c r="H58" s="214"/>
       <c r="I58" s="109"/>
-      <c r="J58" s="252"/>
+      <c r="J58" s="251"/>
       <c r="K58" s="68" t="s">
         <v>139</v>
       </c>
@@ -6297,75 +6415,75 @@
       <c r="M58" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="N58" s="164"/>
-      <c r="O58" s="253"/>
-      <c r="P58" s="219"/>
-      <c r="Q58" s="197"/>
-      <c r="R58" s="165"/>
-      <c r="S58" s="165"/>
-      <c r="T58" s="204"/>
-      <c r="U58" s="205"/>
-      <c r="V58" s="247"/>
-      <c r="W58" s="197"/>
-      <c r="X58" s="165"/>
-      <c r="Y58" s="172"/>
+      <c r="N58" s="163"/>
+      <c r="O58" s="252"/>
+      <c r="P58" s="218"/>
+      <c r="Q58" s="196"/>
+      <c r="R58" s="164"/>
+      <c r="S58" s="164"/>
+      <c r="T58" s="203"/>
+      <c r="U58" s="204"/>
+      <c r="V58" s="246"/>
+      <c r="W58" s="196"/>
+      <c r="X58" s="164"/>
+      <c r="Y58" s="171"/>
     </row>
     <row r="59" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A59" s="120"/>
-      <c r="B59" s="552">
+      <c r="B59" s="553">
         <v>21</v>
       </c>
-      <c r="C59" s="569">
+      <c r="C59" s="583">
         <v>7</v>
       </c>
-      <c r="D59" s="552">
+      <c r="D59" s="553">
         <v>4</v>
       </c>
-      <c r="E59" s="571">
+      <c r="E59" s="585">
         <v>2</v>
       </c>
-      <c r="F59" s="571">
+      <c r="F59" s="585">
         <v>13</v>
       </c>
       <c r="G59" s="121"/>
-      <c r="H59" s="638"/>
-      <c r="I59" s="639"/>
-      <c r="J59" s="640"/>
-      <c r="K59" s="254"/>
-      <c r="L59" s="255"/>
-      <c r="M59" s="255"/>
+      <c r="H59" s="650"/>
+      <c r="I59" s="651"/>
+      <c r="J59" s="652"/>
+      <c r="K59" s="253"/>
+      <c r="L59" s="254"/>
+      <c r="M59" s="254"/>
       <c r="N59" s="110"/>
       <c r="O59" s="111"/>
-      <c r="P59" s="252"/>
+      <c r="P59" s="251"/>
       <c r="Q59" s="125"/>
       <c r="R59" s="111"/>
       <c r="S59" s="109"/>
-      <c r="T59" s="610"/>
-      <c r="U59" s="518"/>
-      <c r="V59" s="518"/>
+      <c r="T59" s="622"/>
+      <c r="U59" s="531"/>
+      <c r="V59" s="531"/>
       <c r="W59" s="125"/>
       <c r="X59" s="111"/>
-      <c r="Y59" s="256"/>
+      <c r="Y59" s="255"/>
     </row>
     <row r="60" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="178"/>
-      <c r="B60" s="551"/>
-      <c r="C60" s="570"/>
-      <c r="D60" s="551"/>
-      <c r="E60" s="572"/>
-      <c r="F60" s="572"/>
+      <c r="A60" s="177"/>
+      <c r="B60" s="554"/>
+      <c r="C60" s="584"/>
+      <c r="D60" s="554"/>
+      <c r="E60" s="586"/>
+      <c r="F60" s="586"/>
       <c r="G60" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="H60" s="257"/>
-      <c r="I60" s="258"/>
-      <c r="J60" s="259"/>
-      <c r="K60" s="260"/>
-      <c r="L60" s="261"/>
-      <c r="M60" s="261"/>
+      <c r="H60" s="256"/>
+      <c r="I60" s="257"/>
+      <c r="J60" s="258"/>
+      <c r="K60" s="259"/>
+      <c r="L60" s="260"/>
+      <c r="M60" s="260"/>
       <c r="N60" s="88"/>
       <c r="O60" s="109"/>
-      <c r="P60" s="252"/>
+      <c r="P60" s="251"/>
       <c r="Q60" s="88"/>
       <c r="R60" s="109"/>
       <c r="S60" s="109"/>
@@ -6374,23 +6492,23 @@
       <c r="V60" s="93"/>
       <c r="W60" s="88"/>
       <c r="X60" s="109"/>
-      <c r="Y60" s="256"/>
+      <c r="Y60" s="255"/>
     </row>
     <row r="61" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="178" t="s">
+      <c r="A61" s="177" t="s">
         <v>21</v>
       </c>
-      <c r="B61" s="550"/>
-      <c r="C61" s="550">
+      <c r="B61" s="555"/>
+      <c r="C61" s="555">
         <v>21</v>
       </c>
-      <c r="D61" s="550">
+      <c r="D61" s="555">
         <v>18</v>
       </c>
-      <c r="E61" s="550">
+      <c r="E61" s="555">
         <v>16</v>
       </c>
-      <c r="F61" s="550"/>
+      <c r="F61" s="555"/>
       <c r="G61" s="138"/>
       <c r="H61" s="139"/>
       <c r="I61" s="140"/>
@@ -6398,46 +6516,46 @@
       <c r="K61" s="56"/>
       <c r="L61" s="57"/>
       <c r="M61" s="57"/>
-      <c r="N61" s="461"/>
-      <c r="O61" s="462"/>
-      <c r="P61" s="462"/>
-      <c r="Q61" s="462"/>
-      <c r="R61" s="462"/>
-      <c r="S61" s="462"/>
-      <c r="T61" s="597"/>
-      <c r="U61" s="563"/>
-      <c r="V61" s="563"/>
+      <c r="N61" s="473"/>
+      <c r="O61" s="474"/>
+      <c r="P61" s="474"/>
+      <c r="Q61" s="474"/>
+      <c r="R61" s="474"/>
+      <c r="S61" s="474"/>
+      <c r="T61" s="608"/>
+      <c r="U61" s="609"/>
+      <c r="V61" s="609"/>
       <c r="W61" s="56"/>
       <c r="X61" s="57"/>
-      <c r="Y61" s="262"/>
+      <c r="Y61" s="261"/>
     </row>
     <row r="62" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="137" t="s">
         <v>140</v>
       </c>
-      <c r="B62" s="551"/>
-      <c r="C62" s="551"/>
-      <c r="D62" s="551"/>
-      <c r="E62" s="551"/>
-      <c r="F62" s="551"/>
+      <c r="B62" s="554"/>
+      <c r="C62" s="554"/>
+      <c r="D62" s="554"/>
+      <c r="E62" s="554"/>
+      <c r="F62" s="554"/>
       <c r="G62" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="H62" s="541"/>
-      <c r="I62" s="465"/>
-      <c r="J62" s="466"/>
+      <c r="H62" s="560"/>
+      <c r="I62" s="477"/>
+      <c r="J62" s="478"/>
       <c r="K62" s="88"/>
       <c r="L62" s="109"/>
       <c r="M62" s="109"/>
       <c r="N62" s="68"/>
       <c r="O62" s="83"/>
-      <c r="P62" s="457"/>
-      <c r="Q62" s="457"/>
+      <c r="P62" s="510"/>
+      <c r="Q62" s="510"/>
       <c r="R62" s="83"/>
       <c r="S62" s="83"/>
       <c r="T62" s="69"/>
-      <c r="U62" s="457"/>
-      <c r="V62" s="501"/>
+      <c r="U62" s="510"/>
+      <c r="V62" s="536"/>
       <c r="W62" s="99"/>
       <c r="X62" s="83"/>
       <c r="Y62" s="107"/>
@@ -6446,61 +6564,61 @@
       <c r="A63" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="B63" s="550"/>
-      <c r="C63" s="550"/>
-      <c r="D63" s="550"/>
-      <c r="E63" s="550">
+      <c r="B63" s="555"/>
+      <c r="C63" s="555"/>
+      <c r="D63" s="555"/>
+      <c r="E63" s="555">
         <v>30</v>
       </c>
-      <c r="F63" s="550"/>
+      <c r="F63" s="555"/>
       <c r="G63" s="138"/>
-      <c r="H63" s="633"/>
-      <c r="I63" s="634"/>
-      <c r="J63" s="635"/>
-      <c r="K63" s="263" t="s">
+      <c r="H63" s="645"/>
+      <c r="I63" s="646"/>
+      <c r="J63" s="647"/>
+      <c r="K63" s="262" t="s">
         <v>75</v>
       </c>
       <c r="L63" s="140"/>
       <c r="M63" s="141"/>
-      <c r="N63" s="461" t="s">
+      <c r="N63" s="473" t="s">
         <v>141</v>
       </c>
-      <c r="O63" s="462"/>
-      <c r="P63" s="462"/>
-      <c r="Q63" s="462"/>
-      <c r="R63" s="462"/>
-      <c r="S63" s="462"/>
-      <c r="T63" s="597"/>
-      <c r="U63" s="563"/>
-      <c r="V63" s="563"/>
-      <c r="W63" s="156"/>
-      <c r="X63" s="157"/>
-      <c r="Y63" s="264"/>
+      <c r="O63" s="474"/>
+      <c r="P63" s="474"/>
+      <c r="Q63" s="474"/>
+      <c r="R63" s="474"/>
+      <c r="S63" s="474"/>
+      <c r="T63" s="608"/>
+      <c r="U63" s="609"/>
+      <c r="V63" s="609"/>
+      <c r="W63" s="155"/>
+      <c r="X63" s="156"/>
+      <c r="Y63" s="263"/>
     </row>
     <row r="64" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="B64" s="551"/>
-      <c r="C64" s="551"/>
-      <c r="D64" s="551"/>
-      <c r="E64" s="551"/>
-      <c r="F64" s="551"/>
+      <c r="B64" s="554"/>
+      <c r="C64" s="554"/>
+      <c r="D64" s="554"/>
+      <c r="E64" s="554"/>
+      <c r="F64" s="554"/>
       <c r="G64" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="H64" s="549"/>
-      <c r="I64" s="457"/>
-      <c r="J64" s="501"/>
-      <c r="K64" s="464"/>
-      <c r="L64" s="465"/>
-      <c r="M64" s="466"/>
+      <c r="H64" s="569"/>
+      <c r="I64" s="510"/>
+      <c r="J64" s="536"/>
+      <c r="K64" s="476"/>
+      <c r="L64" s="477"/>
+      <c r="M64" s="478"/>
       <c r="N64" s="68" t="s">
         <v>101</v>
       </c>
       <c r="O64" s="83"/>
-      <c r="P64" s="457"/>
-      <c r="Q64" s="457"/>
+      <c r="P64" s="510"/>
+      <c r="Q64" s="510"/>
       <c r="R64" s="83" t="s">
         <v>43</v>
       </c>
@@ -6508,8 +6626,8 @@
         <v>31</v>
       </c>
       <c r="T64" s="82"/>
-      <c r="U64" s="459"/>
-      <c r="V64" s="598"/>
+      <c r="U64" s="471"/>
+      <c r="V64" s="610"/>
       <c r="W64" s="68"/>
       <c r="X64" s="40"/>
       <c r="Y64" s="72"/>
@@ -6524,30 +6642,30 @@
       <c r="E65" s="73"/>
       <c r="F65" s="74"/>
       <c r="G65" s="138"/>
-      <c r="H65" s="637"/>
-      <c r="I65" s="587"/>
-      <c r="J65" s="587"/>
-      <c r="K65" s="464" t="s">
+      <c r="H65" s="649"/>
+      <c r="I65" s="598"/>
+      <c r="J65" s="598"/>
+      <c r="K65" s="476" t="s">
         <v>142</v>
       </c>
-      <c r="L65" s="465"/>
-      <c r="M65" s="466"/>
-      <c r="N65" s="461" t="s">
+      <c r="L65" s="477"/>
+      <c r="M65" s="478"/>
+      <c r="N65" s="473" t="s">
         <v>143</v>
       </c>
-      <c r="O65" s="462"/>
-      <c r="P65" s="463"/>
-      <c r="Q65" s="461" t="s">
+      <c r="O65" s="474"/>
+      <c r="P65" s="475"/>
+      <c r="Q65" s="473" t="s">
         <v>141</v>
       </c>
-      <c r="R65" s="462"/>
-      <c r="S65" s="462"/>
-      <c r="T65" s="577"/>
-      <c r="U65" s="462"/>
-      <c r="V65" s="463"/>
-      <c r="W65" s="461"/>
-      <c r="X65" s="462"/>
-      <c r="Y65" s="476"/>
+      <c r="R65" s="474"/>
+      <c r="S65" s="474"/>
+      <c r="T65" s="588"/>
+      <c r="U65" s="474"/>
+      <c r="V65" s="475"/>
+      <c r="W65" s="473"/>
+      <c r="X65" s="474"/>
+      <c r="Y65" s="488"/>
     </row>
     <row r="66" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="137" t="s">
@@ -6561,14 +6679,14 @@
       <c r="G66" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="H66" s="636"/>
-      <c r="I66" s="589"/>
-      <c r="J66" s="589"/>
-      <c r="K66" s="495" t="s">
+      <c r="H66" s="648"/>
+      <c r="I66" s="600"/>
+      <c r="J66" s="600"/>
+      <c r="K66" s="509" t="s">
         <v>145</v>
       </c>
-      <c r="L66" s="457"/>
-      <c r="M66" s="501"/>
+      <c r="L66" s="510"/>
+      <c r="M66" s="536"/>
       <c r="N66" s="80" t="s">
         <v>146</v>
       </c>
@@ -6590,8 +6708,8 @@
       <c r="T66" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="U66" s="457"/>
-      <c r="V66" s="501"/>
+      <c r="U66" s="510"/>
+      <c r="V66" s="536"/>
       <c r="W66" s="68"/>
       <c r="X66" s="93"/>
       <c r="Y66" s="94"/>
@@ -6606,30 +6724,30 @@
       <c r="E67" s="73"/>
       <c r="F67" s="74"/>
       <c r="G67" s="138"/>
-      <c r="H67" s="266"/>
-      <c r="I67" s="267"/>
-      <c r="J67" s="268"/>
-      <c r="K67" s="461"/>
-      <c r="L67" s="462"/>
-      <c r="M67" s="463"/>
-      <c r="N67" s="461" t="s">
+      <c r="H67" s="265"/>
+      <c r="I67" s="266"/>
+      <c r="J67" s="267"/>
+      <c r="K67" s="473"/>
+      <c r="L67" s="474"/>
+      <c r="M67" s="475"/>
+      <c r="N67" s="473" t="s">
         <v>141</v>
       </c>
-      <c r="O67" s="462"/>
-      <c r="P67" s="463"/>
-      <c r="Q67" s="461" t="s">
+      <c r="O67" s="474"/>
+      <c r="P67" s="475"/>
+      <c r="Q67" s="473" t="s">
         <v>143</v>
       </c>
-      <c r="R67" s="462"/>
-      <c r="S67" s="462"/>
-      <c r="T67" s="455" t="s">
+      <c r="R67" s="474"/>
+      <c r="S67" s="474"/>
+      <c r="T67" s="496" t="s">
         <v>147</v>
       </c>
-      <c r="U67" s="456"/>
-      <c r="V67" s="456"/>
-      <c r="W67" s="461"/>
-      <c r="X67" s="462"/>
-      <c r="Y67" s="476"/>
+      <c r="U67" s="497"/>
+      <c r="V67" s="497"/>
+      <c r="W67" s="473"/>
+      <c r="X67" s="474"/>
+      <c r="Y67" s="488"/>
     </row>
     <row r="68" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="137"/>
@@ -6641,9 +6759,9 @@
       <c r="G68" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="H68" s="269"/>
-      <c r="I68" s="270"/>
-      <c r="J68" s="271"/>
+      <c r="H68" s="268"/>
+      <c r="I68" s="269"/>
+      <c r="J68" s="270"/>
       <c r="K68" s="68"/>
       <c r="L68" s="83"/>
       <c r="M68" s="132"/>
@@ -6686,51 +6804,51 @@
       <c r="E69" s="73"/>
       <c r="F69" s="74"/>
       <c r="G69" s="138"/>
-      <c r="H69" s="272"/>
-      <c r="I69" s="273"/>
-      <c r="J69" s="274"/>
+      <c r="H69" s="271"/>
+      <c r="I69" s="272"/>
+      <c r="J69" s="273"/>
       <c r="K69" s="53"/>
       <c r="L69" s="54"/>
       <c r="M69" s="54"/>
-      <c r="N69" s="461" t="s">
+      <c r="N69" s="473" t="s">
         <v>149</v>
       </c>
-      <c r="O69" s="462"/>
-      <c r="P69" s="462"/>
-      <c r="Q69" s="462"/>
-      <c r="R69" s="462"/>
-      <c r="S69" s="462"/>
-      <c r="T69" s="455" t="s">
+      <c r="O69" s="474"/>
+      <c r="P69" s="474"/>
+      <c r="Q69" s="474"/>
+      <c r="R69" s="474"/>
+      <c r="S69" s="474"/>
+      <c r="T69" s="496" t="s">
         <v>150</v>
       </c>
-      <c r="U69" s="456"/>
-      <c r="V69" s="602"/>
+      <c r="U69" s="497"/>
+      <c r="V69" s="614"/>
       <c r="W69" s="50"/>
       <c r="X69" s="51"/>
-      <c r="Y69" s="159"/>
+      <c r="Y69" s="158"/>
     </row>
     <row r="70" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="160"/>
-      <c r="B70" s="250"/>
-      <c r="C70" s="250"/>
-      <c r="D70" s="250"/>
-      <c r="E70" s="250"/>
-      <c r="F70" s="250"/>
-      <c r="G70" s="161" t="s">
+      <c r="A70" s="159"/>
+      <c r="B70" s="249"/>
+      <c r="C70" s="249"/>
+      <c r="D70" s="249"/>
+      <c r="E70" s="249"/>
+      <c r="F70" s="249"/>
+      <c r="G70" s="160" t="s">
         <v>69</v>
       </c>
-      <c r="H70" s="275"/>
-      <c r="I70" s="276"/>
-      <c r="J70" s="277"/>
+      <c r="H70" s="274"/>
+      <c r="I70" s="275"/>
+      <c r="J70" s="276"/>
       <c r="K70" s="68"/>
-      <c r="L70" s="278"/>
-      <c r="M70" s="278"/>
+      <c r="L70" s="277"/>
+      <c r="M70" s="277"/>
       <c r="N70" s="63" t="s">
         <v>146</v>
       </c>
       <c r="O70" s="103"/>
-      <c r="P70" s="279"/>
-      <c r="Q70" s="279"/>
+      <c r="P70" s="278"/>
+      <c r="Q70" s="278"/>
       <c r="R70" s="4" t="s">
         <v>81</v>
       </c>
@@ -6746,54 +6864,54 @@
       <c r="V70" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="W70" s="218"/>
-      <c r="X70" s="171"/>
-      <c r="Y70" s="172"/>
+      <c r="W70" s="217"/>
+      <c r="X70" s="170"/>
+      <c r="Y70" s="171"/>
     </row>
     <row r="71" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A71" s="120"/>
-      <c r="B71" s="569">
+      <c r="B71" s="583">
         <v>22</v>
       </c>
-      <c r="C71" s="571">
+      <c r="C71" s="585">
         <v>8</v>
       </c>
-      <c r="D71" s="552">
+      <c r="D71" s="553">
         <v>5</v>
       </c>
-      <c r="E71" s="571">
+      <c r="E71" s="585">
         <v>3</v>
       </c>
-      <c r="F71" s="571">
+      <c r="F71" s="585">
         <v>14</v>
       </c>
       <c r="G71" s="121"/>
-      <c r="H71" s="578"/>
-      <c r="I71" s="530"/>
-      <c r="J71" s="528"/>
-      <c r="K71" s="280"/>
-      <c r="L71" s="281"/>
-      <c r="M71" s="281"/>
+      <c r="H71" s="589"/>
+      <c r="I71" s="543"/>
+      <c r="J71" s="541"/>
+      <c r="K71" s="279"/>
+      <c r="L71" s="280"/>
+      <c r="M71" s="280"/>
       <c r="N71" s="125"/>
       <c r="O71" s="123"/>
       <c r="P71" s="124"/>
       <c r="Q71" s="125"/>
       <c r="R71" s="123"/>
       <c r="S71" s="123"/>
-      <c r="T71" s="599"/>
-      <c r="U71" s="600"/>
-      <c r="V71" s="601"/>
-      <c r="W71" s="461"/>
-      <c r="X71" s="462"/>
-      <c r="Y71" s="476"/>
+      <c r="T71" s="611"/>
+      <c r="U71" s="612"/>
+      <c r="V71" s="613"/>
+      <c r="W71" s="473"/>
+      <c r="X71" s="474"/>
+      <c r="Y71" s="488"/>
     </row>
     <row r="72" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="178"/>
-      <c r="B72" s="570"/>
-      <c r="C72" s="572"/>
-      <c r="D72" s="551"/>
-      <c r="E72" s="572"/>
-      <c r="F72" s="572"/>
+      <c r="A72" s="177"/>
+      <c r="B72" s="584"/>
+      <c r="C72" s="586"/>
+      <c r="D72" s="554"/>
+      <c r="E72" s="586"/>
+      <c r="F72" s="586"/>
       <c r="G72" s="130" t="s">
         <v>22</v>
       </c>
@@ -6809,63 +6927,63 @@
       <c r="Q72" s="133"/>
       <c r="R72" s="93"/>
       <c r="S72" s="93"/>
-      <c r="T72" s="282"/>
+      <c r="T72" s="281"/>
       <c r="U72" s="92"/>
-      <c r="V72" s="283"/>
+      <c r="V72" s="282"/>
       <c r="W72" s="68"/>
       <c r="X72" s="40"/>
       <c r="Y72" s="94"/>
     </row>
     <row r="73" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="178" t="s">
+      <c r="A73" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="B73" s="550"/>
-      <c r="C73" s="550">
+      <c r="B73" s="555"/>
+      <c r="C73" s="555">
         <v>22</v>
       </c>
-      <c r="D73" s="550">
+      <c r="D73" s="555">
         <v>19</v>
       </c>
-      <c r="E73" s="550">
+      <c r="E73" s="555">
         <v>17</v>
       </c>
-      <c r="F73" s="550"/>
+      <c r="F73" s="555"/>
       <c r="G73" s="138"/>
-      <c r="H73" s="578"/>
-      <c r="I73" s="530"/>
-      <c r="J73" s="528"/>
-      <c r="K73" s="461"/>
-      <c r="L73" s="462"/>
-      <c r="M73" s="462"/>
+      <c r="H73" s="589"/>
+      <c r="I73" s="543"/>
+      <c r="J73" s="541"/>
+      <c r="K73" s="473"/>
+      <c r="L73" s="474"/>
+      <c r="M73" s="474"/>
       <c r="N73" s="63"/>
       <c r="O73" s="54"/>
       <c r="P73" s="55"/>
       <c r="Q73" s="63"/>
       <c r="R73" s="54"/>
       <c r="S73" s="54"/>
-      <c r="T73" s="455" t="s">
+      <c r="T73" s="496" t="s">
         <v>151</v>
       </c>
-      <c r="U73" s="456"/>
-      <c r="V73" s="456"/>
-      <c r="W73" s="477"/>
-      <c r="X73" s="478"/>
-      <c r="Y73" s="479"/>
+      <c r="U73" s="497"/>
+      <c r="V73" s="497"/>
+      <c r="W73" s="489"/>
+      <c r="X73" s="490"/>
+      <c r="Y73" s="491"/>
     </row>
     <row r="74" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="B74" s="551"/>
-      <c r="C74" s="551"/>
-      <c r="D74" s="551"/>
-      <c r="E74" s="551"/>
-      <c r="F74" s="551"/>
+      <c r="B74" s="554"/>
+      <c r="C74" s="554"/>
+      <c r="D74" s="554"/>
+      <c r="E74" s="554"/>
+      <c r="F74" s="554"/>
       <c r="G74" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="H74" s="215"/>
+      <c r="H74" s="214"/>
       <c r="I74" s="109"/>
       <c r="J74" s="64"/>
       <c r="K74" s="68"/>
@@ -6878,52 +6996,52 @@
       <c r="R74" s="40"/>
       <c r="S74" s="93"/>
       <c r="T74" s="91"/>
-      <c r="U74" s="284"/>
-      <c r="V74" s="285"/>
-      <c r="W74" s="197"/>
+      <c r="U74" s="283"/>
+      <c r="V74" s="284"/>
+      <c r="W74" s="196"/>
       <c r="X74" s="61"/>
-      <c r="Y74" s="198"/>
+      <c r="Y74" s="197"/>
     </row>
     <row r="75" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="B75" s="550"/>
-      <c r="C75" s="550"/>
-      <c r="D75" s="550"/>
-      <c r="E75" s="550">
+      <c r="B75" s="555"/>
+      <c r="C75" s="555"/>
+      <c r="D75" s="555"/>
+      <c r="E75" s="555">
         <v>31</v>
       </c>
-      <c r="F75" s="550"/>
+      <c r="F75" s="555"/>
       <c r="G75" s="138"/>
-      <c r="H75" s="527"/>
-      <c r="I75" s="494"/>
-      <c r="J75" s="528"/>
-      <c r="K75" s="461"/>
-      <c r="L75" s="462"/>
-      <c r="M75" s="462"/>
+      <c r="H75" s="540"/>
+      <c r="I75" s="508"/>
+      <c r="J75" s="541"/>
+      <c r="K75" s="473"/>
+      <c r="L75" s="474"/>
+      <c r="M75" s="474"/>
       <c r="N75" s="56"/>
       <c r="O75" s="51"/>
       <c r="P75" s="52"/>
       <c r="Q75" s="56"/>
       <c r="R75" s="51"/>
       <c r="S75" s="51"/>
-      <c r="T75" s="484"/>
-      <c r="U75" s="485"/>
-      <c r="V75" s="486"/>
-      <c r="W75" s="286"/>
-      <c r="X75" s="248"/>
-      <c r="Y75" s="287"/>
+      <c r="T75" s="498"/>
+      <c r="U75" s="499"/>
+      <c r="V75" s="500"/>
+      <c r="W75" s="285"/>
+      <c r="X75" s="247"/>
+      <c r="Y75" s="286"/>
     </row>
     <row r="76" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="B76" s="551"/>
-      <c r="C76" s="551"/>
-      <c r="D76" s="551"/>
-      <c r="E76" s="551"/>
-      <c r="F76" s="551"/>
+      <c r="B76" s="554"/>
+      <c r="C76" s="554"/>
+      <c r="D76" s="554"/>
+      <c r="E76" s="554"/>
+      <c r="F76" s="554"/>
       <c r="G76" s="130" t="s">
         <v>35</v>
       </c>
@@ -6942,41 +7060,41 @@
       <c r="T76" s="104" t="s">
         <v>154</v>
       </c>
-      <c r="U76" s="288" t="s">
+      <c r="U76" s="287" t="s">
         <v>43</v>
       </c>
-      <c r="V76" s="289" t="s">
+      <c r="V76" s="288" t="s">
         <v>54</v>
       </c>
       <c r="W76" s="68"/>
-      <c r="X76" s="290"/>
+      <c r="X76" s="289"/>
       <c r="Y76" s="94"/>
     </row>
     <row r="77" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="B77" s="291"/>
-      <c r="C77" s="291"/>
-      <c r="D77" s="191"/>
-      <c r="E77" s="191"/>
-      <c r="F77" s="191"/>
+      <c r="B77" s="290"/>
+      <c r="C77" s="290"/>
+      <c r="D77" s="190"/>
+      <c r="E77" s="190"/>
+      <c r="F77" s="190"/>
       <c r="G77" s="138"/>
-      <c r="H77" s="215"/>
+      <c r="H77" s="214"/>
       <c r="I77" s="109"/>
-      <c r="J77" s="252"/>
-      <c r="K77" s="147"/>
-      <c r="L77" s="148"/>
-      <c r="M77" s="292"/>
+      <c r="J77" s="251"/>
+      <c r="K77" s="146"/>
+      <c r="L77" s="147"/>
+      <c r="M77" s="291"/>
       <c r="N77" s="56"/>
       <c r="O77" s="57"/>
-      <c r="P77" s="293"/>
+      <c r="P77" s="292"/>
       <c r="Q77" s="56"/>
       <c r="R77" s="57"/>
       <c r="S77" s="57"/>
-      <c r="T77" s="511"/>
-      <c r="U77" s="512"/>
-      <c r="V77" s="513"/>
+      <c r="T77" s="524"/>
+      <c r="U77" s="525"/>
+      <c r="V77" s="526"/>
       <c r="W77" s="56"/>
       <c r="X77" s="57"/>
       <c r="Y77" s="58"/>
@@ -6995,19 +7113,19 @@
       </c>
       <c r="H78" s="131"/>
       <c r="I78" s="40"/>
-      <c r="J78" s="183"/>
+      <c r="J78" s="182"/>
       <c r="K78" s="78"/>
       <c r="L78" s="77"/>
       <c r="M78" s="79"/>
       <c r="N78" s="68"/>
       <c r="O78" s="40"/>
-      <c r="P78" s="183"/>
+      <c r="P78" s="182"/>
       <c r="Q78" s="68"/>
       <c r="R78" s="40"/>
       <c r="S78" s="40"/>
-      <c r="T78" s="204"/>
-      <c r="U78" s="205"/>
-      <c r="V78" s="247"/>
+      <c r="T78" s="203"/>
+      <c r="U78" s="204"/>
+      <c r="V78" s="246"/>
       <c r="W78" s="68"/>
       <c r="X78" s="40"/>
       <c r="Y78" s="72"/>
@@ -7022,24 +7140,24 @@
       <c r="E79" s="74"/>
       <c r="F79" s="74"/>
       <c r="G79" s="138"/>
-      <c r="H79" s="234"/>
-      <c r="I79" s="294"/>
-      <c r="J79" s="295"/>
-      <c r="K79" s="296"/>
-      <c r="L79" s="297"/>
-      <c r="M79" s="298"/>
+      <c r="H79" s="233"/>
+      <c r="I79" s="293"/>
+      <c r="J79" s="294"/>
+      <c r="K79" s="295"/>
+      <c r="L79" s="296"/>
+      <c r="M79" s="297"/>
       <c r="N79" s="90"/>
-      <c r="O79" s="294"/>
-      <c r="P79" s="295"/>
+      <c r="O79" s="293"/>
+      <c r="P79" s="294"/>
       <c r="Q79" s="90"/>
-      <c r="R79" s="294"/>
-      <c r="S79" s="294"/>
-      <c r="T79" s="299"/>
-      <c r="U79" s="294"/>
-      <c r="V79" s="294"/>
+      <c r="R79" s="293"/>
+      <c r="S79" s="293"/>
+      <c r="T79" s="298"/>
+      <c r="U79" s="293"/>
+      <c r="V79" s="293"/>
       <c r="W79" s="90"/>
-      <c r="X79" s="294"/>
-      <c r="Y79" s="300"/>
+      <c r="X79" s="293"/>
+      <c r="Y79" s="299"/>
     </row>
     <row r="80" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="137"/>
@@ -7051,24 +7169,24 @@
       <c r="G80" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="H80" s="234"/>
-      <c r="I80" s="294"/>
-      <c r="J80" s="295"/>
-      <c r="K80" s="301"/>
-      <c r="L80" s="302"/>
-      <c r="M80" s="303"/>
+      <c r="H80" s="233"/>
+      <c r="I80" s="293"/>
+      <c r="J80" s="294"/>
+      <c r="K80" s="300"/>
+      <c r="L80" s="301"/>
+      <c r="M80" s="302"/>
       <c r="N80" s="90"/>
-      <c r="O80" s="294"/>
-      <c r="P80" s="295"/>
+      <c r="O80" s="293"/>
+      <c r="P80" s="294"/>
       <c r="Q80" s="90"/>
-      <c r="R80" s="294"/>
-      <c r="S80" s="294"/>
-      <c r="T80" s="299"/>
-      <c r="U80" s="294"/>
-      <c r="V80" s="294"/>
+      <c r="R80" s="293"/>
+      <c r="S80" s="293"/>
+      <c r="T80" s="298"/>
+      <c r="U80" s="293"/>
+      <c r="V80" s="293"/>
       <c r="W80" s="90"/>
-      <c r="X80" s="294"/>
-      <c r="Y80" s="300"/>
+      <c r="X80" s="293"/>
+      <c r="Y80" s="299"/>
     </row>
     <row r="81" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="137"/>
@@ -7078,62 +7196,62 @@
       <c r="E81" s="73"/>
       <c r="F81" s="74"/>
       <c r="G81" s="138"/>
-      <c r="H81" s="304"/>
-      <c r="I81" s="305"/>
-      <c r="J81" s="298"/>
-      <c r="K81" s="296"/>
-      <c r="L81" s="297"/>
-      <c r="M81" s="298"/>
-      <c r="N81" s="296"/>
-      <c r="O81" s="297"/>
-      <c r="P81" s="298"/>
-      <c r="Q81" s="296"/>
-      <c r="R81" s="297"/>
-      <c r="S81" s="297"/>
-      <c r="T81" s="306"/>
-      <c r="U81" s="297"/>
-      <c r="V81" s="297"/>
-      <c r="W81" s="296"/>
-      <c r="X81" s="297"/>
-      <c r="Y81" s="307"/>
+      <c r="H81" s="303"/>
+      <c r="I81" s="304"/>
+      <c r="J81" s="297"/>
+      <c r="K81" s="295"/>
+      <c r="L81" s="296"/>
+      <c r="M81" s="297"/>
+      <c r="N81" s="295"/>
+      <c r="O81" s="296"/>
+      <c r="P81" s="297"/>
+      <c r="Q81" s="295"/>
+      <c r="R81" s="296"/>
+      <c r="S81" s="296"/>
+      <c r="T81" s="305"/>
+      <c r="U81" s="296"/>
+      <c r="V81" s="296"/>
+      <c r="W81" s="295"/>
+      <c r="X81" s="296"/>
+      <c r="Y81" s="306"/>
     </row>
     <row r="82" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="160"/>
-      <c r="B82" s="250"/>
-      <c r="C82" s="250"/>
-      <c r="D82" s="250"/>
-      <c r="E82" s="250"/>
-      <c r="F82" s="250"/>
-      <c r="G82" s="161" t="s">
+      <c r="A82" s="159"/>
+      <c r="B82" s="249"/>
+      <c r="C82" s="249"/>
+      <c r="D82" s="249"/>
+      <c r="E82" s="249"/>
+      <c r="F82" s="249"/>
+      <c r="G82" s="160" t="s">
         <v>69</v>
       </c>
-      <c r="H82" s="308"/>
-      <c r="I82" s="309"/>
-      <c r="J82" s="310"/>
-      <c r="K82" s="311"/>
-      <c r="L82" s="312"/>
-      <c r="M82" s="310"/>
-      <c r="N82" s="311"/>
-      <c r="O82" s="312"/>
-      <c r="P82" s="310"/>
-      <c r="Q82" s="311"/>
-      <c r="R82" s="312"/>
-      <c r="S82" s="312"/>
-      <c r="T82" s="313"/>
-      <c r="U82" s="312"/>
-      <c r="V82" s="312"/>
-      <c r="W82" s="311"/>
-      <c r="X82" s="312"/>
-      <c r="Y82" s="314"/>
+      <c r="H82" s="307"/>
+      <c r="I82" s="308"/>
+      <c r="J82" s="309"/>
+      <c r="K82" s="310"/>
+      <c r="L82" s="311"/>
+      <c r="M82" s="309"/>
+      <c r="N82" s="310"/>
+      <c r="O82" s="311"/>
+      <c r="P82" s="309"/>
+      <c r="Q82" s="310"/>
+      <c r="R82" s="311"/>
+      <c r="S82" s="311"/>
+      <c r="T82" s="312"/>
+      <c r="U82" s="311"/>
+      <c r="V82" s="311"/>
+      <c r="W82" s="310"/>
+      <c r="X82" s="311"/>
+      <c r="Y82" s="313"/>
     </row>
     <row r="83" spans="1:25" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="315"/>
-      <c r="B83" s="316"/>
-      <c r="C83" s="316"/>
-      <c r="D83" s="316"/>
-      <c r="E83" s="316"/>
-      <c r="F83" s="316"/>
-      <c r="G83" s="317"/>
+      <c r="A83" s="314"/>
+      <c r="B83" s="315"/>
+      <c r="C83" s="315"/>
+      <c r="D83" s="315"/>
+      <c r="E83" s="315"/>
+      <c r="F83" s="315"/>
+      <c r="G83" s="316"/>
       <c r="H83" s="26"/>
       <c r="I83" s="26"/>
       <c r="J83" s="25"/>
@@ -7157,127 +7275,127 @@
       <c r="A84" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="B84" s="552">
+      <c r="B84" s="553">
         <v>10</v>
       </c>
-      <c r="C84" s="552">
+      <c r="C84" s="553">
         <v>10</v>
       </c>
-      <c r="D84" s="552">
+      <c r="D84" s="553">
         <v>7</v>
       </c>
-      <c r="E84" s="552">
+      <c r="E84" s="553">
         <v>5</v>
       </c>
-      <c r="F84" s="552">
+      <c r="F84" s="553">
         <v>2</v>
       </c>
-      <c r="G84" s="561" t="s">
+      <c r="G84" s="574" t="s">
         <v>22</v>
       </c>
-      <c r="H84" s="461"/>
-      <c r="I84" s="462"/>
-      <c r="J84" s="463"/>
-      <c r="K84" s="281"/>
-      <c r="L84" s="281"/>
-      <c r="M84" s="318"/>
-      <c r="N84" s="319"/>
-      <c r="O84" s="320"/>
-      <c r="P84" s="321"/>
-      <c r="Q84" s="319"/>
-      <c r="R84" s="320"/>
-      <c r="S84" s="320"/>
-      <c r="T84" s="322"/>
-      <c r="U84" s="320"/>
-      <c r="V84" s="320"/>
-      <c r="W84" s="319"/>
-      <c r="X84" s="320"/>
-      <c r="Y84" s="323"/>
+      <c r="H84" s="473"/>
+      <c r="I84" s="474"/>
+      <c r="J84" s="475"/>
+      <c r="K84" s="280"/>
+      <c r="L84" s="280"/>
+      <c r="M84" s="317"/>
+      <c r="N84" s="318"/>
+      <c r="O84" s="319"/>
+      <c r="P84" s="320"/>
+      <c r="Q84" s="318"/>
+      <c r="R84" s="319"/>
+      <c r="S84" s="319"/>
+      <c r="T84" s="321"/>
+      <c r="U84" s="319"/>
+      <c r="V84" s="319"/>
+      <c r="W84" s="318"/>
+      <c r="X84" s="319"/>
+      <c r="Y84" s="322"/>
     </row>
     <row r="85" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="B85" s="551"/>
-      <c r="C85" s="551"/>
-      <c r="D85" s="551"/>
-      <c r="E85" s="551"/>
-      <c r="F85" s="551"/>
-      <c r="G85" s="559"/>
+      <c r="B85" s="554"/>
+      <c r="C85" s="554"/>
+      <c r="D85" s="554"/>
+      <c r="E85" s="554"/>
+      <c r="F85" s="554"/>
+      <c r="G85" s="572"/>
       <c r="H85" s="63"/>
       <c r="I85" s="4"/>
       <c r="J85" s="64"/>
-      <c r="K85" s="324"/>
-      <c r="L85" s="324"/>
-      <c r="M85" s="325"/>
+      <c r="K85" s="323"/>
+      <c r="L85" s="323"/>
+      <c r="M85" s="324"/>
       <c r="N85" s="80"/>
       <c r="O85" s="81"/>
       <c r="P85" s="89"/>
       <c r="Q85" s="80"/>
       <c r="R85" s="81"/>
       <c r="S85" s="81"/>
-      <c r="T85" s="326"/>
+      <c r="T85" s="325"/>
       <c r="U85" s="81"/>
       <c r="V85" s="81"/>
       <c r="W85" s="80"/>
       <c r="X85" s="81"/>
-      <c r="Y85" s="327"/>
-    </row>
-    <row r="86" spans="1:25" s="329" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y85" s="326"/>
+    </row>
+    <row r="86" spans="1:25" s="328" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="B86" s="550">
+      <c r="B86" s="555">
         <v>24</v>
       </c>
-      <c r="C86" s="550">
+      <c r="C86" s="555">
         <v>24</v>
       </c>
-      <c r="D86" s="550">
+      <c r="D86" s="555">
         <v>21</v>
       </c>
-      <c r="E86" s="550">
+      <c r="E86" s="555">
         <v>19</v>
       </c>
       <c r="F86" s="49"/>
-      <c r="G86" s="558" t="s">
+      <c r="G86" s="571" t="s">
         <v>25</v>
       </c>
-      <c r="H86" s="490" t="s">
+      <c r="H86" s="504" t="s">
         <v>155</v>
       </c>
-      <c r="I86" s="462"/>
-      <c r="J86" s="463"/>
+      <c r="I86" s="474"/>
+      <c r="J86" s="475"/>
       <c r="K86" s="53"/>
       <c r="L86" s="54"/>
       <c r="M86" s="54"/>
       <c r="N86" s="53"/>
       <c r="O86" s="54"/>
       <c r="P86" s="55"/>
-      <c r="Q86" s="461" t="s">
+      <c r="Q86" s="473" t="s">
         <v>39</v>
       </c>
-      <c r="R86" s="462"/>
-      <c r="S86" s="462"/>
-      <c r="T86" s="328"/>
+      <c r="R86" s="474"/>
+      <c r="S86" s="474"/>
+      <c r="T86" s="327"/>
       <c r="U86" s="54"/>
       <c r="V86" s="54"/>
-      <c r="W86" s="461" t="s">
+      <c r="W86" s="473" t="s">
         <v>156</v>
       </c>
-      <c r="X86" s="462"/>
-      <c r="Y86" s="476"/>
+      <c r="X86" s="474"/>
+      <c r="Y86" s="488"/>
     </row>
     <row r="87" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B87" s="551"/>
-      <c r="C87" s="551"/>
-      <c r="D87" s="551"/>
-      <c r="E87" s="551"/>
+      <c r="B87" s="554"/>
+      <c r="C87" s="554"/>
+      <c r="D87" s="554"/>
+      <c r="E87" s="554"/>
       <c r="F87" s="38"/>
-      <c r="G87" s="559"/>
+      <c r="G87" s="572"/>
       <c r="H87" s="68" t="s">
         <v>157</v>
       </c>
@@ -7302,7 +7420,7 @@
       <c r="S87" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="T87" s="326"/>
+      <c r="T87" s="325"/>
       <c r="U87" s="81"/>
       <c r="V87" s="81"/>
       <c r="W87" s="68" t="s">
@@ -7319,49 +7437,49 @@
       <c r="A88" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="B88" s="550"/>
-      <c r="C88" s="550"/>
-      <c r="D88" s="550"/>
-      <c r="E88" s="550"/>
-      <c r="F88" s="550"/>
-      <c r="G88" s="558" t="s">
+      <c r="B88" s="555"/>
+      <c r="C88" s="555"/>
+      <c r="D88" s="555"/>
+      <c r="E88" s="555"/>
+      <c r="F88" s="555"/>
+      <c r="G88" s="571" t="s">
         <v>35</v>
       </c>
-      <c r="H88" s="490" t="s">
+      <c r="H88" s="504" t="s">
         <v>36</v>
       </c>
-      <c r="I88" s="462"/>
-      <c r="J88" s="463"/>
+      <c r="I88" s="474"/>
+      <c r="J88" s="475"/>
       <c r="K88" s="53"/>
       <c r="L88" s="54"/>
       <c r="M88" s="55"/>
       <c r="N88" s="53"/>
       <c r="O88" s="54"/>
       <c r="P88" s="55"/>
-      <c r="Q88" s="461" t="s">
+      <c r="Q88" s="473" t="s">
         <v>39</v>
       </c>
-      <c r="R88" s="462"/>
-      <c r="S88" s="462"/>
-      <c r="T88" s="152"/>
+      <c r="R88" s="474"/>
+      <c r="S88" s="474"/>
+      <c r="T88" s="151"/>
       <c r="U88" s="61"/>
       <c r="V88" s="61"/>
-      <c r="W88" s="477" t="s">
+      <c r="W88" s="489" t="s">
         <v>156</v>
       </c>
-      <c r="X88" s="478"/>
-      <c r="Y88" s="479"/>
+      <c r="X88" s="490"/>
+      <c r="Y88" s="491"/>
     </row>
     <row r="89" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B89" s="551"/>
-      <c r="C89" s="551"/>
-      <c r="D89" s="551"/>
-      <c r="E89" s="551"/>
-      <c r="F89" s="551"/>
-      <c r="G89" s="559"/>
+      <c r="B89" s="554"/>
+      <c r="C89" s="554"/>
+      <c r="D89" s="554"/>
+      <c r="E89" s="554"/>
+      <c r="F89" s="554"/>
+      <c r="G89" s="572"/>
       <c r="H89" s="76" t="s">
         <v>41</v>
       </c>
@@ -7386,60 +7504,60 @@
       <c r="S89" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T89" s="330"/>
+      <c r="T89" s="329"/>
       <c r="U89" s="77"/>
       <c r="V89" s="77"/>
-      <c r="W89" s="458"/>
-      <c r="X89" s="459"/>
-      <c r="Y89" s="460"/>
+      <c r="W89" s="470"/>
+      <c r="X89" s="471"/>
+      <c r="Y89" s="472"/>
     </row>
     <row r="90" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="B90" s="550"/>
-      <c r="C90" s="550"/>
-      <c r="D90" s="550"/>
-      <c r="E90" s="550"/>
-      <c r="F90" s="550"/>
-      <c r="G90" s="558" t="s">
+      <c r="B90" s="555"/>
+      <c r="C90" s="555"/>
+      <c r="D90" s="555"/>
+      <c r="E90" s="555"/>
+      <c r="F90" s="555"/>
+      <c r="G90" s="571" t="s">
         <v>47</v>
       </c>
-      <c r="H90" s="461" t="s">
+      <c r="H90" s="473" t="s">
         <v>26</v>
       </c>
-      <c r="I90" s="462"/>
-      <c r="J90" s="463"/>
-      <c r="K90" s="477" t="s">
+      <c r="I90" s="474"/>
+      <c r="J90" s="475"/>
+      <c r="K90" s="489" t="s">
         <v>130</v>
       </c>
-      <c r="L90" s="478"/>
-      <c r="M90" s="488"/>
+      <c r="L90" s="490"/>
+      <c r="M90" s="502"/>
       <c r="N90" s="54"/>
       <c r="O90" s="54"/>
       <c r="P90" s="55"/>
-      <c r="Q90" s="461" t="s">
+      <c r="Q90" s="473" t="s">
         <v>124</v>
       </c>
-      <c r="R90" s="462"/>
-      <c r="S90" s="462"/>
+      <c r="R90" s="474"/>
+      <c r="S90" s="474"/>
       <c r="T90" s="142"/>
       <c r="U90" s="57"/>
       <c r="V90" s="57"/>
-      <c r="W90" s="458"/>
-      <c r="X90" s="459"/>
-      <c r="Y90" s="460"/>
+      <c r="W90" s="470"/>
+      <c r="X90" s="471"/>
+      <c r="Y90" s="472"/>
     </row>
     <row r="91" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="B91" s="551"/>
-      <c r="C91" s="551"/>
-      <c r="D91" s="551"/>
-      <c r="E91" s="551"/>
-      <c r="F91" s="551"/>
-      <c r="G91" s="559"/>
+      <c r="B91" s="554"/>
+      <c r="C91" s="554"/>
+      <c r="D91" s="554"/>
+      <c r="E91" s="554"/>
+      <c r="F91" s="554"/>
+      <c r="G91" s="572"/>
       <c r="H91" s="60" t="s">
         <v>29</v>
       </c>
@@ -7478,7 +7596,7 @@
       <c r="W91" s="68" t="s">
         <v>158</v>
       </c>
-      <c r="X91" s="290" t="s">
+      <c r="X91" s="289" t="s">
         <v>159</v>
       </c>
       <c r="Y91" s="94" t="s">
@@ -7489,52 +7607,52 @@
       <c r="A92" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="B92" s="550"/>
-      <c r="C92" s="550"/>
-      <c r="D92" s="550"/>
-      <c r="E92" s="550"/>
-      <c r="F92" s="550"/>
-      <c r="G92" s="558" t="s">
+      <c r="B92" s="555"/>
+      <c r="C92" s="555"/>
+      <c r="D92" s="555"/>
+      <c r="E92" s="555"/>
+      <c r="F92" s="555"/>
+      <c r="G92" s="571" t="s">
         <v>59</v>
       </c>
-      <c r="H92" s="490" t="s">
+      <c r="H92" s="504" t="s">
         <v>26</v>
       </c>
-      <c r="I92" s="462"/>
-      <c r="J92" s="463"/>
-      <c r="K92" s="461" t="s">
+      <c r="I92" s="474"/>
+      <c r="J92" s="475"/>
+      <c r="K92" s="473" t="s">
         <v>138</v>
       </c>
-      <c r="L92" s="462"/>
-      <c r="M92" s="463"/>
+      <c r="L92" s="474"/>
+      <c r="M92" s="475"/>
       <c r="N92" s="54"/>
       <c r="O92" s="54"/>
       <c r="P92" s="55"/>
-      <c r="Q92" s="461"/>
-      <c r="R92" s="462"/>
-      <c r="S92" s="462"/>
-      <c r="T92" s="577" t="s">
+      <c r="Q92" s="473"/>
+      <c r="R92" s="474"/>
+      <c r="S92" s="474"/>
+      <c r="T92" s="588" t="s">
         <v>160</v>
       </c>
-      <c r="U92" s="462"/>
-      <c r="V92" s="463"/>
-      <c r="W92" s="483" t="s">
+      <c r="U92" s="474"/>
+      <c r="V92" s="475"/>
+      <c r="W92" s="495" t="s">
         <v>110</v>
       </c>
-      <c r="X92" s="462"/>
-      <c r="Y92" s="476"/>
+      <c r="X92" s="474"/>
+      <c r="Y92" s="488"/>
     </row>
     <row r="93" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="137" t="s">
         <v>61</v>
       </c>
-      <c r="B93" s="551"/>
-      <c r="C93" s="551"/>
-      <c r="D93" s="551"/>
-      <c r="E93" s="551"/>
-      <c r="F93" s="551"/>
-      <c r="G93" s="559"/>
-      <c r="H93" s="331" t="s">
+      <c r="B93" s="554"/>
+      <c r="C93" s="554"/>
+      <c r="D93" s="554"/>
+      <c r="E93" s="554"/>
+      <c r="F93" s="554"/>
+      <c r="G93" s="572"/>
+      <c r="H93" s="330" t="s">
         <v>29</v>
       </c>
       <c r="I93" s="77" t="s">
@@ -7558,11 +7676,11 @@
       <c r="Q93" s="68"/>
       <c r="R93" s="40"/>
       <c r="S93" s="93"/>
-      <c r="T93" s="608" t="s">
+      <c r="T93" s="620" t="s">
         <v>161</v>
       </c>
-      <c r="U93" s="459"/>
-      <c r="V93" s="598"/>
+      <c r="U93" s="471"/>
+      <c r="V93" s="610"/>
       <c r="W93" s="68" t="s">
         <v>162</v>
       </c>
@@ -7582,41 +7700,41 @@
       <c r="D94" s="73"/>
       <c r="E94" s="73"/>
       <c r="F94" s="74"/>
-      <c r="G94" s="558" t="s">
+      <c r="G94" s="571" t="s">
         <v>69</v>
       </c>
       <c r="H94" s="88"/>
       <c r="I94" s="109"/>
-      <c r="J94" s="252"/>
-      <c r="K94" s="461" t="s">
+      <c r="J94" s="251"/>
+      <c r="K94" s="473" t="s">
         <v>138</v>
       </c>
-      <c r="L94" s="462"/>
-      <c r="M94" s="463"/>
-      <c r="N94" s="477"/>
-      <c r="O94" s="491"/>
-      <c r="P94" s="492"/>
-      <c r="Q94" s="461"/>
-      <c r="R94" s="462"/>
-      <c r="S94" s="462"/>
-      <c r="T94" s="332"/>
-      <c r="U94" s="333"/>
-      <c r="V94" s="334"/>
-      <c r="W94" s="335"/>
-      <c r="X94" s="333"/>
-      <c r="Y94" s="336"/>
+      <c r="L94" s="474"/>
+      <c r="M94" s="475"/>
+      <c r="N94" s="489"/>
+      <c r="O94" s="505"/>
+      <c r="P94" s="506"/>
+      <c r="Q94" s="473"/>
+      <c r="R94" s="474"/>
+      <c r="S94" s="474"/>
+      <c r="T94" s="331"/>
+      <c r="U94" s="332"/>
+      <c r="V94" s="333"/>
+      <c r="W94" s="334"/>
+      <c r="X94" s="332"/>
+      <c r="Y94" s="335"/>
     </row>
     <row r="95" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="160"/>
+      <c r="A95" s="159"/>
       <c r="B95" s="116"/>
       <c r="C95" s="116"/>
       <c r="D95" s="116"/>
       <c r="E95" s="116"/>
       <c r="F95" s="116"/>
-      <c r="G95" s="566"/>
-      <c r="H95" s="337"/>
-      <c r="I95" s="338"/>
-      <c r="J95" s="217"/>
+      <c r="G95" s="575"/>
+      <c r="H95" s="336"/>
+      <c r="I95" s="337"/>
+      <c r="J95" s="216"/>
       <c r="K95" s="68" t="s">
         <v>139</v>
       </c>
@@ -7626,48 +7744,48 @@
       <c r="M95" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="N95" s="339"/>
-      <c r="O95" s="340"/>
-      <c r="P95" s="341"/>
-      <c r="Q95" s="218"/>
+      <c r="N95" s="338"/>
+      <c r="O95" s="339"/>
+      <c r="P95" s="340"/>
+      <c r="Q95" s="217"/>
       <c r="R95" s="119"/>
-      <c r="S95" s="171"/>
-      <c r="T95" s="342" t="s">
+      <c r="S95" s="170"/>
+      <c r="T95" s="341" t="s">
         <v>164</v>
       </c>
-      <c r="U95" s="343" t="s">
+      <c r="U95" s="342" t="s">
         <v>45</v>
       </c>
-      <c r="V95" s="344" t="s">
+      <c r="V95" s="343" t="s">
         <v>54</v>
       </c>
-      <c r="W95" s="345"/>
-      <c r="X95" s="340"/>
-      <c r="Y95" s="346"/>
+      <c r="W95" s="344"/>
+      <c r="X95" s="339"/>
+      <c r="Y95" s="345"/>
     </row>
     <row r="96" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A96" s="120"/>
-      <c r="B96" s="552">
+      <c r="B96" s="553">
         <v>11</v>
       </c>
-      <c r="C96" s="552">
+      <c r="C96" s="553">
         <v>11</v>
       </c>
-      <c r="D96" s="552">
+      <c r="D96" s="553">
         <v>8</v>
       </c>
-      <c r="E96" s="552">
+      <c r="E96" s="553">
         <v>6</v>
       </c>
-      <c r="F96" s="552">
+      <c r="F96" s="553">
         <v>3</v>
       </c>
-      <c r="G96" s="561" t="s">
+      <c r="G96" s="574" t="s">
         <v>22</v>
       </c>
-      <c r="H96" s="518"/>
-      <c r="I96" s="518"/>
-      <c r="J96" s="518"/>
+      <c r="H96" s="531"/>
+      <c r="I96" s="531"/>
+      <c r="J96" s="531"/>
       <c r="K96" s="125"/>
       <c r="L96" s="123"/>
       <c r="M96" s="124"/>
@@ -7676,28 +7794,28 @@
       <c r="P96" s="52"/>
       <c r="Q96" s="110"/>
       <c r="R96" s="111"/>
-      <c r="S96" s="157"/>
-      <c r="T96" s="224"/>
+      <c r="S96" s="156"/>
+      <c r="T96" s="223"/>
       <c r="U96" s="111"/>
-      <c r="V96" s="157"/>
+      <c r="V96" s="156"/>
       <c r="W96" s="125"/>
       <c r="X96" s="111"/>
-      <c r="Y96" s="159"/>
+      <c r="Y96" s="158"/>
     </row>
     <row r="97" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="129"/>
-      <c r="B97" s="551"/>
-      <c r="C97" s="551"/>
-      <c r="D97" s="551"/>
-      <c r="E97" s="551"/>
-      <c r="F97" s="551"/>
-      <c r="G97" s="559"/>
+      <c r="B97" s="554"/>
+      <c r="C97" s="554"/>
+      <c r="D97" s="554"/>
+      <c r="E97" s="554"/>
+      <c r="F97" s="554"/>
+      <c r="G97" s="572"/>
       <c r="H97" s="109"/>
-      <c r="I97" s="347"/>
-      <c r="J97" s="183"/>
+      <c r="I97" s="346"/>
+      <c r="J97" s="182"/>
       <c r="K97" s="68"/>
       <c r="L97" s="40"/>
-      <c r="M97" s="183"/>
+      <c r="M97" s="182"/>
       <c r="N97" s="133"/>
       <c r="O97" s="93"/>
       <c r="P97" s="132"/>
@@ -7715,57 +7833,57 @@
       <c r="A98" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="B98" s="550">
+      <c r="B98" s="555">
         <v>25</v>
       </c>
-      <c r="C98" s="550">
+      <c r="C98" s="555">
         <v>25</v>
       </c>
-      <c r="D98" s="550">
+      <c r="D98" s="555">
         <v>22</v>
       </c>
-      <c r="E98" s="550">
+      <c r="E98" s="555">
         <v>20</v>
       </c>
-      <c r="F98" s="550"/>
-      <c r="G98" s="558" t="s">
+      <c r="F98" s="555"/>
+      <c r="G98" s="571" t="s">
         <v>25</v>
       </c>
-      <c r="H98" s="494"/>
-      <c r="I98" s="494"/>
-      <c r="J98" s="494"/>
-      <c r="K98" s="461" t="s">
+      <c r="H98" s="508"/>
+      <c r="I98" s="508"/>
+      <c r="J98" s="508"/>
+      <c r="K98" s="473" t="s">
         <v>155</v>
       </c>
-      <c r="L98" s="462"/>
-      <c r="M98" s="463"/>
-      <c r="N98" s="348"/>
-      <c r="O98" s="349"/>
-      <c r="P98" s="350"/>
-      <c r="Q98" s="349"/>
-      <c r="R98" s="349"/>
-      <c r="S98" s="349"/>
+      <c r="L98" s="474"/>
+      <c r="M98" s="475"/>
+      <c r="N98" s="347"/>
+      <c r="O98" s="348"/>
+      <c r="P98" s="349"/>
+      <c r="Q98" s="348"/>
+      <c r="R98" s="348"/>
+      <c r="S98" s="348"/>
       <c r="T98" s="142"/>
       <c r="U98" s="57"/>
       <c r="V98" s="57"/>
-      <c r="W98" s="480"/>
-      <c r="X98" s="481"/>
-      <c r="Y98" s="482"/>
+      <c r="W98" s="492"/>
+      <c r="X98" s="493"/>
+      <c r="Y98" s="494"/>
     </row>
     <row r="99" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="B99" s="551"/>
-      <c r="C99" s="551"/>
-      <c r="D99" s="551"/>
-      <c r="E99" s="551"/>
-      <c r="F99" s="551"/>
-      <c r="G99" s="559"/>
+      <c r="B99" s="554"/>
+      <c r="C99" s="554"/>
+      <c r="D99" s="554"/>
+      <c r="E99" s="554"/>
+      <c r="F99" s="554"/>
+      <c r="G99" s="572"/>
       <c r="H99" s="60"/>
       <c r="I99" s="61"/>
       <c r="J99" s="61"/>
-      <c r="K99" s="351" t="s">
+      <c r="K99" s="350" t="s">
         <v>165</v>
       </c>
       <c r="L99" s="45" t="s">
@@ -7774,64 +7892,64 @@
       <c r="M99" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="N99" s="352"/>
-      <c r="O99" s="353"/>
-      <c r="P99" s="354"/>
-      <c r="Q99" s="355"/>
-      <c r="R99" s="355"/>
-      <c r="S99" s="356"/>
+      <c r="N99" s="351"/>
+      <c r="O99" s="352"/>
+      <c r="P99" s="353"/>
+      <c r="Q99" s="354"/>
+      <c r="R99" s="354"/>
+      <c r="S99" s="355"/>
       <c r="T99" s="69"/>
       <c r="U99" s="40"/>
       <c r="V99" s="40"/>
-      <c r="W99" s="144"/>
-      <c r="X99" s="145"/>
-      <c r="Y99" s="146"/>
+      <c r="W99" s="143"/>
+      <c r="X99" s="144"/>
+      <c r="Y99" s="145"/>
     </row>
     <row r="100" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="B100" s="550"/>
-      <c r="C100" s="550"/>
-      <c r="D100" s="550"/>
-      <c r="E100" s="550"/>
-      <c r="F100" s="550"/>
-      <c r="G100" s="558" t="s">
+      <c r="B100" s="555"/>
+      <c r="C100" s="555"/>
+      <c r="D100" s="555"/>
+      <c r="E100" s="555"/>
+      <c r="F100" s="555"/>
+      <c r="G100" s="571" t="s">
         <v>35</v>
       </c>
-      <c r="H100" s="461" t="s">
+      <c r="H100" s="473" t="s">
         <v>138</v>
       </c>
-      <c r="I100" s="462"/>
-      <c r="J100" s="463"/>
-      <c r="K100" s="489" t="s">
+      <c r="I100" s="474"/>
+      <c r="J100" s="475"/>
+      <c r="K100" s="503" t="s">
         <v>166</v>
       </c>
-      <c r="L100" s="467"/>
-      <c r="M100" s="468"/>
-      <c r="N100" s="461"/>
-      <c r="O100" s="462"/>
-      <c r="P100" s="463"/>
-      <c r="Q100" s="477"/>
-      <c r="R100" s="478"/>
-      <c r="S100" s="478"/>
-      <c r="T100" s="357"/>
+      <c r="L100" s="479"/>
+      <c r="M100" s="480"/>
+      <c r="N100" s="473"/>
+      <c r="O100" s="474"/>
+      <c r="P100" s="475"/>
+      <c r="Q100" s="489"/>
+      <c r="R100" s="490"/>
+      <c r="S100" s="490"/>
+      <c r="T100" s="356"/>
       <c r="U100" s="4"/>
       <c r="V100" s="4"/>
-      <c r="W100" s="480"/>
-      <c r="X100" s="481"/>
-      <c r="Y100" s="482"/>
+      <c r="W100" s="492"/>
+      <c r="X100" s="493"/>
+      <c r="Y100" s="494"/>
     </row>
     <row r="101" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="B101" s="551"/>
-      <c r="C101" s="551"/>
-      <c r="D101" s="551"/>
-      <c r="E101" s="551"/>
-      <c r="F101" s="551"/>
-      <c r="G101" s="559"/>
+      <c r="B101" s="554"/>
+      <c r="C101" s="554"/>
+      <c r="D101" s="554"/>
+      <c r="E101" s="554"/>
+      <c r="F101" s="554"/>
+      <c r="G101" s="572"/>
       <c r="H101" s="131" t="s">
         <v>167</v>
       </c>
@@ -7859,9 +7977,9 @@
       <c r="T101" s="69"/>
       <c r="U101" s="93"/>
       <c r="V101" s="93"/>
-      <c r="W101" s="144"/>
-      <c r="X101" s="145"/>
-      <c r="Y101" s="146"/>
+      <c r="W101" s="143"/>
+      <c r="X101" s="144"/>
+      <c r="Y101" s="145"/>
     </row>
     <row r="102" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="137" t="s">
@@ -7872,33 +7990,33 @@
       <c r="D102" s="73"/>
       <c r="E102" s="73"/>
       <c r="F102" s="74"/>
-      <c r="G102" s="558" t="s">
+      <c r="G102" s="571" t="s">
         <v>47</v>
       </c>
-      <c r="H102" s="461" t="s">
+      <c r="H102" s="473" t="s">
         <v>138</v>
       </c>
-      <c r="I102" s="462"/>
-      <c r="J102" s="463"/>
-      <c r="K102" s="489" t="s">
+      <c r="I102" s="474"/>
+      <c r="J102" s="475"/>
+      <c r="K102" s="503" t="s">
         <v>166</v>
       </c>
-      <c r="L102" s="467"/>
-      <c r="M102" s="468"/>
-      <c r="N102" s="477" t="s">
+      <c r="L102" s="479"/>
+      <c r="M102" s="480"/>
+      <c r="N102" s="489" t="s">
         <v>149</v>
       </c>
-      <c r="O102" s="478"/>
-      <c r="P102" s="478"/>
-      <c r="Q102" s="478"/>
-      <c r="R102" s="478"/>
-      <c r="S102" s="478"/>
-      <c r="T102" s="540"/>
-      <c r="U102" s="478"/>
-      <c r="V102" s="478"/>
+      <c r="O102" s="490"/>
+      <c r="P102" s="490"/>
+      <c r="Q102" s="490"/>
+      <c r="R102" s="490"/>
+      <c r="S102" s="490"/>
+      <c r="T102" s="559"/>
+      <c r="U102" s="490"/>
+      <c r="V102" s="490"/>
       <c r="W102" s="63"/>
       <c r="X102" s="4"/>
-      <c r="Y102" s="358"/>
+      <c r="Y102" s="357"/>
     </row>
     <row r="103" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="137" t="s">
@@ -7909,7 +8027,7 @@
       <c r="D103" s="85"/>
       <c r="E103" s="85"/>
       <c r="F103" s="85"/>
-      <c r="G103" s="559"/>
+      <c r="G103" s="572"/>
       <c r="H103" s="131" t="s">
         <v>167</v>
       </c>
@@ -7919,15 +8037,15 @@
       <c r="J103" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="K103" s="359"/>
+      <c r="K103" s="358"/>
       <c r="L103" s="61"/>
-      <c r="M103" s="163"/>
+      <c r="M103" s="162"/>
       <c r="N103" s="68" t="s">
         <v>146</v>
       </c>
       <c r="O103" s="83"/>
-      <c r="P103" s="457"/>
-      <c r="Q103" s="457"/>
+      <c r="P103" s="510"/>
+      <c r="Q103" s="510"/>
       <c r="R103" s="45" t="s">
         <v>81</v>
       </c>
@@ -7952,39 +8070,39 @@
       <c r="D104" s="73"/>
       <c r="E104" s="73"/>
       <c r="F104" s="74"/>
-      <c r="G104" s="558" t="s">
+      <c r="G104" s="571" t="s">
         <v>59</v>
       </c>
-      <c r="H104" s="487" t="s">
+      <c r="H104" s="501" t="s">
         <v>77</v>
       </c>
-      <c r="I104" s="478"/>
-      <c r="J104" s="488"/>
-      <c r="K104" s="360" t="s">
+      <c r="I104" s="490"/>
+      <c r="J104" s="502"/>
+      <c r="K104" s="359" t="s">
         <v>51</v>
       </c>
-      <c r="L104" s="499" t="s">
+      <c r="L104" s="551" t="s">
         <v>52</v>
       </c>
-      <c r="M104" s="500"/>
-      <c r="N104" s="461" t="s">
+      <c r="M104" s="552"/>
+      <c r="N104" s="473" t="s">
         <v>149</v>
       </c>
-      <c r="O104" s="462"/>
-      <c r="P104" s="463"/>
-      <c r="Q104" s="493" t="s">
+      <c r="O104" s="474"/>
+      <c r="P104" s="475"/>
+      <c r="Q104" s="507" t="s">
         <v>49</v>
       </c>
-      <c r="R104" s="494"/>
-      <c r="S104" s="494"/>
-      <c r="T104" s="473" t="s">
+      <c r="R104" s="508"/>
+      <c r="S104" s="508"/>
+      <c r="T104" s="485" t="s">
         <v>150</v>
       </c>
-      <c r="U104" s="474"/>
-      <c r="V104" s="475"/>
+      <c r="U104" s="486"/>
+      <c r="V104" s="487"/>
       <c r="W104" s="56"/>
       <c r="X104" s="57"/>
-      <c r="Y104" s="159"/>
+      <c r="Y104" s="158"/>
     </row>
     <row r="105" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="137"/>
@@ -7993,7 +8111,7 @@
       <c r="D105" s="85"/>
       <c r="E105" s="85"/>
       <c r="F105" s="85"/>
-      <c r="G105" s="559"/>
+      <c r="G105" s="572"/>
       <c r="H105" s="40" t="s">
         <v>80</v>
       </c>
@@ -8003,11 +8121,11 @@
       <c r="J105" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="K105" s="495" t="s">
+      <c r="K105" s="509" t="s">
         <v>169</v>
       </c>
-      <c r="L105" s="457"/>
-      <c r="M105" s="501"/>
+      <c r="L105" s="510"/>
+      <c r="M105" s="536"/>
       <c r="N105" s="68" t="s">
         <v>146</v>
       </c>
@@ -8026,13 +8144,13 @@
       <c r="S105" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="T105" s="361" t="s">
+      <c r="T105" s="360" t="s">
         <v>148</v>
       </c>
-      <c r="U105" s="190" t="s">
+      <c r="U105" s="189" t="s">
         <v>43</v>
       </c>
-      <c r="V105" s="362" t="s">
+      <c r="V105" s="361" t="s">
         <v>31</v>
       </c>
       <c r="W105" s="68"/>
@@ -8046,63 +8164,63 @@
       <c r="D106" s="73"/>
       <c r="E106" s="73"/>
       <c r="F106" s="74"/>
-      <c r="G106" s="558" t="s">
+      <c r="G106" s="571" t="s">
         <v>69</v>
       </c>
-      <c r="H106" s="487" t="s">
+      <c r="H106" s="501" t="s">
         <v>77</v>
       </c>
-      <c r="I106" s="478"/>
-      <c r="J106" s="488"/>
-      <c r="K106" s="477"/>
-      <c r="L106" s="478"/>
-      <c r="M106" s="478"/>
-      <c r="N106" s="461" t="s">
+      <c r="I106" s="490"/>
+      <c r="J106" s="502"/>
+      <c r="K106" s="489"/>
+      <c r="L106" s="490"/>
+      <c r="M106" s="490"/>
+      <c r="N106" s="473" t="s">
         <v>170</v>
       </c>
-      <c r="O106" s="462"/>
-      <c r="P106" s="463"/>
-      <c r="Q106" s="493" t="s">
+      <c r="O106" s="474"/>
+      <c r="P106" s="475"/>
+      <c r="Q106" s="507" t="s">
         <v>49</v>
       </c>
-      <c r="R106" s="494"/>
-      <c r="S106" s="494"/>
-      <c r="T106" s="473" t="s">
+      <c r="R106" s="508"/>
+      <c r="S106" s="508"/>
+      <c r="T106" s="485" t="s">
         <v>150</v>
       </c>
-      <c r="U106" s="474"/>
-      <c r="V106" s="475"/>
+      <c r="U106" s="486"/>
+      <c r="V106" s="487"/>
       <c r="W106" s="56"/>
       <c r="X106" s="57"/>
       <c r="Y106" s="58"/>
     </row>
     <row r="107" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="160"/>
+      <c r="A107" s="159"/>
       <c r="B107" s="116"/>
       <c r="C107" s="116"/>
       <c r="D107" s="116"/>
       <c r="E107" s="116"/>
       <c r="F107" s="116"/>
-      <c r="G107" s="566"/>
+      <c r="G107" s="575"/>
       <c r="H107" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="I107" s="240" t="s">
+      <c r="I107" s="239" t="s">
         <v>97</v>
       </c>
-      <c r="J107" s="195" t="s">
+      <c r="J107" s="194" t="s">
         <v>54</v>
       </c>
-      <c r="K107" s="218"/>
-      <c r="L107" s="171"/>
-      <c r="M107" s="171"/>
+      <c r="K107" s="217"/>
+      <c r="L107" s="170"/>
+      <c r="M107" s="170"/>
       <c r="N107" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="O107" s="240" t="s">
+      <c r="O107" s="239" t="s">
         <v>81</v>
       </c>
-      <c r="P107" s="195" t="s">
+      <c r="P107" s="194" t="s">
         <v>54</v>
       </c>
       <c r="Q107" s="90" t="s">
@@ -8114,13 +8232,13 @@
       <c r="S107" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T107" s="361" t="s">
+      <c r="T107" s="360" t="s">
         <v>148</v>
       </c>
-      <c r="U107" s="190" t="s">
+      <c r="U107" s="189" t="s">
         <v>43</v>
       </c>
-      <c r="V107" s="362" t="s">
+      <c r="V107" s="361" t="s">
         <v>54</v>
       </c>
       <c r="W107" s="68"/>
@@ -8129,60 +8247,60 @@
     </row>
     <row r="108" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A108" s="120"/>
-      <c r="B108" s="552">
+      <c r="B108" s="553">
         <v>12</v>
       </c>
-      <c r="C108" s="552">
+      <c r="C108" s="553">
         <v>12</v>
       </c>
-      <c r="D108" s="552">
+      <c r="D108" s="553">
         <v>9</v>
       </c>
-      <c r="E108" s="552">
+      <c r="E108" s="553">
         <v>7</v>
       </c>
-      <c r="F108" s="552">
+      <c r="F108" s="553">
         <v>4</v>
       </c>
-      <c r="G108" s="561" t="s">
+      <c r="G108" s="574" t="s">
         <v>22</v>
       </c>
-      <c r="H108" s="560"/>
-      <c r="I108" s="518"/>
-      <c r="J108" s="519"/>
-      <c r="K108" s="461" t="s">
+      <c r="H108" s="573"/>
+      <c r="I108" s="531"/>
+      <c r="J108" s="532"/>
+      <c r="K108" s="473" t="s">
         <v>27</v>
       </c>
-      <c r="L108" s="462"/>
-      <c r="M108" s="463"/>
-      <c r="N108" s="363" t="s">
+      <c r="L108" s="474"/>
+      <c r="M108" s="475"/>
+      <c r="N108" s="362" t="s">
         <v>75</v>
       </c>
-      <c r="O108" s="364"/>
-      <c r="P108" s="365"/>
+      <c r="O108" s="363"/>
+      <c r="P108" s="364"/>
       <c r="Q108" s="123"/>
       <c r="R108" s="123"/>
-      <c r="S108" s="366"/>
+      <c r="S108" s="365"/>
       <c r="T108" s="126"/>
       <c r="U108" s="123"/>
-      <c r="V108" s="366"/>
+      <c r="V108" s="365"/>
       <c r="W108" s="125"/>
       <c r="X108" s="123"/>
-      <c r="Y108" s="367"/>
+      <c r="Y108" s="366"/>
     </row>
     <row r="109" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="178" t="s">
+      <c r="A109" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="B109" s="551"/>
-      <c r="C109" s="551"/>
-      <c r="D109" s="551"/>
-      <c r="E109" s="551"/>
-      <c r="F109" s="551"/>
-      <c r="G109" s="559"/>
-      <c r="H109" s="153"/>
-      <c r="I109" s="457"/>
-      <c r="J109" s="501"/>
+      <c r="B109" s="554"/>
+      <c r="C109" s="554"/>
+      <c r="D109" s="554"/>
+      <c r="E109" s="554"/>
+      <c r="F109" s="554"/>
+      <c r="G109" s="572"/>
+      <c r="H109" s="152"/>
+      <c r="I109" s="510"/>
+      <c r="J109" s="536"/>
       <c r="K109" s="63" t="s">
         <v>32</v>
       </c>
@@ -8192,71 +8310,71 @@
       <c r="M109" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="N109" s="464"/>
-      <c r="O109" s="465"/>
-      <c r="P109" s="466"/>
-      <c r="Q109" s="302"/>
-      <c r="R109" s="302"/>
+      <c r="N109" s="476"/>
+      <c r="O109" s="477"/>
+      <c r="P109" s="478"/>
+      <c r="Q109" s="301"/>
+      <c r="R109" s="301"/>
       <c r="S109" s="40"/>
-      <c r="T109" s="368"/>
-      <c r="U109" s="302"/>
+      <c r="T109" s="367"/>
+      <c r="U109" s="301"/>
       <c r="V109" s="40"/>
-      <c r="W109" s="301"/>
-      <c r="X109" s="302"/>
+      <c r="W109" s="300"/>
+      <c r="X109" s="301"/>
       <c r="Y109" s="72"/>
     </row>
     <row r="110" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="137"/>
-      <c r="B110" s="550">
+      <c r="B110" s="555">
         <v>26</v>
       </c>
-      <c r="C110" s="550">
+      <c r="C110" s="555">
         <v>26</v>
       </c>
-      <c r="D110" s="550">
+      <c r="D110" s="555">
         <v>23</v>
       </c>
-      <c r="E110" s="550">
+      <c r="E110" s="555">
         <v>21</v>
       </c>
-      <c r="F110" s="550"/>
-      <c r="G110" s="558" t="s">
+      <c r="F110" s="555"/>
+      <c r="G110" s="571" t="s">
         <v>25</v>
       </c>
-      <c r="H110" s="369"/>
-      <c r="I110" s="370"/>
-      <c r="J110" s="371"/>
-      <c r="K110" s="461" t="s">
+      <c r="H110" s="368"/>
+      <c r="I110" s="369"/>
+      <c r="J110" s="370"/>
+      <c r="K110" s="473" t="s">
         <v>48</v>
       </c>
-      <c r="L110" s="462"/>
-      <c r="M110" s="463"/>
-      <c r="N110" s="464" t="s">
+      <c r="L110" s="474"/>
+      <c r="M110" s="475"/>
+      <c r="N110" s="476" t="s">
         <v>171</v>
       </c>
-      <c r="O110" s="465"/>
-      <c r="P110" s="466"/>
-      <c r="Q110" s="372"/>
-      <c r="R110" s="372"/>
-      <c r="S110" s="248"/>
-      <c r="T110" s="265"/>
-      <c r="U110" s="462"/>
-      <c r="V110" s="462"/>
-      <c r="W110" s="477"/>
-      <c r="X110" s="478"/>
-      <c r="Y110" s="479"/>
+      <c r="O110" s="477"/>
+      <c r="P110" s="478"/>
+      <c r="Q110" s="371"/>
+      <c r="R110" s="371"/>
+      <c r="S110" s="247"/>
+      <c r="T110" s="264"/>
+      <c r="U110" s="474"/>
+      <c r="V110" s="474"/>
+      <c r="W110" s="489"/>
+      <c r="X110" s="490"/>
+      <c r="Y110" s="491"/>
     </row>
     <row r="111" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="B111" s="551"/>
-      <c r="C111" s="551"/>
-      <c r="D111" s="551"/>
-      <c r="E111" s="551"/>
-      <c r="F111" s="551"/>
-      <c r="G111" s="559"/>
-      <c r="H111" s="373"/>
+      <c r="B111" s="554"/>
+      <c r="C111" s="554"/>
+      <c r="D111" s="554"/>
+      <c r="E111" s="554"/>
+      <c r="F111" s="554"/>
+      <c r="G111" s="572"/>
+      <c r="H111" s="372"/>
       <c r="I111" s="70"/>
       <c r="J111" s="98"/>
       <c r="K111" s="88" t="s">
@@ -8268,88 +8386,88 @@
       <c r="M111" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="N111" s="495" t="s">
+      <c r="N111" s="509" t="s">
         <v>172</v>
       </c>
-      <c r="O111" s="457"/>
-      <c r="P111" s="501"/>
+      <c r="O111" s="510"/>
+      <c r="P111" s="536"/>
       <c r="Q111" s="77"/>
       <c r="R111" s="77"/>
       <c r="S111" s="93"/>
-      <c r="T111" s="326"/>
+      <c r="T111" s="325"/>
       <c r="U111" s="81"/>
       <c r="V111" s="81"/>
       <c r="W111" s="40"/>
-      <c r="X111" s="457"/>
-      <c r="Y111" s="591"/>
+      <c r="X111" s="510"/>
+      <c r="Y111" s="602"/>
     </row>
     <row r="112" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="137"/>
-      <c r="B112" s="550"/>
-      <c r="C112" s="550"/>
-      <c r="D112" s="550"/>
-      <c r="E112" s="550"/>
-      <c r="F112" s="191"/>
-      <c r="G112" s="558" t="s">
+      <c r="B112" s="555"/>
+      <c r="C112" s="555"/>
+      <c r="D112" s="555"/>
+      <c r="E112" s="555"/>
+      <c r="F112" s="190"/>
+      <c r="G112" s="571" t="s">
         <v>35</v>
       </c>
-      <c r="H112" s="490"/>
-      <c r="I112" s="462"/>
-      <c r="J112" s="463"/>
-      <c r="K112" s="461" t="s">
+      <c r="H112" s="504"/>
+      <c r="I112" s="474"/>
+      <c r="J112" s="475"/>
+      <c r="K112" s="473" t="s">
         <v>27</v>
       </c>
-      <c r="L112" s="462"/>
-      <c r="M112" s="463"/>
-      <c r="N112" s="374"/>
-      <c r="O112" s="374"/>
-      <c r="P112" s="375"/>
-      <c r="Q112" s="263" t="s">
+      <c r="L112" s="474"/>
+      <c r="M112" s="475"/>
+      <c r="N112" s="373"/>
+      <c r="O112" s="373"/>
+      <c r="P112" s="374"/>
+      <c r="Q112" s="262" t="s">
         <v>75</v>
       </c>
       <c r="R112" s="140"/>
       <c r="S112" s="140"/>
-      <c r="T112" s="376"/>
-      <c r="U112" s="467"/>
-      <c r="V112" s="468"/>
-      <c r="W112" s="480" t="s">
+      <c r="T112" s="375"/>
+      <c r="U112" s="479"/>
+      <c r="V112" s="480"/>
+      <c r="W112" s="492" t="s">
         <v>173</v>
       </c>
-      <c r="X112" s="481"/>
-      <c r="Y112" s="482"/>
+      <c r="X112" s="493"/>
+      <c r="Y112" s="494"/>
     </row>
     <row r="113" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B113" s="551"/>
-      <c r="C113" s="551"/>
-      <c r="D113" s="551"/>
-      <c r="E113" s="551"/>
+      <c r="B113" s="554"/>
+      <c r="C113" s="554"/>
+      <c r="D113" s="554"/>
+      <c r="E113" s="554"/>
       <c r="F113" s="38"/>
-      <c r="G113" s="559"/>
+      <c r="G113" s="572"/>
       <c r="H113" s="76"/>
       <c r="I113" s="81"/>
       <c r="J113" s="89"/>
-      <c r="K113" s="377"/>
-      <c r="L113" s="378"/>
-      <c r="M113" s="379"/>
-      <c r="N113" s="380"/>
+      <c r="K113" s="376"/>
+      <c r="L113" s="377"/>
+      <c r="M113" s="378"/>
+      <c r="N113" s="379"/>
       <c r="O113" s="42"/>
       <c r="P113" s="98"/>
-      <c r="Q113" s="464"/>
-      <c r="R113" s="465"/>
-      <c r="S113" s="465"/>
-      <c r="T113" s="330"/>
+      <c r="Q113" s="476"/>
+      <c r="R113" s="477"/>
+      <c r="S113" s="477"/>
+      <c r="T113" s="329"/>
       <c r="U113" s="77"/>
       <c r="V113" s="79"/>
-      <c r="W113" s="144" t="s">
+      <c r="W113" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="X113" s="145" t="s">
+      <c r="X113" s="144" t="s">
         <v>97</v>
       </c>
-      <c r="Y113" s="146" t="s">
+      <c r="Y113" s="145" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8360,37 +8478,37 @@
       <c r="D114" s="73"/>
       <c r="E114" s="73"/>
       <c r="F114" s="74"/>
-      <c r="G114" s="558" t="s">
+      <c r="G114" s="571" t="s">
         <v>47</v>
       </c>
-      <c r="H114" s="499"/>
-      <c r="I114" s="579"/>
-      <c r="J114" s="500"/>
-      <c r="K114" s="360" t="s">
+      <c r="H114" s="551"/>
+      <c r="I114" s="590"/>
+      <c r="J114" s="552"/>
+      <c r="K114" s="359" t="s">
         <v>51</v>
       </c>
-      <c r="L114" s="499" t="s">
+      <c r="L114" s="551" t="s">
         <v>52</v>
       </c>
-      <c r="M114" s="500"/>
-      <c r="N114" s="477" t="s">
+      <c r="M114" s="552"/>
+      <c r="N114" s="489" t="s">
         <v>135</v>
       </c>
-      <c r="O114" s="478"/>
-      <c r="P114" s="488"/>
-      <c r="Q114" s="464" t="s">
+      <c r="O114" s="490"/>
+      <c r="P114" s="502"/>
+      <c r="Q114" s="476" t="s">
         <v>83</v>
       </c>
-      <c r="R114" s="465"/>
-      <c r="S114" s="465"/>
-      <c r="T114" s="265"/>
-      <c r="U114" s="462"/>
-      <c r="V114" s="463"/>
-      <c r="W114" s="480" t="s">
+      <c r="R114" s="477"/>
+      <c r="S114" s="477"/>
+      <c r="T114" s="264"/>
+      <c r="U114" s="474"/>
+      <c r="V114" s="475"/>
+      <c r="W114" s="492" t="s">
         <v>173</v>
       </c>
-      <c r="X114" s="481"/>
-      <c r="Y114" s="482"/>
+      <c r="X114" s="493"/>
+      <c r="Y114" s="494"/>
     </row>
     <row r="115" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="137" t="s">
@@ -8401,39 +8519,39 @@
       <c r="D115" s="85"/>
       <c r="E115" s="85"/>
       <c r="F115" s="85"/>
-      <c r="G115" s="559"/>
+      <c r="G115" s="572"/>
       <c r="H115" s="78"/>
       <c r="I115" s="77"/>
       <c r="J115" s="89"/>
-      <c r="K115" s="496" t="s">
+      <c r="K115" s="576" t="s">
         <v>174</v>
       </c>
-      <c r="L115" s="497"/>
-      <c r="M115" s="498"/>
+      <c r="L115" s="548"/>
+      <c r="M115" s="568"/>
       <c r="N115" s="63" t="s">
         <v>137</v>
       </c>
       <c r="O115" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="P115" s="295" t="s">
+      <c r="P115" s="294" t="s">
         <v>31</v>
       </c>
-      <c r="Q115" s="495" t="s">
+      <c r="Q115" s="509" t="s">
         <v>175</v>
       </c>
-      <c r="R115" s="457"/>
-      <c r="S115" s="457"/>
-      <c r="T115" s="326"/>
+      <c r="R115" s="510"/>
+      <c r="S115" s="510"/>
+      <c r="T115" s="325"/>
       <c r="U115" s="81"/>
       <c r="V115" s="89"/>
-      <c r="W115" s="144" t="s">
+      <c r="W115" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="X115" s="145" t="s">
+      <c r="X115" s="144" t="s">
         <v>97</v>
       </c>
-      <c r="Y115" s="146" t="s">
+      <c r="Y115" s="145" t="s">
         <v>54</v>
       </c>
     </row>
@@ -8444,29 +8562,29 @@
       <c r="D116" s="73"/>
       <c r="E116" s="73"/>
       <c r="F116" s="74"/>
-      <c r="G116" s="558" t="s">
+      <c r="G116" s="571" t="s">
         <v>59</v>
       </c>
-      <c r="H116" s="381"/>
-      <c r="I116" s="249"/>
-      <c r="J116" s="292"/>
-      <c r="K116" s="461"/>
-      <c r="L116" s="462"/>
-      <c r="M116" s="462"/>
-      <c r="N116" s="477" t="s">
+      <c r="H116" s="380"/>
+      <c r="I116" s="248"/>
+      <c r="J116" s="291"/>
+      <c r="K116" s="473"/>
+      <c r="L116" s="474"/>
+      <c r="M116" s="474"/>
+      <c r="N116" s="489" t="s">
         <v>135</v>
       </c>
-      <c r="O116" s="478"/>
-      <c r="P116" s="488"/>
-      <c r="Q116" s="506"/>
-      <c r="R116" s="469"/>
-      <c r="S116" s="469"/>
-      <c r="T116" s="473"/>
-      <c r="U116" s="474"/>
-      <c r="V116" s="475"/>
-      <c r="W116" s="469"/>
-      <c r="X116" s="469"/>
-      <c r="Y116" s="470"/>
+      <c r="O116" s="490"/>
+      <c r="P116" s="502"/>
+      <c r="Q116" s="519"/>
+      <c r="R116" s="481"/>
+      <c r="S116" s="481"/>
+      <c r="T116" s="485"/>
+      <c r="U116" s="486"/>
+      <c r="V116" s="487"/>
+      <c r="W116" s="481"/>
+      <c r="X116" s="481"/>
+      <c r="Y116" s="482"/>
     </row>
     <row r="117" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="137" t="s">
@@ -8477,31 +8595,31 @@
       <c r="D117" s="85"/>
       <c r="E117" s="85"/>
       <c r="F117" s="85"/>
-      <c r="G117" s="559"/>
+      <c r="G117" s="572"/>
       <c r="H117" s="80"/>
       <c r="I117" s="81"/>
       <c r="J117" s="89"/>
       <c r="K117" s="80"/>
-      <c r="L117" s="382"/>
-      <c r="M117" s="383"/>
+      <c r="L117" s="381"/>
+      <c r="M117" s="382"/>
       <c r="N117" s="80" t="s">
         <v>137</v>
       </c>
       <c r="O117" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="P117" s="303" t="s">
+      <c r="P117" s="302" t="s">
         <v>54</v>
       </c>
-      <c r="Q117" s="507"/>
-      <c r="R117" s="471"/>
-      <c r="S117" s="471"/>
-      <c r="T117" s="361"/>
-      <c r="U117" s="190"/>
-      <c r="V117" s="362"/>
-      <c r="W117" s="471"/>
-      <c r="X117" s="471"/>
-      <c r="Y117" s="472"/>
+      <c r="Q117" s="520"/>
+      <c r="R117" s="483"/>
+      <c r="S117" s="483"/>
+      <c r="T117" s="360"/>
+      <c r="U117" s="189"/>
+      <c r="V117" s="361"/>
+      <c r="W117" s="483"/>
+      <c r="X117" s="483"/>
+      <c r="Y117" s="484"/>
     </row>
     <row r="118" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="137"/>
@@ -8510,101 +8628,101 @@
       <c r="D118" s="73"/>
       <c r="E118" s="73"/>
       <c r="F118" s="74"/>
-      <c r="G118" s="558" t="s">
+      <c r="G118" s="571" t="s">
         <v>69</v>
       </c>
-      <c r="K118" s="461"/>
-      <c r="L118" s="462"/>
-      <c r="M118" s="462"/>
-      <c r="N118" s="381"/>
-      <c r="O118" s="249"/>
-      <c r="P118" s="292"/>
+      <c r="K118" s="473"/>
+      <c r="L118" s="474"/>
+      <c r="M118" s="474"/>
+      <c r="N118" s="380"/>
+      <c r="O118" s="248"/>
+      <c r="P118" s="291"/>
       <c r="Q118" s="63"/>
       <c r="R118" s="4"/>
       <c r="S118" s="4"/>
-      <c r="T118" s="537"/>
-      <c r="U118" s="538"/>
-      <c r="V118" s="539"/>
+      <c r="T118" s="556"/>
+      <c r="U118" s="557"/>
+      <c r="V118" s="558"/>
       <c r="W118" s="63"/>
       <c r="X118" s="4"/>
-      <c r="Y118" s="358"/>
+      <c r="Y118" s="357"/>
     </row>
     <row r="119" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="160"/>
+      <c r="A119" s="159"/>
       <c r="B119" s="116"/>
       <c r="C119" s="116"/>
       <c r="D119" s="116"/>
       <c r="E119" s="116"/>
       <c r="F119" s="116"/>
-      <c r="G119" s="566"/>
+      <c r="G119" s="575"/>
       <c r="K119" s="63"/>
       <c r="L119" s="134"/>
       <c r="M119" s="134"/>
-      <c r="N119" s="218"/>
+      <c r="N119" s="217"/>
       <c r="O119" s="119"/>
-      <c r="P119" s="217"/>
-      <c r="Q119" s="218"/>
+      <c r="P119" s="216"/>
+      <c r="Q119" s="217"/>
       <c r="R119" s="119"/>
       <c r="S119" s="119"/>
-      <c r="T119" s="384"/>
-      <c r="U119" s="385"/>
-      <c r="V119" s="386"/>
-      <c r="W119" s="218"/>
+      <c r="T119" s="383"/>
+      <c r="U119" s="384"/>
+      <c r="V119" s="385"/>
+      <c r="W119" s="217"/>
       <c r="X119" s="119"/>
-      <c r="Y119" s="387"/>
+      <c r="Y119" s="386"/>
     </row>
     <row r="120" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A120" s="120"/>
-      <c r="B120" s="552">
+      <c r="B120" s="553">
         <v>13</v>
       </c>
-      <c r="C120" s="569">
+      <c r="C120" s="583">
         <v>13</v>
       </c>
-      <c r="D120" s="552">
+      <c r="D120" s="553">
         <v>10</v>
       </c>
-      <c r="E120" s="569">
+      <c r="E120" s="583">
         <v>8</v>
       </c>
-      <c r="F120" s="552">
+      <c r="F120" s="553">
         <v>5</v>
       </c>
-      <c r="G120" s="561" t="s">
+      <c r="G120" s="574" t="s">
         <v>22</v>
       </c>
-      <c r="H120" s="532"/>
-      <c r="I120" s="533"/>
-      <c r="J120" s="534"/>
-      <c r="K120" s="517"/>
-      <c r="L120" s="518"/>
-      <c r="M120" s="553"/>
-      <c r="N120" s="461" t="s">
+      <c r="H120" s="545"/>
+      <c r="I120" s="546"/>
+      <c r="J120" s="547"/>
+      <c r="K120" s="530"/>
+      <c r="L120" s="531"/>
+      <c r="M120" s="570"/>
+      <c r="N120" s="473" t="s">
         <v>196</v>
       </c>
-      <c r="O120" s="462"/>
-      <c r="P120" s="463"/>
+      <c r="O120" s="474"/>
+      <c r="P120" s="475"/>
       <c r="Q120" s="110"/>
       <c r="R120" s="111"/>
       <c r="S120" s="111"/>
-      <c r="T120" s="514"/>
-      <c r="U120" s="515"/>
-      <c r="V120" s="516"/>
+      <c r="T120" s="527"/>
+      <c r="U120" s="528"/>
+      <c r="V120" s="529"/>
       <c r="W120" s="110"/>
       <c r="X120" s="111"/>
-      <c r="Y120" s="225"/>
+      <c r="Y120" s="224"/>
     </row>
     <row r="121" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="178"/>
-      <c r="B121" s="551"/>
-      <c r="C121" s="570"/>
-      <c r="D121" s="551"/>
-      <c r="E121" s="570"/>
-      <c r="F121" s="551"/>
-      <c r="G121" s="559"/>
-      <c r="H121" s="388"/>
-      <c r="I121" s="389"/>
-      <c r="J121" s="390"/>
+      <c r="A121" s="177"/>
+      <c r="B121" s="554"/>
+      <c r="C121" s="584"/>
+      <c r="D121" s="554"/>
+      <c r="E121" s="584"/>
+      <c r="F121" s="554"/>
+      <c r="G121" s="572"/>
+      <c r="H121" s="387"/>
+      <c r="I121" s="388"/>
+      <c r="J121" s="389"/>
       <c r="K121" s="68"/>
       <c r="L121" s="93"/>
       <c r="M121" s="132"/>
@@ -8620,50 +8738,50 @@
       <c r="Q121" s="133"/>
       <c r="R121" s="93"/>
       <c r="S121" s="93"/>
-      <c r="T121" s="204"/>
-      <c r="U121" s="213"/>
-      <c r="V121" s="214"/>
+      <c r="T121" s="203"/>
+      <c r="U121" s="212"/>
+      <c r="V121" s="213"/>
       <c r="W121" s="133"/>
       <c r="X121" s="93"/>
       <c r="Y121" s="94"/>
     </row>
     <row r="122" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="178" t="s">
+      <c r="A122" s="177" t="s">
         <v>116</v>
       </c>
-      <c r="B122" s="576">
+      <c r="B122" s="587">
         <v>27</v>
       </c>
-      <c r="C122" s="550">
+      <c r="C122" s="555">
         <v>27</v>
       </c>
-      <c r="D122" s="550">
+      <c r="D122" s="555">
         <v>24</v>
       </c>
-      <c r="E122" s="550">
+      <c r="E122" s="555">
         <v>22</v>
       </c>
       <c r="F122" s="49"/>
-      <c r="G122" s="558" t="s">
+      <c r="G122" s="571" t="s">
         <v>25</v>
       </c>
-      <c r="H122" s="521"/>
-      <c r="I122" s="522"/>
-      <c r="J122" s="523"/>
-      <c r="K122" s="477" t="s">
+      <c r="H122" s="533"/>
+      <c r="I122" s="534"/>
+      <c r="J122" s="535"/>
+      <c r="K122" s="489" t="s">
         <v>37</v>
       </c>
-      <c r="L122" s="478"/>
-      <c r="M122" s="488"/>
+      <c r="L122" s="490"/>
+      <c r="M122" s="502"/>
       <c r="N122" s="54"/>
       <c r="O122" s="54"/>
       <c r="P122" s="54"/>
       <c r="Q122" s="56"/>
       <c r="R122" s="57"/>
       <c r="S122" s="57"/>
-      <c r="T122" s="511"/>
-      <c r="U122" s="512"/>
-      <c r="V122" s="513"/>
+      <c r="T122" s="524"/>
+      <c r="U122" s="525"/>
+      <c r="V122" s="526"/>
       <c r="W122" s="56"/>
       <c r="X122" s="57"/>
       <c r="Y122" s="58"/>
@@ -8672,15 +8790,15 @@
       <c r="A123" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B123" s="570"/>
-      <c r="C123" s="551"/>
-      <c r="D123" s="551"/>
-      <c r="E123" s="551"/>
+      <c r="B123" s="584"/>
+      <c r="C123" s="554"/>
+      <c r="D123" s="554"/>
+      <c r="E123" s="554"/>
       <c r="F123" s="38"/>
-      <c r="G123" s="559"/>
-      <c r="H123" s="391"/>
-      <c r="I123" s="392"/>
-      <c r="J123" s="393"/>
+      <c r="G123" s="572"/>
+      <c r="H123" s="390"/>
+      <c r="I123" s="391"/>
+      <c r="J123" s="392"/>
       <c r="K123" s="78" t="s">
         <v>29</v>
       </c>
@@ -8696,9 +8814,9 @@
       <c r="Q123" s="99"/>
       <c r="R123" s="83"/>
       <c r="S123" s="83"/>
-      <c r="T123" s="204"/>
-      <c r="U123" s="213"/>
-      <c r="V123" s="214"/>
+      <c r="T123" s="203"/>
+      <c r="U123" s="212"/>
+      <c r="V123" s="213"/>
       <c r="W123" s="99"/>
       <c r="X123" s="83"/>
       <c r="Y123" s="107"/>
@@ -8707,57 +8825,57 @@
       <c r="A124" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="B124" s="550"/>
-      <c r="C124" s="550"/>
-      <c r="D124" s="550"/>
-      <c r="E124" s="550"/>
-      <c r="F124" s="550"/>
-      <c r="G124" s="558" t="s">
+      <c r="B124" s="555"/>
+      <c r="C124" s="555"/>
+      <c r="D124" s="555"/>
+      <c r="E124" s="555"/>
+      <c r="F124" s="555"/>
+      <c r="G124" s="571" t="s">
         <v>35</v>
       </c>
-      <c r="H124" s="394"/>
-      <c r="I124" s="395"/>
-      <c r="J124" s="396"/>
-      <c r="K124" s="477" t="s">
+      <c r="H124" s="393"/>
+      <c r="I124" s="394"/>
+      <c r="J124" s="395"/>
+      <c r="K124" s="489" t="s">
         <v>37</v>
       </c>
-      <c r="L124" s="478"/>
-      <c r="M124" s="488"/>
-      <c r="N124" s="642"/>
-      <c r="O124" s="646" t="s">
+      <c r="L124" s="490"/>
+      <c r="M124" s="502"/>
+      <c r="N124" s="448"/>
+      <c r="O124" s="672" t="s">
         <v>197</v>
       </c>
       <c r="P124" s="54"/>
-      <c r="Q124" s="477" t="s">
+      <c r="Q124" s="489" t="s">
         <v>118</v>
       </c>
-      <c r="R124" s="478"/>
-      <c r="S124" s="478"/>
-      <c r="T124" s="511"/>
-      <c r="U124" s="512"/>
-      <c r="V124" s="513"/>
-      <c r="W124" s="397"/>
+      <c r="R124" s="490"/>
+      <c r="S124" s="490"/>
+      <c r="T124" s="524"/>
+      <c r="U124" s="525"/>
+      <c r="V124" s="526"/>
+      <c r="W124" s="396"/>
       <c r="X124" s="4"/>
-      <c r="Y124" s="358"/>
+      <c r="Y124" s="357"/>
     </row>
     <row r="125" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="B125" s="551"/>
-      <c r="C125" s="551"/>
-      <c r="D125" s="551"/>
-      <c r="E125" s="551"/>
-      <c r="F125" s="551"/>
-      <c r="G125" s="559"/>
-      <c r="H125" s="398"/>
-      <c r="I125" s="399"/>
-      <c r="J125" s="400"/>
-      <c r="K125" s="377"/>
-      <c r="L125" s="378"/>
-      <c r="M125" s="379"/>
-      <c r="N125" s="643"/>
-      <c r="O125" s="648"/>
+      <c r="B125" s="554"/>
+      <c r="C125" s="554"/>
+      <c r="D125" s="554"/>
+      <c r="E125" s="554"/>
+      <c r="F125" s="554"/>
+      <c r="G125" s="572"/>
+      <c r="H125" s="397"/>
+      <c r="I125" s="398"/>
+      <c r="J125" s="399"/>
+      <c r="K125" s="376"/>
+      <c r="L125" s="377"/>
+      <c r="M125" s="378"/>
+      <c r="N125" s="449"/>
+      <c r="O125" s="453"/>
       <c r="P125" s="4"/>
       <c r="Q125" s="78" t="s">
         <v>120</v>
@@ -8768,65 +8886,65 @@
       <c r="S125" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="T125" s="204"/>
-      <c r="U125" s="213"/>
-      <c r="V125" s="214"/>
+      <c r="T125" s="203"/>
+      <c r="U125" s="212"/>
+      <c r="V125" s="213"/>
       <c r="W125" s="68"/>
       <c r="X125" s="4"/>
-      <c r="Y125" s="358"/>
+      <c r="Y125" s="357"/>
     </row>
     <row r="126" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B126" s="550"/>
-      <c r="C126" s="550"/>
-      <c r="D126" s="550"/>
-      <c r="E126" s="550"/>
-      <c r="F126" s="550"/>
-      <c r="G126" s="558" t="s">
+      <c r="B126" s="555"/>
+      <c r="C126" s="555"/>
+      <c r="D126" s="555"/>
+      <c r="E126" s="555"/>
+      <c r="F126" s="555"/>
+      <c r="G126" s="571" t="s">
         <v>47</v>
       </c>
-      <c r="H126" s="490" t="s">
+      <c r="H126" s="504" t="s">
         <v>37</v>
       </c>
-      <c r="I126" s="462"/>
-      <c r="J126" s="463"/>
-      <c r="K126" s="360" t="s">
+      <c r="I126" s="474"/>
+      <c r="J126" s="475"/>
+      <c r="K126" s="359" t="s">
         <v>51</v>
       </c>
-      <c r="L126" s="499" t="s">
+      <c r="L126" s="551" t="s">
         <v>52</v>
       </c>
-      <c r="M126" s="500"/>
-      <c r="N126" s="649" t="s">
+      <c r="M126" s="552"/>
+      <c r="N126" s="454" t="s">
         <v>198</v>
       </c>
-      <c r="O126" s="648" t="s">
+      <c r="O126" s="453" t="s">
         <v>199</v>
       </c>
-      <c r="Q126" s="477" t="s">
+      <c r="Q126" s="489" t="s">
         <v>118</v>
       </c>
-      <c r="R126" s="478"/>
-      <c r="S126" s="478"/>
-      <c r="T126" s="514"/>
-      <c r="U126" s="515"/>
-      <c r="V126" s="516"/>
+      <c r="R126" s="490"/>
+      <c r="S126" s="490"/>
+      <c r="T126" s="527"/>
+      <c r="U126" s="528"/>
+      <c r="V126" s="529"/>
       <c r="W126" s="53"/>
       <c r="X126" s="54"/>
-      <c r="Y126" s="401"/>
+      <c r="Y126" s="400"/>
     </row>
     <row r="127" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="B127" s="551"/>
-      <c r="C127" s="551"/>
-      <c r="D127" s="551"/>
-      <c r="E127" s="551"/>
-      <c r="F127" s="551"/>
-      <c r="G127" s="559"/>
+      <c r="B127" s="554"/>
+      <c r="C127" s="554"/>
+      <c r="D127" s="554"/>
+      <c r="E127" s="554"/>
+      <c r="F127" s="554"/>
+      <c r="G127" s="572"/>
       <c r="H127" s="131" t="s">
         <v>136</v>
       </c>
@@ -8845,10 +8963,10 @@
       <c r="M127" s="132" t="s">
         <v>71</v>
       </c>
-      <c r="N127" s="650" t="s">
+      <c r="N127" s="455" t="s">
         <v>200</v>
       </c>
-      <c r="O127" s="647" t="s">
+      <c r="O127" s="673" t="s">
         <v>201</v>
       </c>
       <c r="Q127" s="78" t="s">
@@ -8860,9 +8978,9 @@
       <c r="S127" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="T127" s="204"/>
-      <c r="U127" s="213"/>
-      <c r="V127" s="214"/>
+      <c r="T127" s="203"/>
+      <c r="U127" s="212"/>
+      <c r="V127" s="213"/>
       <c r="W127" s="68"/>
       <c r="X127" s="40"/>
       <c r="Y127" s="94"/>
@@ -8876,31 +8994,31 @@
       <c r="D128" s="73"/>
       <c r="E128" s="73"/>
       <c r="F128" s="73"/>
-      <c r="G128" s="558" t="s">
+      <c r="G128" s="571" t="s">
         <v>59</v>
       </c>
-      <c r="H128" s="527" t="s">
+      <c r="H128" s="540" t="s">
         <v>117</v>
       </c>
-      <c r="I128" s="494"/>
-      <c r="J128" s="528"/>
+      <c r="I128" s="508"/>
+      <c r="J128" s="541"/>
       <c r="K128" s="56"/>
       <c r="L128" s="57"/>
-      <c r="M128" s="402"/>
-      <c r="N128" s="650" t="s">
+      <c r="M128" s="401"/>
+      <c r="N128" s="455" t="s">
         <v>202</v>
       </c>
-      <c r="O128" s="644"/>
-      <c r="P128" s="641"/>
-      <c r="Q128" s="403"/>
-      <c r="R128" s="207"/>
-      <c r="S128" s="207"/>
-      <c r="T128" s="511"/>
-      <c r="U128" s="512"/>
-      <c r="V128" s="513"/>
-      <c r="W128" s="403"/>
-      <c r="X128" s="207"/>
-      <c r="Y128" s="404"/>
+      <c r="O128" s="450"/>
+      <c r="P128" s="447"/>
+      <c r="Q128" s="402"/>
+      <c r="R128" s="206"/>
+      <c r="S128" s="206"/>
+      <c r="T128" s="524"/>
+      <c r="U128" s="525"/>
+      <c r="V128" s="526"/>
+      <c r="W128" s="402"/>
+      <c r="X128" s="206"/>
+      <c r="Y128" s="403"/>
     </row>
     <row r="129" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="137"/>
@@ -8909,28 +9027,28 @@
       <c r="D129" s="75"/>
       <c r="E129" s="75"/>
       <c r="F129" s="75"/>
-      <c r="G129" s="559"/>
-      <c r="H129" s="234" t="s">
+      <c r="G129" s="572"/>
+      <c r="H129" s="233" t="s">
         <v>57</v>
       </c>
-      <c r="I129" s="535" t="s">
+      <c r="I129" s="549" t="s">
         <v>119</v>
       </c>
-      <c r="J129" s="536"/>
+      <c r="J129" s="550"/>
       <c r="K129" s="80"/>
       <c r="L129" s="81"/>
       <c r="M129" s="89"/>
-      <c r="N129" s="647" t="s">
+      <c r="N129" s="452" t="s">
         <v>203</v>
       </c>
-      <c r="O129" s="645"/>
-      <c r="P129" s="405"/>
+      <c r="O129" s="451"/>
+      <c r="P129" s="404"/>
       <c r="Q129" s="68"/>
       <c r="R129" s="40"/>
       <c r="S129" s="40"/>
-      <c r="T129" s="204"/>
-      <c r="U129" s="213"/>
-      <c r="V129" s="214"/>
+      <c r="T129" s="203"/>
+      <c r="U129" s="212"/>
+      <c r="V129" s="213"/>
       <c r="W129" s="68"/>
       <c r="X129" s="40"/>
       <c r="Y129" s="72"/>
@@ -8942,110 +9060,110 @@
       <c r="D130" s="73"/>
       <c r="E130" s="73"/>
       <c r="F130" s="74"/>
-      <c r="G130" s="558" t="s">
+      <c r="G130" s="571" t="s">
         <v>69</v>
       </c>
-      <c r="H130" s="527" t="s">
+      <c r="H130" s="540" t="s">
         <v>117</v>
       </c>
-      <c r="I130" s="494"/>
-      <c r="J130" s="528"/>
+      <c r="I130" s="508"/>
+      <c r="J130" s="541"/>
       <c r="K130" s="88"/>
       <c r="L130" s="109"/>
-      <c r="M130" s="252"/>
-      <c r="N130" s="406"/>
-      <c r="O130" s="407"/>
-      <c r="P130" s="408"/>
+      <c r="M130" s="251"/>
+      <c r="N130" s="405"/>
+      <c r="O130" s="406"/>
+      <c r="P130" s="407"/>
       <c r="Q130" s="56"/>
       <c r="R130" s="57"/>
       <c r="S130" s="57"/>
-      <c r="T130" s="511"/>
-      <c r="U130" s="512"/>
-      <c r="V130" s="513"/>
+      <c r="T130" s="524"/>
+      <c r="U130" s="525"/>
+      <c r="V130" s="526"/>
       <c r="W130" s="56"/>
       <c r="X130" s="57"/>
       <c r="Y130" s="58"/>
     </row>
     <row r="131" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="160"/>
-      <c r="B131" s="250"/>
-      <c r="C131" s="250"/>
-      <c r="D131" s="250"/>
-      <c r="E131" s="250"/>
-      <c r="F131" s="250"/>
-      <c r="G131" s="566"/>
-      <c r="H131" s="234" t="s">
+      <c r="A131" s="159"/>
+      <c r="B131" s="249"/>
+      <c r="C131" s="249"/>
+      <c r="D131" s="249"/>
+      <c r="E131" s="249"/>
+      <c r="F131" s="249"/>
+      <c r="G131" s="575"/>
+      <c r="H131" s="233" t="s">
         <v>57</v>
       </c>
-      <c r="I131" s="535" t="s">
+      <c r="I131" s="549" t="s">
         <v>176</v>
       </c>
-      <c r="J131" s="536"/>
-      <c r="K131" s="337"/>
-      <c r="L131" s="338"/>
-      <c r="M131" s="217"/>
-      <c r="N131" s="218"/>
-      <c r="O131" s="171"/>
-      <c r="P131" s="219"/>
-      <c r="Q131" s="170"/>
-      <c r="R131" s="171"/>
-      <c r="S131" s="171"/>
-      <c r="T131" s="204"/>
-      <c r="U131" s="213"/>
-      <c r="V131" s="214"/>
-      <c r="W131" s="170"/>
-      <c r="X131" s="171"/>
-      <c r="Y131" s="172"/>
+      <c r="J131" s="550"/>
+      <c r="K131" s="336"/>
+      <c r="L131" s="337"/>
+      <c r="M131" s="216"/>
+      <c r="N131" s="217"/>
+      <c r="O131" s="170"/>
+      <c r="P131" s="218"/>
+      <c r="Q131" s="169"/>
+      <c r="R131" s="170"/>
+      <c r="S131" s="170"/>
+      <c r="T131" s="203"/>
+      <c r="U131" s="212"/>
+      <c r="V131" s="213"/>
+      <c r="W131" s="169"/>
+      <c r="X131" s="170"/>
+      <c r="Y131" s="171"/>
     </row>
     <row r="132" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A132" s="120"/>
-      <c r="B132" s="552">
+      <c r="B132" s="553">
         <v>14</v>
       </c>
-      <c r="C132" s="552">
+      <c r="C132" s="553">
         <v>14</v>
       </c>
-      <c r="D132" s="552">
+      <c r="D132" s="553">
         <v>11</v>
       </c>
-      <c r="E132" s="571">
+      <c r="E132" s="585">
         <v>9</v>
       </c>
-      <c r="F132" s="552">
+      <c r="F132" s="553">
         <v>6</v>
       </c>
-      <c r="G132" s="561" t="s">
+      <c r="G132" s="574" t="s">
         <v>22</v>
       </c>
-      <c r="H132" s="280"/>
-      <c r="I132" s="281"/>
-      <c r="J132" s="318"/>
-      <c r="K132" s="517" t="s">
+      <c r="H132" s="279"/>
+      <c r="I132" s="280"/>
+      <c r="J132" s="317"/>
+      <c r="K132" s="530" t="s">
         <v>123</v>
       </c>
-      <c r="L132" s="518"/>
-      <c r="M132" s="519"/>
+      <c r="L132" s="531"/>
+      <c r="M132" s="532"/>
       <c r="N132" s="53"/>
-      <c r="O132" s="409"/>
-      <c r="P132" s="410"/>
+      <c r="O132" s="408"/>
+      <c r="P132" s="409"/>
       <c r="Q132" s="110"/>
       <c r="R132" s="111"/>
       <c r="S132" s="111"/>
-      <c r="T132" s="411"/>
-      <c r="U132" s="412"/>
-      <c r="V132" s="413"/>
+      <c r="T132" s="410"/>
+      <c r="U132" s="411"/>
+      <c r="V132" s="412"/>
       <c r="W132" s="110"/>
       <c r="X132" s="111"/>
-      <c r="Y132" s="225"/>
+      <c r="Y132" s="224"/>
     </row>
     <row r="133" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="178"/>
-      <c r="B133" s="551"/>
-      <c r="C133" s="551"/>
-      <c r="D133" s="551"/>
-      <c r="E133" s="572"/>
-      <c r="F133" s="551"/>
-      <c r="G133" s="559"/>
+      <c r="A133" s="177"/>
+      <c r="B133" s="554"/>
+      <c r="C133" s="554"/>
+      <c r="D133" s="554"/>
+      <c r="E133" s="586"/>
+      <c r="F133" s="554"/>
+      <c r="G133" s="572"/>
       <c r="H133" s="88"/>
       <c r="I133" s="109"/>
       <c r="J133" s="64"/>
@@ -9055,108 +9173,108 @@
       <c r="L133" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="M133" s="252" t="s">
+      <c r="M133" s="251" t="s">
         <v>31</v>
       </c>
       <c r="N133" s="80"/>
-      <c r="O133" s="228"/>
-      <c r="P133" s="414"/>
+      <c r="O133" s="227"/>
+      <c r="P133" s="413"/>
       <c r="Q133" s="133"/>
       <c r="R133" s="93"/>
       <c r="S133" s="93"/>
-      <c r="T133" s="415"/>
-      <c r="U133" s="247"/>
-      <c r="V133" s="214"/>
+      <c r="T133" s="414"/>
+      <c r="U133" s="246"/>
+      <c r="V133" s="213"/>
       <c r="W133" s="133"/>
       <c r="X133" s="93"/>
       <c r="Y133" s="94"/>
     </row>
     <row r="134" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="178" t="s">
+      <c r="A134" s="177" t="s">
         <v>21</v>
       </c>
-      <c r="B134" s="550">
+      <c r="B134" s="555">
         <v>28</v>
       </c>
-      <c r="C134" s="550">
+      <c r="C134" s="555">
         <v>28</v>
       </c>
-      <c r="D134" s="550">
+      <c r="D134" s="555">
         <v>25</v>
       </c>
-      <c r="E134" s="550">
+      <c r="E134" s="555">
         <v>23</v>
       </c>
-      <c r="F134" s="550"/>
-      <c r="G134" s="558" t="s">
+      <c r="F134" s="555"/>
+      <c r="G134" s="571" t="s">
         <v>25</v>
       </c>
-      <c r="H134" s="527" t="s">
+      <c r="H134" s="540" t="s">
         <v>98</v>
       </c>
-      <c r="I134" s="494"/>
-      <c r="J134" s="528"/>
-      <c r="K134" s="461" t="s">
+      <c r="I134" s="508"/>
+      <c r="J134" s="541"/>
+      <c r="K134" s="473" t="s">
         <v>123</v>
       </c>
-      <c r="L134" s="462"/>
-      <c r="M134" s="463"/>
-      <c r="N134" s="477" t="s">
+      <c r="L134" s="474"/>
+      <c r="M134" s="475"/>
+      <c r="N134" s="489" t="s">
         <v>95</v>
       </c>
-      <c r="O134" s="478"/>
-      <c r="P134" s="478"/>
-      <c r="Q134" s="478"/>
-      <c r="R134" s="478"/>
-      <c r="S134" s="478"/>
-      <c r="T134" s="511"/>
-      <c r="U134" s="512"/>
-      <c r="V134" s="513"/>
-      <c r="W134" s="461"/>
-      <c r="X134" s="462"/>
-      <c r="Y134" s="476"/>
+      <c r="O134" s="490"/>
+      <c r="P134" s="490"/>
+      <c r="Q134" s="490"/>
+      <c r="R134" s="490"/>
+      <c r="S134" s="490"/>
+      <c r="T134" s="524"/>
+      <c r="U134" s="525"/>
+      <c r="V134" s="526"/>
+      <c r="W134" s="473"/>
+      <c r="X134" s="474"/>
+      <c r="Y134" s="488"/>
     </row>
     <row r="135" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="137" t="s">
         <v>140</v>
       </c>
-      <c r="B135" s="551"/>
-      <c r="C135" s="551"/>
-      <c r="D135" s="551"/>
-      <c r="E135" s="551"/>
-      <c r="F135" s="551"/>
-      <c r="G135" s="559"/>
-      <c r="H135" s="184" t="s">
+      <c r="B135" s="554"/>
+      <c r="C135" s="554"/>
+      <c r="D135" s="554"/>
+      <c r="E135" s="554"/>
+      <c r="F135" s="554"/>
+      <c r="G135" s="572"/>
+      <c r="H135" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="I135" s="185" t="s">
+      <c r="I135" s="184" t="s">
         <v>163</v>
       </c>
-      <c r="J135" s="186" t="s">
+      <c r="J135" s="185" t="s">
         <v>31</v>
       </c>
-      <c r="K135" s="360" t="s">
+      <c r="K135" s="359" t="s">
         <v>51</v>
       </c>
-      <c r="L135" s="499" t="s">
+      <c r="L135" s="551" t="s">
         <v>52</v>
       </c>
-      <c r="M135" s="500"/>
+      <c r="M135" s="552"/>
       <c r="N135" s="68" t="s">
         <v>42</v>
       </c>
       <c r="O135" s="40"/>
-      <c r="P135" s="457"/>
-      <c r="Q135" s="457"/>
+      <c r="P135" s="510"/>
+      <c r="Q135" s="510"/>
       <c r="R135" s="83" t="s">
         <v>43</v>
       </c>
       <c r="S135" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="T135" s="204"/>
-      <c r="U135" s="205"/>
-      <c r="V135" s="416"/>
+      <c r="T135" s="203"/>
+      <c r="U135" s="204"/>
+      <c r="V135" s="415"/>
       <c r="W135" s="68"/>
       <c r="X135" s="83"/>
       <c r="Y135" s="94"/>
@@ -9165,60 +9283,60 @@
       <c r="A136" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="B136" s="550"/>
-      <c r="C136" s="550"/>
-      <c r="D136" s="550"/>
-      <c r="E136" s="550"/>
-      <c r="F136" s="550"/>
-      <c r="G136" s="558" t="s">
+      <c r="B136" s="555"/>
+      <c r="C136" s="555"/>
+      <c r="D136" s="555"/>
+      <c r="E136" s="555"/>
+      <c r="F136" s="555"/>
+      <c r="G136" s="571" t="s">
         <v>35</v>
       </c>
-      <c r="H136" s="524" t="s">
+      <c r="H136" s="537" t="s">
         <v>114</v>
       </c>
-      <c r="I136" s="525"/>
-      <c r="J136" s="526"/>
-      <c r="K136" s="359"/>
+      <c r="I136" s="538"/>
+      <c r="J136" s="539"/>
+      <c r="K136" s="358"/>
       <c r="L136" s="61"/>
       <c r="M136" s="62"/>
-      <c r="N136" s="461" t="s">
+      <c r="N136" s="473" t="s">
         <v>95</v>
       </c>
-      <c r="O136" s="462"/>
-      <c r="P136" s="463"/>
-      <c r="Q136" s="461" t="s">
+      <c r="O136" s="474"/>
+      <c r="P136" s="475"/>
+      <c r="Q136" s="473" t="s">
         <v>99</v>
       </c>
-      <c r="R136" s="462"/>
-      <c r="S136" s="462"/>
-      <c r="T136" s="511"/>
-      <c r="U136" s="512"/>
-      <c r="V136" s="513"/>
-      <c r="W136" s="417" t="s">
+      <c r="R136" s="474"/>
+      <c r="S136" s="474"/>
+      <c r="T136" s="524"/>
+      <c r="U136" s="525"/>
+      <c r="V136" s="526"/>
+      <c r="W136" s="416" t="s">
         <v>177</v>
       </c>
-      <c r="X136" s="409" t="s">
+      <c r="X136" s="408" t="s">
         <v>178</v>
       </c>
-      <c r="Y136" s="401"/>
+      <c r="Y136" s="400"/>
     </row>
     <row r="137" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="B137" s="551"/>
-      <c r="C137" s="551"/>
-      <c r="D137" s="551"/>
-      <c r="E137" s="551"/>
-      <c r="F137" s="551"/>
-      <c r="G137" s="559"/>
+      <c r="B137" s="554"/>
+      <c r="C137" s="554"/>
+      <c r="D137" s="554"/>
+      <c r="E137" s="554"/>
+      <c r="F137" s="554"/>
+      <c r="G137" s="572"/>
       <c r="H137" s="131" t="s">
         <v>111</v>
       </c>
-      <c r="I137" s="185" t="s">
+      <c r="I137" s="184" t="s">
         <v>163</v>
       </c>
-      <c r="J137" s="186" t="s">
+      <c r="J137" s="185" t="s">
         <v>31</v>
       </c>
       <c r="K137" s="68" t="s">
@@ -9227,7 +9345,7 @@
       <c r="L137" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="M137" s="183" t="s">
+      <c r="M137" s="182" t="s">
         <v>63</v>
       </c>
       <c r="N137" s="68" t="s">
@@ -9242,22 +9360,22 @@
       <c r="Q137" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="R137" s="190" t="s">
+      <c r="R137" s="189" t="s">
         <v>102</v>
       </c>
       <c r="S137" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="T137" s="204"/>
-      <c r="U137" s="205"/>
-      <c r="V137" s="416"/>
-      <c r="W137" s="418" t="s">
+      <c r="T137" s="203"/>
+      <c r="U137" s="204"/>
+      <c r="V137" s="415"/>
+      <c r="W137" s="417" t="s">
         <v>180</v>
       </c>
-      <c r="X137" s="232" t="s">
+      <c r="X137" s="231" t="s">
         <v>181</v>
       </c>
-      <c r="Y137" s="198"/>
+      <c r="Y137" s="197"/>
     </row>
     <row r="138" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="137" t="s">
@@ -9268,37 +9386,37 @@
       <c r="D138" s="73"/>
       <c r="E138" s="73"/>
       <c r="F138" s="74"/>
-      <c r="G138" s="558" t="s">
+      <c r="G138" s="571" t="s">
         <v>47</v>
       </c>
-      <c r="H138" s="524" t="s">
+      <c r="H138" s="537" t="s">
         <v>114</v>
       </c>
-      <c r="I138" s="525"/>
-      <c r="J138" s="526"/>
-      <c r="K138" s="249"/>
+      <c r="I138" s="538"/>
+      <c r="J138" s="539"/>
+      <c r="K138" s="248"/>
       <c r="L138" s="4"/>
       <c r="M138" s="64"/>
-      <c r="N138" s="461" t="s">
+      <c r="N138" s="473" t="s">
         <v>38</v>
       </c>
-      <c r="O138" s="462"/>
-      <c r="P138" s="463"/>
-      <c r="Q138" s="461" t="s">
+      <c r="O138" s="474"/>
+      <c r="P138" s="475"/>
+      <c r="Q138" s="473" t="s">
         <v>99</v>
       </c>
-      <c r="R138" s="462"/>
-      <c r="S138" s="462"/>
-      <c r="T138" s="607"/>
-      <c r="U138" s="522"/>
-      <c r="V138" s="523"/>
-      <c r="W138" s="419" t="s">
+      <c r="R138" s="474"/>
+      <c r="S138" s="474"/>
+      <c r="T138" s="619"/>
+      <c r="U138" s="534"/>
+      <c r="V138" s="535"/>
+      <c r="W138" s="418" t="s">
         <v>182</v>
       </c>
-      <c r="X138" s="606" t="s">
+      <c r="X138" s="618" t="s">
         <v>183</v>
       </c>
-      <c r="Y138" s="460"/>
+      <c r="Y138" s="472"/>
     </row>
     <row r="139" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="137" t="s">
@@ -9309,14 +9427,14 @@
       <c r="D139" s="75"/>
       <c r="E139" s="75"/>
       <c r="F139" s="75"/>
-      <c r="G139" s="559"/>
+      <c r="G139" s="572"/>
       <c r="H139" s="131" t="s">
         <v>111</v>
       </c>
-      <c r="I139" s="185" t="s">
+      <c r="I139" s="184" t="s">
         <v>163</v>
       </c>
-      <c r="J139" s="186" t="s">
+      <c r="J139" s="185" t="s">
         <v>54</v>
       </c>
       <c r="K139" s="81"/>
@@ -9334,7 +9452,7 @@
       <c r="Q139" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="R139" s="190" t="s">
+      <c r="R139" s="189" t="s">
         <v>102</v>
       </c>
       <c r="S139" s="134" t="s">
@@ -9343,13 +9461,13 @@
       <c r="T139" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="U139" s="205"/>
-      <c r="V139" s="416"/>
-      <c r="W139" s="495" t="s">
+      <c r="U139" s="204"/>
+      <c r="V139" s="415"/>
+      <c r="W139" s="509" t="s">
         <v>184</v>
       </c>
-      <c r="X139" s="457"/>
-      <c r="Y139" s="591"/>
+      <c r="X139" s="510"/>
+      <c r="Y139" s="602"/>
     </row>
     <row r="140" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="137" t="s">
@@ -9360,33 +9478,33 @@
       <c r="D140" s="73"/>
       <c r="E140" s="73"/>
       <c r="F140" s="74"/>
-      <c r="G140" s="558" t="s">
+      <c r="G140" s="571" t="s">
         <v>59</v>
       </c>
-      <c r="H140" s="493"/>
-      <c r="I140" s="494"/>
-      <c r="J140" s="528"/>
-      <c r="K140" s="249"/>
-      <c r="L140" s="249"/>
-      <c r="M140" s="292"/>
-      <c r="N140" s="477" t="s">
+      <c r="H140" s="507"/>
+      <c r="I140" s="508"/>
+      <c r="J140" s="541"/>
+      <c r="K140" s="248"/>
+      <c r="L140" s="248"/>
+      <c r="M140" s="291"/>
+      <c r="N140" s="489" t="s">
         <v>185</v>
       </c>
-      <c r="O140" s="478"/>
-      <c r="P140" s="478"/>
-      <c r="Q140" s="478"/>
-      <c r="R140" s="478"/>
-      <c r="S140" s="478"/>
-      <c r="T140" s="473" t="s">
+      <c r="O140" s="490"/>
+      <c r="P140" s="490"/>
+      <c r="Q140" s="490"/>
+      <c r="R140" s="490"/>
+      <c r="S140" s="490"/>
+      <c r="T140" s="485" t="s">
         <v>147</v>
       </c>
-      <c r="U140" s="474"/>
-      <c r="V140" s="475"/>
-      <c r="W140" s="461" t="s">
+      <c r="U140" s="486"/>
+      <c r="V140" s="487"/>
+      <c r="W140" s="473" t="s">
         <v>186</v>
       </c>
-      <c r="X140" s="462"/>
-      <c r="Y140" s="476"/>
+      <c r="X140" s="474"/>
+      <c r="Y140" s="488"/>
     </row>
     <row r="141" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="137"/>
@@ -9395,7 +9513,7 @@
       <c r="D141" s="75"/>
       <c r="E141" s="75"/>
       <c r="F141" s="75"/>
-      <c r="G141" s="559"/>
+      <c r="G141" s="572"/>
       <c r="H141" s="68"/>
       <c r="I141" s="40"/>
       <c r="J141" s="89"/>
@@ -9405,22 +9523,22 @@
       <c r="N141" s="81" t="s">
         <v>187</v>
       </c>
-      <c r="O141" s="228"/>
-      <c r="P141" s="497"/>
-      <c r="Q141" s="497"/>
+      <c r="O141" s="227"/>
+      <c r="P141" s="548"/>
+      <c r="Q141" s="548"/>
       <c r="R141" s="93" t="s">
         <v>97</v>
       </c>
       <c r="S141" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="T141" s="361" t="s">
+      <c r="T141" s="360" t="s">
         <v>148</v>
       </c>
-      <c r="U141" s="190" t="s">
+      <c r="U141" s="189" t="s">
         <v>81</v>
       </c>
-      <c r="V141" s="362" t="s">
+      <c r="V141" s="361" t="s">
         <v>31</v>
       </c>
       <c r="W141" s="80" t="s">
@@ -9429,7 +9547,7 @@
       <c r="X141" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="Y141" s="420" t="s">
+      <c r="Y141" s="419" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9440,115 +9558,121 @@
       <c r="D142" s="73"/>
       <c r="E142" s="73"/>
       <c r="F142" s="74"/>
-      <c r="G142" s="558" t="s">
+      <c r="G142" s="571" t="s">
         <v>69</v>
       </c>
-      <c r="H142" s="529"/>
-      <c r="I142" s="530"/>
-      <c r="J142" s="531"/>
+      <c r="H142" s="542"/>
+      <c r="I142" s="543"/>
+      <c r="J142" s="544"/>
       <c r="K142" s="4"/>
       <c r="L142" s="4"/>
       <c r="M142" s="4"/>
-      <c r="N142" s="381"/>
-      <c r="O142" s="421"/>
-      <c r="P142" s="292"/>
+      <c r="N142" s="380"/>
+      <c r="O142" s="420"/>
+      <c r="P142" s="291"/>
       <c r="Q142" s="50"/>
       <c r="R142" s="51"/>
       <c r="S142" s="51"/>
-      <c r="T142" s="473" t="s">
+      <c r="T142" s="485" t="s">
         <v>147</v>
       </c>
-      <c r="U142" s="474"/>
-      <c r="V142" s="475"/>
+      <c r="U142" s="486"/>
+      <c r="V142" s="487"/>
       <c r="W142" s="50"/>
       <c r="X142" s="51"/>
-      <c r="Y142" s="159"/>
+      <c r="Y142" s="158"/>
     </row>
     <row r="143" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="160"/>
-      <c r="B143" s="250"/>
-      <c r="C143" s="250"/>
-      <c r="D143" s="250"/>
-      <c r="E143" s="250"/>
-      <c r="F143" s="250"/>
-      <c r="G143" s="566"/>
-      <c r="H143" s="218"/>
+      <c r="A143" s="159"/>
+      <c r="B143" s="249"/>
+      <c r="C143" s="249"/>
+      <c r="D143" s="249"/>
+      <c r="E143" s="249"/>
+      <c r="F143" s="249"/>
+      <c r="G143" s="575"/>
+      <c r="H143" s="217"/>
       <c r="I143" s="119"/>
-      <c r="J143" s="422"/>
-      <c r="K143" s="168"/>
-      <c r="L143" s="168"/>
-      <c r="M143" s="422"/>
-      <c r="N143" s="168"/>
-      <c r="O143" s="423"/>
-      <c r="P143" s="422"/>
+      <c r="J143" s="421"/>
+      <c r="K143" s="167"/>
+      <c r="L143" s="167"/>
+      <c r="M143" s="421"/>
+      <c r="N143" s="167"/>
+      <c r="O143" s="422"/>
+      <c r="P143" s="421"/>
       <c r="Q143" s="78"/>
-      <c r="R143" s="383"/>
-      <c r="S143" s="383"/>
-      <c r="T143" s="361" t="s">
+      <c r="R143" s="382"/>
+      <c r="S143" s="382"/>
+      <c r="T143" s="360" t="s">
         <v>148</v>
       </c>
-      <c r="U143" s="190" t="s">
+      <c r="U143" s="189" t="s">
         <v>81</v>
       </c>
-      <c r="V143" s="362" t="s">
+      <c r="V143" s="361" t="s">
         <v>54</v>
       </c>
       <c r="W143" s="78"/>
-      <c r="X143" s="383"/>
-      <c r="Y143" s="424"/>
+      <c r="X143" s="382"/>
+      <c r="Y143" s="423"/>
     </row>
     <row r="144" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A144" s="120"/>
-      <c r="B144" s="552">
+      <c r="B144" s="553">
         <v>15</v>
       </c>
-      <c r="C144" s="552">
+      <c r="C144" s="553">
         <v>1</v>
       </c>
-      <c r="D144" s="552">
+      <c r="D144" s="553">
         <v>12</v>
       </c>
-      <c r="E144" s="571">
+      <c r="E144" s="585">
         <v>10</v>
       </c>
-      <c r="F144" s="552">
+      <c r="F144" s="553">
         <v>7</v>
       </c>
-      <c r="G144" s="561" t="s">
+      <c r="G144" s="574" t="s">
         <v>22</v>
       </c>
-      <c r="H144" s="565"/>
-      <c r="I144" s="518"/>
-      <c r="J144" s="519"/>
-      <c r="K144" s="280"/>
-      <c r="L144" s="281"/>
-      <c r="M144" s="281"/>
-      <c r="N144" s="517" t="s">
+      <c r="H144" s="456" t="s">
+        <v>204</v>
+      </c>
+      <c r="I144" s="678"/>
+      <c r="J144" s="457"/>
+      <c r="K144" s="279"/>
+      <c r="L144" s="280"/>
+      <c r="M144" s="280"/>
+      <c r="N144" s="530" t="s">
         <v>188</v>
       </c>
-      <c r="O144" s="518"/>
-      <c r="P144" s="519"/>
+      <c r="O144" s="531"/>
+      <c r="P144" s="532"/>
       <c r="Q144" s="125"/>
       <c r="R144" s="123"/>
       <c r="S144" s="123"/>
-      <c r="T144" s="603"/>
-      <c r="U144" s="604"/>
-      <c r="V144" s="605"/>
+      <c r="T144" s="615"/>
+      <c r="U144" s="616"/>
+      <c r="V144" s="617"/>
       <c r="W144" s="125"/>
       <c r="X144" s="123"/>
       <c r="Y144" s="127"/>
     </row>
     <row r="145" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="178"/>
-      <c r="B145" s="551"/>
-      <c r="C145" s="551"/>
-      <c r="D145" s="551"/>
-      <c r="E145" s="572"/>
-      <c r="F145" s="551"/>
-      <c r="G145" s="559"/>
-      <c r="H145" s="425"/>
-      <c r="I145" s="134"/>
-      <c r="J145" s="163"/>
+      <c r="A145" s="177"/>
+      <c r="B145" s="554"/>
+      <c r="C145" s="554"/>
+      <c r="D145" s="554"/>
+      <c r="E145" s="586"/>
+      <c r="F145" s="554"/>
+      <c r="G145" s="572"/>
+      <c r="H145" s="458" t="s">
+        <v>205</v>
+      </c>
+      <c r="I145" s="679" t="s">
+        <v>206</v>
+      </c>
+      <c r="J145" s="677"/>
       <c r="K145" s="68"/>
       <c r="L145" s="40"/>
       <c r="M145" s="40"/>
@@ -9564,64 +9688,70 @@
       <c r="Q145" s="133"/>
       <c r="R145" s="93"/>
       <c r="S145" s="93"/>
-      <c r="T145" s="204"/>
-      <c r="U145" s="213"/>
-      <c r="V145" s="214"/>
+      <c r="T145" s="203"/>
+      <c r="U145" s="212"/>
+      <c r="V145" s="213"/>
       <c r="W145" s="133"/>
       <c r="X145" s="93"/>
       <c r="Y145" s="94"/>
     </row>
     <row r="146" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="178" t="s">
+      <c r="A146" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="B146" s="550"/>
-      <c r="C146" s="550">
+      <c r="B146" s="555"/>
+      <c r="C146" s="555">
         <v>15</v>
       </c>
-      <c r="D146" s="550">
+      <c r="D146" s="555">
         <v>26</v>
       </c>
-      <c r="E146" s="550">
+      <c r="E146" s="555">
         <v>24</v>
       </c>
-      <c r="F146" s="550"/>
-      <c r="G146" s="558" t="s">
+      <c r="F146" s="555"/>
+      <c r="G146" s="571" t="s">
         <v>25</v>
       </c>
-      <c r="H146" s="520"/>
-      <c r="I146" s="462"/>
-      <c r="J146" s="463"/>
-      <c r="N146" s="461" t="s">
+      <c r="H146" s="459" t="s">
+        <v>207</v>
+      </c>
+      <c r="I146" s="680" t="s">
+        <v>208</v>
+      </c>
+      <c r="J146" s="460"/>
+      <c r="N146" s="473" t="s">
         <v>188</v>
       </c>
-      <c r="O146" s="462"/>
-      <c r="P146" s="463"/>
-      <c r="Q146" s="197"/>
+      <c r="O146" s="474"/>
+      <c r="P146" s="475"/>
+      <c r="Q146" s="196"/>
       <c r="R146" s="54"/>
       <c r="S146" s="54"/>
-      <c r="T146" s="537" t="s">
+      <c r="T146" s="556" t="s">
         <v>190</v>
       </c>
-      <c r="U146" s="538"/>
-      <c r="V146" s="539"/>
-      <c r="W146" s="197"/>
+      <c r="U146" s="557"/>
+      <c r="V146" s="558"/>
+      <c r="W146" s="196"/>
       <c r="X146" s="54"/>
-      <c r="Y146" s="401"/>
+      <c r="Y146" s="400"/>
     </row>
     <row r="147" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="B147" s="551"/>
-      <c r="C147" s="551"/>
-      <c r="D147" s="551"/>
-      <c r="E147" s="551"/>
-      <c r="F147" s="551"/>
-      <c r="G147" s="559"/>
-      <c r="H147" s="426"/>
-      <c r="I147" s="93"/>
-      <c r="J147" s="132"/>
+      <c r="B147" s="554"/>
+      <c r="C147" s="554"/>
+      <c r="D147" s="554"/>
+      <c r="E147" s="554"/>
+      <c r="F147" s="554"/>
+      <c r="G147" s="572"/>
+      <c r="H147" s="461" t="s">
+        <v>203</v>
+      </c>
+      <c r="I147" s="462"/>
+      <c r="J147" s="463"/>
       <c r="N147" s="68" t="s">
         <v>189</v>
       </c>
@@ -9634,111 +9764,125 @@
       <c r="Q147" s="68"/>
       <c r="R147" s="40"/>
       <c r="S147" s="93"/>
-      <c r="T147" s="427"/>
-      <c r="U147" s="428"/>
-      <c r="V147" s="429"/>
+      <c r="T147" s="424"/>
+      <c r="U147" s="425"/>
+      <c r="V147" s="426"/>
       <c r="W147" s="68"/>
       <c r="X147" s="40"/>
       <c r="Y147" s="94"/>
     </row>
-    <row r="148" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A148" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="B148" s="550"/>
-      <c r="C148" s="550">
+      <c r="B148" s="555"/>
+      <c r="C148" s="555">
         <v>29</v>
       </c>
-      <c r="D148" s="550"/>
-      <c r="E148" s="550"/>
-      <c r="F148" s="550"/>
-      <c r="G148" s="558" t="s">
+      <c r="D148" s="555"/>
+      <c r="E148" s="555"/>
+      <c r="F148" s="555"/>
+      <c r="G148" s="571" t="s">
         <v>35</v>
       </c>
-      <c r="H148" s="562"/>
-      <c r="I148" s="563"/>
-      <c r="J148" s="564"/>
-      <c r="K148" s="461"/>
-      <c r="L148" s="462"/>
-      <c r="M148" s="462"/>
-      <c r="N148" s="461"/>
-      <c r="O148" s="462"/>
-      <c r="P148" s="462"/>
-      <c r="Q148" s="506"/>
-      <c r="R148" s="469"/>
-      <c r="S148" s="469"/>
-      <c r="T148" s="537"/>
-      <c r="U148" s="538"/>
-      <c r="V148" s="539"/>
-      <c r="W148" s="506"/>
-      <c r="X148" s="469"/>
-      <c r="Y148" s="470"/>
+      <c r="H148" s="464" t="s">
+        <v>209</v>
+      </c>
+      <c r="I148" s="675"/>
+      <c r="J148" s="55"/>
+      <c r="K148" s="668" t="s">
+        <v>213</v>
+      </c>
+      <c r="L148" s="669"/>
+      <c r="M148" s="669"/>
+      <c r="N148" s="492"/>
+      <c r="O148" s="493"/>
+      <c r="P148" s="493"/>
+      <c r="Q148" s="519"/>
+      <c r="R148" s="481"/>
+      <c r="S148" s="481"/>
+      <c r="T148" s="556"/>
+      <c r="U148" s="557"/>
+      <c r="V148" s="558"/>
+      <c r="W148" s="519"/>
+      <c r="X148" s="481"/>
+      <c r="Y148" s="482"/>
     </row>
     <row r="149" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="B149" s="551"/>
-      <c r="C149" s="551"/>
-      <c r="D149" s="551"/>
-      <c r="E149" s="551"/>
-      <c r="F149" s="551"/>
-      <c r="G149" s="559"/>
-      <c r="H149" s="143"/>
-      <c r="I149" s="87"/>
+      <c r="B149" s="554"/>
+      <c r="C149" s="554"/>
+      <c r="D149" s="554"/>
+      <c r="E149" s="554"/>
+      <c r="F149" s="554"/>
+      <c r="G149" s="572"/>
+      <c r="H149" s="465" t="s">
+        <v>210</v>
+      </c>
+      <c r="I149" s="676" t="s">
+        <v>211</v>
+      </c>
       <c r="J149" s="64"/>
-      <c r="K149" s="68"/>
-      <c r="L149" s="93"/>
-      <c r="M149" s="93"/>
-      <c r="N149" s="68"/>
-      <c r="O149" s="93"/>
-      <c r="P149" s="93"/>
-      <c r="Q149" s="507"/>
-      <c r="R149" s="471"/>
-      <c r="S149" s="471"/>
-      <c r="T149" s="361" t="s">
+      <c r="K149" s="662"/>
+      <c r="L149" s="662"/>
+      <c r="M149" s="662"/>
+      <c r="N149" s="521"/>
+      <c r="O149" s="522"/>
+      <c r="P149" s="522"/>
+      <c r="Q149" s="520"/>
+      <c r="R149" s="483"/>
+      <c r="S149" s="483"/>
+      <c r="T149" s="360" t="s">
         <v>191</v>
       </c>
-      <c r="U149" s="190" t="s">
+      <c r="U149" s="189" t="s">
         <v>45</v>
       </c>
-      <c r="V149" s="430" t="s">
+      <c r="V149" s="427" t="s">
         <v>54</v>
       </c>
-      <c r="W149" s="507"/>
-      <c r="X149" s="471"/>
-      <c r="Y149" s="472"/>
+      <c r="W149" s="520"/>
+      <c r="X149" s="483"/>
+      <c r="Y149" s="484"/>
     </row>
     <row r="150" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="B150" s="291"/>
-      <c r="C150" s="291"/>
-      <c r="D150" s="191"/>
-      <c r="E150" s="191"/>
-      <c r="F150" s="191"/>
-      <c r="G150" s="567" t="s">
+      <c r="B150" s="290"/>
+      <c r="C150" s="290"/>
+      <c r="D150" s="190"/>
+      <c r="E150" s="190"/>
+      <c r="F150" s="190"/>
+      <c r="G150" s="577" t="s">
         <v>47</v>
       </c>
-      <c r="H150" s="431"/>
-      <c r="I150" s="57"/>
-      <c r="J150" s="402"/>
-      <c r="K150" s="432"/>
-      <c r="L150" s="150"/>
-      <c r="M150" s="151"/>
-      <c r="N150" s="150"/>
-      <c r="O150" s="150"/>
-      <c r="P150" s="151"/>
-      <c r="Q150" s="506"/>
-      <c r="R150" s="469"/>
-      <c r="S150" s="469"/>
-      <c r="T150" s="433"/>
-      <c r="U150" s="434"/>
-      <c r="V150" s="435"/>
-      <c r="W150" s="506"/>
-      <c r="X150" s="469"/>
-      <c r="Y150" s="470"/>
+      <c r="H150" s="466" t="s">
+        <v>31</v>
+      </c>
+      <c r="I150" s="467" t="s">
+        <v>54</v>
+      </c>
+      <c r="J150" s="446"/>
+      <c r="K150" s="662" t="s">
+        <v>216</v>
+      </c>
+      <c r="L150" s="663"/>
+      <c r="M150" s="664"/>
+      <c r="N150" s="492"/>
+      <c r="O150" s="493"/>
+      <c r="P150" s="493"/>
+      <c r="Q150" s="519"/>
+      <c r="R150" s="481"/>
+      <c r="S150" s="481"/>
+      <c r="T150" s="428"/>
+      <c r="U150" s="429"/>
+      <c r="V150" s="430"/>
+      <c r="W150" s="519"/>
+      <c r="X150" s="481"/>
+      <c r="Y150" s="482"/>
     </row>
     <row r="151" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="137" t="s">
@@ -9749,25 +9893,29 @@
       <c r="D151" s="38"/>
       <c r="E151" s="38"/>
       <c r="F151" s="38"/>
-      <c r="G151" s="568"/>
-      <c r="H151" s="131"/>
-      <c r="I151" s="40"/>
-      <c r="J151" s="84"/>
-      <c r="K151" s="78"/>
-      <c r="L151" s="77"/>
-      <c r="M151" s="79"/>
-      <c r="N151" s="77"/>
-      <c r="O151" s="77"/>
-      <c r="P151" s="132"/>
-      <c r="Q151" s="507"/>
-      <c r="R151" s="471"/>
-      <c r="S151" s="471"/>
-      <c r="T151" s="361"/>
-      <c r="U151" s="190"/>
-      <c r="V151" s="430"/>
-      <c r="W151" s="507"/>
-      <c r="X151" s="471"/>
-      <c r="Y151" s="472"/>
+      <c r="G151" s="578"/>
+      <c r="H151" s="468" t="s">
+        <v>212</v>
+      </c>
+      <c r="I151" s="469"/>
+      <c r="J151" s="445"/>
+      <c r="K151" s="674" t="s">
+        <v>214</v>
+      </c>
+      <c r="L151" s="662"/>
+      <c r="M151" s="662"/>
+      <c r="N151" s="521"/>
+      <c r="O151" s="522"/>
+      <c r="P151" s="522"/>
+      <c r="Q151" s="520"/>
+      <c r="R151" s="483"/>
+      <c r="S151" s="483"/>
+      <c r="T151" s="360"/>
+      <c r="U151" s="189"/>
+      <c r="V151" s="427"/>
+      <c r="W151" s="520"/>
+      <c r="X151" s="483"/>
+      <c r="Y151" s="484"/>
     </row>
     <row r="152" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="137" t="s">
@@ -9778,27 +9926,27 @@
       <c r="D152" s="74"/>
       <c r="E152" s="74"/>
       <c r="F152" s="74"/>
-      <c r="G152" s="558" t="s">
+      <c r="G152" s="571" t="s">
         <v>59</v>
       </c>
       <c r="H152" s="56"/>
       <c r="I152" s="57"/>
       <c r="J152" s="57"/>
-      <c r="K152" s="461"/>
-      <c r="L152" s="462"/>
-      <c r="M152" s="462"/>
-      <c r="N152" s="480"/>
-      <c r="O152" s="481"/>
-      <c r="P152" s="502"/>
-      <c r="Q152" s="480"/>
-      <c r="R152" s="481"/>
-      <c r="S152" s="481"/>
-      <c r="T152" s="436"/>
-      <c r="U152" s="392"/>
-      <c r="V152" s="392"/>
-      <c r="W152" s="480"/>
-      <c r="X152" s="481"/>
-      <c r="Y152" s="482"/>
+      <c r="K152" s="671"/>
+      <c r="L152" s="666"/>
+      <c r="M152" s="665"/>
+      <c r="N152" s="492"/>
+      <c r="O152" s="493"/>
+      <c r="P152" s="493"/>
+      <c r="Q152" s="492"/>
+      <c r="R152" s="493"/>
+      <c r="S152" s="493"/>
+      <c r="T152" s="431"/>
+      <c r="U152" s="391"/>
+      <c r="V152" s="391"/>
+      <c r="W152" s="492"/>
+      <c r="X152" s="493"/>
+      <c r="Y152" s="494"/>
     </row>
     <row r="153" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="137"/>
@@ -9807,25 +9955,27 @@
       <c r="D153" s="75"/>
       <c r="E153" s="75"/>
       <c r="F153" s="75"/>
-      <c r="G153" s="559"/>
+      <c r="G153" s="572"/>
       <c r="H153" s="99"/>
       <c r="I153" s="83"/>
-      <c r="J153" s="437"/>
-      <c r="K153" s="68"/>
-      <c r="L153" s="93"/>
-      <c r="M153" s="93"/>
-      <c r="N153" s="508"/>
-      <c r="O153" s="509"/>
-      <c r="P153" s="510"/>
-      <c r="Q153" s="508"/>
-      <c r="R153" s="509"/>
-      <c r="S153" s="509"/>
-      <c r="T153" s="436"/>
-      <c r="U153" s="392"/>
-      <c r="V153" s="392"/>
-      <c r="W153" s="508"/>
-      <c r="X153" s="509"/>
-      <c r="Y153" s="596"/>
+      <c r="J153" s="432"/>
+      <c r="K153" s="670" t="s">
+        <v>215</v>
+      </c>
+      <c r="L153" s="667"/>
+      <c r="M153" s="667"/>
+      <c r="N153" s="521"/>
+      <c r="O153" s="522"/>
+      <c r="P153" s="522"/>
+      <c r="Q153" s="521"/>
+      <c r="R153" s="522"/>
+      <c r="S153" s="522"/>
+      <c r="T153" s="431"/>
+      <c r="U153" s="391"/>
+      <c r="V153" s="391"/>
+      <c r="W153" s="521"/>
+      <c r="X153" s="522"/>
+      <c r="Y153" s="607"/>
     </row>
     <row r="154" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="137"/>
@@ -9834,63 +9984,63 @@
       <c r="D154" s="73"/>
       <c r="E154" s="73"/>
       <c r="F154" s="74"/>
-      <c r="G154" s="558" t="s">
+      <c r="G154" s="571" t="s">
         <v>69</v>
       </c>
-      <c r="H154" s="286"/>
-      <c r="I154" s="248"/>
-      <c r="J154" s="248"/>
-      <c r="K154" s="381"/>
-      <c r="L154" s="249"/>
-      <c r="M154" s="249"/>
-      <c r="N154" s="480"/>
-      <c r="O154" s="481"/>
-      <c r="P154" s="502"/>
-      <c r="Q154" s="480"/>
-      <c r="R154" s="481"/>
-      <c r="S154" s="481"/>
-      <c r="T154" s="438"/>
-      <c r="U154" s="439"/>
-      <c r="V154" s="440"/>
-      <c r="W154" s="480"/>
-      <c r="X154" s="481"/>
-      <c r="Y154" s="482"/>
+      <c r="H154" s="285"/>
+      <c r="I154" s="247"/>
+      <c r="J154" s="247"/>
+      <c r="K154" s="380"/>
+      <c r="L154" s="248"/>
+      <c r="M154" s="248"/>
+      <c r="N154" s="656"/>
+      <c r="O154" s="657"/>
+      <c r="P154" s="658"/>
+      <c r="Q154" s="492"/>
+      <c r="R154" s="493"/>
+      <c r="S154" s="493"/>
+      <c r="T154" s="433"/>
+      <c r="U154" s="434"/>
+      <c r="V154" s="435"/>
+      <c r="W154" s="492"/>
+      <c r="X154" s="493"/>
+      <c r="Y154" s="494"/>
     </row>
     <row r="155" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="160"/>
-      <c r="B155" s="250"/>
-      <c r="C155" s="250"/>
-      <c r="D155" s="250"/>
-      <c r="E155" s="250"/>
-      <c r="F155" s="250"/>
-      <c r="G155" s="566"/>
-      <c r="H155" s="218"/>
+      <c r="A155" s="159"/>
+      <c r="B155" s="249"/>
+      <c r="C155" s="249"/>
+      <c r="D155" s="249"/>
+      <c r="E155" s="249"/>
+      <c r="F155" s="249"/>
+      <c r="G155" s="575"/>
+      <c r="H155" s="217"/>
       <c r="I155" s="119"/>
-      <c r="J155" s="253"/>
-      <c r="K155" s="167"/>
-      <c r="L155" s="168"/>
-      <c r="M155" s="168"/>
-      <c r="N155" s="503"/>
-      <c r="O155" s="504"/>
-      <c r="P155" s="505"/>
-      <c r="Q155" s="503"/>
-      <c r="R155" s="504"/>
-      <c r="S155" s="504"/>
-      <c r="T155" s="441"/>
-      <c r="U155" s="442"/>
-      <c r="V155" s="443"/>
-      <c r="W155" s="503"/>
-      <c r="X155" s="504"/>
-      <c r="Y155" s="595"/>
+      <c r="J155" s="252"/>
+      <c r="K155" s="166"/>
+      <c r="L155" s="167"/>
+      <c r="M155" s="167"/>
+      <c r="N155" s="659"/>
+      <c r="O155" s="660"/>
+      <c r="P155" s="661"/>
+      <c r="Q155" s="517"/>
+      <c r="R155" s="518"/>
+      <c r="S155" s="518"/>
+      <c r="T155" s="436"/>
+      <c r="U155" s="437"/>
+      <c r="V155" s="438"/>
+      <c r="W155" s="517"/>
+      <c r="X155" s="518"/>
+      <c r="Y155" s="606"/>
     </row>
     <row r="156" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="444"/>
-      <c r="B156" s="444"/>
-      <c r="C156" s="444"/>
-      <c r="D156" s="444"/>
-      <c r="E156" s="444"/>
-      <c r="F156" s="444"/>
-      <c r="G156" s="444"/>
+      <c r="A156" s="439"/>
+      <c r="B156" s="439"/>
+      <c r="C156" s="439"/>
+      <c r="D156" s="439"/>
+      <c r="E156" s="439"/>
+      <c r="F156" s="439"/>
+      <c r="G156" s="439"/>
       <c r="H156" s="3" t="s">
         <v>192</v>
       </c>
@@ -9898,20 +10048,20 @@
       <c r="J156" s="5"/>
       <c r="K156" s="6"/>
       <c r="L156" s="6"/>
-      <c r="M156" s="445"/>
-      <c r="P156" s="445"/>
-      <c r="S156" s="445"/>
-      <c r="V156" s="445"/>
-      <c r="Y156" s="445"/>
+      <c r="M156" s="440"/>
+      <c r="P156" s="440"/>
+      <c r="S156" s="440"/>
+      <c r="V156" s="440"/>
+      <c r="Y156" s="440"/>
     </row>
     <row r="157" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="444"/>
-      <c r="B157" s="444"/>
-      <c r="C157" s="444"/>
-      <c r="D157" s="444"/>
-      <c r="E157" s="444"/>
-      <c r="F157" s="444"/>
-      <c r="G157" s="444"/>
+      <c r="A157" s="439"/>
+      <c r="B157" s="439"/>
+      <c r="C157" s="439"/>
+      <c r="D157" s="439"/>
+      <c r="E157" s="439"/>
+      <c r="F157" s="439"/>
+      <c r="G157" s="439"/>
       <c r="H157" s="6" t="s">
         <v>193</v>
       </c>
@@ -9919,20 +10069,20 @@
       <c r="J157" s="5"/>
       <c r="K157" s="6"/>
       <c r="L157" s="6"/>
-      <c r="M157" s="446"/>
-      <c r="P157" s="446"/>
-      <c r="S157" s="446"/>
-      <c r="V157" s="446"/>
-      <c r="Y157" s="446"/>
+      <c r="M157" s="441"/>
+      <c r="P157" s="441"/>
+      <c r="S157" s="441"/>
+      <c r="V157" s="441"/>
+      <c r="Y157" s="441"/>
     </row>
     <row r="158" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="444"/>
-      <c r="B158" s="444"/>
-      <c r="C158" s="444"/>
-      <c r="D158" s="444"/>
-      <c r="E158" s="444"/>
-      <c r="F158" s="444"/>
-      <c r="G158" s="444"/>
+      <c r="A158" s="439"/>
+      <c r="B158" s="439"/>
+      <c r="C158" s="439"/>
+      <c r="D158" s="439"/>
+      <c r="E158" s="439"/>
+      <c r="F158" s="439"/>
+      <c r="G158" s="439"/>
       <c r="H158" s="6" t="s">
         <v>194</v>
       </c>
@@ -9940,656 +10090,660 @@
       <c r="J158" s="5"/>
       <c r="K158" s="6"/>
       <c r="L158" s="6"/>
-      <c r="M158" s="446"/>
-      <c r="P158" s="446"/>
-      <c r="S158" s="446"/>
-      <c r="V158" s="446"/>
-      <c r="Y158" s="446"/>
+      <c r="M158" s="441"/>
+      <c r="P158" s="441"/>
+      <c r="S158" s="441"/>
+      <c r="V158" s="441"/>
+      <c r="Y158" s="441"/>
     </row>
     <row r="159" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="444"/>
-      <c r="B159" s="444"/>
-      <c r="C159" s="444"/>
-      <c r="D159" s="444"/>
-      <c r="E159" s="444"/>
-      <c r="F159" s="444"/>
-      <c r="G159" s="444"/>
+      <c r="A159" s="439"/>
+      <c r="B159" s="439"/>
+      <c r="C159" s="439"/>
+      <c r="D159" s="439"/>
+      <c r="E159" s="439"/>
+      <c r="F159" s="439"/>
+      <c r="G159" s="439"/>
       <c r="H159" s="5"/>
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
       <c r="K159" s="3"/>
       <c r="L159" s="3"/>
-      <c r="M159" s="445"/>
-      <c r="P159" s="445"/>
-      <c r="S159" s="445"/>
-      <c r="V159" s="445"/>
-      <c r="Y159" s="445"/>
+      <c r="M159" s="440"/>
+      <c r="P159" s="440"/>
+      <c r="S159" s="440"/>
+      <c r="V159" s="440"/>
+      <c r="Y159" s="440"/>
     </row>
     <row r="160" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="444"/>
-      <c r="B160" s="444"/>
-      <c r="C160" s="444"/>
-      <c r="D160" s="444"/>
-      <c r="E160" s="444"/>
-      <c r="F160" s="444"/>
-      <c r="G160" s="444"/>
+      <c r="A160" s="439"/>
+      <c r="B160" s="439"/>
+      <c r="C160" s="439"/>
+      <c r="D160" s="439"/>
+      <c r="E160" s="439"/>
+      <c r="F160" s="439"/>
+      <c r="G160" s="439"/>
       <c r="H160" s="5"/>
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
-      <c r="M160" s="445"/>
-      <c r="P160" s="445"/>
-      <c r="S160" s="445"/>
-      <c r="V160" s="445"/>
-      <c r="Y160" s="445"/>
+      <c r="M160" s="440"/>
+      <c r="P160" s="440"/>
+      <c r="S160" s="440"/>
+      <c r="V160" s="440"/>
+      <c r="Y160" s="440"/>
     </row>
     <row r="161" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="444"/>
-      <c r="B161" s="444"/>
-      <c r="C161" s="444"/>
-      <c r="D161" s="444"/>
-      <c r="E161" s="444"/>
-      <c r="F161" s="444"/>
-      <c r="G161" s="444"/>
+      <c r="A161" s="439"/>
+      <c r="B161" s="439"/>
+      <c r="C161" s="439"/>
+      <c r="D161" s="439"/>
+      <c r="E161" s="439"/>
+      <c r="F161" s="439"/>
+      <c r="G161" s="439"/>
       <c r="H161" s="5"/>
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
-      <c r="M161" s="445"/>
-      <c r="P161" s="445"/>
-      <c r="S161" s="445"/>
-      <c r="V161" s="445"/>
-      <c r="Y161" s="445"/>
+      <c r="M161" s="440"/>
+      <c r="P161" s="440"/>
+      <c r="S161" s="440"/>
+      <c r="V161" s="440"/>
+      <c r="Y161" s="440"/>
     </row>
     <row r="162" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="444"/>
-      <c r="B162" s="444"/>
-      <c r="C162" s="444"/>
-      <c r="D162" s="444"/>
-      <c r="E162" s="444"/>
-      <c r="F162" s="444"/>
-      <c r="G162" s="444"/>
+      <c r="A162" s="439"/>
+      <c r="B162" s="439"/>
+      <c r="C162" s="439"/>
+      <c r="D162" s="439"/>
+      <c r="E162" s="439"/>
+      <c r="F162" s="439"/>
+      <c r="G162" s="439"/>
       <c r="H162" s="5"/>
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
     </row>
     <row r="163" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="444"/>
-      <c r="B163" s="444"/>
-      <c r="C163" s="444"/>
-      <c r="D163" s="444"/>
-      <c r="E163" s="444"/>
-      <c r="F163" s="444"/>
-      <c r="G163" s="444"/>
+      <c r="A163" s="439"/>
+      <c r="B163" s="439"/>
+      <c r="C163" s="439"/>
+      <c r="D163" s="439"/>
+      <c r="E163" s="439"/>
+      <c r="F163" s="439"/>
+      <c r="G163" s="439"/>
       <c r="H163" s="5"/>
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
     </row>
     <row r="164" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="447"/>
-      <c r="B164" s="447"/>
-      <c r="C164" s="447"/>
-      <c r="D164" s="447"/>
-      <c r="E164" s="447"/>
-      <c r="F164" s="447"/>
-      <c r="G164" s="447"/>
+      <c r="A164" s="442"/>
+      <c r="B164" s="442"/>
+      <c r="C164" s="442"/>
+      <c r="D164" s="442"/>
+      <c r="E164" s="442"/>
+      <c r="F164" s="442"/>
+      <c r="G164" s="442"/>
       <c r="H164" s="5"/>
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
     </row>
     <row r="165" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="447"/>
-      <c r="B165" s="447"/>
-      <c r="C165" s="447"/>
-      <c r="D165" s="447"/>
-      <c r="E165" s="447"/>
-      <c r="F165" s="447"/>
-      <c r="G165" s="447"/>
+      <c r="A165" s="442"/>
+      <c r="B165" s="442"/>
+      <c r="C165" s="442"/>
+      <c r="D165" s="442"/>
+      <c r="E165" s="442"/>
+      <c r="F165" s="442"/>
+      <c r="G165" s="442"/>
       <c r="H165" s="5"/>
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
     </row>
     <row r="166" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="447"/>
-      <c r="B166" s="447"/>
-      <c r="C166" s="447"/>
-      <c r="D166" s="447"/>
-      <c r="E166" s="447"/>
-      <c r="F166" s="447"/>
-      <c r="G166" s="447"/>
+      <c r="A166" s="442"/>
+      <c r="B166" s="442"/>
+      <c r="C166" s="442"/>
+      <c r="D166" s="442"/>
+      <c r="E166" s="442"/>
+      <c r="F166" s="442"/>
+      <c r="G166" s="442"/>
       <c r="H166" s="5"/>
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
     </row>
     <row r="167" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="447"/>
-      <c r="B167" s="447"/>
-      <c r="C167" s="447"/>
-      <c r="D167" s="447"/>
-      <c r="E167" s="447"/>
-      <c r="F167" s="447"/>
-      <c r="G167" s="447"/>
+      <c r="A167" s="442"/>
+      <c r="B167" s="442"/>
+      <c r="C167" s="442"/>
+      <c r="D167" s="442"/>
+      <c r="E167" s="442"/>
+      <c r="F167" s="442"/>
+      <c r="G167" s="442"/>
       <c r="H167" s="5"/>
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
     </row>
     <row r="168" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="447"/>
-      <c r="B168" s="447"/>
-      <c r="C168" s="447"/>
-      <c r="D168" s="447"/>
-      <c r="E168" s="447"/>
-      <c r="F168" s="447"/>
-      <c r="G168" s="447"/>
+      <c r="A168" s="442"/>
+      <c r="B168" s="442"/>
+      <c r="C168" s="442"/>
+      <c r="D168" s="442"/>
+      <c r="E168" s="442"/>
+      <c r="F168" s="442"/>
+      <c r="G168" s="442"/>
       <c r="H168" s="5"/>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
     </row>
     <row r="169" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="447"/>
-      <c r="B169" s="447"/>
-      <c r="C169" s="447"/>
-      <c r="D169" s="447"/>
-      <c r="E169" s="447"/>
-      <c r="F169" s="447"/>
-      <c r="G169" s="447"/>
+      <c r="A169" s="442"/>
+      <c r="B169" s="442"/>
+      <c r="C169" s="442"/>
+      <c r="D169" s="442"/>
+      <c r="E169" s="442"/>
+      <c r="F169" s="442"/>
+      <c r="G169" s="442"/>
       <c r="H169" s="5"/>
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
     </row>
     <row r="170" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="447"/>
-      <c r="B170" s="447"/>
-      <c r="C170" s="447"/>
-      <c r="D170" s="447"/>
-      <c r="E170" s="447"/>
-      <c r="F170" s="447"/>
-      <c r="G170" s="447"/>
+      <c r="A170" s="442"/>
+      <c r="B170" s="442"/>
+      <c r="C170" s="442"/>
+      <c r="D170" s="442"/>
+      <c r="E170" s="442"/>
+      <c r="F170" s="442"/>
+      <c r="G170" s="442"/>
       <c r="H170" s="5"/>
       <c r="I170" s="5"/>
       <c r="J170" s="5"/>
     </row>
     <row r="171" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="447"/>
-      <c r="B171" s="447"/>
-      <c r="C171" s="447"/>
-      <c r="D171" s="447"/>
-      <c r="E171" s="447"/>
-      <c r="F171" s="447"/>
-      <c r="G171" s="447"/>
+      <c r="A171" s="442"/>
+      <c r="B171" s="442"/>
+      <c r="C171" s="442"/>
+      <c r="D171" s="442"/>
+      <c r="E171" s="442"/>
+      <c r="F171" s="442"/>
+      <c r="G171" s="442"/>
       <c r="H171" s="5"/>
       <c r="I171" s="5"/>
       <c r="J171" s="5"/>
     </row>
     <row r="172" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="447"/>
-      <c r="B172" s="447"/>
-      <c r="C172" s="447"/>
-      <c r="D172" s="447"/>
-      <c r="E172" s="447"/>
-      <c r="F172" s="447"/>
-      <c r="G172" s="447"/>
+      <c r="A172" s="442"/>
+      <c r="B172" s="442"/>
+      <c r="C172" s="442"/>
+      <c r="D172" s="442"/>
+      <c r="E172" s="442"/>
+      <c r="F172" s="442"/>
+      <c r="G172" s="442"/>
       <c r="H172" s="5"/>
       <c r="I172" s="5"/>
       <c r="J172" s="5"/>
     </row>
     <row r="173" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="448"/>
-      <c r="B173" s="448"/>
-      <c r="C173" s="448"/>
-      <c r="D173" s="448"/>
-      <c r="E173" s="448"/>
-      <c r="F173" s="448"/>
-      <c r="G173" s="448"/>
+      <c r="A173" s="443"/>
+      <c r="B173" s="443"/>
+      <c r="C173" s="443"/>
+      <c r="D173" s="443"/>
+      <c r="E173" s="443"/>
+      <c r="F173" s="443"/>
+      <c r="G173" s="443"/>
       <c r="H173" s="4"/>
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
     </row>
     <row r="174" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="448"/>
-      <c r="B174" s="448"/>
-      <c r="C174" s="448"/>
-      <c r="D174" s="448"/>
-      <c r="E174" s="448"/>
-      <c r="F174" s="448"/>
-      <c r="G174" s="448"/>
+      <c r="A174" s="443"/>
+      <c r="B174" s="443"/>
+      <c r="C174" s="443"/>
+      <c r="D174" s="443"/>
+      <c r="E174" s="443"/>
+      <c r="F174" s="443"/>
+      <c r="G174" s="443"/>
       <c r="H174" s="4"/>
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
     </row>
     <row r="175" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="448"/>
-      <c r="B175" s="448"/>
-      <c r="C175" s="448"/>
-      <c r="D175" s="448"/>
-      <c r="E175" s="448"/>
-      <c r="F175" s="448"/>
-      <c r="G175" s="448"/>
+      <c r="A175" s="443"/>
+      <c r="B175" s="443"/>
+      <c r="C175" s="443"/>
+      <c r="D175" s="443"/>
+      <c r="E175" s="443"/>
+      <c r="F175" s="443"/>
+      <c r="G175" s="443"/>
       <c r="H175" s="4"/>
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
     </row>
     <row r="176" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A176" s="448"/>
-      <c r="B176" s="448"/>
-      <c r="C176" s="448"/>
-      <c r="D176" s="448"/>
-      <c r="E176" s="448"/>
-      <c r="F176" s="448"/>
-      <c r="G176" s="448"/>
+      <c r="A176" s="443"/>
+      <c r="B176" s="443"/>
+      <c r="C176" s="443"/>
+      <c r="D176" s="443"/>
+      <c r="E176" s="443"/>
+      <c r="F176" s="443"/>
+      <c r="G176" s="443"/>
       <c r="H176" s="4"/>
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A177" s="448"/>
-      <c r="B177" s="448"/>
-      <c r="C177" s="448"/>
-      <c r="D177" s="448"/>
-      <c r="E177" s="448"/>
-      <c r="F177" s="448"/>
-      <c r="G177" s="448"/>
+      <c r="A177" s="443"/>
+      <c r="B177" s="443"/>
+      <c r="C177" s="443"/>
+      <c r="D177" s="443"/>
+      <c r="E177" s="443"/>
+      <c r="F177" s="443"/>
+      <c r="G177" s="443"/>
       <c r="H177" s="4"/>
       <c r="I177" s="4"/>
       <c r="J177" s="4"/>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A178" s="448"/>
-      <c r="B178" s="448"/>
-      <c r="C178" s="448"/>
-      <c r="D178" s="448"/>
-      <c r="E178" s="448"/>
-      <c r="F178" s="448"/>
-      <c r="G178" s="448"/>
+      <c r="A178" s="443"/>
+      <c r="B178" s="443"/>
+      <c r="C178" s="443"/>
+      <c r="D178" s="443"/>
+      <c r="E178" s="443"/>
+      <c r="F178" s="443"/>
+      <c r="G178" s="443"/>
       <c r="H178" s="4"/>
       <c r="I178" s="4"/>
       <c r="J178" s="4"/>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A179" s="448"/>
-      <c r="B179" s="448"/>
-      <c r="C179" s="448"/>
-      <c r="D179" s="448"/>
-      <c r="E179" s="448"/>
-      <c r="F179" s="448"/>
-      <c r="G179" s="448"/>
+      <c r="A179" s="443"/>
+      <c r="B179" s="443"/>
+      <c r="C179" s="443"/>
+      <c r="D179" s="443"/>
+      <c r="E179" s="443"/>
+      <c r="F179" s="443"/>
+      <c r="G179" s="443"/>
       <c r="H179" s="4"/>
       <c r="I179" s="4"/>
       <c r="J179" s="4"/>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A180" s="448"/>
-      <c r="B180" s="448"/>
-      <c r="C180" s="448"/>
-      <c r="D180" s="448"/>
-      <c r="E180" s="448"/>
-      <c r="F180" s="448"/>
-      <c r="G180" s="448"/>
+      <c r="A180" s="443"/>
+      <c r="B180" s="443"/>
+      <c r="C180" s="443"/>
+      <c r="D180" s="443"/>
+      <c r="E180" s="443"/>
+      <c r="F180" s="443"/>
+      <c r="G180" s="443"/>
       <c r="H180" s="4"/>
       <c r="I180" s="4"/>
       <c r="J180" s="4"/>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A181" s="448"/>
-      <c r="B181" s="448"/>
-      <c r="C181" s="448"/>
-      <c r="D181" s="448"/>
-      <c r="E181" s="448"/>
-      <c r="F181" s="448"/>
-      <c r="G181" s="448"/>
+      <c r="A181" s="443"/>
+      <c r="B181" s="443"/>
+      <c r="C181" s="443"/>
+      <c r="D181" s="443"/>
+      <c r="E181" s="443"/>
+      <c r="F181" s="443"/>
+      <c r="G181" s="443"/>
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
       <c r="J181" s="4"/>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A182" s="448"/>
-      <c r="B182" s="448"/>
-      <c r="C182" s="448"/>
-      <c r="D182" s="448"/>
-      <c r="E182" s="448"/>
-      <c r="F182" s="448"/>
-      <c r="G182" s="448"/>
+      <c r="A182" s="443"/>
+      <c r="B182" s="443"/>
+      <c r="C182" s="443"/>
+      <c r="D182" s="443"/>
+      <c r="E182" s="443"/>
+      <c r="F182" s="443"/>
+      <c r="G182" s="443"/>
       <c r="H182" s="4"/>
       <c r="I182" s="4"/>
       <c r="J182" s="4"/>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A183" s="448"/>
-      <c r="B183" s="448"/>
-      <c r="C183" s="448"/>
-      <c r="D183" s="448"/>
-      <c r="E183" s="448"/>
-      <c r="F183" s="448"/>
-      <c r="G183" s="448"/>
+      <c r="A183" s="443"/>
+      <c r="B183" s="443"/>
+      <c r="C183" s="443"/>
+      <c r="D183" s="443"/>
+      <c r="E183" s="443"/>
+      <c r="F183" s="443"/>
+      <c r="G183" s="443"/>
       <c r="H183" s="4"/>
       <c r="I183" s="4"/>
       <c r="J183" s="4"/>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A184" s="448"/>
-      <c r="B184" s="448"/>
-      <c r="C184" s="448"/>
-      <c r="D184" s="448"/>
-      <c r="E184" s="448"/>
-      <c r="F184" s="448"/>
-      <c r="G184" s="448"/>
+      <c r="A184" s="443"/>
+      <c r="B184" s="443"/>
+      <c r="C184" s="443"/>
+      <c r="D184" s="443"/>
+      <c r="E184" s="443"/>
+      <c r="F184" s="443"/>
+      <c r="G184" s="443"/>
       <c r="H184" s="4"/>
       <c r="I184" s="4"/>
       <c r="J184" s="4"/>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A185" s="448"/>
-      <c r="B185" s="448"/>
-      <c r="C185" s="448"/>
-      <c r="D185" s="448"/>
-      <c r="E185" s="448"/>
-      <c r="F185" s="448"/>
-      <c r="G185" s="448"/>
+      <c r="A185" s="443"/>
+      <c r="B185" s="443"/>
+      <c r="C185" s="443"/>
+      <c r="D185" s="443"/>
+      <c r="E185" s="443"/>
+      <c r="F185" s="443"/>
+      <c r="G185" s="443"/>
       <c r="H185" s="4"/>
       <c r="I185" s="4"/>
       <c r="J185" s="4"/>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A186" s="448"/>
-      <c r="B186" s="448"/>
-      <c r="C186" s="448"/>
-      <c r="D186" s="448"/>
-      <c r="E186" s="448"/>
-      <c r="F186" s="448"/>
-      <c r="G186" s="448"/>
+      <c r="A186" s="443"/>
+      <c r="B186" s="443"/>
+      <c r="C186" s="443"/>
+      <c r="D186" s="443"/>
+      <c r="E186" s="443"/>
+      <c r="F186" s="443"/>
+      <c r="G186" s="443"/>
       <c r="H186" s="4"/>
       <c r="I186" s="4"/>
       <c r="J186" s="4"/>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A187" s="448"/>
-      <c r="B187" s="448"/>
-      <c r="C187" s="448"/>
-      <c r="D187" s="448"/>
-      <c r="E187" s="448"/>
-      <c r="F187" s="448"/>
-      <c r="G187" s="448"/>
+      <c r="A187" s="443"/>
+      <c r="B187" s="443"/>
+      <c r="C187" s="443"/>
+      <c r="D187" s="443"/>
+      <c r="E187" s="443"/>
+      <c r="F187" s="443"/>
+      <c r="G187" s="443"/>
       <c r="H187" s="4"/>
       <c r="I187" s="4"/>
       <c r="J187" s="4"/>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A188" s="448"/>
-      <c r="B188" s="448"/>
-      <c r="C188" s="448"/>
-      <c r="D188" s="448"/>
-      <c r="E188" s="448"/>
-      <c r="F188" s="448"/>
-      <c r="G188" s="448"/>
+      <c r="A188" s="443"/>
+      <c r="B188" s="443"/>
+      <c r="C188" s="443"/>
+      <c r="D188" s="443"/>
+      <c r="E188" s="443"/>
+      <c r="F188" s="443"/>
+      <c r="G188" s="443"/>
       <c r="H188" s="4"/>
       <c r="I188" s="4"/>
       <c r="J188" s="4"/>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A189" s="448"/>
-      <c r="B189" s="448"/>
-      <c r="C189" s="448"/>
-      <c r="D189" s="448"/>
-      <c r="E189" s="448"/>
-      <c r="F189" s="448"/>
-      <c r="G189" s="448"/>
+      <c r="A189" s="443"/>
+      <c r="B189" s="443"/>
+      <c r="C189" s="443"/>
+      <c r="D189" s="443"/>
+      <c r="E189" s="443"/>
+      <c r="F189" s="443"/>
+      <c r="G189" s="443"/>
       <c r="H189" s="4"/>
       <c r="I189" s="4"/>
       <c r="J189" s="4"/>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A190" s="448"/>
-      <c r="B190" s="448"/>
-      <c r="C190" s="448"/>
-      <c r="D190" s="448"/>
-      <c r="E190" s="448"/>
-      <c r="F190" s="448"/>
-      <c r="G190" s="448"/>
+      <c r="A190" s="443"/>
+      <c r="B190" s="443"/>
+      <c r="C190" s="443"/>
+      <c r="D190" s="443"/>
+      <c r="E190" s="443"/>
+      <c r="F190" s="443"/>
+      <c r="G190" s="443"/>
       <c r="H190" s="4"/>
       <c r="I190" s="4"/>
       <c r="J190" s="4"/>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A191" s="448"/>
-      <c r="B191" s="448"/>
-      <c r="C191" s="448"/>
-      <c r="D191" s="448"/>
-      <c r="E191" s="448"/>
-      <c r="F191" s="448"/>
-      <c r="G191" s="448"/>
+      <c r="A191" s="443"/>
+      <c r="B191" s="443"/>
+      <c r="C191" s="443"/>
+      <c r="D191" s="443"/>
+      <c r="E191" s="443"/>
+      <c r="F191" s="443"/>
+      <c r="G191" s="443"/>
       <c r="H191" s="4"/>
       <c r="I191" s="4"/>
       <c r="J191" s="4"/>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A192" s="448"/>
-      <c r="B192" s="448"/>
-      <c r="C192" s="448"/>
-      <c r="D192" s="448"/>
-      <c r="E192" s="448"/>
-      <c r="F192" s="448"/>
-      <c r="G192" s="448"/>
+      <c r="A192" s="443"/>
+      <c r="B192" s="443"/>
+      <c r="C192" s="443"/>
+      <c r="D192" s="443"/>
+      <c r="E192" s="443"/>
+      <c r="F192" s="443"/>
+      <c r="G192" s="443"/>
       <c r="H192" s="4"/>
       <c r="I192" s="4"/>
       <c r="J192" s="4"/>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A193" s="448"/>
-      <c r="B193" s="448"/>
-      <c r="C193" s="448"/>
-      <c r="D193" s="448"/>
-      <c r="E193" s="448"/>
-      <c r="F193" s="448"/>
-      <c r="G193" s="448"/>
+      <c r="A193" s="443"/>
+      <c r="B193" s="443"/>
+      <c r="C193" s="443"/>
+      <c r="D193" s="443"/>
+      <c r="E193" s="443"/>
+      <c r="F193" s="443"/>
+      <c r="G193" s="443"/>
       <c r="H193" s="4"/>
       <c r="I193" s="4"/>
       <c r="J193" s="4"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A194" s="448"/>
-      <c r="B194" s="448"/>
-      <c r="C194" s="448"/>
-      <c r="D194" s="448"/>
-      <c r="E194" s="448"/>
-      <c r="F194" s="448"/>
-      <c r="G194" s="448"/>
+      <c r="A194" s="443"/>
+      <c r="B194" s="443"/>
+      <c r="C194" s="443"/>
+      <c r="D194" s="443"/>
+      <c r="E194" s="443"/>
+      <c r="F194" s="443"/>
+      <c r="G194" s="443"/>
       <c r="H194" s="4"/>
       <c r="I194" s="4"/>
       <c r="J194" s="4"/>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A195" s="448"/>
-      <c r="B195" s="448"/>
-      <c r="C195" s="448"/>
-      <c r="D195" s="448"/>
-      <c r="E195" s="448"/>
-      <c r="F195" s="448"/>
-      <c r="G195" s="448"/>
+      <c r="A195" s="443"/>
+      <c r="B195" s="443"/>
+      <c r="C195" s="443"/>
+      <c r="D195" s="443"/>
+      <c r="E195" s="443"/>
+      <c r="F195" s="443"/>
+      <c r="G195" s="443"/>
       <c r="H195" s="4"/>
       <c r="I195" s="4"/>
       <c r="J195" s="4"/>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A196" s="448"/>
-      <c r="B196" s="448"/>
-      <c r="C196" s="448"/>
-      <c r="D196" s="448"/>
-      <c r="E196" s="448"/>
-      <c r="F196" s="448"/>
-      <c r="G196" s="448"/>
+      <c r="A196" s="443"/>
+      <c r="B196" s="443"/>
+      <c r="C196" s="443"/>
+      <c r="D196" s="443"/>
+      <c r="E196" s="443"/>
+      <c r="F196" s="443"/>
+      <c r="G196" s="443"/>
       <c r="H196" s="4"/>
       <c r="I196" s="4"/>
       <c r="J196" s="4"/>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A197" s="448"/>
-      <c r="B197" s="448"/>
-      <c r="C197" s="448"/>
-      <c r="D197" s="448"/>
-      <c r="E197" s="448"/>
-      <c r="F197" s="448"/>
-      <c r="G197" s="448"/>
+      <c r="A197" s="443"/>
+      <c r="B197" s="443"/>
+      <c r="C197" s="443"/>
+      <c r="D197" s="443"/>
+      <c r="E197" s="443"/>
+      <c r="F197" s="443"/>
+      <c r="G197" s="443"/>
       <c r="H197" s="4"/>
       <c r="I197" s="4"/>
       <c r="J197" s="4"/>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A198" s="448"/>
-      <c r="B198" s="448"/>
-      <c r="C198" s="448"/>
-      <c r="D198" s="448"/>
-      <c r="E198" s="448"/>
-      <c r="F198" s="448"/>
-      <c r="G198" s="448"/>
+      <c r="A198" s="443"/>
+      <c r="B198" s="443"/>
+      <c r="C198" s="443"/>
+      <c r="D198" s="443"/>
+      <c r="E198" s="443"/>
+      <c r="F198" s="443"/>
+      <c r="G198" s="443"/>
       <c r="H198" s="4"/>
       <c r="I198" s="4"/>
       <c r="J198" s="4"/>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A199" s="448"/>
-      <c r="B199" s="448"/>
-      <c r="C199" s="448"/>
-      <c r="D199" s="448"/>
-      <c r="E199" s="448"/>
-      <c r="F199" s="448"/>
-      <c r="G199" s="448"/>
+      <c r="A199" s="443"/>
+      <c r="B199" s="443"/>
+      <c r="C199" s="443"/>
+      <c r="D199" s="443"/>
+      <c r="E199" s="443"/>
+      <c r="F199" s="443"/>
+      <c r="G199" s="443"/>
       <c r="H199" s="4"/>
       <c r="I199" s="4"/>
       <c r="J199" s="4"/>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A200" s="448"/>
-      <c r="B200" s="448"/>
-      <c r="C200" s="448"/>
-      <c r="D200" s="448"/>
-      <c r="E200" s="448"/>
-      <c r="F200" s="448"/>
-      <c r="G200" s="448"/>
+      <c r="A200" s="443"/>
+      <c r="B200" s="443"/>
+      <c r="C200" s="443"/>
+      <c r="D200" s="443"/>
+      <c r="E200" s="443"/>
+      <c r="F200" s="443"/>
+      <c r="G200" s="443"/>
       <c r="H200" s="4"/>
       <c r="I200" s="4"/>
       <c r="J200" s="4"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A201" s="448"/>
-      <c r="B201" s="448"/>
-      <c r="C201" s="448"/>
-      <c r="D201" s="448"/>
-      <c r="E201" s="448"/>
-      <c r="F201" s="448"/>
-      <c r="G201" s="448"/>
+      <c r="A201" s="443"/>
+      <c r="B201" s="443"/>
+      <c r="C201" s="443"/>
+      <c r="D201" s="443"/>
+      <c r="E201" s="443"/>
+      <c r="F201" s="443"/>
+      <c r="G201" s="443"/>
       <c r="H201" s="4"/>
       <c r="I201" s="4"/>
       <c r="J201" s="4"/>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A202" s="448"/>
-      <c r="B202" s="448"/>
-      <c r="C202" s="448"/>
-      <c r="D202" s="448"/>
-      <c r="E202" s="448"/>
-      <c r="F202" s="448"/>
-      <c r="G202" s="448"/>
+      <c r="A202" s="443"/>
+      <c r="B202" s="443"/>
+      <c r="C202" s="443"/>
+      <c r="D202" s="443"/>
+      <c r="E202" s="443"/>
+      <c r="F202" s="443"/>
+      <c r="G202" s="443"/>
       <c r="H202" s="4"/>
       <c r="I202" s="4"/>
       <c r="J202" s="4"/>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A203" s="448"/>
-      <c r="B203" s="448"/>
-      <c r="C203" s="448"/>
-      <c r="D203" s="448"/>
-      <c r="E203" s="448"/>
-      <c r="F203" s="448"/>
-      <c r="G203" s="448"/>
+      <c r="A203" s="443"/>
+      <c r="B203" s="443"/>
+      <c r="C203" s="443"/>
+      <c r="D203" s="443"/>
+      <c r="E203" s="443"/>
+      <c r="F203" s="443"/>
+      <c r="G203" s="443"/>
       <c r="H203" s="4"/>
       <c r="I203" s="4"/>
       <c r="J203" s="4"/>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A204" s="448"/>
-      <c r="B204" s="448"/>
-      <c r="C204" s="448"/>
-      <c r="D204" s="448"/>
-      <c r="E204" s="448"/>
-      <c r="F204" s="448"/>
-      <c r="G204" s="448"/>
+      <c r="A204" s="443"/>
+      <c r="B204" s="443"/>
+      <c r="C204" s="443"/>
+      <c r="D204" s="443"/>
+      <c r="E204" s="443"/>
+      <c r="F204" s="443"/>
+      <c r="G204" s="443"/>
       <c r="H204" s="4"/>
       <c r="I204" s="4"/>
       <c r="J204" s="4"/>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A205" s="448"/>
-      <c r="B205" s="448"/>
-      <c r="C205" s="448"/>
-      <c r="D205" s="448"/>
-      <c r="E205" s="448"/>
-      <c r="F205" s="448"/>
-      <c r="G205" s="448"/>
+      <c r="A205" s="443"/>
+      <c r="B205" s="443"/>
+      <c r="C205" s="443"/>
+      <c r="D205" s="443"/>
+      <c r="E205" s="443"/>
+      <c r="F205" s="443"/>
+      <c r="G205" s="443"/>
       <c r="H205" s="4"/>
       <c r="I205" s="4"/>
       <c r="J205" s="4"/>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A206" s="448"/>
-      <c r="B206" s="448"/>
-      <c r="C206" s="448"/>
-      <c r="D206" s="448"/>
-      <c r="E206" s="448"/>
-      <c r="F206" s="448"/>
-      <c r="G206" s="448"/>
+      <c r="A206" s="443"/>
+      <c r="B206" s="443"/>
+      <c r="C206" s="443"/>
+      <c r="D206" s="443"/>
+      <c r="E206" s="443"/>
+      <c r="F206" s="443"/>
+      <c r="G206" s="443"/>
       <c r="H206" s="4"/>
       <c r="I206" s="4"/>
       <c r="J206" s="4"/>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A207" s="448"/>
-      <c r="B207" s="448"/>
-      <c r="C207" s="448"/>
-      <c r="D207" s="448"/>
-      <c r="E207" s="448"/>
-      <c r="F207" s="448"/>
-      <c r="G207" s="448"/>
+      <c r="A207" s="443"/>
+      <c r="B207" s="443"/>
+      <c r="C207" s="443"/>
+      <c r="D207" s="443"/>
+      <c r="E207" s="443"/>
+      <c r="F207" s="443"/>
+      <c r="G207" s="443"/>
       <c r="H207" s="4"/>
       <c r="I207" s="4"/>
       <c r="J207" s="4"/>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A208" s="448"/>
-      <c r="B208" s="448"/>
-      <c r="C208" s="448"/>
-      <c r="D208" s="448"/>
-      <c r="E208" s="448"/>
-      <c r="F208" s="448"/>
-      <c r="G208" s="448"/>
+      <c r="A208" s="443"/>
+      <c r="B208" s="443"/>
+      <c r="C208" s="443"/>
+      <c r="D208" s="443"/>
+      <c r="E208" s="443"/>
+      <c r="F208" s="443"/>
+      <c r="G208" s="443"/>
       <c r="H208" s="4"/>
       <c r="I208" s="4"/>
       <c r="J208" s="4"/>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A209" s="448"/>
-      <c r="B209" s="448"/>
-      <c r="C209" s="448"/>
-      <c r="D209" s="448"/>
-      <c r="E209" s="448"/>
-      <c r="F209" s="448"/>
-      <c r="G209" s="448"/>
+      <c r="A209" s="443"/>
+      <c r="B209" s="443"/>
+      <c r="C209" s="443"/>
+      <c r="D209" s="443"/>
+      <c r="E209" s="443"/>
+      <c r="F209" s="443"/>
+      <c r="G209" s="443"/>
       <c r="H209" s="4"/>
       <c r="I209" s="4"/>
       <c r="J209" s="4"/>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A210" s="448"/>
-      <c r="B210" s="448"/>
-      <c r="C210" s="448"/>
-      <c r="D210" s="448"/>
-      <c r="E210" s="448"/>
-      <c r="F210" s="448"/>
-      <c r="G210" s="448"/>
+      <c r="A210" s="443"/>
+      <c r="B210" s="443"/>
+      <c r="C210" s="443"/>
+      <c r="D210" s="443"/>
+      <c r="E210" s="443"/>
+      <c r="F210" s="443"/>
+      <c r="G210" s="443"/>
       <c r="H210" s="4"/>
       <c r="I210" s="4"/>
       <c r="J210" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="526">
-    <mergeCell ref="H59:J59"/>
+  <mergeCells count="522">
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="N148:P149"/>
+    <mergeCell ref="N150:P151"/>
     <mergeCell ref="K31:M31"/>
     <mergeCell ref="N31:P31"/>
     <mergeCell ref="K39:M39"/>
@@ -10604,15 +10758,6 @@
     <mergeCell ref="K26:M26"/>
     <mergeCell ref="K25:M25"/>
     <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="K64:M64"/>
-    <mergeCell ref="K66:M66"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="Q67:S67"/>
-    <mergeCell ref="Q65:S65"/>
-    <mergeCell ref="K67:M67"/>
     <mergeCell ref="N116:P116"/>
     <mergeCell ref="K116:M116"/>
     <mergeCell ref="N111:P111"/>
@@ -10624,6 +10769,19 @@
     <mergeCell ref="N55:P55"/>
     <mergeCell ref="K57:M57"/>
     <mergeCell ref="Q51:S51"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="Q114:S114"/>
+    <mergeCell ref="K65:M65"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="K90:M90"/>
+    <mergeCell ref="K92:M92"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="K64:M64"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="Q67:S67"/>
+    <mergeCell ref="Q65:S65"/>
+    <mergeCell ref="K67:M67"/>
     <mergeCell ref="W51:Y51"/>
     <mergeCell ref="W53:Y53"/>
     <mergeCell ref="T45:V45"/>
@@ -10690,6 +10848,7 @@
     <mergeCell ref="P103:Q103"/>
     <mergeCell ref="N104:P104"/>
     <mergeCell ref="Q90:S90"/>
+    <mergeCell ref="Q92:S92"/>
     <mergeCell ref="W154:Y155"/>
     <mergeCell ref="T148:V148"/>
     <mergeCell ref="W148:Y149"/>
@@ -10738,8 +10897,6 @@
     <mergeCell ref="N25:P26"/>
     <mergeCell ref="N15:P15"/>
     <mergeCell ref="N17:P17"/>
-    <mergeCell ref="T65:V65"/>
-    <mergeCell ref="U66:V66"/>
     <mergeCell ref="H27:J27"/>
     <mergeCell ref="H31:J31"/>
     <mergeCell ref="G124:G125"/>
@@ -10750,18 +10907,20 @@
     <mergeCell ref="H75:J75"/>
     <mergeCell ref="F71:F72"/>
     <mergeCell ref="F63:F64"/>
-    <mergeCell ref="N114:P114"/>
-    <mergeCell ref="N106:P106"/>
     <mergeCell ref="H114:J114"/>
     <mergeCell ref="H86:J86"/>
     <mergeCell ref="H88:J88"/>
     <mergeCell ref="H90:J90"/>
     <mergeCell ref="H92:J92"/>
-    <mergeCell ref="Q126:S126"/>
-    <mergeCell ref="K75:M75"/>
     <mergeCell ref="H73:J73"/>
     <mergeCell ref="H84:J84"/>
     <mergeCell ref="G106:G107"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="H47:J47"/>
     <mergeCell ref="F35:F36"/>
     <mergeCell ref="F37:F38"/>
     <mergeCell ref="F47:F48"/>
@@ -10780,12 +10939,8 @@
     <mergeCell ref="E75:E76"/>
     <mergeCell ref="F90:F91"/>
     <mergeCell ref="F59:F60"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H49:J49"/>
     <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E37:E38"/>
     <mergeCell ref="F136:F137"/>
     <mergeCell ref="F75:F76"/>
     <mergeCell ref="B132:B133"/>
@@ -10795,17 +10950,17 @@
     <mergeCell ref="C124:C125"/>
     <mergeCell ref="B110:B111"/>
     <mergeCell ref="B112:B113"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D71:D72"/>
     <mergeCell ref="B92:B93"/>
     <mergeCell ref="B75:B76"/>
     <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D73:D74"/>
     <mergeCell ref="E84:E85"/>
     <mergeCell ref="D75:D76"/>
     <mergeCell ref="B108:B109"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="D84:D85"/>
     <mergeCell ref="B148:B149"/>
     <mergeCell ref="C148:C149"/>
     <mergeCell ref="D148:D149"/>
@@ -10819,32 +10974,32 @@
     <mergeCell ref="C146:C147"/>
     <mergeCell ref="D146:D147"/>
     <mergeCell ref="E146:E147"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="B124:B125"/>
     <mergeCell ref="D136:D137"/>
     <mergeCell ref="E136:E137"/>
     <mergeCell ref="D134:D135"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="B73:B74"/>
     <mergeCell ref="B144:B145"/>
     <mergeCell ref="C144:C145"/>
     <mergeCell ref="D144:D145"/>
     <mergeCell ref="C132:C133"/>
     <mergeCell ref="D132:D133"/>
     <mergeCell ref="D120:D121"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="B73:B74"/>
     <mergeCell ref="B120:B121"/>
     <mergeCell ref="B100:B101"/>
     <mergeCell ref="C100:C101"/>
@@ -10858,17 +11013,17 @@
     <mergeCell ref="D112:D113"/>
     <mergeCell ref="E100:E101"/>
     <mergeCell ref="D100:D101"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="D63:D64"/>
     <mergeCell ref="F92:F93"/>
     <mergeCell ref="F88:F89"/>
     <mergeCell ref="F96:F97"/>
@@ -10877,9 +11032,13 @@
     <mergeCell ref="F73:F74"/>
     <mergeCell ref="D96:D97"/>
     <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D73:D74"/>
     <mergeCell ref="E120:E121"/>
     <mergeCell ref="D110:D111"/>
     <mergeCell ref="E110:E111"/>
@@ -10889,16 +11048,6 @@
     <mergeCell ref="C112:C113"/>
     <mergeCell ref="C120:C121"/>
     <mergeCell ref="E96:E97"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
     <mergeCell ref="C63:C64"/>
     <mergeCell ref="C61:C62"/>
     <mergeCell ref="B71:B72"/>
@@ -10920,10 +11069,9 @@
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="C49:C50"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
@@ -10933,6 +11081,13 @@
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E23:E24"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
@@ -10942,6 +11097,21 @@
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="G150:G151"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="F148:F149"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="F146:F147"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="F108:F109"/>
     <mergeCell ref="G152:G153"/>
     <mergeCell ref="G154:G155"/>
     <mergeCell ref="G142:G143"/>
@@ -10962,13 +11132,15 @@
     <mergeCell ref="G122:G123"/>
     <mergeCell ref="G134:G135"/>
     <mergeCell ref="G136:G137"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="K148:M148"/>
+    <mergeCell ref="K132:M132"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="K110:M110"/>
+    <mergeCell ref="K115:M115"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="K105:M105"/>
+    <mergeCell ref="K102:M102"/>
     <mergeCell ref="G98:G99"/>
     <mergeCell ref="G100:G101"/>
     <mergeCell ref="H98:J98"/>
@@ -10978,14 +11150,8 @@
     <mergeCell ref="G116:G117"/>
     <mergeCell ref="G140:G141"/>
     <mergeCell ref="G132:G133"/>
-    <mergeCell ref="H148:J148"/>
     <mergeCell ref="G108:G109"/>
-    <mergeCell ref="K112:M112"/>
-    <mergeCell ref="H144:J144"/>
-    <mergeCell ref="K132:M132"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="G120:G121"/>
-    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="H100:J100"/>
     <mergeCell ref="T122:V122"/>
     <mergeCell ref="T124:V124"/>
     <mergeCell ref="H126:J126"/>
@@ -10996,15 +11162,7 @@
     <mergeCell ref="L126:M126"/>
     <mergeCell ref="Q124:S124"/>
     <mergeCell ref="N120:P120"/>
-    <mergeCell ref="F148:F149"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="F146:F147"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="Q126:S126"/>
     <mergeCell ref="F144:F145"/>
     <mergeCell ref="F126:F127"/>
     <mergeCell ref="T77:V77"/>
@@ -11031,12 +11189,10 @@
     <mergeCell ref="K49:M49"/>
     <mergeCell ref="K13:M13"/>
     <mergeCell ref="K15:M15"/>
-    <mergeCell ref="K152:M152"/>
     <mergeCell ref="Q138:S138"/>
     <mergeCell ref="N146:P146"/>
     <mergeCell ref="H96:J96"/>
     <mergeCell ref="K106:M106"/>
-    <mergeCell ref="H146:J146"/>
     <mergeCell ref="H122:J122"/>
     <mergeCell ref="I109:J109"/>
     <mergeCell ref="H102:J102"/>
@@ -11053,14 +11209,11 @@
     <mergeCell ref="H128:J128"/>
     <mergeCell ref="I129:J129"/>
     <mergeCell ref="L135:M135"/>
-    <mergeCell ref="Q114:S114"/>
-    <mergeCell ref="N154:P155"/>
     <mergeCell ref="Q148:S149"/>
     <mergeCell ref="Q150:S151"/>
     <mergeCell ref="Q152:S153"/>
     <mergeCell ref="Q154:S155"/>
     <mergeCell ref="N152:P153"/>
-    <mergeCell ref="N148:P148"/>
     <mergeCell ref="T134:V134"/>
     <mergeCell ref="T126:V126"/>
     <mergeCell ref="T130:V130"/>
@@ -11069,24 +11222,6 @@
     <mergeCell ref="N144:P144"/>
     <mergeCell ref="N134:S134"/>
     <mergeCell ref="P135:Q135"/>
-    <mergeCell ref="K65:M65"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="K90:M90"/>
-    <mergeCell ref="K92:M92"/>
-    <mergeCell ref="Q92:S92"/>
-    <mergeCell ref="K110:M110"/>
-    <mergeCell ref="K115:M115"/>
-    <mergeCell ref="L114:M114"/>
-    <mergeCell ref="L104:M104"/>
-    <mergeCell ref="K105:M105"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="K102:M102"/>
-    <mergeCell ref="H100:J100"/>
-    <mergeCell ref="H104:J104"/>
-    <mergeCell ref="K100:M100"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="H112:J112"/>
     <mergeCell ref="K98:M98"/>
     <mergeCell ref="N94:P94"/>
     <mergeCell ref="Q104:S104"/>
@@ -11096,6 +11231,13 @@
     <mergeCell ref="T53:V53"/>
     <mergeCell ref="T67:V67"/>
     <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="K112:M112"/>
+    <mergeCell ref="T65:V65"/>
+    <mergeCell ref="U66:V66"/>
+    <mergeCell ref="N114:P114"/>
+    <mergeCell ref="N106:P106"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="H151:I151"/>
     <mergeCell ref="W56:Y57"/>
     <mergeCell ref="N136:P136"/>
     <mergeCell ref="N138:P138"/>
@@ -11115,10 +11257,17 @@
     <mergeCell ref="W92:Y92"/>
     <mergeCell ref="T73:V73"/>
     <mergeCell ref="T75:V75"/>
+    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="K100:M100"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="H112:J112"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K151" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="42" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="42" orientation="portrait" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="82" max="24" man="1"/>

--- a/www/examples/fei4_140213.xlsx
+++ b/www/examples/fei4_140213.xlsx
@@ -4,10 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="720" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="840" yWindow="720" windowWidth="20730" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="4 курс " sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'4 курс '!$A$1:$Y$158</definedName>
@@ -3269,596 +3272,6 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3920,6 +3333,596 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4230,8 +4233,8 @@
   </sheetPr>
   <dimension ref="A1:AA210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G125" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L146" sqref="L146"/>
+    <sheetView topLeftCell="A114" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L139" sqref="L139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4447,26 +4450,26 @@
       </c>
       <c r="L9" s="20"/>
       <c r="M9" s="21"/>
-      <c r="N9" s="591" t="s">
+      <c r="N9" s="621" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="592"/>
-      <c r="P9" s="593"/>
-      <c r="Q9" s="591" t="s">
+      <c r="O9" s="622"/>
+      <c r="P9" s="623"/>
+      <c r="Q9" s="621" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="592"/>
-      <c r="S9" s="593"/>
+      <c r="R9" s="622"/>
+      <c r="S9" s="623"/>
       <c r="T9" s="18" t="s">
         <v>18</v>
       </c>
       <c r="U9" s="18"/>
       <c r="V9" s="22"/>
-      <c r="W9" s="594" t="s">
+      <c r="W9" s="624" t="s">
         <v>19</v>
       </c>
-      <c r="X9" s="592"/>
-      <c r="Y9" s="593"/>
+      <c r="X9" s="622"/>
+      <c r="Y9" s="623"/>
     </row>
     <row r="10" spans="1:27" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
@@ -4502,22 +4505,22 @@
       <c r="A11" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="553">
+      <c r="B11" s="571">
         <v>17</v>
       </c>
-      <c r="C11" s="553">
+      <c r="C11" s="571">
         <v>3</v>
       </c>
-      <c r="D11" s="553">
+      <c r="D11" s="571">
         <v>14</v>
       </c>
-      <c r="E11" s="553">
+      <c r="E11" s="571">
         <v>12</v>
       </c>
-      <c r="F11" s="553">
+      <c r="F11" s="571">
         <v>9</v>
       </c>
-      <c r="G11" s="579" t="s">
+      <c r="G11" s="599" t="s">
         <v>22</v>
       </c>
       <c r="H11" s="29"/>
@@ -4543,12 +4546,12 @@
       <c r="A12" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="554"/>
-      <c r="C12" s="554"/>
-      <c r="D12" s="554"/>
-      <c r="E12" s="554"/>
-      <c r="F12" s="554"/>
-      <c r="G12" s="580"/>
+      <c r="B12" s="572"/>
+      <c r="C12" s="572"/>
+      <c r="D12" s="572"/>
+      <c r="E12" s="572"/>
+      <c r="F12" s="572"/>
+      <c r="G12" s="600"/>
       <c r="H12" s="39"/>
       <c r="I12" s="39"/>
       <c r="J12" s="40"/>
@@ -4572,39 +4575,39 @@
       <c r="A13" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="555"/>
-      <c r="C13" s="555">
+      <c r="B13" s="573"/>
+      <c r="C13" s="573">
         <v>17</v>
       </c>
-      <c r="D13" s="555">
+      <c r="D13" s="573">
         <v>28</v>
       </c>
-      <c r="E13" s="555">
+      <c r="E13" s="573">
         <v>26</v>
       </c>
       <c r="F13" s="49"/>
-      <c r="G13" s="581" t="s">
+      <c r="G13" s="601" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="473" t="s">
+      <c r="H13" s="496" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="474"/>
-      <c r="J13" s="475"/>
-      <c r="K13" s="473" t="s">
+      <c r="I13" s="497"/>
+      <c r="J13" s="498"/>
+      <c r="K13" s="496" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="474"/>
-      <c r="M13" s="475"/>
+      <c r="L13" s="497"/>
+      <c r="M13" s="498"/>
       <c r="N13" s="53"/>
       <c r="O13" s="54"/>
       <c r="P13" s="55"/>
       <c r="Q13" s="56"/>
       <c r="R13" s="57"/>
       <c r="S13" s="57"/>
-      <c r="T13" s="595"/>
-      <c r="U13" s="508"/>
-      <c r="V13" s="541"/>
+      <c r="T13" s="625"/>
+      <c r="U13" s="556"/>
+      <c r="V13" s="557"/>
       <c r="W13" s="56"/>
       <c r="X13" s="57"/>
       <c r="Y13" s="58"/>
@@ -4613,12 +4616,12 @@
       <c r="A14" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="554"/>
-      <c r="C14" s="554"/>
-      <c r="D14" s="554"/>
-      <c r="E14" s="554"/>
+      <c r="B14" s="572"/>
+      <c r="C14" s="572"/>
+      <c r="D14" s="572"/>
+      <c r="E14" s="572"/>
       <c r="F14" s="38"/>
-      <c r="G14" s="580"/>
+      <c r="G14" s="600"/>
       <c r="H14" s="60" t="s">
         <v>29</v>
       </c>
@@ -4655,54 +4658,54 @@
         <v>34</v>
       </c>
       <c r="B15" s="73"/>
-      <c r="C15" s="555">
+      <c r="C15" s="573">
         <v>31</v>
       </c>
-      <c r="D15" s="555"/>
+      <c r="D15" s="573"/>
       <c r="E15" s="73"/>
       <c r="F15" s="74"/>
-      <c r="G15" s="581" t="s">
+      <c r="G15" s="601" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="501" t="s">
+      <c r="H15" s="578" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="490"/>
-      <c r="J15" s="490"/>
-      <c r="K15" s="489" t="s">
+      <c r="I15" s="513"/>
+      <c r="J15" s="513"/>
+      <c r="K15" s="512" t="s">
         <v>37</v>
       </c>
-      <c r="L15" s="490"/>
-      <c r="M15" s="502"/>
-      <c r="N15" s="473" t="s">
+      <c r="L15" s="513"/>
+      <c r="M15" s="532"/>
+      <c r="N15" s="496" t="s">
         <v>38</v>
       </c>
-      <c r="O15" s="474"/>
-      <c r="P15" s="475"/>
-      <c r="Q15" s="473" t="s">
+      <c r="O15" s="497"/>
+      <c r="P15" s="498"/>
+      <c r="Q15" s="496" t="s">
         <v>39</v>
       </c>
-      <c r="R15" s="474"/>
-      <c r="S15" s="474"/>
-      <c r="T15" s="596"/>
-      <c r="U15" s="543"/>
-      <c r="V15" s="544"/>
-      <c r="W15" s="490" t="s">
+      <c r="R15" s="497"/>
+      <c r="S15" s="497"/>
+      <c r="T15" s="626"/>
+      <c r="U15" s="559"/>
+      <c r="V15" s="560"/>
+      <c r="W15" s="513" t="s">
         <v>40</v>
       </c>
-      <c r="X15" s="490"/>
-      <c r="Y15" s="491"/>
+      <c r="X15" s="513"/>
+      <c r="Y15" s="514"/>
     </row>
     <row r="16" spans="1:27" s="36" customFormat="1" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="75"/>
-      <c r="C16" s="554"/>
-      <c r="D16" s="554"/>
+      <c r="C16" s="572"/>
+      <c r="D16" s="572"/>
       <c r="E16" s="75"/>
       <c r="F16" s="75"/>
-      <c r="G16" s="580"/>
+      <c r="G16" s="600"/>
       <c r="H16" s="76" t="s">
         <v>41</v>
       </c>
@@ -4740,13 +4743,13 @@
         <v>31</v>
       </c>
       <c r="T16" s="82"/>
-      <c r="U16" s="510"/>
-      <c r="V16" s="536"/>
-      <c r="W16" s="626" t="s">
+      <c r="U16" s="529"/>
+      <c r="V16" s="531"/>
+      <c r="W16" s="656" t="s">
         <v>195</v>
       </c>
-      <c r="X16" s="626"/>
-      <c r="Y16" s="627"/>
+      <c r="X16" s="656"/>
+      <c r="Y16" s="657"/>
     </row>
     <row r="17" spans="1:25" s="36" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
@@ -4757,35 +4760,35 @@
       <c r="D17" s="73"/>
       <c r="E17" s="73"/>
       <c r="F17" s="74"/>
-      <c r="G17" s="581" t="s">
+      <c r="G17" s="601" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="501" t="s">
+      <c r="H17" s="578" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="490"/>
-      <c r="J17" s="502"/>
-      <c r="K17" s="473" t="s">
+      <c r="I17" s="513"/>
+      <c r="J17" s="532"/>
+      <c r="K17" s="496" t="s">
         <v>48</v>
       </c>
-      <c r="L17" s="474"/>
-      <c r="M17" s="475"/>
-      <c r="N17" s="473" t="s">
+      <c r="L17" s="497"/>
+      <c r="M17" s="498"/>
+      <c r="N17" s="496" t="s">
         <v>38</v>
       </c>
-      <c r="O17" s="474"/>
-      <c r="P17" s="475"/>
-      <c r="Q17" s="507" t="s">
+      <c r="O17" s="497"/>
+      <c r="P17" s="498"/>
+      <c r="Q17" s="584" t="s">
         <v>49</v>
       </c>
-      <c r="R17" s="508"/>
-      <c r="S17" s="508"/>
-      <c r="T17" s="597"/>
-      <c r="U17" s="598"/>
-      <c r="V17" s="599"/>
-      <c r="W17" s="626"/>
-      <c r="X17" s="626"/>
-      <c r="Y17" s="627"/>
+      <c r="R17" s="556"/>
+      <c r="S17" s="556"/>
+      <c r="T17" s="627"/>
+      <c r="U17" s="616"/>
+      <c r="V17" s="628"/>
+      <c r="W17" s="656"/>
+      <c r="X17" s="656"/>
+      <c r="Y17" s="657"/>
     </row>
     <row r="18" spans="1:25" s="36" customFormat="1" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
@@ -4796,14 +4799,14 @@
       <c r="D18" s="85"/>
       <c r="E18" s="85"/>
       <c r="F18" s="85"/>
-      <c r="G18" s="580"/>
+      <c r="G18" s="600"/>
       <c r="H18" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="549" t="s">
+      <c r="I18" s="565" t="s">
         <v>52</v>
       </c>
-      <c r="J18" s="550"/>
+      <c r="J18" s="566"/>
       <c r="K18" s="88" t="s">
         <v>53</v>
       </c>
@@ -4834,15 +4837,15 @@
       <c r="T18" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="U18" s="600"/>
-      <c r="V18" s="601"/>
+      <c r="U18" s="614"/>
+      <c r="V18" s="629"/>
       <c r="W18" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="X18" s="641" t="s">
+      <c r="X18" s="671" t="s">
         <v>58</v>
       </c>
-      <c r="Y18" s="642"/>
+      <c r="Y18" s="672"/>
     </row>
     <row r="19" spans="1:25" s="36" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="37" t="s">
@@ -4853,7 +4856,7 @@
       <c r="D19" s="73"/>
       <c r="E19" s="73"/>
       <c r="F19" s="74"/>
-      <c r="G19" s="581" t="s">
+      <c r="G19" s="601" t="s">
         <v>59</v>
       </c>
       <c r="H19" s="95"/>
@@ -4862,26 +4865,26 @@
       <c r="K19" s="56"/>
       <c r="L19" s="57"/>
       <c r="M19" s="57"/>
-      <c r="N19" s="473" t="s">
+      <c r="N19" s="496" t="s">
         <v>38</v>
       </c>
-      <c r="O19" s="474"/>
-      <c r="P19" s="475"/>
-      <c r="Q19" s="507" t="s">
+      <c r="O19" s="497"/>
+      <c r="P19" s="498"/>
+      <c r="Q19" s="584" t="s">
         <v>49</v>
       </c>
-      <c r="R19" s="508"/>
-      <c r="S19" s="508"/>
-      <c r="T19" s="496" t="s">
+      <c r="R19" s="556"/>
+      <c r="S19" s="556"/>
+      <c r="T19" s="519" t="s">
         <v>60</v>
       </c>
-      <c r="U19" s="497"/>
-      <c r="V19" s="497"/>
-      <c r="W19" s="489" t="s">
+      <c r="U19" s="520"/>
+      <c r="V19" s="520"/>
+      <c r="W19" s="512" t="s">
         <v>40</v>
       </c>
-      <c r="X19" s="490"/>
-      <c r="Y19" s="491"/>
+      <c r="X19" s="513"/>
+      <c r="Y19" s="514"/>
     </row>
     <row r="20" spans="1:25" s="36" customFormat="1" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
@@ -4892,7 +4895,7 @@
       <c r="D20" s="85"/>
       <c r="E20" s="85"/>
       <c r="F20" s="85"/>
-      <c r="G20" s="580"/>
+      <c r="G20" s="600"/>
       <c r="H20" s="76" t="s">
         <v>41</v>
       </c>
@@ -4905,16 +4908,16 @@
       <c r="K20" s="99"/>
       <c r="L20" s="83"/>
       <c r="M20" s="83"/>
-      <c r="N20" s="470" t="s">
+      <c r="N20" s="493" t="s">
         <v>64</v>
       </c>
-      <c r="O20" s="471"/>
-      <c r="P20" s="610"/>
-      <c r="Q20" s="563" t="s">
+      <c r="O20" s="494"/>
+      <c r="P20" s="640"/>
+      <c r="Q20" s="582" t="s">
         <v>65</v>
       </c>
-      <c r="R20" s="605"/>
-      <c r="S20" s="605"/>
+      <c r="R20" s="633"/>
+      <c r="S20" s="633"/>
       <c r="T20" s="104" t="s">
         <v>66</v>
       </c>
@@ -4927,10 +4930,10 @@
       <c r="W20" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="X20" s="510" t="s">
+      <c r="X20" s="529" t="s">
         <v>67</v>
       </c>
-      <c r="Y20" s="602"/>
+      <c r="Y20" s="630"/>
     </row>
     <row r="21" spans="1:25" s="36" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="37" t="s">
@@ -4941,7 +4944,7 @@
       <c r="D21" s="73"/>
       <c r="E21" s="73"/>
       <c r="F21" s="74"/>
-      <c r="G21" s="581" t="s">
+      <c r="G21" s="601" t="s">
         <v>69</v>
       </c>
       <c r="H21" s="96"/>
@@ -4956,16 +4959,16 @@
       <c r="Q21" s="113"/>
       <c r="R21" s="96"/>
       <c r="S21" s="114"/>
-      <c r="T21" s="496" t="s">
+      <c r="T21" s="519" t="s">
         <v>60</v>
       </c>
-      <c r="U21" s="497"/>
-      <c r="V21" s="497"/>
-      <c r="W21" s="503" t="s">
+      <c r="U21" s="520"/>
+      <c r="V21" s="520"/>
+      <c r="W21" s="533" t="s">
         <v>70</v>
       </c>
-      <c r="X21" s="603"/>
-      <c r="Y21" s="604"/>
+      <c r="X21" s="631"/>
+      <c r="Y21" s="632"/>
     </row>
     <row r="22" spans="1:25" s="36" customFormat="1" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="115"/>
@@ -4974,7 +4977,7 @@
       <c r="D22" s="116"/>
       <c r="E22" s="116"/>
       <c r="F22" s="116"/>
-      <c r="G22" s="582"/>
+      <c r="G22" s="602"/>
       <c r="H22" s="117"/>
       <c r="I22" s="117"/>
       <c r="J22" s="118"/>
@@ -5020,19 +5023,19 @@
     </row>
     <row r="23" spans="1:25" s="128" customFormat="1" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A23" s="120"/>
-      <c r="B23" s="553">
+      <c r="B23" s="571">
         <v>18</v>
       </c>
-      <c r="C23" s="553">
+      <c r="C23" s="571">
         <v>4</v>
       </c>
-      <c r="D23" s="553">
+      <c r="D23" s="571">
         <v>1</v>
       </c>
-      <c r="E23" s="553">
+      <c r="E23" s="571">
         <v>13</v>
       </c>
-      <c r="F23" s="553">
+      <c r="F23" s="571">
         <v>10</v>
       </c>
       <c r="G23" s="121"/>
@@ -5045,9 +5048,9 @@
       <c r="N23" s="125"/>
       <c r="O23" s="123"/>
       <c r="P23" s="124"/>
-      <c r="Q23" s="530"/>
-      <c r="R23" s="531"/>
-      <c r="S23" s="531"/>
+      <c r="Q23" s="546"/>
+      <c r="R23" s="547"/>
+      <c r="S23" s="547"/>
       <c r="T23" s="126"/>
       <c r="U23" s="123"/>
       <c r="V23" s="123"/>
@@ -5057,11 +5060,11 @@
     </row>
     <row r="24" spans="1:25" s="136" customFormat="1" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="129"/>
-      <c r="B24" s="554"/>
-      <c r="C24" s="554"/>
-      <c r="D24" s="554"/>
-      <c r="E24" s="554"/>
-      <c r="F24" s="554"/>
+      <c r="B24" s="572"/>
+      <c r="C24" s="572"/>
+      <c r="D24" s="572"/>
+      <c r="E24" s="572"/>
+      <c r="F24" s="572"/>
       <c r="G24" s="130" t="s">
         <v>22</v>
       </c>
@@ -5088,68 +5091,68 @@
       <c r="A25" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="555"/>
-      <c r="C25" s="555">
+      <c r="B25" s="573"/>
+      <c r="C25" s="573">
         <v>18</v>
       </c>
-      <c r="D25" s="555">
+      <c r="D25" s="573">
         <v>15</v>
       </c>
-      <c r="E25" s="555">
+      <c r="E25" s="573">
         <v>27</v>
       </c>
-      <c r="F25" s="555"/>
+      <c r="F25" s="573"/>
       <c r="G25" s="138"/>
       <c r="H25" s="139" t="s">
         <v>75</v>
       </c>
       <c r="I25" s="140"/>
       <c r="J25" s="141"/>
-      <c r="K25" s="489" t="s">
+      <c r="K25" s="512" t="s">
         <v>76</v>
       </c>
-      <c r="L25" s="490"/>
-      <c r="M25" s="502"/>
-      <c r="N25" s="492"/>
-      <c r="O25" s="493"/>
-      <c r="P25" s="516"/>
-      <c r="Q25" s="473" t="s">
+      <c r="L25" s="513"/>
+      <c r="M25" s="532"/>
+      <c r="N25" s="515"/>
+      <c r="O25" s="516"/>
+      <c r="P25" s="634"/>
+      <c r="Q25" s="496" t="s">
         <v>77</v>
       </c>
-      <c r="R25" s="474"/>
-      <c r="S25" s="474"/>
+      <c r="R25" s="497"/>
+      <c r="S25" s="497"/>
       <c r="T25" s="142"/>
       <c r="U25" s="57"/>
       <c r="V25" s="57"/>
-      <c r="W25" s="629" t="s">
+      <c r="W25" s="659" t="s">
         <v>78</v>
       </c>
-      <c r="X25" s="630"/>
-      <c r="Y25" s="631"/>
+      <c r="X25" s="660"/>
+      <c r="Y25" s="661"/>
     </row>
     <row r="26" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="554"/>
-      <c r="C26" s="554"/>
-      <c r="D26" s="554"/>
-      <c r="E26" s="554"/>
-      <c r="F26" s="554"/>
+      <c r="B26" s="572"/>
+      <c r="C26" s="572"/>
+      <c r="D26" s="572"/>
+      <c r="E26" s="572"/>
+      <c r="F26" s="572"/>
       <c r="G26" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="H26" s="560"/>
-      <c r="I26" s="477"/>
-      <c r="J26" s="478"/>
-      <c r="K26" s="621" t="s">
+      <c r="H26" s="579"/>
+      <c r="I26" s="500"/>
+      <c r="J26" s="501"/>
+      <c r="K26" s="651" t="s">
         <v>51</v>
       </c>
-      <c r="L26" s="549"/>
-      <c r="M26" s="550"/>
-      <c r="N26" s="521"/>
-      <c r="O26" s="522"/>
-      <c r="P26" s="523"/>
+      <c r="L26" s="565"/>
+      <c r="M26" s="566"/>
+      <c r="N26" s="536"/>
+      <c r="O26" s="537"/>
+      <c r="P26" s="635"/>
       <c r="Q26" s="68" t="s">
         <v>80</v>
       </c>
@@ -5176,54 +5179,54 @@
       <c r="A27" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="555"/>
-      <c r="C27" s="555"/>
-      <c r="D27" s="555"/>
-      <c r="E27" s="555"/>
-      <c r="F27" s="555"/>
+      <c r="B27" s="573"/>
+      <c r="C27" s="573"/>
+      <c r="D27" s="573"/>
+      <c r="E27" s="573"/>
+      <c r="F27" s="573"/>
       <c r="G27" s="138"/>
-      <c r="H27" s="560" t="s">
+      <c r="H27" s="579" t="s">
         <v>83</v>
       </c>
-      <c r="I27" s="477"/>
-      <c r="J27" s="477"/>
+      <c r="I27" s="500"/>
+      <c r="J27" s="500"/>
       <c r="K27" s="146"/>
       <c r="L27" s="147"/>
       <c r="M27" s="148"/>
       <c r="N27" s="149"/>
       <c r="O27" s="149"/>
       <c r="P27" s="150"/>
-      <c r="Q27" s="473" t="s">
+      <c r="Q27" s="496" t="s">
         <v>77</v>
       </c>
-      <c r="R27" s="474"/>
-      <c r="S27" s="474"/>
+      <c r="R27" s="497"/>
+      <c r="S27" s="497"/>
       <c r="T27" s="151"/>
       <c r="U27" s="61"/>
       <c r="V27" s="61"/>
-      <c r="W27" s="632" t="s">
+      <c r="W27" s="662" t="s">
         <v>84</v>
       </c>
-      <c r="X27" s="633"/>
-      <c r="Y27" s="634"/>
+      <c r="X27" s="663"/>
+      <c r="Y27" s="664"/>
     </row>
     <row r="28" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="554"/>
-      <c r="C28" s="554"/>
-      <c r="D28" s="554"/>
-      <c r="E28" s="554"/>
-      <c r="F28" s="554"/>
+      <c r="B28" s="572"/>
+      <c r="C28" s="572"/>
+      <c r="D28" s="572"/>
+      <c r="E28" s="572"/>
+      <c r="F28" s="572"/>
       <c r="G28" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="H28" s="569" t="s">
+      <c r="H28" s="590" t="s">
         <v>86</v>
       </c>
-      <c r="I28" s="510"/>
-      <c r="J28" s="510"/>
+      <c r="I28" s="529"/>
+      <c r="J28" s="529"/>
       <c r="K28" s="78" t="s">
         <v>87</v>
       </c>
@@ -5236,19 +5239,19 @@
       <c r="N28" s="77"/>
       <c r="O28" s="77"/>
       <c r="P28" s="132"/>
-      <c r="Q28" s="624" t="s">
+      <c r="Q28" s="654" t="s">
         <v>89</v>
       </c>
-      <c r="R28" s="625"/>
-      <c r="S28" s="625"/>
+      <c r="R28" s="655"/>
+      <c r="S28" s="655"/>
       <c r="T28" s="135"/>
       <c r="U28" s="93"/>
       <c r="V28" s="40"/>
-      <c r="W28" s="638" t="s">
+      <c r="W28" s="668" t="s">
         <v>90</v>
       </c>
-      <c r="X28" s="639"/>
-      <c r="Y28" s="640"/>
+      <c r="X28" s="669"/>
+      <c r="Y28" s="670"/>
     </row>
     <row r="29" spans="1:25" s="10" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="137" t="s">
@@ -5263,23 +5266,23 @@
       <c r="H29" s="153"/>
       <c r="I29" s="111"/>
       <c r="J29" s="154"/>
-      <c r="K29" s="489" t="s">
+      <c r="K29" s="512" t="s">
         <v>76</v>
       </c>
-      <c r="L29" s="490"/>
-      <c r="M29" s="502"/>
+      <c r="L29" s="513"/>
+      <c r="M29" s="532"/>
       <c r="N29" s="54"/>
       <c r="O29" s="54"/>
       <c r="P29" s="55"/>
-      <c r="Q29" s="623"/>
-      <c r="R29" s="609"/>
-      <c r="S29" s="609"/>
-      <c r="T29" s="559"/>
-      <c r="U29" s="490"/>
-      <c r="V29" s="490"/>
-      <c r="W29" s="635"/>
-      <c r="X29" s="636"/>
-      <c r="Y29" s="637"/>
+      <c r="Q29" s="653"/>
+      <c r="R29" s="639"/>
+      <c r="S29" s="639"/>
+      <c r="T29" s="577"/>
+      <c r="U29" s="513"/>
+      <c r="V29" s="513"/>
+      <c r="W29" s="665"/>
+      <c r="X29" s="666"/>
+      <c r="Y29" s="667"/>
     </row>
     <row r="30" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="137" t="s">
@@ -5342,28 +5345,28 @@
       <c r="E31" s="73"/>
       <c r="F31" s="74"/>
       <c r="G31" s="138"/>
-      <c r="H31" s="504"/>
-      <c r="I31" s="474"/>
-      <c r="J31" s="475"/>
-      <c r="K31" s="489" t="s">
+      <c r="H31" s="587"/>
+      <c r="I31" s="497"/>
+      <c r="J31" s="498"/>
+      <c r="K31" s="512" t="s">
         <v>76</v>
       </c>
-      <c r="L31" s="490"/>
-      <c r="M31" s="502"/>
-      <c r="N31" s="473"/>
-      <c r="O31" s="474"/>
-      <c r="P31" s="475"/>
-      <c r="Q31" s="473"/>
-      <c r="R31" s="474"/>
-      <c r="S31" s="474"/>
-      <c r="T31" s="559" t="s">
+      <c r="L31" s="513"/>
+      <c r="M31" s="532"/>
+      <c r="N31" s="496"/>
+      <c r="O31" s="497"/>
+      <c r="P31" s="498"/>
+      <c r="Q31" s="496"/>
+      <c r="R31" s="497"/>
+      <c r="S31" s="497"/>
+      <c r="T31" s="577" t="s">
         <v>92</v>
       </c>
-      <c r="U31" s="490"/>
-      <c r="V31" s="490"/>
-      <c r="W31" s="489"/>
-      <c r="X31" s="490"/>
-      <c r="Y31" s="491"/>
+      <c r="U31" s="513"/>
+      <c r="V31" s="513"/>
+      <c r="W31" s="512"/>
+      <c r="X31" s="513"/>
+      <c r="Y31" s="514"/>
     </row>
     <row r="32" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="137"/>
@@ -5375,14 +5378,14 @@
       <c r="G32" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="H32" s="567"/>
-      <c r="I32" s="548"/>
-      <c r="J32" s="568"/>
-      <c r="K32" s="621" t="s">
+      <c r="H32" s="588"/>
+      <c r="I32" s="564"/>
+      <c r="J32" s="589"/>
+      <c r="K32" s="651" t="s">
         <v>52</v>
       </c>
-      <c r="L32" s="549"/>
-      <c r="M32" s="550"/>
+      <c r="L32" s="565"/>
+      <c r="M32" s="566"/>
       <c r="N32" s="80"/>
       <c r="O32" s="81"/>
       <c r="P32" s="157"/>
@@ -5416,17 +5419,17 @@
       <c r="K33" s="146"/>
       <c r="L33" s="147"/>
       <c r="M33" s="148"/>
-      <c r="N33" s="473"/>
-      <c r="O33" s="474"/>
-      <c r="P33" s="475"/>
+      <c r="N33" s="496"/>
+      <c r="O33" s="497"/>
+      <c r="P33" s="498"/>
       <c r="Q33" s="50"/>
       <c r="R33" s="51"/>
       <c r="S33" s="51"/>
-      <c r="T33" s="559" t="s">
+      <c r="T33" s="577" t="s">
         <v>92</v>
       </c>
-      <c r="U33" s="490"/>
-      <c r="V33" s="490"/>
+      <c r="U33" s="513"/>
+      <c r="V33" s="513"/>
       <c r="W33" s="50"/>
       <c r="X33" s="51"/>
       <c r="Y33" s="158"/>
@@ -5474,19 +5477,19 @@
     </row>
     <row r="35" spans="1:25" s="128" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A35" s="120"/>
-      <c r="B35" s="553">
+      <c r="B35" s="571">
         <v>19</v>
       </c>
-      <c r="C35" s="553">
+      <c r="C35" s="571">
         <v>5</v>
       </c>
-      <c r="D35" s="553">
+      <c r="D35" s="571">
         <v>2</v>
       </c>
-      <c r="E35" s="583">
+      <c r="E35" s="605">
         <v>14</v>
       </c>
-      <c r="F35" s="583">
+      <c r="F35" s="605">
         <v>11</v>
       </c>
       <c r="G35" s="121"/>
@@ -5496,14 +5499,14 @@
       <c r="K35" s="110"/>
       <c r="L35" s="111"/>
       <c r="M35" s="156"/>
-      <c r="N35" s="530" t="s">
+      <c r="N35" s="546" t="s">
         <v>95</v>
       </c>
-      <c r="O35" s="531"/>
-      <c r="P35" s="531"/>
-      <c r="Q35" s="531"/>
-      <c r="R35" s="531"/>
-      <c r="S35" s="531"/>
+      <c r="O35" s="547"/>
+      <c r="P35" s="547"/>
+      <c r="Q35" s="547"/>
+      <c r="R35" s="547"/>
+      <c r="S35" s="547"/>
       <c r="T35" s="126"/>
       <c r="U35" s="123"/>
       <c r="V35" s="175"/>
@@ -5515,11 +5518,11 @@
       <c r="A36" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="B36" s="554"/>
-      <c r="C36" s="554"/>
-      <c r="D36" s="554"/>
-      <c r="E36" s="584"/>
-      <c r="F36" s="584"/>
+      <c r="B36" s="572"/>
+      <c r="C36" s="572"/>
+      <c r="D36" s="572"/>
+      <c r="E36" s="606"/>
+      <c r="F36" s="606"/>
       <c r="G36" s="130" t="s">
         <v>22</v>
       </c>
@@ -5533,8 +5536,8 @@
         <v>42</v>
       </c>
       <c r="O36" s="40"/>
-      <c r="P36" s="510"/>
-      <c r="Q36" s="510"/>
+      <c r="P36" s="529"/>
+      <c r="Q36" s="529"/>
       <c r="R36" s="181" t="s">
         <v>97</v>
       </c>
@@ -5550,52 +5553,52 @@
     </row>
     <row r="37" spans="1:25" s="10" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="137"/>
-      <c r="B37" s="555"/>
-      <c r="C37" s="555">
+      <c r="B37" s="573"/>
+      <c r="C37" s="573">
         <v>19</v>
       </c>
-      <c r="D37" s="555">
+      <c r="D37" s="573">
         <v>16</v>
       </c>
-      <c r="E37" s="555">
+      <c r="E37" s="573">
         <v>28</v>
       </c>
-      <c r="F37" s="555"/>
+      <c r="F37" s="573"/>
       <c r="G37" s="138"/>
-      <c r="H37" s="540" t="s">
+      <c r="H37" s="555" t="s">
         <v>98</v>
       </c>
-      <c r="I37" s="508"/>
-      <c r="J37" s="541"/>
+      <c r="I37" s="556"/>
+      <c r="J37" s="557"/>
       <c r="K37" s="53"/>
       <c r="L37" s="54"/>
       <c r="M37" s="54"/>
-      <c r="N37" s="473" t="s">
+      <c r="N37" s="496" t="s">
         <v>95</v>
       </c>
-      <c r="O37" s="474"/>
-      <c r="P37" s="475"/>
-      <c r="Q37" s="473" t="s">
+      <c r="O37" s="497"/>
+      <c r="P37" s="498"/>
+      <c r="Q37" s="496" t="s">
         <v>99</v>
       </c>
-      <c r="R37" s="474"/>
-      <c r="S37" s="474"/>
-      <c r="T37" s="511"/>
-      <c r="U37" s="512"/>
-      <c r="V37" s="628"/>
-      <c r="W37" s="473"/>
-      <c r="X37" s="474"/>
-      <c r="Y37" s="488"/>
+      <c r="R37" s="497"/>
+      <c r="S37" s="497"/>
+      <c r="T37" s="524"/>
+      <c r="U37" s="525"/>
+      <c r="V37" s="658"/>
+      <c r="W37" s="496"/>
+      <c r="X37" s="497"/>
+      <c r="Y37" s="511"/>
     </row>
     <row r="38" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="554"/>
-      <c r="C38" s="554"/>
-      <c r="D38" s="554"/>
-      <c r="E38" s="554"/>
-      <c r="F38" s="554"/>
+      <c r="B38" s="572"/>
+      <c r="C38" s="572"/>
+      <c r="D38" s="572"/>
+      <c r="E38" s="572"/>
+      <c r="F38" s="572"/>
       <c r="G38" s="130" t="s">
         <v>25</v>
       </c>
@@ -5638,51 +5641,51 @@
     </row>
     <row r="39" spans="1:25" s="10" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="137"/>
-      <c r="B39" s="555"/>
-      <c r="C39" s="555"/>
-      <c r="D39" s="555">
+      <c r="B39" s="573"/>
+      <c r="C39" s="573"/>
+      <c r="D39" s="573">
         <v>30</v>
       </c>
-      <c r="E39" s="555"/>
+      <c r="E39" s="573"/>
       <c r="F39" s="190"/>
       <c r="G39" s="138"/>
       <c r="H39" s="191" t="s">
         <v>103</v>
       </c>
-      <c r="I39" s="561" t="s">
+      <c r="I39" s="580" t="s">
         <v>104</v>
       </c>
-      <c r="J39" s="562"/>
-      <c r="K39" s="473" t="s">
+      <c r="J39" s="581"/>
+      <c r="K39" s="496" t="s">
         <v>48</v>
       </c>
-      <c r="L39" s="474"/>
-      <c r="M39" s="475"/>
-      <c r="N39" s="473" t="s">
+      <c r="L39" s="497"/>
+      <c r="M39" s="498"/>
+      <c r="N39" s="496" t="s">
         <v>39</v>
       </c>
-      <c r="O39" s="474"/>
-      <c r="P39" s="475"/>
-      <c r="Q39" s="473" t="s">
+      <c r="O39" s="497"/>
+      <c r="P39" s="498"/>
+      <c r="Q39" s="496" t="s">
         <v>95</v>
       </c>
-      <c r="R39" s="474"/>
-      <c r="S39" s="474"/>
-      <c r="T39" s="511"/>
-      <c r="U39" s="512"/>
-      <c r="V39" s="628"/>
-      <c r="W39" s="489"/>
-      <c r="X39" s="490"/>
-      <c r="Y39" s="491"/>
+      <c r="R39" s="497"/>
+      <c r="S39" s="497"/>
+      <c r="T39" s="524"/>
+      <c r="U39" s="525"/>
+      <c r="V39" s="658"/>
+      <c r="W39" s="512"/>
+      <c r="X39" s="513"/>
+      <c r="Y39" s="514"/>
     </row>
     <row r="40" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="554"/>
-      <c r="C40" s="554"/>
-      <c r="D40" s="554"/>
-      <c r="E40" s="554"/>
+      <c r="B40" s="572"/>
+      <c r="C40" s="572"/>
+      <c r="D40" s="572"/>
+      <c r="E40" s="572"/>
       <c r="F40" s="38"/>
       <c r="G40" s="130" t="s">
         <v>35</v>
@@ -5733,31 +5736,31 @@
       <c r="H41" s="198" t="s">
         <v>108</v>
       </c>
-      <c r="I41" s="563" t="s">
+      <c r="I41" s="582" t="s">
         <v>109</v>
       </c>
-      <c r="J41" s="564"/>
-      <c r="K41" s="621" t="s">
+      <c r="J41" s="583"/>
+      <c r="K41" s="651" t="s">
         <v>51</v>
       </c>
-      <c r="L41" s="549"/>
-      <c r="M41" s="550"/>
-      <c r="N41" s="473" t="s">
+      <c r="L41" s="565"/>
+      <c r="M41" s="566"/>
+      <c r="N41" s="496" t="s">
         <v>39</v>
       </c>
-      <c r="O41" s="474"/>
-      <c r="P41" s="475"/>
-      <c r="Q41" s="643"/>
-      <c r="R41" s="644"/>
-      <c r="S41" s="644"/>
+      <c r="O41" s="497"/>
+      <c r="P41" s="498"/>
+      <c r="Q41" s="673"/>
+      <c r="R41" s="674"/>
+      <c r="S41" s="674"/>
       <c r="T41" s="199"/>
       <c r="U41" s="200"/>
       <c r="V41" s="201"/>
-      <c r="W41" s="495" t="s">
+      <c r="W41" s="518" t="s">
         <v>110</v>
       </c>
-      <c r="X41" s="474"/>
-      <c r="Y41" s="488"/>
+      <c r="X41" s="497"/>
+      <c r="Y41" s="511"/>
     </row>
     <row r="42" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="137" t="s">
@@ -5820,25 +5823,25 @@
       <c r="E43" s="73"/>
       <c r="F43" s="74"/>
       <c r="G43" s="138"/>
-      <c r="H43" s="537" t="s">
+      <c r="H43" s="552" t="s">
         <v>114</v>
       </c>
-      <c r="I43" s="538"/>
-      <c r="J43" s="539"/>
-      <c r="K43" s="473" t="s">
+      <c r="I43" s="553"/>
+      <c r="J43" s="554"/>
+      <c r="K43" s="496" t="s">
         <v>48</v>
       </c>
-      <c r="L43" s="474"/>
-      <c r="M43" s="475"/>
+      <c r="L43" s="497"/>
+      <c r="M43" s="498"/>
       <c r="N43" s="53"/>
       <c r="O43" s="54"/>
       <c r="P43" s="55"/>
       <c r="Q43" s="50"/>
       <c r="R43" s="207"/>
       <c r="S43" s="207"/>
-      <c r="T43" s="527"/>
-      <c r="U43" s="528"/>
-      <c r="V43" s="529"/>
+      <c r="T43" s="543"/>
+      <c r="U43" s="544"/>
+      <c r="V43" s="545"/>
       <c r="W43" s="208" t="s">
         <v>110</v>
       </c>
@@ -5878,9 +5881,9 @@
       <c r="T44" s="203"/>
       <c r="U44" s="212"/>
       <c r="V44" s="213"/>
-      <c r="W44" s="470"/>
-      <c r="X44" s="471"/>
-      <c r="Y44" s="472"/>
+      <c r="W44" s="493"/>
+      <c r="X44" s="494"/>
+      <c r="Y44" s="495"/>
     </row>
     <row r="45" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="137"/>
@@ -5893,23 +5896,23 @@
       <c r="H45" s="214"/>
       <c r="I45" s="109"/>
       <c r="J45" s="112"/>
-      <c r="K45" s="621" t="s">
+      <c r="K45" s="651" t="s">
         <v>52</v>
       </c>
-      <c r="L45" s="549"/>
-      <c r="M45" s="550"/>
+      <c r="L45" s="565"/>
+      <c r="M45" s="566"/>
       <c r="N45" s="100"/>
       <c r="O45" s="87"/>
       <c r="P45" s="154"/>
       <c r="Q45" s="100"/>
       <c r="R45" s="87"/>
       <c r="S45" s="111"/>
-      <c r="T45" s="524"/>
-      <c r="U45" s="525"/>
-      <c r="V45" s="526"/>
-      <c r="W45" s="470"/>
-      <c r="X45" s="471"/>
-      <c r="Y45" s="472"/>
+      <c r="T45" s="540"/>
+      <c r="U45" s="541"/>
+      <c r="V45" s="542"/>
+      <c r="W45" s="493"/>
+      <c r="X45" s="494"/>
+      <c r="Y45" s="495"/>
     </row>
     <row r="46" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="159"/>
@@ -5954,28 +5957,28 @@
     </row>
     <row r="47" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A47" s="120"/>
-      <c r="B47" s="553">
+      <c r="B47" s="571">
         <v>20</v>
       </c>
-      <c r="C47" s="553">
+      <c r="C47" s="571">
         <v>6</v>
       </c>
-      <c r="D47" s="553">
+      <c r="D47" s="571">
         <v>3</v>
       </c>
-      <c r="E47" s="585">
+      <c r="E47" s="603">
         <v>1</v>
       </c>
-      <c r="F47" s="585">
+      <c r="F47" s="603">
         <v>12</v>
       </c>
       <c r="G47" s="222"/>
-      <c r="H47" s="653"/>
-      <c r="I47" s="654"/>
-      <c r="J47" s="655"/>
-      <c r="K47" s="530"/>
-      <c r="L47" s="531"/>
-      <c r="M47" s="532"/>
+      <c r="H47" s="675"/>
+      <c r="I47" s="676"/>
+      <c r="J47" s="677"/>
+      <c r="K47" s="546"/>
+      <c r="L47" s="547"/>
+      <c r="M47" s="548"/>
       <c r="N47" s="110"/>
       <c r="O47" s="111"/>
       <c r="P47" s="154"/>
@@ -5991,11 +5994,11 @@
     </row>
     <row r="48" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="177"/>
-      <c r="B48" s="554"/>
-      <c r="C48" s="554"/>
-      <c r="D48" s="554"/>
-      <c r="E48" s="586"/>
-      <c r="F48" s="586"/>
+      <c r="B48" s="572"/>
+      <c r="C48" s="572"/>
+      <c r="D48" s="572"/>
+      <c r="E48" s="604"/>
+      <c r="F48" s="604"/>
       <c r="G48" s="225" t="s">
         <v>22</v>
       </c>
@@ -6022,37 +6025,37 @@
       <c r="A49" s="177" t="s">
         <v>116</v>
       </c>
-      <c r="B49" s="555"/>
-      <c r="C49" s="555">
+      <c r="B49" s="573"/>
+      <c r="C49" s="573">
         <v>20</v>
       </c>
-      <c r="D49" s="555">
+      <c r="D49" s="573">
         <v>17</v>
       </c>
-      <c r="E49" s="555">
+      <c r="E49" s="573">
         <v>15</v>
       </c>
       <c r="F49" s="49"/>
       <c r="G49" s="229"/>
-      <c r="H49" s="540" t="s">
+      <c r="H49" s="555" t="s">
         <v>117</v>
       </c>
-      <c r="I49" s="508"/>
-      <c r="J49" s="541"/>
-      <c r="K49" s="473"/>
-      <c r="L49" s="474"/>
-      <c r="M49" s="475"/>
-      <c r="N49" s="489"/>
-      <c r="O49" s="490"/>
-      <c r="P49" s="502"/>
-      <c r="Q49" s="489" t="s">
+      <c r="I49" s="556"/>
+      <c r="J49" s="557"/>
+      <c r="K49" s="496"/>
+      <c r="L49" s="497"/>
+      <c r="M49" s="498"/>
+      <c r="N49" s="512"/>
+      <c r="O49" s="513"/>
+      <c r="P49" s="532"/>
+      <c r="Q49" s="512" t="s">
         <v>118</v>
       </c>
-      <c r="R49" s="490"/>
-      <c r="S49" s="490"/>
-      <c r="T49" s="511"/>
-      <c r="U49" s="512"/>
-      <c r="V49" s="512"/>
+      <c r="R49" s="513"/>
+      <c r="S49" s="513"/>
+      <c r="T49" s="524"/>
+      <c r="U49" s="525"/>
+      <c r="V49" s="525"/>
       <c r="W49" s="230"/>
       <c r="X49" s="231"/>
       <c r="Y49" s="232"/>
@@ -6061,10 +6064,10 @@
       <c r="A50" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="554"/>
-      <c r="C50" s="554"/>
-      <c r="D50" s="554"/>
-      <c r="E50" s="554"/>
+      <c r="B50" s="572"/>
+      <c r="C50" s="572"/>
+      <c r="D50" s="572"/>
+      <c r="E50" s="572"/>
       <c r="F50" s="38"/>
       <c r="G50" s="225" t="s">
         <v>25</v>
@@ -6072,10 +6075,10 @@
       <c r="H50" s="233" t="s">
         <v>57</v>
       </c>
-      <c r="I50" s="549" t="s">
+      <c r="I50" s="565" t="s">
         <v>119</v>
       </c>
-      <c r="J50" s="550"/>
+      <c r="J50" s="566"/>
       <c r="K50" s="68"/>
       <c r="L50" s="93"/>
       <c r="M50" s="132"/>
@@ -6102,52 +6105,52 @@
       <c r="A51" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="555"/>
-      <c r="C51" s="555"/>
-      <c r="D51" s="555"/>
-      <c r="E51" s="555">
+      <c r="B51" s="573"/>
+      <c r="C51" s="573"/>
+      <c r="D51" s="573"/>
+      <c r="E51" s="573">
         <v>29</v>
       </c>
-      <c r="F51" s="555"/>
+      <c r="F51" s="573"/>
       <c r="G51" s="229"/>
       <c r="H51" s="191" t="s">
         <v>122</v>
       </c>
-      <c r="I51" s="507" t="s">
+      <c r="I51" s="584" t="s">
         <v>37</v>
       </c>
-      <c r="J51" s="541"/>
-      <c r="K51" s="473" t="s">
+      <c r="J51" s="557"/>
+      <c r="K51" s="496" t="s">
         <v>123</v>
       </c>
-      <c r="L51" s="474"/>
-      <c r="M51" s="475"/>
-      <c r="N51" s="489" t="s">
+      <c r="L51" s="497"/>
+      <c r="M51" s="498"/>
+      <c r="N51" s="512" t="s">
         <v>118</v>
       </c>
-      <c r="O51" s="490"/>
-      <c r="P51" s="502"/>
-      <c r="Q51" s="473" t="s">
+      <c r="O51" s="513"/>
+      <c r="P51" s="532"/>
+      <c r="Q51" s="496" t="s">
         <v>124</v>
       </c>
-      <c r="R51" s="474"/>
-      <c r="S51" s="474"/>
-      <c r="T51" s="513"/>
-      <c r="U51" s="514"/>
-      <c r="V51" s="515"/>
-      <c r="W51" s="495"/>
-      <c r="X51" s="474"/>
-      <c r="Y51" s="488"/>
+      <c r="R51" s="497"/>
+      <c r="S51" s="497"/>
+      <c r="T51" s="526"/>
+      <c r="U51" s="527"/>
+      <c r="V51" s="528"/>
+      <c r="W51" s="518"/>
+      <c r="X51" s="497"/>
+      <c r="Y51" s="511"/>
     </row>
     <row r="52" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="B52" s="554"/>
-      <c r="C52" s="554"/>
-      <c r="D52" s="554"/>
-      <c r="E52" s="554"/>
-      <c r="F52" s="554"/>
+      <c r="B52" s="572"/>
+      <c r="C52" s="572"/>
+      <c r="D52" s="572"/>
+      <c r="E52" s="572"/>
+      <c r="F52" s="572"/>
       <c r="G52" s="238" t="s">
         <v>35</v>
       </c>
@@ -6194,60 +6197,60 @@
       <c r="A53" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="555"/>
-      <c r="C53" s="555"/>
-      <c r="D53" s="555"/>
-      <c r="E53" s="555"/>
-      <c r="F53" s="555"/>
+      <c r="B53" s="573"/>
+      <c r="C53" s="573"/>
+      <c r="D53" s="573"/>
+      <c r="E53" s="573"/>
+      <c r="F53" s="573"/>
       <c r="G53" s="242"/>
       <c r="H53" s="243" t="s">
         <v>128</v>
       </c>
-      <c r="I53" s="551" t="s">
+      <c r="I53" s="567" t="s">
         <v>129</v>
       </c>
-      <c r="J53" s="552"/>
-      <c r="K53" s="489" t="s">
+      <c r="J53" s="568"/>
+      <c r="K53" s="512" t="s">
         <v>130</v>
       </c>
-      <c r="L53" s="490"/>
-      <c r="M53" s="502"/>
-      <c r="N53" s="489" t="s">
+      <c r="L53" s="513"/>
+      <c r="M53" s="532"/>
+      <c r="N53" s="512" t="s">
         <v>118</v>
       </c>
-      <c r="O53" s="490"/>
-      <c r="P53" s="502"/>
-      <c r="Q53" s="473" t="s">
+      <c r="O53" s="513"/>
+      <c r="P53" s="532"/>
+      <c r="Q53" s="496" t="s">
         <v>124</v>
       </c>
-      <c r="R53" s="474"/>
-      <c r="S53" s="474"/>
-      <c r="T53" s="513"/>
-      <c r="U53" s="514"/>
-      <c r="V53" s="515"/>
-      <c r="W53" s="495"/>
-      <c r="X53" s="474"/>
-      <c r="Y53" s="488"/>
+      <c r="R53" s="497"/>
+      <c r="S53" s="497"/>
+      <c r="T53" s="526"/>
+      <c r="U53" s="527"/>
+      <c r="V53" s="528"/>
+      <c r="W53" s="518"/>
+      <c r="X53" s="497"/>
+      <c r="Y53" s="511"/>
     </row>
     <row r="54" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="B54" s="554"/>
-      <c r="C54" s="554"/>
-      <c r="D54" s="554"/>
-      <c r="E54" s="554"/>
-      <c r="F54" s="554"/>
+      <c r="B54" s="572"/>
+      <c r="C54" s="572"/>
+      <c r="D54" s="572"/>
+      <c r="E54" s="572"/>
+      <c r="F54" s="572"/>
       <c r="G54" s="238" t="s">
         <v>47</v>
       </c>
       <c r="H54" s="244" t="s">
         <v>131</v>
       </c>
-      <c r="I54" s="565" t="s">
+      <c r="I54" s="585" t="s">
         <v>132</v>
       </c>
-      <c r="J54" s="566"/>
+      <c r="J54" s="586"/>
       <c r="K54" s="80" t="s">
         <v>133</v>
       </c>
@@ -6292,27 +6295,27 @@
       <c r="E55" s="73"/>
       <c r="F55" s="73"/>
       <c r="G55" s="229"/>
-      <c r="H55" s="504" t="s">
+      <c r="H55" s="587" t="s">
         <v>37</v>
       </c>
-      <c r="I55" s="474"/>
-      <c r="J55" s="475"/>
-      <c r="K55" s="489" t="s">
+      <c r="I55" s="497"/>
+      <c r="J55" s="498"/>
+      <c r="K55" s="512" t="s">
         <v>130</v>
       </c>
-      <c r="L55" s="490"/>
-      <c r="M55" s="502"/>
-      <c r="N55" s="489" t="s">
+      <c r="L55" s="513"/>
+      <c r="M55" s="532"/>
+      <c r="N55" s="512" t="s">
         <v>135</v>
       </c>
-      <c r="O55" s="490"/>
-      <c r="P55" s="502"/>
+      <c r="O55" s="513"/>
+      <c r="P55" s="532"/>
       <c r="Q55" s="56"/>
       <c r="R55" s="57"/>
       <c r="S55" s="57"/>
-      <c r="T55" s="524"/>
-      <c r="U55" s="525"/>
-      <c r="V55" s="526"/>
+      <c r="T55" s="540"/>
+      <c r="U55" s="541"/>
+      <c r="V55" s="542"/>
       <c r="W55" s="208"/>
       <c r="X55" s="57"/>
       <c r="Y55" s="58"/>
@@ -6360,9 +6363,9 @@
       <c r="T56" s="203"/>
       <c r="U56" s="204"/>
       <c r="V56" s="246"/>
-      <c r="W56" s="470"/>
-      <c r="X56" s="471"/>
-      <c r="Y56" s="472"/>
+      <c r="W56" s="493"/>
+      <c r="X56" s="494"/>
+      <c r="Y56" s="495"/>
     </row>
     <row r="57" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="137"/>
@@ -6375,23 +6378,23 @@
       <c r="H57" s="214"/>
       <c r="I57" s="109"/>
       <c r="J57" s="102"/>
-      <c r="K57" s="473" t="s">
+      <c r="K57" s="496" t="s">
         <v>138</v>
       </c>
-      <c r="L57" s="474"/>
-      <c r="M57" s="475"/>
-      <c r="N57" s="473"/>
-      <c r="O57" s="474"/>
-      <c r="P57" s="475"/>
+      <c r="L57" s="497"/>
+      <c r="M57" s="498"/>
+      <c r="N57" s="496"/>
+      <c r="O57" s="497"/>
+      <c r="P57" s="498"/>
       <c r="Q57" s="196"/>
       <c r="R57" s="247"/>
       <c r="S57" s="248"/>
-      <c r="T57" s="524"/>
-      <c r="U57" s="525"/>
-      <c r="V57" s="526"/>
-      <c r="W57" s="470"/>
-      <c r="X57" s="471"/>
-      <c r="Y57" s="472"/>
+      <c r="T57" s="540"/>
+      <c r="U57" s="541"/>
+      <c r="V57" s="542"/>
+      <c r="W57" s="493"/>
+      <c r="X57" s="494"/>
+      <c r="Y57" s="495"/>
     </row>
     <row r="58" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="159"/>
@@ -6430,25 +6433,25 @@
     </row>
     <row r="59" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A59" s="120"/>
-      <c r="B59" s="553">
+      <c r="B59" s="571">
         <v>21</v>
       </c>
-      <c r="C59" s="583">
+      <c r="C59" s="605">
         <v>7</v>
       </c>
-      <c r="D59" s="553">
+      <c r="D59" s="571">
         <v>4</v>
       </c>
-      <c r="E59" s="585">
+      <c r="E59" s="603">
         <v>2</v>
       </c>
-      <c r="F59" s="585">
+      <c r="F59" s="603">
         <v>13</v>
       </c>
       <c r="G59" s="121"/>
-      <c r="H59" s="650"/>
-      <c r="I59" s="651"/>
-      <c r="J59" s="652"/>
+      <c r="H59" s="617"/>
+      <c r="I59" s="618"/>
+      <c r="J59" s="619"/>
       <c r="K59" s="253"/>
       <c r="L59" s="254"/>
       <c r="M59" s="254"/>
@@ -6458,20 +6461,20 @@
       <c r="Q59" s="125"/>
       <c r="R59" s="111"/>
       <c r="S59" s="109"/>
-      <c r="T59" s="622"/>
-      <c r="U59" s="531"/>
-      <c r="V59" s="531"/>
+      <c r="T59" s="652"/>
+      <c r="U59" s="547"/>
+      <c r="V59" s="547"/>
       <c r="W59" s="125"/>
       <c r="X59" s="111"/>
       <c r="Y59" s="255"/>
     </row>
     <row r="60" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="177"/>
-      <c r="B60" s="554"/>
-      <c r="C60" s="584"/>
-      <c r="D60" s="554"/>
-      <c r="E60" s="586"/>
-      <c r="F60" s="586"/>
+      <c r="B60" s="572"/>
+      <c r="C60" s="606"/>
+      <c r="D60" s="572"/>
+      <c r="E60" s="604"/>
+      <c r="F60" s="604"/>
       <c r="G60" s="130" t="s">
         <v>22</v>
       </c>
@@ -6498,17 +6501,17 @@
       <c r="A61" s="177" t="s">
         <v>21</v>
       </c>
-      <c r="B61" s="555"/>
-      <c r="C61" s="555">
+      <c r="B61" s="573"/>
+      <c r="C61" s="573">
         <v>21</v>
       </c>
-      <c r="D61" s="555">
+      <c r="D61" s="573">
         <v>18</v>
       </c>
-      <c r="E61" s="555">
+      <c r="E61" s="573">
         <v>16</v>
       </c>
-      <c r="F61" s="555"/>
+      <c r="F61" s="573"/>
       <c r="G61" s="138"/>
       <c r="H61" s="139"/>
       <c r="I61" s="140"/>
@@ -6516,15 +6519,15 @@
       <c r="K61" s="56"/>
       <c r="L61" s="57"/>
       <c r="M61" s="57"/>
-      <c r="N61" s="473"/>
-      <c r="O61" s="474"/>
-      <c r="P61" s="474"/>
-      <c r="Q61" s="474"/>
-      <c r="R61" s="474"/>
-      <c r="S61" s="474"/>
-      <c r="T61" s="608"/>
-      <c r="U61" s="609"/>
-      <c r="V61" s="609"/>
+      <c r="N61" s="496"/>
+      <c r="O61" s="497"/>
+      <c r="P61" s="497"/>
+      <c r="Q61" s="497"/>
+      <c r="R61" s="497"/>
+      <c r="S61" s="497"/>
+      <c r="T61" s="638"/>
+      <c r="U61" s="639"/>
+      <c r="V61" s="639"/>
       <c r="W61" s="56"/>
       <c r="X61" s="57"/>
       <c r="Y61" s="261"/>
@@ -6533,29 +6536,29 @@
       <c r="A62" s="137" t="s">
         <v>140</v>
       </c>
-      <c r="B62" s="554"/>
-      <c r="C62" s="554"/>
-      <c r="D62" s="554"/>
-      <c r="E62" s="554"/>
-      <c r="F62" s="554"/>
+      <c r="B62" s="572"/>
+      <c r="C62" s="572"/>
+      <c r="D62" s="572"/>
+      <c r="E62" s="572"/>
+      <c r="F62" s="572"/>
       <c r="G62" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="H62" s="560"/>
-      <c r="I62" s="477"/>
-      <c r="J62" s="478"/>
+      <c r="H62" s="579"/>
+      <c r="I62" s="500"/>
+      <c r="J62" s="501"/>
       <c r="K62" s="88"/>
       <c r="L62" s="109"/>
       <c r="M62" s="109"/>
       <c r="N62" s="68"/>
       <c r="O62" s="83"/>
-      <c r="P62" s="510"/>
-      <c r="Q62" s="510"/>
+      <c r="P62" s="529"/>
+      <c r="Q62" s="529"/>
       <c r="R62" s="83"/>
       <c r="S62" s="83"/>
       <c r="T62" s="69"/>
-      <c r="U62" s="510"/>
-      <c r="V62" s="536"/>
+      <c r="U62" s="529"/>
+      <c r="V62" s="531"/>
       <c r="W62" s="99"/>
       <c r="X62" s="83"/>
       <c r="Y62" s="107"/>
@@ -6564,33 +6567,33 @@
       <c r="A63" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="B63" s="555"/>
-      <c r="C63" s="555"/>
-      <c r="D63" s="555"/>
-      <c r="E63" s="555">
+      <c r="B63" s="573"/>
+      <c r="C63" s="573"/>
+      <c r="D63" s="573"/>
+      <c r="E63" s="573">
         <v>30</v>
       </c>
-      <c r="F63" s="555"/>
+      <c r="F63" s="573"/>
       <c r="G63" s="138"/>
-      <c r="H63" s="645"/>
-      <c r="I63" s="646"/>
-      <c r="J63" s="647"/>
+      <c r="H63" s="610"/>
+      <c r="I63" s="611"/>
+      <c r="J63" s="612"/>
       <c r="K63" s="262" t="s">
         <v>75</v>
       </c>
       <c r="L63" s="140"/>
       <c r="M63" s="141"/>
-      <c r="N63" s="473" t="s">
+      <c r="N63" s="496" t="s">
         <v>141</v>
       </c>
-      <c r="O63" s="474"/>
-      <c r="P63" s="474"/>
-      <c r="Q63" s="474"/>
-      <c r="R63" s="474"/>
-      <c r="S63" s="474"/>
-      <c r="T63" s="608"/>
-      <c r="U63" s="609"/>
-      <c r="V63" s="609"/>
+      <c r="O63" s="497"/>
+      <c r="P63" s="497"/>
+      <c r="Q63" s="497"/>
+      <c r="R63" s="497"/>
+      <c r="S63" s="497"/>
+      <c r="T63" s="638"/>
+      <c r="U63" s="639"/>
+      <c r="V63" s="639"/>
       <c r="W63" s="155"/>
       <c r="X63" s="156"/>
       <c r="Y63" s="263"/>
@@ -6599,26 +6602,26 @@
       <c r="A64" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="B64" s="554"/>
-      <c r="C64" s="554"/>
-      <c r="D64" s="554"/>
-      <c r="E64" s="554"/>
-      <c r="F64" s="554"/>
+      <c r="B64" s="572"/>
+      <c r="C64" s="572"/>
+      <c r="D64" s="572"/>
+      <c r="E64" s="572"/>
+      <c r="F64" s="572"/>
       <c r="G64" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="H64" s="569"/>
-      <c r="I64" s="510"/>
-      <c r="J64" s="536"/>
-      <c r="K64" s="476"/>
-      <c r="L64" s="477"/>
-      <c r="M64" s="478"/>
+      <c r="H64" s="590"/>
+      <c r="I64" s="529"/>
+      <c r="J64" s="531"/>
+      <c r="K64" s="499"/>
+      <c r="L64" s="500"/>
+      <c r="M64" s="501"/>
       <c r="N64" s="68" t="s">
         <v>101</v>
       </c>
       <c r="O64" s="83"/>
-      <c r="P64" s="510"/>
-      <c r="Q64" s="510"/>
+      <c r="P64" s="529"/>
+      <c r="Q64" s="529"/>
       <c r="R64" s="83" t="s">
         <v>43</v>
       </c>
@@ -6626,8 +6629,8 @@
         <v>31</v>
       </c>
       <c r="T64" s="82"/>
-      <c r="U64" s="471"/>
-      <c r="V64" s="610"/>
+      <c r="U64" s="494"/>
+      <c r="V64" s="640"/>
       <c r="W64" s="68"/>
       <c r="X64" s="40"/>
       <c r="Y64" s="72"/>
@@ -6642,30 +6645,30 @@
       <c r="E65" s="73"/>
       <c r="F65" s="74"/>
       <c r="G65" s="138"/>
-      <c r="H65" s="649"/>
-      <c r="I65" s="598"/>
-      <c r="J65" s="598"/>
-      <c r="K65" s="476" t="s">
+      <c r="H65" s="615"/>
+      <c r="I65" s="616"/>
+      <c r="J65" s="616"/>
+      <c r="K65" s="499" t="s">
         <v>142</v>
       </c>
-      <c r="L65" s="477"/>
-      <c r="M65" s="478"/>
-      <c r="N65" s="473" t="s">
+      <c r="L65" s="500"/>
+      <c r="M65" s="501"/>
+      <c r="N65" s="496" t="s">
         <v>143</v>
       </c>
-      <c r="O65" s="474"/>
-      <c r="P65" s="475"/>
-      <c r="Q65" s="473" t="s">
+      <c r="O65" s="497"/>
+      <c r="P65" s="498"/>
+      <c r="Q65" s="496" t="s">
         <v>141</v>
       </c>
-      <c r="R65" s="474"/>
-      <c r="S65" s="474"/>
-      <c r="T65" s="588"/>
-      <c r="U65" s="474"/>
-      <c r="V65" s="475"/>
-      <c r="W65" s="473"/>
-      <c r="X65" s="474"/>
-      <c r="Y65" s="488"/>
+      <c r="R65" s="497"/>
+      <c r="S65" s="497"/>
+      <c r="T65" s="530"/>
+      <c r="U65" s="497"/>
+      <c r="V65" s="498"/>
+      <c r="W65" s="496"/>
+      <c r="X65" s="497"/>
+      <c r="Y65" s="511"/>
     </row>
     <row r="66" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="137" t="s">
@@ -6679,14 +6682,14 @@
       <c r="G66" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="H66" s="648"/>
-      <c r="I66" s="600"/>
-      <c r="J66" s="600"/>
-      <c r="K66" s="509" t="s">
+      <c r="H66" s="613"/>
+      <c r="I66" s="614"/>
+      <c r="J66" s="614"/>
+      <c r="K66" s="595" t="s">
         <v>145</v>
       </c>
-      <c r="L66" s="510"/>
-      <c r="M66" s="536"/>
+      <c r="L66" s="529"/>
+      <c r="M66" s="531"/>
       <c r="N66" s="80" t="s">
         <v>146</v>
       </c>
@@ -6708,8 +6711,8 @@
       <c r="T66" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="U66" s="510"/>
-      <c r="V66" s="536"/>
+      <c r="U66" s="529"/>
+      <c r="V66" s="531"/>
       <c r="W66" s="68"/>
       <c r="X66" s="93"/>
       <c r="Y66" s="94"/>
@@ -6727,27 +6730,27 @@
       <c r="H67" s="265"/>
       <c r="I67" s="266"/>
       <c r="J67" s="267"/>
-      <c r="K67" s="473"/>
-      <c r="L67" s="474"/>
-      <c r="M67" s="475"/>
-      <c r="N67" s="473" t="s">
+      <c r="K67" s="496"/>
+      <c r="L67" s="497"/>
+      <c r="M67" s="498"/>
+      <c r="N67" s="496" t="s">
         <v>141</v>
       </c>
-      <c r="O67" s="474"/>
-      <c r="P67" s="475"/>
-      <c r="Q67" s="473" t="s">
+      <c r="O67" s="497"/>
+      <c r="P67" s="498"/>
+      <c r="Q67" s="496" t="s">
         <v>143</v>
       </c>
-      <c r="R67" s="474"/>
-      <c r="S67" s="474"/>
-      <c r="T67" s="496" t="s">
+      <c r="R67" s="497"/>
+      <c r="S67" s="497"/>
+      <c r="T67" s="519" t="s">
         <v>147</v>
       </c>
-      <c r="U67" s="497"/>
-      <c r="V67" s="497"/>
-      <c r="W67" s="473"/>
-      <c r="X67" s="474"/>
-      <c r="Y67" s="488"/>
+      <c r="U67" s="520"/>
+      <c r="V67" s="520"/>
+      <c r="W67" s="496"/>
+      <c r="X67" s="497"/>
+      <c r="Y67" s="511"/>
     </row>
     <row r="68" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="137"/>
@@ -6810,19 +6813,19 @@
       <c r="K69" s="53"/>
       <c r="L69" s="54"/>
       <c r="M69" s="54"/>
-      <c r="N69" s="473" t="s">
+      <c r="N69" s="496" t="s">
         <v>149</v>
       </c>
-      <c r="O69" s="474"/>
-      <c r="P69" s="474"/>
-      <c r="Q69" s="474"/>
-      <c r="R69" s="474"/>
-      <c r="S69" s="474"/>
-      <c r="T69" s="496" t="s">
+      <c r="O69" s="497"/>
+      <c r="P69" s="497"/>
+      <c r="Q69" s="497"/>
+      <c r="R69" s="497"/>
+      <c r="S69" s="497"/>
+      <c r="T69" s="519" t="s">
         <v>150</v>
       </c>
-      <c r="U69" s="497"/>
-      <c r="V69" s="614"/>
+      <c r="U69" s="520"/>
+      <c r="V69" s="644"/>
       <c r="W69" s="50"/>
       <c r="X69" s="51"/>
       <c r="Y69" s="158"/>
@@ -6870,25 +6873,25 @@
     </row>
     <row r="71" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A71" s="120"/>
-      <c r="B71" s="583">
+      <c r="B71" s="605">
         <v>22</v>
       </c>
-      <c r="C71" s="585">
+      <c r="C71" s="603">
         <v>8</v>
       </c>
-      <c r="D71" s="553">
+      <c r="D71" s="571">
         <v>5</v>
       </c>
-      <c r="E71" s="585">
+      <c r="E71" s="603">
         <v>3</v>
       </c>
-      <c r="F71" s="585">
+      <c r="F71" s="603">
         <v>14</v>
       </c>
       <c r="G71" s="121"/>
-      <c r="H71" s="589"/>
-      <c r="I71" s="543"/>
-      <c r="J71" s="541"/>
+      <c r="H71" s="608"/>
+      <c r="I71" s="559"/>
+      <c r="J71" s="557"/>
       <c r="K71" s="279"/>
       <c r="L71" s="280"/>
       <c r="M71" s="280"/>
@@ -6898,20 +6901,20 @@
       <c r="Q71" s="125"/>
       <c r="R71" s="123"/>
       <c r="S71" s="123"/>
-      <c r="T71" s="611"/>
-      <c r="U71" s="612"/>
-      <c r="V71" s="613"/>
-      <c r="W71" s="473"/>
-      <c r="X71" s="474"/>
-      <c r="Y71" s="488"/>
+      <c r="T71" s="641"/>
+      <c r="U71" s="642"/>
+      <c r="V71" s="643"/>
+      <c r="W71" s="496"/>
+      <c r="X71" s="497"/>
+      <c r="Y71" s="511"/>
     </row>
     <row r="72" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="177"/>
-      <c r="B72" s="584"/>
-      <c r="C72" s="586"/>
-      <c r="D72" s="554"/>
-      <c r="E72" s="586"/>
-      <c r="F72" s="586"/>
+      <c r="B72" s="606"/>
+      <c r="C72" s="604"/>
+      <c r="D72" s="572"/>
+      <c r="E72" s="604"/>
+      <c r="F72" s="604"/>
       <c r="G72" s="130" t="s">
         <v>22</v>
       </c>
@@ -6938,48 +6941,48 @@
       <c r="A73" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="B73" s="555"/>
-      <c r="C73" s="555">
+      <c r="B73" s="573"/>
+      <c r="C73" s="573">
         <v>22</v>
       </c>
-      <c r="D73" s="555">
+      <c r="D73" s="573">
         <v>19</v>
       </c>
-      <c r="E73" s="555">
+      <c r="E73" s="573">
         <v>17</v>
       </c>
-      <c r="F73" s="555"/>
+      <c r="F73" s="573"/>
       <c r="G73" s="138"/>
-      <c r="H73" s="589"/>
-      <c r="I73" s="543"/>
-      <c r="J73" s="541"/>
-      <c r="K73" s="473"/>
-      <c r="L73" s="474"/>
-      <c r="M73" s="474"/>
+      <c r="H73" s="608"/>
+      <c r="I73" s="559"/>
+      <c r="J73" s="557"/>
+      <c r="K73" s="496"/>
+      <c r="L73" s="497"/>
+      <c r="M73" s="497"/>
       <c r="N73" s="63"/>
       <c r="O73" s="54"/>
       <c r="P73" s="55"/>
       <c r="Q73" s="63"/>
       <c r="R73" s="54"/>
       <c r="S73" s="54"/>
-      <c r="T73" s="496" t="s">
+      <c r="T73" s="519" t="s">
         <v>151</v>
       </c>
-      <c r="U73" s="497"/>
-      <c r="V73" s="497"/>
-      <c r="W73" s="489"/>
-      <c r="X73" s="490"/>
-      <c r="Y73" s="491"/>
+      <c r="U73" s="520"/>
+      <c r="V73" s="520"/>
+      <c r="W73" s="512"/>
+      <c r="X73" s="513"/>
+      <c r="Y73" s="514"/>
     </row>
     <row r="74" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="B74" s="554"/>
-      <c r="C74" s="554"/>
-      <c r="D74" s="554"/>
-      <c r="E74" s="554"/>
-      <c r="F74" s="554"/>
+      <c r="B74" s="572"/>
+      <c r="C74" s="572"/>
+      <c r="D74" s="572"/>
+      <c r="E74" s="572"/>
+      <c r="F74" s="572"/>
       <c r="G74" s="130" t="s">
         <v>25</v>
       </c>
@@ -7006,29 +7009,29 @@
       <c r="A75" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="B75" s="555"/>
-      <c r="C75" s="555"/>
-      <c r="D75" s="555"/>
-      <c r="E75" s="555">
+      <c r="B75" s="573"/>
+      <c r="C75" s="573"/>
+      <c r="D75" s="573"/>
+      <c r="E75" s="573">
         <v>31</v>
       </c>
-      <c r="F75" s="555"/>
+      <c r="F75" s="573"/>
       <c r="G75" s="138"/>
-      <c r="H75" s="540"/>
-      <c r="I75" s="508"/>
-      <c r="J75" s="541"/>
-      <c r="K75" s="473"/>
-      <c r="L75" s="474"/>
-      <c r="M75" s="474"/>
+      <c r="H75" s="555"/>
+      <c r="I75" s="556"/>
+      <c r="J75" s="557"/>
+      <c r="K75" s="496"/>
+      <c r="L75" s="497"/>
+      <c r="M75" s="497"/>
       <c r="N75" s="56"/>
       <c r="O75" s="51"/>
       <c r="P75" s="52"/>
       <c r="Q75" s="56"/>
       <c r="R75" s="51"/>
       <c r="S75" s="51"/>
-      <c r="T75" s="498"/>
-      <c r="U75" s="499"/>
-      <c r="V75" s="500"/>
+      <c r="T75" s="521"/>
+      <c r="U75" s="522"/>
+      <c r="V75" s="523"/>
       <c r="W75" s="285"/>
       <c r="X75" s="247"/>
       <c r="Y75" s="286"/>
@@ -7037,11 +7040,11 @@
       <c r="A76" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="B76" s="554"/>
-      <c r="C76" s="554"/>
-      <c r="D76" s="554"/>
-      <c r="E76" s="554"/>
-      <c r="F76" s="554"/>
+      <c r="B76" s="572"/>
+      <c r="C76" s="572"/>
+      <c r="D76" s="572"/>
+      <c r="E76" s="572"/>
+      <c r="F76" s="572"/>
       <c r="G76" s="130" t="s">
         <v>35</v>
       </c>
@@ -7092,9 +7095,9 @@
       <c r="Q77" s="56"/>
       <c r="R77" s="57"/>
       <c r="S77" s="57"/>
-      <c r="T77" s="524"/>
-      <c r="U77" s="525"/>
-      <c r="V77" s="526"/>
+      <c r="T77" s="540"/>
+      <c r="U77" s="541"/>
+      <c r="V77" s="542"/>
       <c r="W77" s="56"/>
       <c r="X77" s="57"/>
       <c r="Y77" s="58"/>
@@ -7275,27 +7278,27 @@
       <c r="A84" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="B84" s="553">
+      <c r="B84" s="571">
         <v>10</v>
       </c>
-      <c r="C84" s="553">
+      <c r="C84" s="571">
         <v>10</v>
       </c>
-      <c r="D84" s="553">
+      <c r="D84" s="571">
         <v>7</v>
       </c>
-      <c r="E84" s="553">
+      <c r="E84" s="571">
         <v>5</v>
       </c>
-      <c r="F84" s="553">
+      <c r="F84" s="571">
         <v>2</v>
       </c>
-      <c r="G84" s="574" t="s">
+      <c r="G84" s="593" t="s">
         <v>22</v>
       </c>
-      <c r="H84" s="473"/>
-      <c r="I84" s="474"/>
-      <c r="J84" s="475"/>
+      <c r="H84" s="496"/>
+      <c r="I84" s="497"/>
+      <c r="J84" s="498"/>
       <c r="K84" s="280"/>
       <c r="L84" s="280"/>
       <c r="M84" s="317"/>
@@ -7316,12 +7319,12 @@
       <c r="A85" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="B85" s="554"/>
-      <c r="C85" s="554"/>
-      <c r="D85" s="554"/>
-      <c r="E85" s="554"/>
-      <c r="F85" s="554"/>
-      <c r="G85" s="572"/>
+      <c r="B85" s="572"/>
+      <c r="C85" s="572"/>
+      <c r="D85" s="572"/>
+      <c r="E85" s="572"/>
+      <c r="F85" s="572"/>
+      <c r="G85" s="592"/>
       <c r="H85" s="63"/>
       <c r="I85" s="4"/>
       <c r="J85" s="64"/>
@@ -7345,57 +7348,57 @@
       <c r="A86" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="B86" s="555">
+      <c r="B86" s="573">
         <v>24</v>
       </c>
-      <c r="C86" s="555">
+      <c r="C86" s="573">
         <v>24</v>
       </c>
-      <c r="D86" s="555">
+      <c r="D86" s="573">
         <v>21</v>
       </c>
-      <c r="E86" s="555">
+      <c r="E86" s="573">
         <v>19</v>
       </c>
       <c r="F86" s="49"/>
-      <c r="G86" s="571" t="s">
+      <c r="G86" s="591" t="s">
         <v>25</v>
       </c>
-      <c r="H86" s="504" t="s">
+      <c r="H86" s="587" t="s">
         <v>155</v>
       </c>
-      <c r="I86" s="474"/>
-      <c r="J86" s="475"/>
+      <c r="I86" s="497"/>
+      <c r="J86" s="498"/>
       <c r="K86" s="53"/>
       <c r="L86" s="54"/>
       <c r="M86" s="54"/>
       <c r="N86" s="53"/>
       <c r="O86" s="54"/>
       <c r="P86" s="55"/>
-      <c r="Q86" s="473" t="s">
+      <c r="Q86" s="496" t="s">
         <v>39</v>
       </c>
-      <c r="R86" s="474"/>
-      <c r="S86" s="474"/>
+      <c r="R86" s="497"/>
+      <c r="S86" s="497"/>
       <c r="T86" s="327"/>
       <c r="U86" s="54"/>
       <c r="V86" s="54"/>
-      <c r="W86" s="473" t="s">
+      <c r="W86" s="496" t="s">
         <v>156</v>
       </c>
-      <c r="X86" s="474"/>
-      <c r="Y86" s="488"/>
+      <c r="X86" s="497"/>
+      <c r="Y86" s="511"/>
     </row>
     <row r="87" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B87" s="554"/>
-      <c r="C87" s="554"/>
-      <c r="D87" s="554"/>
-      <c r="E87" s="554"/>
+      <c r="B87" s="572"/>
+      <c r="C87" s="572"/>
+      <c r="D87" s="572"/>
+      <c r="E87" s="572"/>
       <c r="F87" s="38"/>
-      <c r="G87" s="572"/>
+      <c r="G87" s="592"/>
       <c r="H87" s="68" t="s">
         <v>157</v>
       </c>
@@ -7437,49 +7440,49 @@
       <c r="A88" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="B88" s="555"/>
-      <c r="C88" s="555"/>
-      <c r="D88" s="555"/>
-      <c r="E88" s="555"/>
-      <c r="F88" s="555"/>
-      <c r="G88" s="571" t="s">
+      <c r="B88" s="573"/>
+      <c r="C88" s="573"/>
+      <c r="D88" s="573"/>
+      <c r="E88" s="573"/>
+      <c r="F88" s="573"/>
+      <c r="G88" s="591" t="s">
         <v>35</v>
       </c>
-      <c r="H88" s="504" t="s">
+      <c r="H88" s="587" t="s">
         <v>36</v>
       </c>
-      <c r="I88" s="474"/>
-      <c r="J88" s="475"/>
+      <c r="I88" s="497"/>
+      <c r="J88" s="498"/>
       <c r="K88" s="53"/>
       <c r="L88" s="54"/>
       <c r="M88" s="55"/>
       <c r="N88" s="53"/>
       <c r="O88" s="54"/>
       <c r="P88" s="55"/>
-      <c r="Q88" s="473" t="s">
+      <c r="Q88" s="496" t="s">
         <v>39</v>
       </c>
-      <c r="R88" s="474"/>
-      <c r="S88" s="474"/>
+      <c r="R88" s="497"/>
+      <c r="S88" s="497"/>
       <c r="T88" s="151"/>
       <c r="U88" s="61"/>
       <c r="V88" s="61"/>
-      <c r="W88" s="489" t="s">
+      <c r="W88" s="512" t="s">
         <v>156</v>
       </c>
-      <c r="X88" s="490"/>
-      <c r="Y88" s="491"/>
+      <c r="X88" s="513"/>
+      <c r="Y88" s="514"/>
     </row>
     <row r="89" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B89" s="554"/>
-      <c r="C89" s="554"/>
-      <c r="D89" s="554"/>
-      <c r="E89" s="554"/>
-      <c r="F89" s="554"/>
-      <c r="G89" s="572"/>
+      <c r="B89" s="572"/>
+      <c r="C89" s="572"/>
+      <c r="D89" s="572"/>
+      <c r="E89" s="572"/>
+      <c r="F89" s="572"/>
+      <c r="G89" s="592"/>
       <c r="H89" s="76" t="s">
         <v>41</v>
       </c>
@@ -7507,57 +7510,57 @@
       <c r="T89" s="329"/>
       <c r="U89" s="77"/>
       <c r="V89" s="77"/>
-      <c r="W89" s="470"/>
-      <c r="X89" s="471"/>
-      <c r="Y89" s="472"/>
+      <c r="W89" s="493"/>
+      <c r="X89" s="494"/>
+      <c r="Y89" s="495"/>
     </row>
     <row r="90" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="B90" s="555"/>
-      <c r="C90" s="555"/>
-      <c r="D90" s="555"/>
-      <c r="E90" s="555"/>
-      <c r="F90" s="555"/>
-      <c r="G90" s="571" t="s">
+      <c r="B90" s="573"/>
+      <c r="C90" s="573"/>
+      <c r="D90" s="573"/>
+      <c r="E90" s="573"/>
+      <c r="F90" s="573"/>
+      <c r="G90" s="591" t="s">
         <v>47</v>
       </c>
-      <c r="H90" s="473" t="s">
+      <c r="H90" s="496" t="s">
         <v>26</v>
       </c>
-      <c r="I90" s="474"/>
-      <c r="J90" s="475"/>
-      <c r="K90" s="489" t="s">
+      <c r="I90" s="497"/>
+      <c r="J90" s="498"/>
+      <c r="K90" s="512" t="s">
         <v>130</v>
       </c>
-      <c r="L90" s="490"/>
-      <c r="M90" s="502"/>
+      <c r="L90" s="513"/>
+      <c r="M90" s="532"/>
       <c r="N90" s="54"/>
       <c r="O90" s="54"/>
       <c r="P90" s="55"/>
-      <c r="Q90" s="473" t="s">
+      <c r="Q90" s="496" t="s">
         <v>124</v>
       </c>
-      <c r="R90" s="474"/>
-      <c r="S90" s="474"/>
+      <c r="R90" s="497"/>
+      <c r="S90" s="497"/>
       <c r="T90" s="142"/>
       <c r="U90" s="57"/>
       <c r="V90" s="57"/>
-      <c r="W90" s="470"/>
-      <c r="X90" s="471"/>
-      <c r="Y90" s="472"/>
+      <c r="W90" s="493"/>
+      <c r="X90" s="494"/>
+      <c r="Y90" s="495"/>
     </row>
     <row r="91" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="B91" s="554"/>
-      <c r="C91" s="554"/>
-      <c r="D91" s="554"/>
-      <c r="E91" s="554"/>
-      <c r="F91" s="554"/>
-      <c r="G91" s="572"/>
+      <c r="B91" s="572"/>
+      <c r="C91" s="572"/>
+      <c r="D91" s="572"/>
+      <c r="E91" s="572"/>
+      <c r="F91" s="572"/>
+      <c r="G91" s="592"/>
       <c r="H91" s="60" t="s">
         <v>29</v>
       </c>
@@ -7607,51 +7610,51 @@
       <c r="A92" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="B92" s="555"/>
-      <c r="C92" s="555"/>
-      <c r="D92" s="555"/>
-      <c r="E92" s="555"/>
-      <c r="F92" s="555"/>
-      <c r="G92" s="571" t="s">
+      <c r="B92" s="573"/>
+      <c r="C92" s="573"/>
+      <c r="D92" s="573"/>
+      <c r="E92" s="573"/>
+      <c r="F92" s="573"/>
+      <c r="G92" s="591" t="s">
         <v>59</v>
       </c>
-      <c r="H92" s="504" t="s">
+      <c r="H92" s="587" t="s">
         <v>26</v>
       </c>
-      <c r="I92" s="474"/>
-      <c r="J92" s="475"/>
-      <c r="K92" s="473" t="s">
+      <c r="I92" s="497"/>
+      <c r="J92" s="498"/>
+      <c r="K92" s="496" t="s">
         <v>138</v>
       </c>
-      <c r="L92" s="474"/>
-      <c r="M92" s="475"/>
+      <c r="L92" s="497"/>
+      <c r="M92" s="498"/>
       <c r="N92" s="54"/>
       <c r="O92" s="54"/>
       <c r="P92" s="55"/>
-      <c r="Q92" s="473"/>
-      <c r="R92" s="474"/>
-      <c r="S92" s="474"/>
-      <c r="T92" s="588" t="s">
+      <c r="Q92" s="496"/>
+      <c r="R92" s="497"/>
+      <c r="S92" s="497"/>
+      <c r="T92" s="530" t="s">
         <v>160</v>
       </c>
-      <c r="U92" s="474"/>
-      <c r="V92" s="475"/>
-      <c r="W92" s="495" t="s">
+      <c r="U92" s="497"/>
+      <c r="V92" s="498"/>
+      <c r="W92" s="518" t="s">
         <v>110</v>
       </c>
-      <c r="X92" s="474"/>
-      <c r="Y92" s="488"/>
+      <c r="X92" s="497"/>
+      <c r="Y92" s="511"/>
     </row>
     <row r="93" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="137" t="s">
         <v>61</v>
       </c>
-      <c r="B93" s="554"/>
-      <c r="C93" s="554"/>
-      <c r="D93" s="554"/>
-      <c r="E93" s="554"/>
-      <c r="F93" s="554"/>
-      <c r="G93" s="572"/>
+      <c r="B93" s="572"/>
+      <c r="C93" s="572"/>
+      <c r="D93" s="572"/>
+      <c r="E93" s="572"/>
+      <c r="F93" s="572"/>
+      <c r="G93" s="592"/>
       <c r="H93" s="330" t="s">
         <v>29</v>
       </c>
@@ -7676,11 +7679,11 @@
       <c r="Q93" s="68"/>
       <c r="R93" s="40"/>
       <c r="S93" s="93"/>
-      <c r="T93" s="620" t="s">
+      <c r="T93" s="650" t="s">
         <v>161</v>
       </c>
-      <c r="U93" s="471"/>
-      <c r="V93" s="610"/>
+      <c r="U93" s="494"/>
+      <c r="V93" s="640"/>
       <c r="W93" s="68" t="s">
         <v>162</v>
       </c>
@@ -7700,23 +7703,23 @@
       <c r="D94" s="73"/>
       <c r="E94" s="73"/>
       <c r="F94" s="74"/>
-      <c r="G94" s="571" t="s">
+      <c r="G94" s="591" t="s">
         <v>69</v>
       </c>
       <c r="H94" s="88"/>
       <c r="I94" s="109"/>
       <c r="J94" s="251"/>
-      <c r="K94" s="473" t="s">
+      <c r="K94" s="496" t="s">
         <v>138</v>
       </c>
-      <c r="L94" s="474"/>
-      <c r="M94" s="475"/>
-      <c r="N94" s="489"/>
-      <c r="O94" s="505"/>
-      <c r="P94" s="506"/>
-      <c r="Q94" s="473"/>
-      <c r="R94" s="474"/>
-      <c r="S94" s="474"/>
+      <c r="L94" s="497"/>
+      <c r="M94" s="498"/>
+      <c r="N94" s="512"/>
+      <c r="O94" s="569"/>
+      <c r="P94" s="570"/>
+      <c r="Q94" s="496"/>
+      <c r="R94" s="497"/>
+      <c r="S94" s="497"/>
       <c r="T94" s="331"/>
       <c r="U94" s="332"/>
       <c r="V94" s="333"/>
@@ -7731,7 +7734,7 @@
       <c r="D95" s="116"/>
       <c r="E95" s="116"/>
       <c r="F95" s="116"/>
-      <c r="G95" s="575"/>
+      <c r="G95" s="596"/>
       <c r="H95" s="336"/>
       <c r="I95" s="337"/>
       <c r="J95" s="216"/>
@@ -7765,27 +7768,27 @@
     </row>
     <row r="96" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A96" s="120"/>
-      <c r="B96" s="553">
+      <c r="B96" s="571">
         <v>11</v>
       </c>
-      <c r="C96" s="553">
+      <c r="C96" s="571">
         <v>11</v>
       </c>
-      <c r="D96" s="553">
+      <c r="D96" s="571">
         <v>8</v>
       </c>
-      <c r="E96" s="553">
+      <c r="E96" s="571">
         <v>6</v>
       </c>
-      <c r="F96" s="553">
+      <c r="F96" s="571">
         <v>3</v>
       </c>
-      <c r="G96" s="574" t="s">
+      <c r="G96" s="593" t="s">
         <v>22</v>
       </c>
-      <c r="H96" s="531"/>
-      <c r="I96" s="531"/>
-      <c r="J96" s="531"/>
+      <c r="H96" s="547"/>
+      <c r="I96" s="547"/>
+      <c r="J96" s="547"/>
       <c r="K96" s="125"/>
       <c r="L96" s="123"/>
       <c r="M96" s="124"/>
@@ -7804,12 +7807,12 @@
     </row>
     <row r="97" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="129"/>
-      <c r="B97" s="554"/>
-      <c r="C97" s="554"/>
-      <c r="D97" s="554"/>
-      <c r="E97" s="554"/>
-      <c r="F97" s="554"/>
-      <c r="G97" s="572"/>
+      <c r="B97" s="572"/>
+      <c r="C97" s="572"/>
+      <c r="D97" s="572"/>
+      <c r="E97" s="572"/>
+      <c r="F97" s="572"/>
+      <c r="G97" s="592"/>
       <c r="H97" s="109"/>
       <c r="I97" s="346"/>
       <c r="J97" s="182"/>
@@ -7833,30 +7836,30 @@
       <c r="A98" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="B98" s="555">
+      <c r="B98" s="573">
         <v>25</v>
       </c>
-      <c r="C98" s="555">
+      <c r="C98" s="573">
         <v>25</v>
       </c>
-      <c r="D98" s="555">
+      <c r="D98" s="573">
         <v>22</v>
       </c>
-      <c r="E98" s="555">
+      <c r="E98" s="573">
         <v>20</v>
       </c>
-      <c r="F98" s="555"/>
-      <c r="G98" s="571" t="s">
+      <c r="F98" s="573"/>
+      <c r="G98" s="591" t="s">
         <v>25</v>
       </c>
-      <c r="H98" s="508"/>
-      <c r="I98" s="508"/>
-      <c r="J98" s="508"/>
-      <c r="K98" s="473" t="s">
+      <c r="H98" s="556"/>
+      <c r="I98" s="556"/>
+      <c r="J98" s="556"/>
+      <c r="K98" s="496" t="s">
         <v>155</v>
       </c>
-      <c r="L98" s="474"/>
-      <c r="M98" s="475"/>
+      <c r="L98" s="497"/>
+      <c r="M98" s="498"/>
       <c r="N98" s="347"/>
       <c r="O98" s="348"/>
       <c r="P98" s="349"/>
@@ -7866,20 +7869,20 @@
       <c r="T98" s="142"/>
       <c r="U98" s="57"/>
       <c r="V98" s="57"/>
-      <c r="W98" s="492"/>
-      <c r="X98" s="493"/>
-      <c r="Y98" s="494"/>
+      <c r="W98" s="515"/>
+      <c r="X98" s="516"/>
+      <c r="Y98" s="517"/>
     </row>
     <row r="99" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="B99" s="554"/>
-      <c r="C99" s="554"/>
-      <c r="D99" s="554"/>
-      <c r="E99" s="554"/>
-      <c r="F99" s="554"/>
-      <c r="G99" s="572"/>
+      <c r="B99" s="572"/>
+      <c r="C99" s="572"/>
+      <c r="D99" s="572"/>
+      <c r="E99" s="572"/>
+      <c r="F99" s="572"/>
+      <c r="G99" s="592"/>
       <c r="H99" s="60"/>
       <c r="I99" s="61"/>
       <c r="J99" s="61"/>
@@ -7909,47 +7912,47 @@
       <c r="A100" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="B100" s="555"/>
-      <c r="C100" s="555"/>
-      <c r="D100" s="555"/>
-      <c r="E100" s="555"/>
-      <c r="F100" s="555"/>
-      <c r="G100" s="571" t="s">
+      <c r="B100" s="573"/>
+      <c r="C100" s="573"/>
+      <c r="D100" s="573"/>
+      <c r="E100" s="573"/>
+      <c r="F100" s="573"/>
+      <c r="G100" s="591" t="s">
         <v>35</v>
       </c>
-      <c r="H100" s="473" t="s">
+      <c r="H100" s="496" t="s">
         <v>138</v>
       </c>
-      <c r="I100" s="474"/>
-      <c r="J100" s="475"/>
-      <c r="K100" s="503" t="s">
+      <c r="I100" s="497"/>
+      <c r="J100" s="498"/>
+      <c r="K100" s="533" t="s">
         <v>166</v>
       </c>
-      <c r="L100" s="479"/>
-      <c r="M100" s="480"/>
-      <c r="N100" s="473"/>
-      <c r="O100" s="474"/>
-      <c r="P100" s="475"/>
-      <c r="Q100" s="489"/>
-      <c r="R100" s="490"/>
-      <c r="S100" s="490"/>
+      <c r="L100" s="502"/>
+      <c r="M100" s="503"/>
+      <c r="N100" s="496"/>
+      <c r="O100" s="497"/>
+      <c r="P100" s="498"/>
+      <c r="Q100" s="512"/>
+      <c r="R100" s="513"/>
+      <c r="S100" s="513"/>
       <c r="T100" s="356"/>
       <c r="U100" s="4"/>
       <c r="V100" s="4"/>
-      <c r="W100" s="492"/>
-      <c r="X100" s="493"/>
-      <c r="Y100" s="494"/>
+      <c r="W100" s="515"/>
+      <c r="X100" s="516"/>
+      <c r="Y100" s="517"/>
     </row>
     <row r="101" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="B101" s="554"/>
-      <c r="C101" s="554"/>
-      <c r="D101" s="554"/>
-      <c r="E101" s="554"/>
-      <c r="F101" s="554"/>
-      <c r="G101" s="572"/>
+      <c r="B101" s="572"/>
+      <c r="C101" s="572"/>
+      <c r="D101" s="572"/>
+      <c r="E101" s="572"/>
+      <c r="F101" s="572"/>
+      <c r="G101" s="592"/>
       <c r="H101" s="131" t="s">
         <v>167</v>
       </c>
@@ -7990,30 +7993,30 @@
       <c r="D102" s="73"/>
       <c r="E102" s="73"/>
       <c r="F102" s="74"/>
-      <c r="G102" s="571" t="s">
+      <c r="G102" s="591" t="s">
         <v>47</v>
       </c>
-      <c r="H102" s="473" t="s">
+      <c r="H102" s="496" t="s">
         <v>138</v>
       </c>
-      <c r="I102" s="474"/>
-      <c r="J102" s="475"/>
-      <c r="K102" s="503" t="s">
+      <c r="I102" s="497"/>
+      <c r="J102" s="498"/>
+      <c r="K102" s="533" t="s">
         <v>166</v>
       </c>
-      <c r="L102" s="479"/>
-      <c r="M102" s="480"/>
-      <c r="N102" s="489" t="s">
+      <c r="L102" s="502"/>
+      <c r="M102" s="503"/>
+      <c r="N102" s="512" t="s">
         <v>149</v>
       </c>
-      <c r="O102" s="490"/>
-      <c r="P102" s="490"/>
-      <c r="Q102" s="490"/>
-      <c r="R102" s="490"/>
-      <c r="S102" s="490"/>
-      <c r="T102" s="559"/>
-      <c r="U102" s="490"/>
-      <c r="V102" s="490"/>
+      <c r="O102" s="513"/>
+      <c r="P102" s="513"/>
+      <c r="Q102" s="513"/>
+      <c r="R102" s="513"/>
+      <c r="S102" s="513"/>
+      <c r="T102" s="577"/>
+      <c r="U102" s="513"/>
+      <c r="V102" s="513"/>
       <c r="W102" s="63"/>
       <c r="X102" s="4"/>
       <c r="Y102" s="357"/>
@@ -8027,7 +8030,7 @@
       <c r="D103" s="85"/>
       <c r="E103" s="85"/>
       <c r="F103" s="85"/>
-      <c r="G103" s="572"/>
+      <c r="G103" s="592"/>
       <c r="H103" s="131" t="s">
         <v>167</v>
       </c>
@@ -8044,8 +8047,8 @@
         <v>146</v>
       </c>
       <c r="O103" s="83"/>
-      <c r="P103" s="510"/>
-      <c r="Q103" s="510"/>
+      <c r="P103" s="529"/>
+      <c r="Q103" s="529"/>
       <c r="R103" s="45" t="s">
         <v>81</v>
       </c>
@@ -8070,36 +8073,36 @@
       <c r="D104" s="73"/>
       <c r="E104" s="73"/>
       <c r="F104" s="74"/>
-      <c r="G104" s="571" t="s">
+      <c r="G104" s="591" t="s">
         <v>59</v>
       </c>
-      <c r="H104" s="501" t="s">
+      <c r="H104" s="578" t="s">
         <v>77</v>
       </c>
-      <c r="I104" s="490"/>
-      <c r="J104" s="502"/>
+      <c r="I104" s="513"/>
+      <c r="J104" s="532"/>
       <c r="K104" s="359" t="s">
         <v>51</v>
       </c>
-      <c r="L104" s="551" t="s">
+      <c r="L104" s="567" t="s">
         <v>52</v>
       </c>
-      <c r="M104" s="552"/>
-      <c r="N104" s="473" t="s">
+      <c r="M104" s="568"/>
+      <c r="N104" s="496" t="s">
         <v>149</v>
       </c>
-      <c r="O104" s="474"/>
-      <c r="P104" s="475"/>
-      <c r="Q104" s="507" t="s">
+      <c r="O104" s="497"/>
+      <c r="P104" s="498"/>
+      <c r="Q104" s="584" t="s">
         <v>49</v>
       </c>
-      <c r="R104" s="508"/>
-      <c r="S104" s="508"/>
-      <c r="T104" s="485" t="s">
+      <c r="R104" s="556"/>
+      <c r="S104" s="556"/>
+      <c r="T104" s="508" t="s">
         <v>150</v>
       </c>
-      <c r="U104" s="486"/>
-      <c r="V104" s="487"/>
+      <c r="U104" s="509"/>
+      <c r="V104" s="510"/>
       <c r="W104" s="56"/>
       <c r="X104" s="57"/>
       <c r="Y104" s="158"/>
@@ -8111,7 +8114,7 @@
       <c r="D105" s="85"/>
       <c r="E105" s="85"/>
       <c r="F105" s="85"/>
-      <c r="G105" s="572"/>
+      <c r="G105" s="592"/>
       <c r="H105" s="40" t="s">
         <v>80</v>
       </c>
@@ -8121,11 +8124,11 @@
       <c r="J105" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="K105" s="509" t="s">
+      <c r="K105" s="595" t="s">
         <v>169</v>
       </c>
-      <c r="L105" s="510"/>
-      <c r="M105" s="536"/>
+      <c r="L105" s="529"/>
+      <c r="M105" s="531"/>
       <c r="N105" s="68" t="s">
         <v>146</v>
       </c>
@@ -8164,32 +8167,32 @@
       <c r="D106" s="73"/>
       <c r="E106" s="73"/>
       <c r="F106" s="74"/>
-      <c r="G106" s="571" t="s">
+      <c r="G106" s="591" t="s">
         <v>69</v>
       </c>
-      <c r="H106" s="501" t="s">
+      <c r="H106" s="578" t="s">
         <v>77</v>
       </c>
-      <c r="I106" s="490"/>
-      <c r="J106" s="502"/>
-      <c r="K106" s="489"/>
-      <c r="L106" s="490"/>
-      <c r="M106" s="490"/>
-      <c r="N106" s="473" t="s">
+      <c r="I106" s="513"/>
+      <c r="J106" s="532"/>
+      <c r="K106" s="512"/>
+      <c r="L106" s="513"/>
+      <c r="M106" s="513"/>
+      <c r="N106" s="496" t="s">
         <v>170</v>
       </c>
-      <c r="O106" s="474"/>
-      <c r="P106" s="475"/>
-      <c r="Q106" s="507" t="s">
+      <c r="O106" s="497"/>
+      <c r="P106" s="498"/>
+      <c r="Q106" s="584" t="s">
         <v>49</v>
       </c>
-      <c r="R106" s="508"/>
-      <c r="S106" s="508"/>
-      <c r="T106" s="485" t="s">
+      <c r="R106" s="556"/>
+      <c r="S106" s="556"/>
+      <c r="T106" s="508" t="s">
         <v>150</v>
       </c>
-      <c r="U106" s="486"/>
-      <c r="V106" s="487"/>
+      <c r="U106" s="509"/>
+      <c r="V106" s="510"/>
       <c r="W106" s="56"/>
       <c r="X106" s="57"/>
       <c r="Y106" s="58"/>
@@ -8201,7 +8204,7 @@
       <c r="D107" s="116"/>
       <c r="E107" s="116"/>
       <c r="F107" s="116"/>
-      <c r="G107" s="575"/>
+      <c r="G107" s="596"/>
       <c r="H107" s="109" t="s">
         <v>80</v>
       </c>
@@ -8247,32 +8250,32 @@
     </row>
     <row r="108" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A108" s="120"/>
-      <c r="B108" s="553">
+      <c r="B108" s="571">
         <v>12</v>
       </c>
-      <c r="C108" s="553">
+      <c r="C108" s="571">
         <v>12</v>
       </c>
-      <c r="D108" s="553">
+      <c r="D108" s="571">
         <v>9</v>
       </c>
-      <c r="E108" s="553">
+      <c r="E108" s="571">
         <v>7</v>
       </c>
-      <c r="F108" s="553">
+      <c r="F108" s="571">
         <v>4</v>
       </c>
-      <c r="G108" s="574" t="s">
+      <c r="G108" s="593" t="s">
         <v>22</v>
       </c>
-      <c r="H108" s="573"/>
-      <c r="I108" s="531"/>
-      <c r="J108" s="532"/>
-      <c r="K108" s="473" t="s">
+      <c r="H108" s="620"/>
+      <c r="I108" s="547"/>
+      <c r="J108" s="548"/>
+      <c r="K108" s="496" t="s">
         <v>27</v>
       </c>
-      <c r="L108" s="474"/>
-      <c r="M108" s="475"/>
+      <c r="L108" s="497"/>
+      <c r="M108" s="498"/>
       <c r="N108" s="362" t="s">
         <v>75</v>
       </c>
@@ -8292,15 +8295,15 @@
       <c r="A109" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="B109" s="554"/>
-      <c r="C109" s="554"/>
-      <c r="D109" s="554"/>
-      <c r="E109" s="554"/>
-      <c r="F109" s="554"/>
-      <c r="G109" s="572"/>
+      <c r="B109" s="572"/>
+      <c r="C109" s="572"/>
+      <c r="D109" s="572"/>
+      <c r="E109" s="572"/>
+      <c r="F109" s="572"/>
+      <c r="G109" s="592"/>
       <c r="H109" s="152"/>
-      <c r="I109" s="510"/>
-      <c r="J109" s="536"/>
+      <c r="I109" s="529"/>
+      <c r="J109" s="531"/>
       <c r="K109" s="63" t="s">
         <v>32</v>
       </c>
@@ -8310,9 +8313,9 @@
       <c r="M109" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="N109" s="476"/>
-      <c r="O109" s="477"/>
-      <c r="P109" s="478"/>
+      <c r="N109" s="499"/>
+      <c r="O109" s="500"/>
+      <c r="P109" s="501"/>
       <c r="Q109" s="301"/>
       <c r="R109" s="301"/>
       <c r="S109" s="40"/>
@@ -8325,55 +8328,55 @@
     </row>
     <row r="110" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="137"/>
-      <c r="B110" s="555">
+      <c r="B110" s="573">
         <v>26</v>
       </c>
-      <c r="C110" s="555">
+      <c r="C110" s="573">
         <v>26</v>
       </c>
-      <c r="D110" s="555">
+      <c r="D110" s="573">
         <v>23</v>
       </c>
-      <c r="E110" s="555">
+      <c r="E110" s="573">
         <v>21</v>
       </c>
-      <c r="F110" s="555"/>
-      <c r="G110" s="571" t="s">
+      <c r="F110" s="573"/>
+      <c r="G110" s="591" t="s">
         <v>25</v>
       </c>
       <c r="H110" s="368"/>
       <c r="I110" s="369"/>
       <c r="J110" s="370"/>
-      <c r="K110" s="473" t="s">
+      <c r="K110" s="496" t="s">
         <v>48</v>
       </c>
-      <c r="L110" s="474"/>
-      <c r="M110" s="475"/>
-      <c r="N110" s="476" t="s">
+      <c r="L110" s="497"/>
+      <c r="M110" s="498"/>
+      <c r="N110" s="499" t="s">
         <v>171</v>
       </c>
-      <c r="O110" s="477"/>
-      <c r="P110" s="478"/>
+      <c r="O110" s="500"/>
+      <c r="P110" s="501"/>
       <c r="Q110" s="371"/>
       <c r="R110" s="371"/>
       <c r="S110" s="247"/>
       <c r="T110" s="264"/>
-      <c r="U110" s="474"/>
-      <c r="V110" s="474"/>
-      <c r="W110" s="489"/>
-      <c r="X110" s="490"/>
-      <c r="Y110" s="491"/>
+      <c r="U110" s="497"/>
+      <c r="V110" s="497"/>
+      <c r="W110" s="512"/>
+      <c r="X110" s="513"/>
+      <c r="Y110" s="514"/>
     </row>
     <row r="111" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="B111" s="554"/>
-      <c r="C111" s="554"/>
-      <c r="D111" s="554"/>
-      <c r="E111" s="554"/>
-      <c r="F111" s="554"/>
-      <c r="G111" s="572"/>
+      <c r="B111" s="572"/>
+      <c r="C111" s="572"/>
+      <c r="D111" s="572"/>
+      <c r="E111" s="572"/>
+      <c r="F111" s="572"/>
+      <c r="G111" s="592"/>
       <c r="H111" s="372"/>
       <c r="I111" s="70"/>
       <c r="J111" s="98"/>
@@ -8386,11 +8389,11 @@
       <c r="M111" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="N111" s="509" t="s">
+      <c r="N111" s="595" t="s">
         <v>172</v>
       </c>
-      <c r="O111" s="510"/>
-      <c r="P111" s="536"/>
+      <c r="O111" s="529"/>
+      <c r="P111" s="531"/>
       <c r="Q111" s="77"/>
       <c r="R111" s="77"/>
       <c r="S111" s="93"/>
@@ -8398,27 +8401,27 @@
       <c r="U111" s="81"/>
       <c r="V111" s="81"/>
       <c r="W111" s="40"/>
-      <c r="X111" s="510"/>
-      <c r="Y111" s="602"/>
+      <c r="X111" s="529"/>
+      <c r="Y111" s="630"/>
     </row>
     <row r="112" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="137"/>
-      <c r="B112" s="555"/>
-      <c r="C112" s="555"/>
-      <c r="D112" s="555"/>
-      <c r="E112" s="555"/>
+      <c r="B112" s="573"/>
+      <c r="C112" s="573"/>
+      <c r="D112" s="573"/>
+      <c r="E112" s="573"/>
       <c r="F112" s="190"/>
-      <c r="G112" s="571" t="s">
+      <c r="G112" s="591" t="s">
         <v>35</v>
       </c>
-      <c r="H112" s="504"/>
-      <c r="I112" s="474"/>
-      <c r="J112" s="475"/>
-      <c r="K112" s="473" t="s">
+      <c r="H112" s="587"/>
+      <c r="I112" s="497"/>
+      <c r="J112" s="498"/>
+      <c r="K112" s="496" t="s">
         <v>27</v>
       </c>
-      <c r="L112" s="474"/>
-      <c r="M112" s="475"/>
+      <c r="L112" s="497"/>
+      <c r="M112" s="498"/>
       <c r="N112" s="373"/>
       <c r="O112" s="373"/>
       <c r="P112" s="374"/>
@@ -8428,24 +8431,24 @@
       <c r="R112" s="140"/>
       <c r="S112" s="140"/>
       <c r="T112" s="375"/>
-      <c r="U112" s="479"/>
-      <c r="V112" s="480"/>
-      <c r="W112" s="492" t="s">
+      <c r="U112" s="502"/>
+      <c r="V112" s="503"/>
+      <c r="W112" s="515" t="s">
         <v>173</v>
       </c>
-      <c r="X112" s="493"/>
-      <c r="Y112" s="494"/>
+      <c r="X112" s="516"/>
+      <c r="Y112" s="517"/>
     </row>
     <row r="113" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B113" s="554"/>
-      <c r="C113" s="554"/>
-      <c r="D113" s="554"/>
-      <c r="E113" s="554"/>
+      <c r="B113" s="572"/>
+      <c r="C113" s="572"/>
+      <c r="D113" s="572"/>
+      <c r="E113" s="572"/>
       <c r="F113" s="38"/>
-      <c r="G113" s="572"/>
+      <c r="G113" s="592"/>
       <c r="H113" s="76"/>
       <c r="I113" s="81"/>
       <c r="J113" s="89"/>
@@ -8455,9 +8458,9 @@
       <c r="N113" s="379"/>
       <c r="O113" s="42"/>
       <c r="P113" s="98"/>
-      <c r="Q113" s="476"/>
-      <c r="R113" s="477"/>
-      <c r="S113" s="477"/>
+      <c r="Q113" s="499"/>
+      <c r="R113" s="500"/>
+      <c r="S113" s="500"/>
       <c r="T113" s="329"/>
       <c r="U113" s="77"/>
       <c r="V113" s="79"/>
@@ -8478,37 +8481,37 @@
       <c r="D114" s="73"/>
       <c r="E114" s="73"/>
       <c r="F114" s="74"/>
-      <c r="G114" s="571" t="s">
+      <c r="G114" s="591" t="s">
         <v>47</v>
       </c>
-      <c r="H114" s="551"/>
-      <c r="I114" s="590"/>
-      <c r="J114" s="552"/>
+      <c r="H114" s="567"/>
+      <c r="I114" s="609"/>
+      <c r="J114" s="568"/>
       <c r="K114" s="359" t="s">
         <v>51</v>
       </c>
-      <c r="L114" s="551" t="s">
+      <c r="L114" s="567" t="s">
         <v>52</v>
       </c>
-      <c r="M114" s="552"/>
-      <c r="N114" s="489" t="s">
+      <c r="M114" s="568"/>
+      <c r="N114" s="512" t="s">
         <v>135</v>
       </c>
-      <c r="O114" s="490"/>
-      <c r="P114" s="502"/>
-      <c r="Q114" s="476" t="s">
+      <c r="O114" s="513"/>
+      <c r="P114" s="532"/>
+      <c r="Q114" s="499" t="s">
         <v>83</v>
       </c>
-      <c r="R114" s="477"/>
-      <c r="S114" s="477"/>
+      <c r="R114" s="500"/>
+      <c r="S114" s="500"/>
       <c r="T114" s="264"/>
-      <c r="U114" s="474"/>
-      <c r="V114" s="475"/>
-      <c r="W114" s="492" t="s">
+      <c r="U114" s="497"/>
+      <c r="V114" s="498"/>
+      <c r="W114" s="515" t="s">
         <v>173</v>
       </c>
-      <c r="X114" s="493"/>
-      <c r="Y114" s="494"/>
+      <c r="X114" s="516"/>
+      <c r="Y114" s="517"/>
     </row>
     <row r="115" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="137" t="s">
@@ -8519,15 +8522,15 @@
       <c r="D115" s="85"/>
       <c r="E115" s="85"/>
       <c r="F115" s="85"/>
-      <c r="G115" s="572"/>
+      <c r="G115" s="592"/>
       <c r="H115" s="78"/>
       <c r="I115" s="77"/>
       <c r="J115" s="89"/>
-      <c r="K115" s="576" t="s">
+      <c r="K115" s="678" t="s">
         <v>174</v>
       </c>
-      <c r="L115" s="548"/>
-      <c r="M115" s="568"/>
+      <c r="L115" s="564"/>
+      <c r="M115" s="589"/>
       <c r="N115" s="63" t="s">
         <v>137</v>
       </c>
@@ -8537,11 +8540,11 @@
       <c r="P115" s="294" t="s">
         <v>31</v>
       </c>
-      <c r="Q115" s="509" t="s">
+      <c r="Q115" s="595" t="s">
         <v>175</v>
       </c>
-      <c r="R115" s="510"/>
-      <c r="S115" s="510"/>
+      <c r="R115" s="529"/>
+      <c r="S115" s="529"/>
       <c r="T115" s="325"/>
       <c r="U115" s="81"/>
       <c r="V115" s="89"/>
@@ -8562,29 +8565,29 @@
       <c r="D116" s="73"/>
       <c r="E116" s="73"/>
       <c r="F116" s="74"/>
-      <c r="G116" s="571" t="s">
+      <c r="G116" s="591" t="s">
         <v>59</v>
       </c>
       <c r="H116" s="380"/>
       <c r="I116" s="248"/>
       <c r="J116" s="291"/>
-      <c r="K116" s="473"/>
-      <c r="L116" s="474"/>
-      <c r="M116" s="474"/>
-      <c r="N116" s="489" t="s">
+      <c r="K116" s="496"/>
+      <c r="L116" s="497"/>
+      <c r="M116" s="497"/>
+      <c r="N116" s="512" t="s">
         <v>135</v>
       </c>
-      <c r="O116" s="490"/>
-      <c r="P116" s="502"/>
-      <c r="Q116" s="519"/>
-      <c r="R116" s="481"/>
-      <c r="S116" s="481"/>
-      <c r="T116" s="485"/>
-      <c r="U116" s="486"/>
-      <c r="V116" s="487"/>
-      <c r="W116" s="481"/>
-      <c r="X116" s="481"/>
-      <c r="Y116" s="482"/>
+      <c r="O116" s="513"/>
+      <c r="P116" s="532"/>
+      <c r="Q116" s="534"/>
+      <c r="R116" s="504"/>
+      <c r="S116" s="504"/>
+      <c r="T116" s="508"/>
+      <c r="U116" s="509"/>
+      <c r="V116" s="510"/>
+      <c r="W116" s="504"/>
+      <c r="X116" s="504"/>
+      <c r="Y116" s="505"/>
     </row>
     <row r="117" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="137" t="s">
@@ -8595,7 +8598,7 @@
       <c r="D117" s="85"/>
       <c r="E117" s="85"/>
       <c r="F117" s="85"/>
-      <c r="G117" s="572"/>
+      <c r="G117" s="592"/>
       <c r="H117" s="80"/>
       <c r="I117" s="81"/>
       <c r="J117" s="89"/>
@@ -8611,15 +8614,15 @@
       <c r="P117" s="302" t="s">
         <v>54</v>
       </c>
-      <c r="Q117" s="520"/>
-      <c r="R117" s="483"/>
-      <c r="S117" s="483"/>
+      <c r="Q117" s="535"/>
+      <c r="R117" s="506"/>
+      <c r="S117" s="506"/>
       <c r="T117" s="360"/>
       <c r="U117" s="189"/>
       <c r="V117" s="361"/>
-      <c r="W117" s="483"/>
-      <c r="X117" s="483"/>
-      <c r="Y117" s="484"/>
+      <c r="W117" s="506"/>
+      <c r="X117" s="506"/>
+      <c r="Y117" s="507"/>
     </row>
     <row r="118" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="137"/>
@@ -8628,21 +8631,21 @@
       <c r="D118" s="73"/>
       <c r="E118" s="73"/>
       <c r="F118" s="74"/>
-      <c r="G118" s="571" t="s">
+      <c r="G118" s="591" t="s">
         <v>69</v>
       </c>
-      <c r="K118" s="473"/>
-      <c r="L118" s="474"/>
-      <c r="M118" s="474"/>
+      <c r="K118" s="496"/>
+      <c r="L118" s="497"/>
+      <c r="M118" s="497"/>
       <c r="N118" s="380"/>
       <c r="O118" s="248"/>
       <c r="P118" s="291"/>
       <c r="Q118" s="63"/>
       <c r="R118" s="4"/>
       <c r="S118" s="4"/>
-      <c r="T118" s="556"/>
-      <c r="U118" s="557"/>
-      <c r="V118" s="558"/>
+      <c r="T118" s="574"/>
+      <c r="U118" s="575"/>
+      <c r="V118" s="576"/>
       <c r="W118" s="63"/>
       <c r="X118" s="4"/>
       <c r="Y118" s="357"/>
@@ -8654,7 +8657,7 @@
       <c r="D119" s="116"/>
       <c r="E119" s="116"/>
       <c r="F119" s="116"/>
-      <c r="G119" s="575"/>
+      <c r="G119" s="596"/>
       <c r="K119" s="63"/>
       <c r="L119" s="134"/>
       <c r="M119" s="134"/>
@@ -8673,53 +8676,53 @@
     </row>
     <row r="120" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A120" s="120"/>
-      <c r="B120" s="553">
+      <c r="B120" s="571">
         <v>13</v>
       </c>
-      <c r="C120" s="583">
+      <c r="C120" s="605">
         <v>13</v>
       </c>
-      <c r="D120" s="553">
+      <c r="D120" s="571">
         <v>10</v>
       </c>
-      <c r="E120" s="583">
+      <c r="E120" s="605">
         <v>8</v>
       </c>
-      <c r="F120" s="553">
+      <c r="F120" s="571">
         <v>5</v>
       </c>
-      <c r="G120" s="574" t="s">
+      <c r="G120" s="593" t="s">
         <v>22</v>
       </c>
-      <c r="H120" s="545"/>
-      <c r="I120" s="546"/>
-      <c r="J120" s="547"/>
-      <c r="K120" s="530"/>
-      <c r="L120" s="531"/>
-      <c r="M120" s="570"/>
-      <c r="N120" s="473" t="s">
+      <c r="H120" s="561"/>
+      <c r="I120" s="562"/>
+      <c r="J120" s="563"/>
+      <c r="K120" s="546"/>
+      <c r="L120" s="547"/>
+      <c r="M120" s="594"/>
+      <c r="N120" s="496" t="s">
         <v>196</v>
       </c>
-      <c r="O120" s="474"/>
-      <c r="P120" s="475"/>
+      <c r="O120" s="497"/>
+      <c r="P120" s="498"/>
       <c r="Q120" s="110"/>
       <c r="R120" s="111"/>
       <c r="S120" s="111"/>
-      <c r="T120" s="527"/>
-      <c r="U120" s="528"/>
-      <c r="V120" s="529"/>
+      <c r="T120" s="543"/>
+      <c r="U120" s="544"/>
+      <c r="V120" s="545"/>
       <c r="W120" s="110"/>
       <c r="X120" s="111"/>
       <c r="Y120" s="224"/>
     </row>
     <row r="121" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="177"/>
-      <c r="B121" s="554"/>
-      <c r="C121" s="584"/>
-      <c r="D121" s="554"/>
-      <c r="E121" s="584"/>
-      <c r="F121" s="554"/>
-      <c r="G121" s="572"/>
+      <c r="B121" s="572"/>
+      <c r="C121" s="606"/>
+      <c r="D121" s="572"/>
+      <c r="E121" s="606"/>
+      <c r="F121" s="572"/>
+      <c r="G121" s="592"/>
       <c r="H121" s="387"/>
       <c r="I121" s="388"/>
       <c r="J121" s="389"/>
@@ -8749,39 +8752,39 @@
       <c r="A122" s="177" t="s">
         <v>116</v>
       </c>
-      <c r="B122" s="587">
+      <c r="B122" s="607">
         <v>27</v>
       </c>
-      <c r="C122" s="555">
+      <c r="C122" s="573">
         <v>27</v>
       </c>
-      <c r="D122" s="555">
+      <c r="D122" s="573">
         <v>24</v>
       </c>
-      <c r="E122" s="555">
+      <c r="E122" s="573">
         <v>22</v>
       </c>
       <c r="F122" s="49"/>
-      <c r="G122" s="571" t="s">
+      <c r="G122" s="591" t="s">
         <v>25</v>
       </c>
-      <c r="H122" s="533"/>
-      <c r="I122" s="534"/>
-      <c r="J122" s="535"/>
-      <c r="K122" s="489" t="s">
+      <c r="H122" s="549"/>
+      <c r="I122" s="550"/>
+      <c r="J122" s="551"/>
+      <c r="K122" s="512" t="s">
         <v>37</v>
       </c>
-      <c r="L122" s="490"/>
-      <c r="M122" s="502"/>
+      <c r="L122" s="513"/>
+      <c r="M122" s="532"/>
       <c r="N122" s="54"/>
       <c r="O122" s="54"/>
       <c r="P122" s="54"/>
       <c r="Q122" s="56"/>
       <c r="R122" s="57"/>
       <c r="S122" s="57"/>
-      <c r="T122" s="524"/>
-      <c r="U122" s="525"/>
-      <c r="V122" s="526"/>
+      <c r="T122" s="540"/>
+      <c r="U122" s="541"/>
+      <c r="V122" s="542"/>
       <c r="W122" s="56"/>
       <c r="X122" s="57"/>
       <c r="Y122" s="58"/>
@@ -8790,12 +8793,12 @@
       <c r="A123" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B123" s="584"/>
-      <c r="C123" s="554"/>
-      <c r="D123" s="554"/>
-      <c r="E123" s="554"/>
+      <c r="B123" s="606"/>
+      <c r="C123" s="572"/>
+      <c r="D123" s="572"/>
+      <c r="E123" s="572"/>
       <c r="F123" s="38"/>
-      <c r="G123" s="572"/>
+      <c r="G123" s="592"/>
       <c r="H123" s="390"/>
       <c r="I123" s="391"/>
       <c r="J123" s="392"/>
@@ -8825,35 +8828,35 @@
       <c r="A124" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="B124" s="555"/>
-      <c r="C124" s="555"/>
-      <c r="D124" s="555"/>
-      <c r="E124" s="555"/>
-      <c r="F124" s="555"/>
-      <c r="G124" s="571" t="s">
+      <c r="B124" s="573"/>
+      <c r="C124" s="573"/>
+      <c r="D124" s="573"/>
+      <c r="E124" s="573"/>
+      <c r="F124" s="573"/>
+      <c r="G124" s="591" t="s">
         <v>35</v>
       </c>
       <c r="H124" s="393"/>
       <c r="I124" s="394"/>
       <c r="J124" s="395"/>
-      <c r="K124" s="489" t="s">
+      <c r="K124" s="512" t="s">
         <v>37</v>
       </c>
-      <c r="L124" s="490"/>
-      <c r="M124" s="502"/>
+      <c r="L124" s="513"/>
+      <c r="M124" s="532"/>
       <c r="N124" s="448"/>
-      <c r="O124" s="672" t="s">
+      <c r="O124" s="484" t="s">
         <v>197</v>
       </c>
       <c r="P124" s="54"/>
-      <c r="Q124" s="489" t="s">
+      <c r="Q124" s="512" t="s">
         <v>118</v>
       </c>
-      <c r="R124" s="490"/>
-      <c r="S124" s="490"/>
-      <c r="T124" s="524"/>
-      <c r="U124" s="525"/>
-      <c r="V124" s="526"/>
+      <c r="R124" s="513"/>
+      <c r="S124" s="513"/>
+      <c r="T124" s="540"/>
+      <c r="U124" s="541"/>
+      <c r="V124" s="542"/>
       <c r="W124" s="396"/>
       <c r="X124" s="4"/>
       <c r="Y124" s="357"/>
@@ -8862,12 +8865,12 @@
       <c r="A125" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="B125" s="554"/>
-      <c r="C125" s="554"/>
-      <c r="D125" s="554"/>
-      <c r="E125" s="554"/>
-      <c r="F125" s="554"/>
-      <c r="G125" s="572"/>
+      <c r="B125" s="572"/>
+      <c r="C125" s="572"/>
+      <c r="D125" s="572"/>
+      <c r="E125" s="572"/>
+      <c r="F125" s="572"/>
+      <c r="G125" s="592"/>
       <c r="H125" s="397"/>
       <c r="I125" s="398"/>
       <c r="J125" s="399"/>
@@ -8897,40 +8900,40 @@
       <c r="A126" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B126" s="555"/>
-      <c r="C126" s="555"/>
-      <c r="D126" s="555"/>
-      <c r="E126" s="555"/>
-      <c r="F126" s="555"/>
-      <c r="G126" s="571" t="s">
+      <c r="B126" s="573"/>
+      <c r="C126" s="573"/>
+      <c r="D126" s="573"/>
+      <c r="E126" s="573"/>
+      <c r="F126" s="573"/>
+      <c r="G126" s="591" t="s">
         <v>47</v>
       </c>
-      <c r="H126" s="504" t="s">
+      <c r="H126" s="587" t="s">
         <v>37</v>
       </c>
-      <c r="I126" s="474"/>
-      <c r="J126" s="475"/>
+      <c r="I126" s="497"/>
+      <c r="J126" s="498"/>
       <c r="K126" s="359" t="s">
         <v>51</v>
       </c>
-      <c r="L126" s="551" t="s">
+      <c r="L126" s="567" t="s">
         <v>52</v>
       </c>
-      <c r="M126" s="552"/>
+      <c r="M126" s="568"/>
       <c r="N126" s="454" t="s">
         <v>198</v>
       </c>
       <c r="O126" s="453" t="s">
         <v>199</v>
       </c>
-      <c r="Q126" s="489" t="s">
+      <c r="Q126" s="512" t="s">
         <v>118</v>
       </c>
-      <c r="R126" s="490"/>
-      <c r="S126" s="490"/>
-      <c r="T126" s="527"/>
-      <c r="U126" s="528"/>
-      <c r="V126" s="529"/>
+      <c r="R126" s="513"/>
+      <c r="S126" s="513"/>
+      <c r="T126" s="543"/>
+      <c r="U126" s="544"/>
+      <c r="V126" s="545"/>
       <c r="W126" s="53"/>
       <c r="X126" s="54"/>
       <c r="Y126" s="400"/>
@@ -8939,12 +8942,12 @@
       <c r="A127" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="B127" s="554"/>
-      <c r="C127" s="554"/>
-      <c r="D127" s="554"/>
-      <c r="E127" s="554"/>
-      <c r="F127" s="554"/>
-      <c r="G127" s="572"/>
+      <c r="B127" s="572"/>
+      <c r="C127" s="572"/>
+      <c r="D127" s="572"/>
+      <c r="E127" s="572"/>
+      <c r="F127" s="572"/>
+      <c r="G127" s="592"/>
       <c r="H127" s="131" t="s">
         <v>136</v>
       </c>
@@ -8966,7 +8969,7 @@
       <c r="N127" s="455" t="s">
         <v>200</v>
       </c>
-      <c r="O127" s="673" t="s">
+      <c r="O127" s="485" t="s">
         <v>201</v>
       </c>
       <c r="Q127" s="78" t="s">
@@ -8994,14 +8997,14 @@
       <c r="D128" s="73"/>
       <c r="E128" s="73"/>
       <c r="F128" s="73"/>
-      <c r="G128" s="571" t="s">
+      <c r="G128" s="591" t="s">
         <v>59</v>
       </c>
-      <c r="H128" s="540" t="s">
+      <c r="H128" s="555" t="s">
         <v>117</v>
       </c>
-      <c r="I128" s="508"/>
-      <c r="J128" s="541"/>
+      <c r="I128" s="556"/>
+      <c r="J128" s="557"/>
       <c r="K128" s="56"/>
       <c r="L128" s="57"/>
       <c r="M128" s="401"/>
@@ -9013,9 +9016,9 @@
       <c r="Q128" s="402"/>
       <c r="R128" s="206"/>
       <c r="S128" s="206"/>
-      <c r="T128" s="524"/>
-      <c r="U128" s="525"/>
-      <c r="V128" s="526"/>
+      <c r="T128" s="540"/>
+      <c r="U128" s="541"/>
+      <c r="V128" s="542"/>
       <c r="W128" s="402"/>
       <c r="X128" s="206"/>
       <c r="Y128" s="403"/>
@@ -9027,14 +9030,14 @@
       <c r="D129" s="75"/>
       <c r="E129" s="75"/>
       <c r="F129" s="75"/>
-      <c r="G129" s="572"/>
+      <c r="G129" s="592"/>
       <c r="H129" s="233" t="s">
         <v>57</v>
       </c>
-      <c r="I129" s="549" t="s">
+      <c r="I129" s="565" t="s">
         <v>119</v>
       </c>
-      <c r="J129" s="550"/>
+      <c r="J129" s="566"/>
       <c r="K129" s="80"/>
       <c r="L129" s="81"/>
       <c r="M129" s="89"/>
@@ -9060,14 +9063,14 @@
       <c r="D130" s="73"/>
       <c r="E130" s="73"/>
       <c r="F130" s="74"/>
-      <c r="G130" s="571" t="s">
+      <c r="G130" s="591" t="s">
         <v>69</v>
       </c>
-      <c r="H130" s="540" t="s">
+      <c r="H130" s="555" t="s">
         <v>117</v>
       </c>
-      <c r="I130" s="508"/>
-      <c r="J130" s="541"/>
+      <c r="I130" s="556"/>
+      <c r="J130" s="557"/>
       <c r="K130" s="88"/>
       <c r="L130" s="109"/>
       <c r="M130" s="251"/>
@@ -9077,9 +9080,9 @@
       <c r="Q130" s="56"/>
       <c r="R130" s="57"/>
       <c r="S130" s="57"/>
-      <c r="T130" s="524"/>
-      <c r="U130" s="525"/>
-      <c r="V130" s="526"/>
+      <c r="T130" s="540"/>
+      <c r="U130" s="541"/>
+      <c r="V130" s="542"/>
       <c r="W130" s="56"/>
       <c r="X130" s="57"/>
       <c r="Y130" s="58"/>
@@ -9091,14 +9094,14 @@
       <c r="D131" s="249"/>
       <c r="E131" s="249"/>
       <c r="F131" s="249"/>
-      <c r="G131" s="575"/>
+      <c r="G131" s="596"/>
       <c r="H131" s="233" t="s">
         <v>57</v>
       </c>
-      <c r="I131" s="549" t="s">
+      <c r="I131" s="565" t="s">
         <v>176</v>
       </c>
-      <c r="J131" s="550"/>
+      <c r="J131" s="566"/>
       <c r="K131" s="336"/>
       <c r="L131" s="337"/>
       <c r="M131" s="216"/>
@@ -9117,32 +9120,32 @@
     </row>
     <row r="132" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A132" s="120"/>
-      <c r="B132" s="553">
+      <c r="B132" s="571">
         <v>14</v>
       </c>
-      <c r="C132" s="553">
+      <c r="C132" s="571">
         <v>14</v>
       </c>
-      <c r="D132" s="553">
+      <c r="D132" s="571">
         <v>11</v>
       </c>
-      <c r="E132" s="585">
+      <c r="E132" s="603">
         <v>9</v>
       </c>
-      <c r="F132" s="553">
+      <c r="F132" s="571">
         <v>6</v>
       </c>
-      <c r="G132" s="574" t="s">
+      <c r="G132" s="593" t="s">
         <v>22</v>
       </c>
       <c r="H132" s="279"/>
       <c r="I132" s="280"/>
       <c r="J132" s="317"/>
-      <c r="K132" s="530" t="s">
+      <c r="K132" s="546" t="s">
         <v>123</v>
       </c>
-      <c r="L132" s="531"/>
-      <c r="M132" s="532"/>
+      <c r="L132" s="547"/>
+      <c r="M132" s="548"/>
       <c r="N132" s="53"/>
       <c r="O132" s="408"/>
       <c r="P132" s="409"/>
@@ -9158,12 +9161,12 @@
     </row>
     <row r="133" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="177"/>
-      <c r="B133" s="554"/>
-      <c r="C133" s="554"/>
-      <c r="D133" s="554"/>
-      <c r="E133" s="586"/>
-      <c r="F133" s="554"/>
-      <c r="G133" s="572"/>
+      <c r="B133" s="572"/>
+      <c r="C133" s="572"/>
+      <c r="D133" s="572"/>
+      <c r="E133" s="604"/>
+      <c r="F133" s="572"/>
+      <c r="G133" s="592"/>
       <c r="H133" s="88"/>
       <c r="I133" s="109"/>
       <c r="J133" s="64"/>
@@ -9193,57 +9196,57 @@
       <c r="A134" s="177" t="s">
         <v>21</v>
       </c>
-      <c r="B134" s="555">
+      <c r="B134" s="573">
         <v>28</v>
       </c>
-      <c r="C134" s="555">
+      <c r="C134" s="573">
         <v>28</v>
       </c>
-      <c r="D134" s="555">
+      <c r="D134" s="573">
         <v>25</v>
       </c>
-      <c r="E134" s="555">
+      <c r="E134" s="573">
         <v>23</v>
       </c>
-      <c r="F134" s="555"/>
-      <c r="G134" s="571" t="s">
+      <c r="F134" s="573"/>
+      <c r="G134" s="591" t="s">
         <v>25</v>
       </c>
-      <c r="H134" s="540" t="s">
+      <c r="H134" s="555" t="s">
         <v>98</v>
       </c>
-      <c r="I134" s="508"/>
-      <c r="J134" s="541"/>
-      <c r="K134" s="473" t="s">
+      <c r="I134" s="556"/>
+      <c r="J134" s="557"/>
+      <c r="K134" s="496" t="s">
         <v>123</v>
       </c>
-      <c r="L134" s="474"/>
-      <c r="M134" s="475"/>
-      <c r="N134" s="489" t="s">
+      <c r="L134" s="497"/>
+      <c r="M134" s="498"/>
+      <c r="N134" s="512" t="s">
         <v>95</v>
       </c>
-      <c r="O134" s="490"/>
-      <c r="P134" s="490"/>
-      <c r="Q134" s="490"/>
-      <c r="R134" s="490"/>
-      <c r="S134" s="490"/>
-      <c r="T134" s="524"/>
-      <c r="U134" s="525"/>
-      <c r="V134" s="526"/>
-      <c r="W134" s="473"/>
-      <c r="X134" s="474"/>
-      <c r="Y134" s="488"/>
+      <c r="O134" s="513"/>
+      <c r="P134" s="513"/>
+      <c r="Q134" s="513"/>
+      <c r="R134" s="513"/>
+      <c r="S134" s="513"/>
+      <c r="T134" s="540"/>
+      <c r="U134" s="541"/>
+      <c r="V134" s="542"/>
+      <c r="W134" s="496"/>
+      <c r="X134" s="497"/>
+      <c r="Y134" s="511"/>
     </row>
     <row r="135" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="137" t="s">
         <v>140</v>
       </c>
-      <c r="B135" s="554"/>
-      <c r="C135" s="554"/>
-      <c r="D135" s="554"/>
-      <c r="E135" s="554"/>
-      <c r="F135" s="554"/>
-      <c r="G135" s="572"/>
+      <c r="B135" s="572"/>
+      <c r="C135" s="572"/>
+      <c r="D135" s="572"/>
+      <c r="E135" s="572"/>
+      <c r="F135" s="572"/>
+      <c r="G135" s="592"/>
       <c r="H135" s="183" t="s">
         <v>72</v>
       </c>
@@ -9256,16 +9259,16 @@
       <c r="K135" s="359" t="s">
         <v>51</v>
       </c>
-      <c r="L135" s="551" t="s">
+      <c r="L135" s="567" t="s">
         <v>52</v>
       </c>
-      <c r="M135" s="552"/>
+      <c r="M135" s="568"/>
       <c r="N135" s="68" t="s">
         <v>42</v>
       </c>
       <c r="O135" s="40"/>
-      <c r="P135" s="510"/>
-      <c r="Q135" s="510"/>
+      <c r="P135" s="529"/>
+      <c r="Q135" s="529"/>
       <c r="R135" s="83" t="s">
         <v>43</v>
       </c>
@@ -9283,35 +9286,35 @@
       <c r="A136" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="B136" s="555"/>
-      <c r="C136" s="555"/>
-      <c r="D136" s="555"/>
-      <c r="E136" s="555"/>
-      <c r="F136" s="555"/>
-      <c r="G136" s="571" t="s">
+      <c r="B136" s="573"/>
+      <c r="C136" s="573"/>
+      <c r="D136" s="573"/>
+      <c r="E136" s="573"/>
+      <c r="F136" s="573"/>
+      <c r="G136" s="591" t="s">
         <v>35</v>
       </c>
-      <c r="H136" s="537" t="s">
+      <c r="H136" s="552" t="s">
         <v>114</v>
       </c>
-      <c r="I136" s="538"/>
-      <c r="J136" s="539"/>
+      <c r="I136" s="553"/>
+      <c r="J136" s="554"/>
       <c r="K136" s="358"/>
       <c r="L136" s="61"/>
       <c r="M136" s="62"/>
-      <c r="N136" s="473" t="s">
+      <c r="N136" s="496" t="s">
         <v>95</v>
       </c>
-      <c r="O136" s="474"/>
-      <c r="P136" s="475"/>
-      <c r="Q136" s="473" t="s">
+      <c r="O136" s="497"/>
+      <c r="P136" s="498"/>
+      <c r="Q136" s="496" t="s">
         <v>99</v>
       </c>
-      <c r="R136" s="474"/>
-      <c r="S136" s="474"/>
-      <c r="T136" s="524"/>
-      <c r="U136" s="525"/>
-      <c r="V136" s="526"/>
+      <c r="R136" s="497"/>
+      <c r="S136" s="497"/>
+      <c r="T136" s="540"/>
+      <c r="U136" s="541"/>
+      <c r="V136" s="542"/>
       <c r="W136" s="416" t="s">
         <v>177</v>
       </c>
@@ -9324,12 +9327,12 @@
       <c r="A137" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="B137" s="554"/>
-      <c r="C137" s="554"/>
-      <c r="D137" s="554"/>
-      <c r="E137" s="554"/>
-      <c r="F137" s="554"/>
-      <c r="G137" s="572"/>
+      <c r="B137" s="572"/>
+      <c r="C137" s="572"/>
+      <c r="D137" s="572"/>
+      <c r="E137" s="572"/>
+      <c r="F137" s="572"/>
+      <c r="G137" s="592"/>
       <c r="H137" s="131" t="s">
         <v>111</v>
       </c>
@@ -9386,37 +9389,37 @@
       <c r="D138" s="73"/>
       <c r="E138" s="73"/>
       <c r="F138" s="74"/>
-      <c r="G138" s="571" t="s">
+      <c r="G138" s="591" t="s">
         <v>47</v>
       </c>
-      <c r="H138" s="537" t="s">
+      <c r="H138" s="552" t="s">
         <v>114</v>
       </c>
-      <c r="I138" s="538"/>
-      <c r="J138" s="539"/>
+      <c r="I138" s="553"/>
+      <c r="J138" s="554"/>
       <c r="K138" s="248"/>
       <c r="L138" s="4"/>
       <c r="M138" s="64"/>
-      <c r="N138" s="473" t="s">
+      <c r="N138" s="496" t="s">
         <v>38</v>
       </c>
-      <c r="O138" s="474"/>
-      <c r="P138" s="475"/>
-      <c r="Q138" s="473" t="s">
+      <c r="O138" s="497"/>
+      <c r="P138" s="498"/>
+      <c r="Q138" s="496" t="s">
         <v>99</v>
       </c>
-      <c r="R138" s="474"/>
-      <c r="S138" s="474"/>
-      <c r="T138" s="619"/>
-      <c r="U138" s="534"/>
-      <c r="V138" s="535"/>
+      <c r="R138" s="497"/>
+      <c r="S138" s="497"/>
+      <c r="T138" s="649"/>
+      <c r="U138" s="550"/>
+      <c r="V138" s="551"/>
       <c r="W138" s="418" t="s">
         <v>182</v>
       </c>
-      <c r="X138" s="618" t="s">
+      <c r="X138" s="648" t="s">
         <v>183</v>
       </c>
-      <c r="Y138" s="472"/>
+      <c r="Y138" s="495"/>
     </row>
     <row r="139" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="137" t="s">
@@ -9427,7 +9430,7 @@
       <c r="D139" s="75"/>
       <c r="E139" s="75"/>
       <c r="F139" s="75"/>
-      <c r="G139" s="572"/>
+      <c r="G139" s="592"/>
       <c r="H139" s="131" t="s">
         <v>111</v>
       </c>
@@ -9463,11 +9466,11 @@
       </c>
       <c r="U139" s="204"/>
       <c r="V139" s="415"/>
-      <c r="W139" s="509" t="s">
+      <c r="W139" s="595" t="s">
         <v>184</v>
       </c>
-      <c r="X139" s="510"/>
-      <c r="Y139" s="602"/>
+      <c r="X139" s="529"/>
+      <c r="Y139" s="630"/>
     </row>
     <row r="140" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="137" t="s">
@@ -9478,33 +9481,33 @@
       <c r="D140" s="73"/>
       <c r="E140" s="73"/>
       <c r="F140" s="74"/>
-      <c r="G140" s="571" t="s">
+      <c r="G140" s="591" t="s">
         <v>59</v>
       </c>
-      <c r="H140" s="507"/>
-      <c r="I140" s="508"/>
-      <c r="J140" s="541"/>
+      <c r="H140" s="584"/>
+      <c r="I140" s="556"/>
+      <c r="J140" s="557"/>
       <c r="K140" s="248"/>
       <c r="L140" s="248"/>
       <c r="M140" s="291"/>
-      <c r="N140" s="489" t="s">
+      <c r="N140" s="512" t="s">
         <v>185</v>
       </c>
-      <c r="O140" s="490"/>
-      <c r="P140" s="490"/>
-      <c r="Q140" s="490"/>
-      <c r="R140" s="490"/>
-      <c r="S140" s="490"/>
-      <c r="T140" s="485" t="s">
+      <c r="O140" s="513"/>
+      <c r="P140" s="513"/>
+      <c r="Q140" s="513"/>
+      <c r="R140" s="513"/>
+      <c r="S140" s="513"/>
+      <c r="T140" s="508" t="s">
         <v>147</v>
       </c>
-      <c r="U140" s="486"/>
-      <c r="V140" s="487"/>
-      <c r="W140" s="473" t="s">
+      <c r="U140" s="509"/>
+      <c r="V140" s="510"/>
+      <c r="W140" s="496" t="s">
         <v>186</v>
       </c>
-      <c r="X140" s="474"/>
-      <c r="Y140" s="488"/>
+      <c r="X140" s="497"/>
+      <c r="Y140" s="511"/>
     </row>
     <row r="141" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="137"/>
@@ -9513,7 +9516,7 @@
       <c r="D141" s="75"/>
       <c r="E141" s="75"/>
       <c r="F141" s="75"/>
-      <c r="G141" s="572"/>
+      <c r="G141" s="592"/>
       <c r="H141" s="68"/>
       <c r="I141" s="40"/>
       <c r="J141" s="89"/>
@@ -9524,8 +9527,8 @@
         <v>187</v>
       </c>
       <c r="O141" s="227"/>
-      <c r="P141" s="548"/>
-      <c r="Q141" s="548"/>
+      <c r="P141" s="564"/>
+      <c r="Q141" s="564"/>
       <c r="R141" s="93" t="s">
         <v>97</v>
       </c>
@@ -9558,12 +9561,12 @@
       <c r="D142" s="73"/>
       <c r="E142" s="73"/>
       <c r="F142" s="74"/>
-      <c r="G142" s="571" t="s">
+      <c r="G142" s="591" t="s">
         <v>69</v>
       </c>
-      <c r="H142" s="542"/>
-      <c r="I142" s="543"/>
-      <c r="J142" s="544"/>
+      <c r="H142" s="558"/>
+      <c r="I142" s="559"/>
+      <c r="J142" s="560"/>
       <c r="K142" s="4"/>
       <c r="L142" s="4"/>
       <c r="M142" s="4"/>
@@ -9573,11 +9576,11 @@
       <c r="Q142" s="50"/>
       <c r="R142" s="51"/>
       <c r="S142" s="51"/>
-      <c r="T142" s="485" t="s">
+      <c r="T142" s="508" t="s">
         <v>147</v>
       </c>
-      <c r="U142" s="486"/>
-      <c r="V142" s="487"/>
+      <c r="U142" s="509"/>
+      <c r="V142" s="510"/>
       <c r="W142" s="50"/>
       <c r="X142" s="51"/>
       <c r="Y142" s="158"/>
@@ -9589,7 +9592,7 @@
       <c r="D143" s="249"/>
       <c r="E143" s="249"/>
       <c r="F143" s="249"/>
-      <c r="G143" s="575"/>
+      <c r="G143" s="596"/>
       <c r="H143" s="217"/>
       <c r="I143" s="119"/>
       <c r="J143" s="421"/>
@@ -9617,62 +9620,62 @@
     </row>
     <row r="144" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A144" s="120"/>
-      <c r="B144" s="553">
+      <c r="B144" s="571">
         <v>15</v>
       </c>
-      <c r="C144" s="553">
+      <c r="C144" s="571">
         <v>1</v>
       </c>
-      <c r="D144" s="553">
+      <c r="D144" s="571">
         <v>12</v>
       </c>
-      <c r="E144" s="585">
+      <c r="E144" s="603">
         <v>10</v>
       </c>
-      <c r="F144" s="553">
+      <c r="F144" s="571">
         <v>7</v>
       </c>
-      <c r="G144" s="574" t="s">
+      <c r="G144" s="593" t="s">
         <v>22</v>
       </c>
       <c r="H144" s="456" t="s">
         <v>204</v>
       </c>
-      <c r="I144" s="678"/>
+      <c r="I144" s="490"/>
       <c r="J144" s="457"/>
       <c r="K144" s="279"/>
       <c r="L144" s="280"/>
       <c r="M144" s="280"/>
-      <c r="N144" s="530" t="s">
+      <c r="N144" s="546" t="s">
         <v>188</v>
       </c>
-      <c r="O144" s="531"/>
-      <c r="P144" s="532"/>
+      <c r="O144" s="547"/>
+      <c r="P144" s="548"/>
       <c r="Q144" s="125"/>
       <c r="R144" s="123"/>
       <c r="S144" s="123"/>
-      <c r="T144" s="615"/>
-      <c r="U144" s="616"/>
-      <c r="V144" s="617"/>
+      <c r="T144" s="645"/>
+      <c r="U144" s="646"/>
+      <c r="V144" s="647"/>
       <c r="W144" s="125"/>
       <c r="X144" s="123"/>
       <c r="Y144" s="127"/>
     </row>
     <row r="145" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="177"/>
-      <c r="B145" s="554"/>
-      <c r="C145" s="554"/>
-      <c r="D145" s="554"/>
-      <c r="E145" s="586"/>
-      <c r="F145" s="554"/>
-      <c r="G145" s="572"/>
+      <c r="B145" s="572"/>
+      <c r="C145" s="572"/>
+      <c r="D145" s="572"/>
+      <c r="E145" s="604"/>
+      <c r="F145" s="572"/>
+      <c r="G145" s="592"/>
       <c r="H145" s="458" t="s">
         <v>205</v>
       </c>
-      <c r="I145" s="679" t="s">
+      <c r="I145" s="491" t="s">
         <v>206</v>
       </c>
-      <c r="J145" s="677"/>
+      <c r="J145" s="489"/>
       <c r="K145" s="68"/>
       <c r="L145" s="40"/>
       <c r="M145" s="40"/>
@@ -9699,40 +9702,40 @@
       <c r="A146" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="B146" s="555"/>
-      <c r="C146" s="555">
+      <c r="B146" s="573"/>
+      <c r="C146" s="573">
         <v>15</v>
       </c>
-      <c r="D146" s="555">
+      <c r="D146" s="573">
         <v>26</v>
       </c>
-      <c r="E146" s="555">
+      <c r="E146" s="573">
         <v>24</v>
       </c>
-      <c r="F146" s="555"/>
-      <c r="G146" s="571" t="s">
+      <c r="F146" s="573"/>
+      <c r="G146" s="591" t="s">
         <v>25</v>
       </c>
       <c r="H146" s="459" t="s">
         <v>207</v>
       </c>
-      <c r="I146" s="680" t="s">
+      <c r="I146" s="492" t="s">
         <v>208</v>
       </c>
       <c r="J146" s="460"/>
-      <c r="N146" s="473" t="s">
+      <c r="N146" s="496" t="s">
         <v>188</v>
       </c>
-      <c r="O146" s="474"/>
-      <c r="P146" s="475"/>
+      <c r="O146" s="497"/>
+      <c r="P146" s="498"/>
       <c r="Q146" s="196"/>
       <c r="R146" s="54"/>
       <c r="S146" s="54"/>
-      <c r="T146" s="556" t="s">
+      <c r="T146" s="574" t="s">
         <v>190</v>
       </c>
-      <c r="U146" s="557"/>
-      <c r="V146" s="558"/>
+      <c r="U146" s="575"/>
+      <c r="V146" s="576"/>
       <c r="W146" s="196"/>
       <c r="X146" s="54"/>
       <c r="Y146" s="400"/>
@@ -9741,12 +9744,12 @@
       <c r="A147" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="B147" s="554"/>
-      <c r="C147" s="554"/>
-      <c r="D147" s="554"/>
-      <c r="E147" s="554"/>
-      <c r="F147" s="554"/>
-      <c r="G147" s="572"/>
+      <c r="B147" s="572"/>
+      <c r="C147" s="572"/>
+      <c r="D147" s="572"/>
+      <c r="E147" s="572"/>
+      <c r="F147" s="572"/>
+      <c r="G147" s="592"/>
       <c r="H147" s="461" t="s">
         <v>203</v>
       </c>
@@ -9775,65 +9778,65 @@
       <c r="A148" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="B148" s="555"/>
-      <c r="C148" s="555">
+      <c r="B148" s="573"/>
+      <c r="C148" s="573">
         <v>29</v>
       </c>
-      <c r="D148" s="555"/>
-      <c r="E148" s="555"/>
-      <c r="F148" s="555"/>
-      <c r="G148" s="571" t="s">
+      <c r="D148" s="573"/>
+      <c r="E148" s="573"/>
+      <c r="F148" s="573"/>
+      <c r="G148" s="591" t="s">
         <v>35</v>
       </c>
       <c r="H148" s="464" t="s">
         <v>209</v>
       </c>
-      <c r="I148" s="675"/>
+      <c r="I148" s="487"/>
       <c r="J148" s="55"/>
-      <c r="K148" s="668" t="s">
+      <c r="K148" s="480" t="s">
         <v>213</v>
       </c>
-      <c r="L148" s="669"/>
-      <c r="M148" s="669"/>
-      <c r="N148" s="492"/>
-      <c r="O148" s="493"/>
-      <c r="P148" s="493"/>
-      <c r="Q148" s="519"/>
-      <c r="R148" s="481"/>
-      <c r="S148" s="481"/>
-      <c r="T148" s="556"/>
-      <c r="U148" s="557"/>
-      <c r="V148" s="558"/>
-      <c r="W148" s="519"/>
-      <c r="X148" s="481"/>
-      <c r="Y148" s="482"/>
+      <c r="L148" s="481"/>
+      <c r="M148" s="481"/>
+      <c r="N148" s="515"/>
+      <c r="O148" s="516"/>
+      <c r="P148" s="516"/>
+      <c r="Q148" s="534"/>
+      <c r="R148" s="504"/>
+      <c r="S148" s="504"/>
+      <c r="T148" s="574"/>
+      <c r="U148" s="575"/>
+      <c r="V148" s="576"/>
+      <c r="W148" s="534"/>
+      <c r="X148" s="504"/>
+      <c r="Y148" s="505"/>
     </row>
     <row r="149" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="B149" s="554"/>
-      <c r="C149" s="554"/>
-      <c r="D149" s="554"/>
-      <c r="E149" s="554"/>
-      <c r="F149" s="554"/>
-      <c r="G149" s="572"/>
+      <c r="B149" s="572"/>
+      <c r="C149" s="572"/>
+      <c r="D149" s="572"/>
+      <c r="E149" s="572"/>
+      <c r="F149" s="572"/>
+      <c r="G149" s="592"/>
       <c r="H149" s="465" t="s">
         <v>210</v>
       </c>
-      <c r="I149" s="676" t="s">
+      <c r="I149" s="488" t="s">
         <v>211</v>
       </c>
       <c r="J149" s="64"/>
-      <c r="K149" s="662"/>
-      <c r="L149" s="662"/>
-      <c r="M149" s="662"/>
-      <c r="N149" s="521"/>
-      <c r="O149" s="522"/>
-      <c r="P149" s="522"/>
-      <c r="Q149" s="520"/>
-      <c r="R149" s="483"/>
-      <c r="S149" s="483"/>
+      <c r="K149" s="474"/>
+      <c r="L149" s="474"/>
+      <c r="M149" s="474"/>
+      <c r="N149" s="536"/>
+      <c r="O149" s="537"/>
+      <c r="P149" s="537"/>
+      <c r="Q149" s="535"/>
+      <c r="R149" s="506"/>
+      <c r="S149" s="506"/>
       <c r="T149" s="360" t="s">
         <v>191</v>
       </c>
@@ -9843,9 +9846,9 @@
       <c r="V149" s="427" t="s">
         <v>54</v>
       </c>
-      <c r="W149" s="520"/>
-      <c r="X149" s="483"/>
-      <c r="Y149" s="484"/>
+      <c r="W149" s="535"/>
+      <c r="X149" s="506"/>
+      <c r="Y149" s="507"/>
     </row>
     <row r="150" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="137" t="s">
@@ -9856,7 +9859,7 @@
       <c r="D150" s="190"/>
       <c r="E150" s="190"/>
       <c r="F150" s="190"/>
-      <c r="G150" s="577" t="s">
+      <c r="G150" s="597" t="s">
         <v>47</v>
       </c>
       <c r="H150" s="466" t="s">
@@ -9866,23 +9869,23 @@
         <v>54</v>
       </c>
       <c r="J150" s="446"/>
-      <c r="K150" s="662" t="s">
+      <c r="K150" s="474" t="s">
         <v>216</v>
       </c>
-      <c r="L150" s="663"/>
-      <c r="M150" s="664"/>
-      <c r="N150" s="492"/>
-      <c r="O150" s="493"/>
-      <c r="P150" s="493"/>
-      <c r="Q150" s="519"/>
-      <c r="R150" s="481"/>
-      <c r="S150" s="481"/>
+      <c r="L150" s="475"/>
+      <c r="M150" s="476"/>
+      <c r="N150" s="515"/>
+      <c r="O150" s="516"/>
+      <c r="P150" s="516"/>
+      <c r="Q150" s="534"/>
+      <c r="R150" s="504"/>
+      <c r="S150" s="504"/>
       <c r="T150" s="428"/>
       <c r="U150" s="429"/>
       <c r="V150" s="430"/>
-      <c r="W150" s="519"/>
-      <c r="X150" s="481"/>
-      <c r="Y150" s="482"/>
+      <c r="W150" s="534"/>
+      <c r="X150" s="504"/>
+      <c r="Y150" s="505"/>
     </row>
     <row r="151" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="137" t="s">
@@ -9893,29 +9896,29 @@
       <c r="D151" s="38"/>
       <c r="E151" s="38"/>
       <c r="F151" s="38"/>
-      <c r="G151" s="578"/>
-      <c r="H151" s="468" t="s">
+      <c r="G151" s="598"/>
+      <c r="H151" s="679" t="s">
         <v>212</v>
       </c>
-      <c r="I151" s="469"/>
+      <c r="I151" s="680"/>
       <c r="J151" s="445"/>
-      <c r="K151" s="674" t="s">
+      <c r="K151" s="486" t="s">
         <v>214</v>
       </c>
-      <c r="L151" s="662"/>
-      <c r="M151" s="662"/>
-      <c r="N151" s="521"/>
-      <c r="O151" s="522"/>
-      <c r="P151" s="522"/>
-      <c r="Q151" s="520"/>
-      <c r="R151" s="483"/>
-      <c r="S151" s="483"/>
+      <c r="L151" s="474"/>
+      <c r="M151" s="474"/>
+      <c r="N151" s="536"/>
+      <c r="O151" s="537"/>
+      <c r="P151" s="537"/>
+      <c r="Q151" s="535"/>
+      <c r="R151" s="506"/>
+      <c r="S151" s="506"/>
       <c r="T151" s="360"/>
       <c r="U151" s="189"/>
       <c r="V151" s="427"/>
-      <c r="W151" s="520"/>
-      <c r="X151" s="483"/>
-      <c r="Y151" s="484"/>
+      <c r="W151" s="535"/>
+      <c r="X151" s="506"/>
+      <c r="Y151" s="507"/>
     </row>
     <row r="152" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="137" t="s">
@@ -9926,27 +9929,27 @@
       <c r="D152" s="74"/>
       <c r="E152" s="74"/>
       <c r="F152" s="74"/>
-      <c r="G152" s="571" t="s">
+      <c r="G152" s="591" t="s">
         <v>59</v>
       </c>
       <c r="H152" s="56"/>
       <c r="I152" s="57"/>
       <c r="J152" s="57"/>
-      <c r="K152" s="671"/>
-      <c r="L152" s="666"/>
-      <c r="M152" s="665"/>
-      <c r="N152" s="492"/>
-      <c r="O152" s="493"/>
-      <c r="P152" s="493"/>
-      <c r="Q152" s="492"/>
-      <c r="R152" s="493"/>
-      <c r="S152" s="493"/>
+      <c r="K152" s="483"/>
+      <c r="L152" s="478"/>
+      <c r="M152" s="477"/>
+      <c r="N152" s="515"/>
+      <c r="O152" s="516"/>
+      <c r="P152" s="516"/>
+      <c r="Q152" s="515"/>
+      <c r="R152" s="516"/>
+      <c r="S152" s="516"/>
       <c r="T152" s="431"/>
       <c r="U152" s="391"/>
       <c r="V152" s="391"/>
-      <c r="W152" s="492"/>
-      <c r="X152" s="493"/>
-      <c r="Y152" s="494"/>
+      <c r="W152" s="515"/>
+      <c r="X152" s="516"/>
+      <c r="Y152" s="517"/>
     </row>
     <row r="153" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="137"/>
@@ -9955,27 +9958,27 @@
       <c r="D153" s="75"/>
       <c r="E153" s="75"/>
       <c r="F153" s="75"/>
-      <c r="G153" s="572"/>
+      <c r="G153" s="592"/>
       <c r="H153" s="99"/>
       <c r="I153" s="83"/>
       <c r="J153" s="432"/>
-      <c r="K153" s="670" t="s">
+      <c r="K153" s="482" t="s">
         <v>215</v>
       </c>
-      <c r="L153" s="667"/>
-      <c r="M153" s="667"/>
-      <c r="N153" s="521"/>
-      <c r="O153" s="522"/>
-      <c r="P153" s="522"/>
-      <c r="Q153" s="521"/>
-      <c r="R153" s="522"/>
-      <c r="S153" s="522"/>
+      <c r="L153" s="479"/>
+      <c r="M153" s="479"/>
+      <c r="N153" s="536"/>
+      <c r="O153" s="537"/>
+      <c r="P153" s="537"/>
+      <c r="Q153" s="536"/>
+      <c r="R153" s="537"/>
+      <c r="S153" s="537"/>
       <c r="T153" s="431"/>
       <c r="U153" s="391"/>
       <c r="V153" s="391"/>
-      <c r="W153" s="521"/>
-      <c r="X153" s="522"/>
-      <c r="Y153" s="607"/>
+      <c r="W153" s="536"/>
+      <c r="X153" s="537"/>
+      <c r="Y153" s="637"/>
     </row>
     <row r="154" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="137"/>
@@ -9984,7 +9987,7 @@
       <c r="D154" s="73"/>
       <c r="E154" s="73"/>
       <c r="F154" s="74"/>
-      <c r="G154" s="571" t="s">
+      <c r="G154" s="591" t="s">
         <v>69</v>
       </c>
       <c r="H154" s="285"/>
@@ -9993,18 +9996,18 @@
       <c r="K154" s="380"/>
       <c r="L154" s="248"/>
       <c r="M154" s="248"/>
-      <c r="N154" s="656"/>
-      <c r="O154" s="657"/>
-      <c r="P154" s="658"/>
-      <c r="Q154" s="492"/>
-      <c r="R154" s="493"/>
-      <c r="S154" s="493"/>
+      <c r="N154" s="468"/>
+      <c r="O154" s="469"/>
+      <c r="P154" s="470"/>
+      <c r="Q154" s="515"/>
+      <c r="R154" s="516"/>
+      <c r="S154" s="516"/>
       <c r="T154" s="433"/>
       <c r="U154" s="434"/>
       <c r="V154" s="435"/>
-      <c r="W154" s="492"/>
-      <c r="X154" s="493"/>
-      <c r="Y154" s="494"/>
+      <c r="W154" s="515"/>
+      <c r="X154" s="516"/>
+      <c r="Y154" s="517"/>
     </row>
     <row r="155" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="159"/>
@@ -10013,25 +10016,25 @@
       <c r="D155" s="249"/>
       <c r="E155" s="249"/>
       <c r="F155" s="249"/>
-      <c r="G155" s="575"/>
+      <c r="G155" s="596"/>
       <c r="H155" s="217"/>
       <c r="I155" s="119"/>
       <c r="J155" s="252"/>
       <c r="K155" s="166"/>
       <c r="L155" s="167"/>
       <c r="M155" s="167"/>
-      <c r="N155" s="659"/>
-      <c r="O155" s="660"/>
-      <c r="P155" s="661"/>
-      <c r="Q155" s="517"/>
-      <c r="R155" s="518"/>
-      <c r="S155" s="518"/>
+      <c r="N155" s="471"/>
+      <c r="O155" s="472"/>
+      <c r="P155" s="473"/>
+      <c r="Q155" s="538"/>
+      <c r="R155" s="539"/>
+      <c r="S155" s="539"/>
       <c r="T155" s="436"/>
       <c r="U155" s="437"/>
       <c r="V155" s="438"/>
-      <c r="W155" s="517"/>
-      <c r="X155" s="518"/>
-      <c r="Y155" s="606"/>
+      <c r="W155" s="538"/>
+      <c r="X155" s="539"/>
+      <c r="Y155" s="636"/>
     </row>
     <row r="156" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A156" s="439"/>
@@ -10739,8 +10742,6 @@
     </row>
   </sheetData>
   <mergeCells count="522">
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="H43:J43"/>
     <mergeCell ref="H49:J49"/>
     <mergeCell ref="N148:P149"/>
     <mergeCell ref="N150:P151"/>
@@ -10748,28 +10749,18 @@
     <mergeCell ref="N31:P31"/>
     <mergeCell ref="K39:M39"/>
     <mergeCell ref="N33:P33"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="K25:M25"/>
     <mergeCell ref="H37:J37"/>
     <mergeCell ref="N116:P116"/>
     <mergeCell ref="K116:M116"/>
     <mergeCell ref="N111:P111"/>
     <mergeCell ref="K108:M108"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="N69:S69"/>
-    <mergeCell ref="N57:P57"/>
-    <mergeCell ref="N55:P55"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="Q51:S51"/>
-    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K132:M132"/>
+    <mergeCell ref="K115:M115"/>
+    <mergeCell ref="K102:M102"/>
+    <mergeCell ref="H140:J140"/>
+    <mergeCell ref="H138:J138"/>
+    <mergeCell ref="H151:I151"/>
     <mergeCell ref="Q114:S114"/>
     <mergeCell ref="K65:M65"/>
     <mergeCell ref="N65:P65"/>
@@ -10782,6 +10773,10 @@
     <mergeCell ref="Q67:S67"/>
     <mergeCell ref="Q65:S65"/>
     <mergeCell ref="K67:M67"/>
+    <mergeCell ref="K110:M110"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="K105:M105"/>
     <mergeCell ref="W51:Y51"/>
     <mergeCell ref="W53:Y53"/>
     <mergeCell ref="T45:V45"/>
@@ -10806,14 +10801,6 @@
     <mergeCell ref="T43:V43"/>
     <mergeCell ref="W41:Y41"/>
     <mergeCell ref="W44:Y45"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="K41:M41"/>
     <mergeCell ref="T59:V59"/>
     <mergeCell ref="K43:M43"/>
     <mergeCell ref="K45:M45"/>
@@ -10823,32 +10810,43 @@
     <mergeCell ref="N51:P51"/>
     <mergeCell ref="N53:P53"/>
     <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="Q29:S29"/>
     <mergeCell ref="Q37:S37"/>
     <mergeCell ref="Q39:S39"/>
     <mergeCell ref="P36:Q36"/>
     <mergeCell ref="N37:P37"/>
     <mergeCell ref="N35:S35"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="N57:P57"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="Q51:S51"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="Q92:S92"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="Q29:S29"/>
     <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="W88:Y88"/>
-    <mergeCell ref="T106:V106"/>
-    <mergeCell ref="Q113:S113"/>
-    <mergeCell ref="U110:V110"/>
-    <mergeCell ref="Q100:S100"/>
-    <mergeCell ref="Q106:S106"/>
-    <mergeCell ref="T92:V92"/>
-    <mergeCell ref="Q86:S86"/>
-    <mergeCell ref="Q88:S88"/>
-    <mergeCell ref="Q94:S94"/>
-    <mergeCell ref="W89:Y90"/>
-    <mergeCell ref="X111:Y111"/>
-    <mergeCell ref="T104:V104"/>
-    <mergeCell ref="T93:V93"/>
-    <mergeCell ref="N102:S102"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="N104:P104"/>
-    <mergeCell ref="Q90:S90"/>
-    <mergeCell ref="Q92:S92"/>
+    <mergeCell ref="N69:S69"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="H43:J43"/>
     <mergeCell ref="W154:Y155"/>
     <mergeCell ref="T148:V148"/>
     <mergeCell ref="W148:Y149"/>
@@ -10897,10 +10895,6 @@
     <mergeCell ref="N25:P26"/>
     <mergeCell ref="N15:P15"/>
     <mergeCell ref="N17:P17"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="G124:G125"/>
-    <mergeCell ref="G126:G127"/>
     <mergeCell ref="H71:J71"/>
     <mergeCell ref="F51:F52"/>
     <mergeCell ref="F53:F54"/>
@@ -10920,7 +10914,8 @@
     <mergeCell ref="H66:J66"/>
     <mergeCell ref="H65:J65"/>
     <mergeCell ref="H59:J59"/>
-    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H98:J98"/>
+    <mergeCell ref="H108:J108"/>
     <mergeCell ref="F35:F36"/>
     <mergeCell ref="F37:F38"/>
     <mergeCell ref="F47:F48"/>
@@ -10941,6 +10936,7 @@
     <mergeCell ref="F59:F60"/>
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E112:E113"/>
     <mergeCell ref="F136:F137"/>
     <mergeCell ref="F75:F76"/>
     <mergeCell ref="B132:B133"/>
@@ -10961,6 +10957,10 @@
     <mergeCell ref="D108:D109"/>
     <mergeCell ref="D92:D93"/>
     <mergeCell ref="D84:D85"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="C110:C111"/>
     <mergeCell ref="B148:B149"/>
     <mergeCell ref="C148:C149"/>
     <mergeCell ref="D148:D149"/>
@@ -10980,16 +10980,7 @@
     <mergeCell ref="B144:B145"/>
     <mergeCell ref="C144:C145"/>
     <mergeCell ref="D144:D145"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="C110:C111"/>
     <mergeCell ref="E144:E145"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="B124:B125"/>
     <mergeCell ref="E132:E133"/>
     <mergeCell ref="B88:B89"/>
     <mergeCell ref="C88:C89"/>
@@ -11009,16 +11000,17 @@
     <mergeCell ref="E98:E99"/>
     <mergeCell ref="B96:B97"/>
     <mergeCell ref="C96:C97"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="D100:D101"/>
     <mergeCell ref="C59:C60"/>
     <mergeCell ref="D59:D60"/>
     <mergeCell ref="E59:E60"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="B61:B62"/>
     <mergeCell ref="B63:B64"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="B124:B125"/>
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="D51:D52"/>
@@ -11039,6 +11031,10 @@
     <mergeCell ref="D90:D91"/>
     <mergeCell ref="D71:D72"/>
     <mergeCell ref="D73:D74"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
     <mergeCell ref="E120:E121"/>
     <mergeCell ref="D110:D111"/>
     <mergeCell ref="E110:E111"/>
@@ -11048,10 +11044,18 @@
     <mergeCell ref="C112:C113"/>
     <mergeCell ref="C120:C121"/>
     <mergeCell ref="E96:E97"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="B47:B48"/>
@@ -11067,15 +11071,6 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="D37:D38"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="E27:E28"/>
@@ -11132,22 +11127,10 @@
     <mergeCell ref="G122:G123"/>
     <mergeCell ref="G134:G135"/>
     <mergeCell ref="G136:G137"/>
-    <mergeCell ref="K132:M132"/>
     <mergeCell ref="G118:G119"/>
     <mergeCell ref="G120:G121"/>
-    <mergeCell ref="K110:M110"/>
-    <mergeCell ref="K115:M115"/>
-    <mergeCell ref="L114:M114"/>
-    <mergeCell ref="L104:M104"/>
-    <mergeCell ref="K105:M105"/>
-    <mergeCell ref="K102:M102"/>
     <mergeCell ref="G98:G99"/>
     <mergeCell ref="G100:G101"/>
-    <mergeCell ref="H98:J98"/>
-    <mergeCell ref="H140:J140"/>
-    <mergeCell ref="H138:J138"/>
-    <mergeCell ref="H108:J108"/>
-    <mergeCell ref="G116:G117"/>
     <mergeCell ref="G140:G141"/>
     <mergeCell ref="G132:G133"/>
     <mergeCell ref="G108:G109"/>
@@ -11163,6 +11146,15 @@
     <mergeCell ref="Q124:S124"/>
     <mergeCell ref="N120:P120"/>
     <mergeCell ref="Q126:S126"/>
+    <mergeCell ref="Q104:S104"/>
+    <mergeCell ref="Q115:S115"/>
+    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="H112:J112"/>
+    <mergeCell ref="G124:G125"/>
+    <mergeCell ref="G126:G127"/>
+    <mergeCell ref="G116:G117"/>
+    <mergeCell ref="T106:V106"/>
     <mergeCell ref="F144:F145"/>
     <mergeCell ref="F126:F127"/>
     <mergeCell ref="T77:V77"/>
@@ -11209,6 +11201,8 @@
     <mergeCell ref="H128:J128"/>
     <mergeCell ref="I129:J129"/>
     <mergeCell ref="L135:M135"/>
+    <mergeCell ref="K98:M98"/>
+    <mergeCell ref="N94:P94"/>
     <mergeCell ref="Q148:S149"/>
     <mergeCell ref="Q150:S151"/>
     <mergeCell ref="Q152:S153"/>
@@ -11222,10 +11216,6 @@
     <mergeCell ref="N144:P144"/>
     <mergeCell ref="N134:S134"/>
     <mergeCell ref="P135:Q135"/>
-    <mergeCell ref="K98:M98"/>
-    <mergeCell ref="N94:P94"/>
-    <mergeCell ref="Q104:S104"/>
-    <mergeCell ref="Q115:S115"/>
     <mergeCell ref="T49:V49"/>
     <mergeCell ref="T51:V51"/>
     <mergeCell ref="T53:V53"/>
@@ -11237,7 +11227,19 @@
     <mergeCell ref="N114:P114"/>
     <mergeCell ref="N106:P106"/>
     <mergeCell ref="K75:M75"/>
-    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="K100:M100"/>
+    <mergeCell ref="Q113:S113"/>
+    <mergeCell ref="U110:V110"/>
+    <mergeCell ref="Q100:S100"/>
+    <mergeCell ref="Q106:S106"/>
+    <mergeCell ref="T92:V92"/>
+    <mergeCell ref="Q86:S86"/>
+    <mergeCell ref="Q88:S88"/>
+    <mergeCell ref="Q94:S94"/>
+    <mergeCell ref="T104:V104"/>
+    <mergeCell ref="T93:V93"/>
+    <mergeCell ref="N102:S102"/>
+    <mergeCell ref="P103:Q103"/>
     <mergeCell ref="W56:Y57"/>
     <mergeCell ref="N136:P136"/>
     <mergeCell ref="N138:P138"/>
@@ -11257,10 +11259,11 @@
     <mergeCell ref="W92:Y92"/>
     <mergeCell ref="T73:V73"/>
     <mergeCell ref="T75:V75"/>
-    <mergeCell ref="H104:J104"/>
-    <mergeCell ref="K100:M100"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="H112:J112"/>
+    <mergeCell ref="W88:Y88"/>
+    <mergeCell ref="W89:Y90"/>
+    <mergeCell ref="X111:Y111"/>
+    <mergeCell ref="N104:P104"/>
+    <mergeCell ref="Q90:S90"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -11273,4 +11276,40 @@
     <brk id="82" max="24" man="1"/>
   </rowBreaks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/www/examples/fei4_140213.xlsx
+++ b/www/examples/fei4_140213.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="720" windowWidth="20730" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="840" yWindow="780" windowWidth="20730" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="4 курс " sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="224">
   <si>
     <t>"Утверждаю"</t>
   </si>
@@ -448,9 +448,6 @@
     <t>Разработка управленч.решений</t>
   </si>
   <si>
-    <t>11.30-13.00</t>
-  </si>
-  <si>
     <t>Эконом.недвиж.</t>
   </si>
   <si>
@@ -533,9 +530,6 @@
   </si>
   <si>
     <t>Разраб.упр.решений</t>
-  </si>
-  <si>
-    <t>10.00-11.30</t>
   </si>
   <si>
     <t>Слепова</t>
@@ -685,6 +679,30 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Чичилин гараж №3</t>
+  </si>
+  <si>
+    <t>11:30-13:00</t>
+  </si>
+  <si>
+    <t>13:00-14:30</t>
+  </si>
+  <si>
+    <t>c 10:00-11:30</t>
+  </si>
+  <si>
+    <t>Пучков c 18:00</t>
+  </si>
+  <si>
+    <t>с 18:00</t>
+  </si>
+  <si>
+    <t>c 11:20</t>
+  </si>
+  <si>
+    <t>c 16:40</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1094,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="68">
+  <borders count="69">
     <border>
       <left/>
       <right/>
@@ -1839,6 +1857,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1849,7 +1880,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="681">
+  <cellXfs count="682">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3173,9 +3204,6 @@
     <xf numFmtId="0" fontId="31" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="9" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3333,14 +3361,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3350,6 +3372,42 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3360,70 +3418,66 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3432,6 +3486,60 @@
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3441,37 +3549,7 @@
     <xf numFmtId="0" fontId="26" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3481,6 +3559,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3492,22 +3576,31 @@
     <xf numFmtId="0" fontId="34" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3519,185 +3612,220 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3709,219 +3837,125 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4233,15 +4267,15 @@
   </sheetPr>
   <dimension ref="A1:AA210"/>
   <sheetViews>
-    <sheetView topLeftCell="A114" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L139" sqref="L139"/>
+    <sheetView tabSelected="1" topLeftCell="L136" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="X18" sqref="X18:Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="444" customWidth="1"/>
-    <col min="2" max="6" width="5.7109375" style="444" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" style="444" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="443" customWidth="1"/>
+    <col min="2" max="6" width="5.7109375" style="443" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" style="443" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" style="9" customWidth="1"/>
     <col min="9" max="10" width="8" style="9" customWidth="1"/>
     <col min="11" max="11" width="12" style="9" customWidth="1"/>
@@ -4261,7 +4295,7 @@
   <sheetData>
     <row r="1" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4498,29 +4532,29 @@
       <c r="V10" s="25"/>
       <c r="W10" s="25"/>
       <c r="X10" s="25"/>
-      <c r="Y10" s="25"/>
+      <c r="Y10" s="681"/>
       <c r="Z10" s="61"/>
     </row>
     <row r="11" spans="1:27" s="36" customFormat="1" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="571">
+      <c r="B11" s="568">
         <v>17</v>
       </c>
-      <c r="C11" s="571">
+      <c r="C11" s="568">
         <v>3</v>
       </c>
-      <c r="D11" s="571">
+      <c r="D11" s="568">
         <v>14</v>
       </c>
-      <c r="E11" s="571">
+      <c r="E11" s="568">
         <v>12</v>
       </c>
-      <c r="F11" s="571">
+      <c r="F11" s="568">
         <v>9</v>
       </c>
-      <c r="G11" s="599" t="s">
+      <c r="G11" s="655" t="s">
         <v>22</v>
       </c>
       <c r="H11" s="29"/>
@@ -4546,12 +4580,12 @@
       <c r="A12" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="572"/>
-      <c r="C12" s="572"/>
-      <c r="D12" s="572"/>
-      <c r="E12" s="572"/>
-      <c r="F12" s="572"/>
-      <c r="G12" s="600"/>
+      <c r="B12" s="569"/>
+      <c r="C12" s="569"/>
+      <c r="D12" s="569"/>
+      <c r="E12" s="569"/>
+      <c r="F12" s="569"/>
+      <c r="G12" s="656"/>
       <c r="H12" s="39"/>
       <c r="I12" s="39"/>
       <c r="J12" s="40"/>
@@ -4575,30 +4609,30 @@
       <c r="A13" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="573"/>
-      <c r="C13" s="573">
+      <c r="B13" s="570"/>
+      <c r="C13" s="570">
         <v>17</v>
       </c>
-      <c r="D13" s="573">
+      <c r="D13" s="570">
         <v>28</v>
       </c>
-      <c r="E13" s="573">
+      <c r="E13" s="570">
         <v>26</v>
       </c>
       <c r="F13" s="49"/>
-      <c r="G13" s="601" t="s">
+      <c r="G13" s="657" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="496" t="s">
+      <c r="H13" s="493" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="497"/>
-      <c r="J13" s="498"/>
-      <c r="K13" s="496" t="s">
+      <c r="I13" s="494"/>
+      <c r="J13" s="495"/>
+      <c r="K13" s="493" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="497"/>
-      <c r="M13" s="498"/>
+      <c r="L13" s="494"/>
+      <c r="M13" s="495"/>
       <c r="N13" s="53"/>
       <c r="O13" s="54"/>
       <c r="P13" s="55"/>
@@ -4606,8 +4640,8 @@
       <c r="R13" s="57"/>
       <c r="S13" s="57"/>
       <c r="T13" s="625"/>
-      <c r="U13" s="556"/>
-      <c r="V13" s="557"/>
+      <c r="U13" s="527"/>
+      <c r="V13" s="525"/>
       <c r="W13" s="56"/>
       <c r="X13" s="57"/>
       <c r="Y13" s="58"/>
@@ -4616,12 +4650,12 @@
       <c r="A14" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="572"/>
-      <c r="C14" s="572"/>
-      <c r="D14" s="572"/>
-      <c r="E14" s="572"/>
+      <c r="B14" s="569"/>
+      <c r="C14" s="569"/>
+      <c r="D14" s="569"/>
+      <c r="E14" s="569"/>
       <c r="F14" s="38"/>
-      <c r="G14" s="600"/>
+      <c r="G14" s="656"/>
       <c r="H14" s="60" t="s">
         <v>29</v>
       </c>
@@ -4658,60 +4692,58 @@
         <v>34</v>
       </c>
       <c r="B15" s="73"/>
-      <c r="C15" s="573">
+      <c r="C15" s="570">
         <v>31</v>
       </c>
-      <c r="D15" s="573"/>
+      <c r="D15" s="570"/>
       <c r="E15" s="73"/>
       <c r="F15" s="74"/>
-      <c r="G15" s="601" t="s">
+      <c r="G15" s="657" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="578" t="s">
+      <c r="H15" s="583" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="513"/>
-      <c r="J15" s="513"/>
-      <c r="K15" s="512" t="s">
+      <c r="I15" s="500"/>
+      <c r="J15" s="500"/>
+      <c r="K15" s="499" t="s">
         <v>37</v>
       </c>
-      <c r="L15" s="513"/>
-      <c r="M15" s="532"/>
-      <c r="N15" s="496" t="s">
+      <c r="L15" s="500"/>
+      <c r="M15" s="501"/>
+      <c r="N15" s="493" t="s">
         <v>38</v>
       </c>
-      <c r="O15" s="497"/>
-      <c r="P15" s="498"/>
-      <c r="Q15" s="496" t="s">
+      <c r="O15" s="494"/>
+      <c r="P15" s="495"/>
+      <c r="Q15" s="493" t="s">
         <v>39</v>
       </c>
-      <c r="R15" s="497"/>
-      <c r="S15" s="497"/>
+      <c r="R15" s="494"/>
+      <c r="S15" s="494"/>
       <c r="T15" s="626"/>
-      <c r="U15" s="559"/>
-      <c r="V15" s="560"/>
-      <c r="W15" s="513" t="s">
+      <c r="U15" s="524"/>
+      <c r="V15" s="627"/>
+      <c r="W15" s="500" t="s">
         <v>40</v>
       </c>
-      <c r="X15" s="513"/>
-      <c r="Y15" s="514"/>
+      <c r="X15" s="500"/>
+      <c r="Y15" s="549"/>
     </row>
     <row r="16" spans="1:27" s="36" customFormat="1" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="75"/>
-      <c r="C16" s="572"/>
-      <c r="D16" s="572"/>
+      <c r="C16" s="569"/>
+      <c r="D16" s="569"/>
       <c r="E16" s="75"/>
       <c r="F16" s="75"/>
-      <c r="G16" s="600"/>
+      <c r="G16" s="656"/>
       <c r="H16" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="40" t="s">
-        <v>33</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="I16" s="40"/>
       <c r="J16" s="77" t="s">
         <v>31</v>
       </c>
@@ -4743,13 +4775,13 @@
         <v>31</v>
       </c>
       <c r="T16" s="82"/>
-      <c r="U16" s="529"/>
-      <c r="V16" s="531"/>
-      <c r="W16" s="656" t="s">
-        <v>195</v>
-      </c>
-      <c r="X16" s="656"/>
-      <c r="Y16" s="657"/>
+      <c r="U16" s="511"/>
+      <c r="V16" s="513"/>
+      <c r="W16" s="528" t="s">
+        <v>193</v>
+      </c>
+      <c r="X16" s="528"/>
+      <c r="Y16" s="529"/>
     </row>
     <row r="17" spans="1:25" s="36" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
@@ -4760,35 +4792,35 @@
       <c r="D17" s="73"/>
       <c r="E17" s="73"/>
       <c r="F17" s="74"/>
-      <c r="G17" s="601" t="s">
+      <c r="G17" s="657" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="578" t="s">
+      <c r="H17" s="583" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="513"/>
-      <c r="J17" s="532"/>
-      <c r="K17" s="496" t="s">
+      <c r="I17" s="500"/>
+      <c r="J17" s="501"/>
+      <c r="K17" s="493" t="s">
         <v>48</v>
       </c>
-      <c r="L17" s="497"/>
-      <c r="M17" s="498"/>
-      <c r="N17" s="496" t="s">
+      <c r="L17" s="494"/>
+      <c r="M17" s="495"/>
+      <c r="N17" s="493" t="s">
         <v>38</v>
       </c>
-      <c r="O17" s="497"/>
-      <c r="P17" s="498"/>
-      <c r="Q17" s="584" t="s">
+      <c r="O17" s="494"/>
+      <c r="P17" s="495"/>
+      <c r="Q17" s="635" t="s">
         <v>49</v>
       </c>
-      <c r="R17" s="556"/>
-      <c r="S17" s="556"/>
-      <c r="T17" s="627"/>
-      <c r="U17" s="616"/>
-      <c r="V17" s="628"/>
-      <c r="W17" s="656"/>
-      <c r="X17" s="656"/>
-      <c r="Y17" s="657"/>
+      <c r="R17" s="527"/>
+      <c r="S17" s="527"/>
+      <c r="T17" s="628"/>
+      <c r="U17" s="629"/>
+      <c r="V17" s="630"/>
+      <c r="W17" s="528"/>
+      <c r="X17" s="528"/>
+      <c r="Y17" s="529"/>
     </row>
     <row r="18" spans="1:25" s="36" customFormat="1" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
@@ -4799,14 +4831,14 @@
       <c r="D18" s="85"/>
       <c r="E18" s="85"/>
       <c r="F18" s="85"/>
-      <c r="G18" s="600"/>
+      <c r="G18" s="656"/>
       <c r="H18" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="565" t="s">
+      <c r="I18" s="497" t="s">
         <v>52</v>
       </c>
-      <c r="J18" s="566"/>
+      <c r="J18" s="498"/>
       <c r="K18" s="88" t="s">
         <v>53</v>
       </c>
@@ -4837,15 +4869,15 @@
       <c r="T18" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="U18" s="614"/>
-      <c r="V18" s="629"/>
+      <c r="U18" s="631"/>
+      <c r="V18" s="632"/>
       <c r="W18" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="X18" s="671" t="s">
+      <c r="X18" s="547" t="s">
         <v>58</v>
       </c>
-      <c r="Y18" s="672"/>
+      <c r="Y18" s="548"/>
     </row>
     <row r="19" spans="1:25" s="36" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="37" t="s">
@@ -4856,7 +4888,7 @@
       <c r="D19" s="73"/>
       <c r="E19" s="73"/>
       <c r="F19" s="74"/>
-      <c r="G19" s="601" t="s">
+      <c r="G19" s="657" t="s">
         <v>59</v>
       </c>
       <c r="H19" s="95"/>
@@ -4865,26 +4897,26 @@
       <c r="K19" s="56"/>
       <c r="L19" s="57"/>
       <c r="M19" s="57"/>
-      <c r="N19" s="496" t="s">
+      <c r="N19" s="493" t="s">
         <v>38</v>
       </c>
-      <c r="O19" s="497"/>
-      <c r="P19" s="498"/>
-      <c r="Q19" s="584" t="s">
+      <c r="O19" s="494"/>
+      <c r="P19" s="495"/>
+      <c r="Q19" s="635" t="s">
         <v>49</v>
       </c>
-      <c r="R19" s="556"/>
-      <c r="S19" s="556"/>
-      <c r="T19" s="519" t="s">
+      <c r="R19" s="527"/>
+      <c r="S19" s="527"/>
+      <c r="T19" s="610" t="s">
         <v>60</v>
       </c>
-      <c r="U19" s="520"/>
-      <c r="V19" s="520"/>
-      <c r="W19" s="512" t="s">
+      <c r="U19" s="611"/>
+      <c r="V19" s="611"/>
+      <c r="W19" s="499" t="s">
         <v>40</v>
       </c>
-      <c r="X19" s="513"/>
-      <c r="Y19" s="514"/>
+      <c r="X19" s="500"/>
+      <c r="Y19" s="549"/>
     </row>
     <row r="20" spans="1:25" s="36" customFormat="1" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
@@ -4895,7 +4927,7 @@
       <c r="D20" s="85"/>
       <c r="E20" s="85"/>
       <c r="F20" s="85"/>
-      <c r="G20" s="600"/>
+      <c r="G20" s="656"/>
       <c r="H20" s="76" t="s">
         <v>41</v>
       </c>
@@ -4908,16 +4940,16 @@
       <c r="K20" s="99"/>
       <c r="L20" s="83"/>
       <c r="M20" s="83"/>
-      <c r="N20" s="493" t="s">
+      <c r="N20" s="562" t="s">
         <v>64</v>
       </c>
-      <c r="O20" s="494"/>
-      <c r="P20" s="640"/>
-      <c r="Q20" s="582" t="s">
+      <c r="O20" s="563"/>
+      <c r="P20" s="584"/>
+      <c r="Q20" s="636" t="s">
         <v>65</v>
       </c>
-      <c r="R20" s="633"/>
-      <c r="S20" s="633"/>
+      <c r="R20" s="637"/>
+      <c r="S20" s="637"/>
       <c r="T20" s="104" t="s">
         <v>66</v>
       </c>
@@ -4930,10 +4962,10 @@
       <c r="W20" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="X20" s="529" t="s">
+      <c r="X20" s="511" t="s">
         <v>67</v>
       </c>
-      <c r="Y20" s="630"/>
+      <c r="Y20" s="616"/>
     </row>
     <row r="21" spans="1:25" s="36" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="37" t="s">
@@ -4944,7 +4976,7 @@
       <c r="D21" s="73"/>
       <c r="E21" s="73"/>
       <c r="F21" s="74"/>
-      <c r="G21" s="601" t="s">
+      <c r="G21" s="657" t="s">
         <v>69</v>
       </c>
       <c r="H21" s="96"/>
@@ -4959,16 +4991,16 @@
       <c r="Q21" s="113"/>
       <c r="R21" s="96"/>
       <c r="S21" s="114"/>
-      <c r="T21" s="519" t="s">
+      <c r="T21" s="610" t="s">
         <v>60</v>
       </c>
-      <c r="U21" s="520"/>
-      <c r="V21" s="520"/>
-      <c r="W21" s="533" t="s">
+      <c r="U21" s="611"/>
+      <c r="V21" s="611"/>
+      <c r="W21" s="520" t="s">
         <v>70</v>
       </c>
-      <c r="X21" s="631"/>
-      <c r="Y21" s="632"/>
+      <c r="X21" s="633"/>
+      <c r="Y21" s="634"/>
     </row>
     <row r="22" spans="1:25" s="36" customFormat="1" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="115"/>
@@ -4977,7 +5009,7 @@
       <c r="D22" s="116"/>
       <c r="E22" s="116"/>
       <c r="F22" s="116"/>
-      <c r="G22" s="602"/>
+      <c r="G22" s="658"/>
       <c r="H22" s="117"/>
       <c r="I22" s="117"/>
       <c r="J22" s="118"/>
@@ -5023,19 +5055,19 @@
     </row>
     <row r="23" spans="1:25" s="128" customFormat="1" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A23" s="120"/>
-      <c r="B23" s="571">
+      <c r="B23" s="568">
         <v>18</v>
       </c>
-      <c r="C23" s="571">
+      <c r="C23" s="568">
         <v>4</v>
       </c>
-      <c r="D23" s="571">
+      <c r="D23" s="568">
         <v>1</v>
       </c>
-      <c r="E23" s="571">
+      <c r="E23" s="568">
         <v>13</v>
       </c>
-      <c r="F23" s="571">
+      <c r="F23" s="568">
         <v>10</v>
       </c>
       <c r="G23" s="121"/>
@@ -5048,9 +5080,9 @@
       <c r="N23" s="125"/>
       <c r="O23" s="123"/>
       <c r="P23" s="124"/>
-      <c r="Q23" s="546"/>
-      <c r="R23" s="547"/>
-      <c r="S23" s="547"/>
+      <c r="Q23" s="514"/>
+      <c r="R23" s="515"/>
+      <c r="S23" s="515"/>
       <c r="T23" s="126"/>
       <c r="U23" s="123"/>
       <c r="V23" s="123"/>
@@ -5060,11 +5092,11 @@
     </row>
     <row r="24" spans="1:25" s="136" customFormat="1" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="129"/>
-      <c r="B24" s="572"/>
-      <c r="C24" s="572"/>
-      <c r="D24" s="572"/>
-      <c r="E24" s="572"/>
-      <c r="F24" s="572"/>
+      <c r="B24" s="569"/>
+      <c r="C24" s="569"/>
+      <c r="D24" s="569"/>
+      <c r="E24" s="569"/>
+      <c r="F24" s="569"/>
       <c r="G24" s="130" t="s">
         <v>22</v>
       </c>
@@ -5091,68 +5123,68 @@
       <c r="A25" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="573"/>
-      <c r="C25" s="573">
+      <c r="B25" s="570"/>
+      <c r="C25" s="570">
         <v>18</v>
       </c>
-      <c r="D25" s="573">
+      <c r="D25" s="570">
         <v>15</v>
       </c>
-      <c r="E25" s="573">
+      <c r="E25" s="570">
         <v>27</v>
       </c>
-      <c r="F25" s="573"/>
+      <c r="F25" s="570"/>
       <c r="G25" s="138"/>
       <c r="H25" s="139" t="s">
         <v>75</v>
       </c>
       <c r="I25" s="140"/>
       <c r="J25" s="141"/>
-      <c r="K25" s="512" t="s">
+      <c r="K25" s="499" t="s">
         <v>76</v>
       </c>
-      <c r="L25" s="513"/>
-      <c r="M25" s="532"/>
-      <c r="N25" s="515"/>
-      <c r="O25" s="516"/>
-      <c r="P25" s="634"/>
-      <c r="Q25" s="496" t="s">
+      <c r="L25" s="500"/>
+      <c r="M25" s="501"/>
+      <c r="N25" s="586"/>
+      <c r="O25" s="587"/>
+      <c r="P25" s="638"/>
+      <c r="Q25" s="493" t="s">
         <v>77</v>
       </c>
-      <c r="R25" s="497"/>
-      <c r="S25" s="497"/>
+      <c r="R25" s="494"/>
+      <c r="S25" s="494"/>
       <c r="T25" s="142"/>
       <c r="U25" s="57"/>
       <c r="V25" s="57"/>
-      <c r="W25" s="659" t="s">
+      <c r="W25" s="533" t="s">
         <v>78</v>
       </c>
-      <c r="X25" s="660"/>
-      <c r="Y25" s="661"/>
+      <c r="X25" s="534"/>
+      <c r="Y25" s="535"/>
     </row>
     <row r="26" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="572"/>
-      <c r="C26" s="572"/>
-      <c r="D26" s="572"/>
-      <c r="E26" s="572"/>
-      <c r="F26" s="572"/>
+      <c r="B26" s="569"/>
+      <c r="C26" s="569"/>
+      <c r="D26" s="569"/>
+      <c r="E26" s="569"/>
+      <c r="F26" s="569"/>
       <c r="G26" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="H26" s="579"/>
-      <c r="I26" s="500"/>
-      <c r="J26" s="501"/>
-      <c r="K26" s="651" t="s">
+      <c r="H26" s="585"/>
+      <c r="I26" s="509"/>
+      <c r="J26" s="510"/>
+      <c r="K26" s="496" t="s">
         <v>51</v>
       </c>
-      <c r="L26" s="565"/>
-      <c r="M26" s="566"/>
-      <c r="N26" s="536"/>
-      <c r="O26" s="537"/>
-      <c r="P26" s="635"/>
+      <c r="L26" s="497"/>
+      <c r="M26" s="498"/>
+      <c r="N26" s="601"/>
+      <c r="O26" s="602"/>
+      <c r="P26" s="639"/>
       <c r="Q26" s="68" t="s">
         <v>80</v>
       </c>
@@ -5179,54 +5211,54 @@
       <c r="A27" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="573"/>
-      <c r="C27" s="573"/>
-      <c r="D27" s="573"/>
-      <c r="E27" s="573"/>
-      <c r="F27" s="573"/>
+      <c r="B27" s="570"/>
+      <c r="C27" s="570"/>
+      <c r="D27" s="570"/>
+      <c r="E27" s="570"/>
+      <c r="F27" s="570"/>
       <c r="G27" s="138"/>
-      <c r="H27" s="579" t="s">
-        <v>83</v>
-      </c>
-      <c r="I27" s="500"/>
-      <c r="J27" s="500"/>
+      <c r="H27" s="585" t="s">
+        <v>218</v>
+      </c>
+      <c r="I27" s="509"/>
+      <c r="J27" s="509"/>
       <c r="K27" s="146"/>
       <c r="L27" s="147"/>
       <c r="M27" s="148"/>
       <c r="N27" s="149"/>
       <c r="O27" s="149"/>
       <c r="P27" s="150"/>
-      <c r="Q27" s="496" t="s">
+      <c r="Q27" s="493" t="s">
         <v>77</v>
       </c>
-      <c r="R27" s="497"/>
-      <c r="S27" s="497"/>
+      <c r="R27" s="494"/>
+      <c r="S27" s="494"/>
       <c r="T27" s="151"/>
       <c r="U27" s="61"/>
       <c r="V27" s="61"/>
-      <c r="W27" s="662" t="s">
+      <c r="W27" s="536" t="s">
         <v>84</v>
       </c>
-      <c r="X27" s="663"/>
-      <c r="Y27" s="664"/>
+      <c r="X27" s="537"/>
+      <c r="Y27" s="538"/>
     </row>
     <row r="28" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="572"/>
-      <c r="C28" s="572"/>
-      <c r="D28" s="572"/>
-      <c r="E28" s="572"/>
-      <c r="F28" s="572"/>
+      <c r="B28" s="569"/>
+      <c r="C28" s="569"/>
+      <c r="D28" s="569"/>
+      <c r="E28" s="569"/>
+      <c r="F28" s="569"/>
       <c r="G28" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="H28" s="590" t="s">
+      <c r="H28" s="645" t="s">
         <v>86</v>
       </c>
-      <c r="I28" s="529"/>
-      <c r="J28" s="529"/>
+      <c r="I28" s="511"/>
+      <c r="J28" s="511"/>
       <c r="K28" s="78" t="s">
         <v>87</v>
       </c>
@@ -5239,19 +5271,19 @@
       <c r="N28" s="77"/>
       <c r="O28" s="77"/>
       <c r="P28" s="132"/>
-      <c r="Q28" s="654" t="s">
+      <c r="Q28" s="581" t="s">
         <v>89</v>
       </c>
-      <c r="R28" s="655"/>
-      <c r="S28" s="655"/>
+      <c r="R28" s="582"/>
+      <c r="S28" s="582"/>
       <c r="T28" s="135"/>
       <c r="U28" s="93"/>
       <c r="V28" s="40"/>
-      <c r="W28" s="668" t="s">
+      <c r="W28" s="544" t="s">
         <v>90</v>
       </c>
-      <c r="X28" s="669"/>
-      <c r="Y28" s="670"/>
+      <c r="X28" s="545"/>
+      <c r="Y28" s="546"/>
     </row>
     <row r="29" spans="1:25" s="10" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="137" t="s">
@@ -5266,23 +5298,23 @@
       <c r="H29" s="153"/>
       <c r="I29" s="111"/>
       <c r="J29" s="154"/>
-      <c r="K29" s="512" t="s">
+      <c r="K29" s="499" t="s">
         <v>76</v>
       </c>
-      <c r="L29" s="513"/>
-      <c r="M29" s="532"/>
+      <c r="L29" s="500"/>
+      <c r="M29" s="501"/>
       <c r="N29" s="54"/>
       <c r="O29" s="54"/>
       <c r="P29" s="55"/>
-      <c r="Q29" s="653"/>
-      <c r="R29" s="639"/>
-      <c r="S29" s="639"/>
-      <c r="T29" s="577"/>
-      <c r="U29" s="513"/>
-      <c r="V29" s="513"/>
-      <c r="W29" s="665"/>
-      <c r="X29" s="666"/>
-      <c r="Y29" s="667"/>
+      <c r="Q29" s="580"/>
+      <c r="R29" s="558"/>
+      <c r="S29" s="558"/>
+      <c r="T29" s="543"/>
+      <c r="U29" s="500"/>
+      <c r="V29" s="500"/>
+      <c r="W29" s="540"/>
+      <c r="X29" s="541"/>
+      <c r="Y29" s="542"/>
     </row>
     <row r="30" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="137" t="s">
@@ -5345,28 +5377,28 @@
       <c r="E31" s="73"/>
       <c r="F31" s="74"/>
       <c r="G31" s="138"/>
-      <c r="H31" s="587"/>
-      <c r="I31" s="497"/>
-      <c r="J31" s="498"/>
-      <c r="K31" s="512" t="s">
+      <c r="H31" s="505"/>
+      <c r="I31" s="494"/>
+      <c r="J31" s="495"/>
+      <c r="K31" s="499" t="s">
         <v>76</v>
       </c>
-      <c r="L31" s="513"/>
-      <c r="M31" s="532"/>
-      <c r="N31" s="496"/>
-      <c r="O31" s="497"/>
-      <c r="P31" s="498"/>
-      <c r="Q31" s="496"/>
-      <c r="R31" s="497"/>
-      <c r="S31" s="497"/>
-      <c r="T31" s="577" t="s">
+      <c r="L31" s="500"/>
+      <c r="M31" s="501"/>
+      <c r="N31" s="493"/>
+      <c r="O31" s="494"/>
+      <c r="P31" s="495"/>
+      <c r="Q31" s="493"/>
+      <c r="R31" s="494"/>
+      <c r="S31" s="494"/>
+      <c r="T31" s="543" t="s">
         <v>92</v>
       </c>
-      <c r="U31" s="513"/>
-      <c r="V31" s="513"/>
-      <c r="W31" s="512"/>
-      <c r="X31" s="513"/>
-      <c r="Y31" s="514"/>
+      <c r="U31" s="500"/>
+      <c r="V31" s="500"/>
+      <c r="W31" s="499"/>
+      <c r="X31" s="500"/>
+      <c r="Y31" s="549"/>
     </row>
     <row r="32" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="137"/>
@@ -5378,14 +5410,14 @@
       <c r="G32" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="H32" s="588"/>
-      <c r="I32" s="564"/>
-      <c r="J32" s="589"/>
-      <c r="K32" s="651" t="s">
+      <c r="H32" s="667"/>
+      <c r="I32" s="518"/>
+      <c r="J32" s="519"/>
+      <c r="K32" s="496" t="s">
         <v>52</v>
       </c>
-      <c r="L32" s="565"/>
-      <c r="M32" s="566"/>
+      <c r="L32" s="497"/>
+      <c r="M32" s="498"/>
       <c r="N32" s="80"/>
       <c r="O32" s="81"/>
       <c r="P32" s="157"/>
@@ -5419,17 +5451,17 @@
       <c r="K33" s="146"/>
       <c r="L33" s="147"/>
       <c r="M33" s="148"/>
-      <c r="N33" s="496"/>
-      <c r="O33" s="497"/>
-      <c r="P33" s="498"/>
+      <c r="N33" s="493"/>
+      <c r="O33" s="494"/>
+      <c r="P33" s="495"/>
       <c r="Q33" s="50"/>
       <c r="R33" s="51"/>
       <c r="S33" s="51"/>
-      <c r="T33" s="577" t="s">
+      <c r="T33" s="543" t="s">
         <v>92</v>
       </c>
-      <c r="U33" s="513"/>
-      <c r="V33" s="513"/>
+      <c r="U33" s="500"/>
+      <c r="V33" s="500"/>
       <c r="W33" s="50"/>
       <c r="X33" s="51"/>
       <c r="Y33" s="158"/>
@@ -5477,19 +5509,19 @@
     </row>
     <row r="35" spans="1:25" s="128" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A35" s="120"/>
-      <c r="B35" s="571">
+      <c r="B35" s="568">
         <v>19</v>
       </c>
-      <c r="C35" s="571">
+      <c r="C35" s="568">
         <v>5</v>
       </c>
-      <c r="D35" s="571">
+      <c r="D35" s="568">
         <v>2</v>
       </c>
-      <c r="E35" s="605">
+      <c r="E35" s="648">
         <v>14</v>
       </c>
-      <c r="F35" s="605">
+      <c r="F35" s="648">
         <v>11</v>
       </c>
       <c r="G35" s="121"/>
@@ -5499,14 +5531,14 @@
       <c r="K35" s="110"/>
       <c r="L35" s="111"/>
       <c r="M35" s="156"/>
-      <c r="N35" s="546" t="s">
+      <c r="N35" s="514" t="s">
         <v>95</v>
       </c>
-      <c r="O35" s="547"/>
-      <c r="P35" s="547"/>
-      <c r="Q35" s="547"/>
-      <c r="R35" s="547"/>
-      <c r="S35" s="547"/>
+      <c r="O35" s="515"/>
+      <c r="P35" s="515"/>
+      <c r="Q35" s="515"/>
+      <c r="R35" s="515"/>
+      <c r="S35" s="515"/>
       <c r="T35" s="126"/>
       <c r="U35" s="123"/>
       <c r="V35" s="175"/>
@@ -5518,11 +5550,11 @@
       <c r="A36" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="B36" s="572"/>
-      <c r="C36" s="572"/>
-      <c r="D36" s="572"/>
-      <c r="E36" s="606"/>
-      <c r="F36" s="606"/>
+      <c r="B36" s="569"/>
+      <c r="C36" s="569"/>
+      <c r="D36" s="569"/>
+      <c r="E36" s="649"/>
+      <c r="F36" s="649"/>
       <c r="G36" s="130" t="s">
         <v>22</v>
       </c>
@@ -5536,8 +5568,8 @@
         <v>42</v>
       </c>
       <c r="O36" s="40"/>
-      <c r="P36" s="529"/>
-      <c r="Q36" s="529"/>
+      <c r="P36" s="511"/>
+      <c r="Q36" s="511"/>
       <c r="R36" s="181" t="s">
         <v>97</v>
       </c>
@@ -5553,52 +5585,52 @@
     </row>
     <row r="37" spans="1:25" s="10" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="137"/>
-      <c r="B37" s="573"/>
-      <c r="C37" s="573">
+      <c r="B37" s="570"/>
+      <c r="C37" s="570">
         <v>19</v>
       </c>
-      <c r="D37" s="573">
+      <c r="D37" s="570">
         <v>16</v>
       </c>
-      <c r="E37" s="573">
+      <c r="E37" s="570">
         <v>28</v>
       </c>
-      <c r="F37" s="573"/>
+      <c r="F37" s="570"/>
       <c r="G37" s="138"/>
-      <c r="H37" s="555" t="s">
+      <c r="H37" s="526" t="s">
         <v>98</v>
       </c>
-      <c r="I37" s="556"/>
-      <c r="J37" s="557"/>
+      <c r="I37" s="527"/>
+      <c r="J37" s="525"/>
       <c r="K37" s="53"/>
       <c r="L37" s="54"/>
       <c r="M37" s="54"/>
-      <c r="N37" s="496" t="s">
+      <c r="N37" s="493" t="s">
         <v>95</v>
       </c>
-      <c r="O37" s="497"/>
-      <c r="P37" s="498"/>
-      <c r="Q37" s="496" t="s">
+      <c r="O37" s="494"/>
+      <c r="P37" s="495"/>
+      <c r="Q37" s="493" t="s">
         <v>99</v>
       </c>
-      <c r="R37" s="497"/>
-      <c r="S37" s="497"/>
-      <c r="T37" s="524"/>
-      <c r="U37" s="525"/>
-      <c r="V37" s="658"/>
-      <c r="W37" s="496"/>
-      <c r="X37" s="497"/>
-      <c r="Y37" s="511"/>
+      <c r="R37" s="494"/>
+      <c r="S37" s="494"/>
+      <c r="T37" s="530"/>
+      <c r="U37" s="531"/>
+      <c r="V37" s="532"/>
+      <c r="W37" s="493"/>
+      <c r="X37" s="494"/>
+      <c r="Y37" s="539"/>
     </row>
     <row r="38" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="572"/>
-      <c r="C38" s="572"/>
-      <c r="D38" s="572"/>
-      <c r="E38" s="572"/>
-      <c r="F38" s="572"/>
+      <c r="B38" s="569"/>
+      <c r="C38" s="569"/>
+      <c r="D38" s="569"/>
+      <c r="E38" s="569"/>
+      <c r="F38" s="569"/>
       <c r="G38" s="130" t="s">
         <v>25</v>
       </c>
@@ -5641,51 +5673,51 @@
     </row>
     <row r="39" spans="1:25" s="10" customFormat="1" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="137"/>
-      <c r="B39" s="573"/>
-      <c r="C39" s="573"/>
-      <c r="D39" s="573">
+      <c r="B39" s="570"/>
+      <c r="C39" s="570"/>
+      <c r="D39" s="570">
         <v>30</v>
       </c>
-      <c r="E39" s="573"/>
+      <c r="E39" s="570"/>
       <c r="F39" s="190"/>
       <c r="G39" s="138"/>
       <c r="H39" s="191" t="s">
         <v>103</v>
       </c>
-      <c r="I39" s="580" t="s">
+      <c r="I39" s="662" t="s">
         <v>104</v>
       </c>
-      <c r="J39" s="581"/>
-      <c r="K39" s="496" t="s">
+      <c r="J39" s="663"/>
+      <c r="K39" s="493" t="s">
         <v>48</v>
       </c>
-      <c r="L39" s="497"/>
-      <c r="M39" s="498"/>
-      <c r="N39" s="496" t="s">
+      <c r="L39" s="494"/>
+      <c r="M39" s="495"/>
+      <c r="N39" s="493" t="s">
         <v>39</v>
       </c>
-      <c r="O39" s="497"/>
-      <c r="P39" s="498"/>
-      <c r="Q39" s="496" t="s">
+      <c r="O39" s="494"/>
+      <c r="P39" s="495"/>
+      <c r="Q39" s="493" t="s">
         <v>95</v>
       </c>
-      <c r="R39" s="497"/>
-      <c r="S39" s="497"/>
-      <c r="T39" s="524"/>
-      <c r="U39" s="525"/>
-      <c r="V39" s="658"/>
-      <c r="W39" s="512"/>
-      <c r="X39" s="513"/>
-      <c r="Y39" s="514"/>
+      <c r="R39" s="494"/>
+      <c r="S39" s="494"/>
+      <c r="T39" s="530"/>
+      <c r="U39" s="531"/>
+      <c r="V39" s="532"/>
+      <c r="W39" s="499"/>
+      <c r="X39" s="500"/>
+      <c r="Y39" s="549"/>
     </row>
     <row r="40" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="572"/>
-      <c r="C40" s="572"/>
-      <c r="D40" s="572"/>
-      <c r="E40" s="572"/>
+      <c r="B40" s="569"/>
+      <c r="C40" s="569"/>
+      <c r="D40" s="569"/>
+      <c r="E40" s="569"/>
       <c r="F40" s="38"/>
       <c r="G40" s="130" t="s">
         <v>35</v>
@@ -5736,31 +5768,31 @@
       <c r="H41" s="198" t="s">
         <v>108</v>
       </c>
-      <c r="I41" s="582" t="s">
+      <c r="I41" s="636" t="s">
         <v>109</v>
       </c>
-      <c r="J41" s="583"/>
-      <c r="K41" s="651" t="s">
+      <c r="J41" s="664"/>
+      <c r="K41" s="496" t="s">
         <v>51</v>
       </c>
-      <c r="L41" s="565"/>
-      <c r="M41" s="566"/>
-      <c r="N41" s="496" t="s">
+      <c r="L41" s="497"/>
+      <c r="M41" s="498"/>
+      <c r="N41" s="493" t="s">
         <v>39</v>
       </c>
-      <c r="O41" s="497"/>
-      <c r="P41" s="498"/>
-      <c r="Q41" s="673"/>
-      <c r="R41" s="674"/>
-      <c r="S41" s="674"/>
+      <c r="O41" s="494"/>
+      <c r="P41" s="495"/>
+      <c r="Q41" s="566"/>
+      <c r="R41" s="567"/>
+      <c r="S41" s="567"/>
       <c r="T41" s="199"/>
       <c r="U41" s="200"/>
       <c r="V41" s="201"/>
-      <c r="W41" s="518" t="s">
+      <c r="W41" s="553" t="s">
         <v>110</v>
       </c>
-      <c r="X41" s="497"/>
-      <c r="Y41" s="511"/>
+      <c r="X41" s="494"/>
+      <c r="Y41" s="539"/>
     </row>
     <row r="42" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="137" t="s">
@@ -5823,25 +5855,25 @@
       <c r="E43" s="73"/>
       <c r="F43" s="74"/>
       <c r="G43" s="138"/>
-      <c r="H43" s="552" t="s">
+      <c r="H43" s="571" t="s">
         <v>114</v>
       </c>
-      <c r="I43" s="553"/>
-      <c r="J43" s="554"/>
-      <c r="K43" s="496" t="s">
+      <c r="I43" s="572"/>
+      <c r="J43" s="573"/>
+      <c r="K43" s="493" t="s">
         <v>48</v>
       </c>
-      <c r="L43" s="497"/>
-      <c r="M43" s="498"/>
+      <c r="L43" s="494"/>
+      <c r="M43" s="495"/>
       <c r="N43" s="53"/>
       <c r="O43" s="54"/>
       <c r="P43" s="55"/>
       <c r="Q43" s="50"/>
       <c r="R43" s="207"/>
       <c r="S43" s="207"/>
-      <c r="T43" s="543"/>
-      <c r="U43" s="544"/>
-      <c r="V43" s="545"/>
+      <c r="T43" s="559"/>
+      <c r="U43" s="560"/>
+      <c r="V43" s="561"/>
       <c r="W43" s="208" t="s">
         <v>110</v>
       </c>
@@ -5881,9 +5913,9 @@
       <c r="T44" s="203"/>
       <c r="U44" s="212"/>
       <c r="V44" s="213"/>
-      <c r="W44" s="493"/>
-      <c r="X44" s="494"/>
-      <c r="Y44" s="495"/>
+      <c r="W44" s="562"/>
+      <c r="X44" s="563"/>
+      <c r="Y44" s="564"/>
     </row>
     <row r="45" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="137"/>
@@ -5896,23 +5928,23 @@
       <c r="H45" s="214"/>
       <c r="I45" s="109"/>
       <c r="J45" s="112"/>
-      <c r="K45" s="651" t="s">
+      <c r="K45" s="496" t="s">
         <v>52</v>
       </c>
-      <c r="L45" s="565"/>
-      <c r="M45" s="566"/>
+      <c r="L45" s="497"/>
+      <c r="M45" s="498"/>
       <c r="N45" s="100"/>
       <c r="O45" s="87"/>
       <c r="P45" s="154"/>
       <c r="Q45" s="100"/>
       <c r="R45" s="87"/>
       <c r="S45" s="111"/>
-      <c r="T45" s="540"/>
-      <c r="U45" s="541"/>
-      <c r="V45" s="542"/>
-      <c r="W45" s="493"/>
-      <c r="X45" s="494"/>
-      <c r="Y45" s="495"/>
+      <c r="T45" s="554"/>
+      <c r="U45" s="555"/>
+      <c r="V45" s="556"/>
+      <c r="W45" s="562"/>
+      <c r="X45" s="563"/>
+      <c r="Y45" s="564"/>
     </row>
     <row r="46" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="159"/>
@@ -5957,28 +5989,28 @@
     </row>
     <row r="47" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A47" s="120"/>
-      <c r="B47" s="571">
+      <c r="B47" s="568">
         <v>20</v>
       </c>
-      <c r="C47" s="571">
+      <c r="C47" s="568">
         <v>6</v>
       </c>
-      <c r="D47" s="571">
+      <c r="D47" s="568">
         <v>3</v>
       </c>
-      <c r="E47" s="603">
+      <c r="E47" s="650">
         <v>1</v>
       </c>
-      <c r="F47" s="603">
+      <c r="F47" s="650">
         <v>12</v>
       </c>
       <c r="G47" s="222"/>
-      <c r="H47" s="675"/>
-      <c r="I47" s="676"/>
-      <c r="J47" s="677"/>
-      <c r="K47" s="546"/>
-      <c r="L47" s="547"/>
-      <c r="M47" s="548"/>
+      <c r="H47" s="574"/>
+      <c r="I47" s="575"/>
+      <c r="J47" s="576"/>
+      <c r="K47" s="514"/>
+      <c r="L47" s="515"/>
+      <c r="M47" s="516"/>
       <c r="N47" s="110"/>
       <c r="O47" s="111"/>
       <c r="P47" s="154"/>
@@ -5994,11 +6026,11 @@
     </row>
     <row r="48" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="177"/>
-      <c r="B48" s="572"/>
-      <c r="C48" s="572"/>
-      <c r="D48" s="572"/>
-      <c r="E48" s="604"/>
-      <c r="F48" s="604"/>
+      <c r="B48" s="569"/>
+      <c r="C48" s="569"/>
+      <c r="D48" s="569"/>
+      <c r="E48" s="651"/>
+      <c r="F48" s="651"/>
       <c r="G48" s="225" t="s">
         <v>22</v>
       </c>
@@ -6025,37 +6057,37 @@
       <c r="A49" s="177" t="s">
         <v>116</v>
       </c>
-      <c r="B49" s="573"/>
-      <c r="C49" s="573">
+      <c r="B49" s="570"/>
+      <c r="C49" s="570">
         <v>20</v>
       </c>
-      <c r="D49" s="573">
+      <c r="D49" s="570">
         <v>17</v>
       </c>
-      <c r="E49" s="573">
+      <c r="E49" s="570">
         <v>15</v>
       </c>
       <c r="F49" s="49"/>
       <c r="G49" s="229"/>
-      <c r="H49" s="555" t="s">
+      <c r="H49" s="526" t="s">
         <v>117</v>
       </c>
-      <c r="I49" s="556"/>
-      <c r="J49" s="557"/>
-      <c r="K49" s="496"/>
-      <c r="L49" s="497"/>
-      <c r="M49" s="498"/>
-      <c r="N49" s="512"/>
-      <c r="O49" s="513"/>
-      <c r="P49" s="532"/>
-      <c r="Q49" s="512" t="s">
+      <c r="I49" s="527"/>
+      <c r="J49" s="525"/>
+      <c r="K49" s="493"/>
+      <c r="L49" s="494"/>
+      <c r="M49" s="495"/>
+      <c r="N49" s="499"/>
+      <c r="O49" s="500"/>
+      <c r="P49" s="501"/>
+      <c r="Q49" s="499" t="s">
         <v>118</v>
       </c>
-      <c r="R49" s="513"/>
-      <c r="S49" s="513"/>
-      <c r="T49" s="524"/>
-      <c r="U49" s="525"/>
-      <c r="V49" s="525"/>
+      <c r="R49" s="500"/>
+      <c r="S49" s="500"/>
+      <c r="T49" s="530"/>
+      <c r="U49" s="531"/>
+      <c r="V49" s="531"/>
       <c r="W49" s="230"/>
       <c r="X49" s="231"/>
       <c r="Y49" s="232"/>
@@ -6064,10 +6096,10 @@
       <c r="A50" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="572"/>
-      <c r="C50" s="572"/>
-      <c r="D50" s="572"/>
-      <c r="E50" s="572"/>
+      <c r="B50" s="569"/>
+      <c r="C50" s="569"/>
+      <c r="D50" s="569"/>
+      <c r="E50" s="569"/>
       <c r="F50" s="38"/>
       <c r="G50" s="225" t="s">
         <v>25</v>
@@ -6075,10 +6107,10 @@
       <c r="H50" s="233" t="s">
         <v>57</v>
       </c>
-      <c r="I50" s="565" t="s">
+      <c r="I50" s="497" t="s">
         <v>119</v>
       </c>
-      <c r="J50" s="566"/>
+      <c r="J50" s="498"/>
       <c r="K50" s="68"/>
       <c r="L50" s="93"/>
       <c r="M50" s="132"/>
@@ -6105,52 +6137,52 @@
       <c r="A51" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="573"/>
-      <c r="C51" s="573"/>
-      <c r="D51" s="573"/>
-      <c r="E51" s="573">
+      <c r="B51" s="570"/>
+      <c r="C51" s="570"/>
+      <c r="D51" s="570"/>
+      <c r="E51" s="570">
         <v>29</v>
       </c>
-      <c r="F51" s="573"/>
+      <c r="F51" s="570"/>
       <c r="G51" s="229"/>
       <c r="H51" s="191" t="s">
         <v>122</v>
       </c>
-      <c r="I51" s="584" t="s">
+      <c r="I51" s="635" t="s">
         <v>37</v>
       </c>
-      <c r="J51" s="557"/>
-      <c r="K51" s="496" t="s">
+      <c r="J51" s="525"/>
+      <c r="K51" s="493" t="s">
         <v>123</v>
       </c>
-      <c r="L51" s="497"/>
-      <c r="M51" s="498"/>
-      <c r="N51" s="512" t="s">
+      <c r="L51" s="494"/>
+      <c r="M51" s="495"/>
+      <c r="N51" s="499" t="s">
         <v>118</v>
       </c>
-      <c r="O51" s="513"/>
-      <c r="P51" s="532"/>
-      <c r="Q51" s="496" t="s">
+      <c r="O51" s="500"/>
+      <c r="P51" s="501"/>
+      <c r="Q51" s="493" t="s">
         <v>124</v>
       </c>
-      <c r="R51" s="497"/>
-      <c r="S51" s="497"/>
-      <c r="T51" s="526"/>
-      <c r="U51" s="527"/>
-      <c r="V51" s="528"/>
-      <c r="W51" s="518"/>
-      <c r="X51" s="497"/>
-      <c r="Y51" s="511"/>
+      <c r="R51" s="494"/>
+      <c r="S51" s="494"/>
+      <c r="T51" s="550"/>
+      <c r="U51" s="551"/>
+      <c r="V51" s="552"/>
+      <c r="W51" s="553"/>
+      <c r="X51" s="494"/>
+      <c r="Y51" s="539"/>
     </row>
     <row r="52" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="B52" s="572"/>
-      <c r="C52" s="572"/>
-      <c r="D52" s="572"/>
-      <c r="E52" s="572"/>
-      <c r="F52" s="572"/>
+      <c r="B52" s="569"/>
+      <c r="C52" s="569"/>
+      <c r="D52" s="569"/>
+      <c r="E52" s="569"/>
+      <c r="F52" s="569"/>
       <c r="G52" s="238" t="s">
         <v>35</v>
       </c>
@@ -6197,60 +6229,60 @@
       <c r="A53" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="573"/>
-      <c r="C53" s="573"/>
-      <c r="D53" s="573"/>
-      <c r="E53" s="573"/>
-      <c r="F53" s="573"/>
+      <c r="B53" s="570"/>
+      <c r="C53" s="570"/>
+      <c r="D53" s="570"/>
+      <c r="E53" s="570"/>
+      <c r="F53" s="570"/>
       <c r="G53" s="242"/>
       <c r="H53" s="243" t="s">
         <v>128</v>
       </c>
-      <c r="I53" s="567" t="s">
+      <c r="I53" s="502" t="s">
         <v>129</v>
       </c>
-      <c r="J53" s="568"/>
-      <c r="K53" s="512" t="s">
+      <c r="J53" s="504"/>
+      <c r="K53" s="499" t="s">
         <v>130</v>
       </c>
-      <c r="L53" s="513"/>
-      <c r="M53" s="532"/>
-      <c r="N53" s="512" t="s">
+      <c r="L53" s="500"/>
+      <c r="M53" s="501"/>
+      <c r="N53" s="499" t="s">
         <v>118</v>
       </c>
-      <c r="O53" s="513"/>
-      <c r="P53" s="532"/>
-      <c r="Q53" s="496" t="s">
+      <c r="O53" s="500"/>
+      <c r="P53" s="501"/>
+      <c r="Q53" s="493" t="s">
         <v>124</v>
       </c>
-      <c r="R53" s="497"/>
-      <c r="S53" s="497"/>
-      <c r="T53" s="526"/>
-      <c r="U53" s="527"/>
-      <c r="V53" s="528"/>
-      <c r="W53" s="518"/>
-      <c r="X53" s="497"/>
-      <c r="Y53" s="511"/>
+      <c r="R53" s="494"/>
+      <c r="S53" s="494"/>
+      <c r="T53" s="550"/>
+      <c r="U53" s="551"/>
+      <c r="V53" s="552"/>
+      <c r="W53" s="553"/>
+      <c r="X53" s="494"/>
+      <c r="Y53" s="539"/>
     </row>
     <row r="54" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="B54" s="572"/>
-      <c r="C54" s="572"/>
-      <c r="D54" s="572"/>
-      <c r="E54" s="572"/>
-      <c r="F54" s="572"/>
+      <c r="B54" s="569"/>
+      <c r="C54" s="569"/>
+      <c r="D54" s="569"/>
+      <c r="E54" s="569"/>
+      <c r="F54" s="569"/>
       <c r="G54" s="238" t="s">
         <v>47</v>
       </c>
       <c r="H54" s="244" t="s">
         <v>131</v>
       </c>
-      <c r="I54" s="585" t="s">
+      <c r="I54" s="665" t="s">
         <v>132</v>
       </c>
-      <c r="J54" s="586"/>
+      <c r="J54" s="666"/>
       <c r="K54" s="80" t="s">
         <v>133</v>
       </c>
@@ -6295,27 +6327,27 @@
       <c r="E55" s="73"/>
       <c r="F55" s="73"/>
       <c r="G55" s="229"/>
-      <c r="H55" s="587" t="s">
+      <c r="H55" s="505" t="s">
         <v>37</v>
       </c>
-      <c r="I55" s="497"/>
-      <c r="J55" s="498"/>
-      <c r="K55" s="512" t="s">
+      <c r="I55" s="494"/>
+      <c r="J55" s="495"/>
+      <c r="K55" s="499" t="s">
         <v>130</v>
       </c>
-      <c r="L55" s="513"/>
-      <c r="M55" s="532"/>
-      <c r="N55" s="512" t="s">
+      <c r="L55" s="500"/>
+      <c r="M55" s="501"/>
+      <c r="N55" s="499" t="s">
         <v>135</v>
       </c>
-      <c r="O55" s="513"/>
-      <c r="P55" s="532"/>
+      <c r="O55" s="500"/>
+      <c r="P55" s="501"/>
       <c r="Q55" s="56"/>
       <c r="R55" s="57"/>
       <c r="S55" s="57"/>
-      <c r="T55" s="540"/>
-      <c r="U55" s="541"/>
-      <c r="V55" s="542"/>
+      <c r="T55" s="554"/>
+      <c r="U55" s="555"/>
+      <c r="V55" s="556"/>
       <c r="W55" s="208"/>
       <c r="X55" s="57"/>
       <c r="Y55" s="58"/>
@@ -6363,9 +6395,9 @@
       <c r="T56" s="203"/>
       <c r="U56" s="204"/>
       <c r="V56" s="246"/>
-      <c r="W56" s="493"/>
-      <c r="X56" s="494"/>
-      <c r="Y56" s="495"/>
+      <c r="W56" s="562"/>
+      <c r="X56" s="563"/>
+      <c r="Y56" s="564"/>
     </row>
     <row r="57" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="137"/>
@@ -6378,23 +6410,23 @@
       <c r="H57" s="214"/>
       <c r="I57" s="109"/>
       <c r="J57" s="102"/>
-      <c r="K57" s="496" t="s">
+      <c r="K57" s="493" t="s">
         <v>138</v>
       </c>
-      <c r="L57" s="497"/>
-      <c r="M57" s="498"/>
-      <c r="N57" s="496"/>
-      <c r="O57" s="497"/>
-      <c r="P57" s="498"/>
+      <c r="L57" s="494"/>
+      <c r="M57" s="495"/>
+      <c r="N57" s="493"/>
+      <c r="O57" s="494"/>
+      <c r="P57" s="495"/>
       <c r="Q57" s="196"/>
       <c r="R57" s="247"/>
       <c r="S57" s="248"/>
-      <c r="T57" s="540"/>
-      <c r="U57" s="541"/>
-      <c r="V57" s="542"/>
-      <c r="W57" s="493"/>
-      <c r="X57" s="494"/>
-      <c r="Y57" s="495"/>
+      <c r="T57" s="554"/>
+      <c r="U57" s="555"/>
+      <c r="V57" s="556"/>
+      <c r="W57" s="562"/>
+      <c r="X57" s="563"/>
+      <c r="Y57" s="564"/>
     </row>
     <row r="58" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="159"/>
@@ -6433,25 +6465,25 @@
     </row>
     <row r="59" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A59" s="120"/>
-      <c r="B59" s="571">
+      <c r="B59" s="568">
         <v>21</v>
       </c>
-      <c r="C59" s="605">
+      <c r="C59" s="648">
         <v>7</v>
       </c>
-      <c r="D59" s="571">
+      <c r="D59" s="568">
         <v>4</v>
       </c>
-      <c r="E59" s="603">
+      <c r="E59" s="650">
         <v>2</v>
       </c>
-      <c r="F59" s="603">
+      <c r="F59" s="650">
         <v>13</v>
       </c>
       <c r="G59" s="121"/>
-      <c r="H59" s="617"/>
-      <c r="I59" s="618"/>
-      <c r="J59" s="619"/>
+      <c r="H59" s="577"/>
+      <c r="I59" s="578"/>
+      <c r="J59" s="579"/>
       <c r="K59" s="253"/>
       <c r="L59" s="254"/>
       <c r="M59" s="254"/>
@@ -6461,20 +6493,20 @@
       <c r="Q59" s="125"/>
       <c r="R59" s="111"/>
       <c r="S59" s="109"/>
-      <c r="T59" s="652"/>
-      <c r="U59" s="547"/>
-      <c r="V59" s="547"/>
+      <c r="T59" s="565"/>
+      <c r="U59" s="515"/>
+      <c r="V59" s="515"/>
       <c r="W59" s="125"/>
       <c r="X59" s="111"/>
       <c r="Y59" s="255"/>
     </row>
     <row r="60" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="177"/>
-      <c r="B60" s="572"/>
-      <c r="C60" s="606"/>
-      <c r="D60" s="572"/>
-      <c r="E60" s="604"/>
-      <c r="F60" s="604"/>
+      <c r="B60" s="569"/>
+      <c r="C60" s="649"/>
+      <c r="D60" s="569"/>
+      <c r="E60" s="651"/>
+      <c r="F60" s="651"/>
       <c r="G60" s="130" t="s">
         <v>22</v>
       </c>
@@ -6501,17 +6533,17 @@
       <c r="A61" s="177" t="s">
         <v>21</v>
       </c>
-      <c r="B61" s="573"/>
-      <c r="C61" s="573">
+      <c r="B61" s="570"/>
+      <c r="C61" s="570">
         <v>21</v>
       </c>
-      <c r="D61" s="573">
+      <c r="D61" s="570">
         <v>18</v>
       </c>
-      <c r="E61" s="573">
+      <c r="E61" s="570">
         <v>16</v>
       </c>
-      <c r="F61" s="573"/>
+      <c r="F61" s="570"/>
       <c r="G61" s="138"/>
       <c r="H61" s="139"/>
       <c r="I61" s="140"/>
@@ -6519,15 +6551,15 @@
       <c r="K61" s="56"/>
       <c r="L61" s="57"/>
       <c r="M61" s="57"/>
-      <c r="N61" s="496"/>
-      <c r="O61" s="497"/>
-      <c r="P61" s="497"/>
-      <c r="Q61" s="497"/>
-      <c r="R61" s="497"/>
-      <c r="S61" s="497"/>
-      <c r="T61" s="638"/>
-      <c r="U61" s="639"/>
-      <c r="V61" s="639"/>
+      <c r="N61" s="493"/>
+      <c r="O61" s="494"/>
+      <c r="P61" s="494"/>
+      <c r="Q61" s="494"/>
+      <c r="R61" s="494"/>
+      <c r="S61" s="494"/>
+      <c r="T61" s="557"/>
+      <c r="U61" s="558"/>
+      <c r="V61" s="558"/>
       <c r="W61" s="56"/>
       <c r="X61" s="57"/>
       <c r="Y61" s="261"/>
@@ -6536,29 +6568,29 @@
       <c r="A62" s="137" t="s">
         <v>140</v>
       </c>
-      <c r="B62" s="572"/>
-      <c r="C62" s="572"/>
-      <c r="D62" s="572"/>
-      <c r="E62" s="572"/>
-      <c r="F62" s="572"/>
+      <c r="B62" s="569"/>
+      <c r="C62" s="569"/>
+      <c r="D62" s="569"/>
+      <c r="E62" s="569"/>
+      <c r="F62" s="569"/>
       <c r="G62" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="H62" s="579"/>
-      <c r="I62" s="500"/>
-      <c r="J62" s="501"/>
+      <c r="H62" s="585"/>
+      <c r="I62" s="509"/>
+      <c r="J62" s="510"/>
       <c r="K62" s="88"/>
       <c r="L62" s="109"/>
       <c r="M62" s="109"/>
       <c r="N62" s="68"/>
       <c r="O62" s="83"/>
-      <c r="P62" s="529"/>
-      <c r="Q62" s="529"/>
+      <c r="P62" s="511"/>
+      <c r="Q62" s="511"/>
       <c r="R62" s="83"/>
       <c r="S62" s="83"/>
       <c r="T62" s="69"/>
-      <c r="U62" s="529"/>
-      <c r="V62" s="531"/>
+      <c r="U62" s="511"/>
+      <c r="V62" s="513"/>
       <c r="W62" s="99"/>
       <c r="X62" s="83"/>
       <c r="Y62" s="107"/>
@@ -6567,33 +6599,33 @@
       <c r="A63" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="B63" s="573"/>
-      <c r="C63" s="573"/>
-      <c r="D63" s="573"/>
-      <c r="E63" s="573">
+      <c r="B63" s="570"/>
+      <c r="C63" s="570"/>
+      <c r="D63" s="570"/>
+      <c r="E63" s="570">
         <v>30</v>
       </c>
-      <c r="F63" s="573"/>
+      <c r="F63" s="570"/>
       <c r="G63" s="138"/>
-      <c r="H63" s="610"/>
-      <c r="I63" s="611"/>
-      <c r="J63" s="612"/>
+      <c r="H63" s="642"/>
+      <c r="I63" s="643"/>
+      <c r="J63" s="644"/>
       <c r="K63" s="262" t="s">
         <v>75</v>
       </c>
       <c r="L63" s="140"/>
       <c r="M63" s="141"/>
-      <c r="N63" s="496" t="s">
+      <c r="N63" s="493" t="s">
         <v>141</v>
       </c>
-      <c r="O63" s="497"/>
-      <c r="P63" s="497"/>
-      <c r="Q63" s="497"/>
-      <c r="R63" s="497"/>
-      <c r="S63" s="497"/>
-      <c r="T63" s="638"/>
-      <c r="U63" s="639"/>
-      <c r="V63" s="639"/>
+      <c r="O63" s="494"/>
+      <c r="P63" s="494"/>
+      <c r="Q63" s="494"/>
+      <c r="R63" s="494"/>
+      <c r="S63" s="494"/>
+      <c r="T63" s="557"/>
+      <c r="U63" s="558"/>
+      <c r="V63" s="558"/>
       <c r="W63" s="155"/>
       <c r="X63" s="156"/>
       <c r="Y63" s="263"/>
@@ -6602,26 +6634,26 @@
       <c r="A64" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="B64" s="572"/>
-      <c r="C64" s="572"/>
-      <c r="D64" s="572"/>
-      <c r="E64" s="572"/>
-      <c r="F64" s="572"/>
+      <c r="B64" s="569"/>
+      <c r="C64" s="569"/>
+      <c r="D64" s="569"/>
+      <c r="E64" s="569"/>
+      <c r="F64" s="569"/>
       <c r="G64" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="H64" s="590"/>
-      <c r="I64" s="529"/>
-      <c r="J64" s="531"/>
-      <c r="K64" s="499"/>
-      <c r="L64" s="500"/>
-      <c r="M64" s="501"/>
+      <c r="H64" s="645"/>
+      <c r="I64" s="511"/>
+      <c r="J64" s="513"/>
+      <c r="K64" s="508"/>
+      <c r="L64" s="509"/>
+      <c r="M64" s="510"/>
       <c r="N64" s="68" t="s">
         <v>101</v>
       </c>
       <c r="O64" s="83"/>
-      <c r="P64" s="529"/>
-      <c r="Q64" s="529"/>
+      <c r="P64" s="511"/>
+      <c r="Q64" s="511"/>
       <c r="R64" s="83" t="s">
         <v>43</v>
       </c>
@@ -6629,8 +6661,8 @@
         <v>31</v>
       </c>
       <c r="T64" s="82"/>
-      <c r="U64" s="494"/>
-      <c r="V64" s="640"/>
+      <c r="U64" s="563"/>
+      <c r="V64" s="584"/>
       <c r="W64" s="68"/>
       <c r="X64" s="40"/>
       <c r="Y64" s="72"/>
@@ -6645,34 +6677,34 @@
       <c r="E65" s="73"/>
       <c r="F65" s="74"/>
       <c r="G65" s="138"/>
-      <c r="H65" s="615"/>
-      <c r="I65" s="616"/>
-      <c r="J65" s="616"/>
-      <c r="K65" s="499" t="s">
+      <c r="H65" s="647"/>
+      <c r="I65" s="629"/>
+      <c r="J65" s="629"/>
+      <c r="K65" s="508" t="s">
+        <v>217</v>
+      </c>
+      <c r="L65" s="509"/>
+      <c r="M65" s="510"/>
+      <c r="N65" s="493" t="s">
         <v>142</v>
       </c>
-      <c r="L65" s="500"/>
-      <c r="M65" s="501"/>
-      <c r="N65" s="496" t="s">
-        <v>143</v>
-      </c>
-      <c r="O65" s="497"/>
-      <c r="P65" s="498"/>
-      <c r="Q65" s="496" t="s">
+      <c r="O65" s="494"/>
+      <c r="P65" s="495"/>
+      <c r="Q65" s="493" t="s">
         <v>141</v>
       </c>
-      <c r="R65" s="497"/>
-      <c r="S65" s="497"/>
-      <c r="T65" s="530"/>
-      <c r="U65" s="497"/>
-      <c r="V65" s="498"/>
-      <c r="W65" s="496"/>
-      <c r="X65" s="497"/>
-      <c r="Y65" s="511"/>
+      <c r="R65" s="494"/>
+      <c r="S65" s="494"/>
+      <c r="T65" s="674"/>
+      <c r="U65" s="494"/>
+      <c r="V65" s="495"/>
+      <c r="W65" s="493"/>
+      <c r="X65" s="494"/>
+      <c r="Y65" s="539"/>
     </row>
     <row r="66" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="137" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B66" s="75"/>
       <c r="C66" s="75"/>
@@ -6682,16 +6714,16 @@
       <c r="G66" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="H66" s="613"/>
-      <c r="I66" s="614"/>
-      <c r="J66" s="614"/>
-      <c r="K66" s="595" t="s">
+      <c r="H66" s="646"/>
+      <c r="I66" s="631"/>
+      <c r="J66" s="631"/>
+      <c r="K66" s="512" t="s">
+        <v>144</v>
+      </c>
+      <c r="L66" s="511"/>
+      <c r="M66" s="513"/>
+      <c r="N66" s="80" t="s">
         <v>145</v>
-      </c>
-      <c r="L66" s="529"/>
-      <c r="M66" s="531"/>
-      <c r="N66" s="80" t="s">
-        <v>146</v>
       </c>
       <c r="O66" s="81" t="s">
         <v>81</v>
@@ -6711,8 +6743,8 @@
       <c r="T66" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="U66" s="529"/>
-      <c r="V66" s="531"/>
+      <c r="U66" s="511"/>
+      <c r="V66" s="513"/>
       <c r="W66" s="68"/>
       <c r="X66" s="93"/>
       <c r="Y66" s="94"/>
@@ -6730,27 +6762,27 @@
       <c r="H67" s="265"/>
       <c r="I67" s="266"/>
       <c r="J67" s="267"/>
-      <c r="K67" s="496"/>
-      <c r="L67" s="497"/>
-      <c r="M67" s="498"/>
-      <c r="N67" s="496" t="s">
+      <c r="K67" s="493"/>
+      <c r="L67" s="494"/>
+      <c r="M67" s="495"/>
+      <c r="N67" s="493" t="s">
         <v>141</v>
       </c>
-      <c r="O67" s="497"/>
-      <c r="P67" s="498"/>
-      <c r="Q67" s="496" t="s">
-        <v>143</v>
-      </c>
-      <c r="R67" s="497"/>
-      <c r="S67" s="497"/>
-      <c r="T67" s="519" t="s">
-        <v>147</v>
-      </c>
-      <c r="U67" s="520"/>
-      <c r="V67" s="520"/>
-      <c r="W67" s="496"/>
-      <c r="X67" s="497"/>
-      <c r="Y67" s="511"/>
+      <c r="O67" s="494"/>
+      <c r="P67" s="495"/>
+      <c r="Q67" s="493" t="s">
+        <v>142</v>
+      </c>
+      <c r="R67" s="494"/>
+      <c r="S67" s="494"/>
+      <c r="T67" s="610" t="s">
+        <v>146</v>
+      </c>
+      <c r="U67" s="611"/>
+      <c r="V67" s="611"/>
+      <c r="W67" s="493"/>
+      <c r="X67" s="494"/>
+      <c r="Y67" s="539"/>
     </row>
     <row r="68" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="137"/>
@@ -6778,7 +6810,7 @@
         <v>54</v>
       </c>
       <c r="Q68" s="80" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R68" s="81" t="s">
         <v>81</v>
@@ -6787,7 +6819,7 @@
         <v>54</v>
       </c>
       <c r="T68" s="104" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U68" s="105" t="s">
         <v>45</v>
@@ -6813,19 +6845,19 @@
       <c r="K69" s="53"/>
       <c r="L69" s="54"/>
       <c r="M69" s="54"/>
-      <c r="N69" s="496" t="s">
+      <c r="N69" s="493" t="s">
+        <v>148</v>
+      </c>
+      <c r="O69" s="494"/>
+      <c r="P69" s="494"/>
+      <c r="Q69" s="494"/>
+      <c r="R69" s="494"/>
+      <c r="S69" s="494"/>
+      <c r="T69" s="610" t="s">
         <v>149</v>
       </c>
-      <c r="O69" s="497"/>
-      <c r="P69" s="497"/>
-      <c r="Q69" s="497"/>
-      <c r="R69" s="497"/>
-      <c r="S69" s="497"/>
-      <c r="T69" s="519" t="s">
-        <v>150</v>
-      </c>
-      <c r="U69" s="520"/>
-      <c r="V69" s="644"/>
+      <c r="U69" s="611"/>
+      <c r="V69" s="612"/>
       <c r="W69" s="50"/>
       <c r="X69" s="51"/>
       <c r="Y69" s="158"/>
@@ -6847,7 +6879,7 @@
       <c r="L70" s="277"/>
       <c r="M70" s="277"/>
       <c r="N70" s="63" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O70" s="103"/>
       <c r="P70" s="278"/>
@@ -6859,7 +6891,7 @@
         <v>31</v>
       </c>
       <c r="T70" s="104" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U70" s="105" t="s">
         <v>45</v>
@@ -6873,25 +6905,25 @@
     </row>
     <row r="71" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A71" s="120"/>
-      <c r="B71" s="605">
+      <c r="B71" s="648">
         <v>22</v>
       </c>
-      <c r="C71" s="603">
+      <c r="C71" s="650">
         <v>8</v>
       </c>
-      <c r="D71" s="571">
+      <c r="D71" s="568">
         <v>5</v>
       </c>
-      <c r="E71" s="603">
+      <c r="E71" s="650">
         <v>3</v>
       </c>
-      <c r="F71" s="603">
+      <c r="F71" s="650">
         <v>14</v>
       </c>
       <c r="G71" s="121"/>
-      <c r="H71" s="608"/>
-      <c r="I71" s="559"/>
-      <c r="J71" s="557"/>
+      <c r="H71" s="523"/>
+      <c r="I71" s="524"/>
+      <c r="J71" s="525"/>
       <c r="K71" s="279"/>
       <c r="L71" s="280"/>
       <c r="M71" s="280"/>
@@ -6901,20 +6933,20 @@
       <c r="Q71" s="125"/>
       <c r="R71" s="123"/>
       <c r="S71" s="123"/>
-      <c r="T71" s="641"/>
-      <c r="U71" s="642"/>
-      <c r="V71" s="643"/>
-      <c r="W71" s="496"/>
-      <c r="X71" s="497"/>
-      <c r="Y71" s="511"/>
+      <c r="T71" s="607"/>
+      <c r="U71" s="608"/>
+      <c r="V71" s="609"/>
+      <c r="W71" s="493"/>
+      <c r="X71" s="494"/>
+      <c r="Y71" s="539"/>
     </row>
     <row r="72" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="177"/>
-      <c r="B72" s="606"/>
-      <c r="C72" s="604"/>
-      <c r="D72" s="572"/>
-      <c r="E72" s="604"/>
-      <c r="F72" s="604"/>
+      <c r="B72" s="649"/>
+      <c r="C72" s="651"/>
+      <c r="D72" s="569"/>
+      <c r="E72" s="651"/>
+      <c r="F72" s="651"/>
       <c r="G72" s="130" t="s">
         <v>22</v>
       </c>
@@ -6941,48 +6973,48 @@
       <c r="A73" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="B73" s="573"/>
-      <c r="C73" s="573">
+      <c r="B73" s="570"/>
+      <c r="C73" s="570">
         <v>22</v>
       </c>
-      <c r="D73" s="573">
+      <c r="D73" s="570">
         <v>19</v>
       </c>
-      <c r="E73" s="573">
+      <c r="E73" s="570">
         <v>17</v>
       </c>
-      <c r="F73" s="573"/>
+      <c r="F73" s="570"/>
       <c r="G73" s="138"/>
-      <c r="H73" s="608"/>
-      <c r="I73" s="559"/>
-      <c r="J73" s="557"/>
-      <c r="K73" s="496"/>
-      <c r="L73" s="497"/>
-      <c r="M73" s="497"/>
+      <c r="H73" s="523"/>
+      <c r="I73" s="524"/>
+      <c r="J73" s="525"/>
+      <c r="K73" s="493"/>
+      <c r="L73" s="494"/>
+      <c r="M73" s="494"/>
       <c r="N73" s="63"/>
       <c r="O73" s="54"/>
       <c r="P73" s="55"/>
       <c r="Q73" s="63"/>
       <c r="R73" s="54"/>
       <c r="S73" s="54"/>
-      <c r="T73" s="519" t="s">
-        <v>151</v>
-      </c>
-      <c r="U73" s="520"/>
-      <c r="V73" s="520"/>
-      <c r="W73" s="512"/>
-      <c r="X73" s="513"/>
-      <c r="Y73" s="514"/>
+      <c r="T73" s="610" t="s">
+        <v>150</v>
+      </c>
+      <c r="U73" s="611"/>
+      <c r="V73" s="611"/>
+      <c r="W73" s="499"/>
+      <c r="X73" s="500"/>
+      <c r="Y73" s="549"/>
     </row>
     <row r="74" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="137" t="s">
-        <v>152</v>
-      </c>
-      <c r="B74" s="572"/>
-      <c r="C74" s="572"/>
-      <c r="D74" s="572"/>
-      <c r="E74" s="572"/>
-      <c r="F74" s="572"/>
+        <v>151</v>
+      </c>
+      <c r="B74" s="569"/>
+      <c r="C74" s="569"/>
+      <c r="D74" s="569"/>
+      <c r="E74" s="569"/>
+      <c r="F74" s="569"/>
       <c r="G74" s="130" t="s">
         <v>25</v>
       </c>
@@ -7007,44 +7039,44 @@
     </row>
     <row r="75" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="137" t="s">
-        <v>153</v>
-      </c>
-      <c r="B75" s="573"/>
-      <c r="C75" s="573"/>
-      <c r="D75" s="573"/>
-      <c r="E75" s="573">
+        <v>152</v>
+      </c>
+      <c r="B75" s="570"/>
+      <c r="C75" s="570"/>
+      <c r="D75" s="570"/>
+      <c r="E75" s="570">
         <v>31</v>
       </c>
-      <c r="F75" s="573"/>
+      <c r="F75" s="570"/>
       <c r="G75" s="138"/>
-      <c r="H75" s="555"/>
-      <c r="I75" s="556"/>
-      <c r="J75" s="557"/>
-      <c r="K75" s="496"/>
-      <c r="L75" s="497"/>
-      <c r="M75" s="497"/>
+      <c r="H75" s="526"/>
+      <c r="I75" s="527"/>
+      <c r="J75" s="525"/>
+      <c r="K75" s="493"/>
+      <c r="L75" s="494"/>
+      <c r="M75" s="494"/>
       <c r="N75" s="56"/>
       <c r="O75" s="51"/>
       <c r="P75" s="52"/>
       <c r="Q75" s="56"/>
       <c r="R75" s="51"/>
       <c r="S75" s="51"/>
-      <c r="T75" s="521"/>
-      <c r="U75" s="522"/>
-      <c r="V75" s="523"/>
+      <c r="T75" s="678"/>
+      <c r="U75" s="679"/>
+      <c r="V75" s="680"/>
       <c r="W75" s="285"/>
       <c r="X75" s="247"/>
       <c r="Y75" s="286"/>
     </row>
     <row r="76" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="137" t="s">
-        <v>153</v>
-      </c>
-      <c r="B76" s="572"/>
-      <c r="C76" s="572"/>
-      <c r="D76" s="572"/>
-      <c r="E76" s="572"/>
-      <c r="F76" s="572"/>
+        <v>152</v>
+      </c>
+      <c r="B76" s="569"/>
+      <c r="C76" s="569"/>
+      <c r="D76" s="569"/>
+      <c r="E76" s="569"/>
+      <c r="F76" s="569"/>
       <c r="G76" s="130" t="s">
         <v>35</v>
       </c>
@@ -7061,7 +7093,7 @@
       <c r="R76" s="93"/>
       <c r="S76" s="93"/>
       <c r="T76" s="104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="U76" s="287" t="s">
         <v>43</v>
@@ -7095,9 +7127,9 @@
       <c r="Q77" s="56"/>
       <c r="R77" s="57"/>
       <c r="S77" s="57"/>
-      <c r="T77" s="540"/>
-      <c r="U77" s="541"/>
-      <c r="V77" s="542"/>
+      <c r="T77" s="554"/>
+      <c r="U77" s="555"/>
+      <c r="V77" s="556"/>
       <c r="W77" s="56"/>
       <c r="X77" s="57"/>
       <c r="Y77" s="58"/>
@@ -7272,33 +7304,33 @@
       <c r="V83" s="25"/>
       <c r="W83" s="25"/>
       <c r="X83" s="25"/>
-      <c r="Y83" s="25"/>
+      <c r="Y83" s="681"/>
     </row>
     <row r="84" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A84" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="B84" s="571">
+      <c r="B84" s="568">
         <v>10</v>
       </c>
-      <c r="C84" s="571">
+      <c r="C84" s="568">
         <v>10</v>
       </c>
-      <c r="D84" s="571">
+      <c r="D84" s="568">
         <v>7</v>
       </c>
-      <c r="E84" s="571">
+      <c r="E84" s="568">
         <v>5</v>
       </c>
-      <c r="F84" s="571">
+      <c r="F84" s="568">
         <v>2</v>
       </c>
-      <c r="G84" s="593" t="s">
+      <c r="G84" s="660" t="s">
         <v>22</v>
       </c>
-      <c r="H84" s="496"/>
-      <c r="I84" s="497"/>
-      <c r="J84" s="498"/>
+      <c r="H84" s="493"/>
+      <c r="I84" s="494"/>
+      <c r="J84" s="495"/>
       <c r="K84" s="280"/>
       <c r="L84" s="280"/>
       <c r="M84" s="317"/>
@@ -7319,12 +7351,12 @@
       <c r="A85" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="B85" s="572"/>
-      <c r="C85" s="572"/>
-      <c r="D85" s="572"/>
-      <c r="E85" s="572"/>
-      <c r="F85" s="572"/>
-      <c r="G85" s="592"/>
+      <c r="B85" s="569"/>
+      <c r="C85" s="569"/>
+      <c r="D85" s="569"/>
+      <c r="E85" s="569"/>
+      <c r="F85" s="569"/>
+      <c r="G85" s="659"/>
       <c r="H85" s="63"/>
       <c r="I85" s="4"/>
       <c r="J85" s="64"/>
@@ -7348,59 +7380,59 @@
       <c r="A86" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="B86" s="573">
+      <c r="B86" s="570">
         <v>24</v>
       </c>
-      <c r="C86" s="573">
+      <c r="C86" s="570">
         <v>24</v>
       </c>
-      <c r="D86" s="573">
+      <c r="D86" s="570">
         <v>21</v>
       </c>
-      <c r="E86" s="573">
+      <c r="E86" s="570">
         <v>19</v>
       </c>
       <c r="F86" s="49"/>
-      <c r="G86" s="591" t="s">
+      <c r="G86" s="640" t="s">
         <v>25</v>
       </c>
-      <c r="H86" s="587" t="s">
-        <v>155</v>
-      </c>
-      <c r="I86" s="497"/>
-      <c r="J86" s="498"/>
+      <c r="H86" s="505" t="s">
+        <v>154</v>
+      </c>
+      <c r="I86" s="494"/>
+      <c r="J86" s="495"/>
       <c r="K86" s="53"/>
       <c r="L86" s="54"/>
       <c r="M86" s="54"/>
       <c r="N86" s="53"/>
       <c r="O86" s="54"/>
       <c r="P86" s="55"/>
-      <c r="Q86" s="496" t="s">
+      <c r="Q86" s="493" t="s">
         <v>39</v>
       </c>
-      <c r="R86" s="497"/>
-      <c r="S86" s="497"/>
+      <c r="R86" s="494"/>
+      <c r="S86" s="494"/>
       <c r="T86" s="327"/>
       <c r="U86" s="54"/>
       <c r="V86" s="54"/>
-      <c r="W86" s="496" t="s">
-        <v>156</v>
-      </c>
-      <c r="X86" s="497"/>
-      <c r="Y86" s="511"/>
+      <c r="W86" s="493" t="s">
+        <v>155</v>
+      </c>
+      <c r="X86" s="494"/>
+      <c r="Y86" s="539"/>
     </row>
     <row r="87" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B87" s="572"/>
-      <c r="C87" s="572"/>
-      <c r="D87" s="572"/>
-      <c r="E87" s="572"/>
+      <c r="B87" s="569"/>
+      <c r="C87" s="569"/>
+      <c r="D87" s="569"/>
+      <c r="E87" s="569"/>
       <c r="F87" s="38"/>
-      <c r="G87" s="592"/>
+      <c r="G87" s="659"/>
       <c r="H87" s="68" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I87" s="40" t="s">
         <v>30</v>
@@ -7427,7 +7459,7 @@
       <c r="U87" s="81"/>
       <c r="V87" s="81"/>
       <c r="W87" s="68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X87" s="40" t="s">
         <v>100</v>
@@ -7440,49 +7472,49 @@
       <c r="A88" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="B88" s="573"/>
-      <c r="C88" s="573"/>
-      <c r="D88" s="573"/>
-      <c r="E88" s="573"/>
-      <c r="F88" s="573"/>
-      <c r="G88" s="591" t="s">
+      <c r="B88" s="570"/>
+      <c r="C88" s="570"/>
+      <c r="D88" s="570"/>
+      <c r="E88" s="570"/>
+      <c r="F88" s="570"/>
+      <c r="G88" s="640" t="s">
         <v>35</v>
       </c>
-      <c r="H88" s="587" t="s">
+      <c r="H88" s="505" t="s">
         <v>36</v>
       </c>
-      <c r="I88" s="497"/>
-      <c r="J88" s="498"/>
+      <c r="I88" s="494"/>
+      <c r="J88" s="495"/>
       <c r="K88" s="53"/>
       <c r="L88" s="54"/>
       <c r="M88" s="55"/>
       <c r="N88" s="53"/>
       <c r="O88" s="54"/>
       <c r="P88" s="55"/>
-      <c r="Q88" s="496" t="s">
+      <c r="Q88" s="493" t="s">
         <v>39</v>
       </c>
-      <c r="R88" s="497"/>
-      <c r="S88" s="497"/>
+      <c r="R88" s="494"/>
+      <c r="S88" s="494"/>
       <c r="T88" s="151"/>
       <c r="U88" s="61"/>
       <c r="V88" s="61"/>
-      <c r="W88" s="512" t="s">
-        <v>156</v>
-      </c>
-      <c r="X88" s="513"/>
-      <c r="Y88" s="514"/>
+      <c r="W88" s="499" t="s">
+        <v>155</v>
+      </c>
+      <c r="X88" s="500"/>
+      <c r="Y88" s="549"/>
     </row>
     <row r="89" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B89" s="572"/>
-      <c r="C89" s="572"/>
-      <c r="D89" s="572"/>
-      <c r="E89" s="572"/>
-      <c r="F89" s="572"/>
-      <c r="G89" s="592"/>
+      <c r="B89" s="569"/>
+      <c r="C89" s="569"/>
+      <c r="D89" s="569"/>
+      <c r="E89" s="569"/>
+      <c r="F89" s="569"/>
+      <c r="G89" s="659"/>
       <c r="H89" s="76" t="s">
         <v>41</v>
       </c>
@@ -7510,57 +7542,57 @@
       <c r="T89" s="329"/>
       <c r="U89" s="77"/>
       <c r="V89" s="77"/>
-      <c r="W89" s="493"/>
-      <c r="X89" s="494"/>
-      <c r="Y89" s="495"/>
+      <c r="W89" s="562"/>
+      <c r="X89" s="563"/>
+      <c r="Y89" s="564"/>
     </row>
     <row r="90" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="B90" s="573"/>
-      <c r="C90" s="573"/>
-      <c r="D90" s="573"/>
-      <c r="E90" s="573"/>
-      <c r="F90" s="573"/>
-      <c r="G90" s="591" t="s">
+      <c r="B90" s="570"/>
+      <c r="C90" s="570"/>
+      <c r="D90" s="570"/>
+      <c r="E90" s="570"/>
+      <c r="F90" s="570"/>
+      <c r="G90" s="640" t="s">
         <v>47</v>
       </c>
-      <c r="H90" s="496" t="s">
+      <c r="H90" s="493" t="s">
         <v>26</v>
       </c>
-      <c r="I90" s="497"/>
-      <c r="J90" s="498"/>
-      <c r="K90" s="512" t="s">
+      <c r="I90" s="494"/>
+      <c r="J90" s="495"/>
+      <c r="K90" s="499" t="s">
         <v>130</v>
       </c>
-      <c r="L90" s="513"/>
-      <c r="M90" s="532"/>
+      <c r="L90" s="500"/>
+      <c r="M90" s="501"/>
       <c r="N90" s="54"/>
       <c r="O90" s="54"/>
       <c r="P90" s="55"/>
-      <c r="Q90" s="496" t="s">
+      <c r="Q90" s="493" t="s">
         <v>124</v>
       </c>
-      <c r="R90" s="497"/>
-      <c r="S90" s="497"/>
+      <c r="R90" s="494"/>
+      <c r="S90" s="494"/>
       <c r="T90" s="142"/>
       <c r="U90" s="57"/>
       <c r="V90" s="57"/>
-      <c r="W90" s="493"/>
-      <c r="X90" s="494"/>
-      <c r="Y90" s="495"/>
+      <c r="W90" s="562"/>
+      <c r="X90" s="563"/>
+      <c r="Y90" s="564"/>
     </row>
     <row r="91" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="B91" s="572"/>
-      <c r="C91" s="572"/>
-      <c r="D91" s="572"/>
-      <c r="E91" s="572"/>
-      <c r="F91" s="572"/>
-      <c r="G91" s="592"/>
+      <c r="B91" s="569"/>
+      <c r="C91" s="569"/>
+      <c r="D91" s="569"/>
+      <c r="E91" s="569"/>
+      <c r="F91" s="569"/>
+      <c r="G91" s="659"/>
       <c r="H91" s="60" t="s">
         <v>29</v>
       </c>
@@ -7597,10 +7629,10 @@
       <c r="U91" s="40"/>
       <c r="V91" s="93"/>
       <c r="W91" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="X91" s="289" t="s">
         <v>158</v>
-      </c>
-      <c r="X91" s="289" t="s">
-        <v>159</v>
       </c>
       <c r="Y91" s="94" t="s">
         <v>63</v>
@@ -7610,51 +7642,51 @@
       <c r="A92" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="B92" s="573"/>
-      <c r="C92" s="573"/>
-      <c r="D92" s="573"/>
-      <c r="E92" s="573"/>
-      <c r="F92" s="573"/>
-      <c r="G92" s="591" t="s">
+      <c r="B92" s="570"/>
+      <c r="C92" s="570"/>
+      <c r="D92" s="570"/>
+      <c r="E92" s="570"/>
+      <c r="F92" s="570"/>
+      <c r="G92" s="640" t="s">
         <v>59</v>
       </c>
-      <c r="H92" s="587" t="s">
+      <c r="H92" s="505" t="s">
         <v>26</v>
       </c>
-      <c r="I92" s="497"/>
-      <c r="J92" s="498"/>
-      <c r="K92" s="496" t="s">
+      <c r="I92" s="494"/>
+      <c r="J92" s="495"/>
+      <c r="K92" s="493" t="s">
         <v>138</v>
       </c>
-      <c r="L92" s="497"/>
-      <c r="M92" s="498"/>
+      <c r="L92" s="494"/>
+      <c r="M92" s="495"/>
       <c r="N92" s="54"/>
       <c r="O92" s="54"/>
       <c r="P92" s="55"/>
-      <c r="Q92" s="496"/>
-      <c r="R92" s="497"/>
-      <c r="S92" s="497"/>
-      <c r="T92" s="530" t="s">
-        <v>160</v>
-      </c>
-      <c r="U92" s="497"/>
-      <c r="V92" s="498"/>
-      <c r="W92" s="518" t="s">
+      <c r="Q92" s="493"/>
+      <c r="R92" s="494"/>
+      <c r="S92" s="494"/>
+      <c r="T92" s="674" t="s">
+        <v>159</v>
+      </c>
+      <c r="U92" s="494"/>
+      <c r="V92" s="495"/>
+      <c r="W92" s="553" t="s">
         <v>110</v>
       </c>
-      <c r="X92" s="497"/>
-      <c r="Y92" s="511"/>
+      <c r="X92" s="494"/>
+      <c r="Y92" s="539"/>
     </row>
     <row r="93" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="137" t="s">
         <v>61</v>
       </c>
-      <c r="B93" s="572"/>
-      <c r="C93" s="572"/>
-      <c r="D93" s="572"/>
-      <c r="E93" s="572"/>
-      <c r="F93" s="572"/>
-      <c r="G93" s="592"/>
+      <c r="B93" s="569"/>
+      <c r="C93" s="569"/>
+      <c r="D93" s="569"/>
+      <c r="E93" s="569"/>
+      <c r="F93" s="569"/>
+      <c r="G93" s="659"/>
       <c r="H93" s="330" t="s">
         <v>29</v>
       </c>
@@ -7679,16 +7711,16 @@
       <c r="Q93" s="68"/>
       <c r="R93" s="40"/>
       <c r="S93" s="93"/>
-      <c r="T93" s="650" t="s">
+      <c r="T93" s="675" t="s">
+        <v>160</v>
+      </c>
+      <c r="U93" s="563"/>
+      <c r="V93" s="584"/>
+      <c r="W93" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="U93" s="494"/>
-      <c r="V93" s="640"/>
-      <c r="W93" s="68" t="s">
+      <c r="X93" s="40" t="s">
         <v>162</v>
-      </c>
-      <c r="X93" s="40" t="s">
-        <v>163</v>
       </c>
       <c r="Y93" s="94" t="s">
         <v>31</v>
@@ -7703,23 +7735,23 @@
       <c r="D94" s="73"/>
       <c r="E94" s="73"/>
       <c r="F94" s="74"/>
-      <c r="G94" s="591" t="s">
+      <c r="G94" s="640" t="s">
         <v>69</v>
       </c>
       <c r="H94" s="88"/>
       <c r="I94" s="109"/>
       <c r="J94" s="251"/>
-      <c r="K94" s="496" t="s">
+      <c r="K94" s="493" t="s">
         <v>138</v>
       </c>
-      <c r="L94" s="497"/>
-      <c r="M94" s="498"/>
-      <c r="N94" s="512"/>
-      <c r="O94" s="569"/>
-      <c r="P94" s="570"/>
-      <c r="Q94" s="496"/>
-      <c r="R94" s="497"/>
-      <c r="S94" s="497"/>
+      <c r="L94" s="494"/>
+      <c r="M94" s="495"/>
+      <c r="N94" s="499"/>
+      <c r="O94" s="676"/>
+      <c r="P94" s="677"/>
+      <c r="Q94" s="493"/>
+      <c r="R94" s="494"/>
+      <c r="S94" s="494"/>
       <c r="T94" s="331"/>
       <c r="U94" s="332"/>
       <c r="V94" s="333"/>
@@ -7734,7 +7766,7 @@
       <c r="D95" s="116"/>
       <c r="E95" s="116"/>
       <c r="F95" s="116"/>
-      <c r="G95" s="596"/>
+      <c r="G95" s="641"/>
       <c r="H95" s="336"/>
       <c r="I95" s="337"/>
       <c r="J95" s="216"/>
@@ -7754,7 +7786,7 @@
       <c r="R95" s="119"/>
       <c r="S95" s="170"/>
       <c r="T95" s="341" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U95" s="342" t="s">
         <v>45</v>
@@ -7768,27 +7800,27 @@
     </row>
     <row r="96" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A96" s="120"/>
-      <c r="B96" s="571">
+      <c r="B96" s="568">
         <v>11</v>
       </c>
-      <c r="C96" s="571">
+      <c r="C96" s="568">
         <v>11</v>
       </c>
-      <c r="D96" s="571">
+      <c r="D96" s="568">
         <v>8</v>
       </c>
-      <c r="E96" s="571">
+      <c r="E96" s="568">
         <v>6</v>
       </c>
-      <c r="F96" s="571">
+      <c r="F96" s="568">
         <v>3</v>
       </c>
-      <c r="G96" s="593" t="s">
+      <c r="G96" s="660" t="s">
         <v>22</v>
       </c>
-      <c r="H96" s="547"/>
-      <c r="I96" s="547"/>
-      <c r="J96" s="547"/>
+      <c r="H96" s="515"/>
+      <c r="I96" s="515"/>
+      <c r="J96" s="515"/>
       <c r="K96" s="125"/>
       <c r="L96" s="123"/>
       <c r="M96" s="124"/>
@@ -7807,12 +7839,12 @@
     </row>
     <row r="97" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="129"/>
-      <c r="B97" s="572"/>
-      <c r="C97" s="572"/>
-      <c r="D97" s="572"/>
-      <c r="E97" s="572"/>
-      <c r="F97" s="572"/>
-      <c r="G97" s="592"/>
+      <c r="B97" s="569"/>
+      <c r="C97" s="569"/>
+      <c r="D97" s="569"/>
+      <c r="E97" s="569"/>
+      <c r="F97" s="569"/>
+      <c r="G97" s="659"/>
       <c r="H97" s="109"/>
       <c r="I97" s="346"/>
       <c r="J97" s="182"/>
@@ -7836,30 +7868,30 @@
       <c r="A98" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="B98" s="573">
+      <c r="B98" s="570">
         <v>25</v>
       </c>
-      <c r="C98" s="573">
+      <c r="C98" s="570">
         <v>25</v>
       </c>
-      <c r="D98" s="573">
+      <c r="D98" s="570">
         <v>22</v>
       </c>
-      <c r="E98" s="573">
+      <c r="E98" s="570">
         <v>20</v>
       </c>
-      <c r="F98" s="573"/>
-      <c r="G98" s="591" t="s">
+      <c r="F98" s="570"/>
+      <c r="G98" s="640" t="s">
         <v>25</v>
       </c>
-      <c r="H98" s="556"/>
-      <c r="I98" s="556"/>
-      <c r="J98" s="556"/>
-      <c r="K98" s="496" t="s">
-        <v>155</v>
-      </c>
-      <c r="L98" s="497"/>
-      <c r="M98" s="498"/>
+      <c r="H98" s="527"/>
+      <c r="I98" s="527"/>
+      <c r="J98" s="527"/>
+      <c r="K98" s="493" t="s">
+        <v>154</v>
+      </c>
+      <c r="L98" s="494"/>
+      <c r="M98" s="495"/>
       <c r="N98" s="347"/>
       <c r="O98" s="348"/>
       <c r="P98" s="349"/>
@@ -7869,25 +7901,25 @@
       <c r="T98" s="142"/>
       <c r="U98" s="57"/>
       <c r="V98" s="57"/>
-      <c r="W98" s="515"/>
-      <c r="X98" s="516"/>
-      <c r="Y98" s="517"/>
+      <c r="W98" s="586"/>
+      <c r="X98" s="587"/>
+      <c r="Y98" s="588"/>
     </row>
     <row r="99" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="B99" s="572"/>
-      <c r="C99" s="572"/>
-      <c r="D99" s="572"/>
-      <c r="E99" s="572"/>
-      <c r="F99" s="572"/>
-      <c r="G99" s="592"/>
+      <c r="B99" s="569"/>
+      <c r="C99" s="569"/>
+      <c r="D99" s="569"/>
+      <c r="E99" s="569"/>
+      <c r="F99" s="569"/>
+      <c r="G99" s="659"/>
       <c r="H99" s="60"/>
       <c r="I99" s="61"/>
       <c r="J99" s="61"/>
       <c r="K99" s="350" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L99" s="45" t="s">
         <v>81</v>
@@ -7912,49 +7944,49 @@
       <c r="A100" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="B100" s="573"/>
-      <c r="C100" s="573"/>
-      <c r="D100" s="573"/>
-      <c r="E100" s="573"/>
-      <c r="F100" s="573"/>
-      <c r="G100" s="591" t="s">
+      <c r="B100" s="570"/>
+      <c r="C100" s="570"/>
+      <c r="D100" s="570"/>
+      <c r="E100" s="570"/>
+      <c r="F100" s="570"/>
+      <c r="G100" s="640" t="s">
         <v>35</v>
       </c>
-      <c r="H100" s="496" t="s">
+      <c r="H100" s="493" t="s">
         <v>138</v>
       </c>
-      <c r="I100" s="497"/>
-      <c r="J100" s="498"/>
-      <c r="K100" s="533" t="s">
-        <v>166</v>
-      </c>
-      <c r="L100" s="502"/>
-      <c r="M100" s="503"/>
-      <c r="N100" s="496"/>
-      <c r="O100" s="497"/>
-      <c r="P100" s="498"/>
-      <c r="Q100" s="512"/>
-      <c r="R100" s="513"/>
-      <c r="S100" s="513"/>
+      <c r="I100" s="494"/>
+      <c r="J100" s="495"/>
+      <c r="K100" s="520" t="s">
+        <v>165</v>
+      </c>
+      <c r="L100" s="521"/>
+      <c r="M100" s="522"/>
+      <c r="N100" s="493"/>
+      <c r="O100" s="494"/>
+      <c r="P100" s="495"/>
+      <c r="Q100" s="499"/>
+      <c r="R100" s="500"/>
+      <c r="S100" s="500"/>
       <c r="T100" s="356"/>
       <c r="U100" s="4"/>
       <c r="V100" s="4"/>
-      <c r="W100" s="515"/>
-      <c r="X100" s="516"/>
-      <c r="Y100" s="517"/>
+      <c r="W100" s="586"/>
+      <c r="X100" s="587"/>
+      <c r="Y100" s="588"/>
     </row>
     <row r="101" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="B101" s="572"/>
-      <c r="C101" s="572"/>
-      <c r="D101" s="572"/>
-      <c r="E101" s="572"/>
-      <c r="F101" s="572"/>
-      <c r="G101" s="592"/>
+      <c r="B101" s="569"/>
+      <c r="C101" s="569"/>
+      <c r="D101" s="569"/>
+      <c r="E101" s="569"/>
+      <c r="F101" s="569"/>
+      <c r="G101" s="659"/>
       <c r="H101" s="131" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I101" s="45" t="s">
         <v>97</v>
@@ -7963,7 +7995,7 @@
         <v>31</v>
       </c>
       <c r="K101" s="68" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L101" s="45" t="s">
         <v>81</v>
@@ -7993,30 +8025,30 @@
       <c r="D102" s="73"/>
       <c r="E102" s="73"/>
       <c r="F102" s="74"/>
-      <c r="G102" s="591" t="s">
+      <c r="G102" s="640" t="s">
         <v>47</v>
       </c>
-      <c r="H102" s="496" t="s">
+      <c r="H102" s="493" t="s">
         <v>138</v>
       </c>
-      <c r="I102" s="497"/>
-      <c r="J102" s="498"/>
-      <c r="K102" s="533" t="s">
-        <v>166</v>
-      </c>
-      <c r="L102" s="502"/>
-      <c r="M102" s="503"/>
-      <c r="N102" s="512" t="s">
-        <v>149</v>
-      </c>
-      <c r="O102" s="513"/>
-      <c r="P102" s="513"/>
-      <c r="Q102" s="513"/>
-      <c r="R102" s="513"/>
-      <c r="S102" s="513"/>
-      <c r="T102" s="577"/>
-      <c r="U102" s="513"/>
-      <c r="V102" s="513"/>
+      <c r="I102" s="494"/>
+      <c r="J102" s="495"/>
+      <c r="K102" s="520" t="s">
+        <v>165</v>
+      </c>
+      <c r="L102" s="521"/>
+      <c r="M102" s="522"/>
+      <c r="N102" s="499" t="s">
+        <v>148</v>
+      </c>
+      <c r="O102" s="500"/>
+      <c r="P102" s="500"/>
+      <c r="Q102" s="500"/>
+      <c r="R102" s="500"/>
+      <c r="S102" s="500"/>
+      <c r="T102" s="543"/>
+      <c r="U102" s="500"/>
+      <c r="V102" s="500"/>
       <c r="W102" s="63"/>
       <c r="X102" s="4"/>
       <c r="Y102" s="357"/>
@@ -8030,9 +8062,9 @@
       <c r="D103" s="85"/>
       <c r="E103" s="85"/>
       <c r="F103" s="85"/>
-      <c r="G103" s="592"/>
+      <c r="G103" s="659"/>
       <c r="H103" s="131" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I103" s="45" t="s">
         <v>97</v>
@@ -8044,11 +8076,11 @@
       <c r="L103" s="61"/>
       <c r="M103" s="162"/>
       <c r="N103" s="68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O103" s="83"/>
-      <c r="P103" s="529"/>
-      <c r="Q103" s="529"/>
+      <c r="P103" s="511"/>
+      <c r="Q103" s="511"/>
       <c r="R103" s="45" t="s">
         <v>81</v>
       </c>
@@ -8073,36 +8105,36 @@
       <c r="D104" s="73"/>
       <c r="E104" s="73"/>
       <c r="F104" s="74"/>
-      <c r="G104" s="591" t="s">
+      <c r="G104" s="640" t="s">
         <v>59</v>
       </c>
-      <c r="H104" s="578" t="s">
+      <c r="H104" s="583" t="s">
         <v>77</v>
       </c>
-      <c r="I104" s="513"/>
-      <c r="J104" s="532"/>
+      <c r="I104" s="500"/>
+      <c r="J104" s="501"/>
       <c r="K104" s="359" t="s">
         <v>51</v>
       </c>
-      <c r="L104" s="567" t="s">
+      <c r="L104" s="502" t="s">
         <v>52</v>
       </c>
-      <c r="M104" s="568"/>
-      <c r="N104" s="496" t="s">
+      <c r="M104" s="504"/>
+      <c r="N104" s="493" t="s">
+        <v>148</v>
+      </c>
+      <c r="O104" s="494"/>
+      <c r="P104" s="495"/>
+      <c r="Q104" s="635" t="s">
+        <v>49</v>
+      </c>
+      <c r="R104" s="527"/>
+      <c r="S104" s="527"/>
+      <c r="T104" s="604" t="s">
         <v>149</v>
       </c>
-      <c r="O104" s="497"/>
-      <c r="P104" s="498"/>
-      <c r="Q104" s="584" t="s">
-        <v>49</v>
-      </c>
-      <c r="R104" s="556"/>
-      <c r="S104" s="556"/>
-      <c r="T104" s="508" t="s">
-        <v>150</v>
-      </c>
-      <c r="U104" s="509"/>
-      <c r="V104" s="510"/>
+      <c r="U104" s="605"/>
+      <c r="V104" s="606"/>
       <c r="W104" s="56"/>
       <c r="X104" s="57"/>
       <c r="Y104" s="158"/>
@@ -8114,7 +8146,7 @@
       <c r="D105" s="85"/>
       <c r="E105" s="85"/>
       <c r="F105" s="85"/>
-      <c r="G105" s="592"/>
+      <c r="G105" s="659"/>
       <c r="H105" s="40" t="s">
         <v>80</v>
       </c>
@@ -8124,13 +8156,13 @@
       <c r="J105" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="K105" s="595" t="s">
-        <v>169</v>
-      </c>
-      <c r="L105" s="529"/>
-      <c r="M105" s="531"/>
+      <c r="K105" s="512" t="s">
+        <v>168</v>
+      </c>
+      <c r="L105" s="511"/>
+      <c r="M105" s="513"/>
       <c r="N105" s="68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O105" s="45" t="s">
         <v>81</v>
@@ -8148,7 +8180,7 @@
         <v>31</v>
       </c>
       <c r="T105" s="360" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U105" s="189" t="s">
         <v>43</v>
@@ -8167,32 +8199,32 @@
       <c r="D106" s="73"/>
       <c r="E106" s="73"/>
       <c r="F106" s="74"/>
-      <c r="G106" s="591" t="s">
+      <c r="G106" s="640" t="s">
         <v>69</v>
       </c>
-      <c r="H106" s="578" t="s">
+      <c r="H106" s="583" t="s">
         <v>77</v>
       </c>
-      <c r="I106" s="513"/>
-      <c r="J106" s="532"/>
-      <c r="K106" s="512"/>
-      <c r="L106" s="513"/>
-      <c r="M106" s="513"/>
-      <c r="N106" s="496" t="s">
-        <v>170</v>
-      </c>
-      <c r="O106" s="497"/>
-      <c r="P106" s="498"/>
-      <c r="Q106" s="584" t="s">
+      <c r="I106" s="500"/>
+      <c r="J106" s="501"/>
+      <c r="K106" s="499"/>
+      <c r="L106" s="500"/>
+      <c r="M106" s="500"/>
+      <c r="N106" s="493" t="s">
+        <v>169</v>
+      </c>
+      <c r="O106" s="494"/>
+      <c r="P106" s="495"/>
+      <c r="Q106" s="635" t="s">
         <v>49</v>
       </c>
-      <c r="R106" s="556"/>
-      <c r="S106" s="556"/>
-      <c r="T106" s="508" t="s">
-        <v>150</v>
-      </c>
-      <c r="U106" s="509"/>
-      <c r="V106" s="510"/>
+      <c r="R106" s="527"/>
+      <c r="S106" s="527"/>
+      <c r="T106" s="604" t="s">
+        <v>149</v>
+      </c>
+      <c r="U106" s="605"/>
+      <c r="V106" s="606"/>
       <c r="W106" s="56"/>
       <c r="X106" s="57"/>
       <c r="Y106" s="58"/>
@@ -8204,7 +8236,7 @@
       <c r="D107" s="116"/>
       <c r="E107" s="116"/>
       <c r="F107" s="116"/>
-      <c r="G107" s="596"/>
+      <c r="G107" s="641"/>
       <c r="H107" s="109" t="s">
         <v>80</v>
       </c>
@@ -8236,7 +8268,7 @@
         <v>54</v>
       </c>
       <c r="T107" s="360" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U107" s="189" t="s">
         <v>43</v>
@@ -8250,32 +8282,32 @@
     </row>
     <row r="108" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A108" s="120"/>
-      <c r="B108" s="571">
+      <c r="B108" s="568">
         <v>12</v>
       </c>
-      <c r="C108" s="571">
+      <c r="C108" s="568">
         <v>12</v>
       </c>
-      <c r="D108" s="571">
+      <c r="D108" s="568">
         <v>9</v>
       </c>
-      <c r="E108" s="571">
+      <c r="E108" s="568">
         <v>7</v>
       </c>
-      <c r="F108" s="571">
+      <c r="F108" s="568">
         <v>4</v>
       </c>
-      <c r="G108" s="593" t="s">
+      <c r="G108" s="660" t="s">
         <v>22</v>
       </c>
-      <c r="H108" s="620"/>
-      <c r="I108" s="547"/>
-      <c r="J108" s="548"/>
-      <c r="K108" s="496" t="s">
+      <c r="H108" s="668"/>
+      <c r="I108" s="515"/>
+      <c r="J108" s="516"/>
+      <c r="K108" s="493" t="s">
         <v>27</v>
       </c>
-      <c r="L108" s="497"/>
-      <c r="M108" s="498"/>
+      <c r="L108" s="494"/>
+      <c r="M108" s="495"/>
       <c r="N108" s="362" t="s">
         <v>75</v>
       </c>
@@ -8295,15 +8327,15 @@
       <c r="A109" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="B109" s="572"/>
-      <c r="C109" s="572"/>
-      <c r="D109" s="572"/>
-      <c r="E109" s="572"/>
-      <c r="F109" s="572"/>
-      <c r="G109" s="592"/>
+      <c r="B109" s="569"/>
+      <c r="C109" s="569"/>
+      <c r="D109" s="569"/>
+      <c r="E109" s="569"/>
+      <c r="F109" s="569"/>
+      <c r="G109" s="659"/>
       <c r="H109" s="152"/>
-      <c r="I109" s="529"/>
-      <c r="J109" s="531"/>
+      <c r="I109" s="511"/>
+      <c r="J109" s="513"/>
       <c r="K109" s="63" t="s">
         <v>32</v>
       </c>
@@ -8313,9 +8345,9 @@
       <c r="M109" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="N109" s="499"/>
-      <c r="O109" s="500"/>
-      <c r="P109" s="501"/>
+      <c r="N109" s="508"/>
+      <c r="O109" s="509"/>
+      <c r="P109" s="510"/>
       <c r="Q109" s="301"/>
       <c r="R109" s="301"/>
       <c r="S109" s="40"/>
@@ -8328,55 +8360,55 @@
     </row>
     <row r="110" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="137"/>
-      <c r="B110" s="573">
+      <c r="B110" s="570">
         <v>26</v>
       </c>
-      <c r="C110" s="573">
+      <c r="C110" s="570">
         <v>26</v>
       </c>
-      <c r="D110" s="573">
+      <c r="D110" s="570">
         <v>23</v>
       </c>
-      <c r="E110" s="573">
+      <c r="E110" s="570">
         <v>21</v>
       </c>
-      <c r="F110" s="573"/>
-      <c r="G110" s="591" t="s">
+      <c r="F110" s="570"/>
+      <c r="G110" s="640" t="s">
         <v>25</v>
       </c>
       <c r="H110" s="368"/>
       <c r="I110" s="369"/>
       <c r="J110" s="370"/>
-      <c r="K110" s="496" t="s">
+      <c r="K110" s="493" t="s">
         <v>48</v>
       </c>
-      <c r="L110" s="497"/>
-      <c r="M110" s="498"/>
-      <c r="N110" s="499" t="s">
-        <v>171</v>
-      </c>
-      <c r="O110" s="500"/>
-      <c r="P110" s="501"/>
+      <c r="L110" s="494"/>
+      <c r="M110" s="495"/>
+      <c r="N110" s="508" t="s">
+        <v>219</v>
+      </c>
+      <c r="O110" s="509"/>
+      <c r="P110" s="510"/>
       <c r="Q110" s="371"/>
       <c r="R110" s="371"/>
       <c r="S110" s="247"/>
       <c r="T110" s="264"/>
-      <c r="U110" s="497"/>
-      <c r="V110" s="497"/>
-      <c r="W110" s="512"/>
-      <c r="X110" s="513"/>
-      <c r="Y110" s="514"/>
+      <c r="U110" s="494"/>
+      <c r="V110" s="494"/>
+      <c r="W110" s="499"/>
+      <c r="X110" s="500"/>
+      <c r="Y110" s="549"/>
     </row>
     <row r="111" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="B111" s="572"/>
-      <c r="C111" s="572"/>
-      <c r="D111" s="572"/>
-      <c r="E111" s="572"/>
-      <c r="F111" s="572"/>
-      <c r="G111" s="592"/>
+      <c r="B111" s="569"/>
+      <c r="C111" s="569"/>
+      <c r="D111" s="569"/>
+      <c r="E111" s="569"/>
+      <c r="F111" s="569"/>
+      <c r="G111" s="659"/>
       <c r="H111" s="372"/>
       <c r="I111" s="70"/>
       <c r="J111" s="98"/>
@@ -8389,11 +8421,11 @@
       <c r="M111" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="N111" s="595" t="s">
-        <v>172</v>
-      </c>
-      <c r="O111" s="529"/>
-      <c r="P111" s="531"/>
+      <c r="N111" s="512" t="s">
+        <v>170</v>
+      </c>
+      <c r="O111" s="511"/>
+      <c r="P111" s="513"/>
       <c r="Q111" s="77"/>
       <c r="R111" s="77"/>
       <c r="S111" s="93"/>
@@ -8401,27 +8433,27 @@
       <c r="U111" s="81"/>
       <c r="V111" s="81"/>
       <c r="W111" s="40"/>
-      <c r="X111" s="529"/>
-      <c r="Y111" s="630"/>
+      <c r="X111" s="511"/>
+      <c r="Y111" s="616"/>
     </row>
     <row r="112" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="137"/>
-      <c r="B112" s="573"/>
-      <c r="C112" s="573"/>
-      <c r="D112" s="573"/>
-      <c r="E112" s="573"/>
+      <c r="B112" s="570"/>
+      <c r="C112" s="570"/>
+      <c r="D112" s="570"/>
+      <c r="E112" s="570"/>
       <c r="F112" s="190"/>
-      <c r="G112" s="591" t="s">
+      <c r="G112" s="640" t="s">
         <v>35</v>
       </c>
-      <c r="H112" s="587"/>
-      <c r="I112" s="497"/>
-      <c r="J112" s="498"/>
-      <c r="K112" s="496" t="s">
+      <c r="H112" s="505"/>
+      <c r="I112" s="494"/>
+      <c r="J112" s="495"/>
+      <c r="K112" s="493" t="s">
         <v>27</v>
       </c>
-      <c r="L112" s="497"/>
-      <c r="M112" s="498"/>
+      <c r="L112" s="494"/>
+      <c r="M112" s="495"/>
       <c r="N112" s="373"/>
       <c r="O112" s="373"/>
       <c r="P112" s="374"/>
@@ -8431,24 +8463,24 @@
       <c r="R112" s="140"/>
       <c r="S112" s="140"/>
       <c r="T112" s="375"/>
-      <c r="U112" s="502"/>
-      <c r="V112" s="503"/>
-      <c r="W112" s="515" t="s">
-        <v>173</v>
-      </c>
-      <c r="X112" s="516"/>
-      <c r="Y112" s="517"/>
+      <c r="U112" s="521"/>
+      <c r="V112" s="522"/>
+      <c r="W112" s="586" t="s">
+        <v>171</v>
+      </c>
+      <c r="X112" s="587"/>
+      <c r="Y112" s="588"/>
     </row>
     <row r="113" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B113" s="572"/>
-      <c r="C113" s="572"/>
-      <c r="D113" s="572"/>
-      <c r="E113" s="572"/>
+      <c r="B113" s="569"/>
+      <c r="C113" s="569"/>
+      <c r="D113" s="569"/>
+      <c r="E113" s="569"/>
       <c r="F113" s="38"/>
-      <c r="G113" s="592"/>
+      <c r="G113" s="659"/>
       <c r="H113" s="76"/>
       <c r="I113" s="81"/>
       <c r="J113" s="89"/>
@@ -8458,9 +8490,9 @@
       <c r="N113" s="379"/>
       <c r="O113" s="42"/>
       <c r="P113" s="98"/>
-      <c r="Q113" s="499"/>
-      <c r="R113" s="500"/>
-      <c r="S113" s="500"/>
+      <c r="Q113" s="508"/>
+      <c r="R113" s="509"/>
+      <c r="S113" s="509"/>
       <c r="T113" s="329"/>
       <c r="U113" s="77"/>
       <c r="V113" s="79"/>
@@ -8481,37 +8513,37 @@
       <c r="D114" s="73"/>
       <c r="E114" s="73"/>
       <c r="F114" s="74"/>
-      <c r="G114" s="591" t="s">
+      <c r="G114" s="640" t="s">
         <v>47</v>
       </c>
-      <c r="H114" s="567"/>
-      <c r="I114" s="609"/>
-      <c r="J114" s="568"/>
+      <c r="H114" s="502"/>
+      <c r="I114" s="503"/>
+      <c r="J114" s="504"/>
       <c r="K114" s="359" t="s">
         <v>51</v>
       </c>
-      <c r="L114" s="567" t="s">
+      <c r="L114" s="502" t="s">
         <v>52</v>
       </c>
-      <c r="M114" s="568"/>
-      <c r="N114" s="512" t="s">
+      <c r="M114" s="504"/>
+      <c r="N114" s="499" t="s">
         <v>135</v>
       </c>
-      <c r="O114" s="513"/>
-      <c r="P114" s="532"/>
-      <c r="Q114" s="499" t="s">
+      <c r="O114" s="500"/>
+      <c r="P114" s="501"/>
+      <c r="Q114" s="508" t="s">
         <v>83</v>
       </c>
-      <c r="R114" s="500"/>
-      <c r="S114" s="500"/>
+      <c r="R114" s="509"/>
+      <c r="S114" s="509"/>
       <c r="T114" s="264"/>
-      <c r="U114" s="497"/>
-      <c r="V114" s="498"/>
-      <c r="W114" s="515" t="s">
-        <v>173</v>
-      </c>
-      <c r="X114" s="516"/>
-      <c r="Y114" s="517"/>
+      <c r="U114" s="494"/>
+      <c r="V114" s="495"/>
+      <c r="W114" s="586" t="s">
+        <v>171</v>
+      </c>
+      <c r="X114" s="587"/>
+      <c r="Y114" s="588"/>
     </row>
     <row r="115" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="137" t="s">
@@ -8522,15 +8554,15 @@
       <c r="D115" s="85"/>
       <c r="E115" s="85"/>
       <c r="F115" s="85"/>
-      <c r="G115" s="592"/>
+      <c r="G115" s="659"/>
       <c r="H115" s="78"/>
       <c r="I115" s="77"/>
       <c r="J115" s="89"/>
-      <c r="K115" s="678" t="s">
-        <v>174</v>
-      </c>
-      <c r="L115" s="564"/>
-      <c r="M115" s="589"/>
+      <c r="K115" s="517" t="s">
+        <v>172</v>
+      </c>
+      <c r="L115" s="518"/>
+      <c r="M115" s="519"/>
       <c r="N115" s="63" t="s">
         <v>137</v>
       </c>
@@ -8540,11 +8572,11 @@
       <c r="P115" s="294" t="s">
         <v>31</v>
       </c>
-      <c r="Q115" s="595" t="s">
-        <v>175</v>
-      </c>
-      <c r="R115" s="529"/>
-      <c r="S115" s="529"/>
+      <c r="Q115" s="512" t="s">
+        <v>173</v>
+      </c>
+      <c r="R115" s="511"/>
+      <c r="S115" s="511"/>
       <c r="T115" s="325"/>
       <c r="U115" s="81"/>
       <c r="V115" s="89"/>
@@ -8565,29 +8597,29 @@
       <c r="D116" s="73"/>
       <c r="E116" s="73"/>
       <c r="F116" s="74"/>
-      <c r="G116" s="591" t="s">
+      <c r="G116" s="640" t="s">
         <v>59</v>
       </c>
       <c r="H116" s="380"/>
       <c r="I116" s="248"/>
       <c r="J116" s="291"/>
-      <c r="K116" s="496"/>
-      <c r="L116" s="497"/>
-      <c r="M116" s="497"/>
-      <c r="N116" s="512" t="s">
+      <c r="K116" s="493"/>
+      <c r="L116" s="494"/>
+      <c r="M116" s="494"/>
+      <c r="N116" s="499" t="s">
         <v>135</v>
       </c>
-      <c r="O116" s="513"/>
-      <c r="P116" s="532"/>
-      <c r="Q116" s="534"/>
-      <c r="R116" s="504"/>
-      <c r="S116" s="504"/>
-      <c r="T116" s="508"/>
-      <c r="U116" s="509"/>
-      <c r="V116" s="510"/>
-      <c r="W116" s="504"/>
-      <c r="X116" s="504"/>
-      <c r="Y116" s="505"/>
+      <c r="O116" s="500"/>
+      <c r="P116" s="501"/>
+      <c r="Q116" s="595"/>
+      <c r="R116" s="596"/>
+      <c r="S116" s="596"/>
+      <c r="T116" s="604"/>
+      <c r="U116" s="605"/>
+      <c r="V116" s="606"/>
+      <c r="W116" s="596"/>
+      <c r="X116" s="596"/>
+      <c r="Y116" s="597"/>
     </row>
     <row r="117" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="137" t="s">
@@ -8598,7 +8630,7 @@
       <c r="D117" s="85"/>
       <c r="E117" s="85"/>
       <c r="F117" s="85"/>
-      <c r="G117" s="592"/>
+      <c r="G117" s="659"/>
       <c r="H117" s="80"/>
       <c r="I117" s="81"/>
       <c r="J117" s="89"/>
@@ -8614,15 +8646,15 @@
       <c r="P117" s="302" t="s">
         <v>54</v>
       </c>
-      <c r="Q117" s="535"/>
-      <c r="R117" s="506"/>
-      <c r="S117" s="506"/>
+      <c r="Q117" s="598"/>
+      <c r="R117" s="599"/>
+      <c r="S117" s="599"/>
       <c r="T117" s="360"/>
       <c r="U117" s="189"/>
       <c r="V117" s="361"/>
-      <c r="W117" s="506"/>
-      <c r="X117" s="506"/>
-      <c r="Y117" s="507"/>
+      <c r="W117" s="599"/>
+      <c r="X117" s="599"/>
+      <c r="Y117" s="600"/>
     </row>
     <row r="118" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="137"/>
@@ -8631,21 +8663,21 @@
       <c r="D118" s="73"/>
       <c r="E118" s="73"/>
       <c r="F118" s="74"/>
-      <c r="G118" s="591" t="s">
+      <c r="G118" s="640" t="s">
         <v>69</v>
       </c>
-      <c r="K118" s="496"/>
-      <c r="L118" s="497"/>
-      <c r="M118" s="497"/>
+      <c r="K118" s="493"/>
+      <c r="L118" s="494"/>
+      <c r="M118" s="494"/>
       <c r="N118" s="380"/>
       <c r="O118" s="248"/>
       <c r="P118" s="291"/>
       <c r="Q118" s="63"/>
       <c r="R118" s="4"/>
       <c r="S118" s="4"/>
-      <c r="T118" s="574"/>
-      <c r="U118" s="575"/>
-      <c r="V118" s="576"/>
+      <c r="T118" s="592"/>
+      <c r="U118" s="593"/>
+      <c r="V118" s="594"/>
       <c r="W118" s="63"/>
       <c r="X118" s="4"/>
       <c r="Y118" s="357"/>
@@ -8657,7 +8689,7 @@
       <c r="D119" s="116"/>
       <c r="E119" s="116"/>
       <c r="F119" s="116"/>
-      <c r="G119" s="596"/>
+      <c r="G119" s="641"/>
       <c r="K119" s="63"/>
       <c r="L119" s="134"/>
       <c r="M119" s="134"/>
@@ -8676,53 +8708,53 @@
     </row>
     <row r="120" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A120" s="120"/>
-      <c r="B120" s="571">
+      <c r="B120" s="568">
         <v>13</v>
       </c>
-      <c r="C120" s="605">
+      <c r="C120" s="648">
         <v>13</v>
       </c>
-      <c r="D120" s="571">
+      <c r="D120" s="568">
         <v>10</v>
       </c>
-      <c r="E120" s="605">
+      <c r="E120" s="648">
         <v>8</v>
       </c>
-      <c r="F120" s="571">
+      <c r="F120" s="568">
         <v>5</v>
       </c>
-      <c r="G120" s="593" t="s">
+      <c r="G120" s="660" t="s">
         <v>22</v>
       </c>
-      <c r="H120" s="561"/>
-      <c r="I120" s="562"/>
-      <c r="J120" s="563"/>
-      <c r="K120" s="546"/>
-      <c r="L120" s="547"/>
-      <c r="M120" s="594"/>
-      <c r="N120" s="496" t="s">
-        <v>196</v>
-      </c>
-      <c r="O120" s="497"/>
-      <c r="P120" s="498"/>
+      <c r="H120" s="671"/>
+      <c r="I120" s="672"/>
+      <c r="J120" s="673"/>
+      <c r="K120" s="514"/>
+      <c r="L120" s="515"/>
+      <c r="M120" s="661"/>
+      <c r="N120" s="493" t="s">
+        <v>194</v>
+      </c>
+      <c r="O120" s="494"/>
+      <c r="P120" s="495"/>
       <c r="Q120" s="110"/>
       <c r="R120" s="111"/>
       <c r="S120" s="111"/>
-      <c r="T120" s="543"/>
-      <c r="U120" s="544"/>
-      <c r="V120" s="545"/>
+      <c r="T120" s="559"/>
+      <c r="U120" s="560"/>
+      <c r="V120" s="561"/>
       <c r="W120" s="110"/>
       <c r="X120" s="111"/>
       <c r="Y120" s="224"/>
     </row>
     <row r="121" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="177"/>
-      <c r="B121" s="572"/>
-      <c r="C121" s="606"/>
-      <c r="D121" s="572"/>
-      <c r="E121" s="606"/>
-      <c r="F121" s="572"/>
-      <c r="G121" s="592"/>
+      <c r="B121" s="569"/>
+      <c r="C121" s="649"/>
+      <c r="D121" s="569"/>
+      <c r="E121" s="649"/>
+      <c r="F121" s="569"/>
+      <c r="G121" s="659"/>
       <c r="H121" s="387"/>
       <c r="I121" s="388"/>
       <c r="J121" s="389"/>
@@ -8730,7 +8762,7 @@
       <c r="L121" s="93"/>
       <c r="M121" s="132"/>
       <c r="N121" s="60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O121" s="61" t="s">
         <v>30</v>
@@ -8752,39 +8784,39 @@
       <c r="A122" s="177" t="s">
         <v>116</v>
       </c>
-      <c r="B122" s="607">
+      <c r="B122" s="652">
         <v>27</v>
       </c>
-      <c r="C122" s="573">
+      <c r="C122" s="570">
         <v>27</v>
       </c>
-      <c r="D122" s="573">
+      <c r="D122" s="570">
         <v>24</v>
       </c>
-      <c r="E122" s="573">
+      <c r="E122" s="570">
         <v>22</v>
       </c>
       <c r="F122" s="49"/>
-      <c r="G122" s="591" t="s">
+      <c r="G122" s="640" t="s">
         <v>25</v>
       </c>
-      <c r="H122" s="549"/>
-      <c r="I122" s="550"/>
-      <c r="J122" s="551"/>
-      <c r="K122" s="512" t="s">
+      <c r="H122" s="669"/>
+      <c r="I122" s="619"/>
+      <c r="J122" s="620"/>
+      <c r="K122" s="499" t="s">
         <v>37</v>
       </c>
-      <c r="L122" s="513"/>
-      <c r="M122" s="532"/>
+      <c r="L122" s="500"/>
+      <c r="M122" s="501"/>
       <c r="N122" s="54"/>
       <c r="O122" s="54"/>
       <c r="P122" s="54"/>
       <c r="Q122" s="56"/>
       <c r="R122" s="57"/>
       <c r="S122" s="57"/>
-      <c r="T122" s="540"/>
-      <c r="U122" s="541"/>
-      <c r="V122" s="542"/>
+      <c r="T122" s="554"/>
+      <c r="U122" s="555"/>
+      <c r="V122" s="556"/>
       <c r="W122" s="56"/>
       <c r="X122" s="57"/>
       <c r="Y122" s="58"/>
@@ -8793,12 +8825,12 @@
       <c r="A123" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B123" s="606"/>
-      <c r="C123" s="572"/>
-      <c r="D123" s="572"/>
-      <c r="E123" s="572"/>
+      <c r="B123" s="649"/>
+      <c r="C123" s="569"/>
+      <c r="D123" s="569"/>
+      <c r="E123" s="569"/>
       <c r="F123" s="38"/>
-      <c r="G123" s="592"/>
+      <c r="G123" s="659"/>
       <c r="H123" s="390"/>
       <c r="I123" s="391"/>
       <c r="J123" s="392"/>
@@ -8806,7 +8838,7 @@
         <v>29</v>
       </c>
       <c r="L123" s="77" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M123" s="79" t="s">
         <v>31</v>
@@ -8828,35 +8860,35 @@
       <c r="A124" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="B124" s="573"/>
-      <c r="C124" s="573"/>
-      <c r="D124" s="573"/>
-      <c r="E124" s="573"/>
-      <c r="F124" s="573"/>
-      <c r="G124" s="591" t="s">
+      <c r="B124" s="570"/>
+      <c r="C124" s="570"/>
+      <c r="D124" s="570"/>
+      <c r="E124" s="570"/>
+      <c r="F124" s="570"/>
+      <c r="G124" s="640" t="s">
         <v>35</v>
       </c>
       <c r="H124" s="393"/>
       <c r="I124" s="394"/>
       <c r="J124" s="395"/>
-      <c r="K124" s="512" t="s">
+      <c r="K124" s="499" t="s">
         <v>37</v>
       </c>
-      <c r="L124" s="513"/>
-      <c r="M124" s="532"/>
-      <c r="N124" s="448"/>
-      <c r="O124" s="484" t="s">
-        <v>197</v>
+      <c r="L124" s="500"/>
+      <c r="M124" s="501"/>
+      <c r="N124" s="447"/>
+      <c r="O124" s="483" t="s">
+        <v>195</v>
       </c>
       <c r="P124" s="54"/>
-      <c r="Q124" s="512" t="s">
+      <c r="Q124" s="499" t="s">
         <v>118</v>
       </c>
-      <c r="R124" s="513"/>
-      <c r="S124" s="513"/>
-      <c r="T124" s="540"/>
-      <c r="U124" s="541"/>
-      <c r="V124" s="542"/>
+      <c r="R124" s="500"/>
+      <c r="S124" s="500"/>
+      <c r="T124" s="554"/>
+      <c r="U124" s="555"/>
+      <c r="V124" s="556"/>
       <c r="W124" s="396"/>
       <c r="X124" s="4"/>
       <c r="Y124" s="357"/>
@@ -8865,20 +8897,20 @@
       <c r="A125" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="B125" s="572"/>
-      <c r="C125" s="572"/>
-      <c r="D125" s="572"/>
-      <c r="E125" s="572"/>
-      <c r="F125" s="572"/>
-      <c r="G125" s="592"/>
+      <c r="B125" s="569"/>
+      <c r="C125" s="569"/>
+      <c r="D125" s="569"/>
+      <c r="E125" s="569"/>
+      <c r="F125" s="569"/>
+      <c r="G125" s="659"/>
       <c r="H125" s="397"/>
       <c r="I125" s="398"/>
       <c r="J125" s="399"/>
       <c r="K125" s="376"/>
       <c r="L125" s="377"/>
       <c r="M125" s="378"/>
-      <c r="N125" s="449"/>
-      <c r="O125" s="453"/>
+      <c r="N125" s="448"/>
+      <c r="O125" s="452"/>
       <c r="P125" s="4"/>
       <c r="Q125" s="78" t="s">
         <v>120</v>
@@ -8900,40 +8932,40 @@
       <c r="A126" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B126" s="573"/>
-      <c r="C126" s="573"/>
-      <c r="D126" s="573"/>
-      <c r="E126" s="573"/>
-      <c r="F126" s="573"/>
-      <c r="G126" s="591" t="s">
+      <c r="B126" s="570"/>
+      <c r="C126" s="570"/>
+      <c r="D126" s="570"/>
+      <c r="E126" s="570"/>
+      <c r="F126" s="570"/>
+      <c r="G126" s="640" t="s">
         <v>47</v>
       </c>
-      <c r="H126" s="587" t="s">
+      <c r="H126" s="505" t="s">
         <v>37</v>
       </c>
-      <c r="I126" s="497"/>
-      <c r="J126" s="498"/>
+      <c r="I126" s="494"/>
+      <c r="J126" s="495"/>
       <c r="K126" s="359" t="s">
         <v>51</v>
       </c>
-      <c r="L126" s="567" t="s">
+      <c r="L126" s="502" t="s">
         <v>52</v>
       </c>
-      <c r="M126" s="568"/>
-      <c r="N126" s="454" t="s">
-        <v>198</v>
-      </c>
-      <c r="O126" s="453" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q126" s="512" t="s">
+      <c r="M126" s="504"/>
+      <c r="N126" s="453" t="s">
+        <v>196</v>
+      </c>
+      <c r="O126" s="452" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q126" s="499" t="s">
         <v>118</v>
       </c>
-      <c r="R126" s="513"/>
-      <c r="S126" s="513"/>
-      <c r="T126" s="543"/>
-      <c r="U126" s="544"/>
-      <c r="V126" s="545"/>
+      <c r="R126" s="500"/>
+      <c r="S126" s="500"/>
+      <c r="T126" s="559"/>
+      <c r="U126" s="560"/>
+      <c r="V126" s="561"/>
       <c r="W126" s="53"/>
       <c r="X126" s="54"/>
       <c r="Y126" s="400"/>
@@ -8942,17 +8974,17 @@
       <c r="A127" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="B127" s="572"/>
-      <c r="C127" s="572"/>
-      <c r="D127" s="572"/>
-      <c r="E127" s="572"/>
-      <c r="F127" s="572"/>
-      <c r="G127" s="592"/>
+      <c r="B127" s="569"/>
+      <c r="C127" s="569"/>
+      <c r="D127" s="569"/>
+      <c r="E127" s="569"/>
+      <c r="F127" s="569"/>
+      <c r="G127" s="659"/>
       <c r="H127" s="131" t="s">
         <v>136</v>
       </c>
       <c r="I127" s="83" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J127" s="84" t="s">
         <v>31</v>
@@ -8966,11 +8998,11 @@
       <c r="M127" s="132" t="s">
         <v>71</v>
       </c>
-      <c r="N127" s="455" t="s">
-        <v>200</v>
-      </c>
-      <c r="O127" s="485" t="s">
-        <v>201</v>
+      <c r="N127" s="454" t="s">
+        <v>198</v>
+      </c>
+      <c r="O127" s="484" t="s">
+        <v>199</v>
       </c>
       <c r="Q127" s="78" t="s">
         <v>120</v>
@@ -8997,28 +9029,28 @@
       <c r="D128" s="73"/>
       <c r="E128" s="73"/>
       <c r="F128" s="73"/>
-      <c r="G128" s="591" t="s">
+      <c r="G128" s="640" t="s">
         <v>59</v>
       </c>
-      <c r="H128" s="555" t="s">
+      <c r="H128" s="526" t="s">
         <v>117</v>
       </c>
-      <c r="I128" s="556"/>
-      <c r="J128" s="557"/>
+      <c r="I128" s="527"/>
+      <c r="J128" s="525"/>
       <c r="K128" s="56"/>
       <c r="L128" s="57"/>
       <c r="M128" s="401"/>
-      <c r="N128" s="455" t="s">
-        <v>202</v>
-      </c>
-      <c r="O128" s="450"/>
-      <c r="P128" s="447"/>
+      <c r="N128" s="454" t="s">
+        <v>200</v>
+      </c>
+      <c r="O128" s="449"/>
+      <c r="P128" s="446"/>
       <c r="Q128" s="402"/>
       <c r="R128" s="206"/>
       <c r="S128" s="206"/>
-      <c r="T128" s="540"/>
-      <c r="U128" s="541"/>
-      <c r="V128" s="542"/>
+      <c r="T128" s="554"/>
+      <c r="U128" s="555"/>
+      <c r="V128" s="556"/>
       <c r="W128" s="402"/>
       <c r="X128" s="206"/>
       <c r="Y128" s="403"/>
@@ -9030,21 +9062,21 @@
       <c r="D129" s="75"/>
       <c r="E129" s="75"/>
       <c r="F129" s="75"/>
-      <c r="G129" s="592"/>
+      <c r="G129" s="659"/>
       <c r="H129" s="233" t="s">
-        <v>57</v>
-      </c>
-      <c r="I129" s="565" t="s">
+        <v>220</v>
+      </c>
+      <c r="I129" s="497" t="s">
         <v>119</v>
       </c>
-      <c r="J129" s="566"/>
+      <c r="J129" s="498"/>
       <c r="K129" s="80"/>
       <c r="L129" s="81"/>
       <c r="M129" s="89"/>
-      <c r="N129" s="452" t="s">
-        <v>203</v>
-      </c>
-      <c r="O129" s="451"/>
+      <c r="N129" s="451" t="s">
+        <v>201</v>
+      </c>
+      <c r="O129" s="450"/>
       <c r="P129" s="404"/>
       <c r="Q129" s="68"/>
       <c r="R129" s="40"/>
@@ -9063,14 +9095,14 @@
       <c r="D130" s="73"/>
       <c r="E130" s="73"/>
       <c r="F130" s="74"/>
-      <c r="G130" s="591" t="s">
+      <c r="G130" s="640" t="s">
         <v>69</v>
       </c>
-      <c r="H130" s="555" t="s">
+      <c r="H130" s="526" t="s">
         <v>117</v>
       </c>
-      <c r="I130" s="556"/>
-      <c r="J130" s="557"/>
+      <c r="I130" s="527"/>
+      <c r="J130" s="525"/>
       <c r="K130" s="88"/>
       <c r="L130" s="109"/>
       <c r="M130" s="251"/>
@@ -9080,9 +9112,9 @@
       <c r="Q130" s="56"/>
       <c r="R130" s="57"/>
       <c r="S130" s="57"/>
-      <c r="T130" s="540"/>
-      <c r="U130" s="541"/>
-      <c r="V130" s="542"/>
+      <c r="T130" s="554"/>
+      <c r="U130" s="555"/>
+      <c r="V130" s="556"/>
       <c r="W130" s="56"/>
       <c r="X130" s="57"/>
       <c r="Y130" s="58"/>
@@ -9094,14 +9126,14 @@
       <c r="D131" s="249"/>
       <c r="E131" s="249"/>
       <c r="F131" s="249"/>
-      <c r="G131" s="596"/>
+      <c r="G131" s="641"/>
       <c r="H131" s="233" t="s">
         <v>57</v>
       </c>
-      <c r="I131" s="565" t="s">
-        <v>176</v>
-      </c>
-      <c r="J131" s="566"/>
+      <c r="I131" s="497" t="s">
+        <v>174</v>
+      </c>
+      <c r="J131" s="498"/>
       <c r="K131" s="336"/>
       <c r="L131" s="337"/>
       <c r="M131" s="216"/>
@@ -9120,32 +9152,32 @@
     </row>
     <row r="132" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A132" s="120"/>
-      <c r="B132" s="571">
+      <c r="B132" s="568">
         <v>14</v>
       </c>
-      <c r="C132" s="571">
+      <c r="C132" s="568">
         <v>14</v>
       </c>
-      <c r="D132" s="571">
+      <c r="D132" s="568">
         <v>11</v>
       </c>
-      <c r="E132" s="603">
+      <c r="E132" s="650">
         <v>9</v>
       </c>
-      <c r="F132" s="571">
+      <c r="F132" s="568">
         <v>6</v>
       </c>
-      <c r="G132" s="593" t="s">
+      <c r="G132" s="660" t="s">
         <v>22</v>
       </c>
       <c r="H132" s="279"/>
       <c r="I132" s="280"/>
       <c r="J132" s="317"/>
-      <c r="K132" s="546" t="s">
+      <c r="K132" s="514" t="s">
         <v>123</v>
       </c>
-      <c r="L132" s="547"/>
-      <c r="M132" s="548"/>
+      <c r="L132" s="515"/>
+      <c r="M132" s="516"/>
       <c r="N132" s="53"/>
       <c r="O132" s="408"/>
       <c r="P132" s="409"/>
@@ -9161,12 +9193,12 @@
     </row>
     <row r="133" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="177"/>
-      <c r="B133" s="572"/>
-      <c r="C133" s="572"/>
-      <c r="D133" s="572"/>
-      <c r="E133" s="604"/>
-      <c r="F133" s="572"/>
-      <c r="G133" s="592"/>
+      <c r="B133" s="569"/>
+      <c r="C133" s="569"/>
+      <c r="D133" s="569"/>
+      <c r="E133" s="651"/>
+      <c r="F133" s="569"/>
+      <c r="G133" s="659"/>
       <c r="H133" s="88"/>
       <c r="I133" s="109"/>
       <c r="J133" s="64"/>
@@ -9196,62 +9228,62 @@
       <c r="A134" s="177" t="s">
         <v>21</v>
       </c>
-      <c r="B134" s="573">
+      <c r="B134" s="570">
         <v>28</v>
       </c>
-      <c r="C134" s="573">
+      <c r="C134" s="570">
         <v>28</v>
       </c>
-      <c r="D134" s="573">
+      <c r="D134" s="570">
         <v>25</v>
       </c>
-      <c r="E134" s="573">
+      <c r="E134" s="570">
         <v>23</v>
       </c>
-      <c r="F134" s="573"/>
-      <c r="G134" s="591" t="s">
+      <c r="F134" s="570"/>
+      <c r="G134" s="640" t="s">
         <v>25</v>
       </c>
-      <c r="H134" s="555" t="s">
+      <c r="H134" s="526" t="s">
         <v>98</v>
       </c>
-      <c r="I134" s="556"/>
-      <c r="J134" s="557"/>
-      <c r="K134" s="496" t="s">
+      <c r="I134" s="527"/>
+      <c r="J134" s="525"/>
+      <c r="K134" s="493" t="s">
         <v>123</v>
       </c>
-      <c r="L134" s="497"/>
-      <c r="M134" s="498"/>
-      <c r="N134" s="512" t="s">
+      <c r="L134" s="494"/>
+      <c r="M134" s="495"/>
+      <c r="N134" s="499" t="s">
         <v>95</v>
       </c>
-      <c r="O134" s="513"/>
-      <c r="P134" s="513"/>
-      <c r="Q134" s="513"/>
-      <c r="R134" s="513"/>
-      <c r="S134" s="513"/>
-      <c r="T134" s="540"/>
-      <c r="U134" s="541"/>
-      <c r="V134" s="542"/>
-      <c r="W134" s="496"/>
-      <c r="X134" s="497"/>
-      <c r="Y134" s="511"/>
+      <c r="O134" s="500"/>
+      <c r="P134" s="500"/>
+      <c r="Q134" s="500"/>
+      <c r="R134" s="500"/>
+      <c r="S134" s="500"/>
+      <c r="T134" s="554"/>
+      <c r="U134" s="555"/>
+      <c r="V134" s="556"/>
+      <c r="W134" s="493"/>
+      <c r="X134" s="494"/>
+      <c r="Y134" s="539"/>
     </row>
     <row r="135" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="137" t="s">
         <v>140</v>
       </c>
-      <c r="B135" s="572"/>
-      <c r="C135" s="572"/>
-      <c r="D135" s="572"/>
-      <c r="E135" s="572"/>
-      <c r="F135" s="572"/>
-      <c r="G135" s="592"/>
+      <c r="B135" s="569"/>
+      <c r="C135" s="569"/>
+      <c r="D135" s="569"/>
+      <c r="E135" s="569"/>
+      <c r="F135" s="569"/>
+      <c r="G135" s="659"/>
       <c r="H135" s="183" t="s">
         <v>72</v>
       </c>
       <c r="I135" s="184" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J135" s="185" t="s">
         <v>31</v>
@@ -9259,16 +9291,16 @@
       <c r="K135" s="359" t="s">
         <v>51</v>
       </c>
-      <c r="L135" s="567" t="s">
+      <c r="L135" s="502" t="s">
         <v>52</v>
       </c>
-      <c r="M135" s="568"/>
+      <c r="M135" s="504"/>
       <c r="N135" s="68" t="s">
         <v>42</v>
       </c>
       <c r="O135" s="40"/>
-      <c r="P135" s="529"/>
-      <c r="Q135" s="529"/>
+      <c r="P135" s="511"/>
+      <c r="Q135" s="511"/>
       <c r="R135" s="83" t="s">
         <v>43</v>
       </c>
@@ -9278,7 +9310,9 @@
       <c r="T135" s="203"/>
       <c r="U135" s="204"/>
       <c r="V135" s="415"/>
-      <c r="W135" s="68"/>
+      <c r="W135" s="68" t="s">
+        <v>223</v>
+      </c>
       <c r="X135" s="83"/>
       <c r="Y135" s="94"/>
     </row>
@@ -9286,40 +9320,40 @@
       <c r="A136" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="B136" s="573"/>
-      <c r="C136" s="573"/>
-      <c r="D136" s="573"/>
-      <c r="E136" s="573"/>
-      <c r="F136" s="573"/>
-      <c r="G136" s="591" t="s">
+      <c r="B136" s="570"/>
+      <c r="C136" s="570"/>
+      <c r="D136" s="570"/>
+      <c r="E136" s="570"/>
+      <c r="F136" s="570"/>
+      <c r="G136" s="640" t="s">
         <v>35</v>
       </c>
-      <c r="H136" s="552" t="s">
+      <c r="H136" s="571" t="s">
         <v>114</v>
       </c>
-      <c r="I136" s="553"/>
-      <c r="J136" s="554"/>
+      <c r="I136" s="572"/>
+      <c r="J136" s="573"/>
       <c r="K136" s="358"/>
       <c r="L136" s="61"/>
       <c r="M136" s="62"/>
-      <c r="N136" s="496" t="s">
+      <c r="N136" s="493" t="s">
         <v>95</v>
       </c>
-      <c r="O136" s="497"/>
-      <c r="P136" s="498"/>
-      <c r="Q136" s="496" t="s">
+      <c r="O136" s="494"/>
+      <c r="P136" s="495"/>
+      <c r="Q136" s="493" t="s">
         <v>99</v>
       </c>
-      <c r="R136" s="497"/>
-      <c r="S136" s="497"/>
-      <c r="T136" s="540"/>
-      <c r="U136" s="541"/>
-      <c r="V136" s="542"/>
+      <c r="R136" s="494"/>
+      <c r="S136" s="494"/>
+      <c r="T136" s="554"/>
+      <c r="U136" s="555"/>
+      <c r="V136" s="556"/>
       <c r="W136" s="416" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="X136" s="408" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Y136" s="400"/>
     </row>
@@ -9327,17 +9361,17 @@
       <c r="A137" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="B137" s="572"/>
-      <c r="C137" s="572"/>
-      <c r="D137" s="572"/>
-      <c r="E137" s="572"/>
-      <c r="F137" s="572"/>
-      <c r="G137" s="592"/>
+      <c r="B137" s="569"/>
+      <c r="C137" s="569"/>
+      <c r="D137" s="569"/>
+      <c r="E137" s="569"/>
+      <c r="F137" s="569"/>
+      <c r="G137" s="659"/>
       <c r="H137" s="131" t="s">
         <v>111</v>
       </c>
       <c r="I137" s="184" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J137" s="185" t="s">
         <v>31</v>
@@ -9346,7 +9380,7 @@
         <v>126</v>
       </c>
       <c r="L137" s="40" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M137" s="182" t="s">
         <v>63</v>
@@ -9373,10 +9407,10 @@
       <c r="U137" s="204"/>
       <c r="V137" s="415"/>
       <c r="W137" s="417" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="X137" s="231" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Y137" s="197"/>
     </row>
@@ -9389,53 +9423,53 @@
       <c r="D138" s="73"/>
       <c r="E138" s="73"/>
       <c r="F138" s="74"/>
-      <c r="G138" s="591" t="s">
+      <c r="G138" s="640" t="s">
         <v>47</v>
       </c>
-      <c r="H138" s="552" t="s">
+      <c r="H138" s="571" t="s">
         <v>114</v>
       </c>
-      <c r="I138" s="553"/>
-      <c r="J138" s="554"/>
+      <c r="I138" s="572"/>
+      <c r="J138" s="573"/>
       <c r="K138" s="248"/>
       <c r="L138" s="4"/>
       <c r="M138" s="64"/>
-      <c r="N138" s="496" t="s">
+      <c r="N138" s="493" t="s">
         <v>38</v>
       </c>
-      <c r="O138" s="497"/>
-      <c r="P138" s="498"/>
-      <c r="Q138" s="496" t="s">
+      <c r="O138" s="494"/>
+      <c r="P138" s="495"/>
+      <c r="Q138" s="493" t="s">
         <v>99</v>
       </c>
-      <c r="R138" s="497"/>
-      <c r="S138" s="497"/>
-      <c r="T138" s="649"/>
-      <c r="U138" s="550"/>
-      <c r="V138" s="551"/>
+      <c r="R138" s="494"/>
+      <c r="S138" s="494"/>
+      <c r="T138" s="618"/>
+      <c r="U138" s="619"/>
+      <c r="V138" s="620"/>
       <c r="W138" s="418" t="s">
-        <v>182</v>
-      </c>
-      <c r="X138" s="648" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y138" s="495"/>
+        <v>180</v>
+      </c>
+      <c r="X138" s="617" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y138" s="564"/>
     </row>
     <row r="139" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="137" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B139" s="75"/>
       <c r="C139" s="75"/>
       <c r="D139" s="75"/>
       <c r="E139" s="75"/>
       <c r="F139" s="75"/>
-      <c r="G139" s="592"/>
+      <c r="G139" s="659"/>
       <c r="H139" s="131" t="s">
         <v>111</v>
       </c>
       <c r="I139" s="184" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J139" s="185" t="s">
         <v>54</v>
@@ -9462,15 +9496,15 @@
         <v>54</v>
       </c>
       <c r="T139" s="91" t="s">
-        <v>56</v>
+        <v>221</v>
       </c>
       <c r="U139" s="204"/>
       <c r="V139" s="415"/>
-      <c r="W139" s="595" t="s">
-        <v>184</v>
-      </c>
-      <c r="X139" s="529"/>
-      <c r="Y139" s="630"/>
+      <c r="W139" s="512" t="s">
+        <v>182</v>
+      </c>
+      <c r="X139" s="511"/>
+      <c r="Y139" s="616"/>
     </row>
     <row r="140" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="137" t="s">
@@ -9481,33 +9515,33 @@
       <c r="D140" s="73"/>
       <c r="E140" s="73"/>
       <c r="F140" s="74"/>
-      <c r="G140" s="591" t="s">
+      <c r="G140" s="640" t="s">
         <v>59</v>
       </c>
-      <c r="H140" s="584"/>
-      <c r="I140" s="556"/>
-      <c r="J140" s="557"/>
+      <c r="H140" s="635"/>
+      <c r="I140" s="527"/>
+      <c r="J140" s="525"/>
       <c r="K140" s="248"/>
       <c r="L140" s="248"/>
       <c r="M140" s="291"/>
-      <c r="N140" s="512" t="s">
-        <v>185</v>
-      </c>
-      <c r="O140" s="513"/>
-      <c r="P140" s="513"/>
-      <c r="Q140" s="513"/>
-      <c r="R140" s="513"/>
-      <c r="S140" s="513"/>
-      <c r="T140" s="508" t="s">
-        <v>147</v>
-      </c>
-      <c r="U140" s="509"/>
-      <c r="V140" s="510"/>
-      <c r="W140" s="496" t="s">
-        <v>186</v>
-      </c>
-      <c r="X140" s="497"/>
-      <c r="Y140" s="511"/>
+      <c r="N140" s="499" t="s">
+        <v>183</v>
+      </c>
+      <c r="O140" s="500"/>
+      <c r="P140" s="500"/>
+      <c r="Q140" s="500"/>
+      <c r="R140" s="500"/>
+      <c r="S140" s="500"/>
+      <c r="T140" s="604" t="s">
+        <v>146</v>
+      </c>
+      <c r="U140" s="605"/>
+      <c r="V140" s="606"/>
+      <c r="W140" s="493" t="s">
+        <v>184</v>
+      </c>
+      <c r="X140" s="494"/>
+      <c r="Y140" s="539"/>
     </row>
     <row r="141" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="137"/>
@@ -9516,7 +9550,7 @@
       <c r="D141" s="75"/>
       <c r="E141" s="75"/>
       <c r="F141" s="75"/>
-      <c r="G141" s="592"/>
+      <c r="G141" s="659"/>
       <c r="H141" s="68"/>
       <c r="I141" s="40"/>
       <c r="J141" s="89"/>
@@ -9524,11 +9558,11 @@
       <c r="L141" s="81"/>
       <c r="M141" s="89"/>
       <c r="N141" s="81" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O141" s="227"/>
-      <c r="P141" s="564"/>
-      <c r="Q141" s="564"/>
+      <c r="P141" s="518"/>
+      <c r="Q141" s="518"/>
       <c r="R141" s="93" t="s">
         <v>97</v>
       </c>
@@ -9536,7 +9570,7 @@
         <v>31</v>
       </c>
       <c r="T141" s="360" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U141" s="189" t="s">
         <v>81</v>
@@ -9561,12 +9595,12 @@
       <c r="D142" s="73"/>
       <c r="E142" s="73"/>
       <c r="F142" s="74"/>
-      <c r="G142" s="591" t="s">
+      <c r="G142" s="640" t="s">
         <v>69</v>
       </c>
-      <c r="H142" s="558"/>
-      <c r="I142" s="559"/>
-      <c r="J142" s="560"/>
+      <c r="H142" s="670"/>
+      <c r="I142" s="524"/>
+      <c r="J142" s="627"/>
       <c r="K142" s="4"/>
       <c r="L142" s="4"/>
       <c r="M142" s="4"/>
@@ -9576,11 +9610,11 @@
       <c r="Q142" s="50"/>
       <c r="R142" s="51"/>
       <c r="S142" s="51"/>
-      <c r="T142" s="508" t="s">
-        <v>147</v>
-      </c>
-      <c r="U142" s="509"/>
-      <c r="V142" s="510"/>
+      <c r="T142" s="604" t="s">
+        <v>146</v>
+      </c>
+      <c r="U142" s="605"/>
+      <c r="V142" s="606"/>
       <c r="W142" s="50"/>
       <c r="X142" s="51"/>
       <c r="Y142" s="158"/>
@@ -9592,7 +9626,7 @@
       <c r="D143" s="249"/>
       <c r="E143" s="249"/>
       <c r="F143" s="249"/>
-      <c r="G143" s="596"/>
+      <c r="G143" s="641"/>
       <c r="H143" s="217"/>
       <c r="I143" s="119"/>
       <c r="J143" s="421"/>
@@ -9606,7 +9640,7 @@
       <c r="R143" s="382"/>
       <c r="S143" s="382"/>
       <c r="T143" s="360" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U143" s="189" t="s">
         <v>81</v>
@@ -9620,67 +9654,67 @@
     </row>
     <row r="144" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A144" s="120"/>
-      <c r="B144" s="571">
+      <c r="B144" s="568">
         <v>15</v>
       </c>
-      <c r="C144" s="571">
+      <c r="C144" s="568">
         <v>1</v>
       </c>
-      <c r="D144" s="571">
+      <c r="D144" s="568">
         <v>12</v>
       </c>
-      <c r="E144" s="603">
+      <c r="E144" s="650">
         <v>10</v>
       </c>
-      <c r="F144" s="571">
+      <c r="F144" s="568">
         <v>7</v>
       </c>
-      <c r="G144" s="593" t="s">
+      <c r="G144" s="660" t="s">
         <v>22</v>
       </c>
-      <c r="H144" s="456" t="s">
-        <v>204</v>
-      </c>
-      <c r="I144" s="490"/>
-      <c r="J144" s="457"/>
+      <c r="H144" s="455" t="s">
+        <v>202</v>
+      </c>
+      <c r="I144" s="489"/>
+      <c r="J144" s="456"/>
       <c r="K144" s="279"/>
       <c r="L144" s="280"/>
       <c r="M144" s="280"/>
-      <c r="N144" s="546" t="s">
-        <v>188</v>
-      </c>
-      <c r="O144" s="547"/>
-      <c r="P144" s="548"/>
+      <c r="N144" s="514" t="s">
+        <v>186</v>
+      </c>
+      <c r="O144" s="515"/>
+      <c r="P144" s="516"/>
       <c r="Q144" s="125"/>
       <c r="R144" s="123"/>
       <c r="S144" s="123"/>
-      <c r="T144" s="645"/>
-      <c r="U144" s="646"/>
-      <c r="V144" s="647"/>
+      <c r="T144" s="613"/>
+      <c r="U144" s="614"/>
+      <c r="V144" s="615"/>
       <c r="W144" s="125"/>
       <c r="X144" s="123"/>
       <c r="Y144" s="127"/>
     </row>
     <row r="145" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="177"/>
-      <c r="B145" s="572"/>
-      <c r="C145" s="572"/>
-      <c r="D145" s="572"/>
-      <c r="E145" s="604"/>
-      <c r="F145" s="572"/>
-      <c r="G145" s="592"/>
-      <c r="H145" s="458" t="s">
-        <v>205</v>
-      </c>
-      <c r="I145" s="491" t="s">
-        <v>206</v>
-      </c>
-      <c r="J145" s="489"/>
+      <c r="B145" s="569"/>
+      <c r="C145" s="569"/>
+      <c r="D145" s="569"/>
+      <c r="E145" s="651"/>
+      <c r="F145" s="569"/>
+      <c r="G145" s="659"/>
+      <c r="H145" s="457" t="s">
+        <v>203</v>
+      </c>
+      <c r="I145" s="490" t="s">
+        <v>204</v>
+      </c>
+      <c r="J145" s="488"/>
       <c r="K145" s="68"/>
       <c r="L145" s="40"/>
       <c r="M145" s="40"/>
       <c r="N145" s="88" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O145" s="134" t="s">
         <v>97</v>
@@ -9691,7 +9725,9 @@
       <c r="Q145" s="133"/>
       <c r="R145" s="93"/>
       <c r="S145" s="93"/>
-      <c r="T145" s="203"/>
+      <c r="T145" s="203" t="s">
+        <v>222</v>
+      </c>
       <c r="U145" s="212"/>
       <c r="V145" s="213"/>
       <c r="W145" s="133"/>
@@ -9702,61 +9738,61 @@
       <c r="A146" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="B146" s="573"/>
-      <c r="C146" s="573">
+      <c r="B146" s="570"/>
+      <c r="C146" s="570">
         <v>15</v>
       </c>
-      <c r="D146" s="573">
+      <c r="D146" s="570">
         <v>26</v>
       </c>
-      <c r="E146" s="573">
+      <c r="E146" s="570">
         <v>24</v>
       </c>
-      <c r="F146" s="573"/>
-      <c r="G146" s="591" t="s">
+      <c r="F146" s="570"/>
+      <c r="G146" s="640" t="s">
         <v>25</v>
       </c>
-      <c r="H146" s="459" t="s">
-        <v>207</v>
-      </c>
-      <c r="I146" s="492" t="s">
-        <v>208</v>
-      </c>
-      <c r="J146" s="460"/>
-      <c r="N146" s="496" t="s">
-        <v>188</v>
-      </c>
-      <c r="O146" s="497"/>
-      <c r="P146" s="498"/>
+      <c r="H146" s="458" t="s">
+        <v>205</v>
+      </c>
+      <c r="I146" s="491" t="s">
+        <v>206</v>
+      </c>
+      <c r="J146" s="459"/>
+      <c r="N146" s="493" t="s">
+        <v>186</v>
+      </c>
+      <c r="O146" s="494"/>
+      <c r="P146" s="495"/>
       <c r="Q146" s="196"/>
       <c r="R146" s="54"/>
       <c r="S146" s="54"/>
-      <c r="T146" s="574" t="s">
-        <v>190</v>
-      </c>
-      <c r="U146" s="575"/>
-      <c r="V146" s="576"/>
+      <c r="T146" s="592" t="s">
+        <v>188</v>
+      </c>
+      <c r="U146" s="593"/>
+      <c r="V146" s="594"/>
       <c r="W146" s="196"/>
       <c r="X146" s="54"/>
       <c r="Y146" s="400"/>
     </row>
     <row r="147" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="137" t="s">
-        <v>152</v>
-      </c>
-      <c r="B147" s="572"/>
-      <c r="C147" s="572"/>
-      <c r="D147" s="572"/>
-      <c r="E147" s="572"/>
-      <c r="F147" s="572"/>
-      <c r="G147" s="592"/>
-      <c r="H147" s="461" t="s">
-        <v>203</v>
-      </c>
-      <c r="I147" s="462"/>
-      <c r="J147" s="463"/>
+        <v>151</v>
+      </c>
+      <c r="B147" s="569"/>
+      <c r="C147" s="569"/>
+      <c r="D147" s="569"/>
+      <c r="E147" s="569"/>
+      <c r="F147" s="569"/>
+      <c r="G147" s="659"/>
+      <c r="H147" s="460" t="s">
+        <v>201</v>
+      </c>
+      <c r="I147" s="461"/>
+      <c r="J147" s="462"/>
       <c r="N147" s="68" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O147" s="93" t="s">
         <v>97</v>
@@ -9776,69 +9812,69 @@
     </row>
     <row r="148" spans="1:25" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A148" s="137" t="s">
-        <v>153</v>
-      </c>
-      <c r="B148" s="573"/>
-      <c r="C148" s="573">
+        <v>152</v>
+      </c>
+      <c r="B148" s="570"/>
+      <c r="C148" s="570">
         <v>29</v>
       </c>
-      <c r="D148" s="573"/>
-      <c r="E148" s="573"/>
-      <c r="F148" s="573"/>
-      <c r="G148" s="591" t="s">
+      <c r="D148" s="570"/>
+      <c r="E148" s="570"/>
+      <c r="F148" s="570"/>
+      <c r="G148" s="640" t="s">
         <v>35</v>
       </c>
-      <c r="H148" s="464" t="s">
-        <v>209</v>
-      </c>
-      <c r="I148" s="487"/>
+      <c r="H148" s="463" t="s">
+        <v>207</v>
+      </c>
+      <c r="I148" s="486"/>
       <c r="J148" s="55"/>
-      <c r="K148" s="480" t="s">
-        <v>213</v>
-      </c>
-      <c r="L148" s="481"/>
-      <c r="M148" s="481"/>
-      <c r="N148" s="515"/>
-      <c r="O148" s="516"/>
-      <c r="P148" s="516"/>
-      <c r="Q148" s="534"/>
-      <c r="R148" s="504"/>
-      <c r="S148" s="504"/>
-      <c r="T148" s="574"/>
-      <c r="U148" s="575"/>
-      <c r="V148" s="576"/>
-      <c r="W148" s="534"/>
-      <c r="X148" s="504"/>
-      <c r="Y148" s="505"/>
+      <c r="K148" s="479" t="s">
+        <v>211</v>
+      </c>
+      <c r="L148" s="480"/>
+      <c r="M148" s="480"/>
+      <c r="N148" s="586"/>
+      <c r="O148" s="587"/>
+      <c r="P148" s="587"/>
+      <c r="Q148" s="595"/>
+      <c r="R148" s="596"/>
+      <c r="S148" s="596"/>
+      <c r="T148" s="592"/>
+      <c r="U148" s="593"/>
+      <c r="V148" s="594"/>
+      <c r="W148" s="595"/>
+      <c r="X148" s="596"/>
+      <c r="Y148" s="597"/>
     </row>
     <row r="149" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="137" t="s">
-        <v>153</v>
-      </c>
-      <c r="B149" s="572"/>
-      <c r="C149" s="572"/>
-      <c r="D149" s="572"/>
-      <c r="E149" s="572"/>
-      <c r="F149" s="572"/>
-      <c r="G149" s="592"/>
-      <c r="H149" s="465" t="s">
-        <v>210</v>
-      </c>
-      <c r="I149" s="488" t="s">
-        <v>211</v>
+        <v>152</v>
+      </c>
+      <c r="B149" s="569"/>
+      <c r="C149" s="569"/>
+      <c r="D149" s="569"/>
+      <c r="E149" s="569"/>
+      <c r="F149" s="569"/>
+      <c r="G149" s="659"/>
+      <c r="H149" s="464" t="s">
+        <v>208</v>
+      </c>
+      <c r="I149" s="487" t="s">
+        <v>209</v>
       </c>
       <c r="J149" s="64"/>
-      <c r="K149" s="474"/>
-      <c r="L149" s="474"/>
-      <c r="M149" s="474"/>
-      <c r="N149" s="536"/>
-      <c r="O149" s="537"/>
-      <c r="P149" s="537"/>
-      <c r="Q149" s="535"/>
-      <c r="R149" s="506"/>
-      <c r="S149" s="506"/>
+      <c r="K149" s="473"/>
+      <c r="L149" s="473"/>
+      <c r="M149" s="473"/>
+      <c r="N149" s="601"/>
+      <c r="O149" s="602"/>
+      <c r="P149" s="602"/>
+      <c r="Q149" s="598"/>
+      <c r="R149" s="599"/>
+      <c r="S149" s="599"/>
       <c r="T149" s="360" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="U149" s="189" t="s">
         <v>45</v>
@@ -9846,9 +9882,9 @@
       <c r="V149" s="427" t="s">
         <v>54</v>
       </c>
-      <c r="W149" s="535"/>
-      <c r="X149" s="506"/>
-      <c r="Y149" s="507"/>
+      <c r="W149" s="598"/>
+      <c r="X149" s="599"/>
+      <c r="Y149" s="600"/>
     </row>
     <row r="150" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="137" t="s">
@@ -9859,33 +9895,33 @@
       <c r="D150" s="190"/>
       <c r="E150" s="190"/>
       <c r="F150" s="190"/>
-      <c r="G150" s="597" t="s">
+      <c r="G150" s="653" t="s">
         <v>47</v>
       </c>
-      <c r="H150" s="466" t="s">
+      <c r="H150" s="465" t="s">
         <v>31</v>
       </c>
-      <c r="I150" s="467" t="s">
+      <c r="I150" s="466" t="s">
         <v>54</v>
       </c>
-      <c r="J150" s="446"/>
-      <c r="K150" s="474" t="s">
-        <v>216</v>
-      </c>
-      <c r="L150" s="475"/>
-      <c r="M150" s="476"/>
-      <c r="N150" s="515"/>
-      <c r="O150" s="516"/>
-      <c r="P150" s="516"/>
-      <c r="Q150" s="534"/>
-      <c r="R150" s="504"/>
-      <c r="S150" s="504"/>
+      <c r="J150" s="445"/>
+      <c r="K150" s="473" t="s">
+        <v>214</v>
+      </c>
+      <c r="L150" s="474"/>
+      <c r="M150" s="475"/>
+      <c r="N150" s="586"/>
+      <c r="O150" s="587"/>
+      <c r="P150" s="587"/>
+      <c r="Q150" s="595"/>
+      <c r="R150" s="596"/>
+      <c r="S150" s="596"/>
       <c r="T150" s="428"/>
       <c r="U150" s="429"/>
       <c r="V150" s="430"/>
-      <c r="W150" s="534"/>
-      <c r="X150" s="504"/>
-      <c r="Y150" s="505"/>
+      <c r="W150" s="595"/>
+      <c r="X150" s="596"/>
+      <c r="Y150" s="597"/>
     </row>
     <row r="151" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="137" t="s">
@@ -9896,29 +9932,29 @@
       <c r="D151" s="38"/>
       <c r="E151" s="38"/>
       <c r="F151" s="38"/>
-      <c r="G151" s="598"/>
-      <c r="H151" s="679" t="s">
+      <c r="G151" s="654"/>
+      <c r="H151" s="506" t="s">
+        <v>210</v>
+      </c>
+      <c r="I151" s="507"/>
+      <c r="J151" s="444"/>
+      <c r="K151" s="485" t="s">
         <v>212</v>
       </c>
-      <c r="I151" s="680"/>
-      <c r="J151" s="445"/>
-      <c r="K151" s="486" t="s">
-        <v>214</v>
-      </c>
-      <c r="L151" s="474"/>
-      <c r="M151" s="474"/>
-      <c r="N151" s="536"/>
-      <c r="O151" s="537"/>
-      <c r="P151" s="537"/>
-      <c r="Q151" s="535"/>
-      <c r="R151" s="506"/>
-      <c r="S151" s="506"/>
+      <c r="L151" s="473"/>
+      <c r="M151" s="473"/>
+      <c r="N151" s="601"/>
+      <c r="O151" s="602"/>
+      <c r="P151" s="602"/>
+      <c r="Q151" s="598"/>
+      <c r="R151" s="599"/>
+      <c r="S151" s="599"/>
       <c r="T151" s="360"/>
       <c r="U151" s="189"/>
       <c r="V151" s="427"/>
-      <c r="W151" s="535"/>
-      <c r="X151" s="506"/>
-      <c r="Y151" s="507"/>
+      <c r="W151" s="598"/>
+      <c r="X151" s="599"/>
+      <c r="Y151" s="600"/>
     </row>
     <row r="152" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="137" t="s">
@@ -9929,27 +9965,29 @@
       <c r="D152" s="74"/>
       <c r="E152" s="74"/>
       <c r="F152" s="74"/>
-      <c r="G152" s="591" t="s">
+      <c r="G152" s="640" t="s">
         <v>59</v>
       </c>
       <c r="H152" s="56"/>
       <c r="I152" s="57"/>
       <c r="J152" s="57"/>
-      <c r="K152" s="483"/>
-      <c r="L152" s="478"/>
-      <c r="M152" s="477"/>
-      <c r="N152" s="515"/>
-      <c r="O152" s="516"/>
-      <c r="P152" s="516"/>
-      <c r="Q152" s="515"/>
-      <c r="R152" s="516"/>
-      <c r="S152" s="516"/>
-      <c r="T152" s="431"/>
-      <c r="U152" s="391"/>
-      <c r="V152" s="391"/>
-      <c r="W152" s="515"/>
-      <c r="X152" s="516"/>
-      <c r="Y152" s="517"/>
+      <c r="K152" s="482"/>
+      <c r="L152" s="477"/>
+      <c r="M152" s="476"/>
+      <c r="N152" s="586"/>
+      <c r="O152" s="587"/>
+      <c r="P152" s="587"/>
+      <c r="Q152" s="586"/>
+      <c r="R152" s="587"/>
+      <c r="S152" s="587"/>
+      <c r="T152" s="493" t="s">
+        <v>186</v>
+      </c>
+      <c r="U152" s="494"/>
+      <c r="V152" s="495"/>
+      <c r="W152" s="586"/>
+      <c r="X152" s="587"/>
+      <c r="Y152" s="588"/>
     </row>
     <row r="153" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="137"/>
@@ -9958,27 +9996,33 @@
       <c r="D153" s="75"/>
       <c r="E153" s="75"/>
       <c r="F153" s="75"/>
-      <c r="G153" s="592"/>
+      <c r="G153" s="659"/>
       <c r="H153" s="99"/>
       <c r="I153" s="83"/>
-      <c r="J153" s="432"/>
-      <c r="K153" s="482" t="s">
-        <v>215</v>
-      </c>
-      <c r="L153" s="479"/>
-      <c r="M153" s="479"/>
-      <c r="N153" s="536"/>
-      <c r="O153" s="537"/>
-      <c r="P153" s="537"/>
-      <c r="Q153" s="536"/>
-      <c r="R153" s="537"/>
-      <c r="S153" s="537"/>
-      <c r="T153" s="431"/>
-      <c r="U153" s="391"/>
-      <c r="V153" s="391"/>
-      <c r="W153" s="536"/>
-      <c r="X153" s="537"/>
-      <c r="Y153" s="637"/>
+      <c r="J153" s="431"/>
+      <c r="K153" s="481" t="s">
+        <v>213</v>
+      </c>
+      <c r="L153" s="478"/>
+      <c r="M153" s="478"/>
+      <c r="N153" s="601"/>
+      <c r="O153" s="602"/>
+      <c r="P153" s="602"/>
+      <c r="Q153" s="601"/>
+      <c r="R153" s="602"/>
+      <c r="S153" s="602"/>
+      <c r="T153" s="68" t="s">
+        <v>187</v>
+      </c>
+      <c r="U153" s="492" t="s">
+        <v>97</v>
+      </c>
+      <c r="V153" s="132" t="s">
+        <v>54</v>
+      </c>
+      <c r="W153" s="601"/>
+      <c r="X153" s="602"/>
+      <c r="Y153" s="603"/>
     </row>
     <row r="154" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="137"/>
@@ -9987,7 +10031,7 @@
       <c r="D154" s="73"/>
       <c r="E154" s="73"/>
       <c r="F154" s="74"/>
-      <c r="G154" s="591" t="s">
+      <c r="G154" s="640" t="s">
         <v>69</v>
       </c>
       <c r="H154" s="285"/>
@@ -9996,18 +10040,18 @@
       <c r="K154" s="380"/>
       <c r="L154" s="248"/>
       <c r="M154" s="248"/>
-      <c r="N154" s="468"/>
-      <c r="O154" s="469"/>
-      <c r="P154" s="470"/>
-      <c r="Q154" s="515"/>
-      <c r="R154" s="516"/>
-      <c r="S154" s="516"/>
-      <c r="T154" s="433"/>
-      <c r="U154" s="434"/>
-      <c r="V154" s="435"/>
-      <c r="W154" s="515"/>
-      <c r="X154" s="516"/>
-      <c r="Y154" s="517"/>
+      <c r="N154" s="467"/>
+      <c r="O154" s="468"/>
+      <c r="P154" s="469"/>
+      <c r="Q154" s="586"/>
+      <c r="R154" s="587"/>
+      <c r="S154" s="587"/>
+      <c r="T154" s="432"/>
+      <c r="U154" s="433"/>
+      <c r="V154" s="434"/>
+      <c r="W154" s="586"/>
+      <c r="X154" s="587"/>
+      <c r="Y154" s="588"/>
     </row>
     <row r="155" spans="1:25" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="159"/>
@@ -10016,837 +10060,1119 @@
       <c r="D155" s="249"/>
       <c r="E155" s="249"/>
       <c r="F155" s="249"/>
-      <c r="G155" s="596"/>
+      <c r="G155" s="641"/>
       <c r="H155" s="217"/>
       <c r="I155" s="119"/>
       <c r="J155" s="252"/>
       <c r="K155" s="166"/>
       <c r="L155" s="167"/>
       <c r="M155" s="167"/>
-      <c r="N155" s="471"/>
-      <c r="O155" s="472"/>
-      <c r="P155" s="473"/>
-      <c r="Q155" s="538"/>
-      <c r="R155" s="539"/>
-      <c r="S155" s="539"/>
-      <c r="T155" s="436"/>
-      <c r="U155" s="437"/>
-      <c r="V155" s="438"/>
-      <c r="W155" s="538"/>
-      <c r="X155" s="539"/>
-      <c r="Y155" s="636"/>
+      <c r="N155" s="470"/>
+      <c r="O155" s="471"/>
+      <c r="P155" s="472"/>
+      <c r="Q155" s="589"/>
+      <c r="R155" s="590"/>
+      <c r="S155" s="590"/>
+      <c r="T155" s="435"/>
+      <c r="U155" s="436"/>
+      <c r="V155" s="437"/>
+      <c r="W155" s="589"/>
+      <c r="X155" s="590"/>
+      <c r="Y155" s="591"/>
     </row>
     <row r="156" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="439"/>
-      <c r="B156" s="439"/>
-      <c r="C156" s="439"/>
-      <c r="D156" s="439"/>
-      <c r="E156" s="439"/>
-      <c r="F156" s="439"/>
-      <c r="G156" s="439"/>
+      <c r="A156" s="438"/>
+      <c r="B156" s="438"/>
+      <c r="C156" s="438"/>
+      <c r="D156" s="438"/>
+      <c r="E156" s="438"/>
+      <c r="F156" s="438"/>
+      <c r="G156" s="438"/>
       <c r="H156" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I156" s="3"/>
       <c r="J156" s="5"/>
       <c r="K156" s="6"/>
       <c r="L156" s="6"/>
-      <c r="M156" s="440"/>
-      <c r="P156" s="440"/>
-      <c r="S156" s="440"/>
-      <c r="V156" s="440"/>
-      <c r="Y156" s="440"/>
+      <c r="M156" s="439"/>
+      <c r="P156" s="439"/>
+      <c r="S156" s="439"/>
+      <c r="V156" s="439"/>
+      <c r="Y156" s="439"/>
     </row>
     <row r="157" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="439"/>
-      <c r="B157" s="439"/>
-      <c r="C157" s="439"/>
-      <c r="D157" s="439"/>
-      <c r="E157" s="439"/>
-      <c r="F157" s="439"/>
-      <c r="G157" s="439"/>
+      <c r="A157" s="438"/>
+      <c r="B157" s="438"/>
+      <c r="C157" s="438"/>
+      <c r="D157" s="438"/>
+      <c r="E157" s="438"/>
+      <c r="F157" s="438"/>
+      <c r="G157" s="438"/>
       <c r="H157" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I157" s="6"/>
       <c r="J157" s="5"/>
       <c r="K157" s="6"/>
       <c r="L157" s="6"/>
-      <c r="M157" s="441"/>
-      <c r="P157" s="441"/>
-      <c r="S157" s="441"/>
-      <c r="V157" s="441"/>
-      <c r="Y157" s="441"/>
+      <c r="M157" s="440"/>
+      <c r="P157" s="440"/>
+      <c r="S157" s="440"/>
+      <c r="V157" s="440"/>
+      <c r="Y157" s="440"/>
     </row>
     <row r="158" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="439"/>
-      <c r="B158" s="439"/>
-      <c r="C158" s="439"/>
-      <c r="D158" s="439"/>
-      <c r="E158" s="439"/>
-      <c r="F158" s="439"/>
-      <c r="G158" s="439"/>
+      <c r="A158" s="438"/>
+      <c r="B158" s="438"/>
+      <c r="C158" s="438"/>
+      <c r="D158" s="438"/>
+      <c r="E158" s="438"/>
+      <c r="F158" s="438"/>
+      <c r="G158" s="438"/>
       <c r="H158" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I158" s="6"/>
       <c r="J158" s="5"/>
       <c r="K158" s="6"/>
       <c r="L158" s="6"/>
-      <c r="M158" s="441"/>
-      <c r="P158" s="441"/>
-      <c r="S158" s="441"/>
-      <c r="V158" s="441"/>
-      <c r="Y158" s="441"/>
+      <c r="M158" s="440"/>
+      <c r="P158" s="440"/>
+      <c r="S158" s="440"/>
+      <c r="V158" s="440"/>
+      <c r="Y158" s="440"/>
     </row>
     <row r="159" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="439"/>
-      <c r="B159" s="439"/>
-      <c r="C159" s="439"/>
-      <c r="D159" s="439"/>
-      <c r="E159" s="439"/>
-      <c r="F159" s="439"/>
-      <c r="G159" s="439"/>
+      <c r="A159" s="438"/>
+      <c r="B159" s="438"/>
+      <c r="C159" s="438"/>
+      <c r="D159" s="438"/>
+      <c r="E159" s="438"/>
+      <c r="F159" s="438"/>
+      <c r="G159" s="438"/>
       <c r="H159" s="5"/>
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
       <c r="K159" s="3"/>
       <c r="L159" s="3"/>
-      <c r="M159" s="440"/>
-      <c r="P159" s="440"/>
-      <c r="S159" s="440"/>
-      <c r="V159" s="440"/>
-      <c r="Y159" s="440"/>
+      <c r="M159" s="439"/>
+      <c r="P159" s="439"/>
+      <c r="S159" s="439"/>
+      <c r="V159" s="439"/>
+      <c r="Y159" s="439"/>
     </row>
     <row r="160" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="439"/>
-      <c r="B160" s="439"/>
-      <c r="C160" s="439"/>
-      <c r="D160" s="439"/>
-      <c r="E160" s="439"/>
-      <c r="F160" s="439"/>
-      <c r="G160" s="439"/>
+      <c r="A160" s="438"/>
+      <c r="B160" s="438"/>
+      <c r="C160" s="438"/>
+      <c r="D160" s="438"/>
+      <c r="E160" s="438"/>
+      <c r="F160" s="438"/>
+      <c r="G160" s="438"/>
       <c r="H160" s="5"/>
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
-      <c r="M160" s="440"/>
-      <c r="P160" s="440"/>
-      <c r="S160" s="440"/>
-      <c r="V160" s="440"/>
-      <c r="Y160" s="440"/>
+      <c r="M160" s="439"/>
+      <c r="P160" s="439"/>
+      <c r="S160" s="439"/>
+      <c r="V160" s="439"/>
+      <c r="Y160" s="439"/>
     </row>
     <row r="161" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="439"/>
-      <c r="B161" s="439"/>
-      <c r="C161" s="439"/>
-      <c r="D161" s="439"/>
-      <c r="E161" s="439"/>
-      <c r="F161" s="439"/>
-      <c r="G161" s="439"/>
+      <c r="A161" s="438"/>
+      <c r="B161" s="438"/>
+      <c r="C161" s="438"/>
+      <c r="D161" s="438"/>
+      <c r="E161" s="438"/>
+      <c r="F161" s="438"/>
+      <c r="G161" s="438"/>
       <c r="H161" s="5"/>
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
-      <c r="M161" s="440"/>
-      <c r="P161" s="440"/>
-      <c r="S161" s="440"/>
-      <c r="V161" s="440"/>
-      <c r="Y161" s="440"/>
+      <c r="M161" s="439"/>
+      <c r="P161" s="439"/>
+      <c r="S161" s="439"/>
+      <c r="V161" s="439"/>
+      <c r="Y161" s="439"/>
     </row>
     <row r="162" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="439"/>
-      <c r="B162" s="439"/>
-      <c r="C162" s="439"/>
-      <c r="D162" s="439"/>
-      <c r="E162" s="439"/>
-      <c r="F162" s="439"/>
-      <c r="G162" s="439"/>
+      <c r="A162" s="438"/>
+      <c r="B162" s="438"/>
+      <c r="C162" s="438"/>
+      <c r="D162" s="438"/>
+      <c r="E162" s="438"/>
+      <c r="F162" s="438"/>
+      <c r="G162" s="438"/>
       <c r="H162" s="5"/>
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
     </row>
     <row r="163" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="439"/>
-      <c r="B163" s="439"/>
-      <c r="C163" s="439"/>
-      <c r="D163" s="439"/>
-      <c r="E163" s="439"/>
-      <c r="F163" s="439"/>
-      <c r="G163" s="439"/>
+      <c r="A163" s="438"/>
+      <c r="B163" s="438"/>
+      <c r="C163" s="438"/>
+      <c r="D163" s="438"/>
+      <c r="E163" s="438"/>
+      <c r="F163" s="438"/>
+      <c r="G163" s="438"/>
       <c r="H163" s="5"/>
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
     </row>
     <row r="164" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="442"/>
-      <c r="B164" s="442"/>
-      <c r="C164" s="442"/>
-      <c r="D164" s="442"/>
-      <c r="E164" s="442"/>
-      <c r="F164" s="442"/>
-      <c r="G164" s="442"/>
+      <c r="A164" s="441"/>
+      <c r="B164" s="441"/>
+      <c r="C164" s="441"/>
+      <c r="D164" s="441"/>
+      <c r="E164" s="441"/>
+      <c r="F164" s="441"/>
+      <c r="G164" s="441"/>
       <c r="H164" s="5"/>
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
     </row>
     <row r="165" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="442"/>
-      <c r="B165" s="442"/>
-      <c r="C165" s="442"/>
-      <c r="D165" s="442"/>
-      <c r="E165" s="442"/>
-      <c r="F165" s="442"/>
-      <c r="G165" s="442"/>
+      <c r="A165" s="441"/>
+      <c r="B165" s="441"/>
+      <c r="C165" s="441"/>
+      <c r="D165" s="441"/>
+      <c r="E165" s="441"/>
+      <c r="F165" s="441"/>
+      <c r="G165" s="441"/>
       <c r="H165" s="5"/>
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
     </row>
     <row r="166" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="442"/>
-      <c r="B166" s="442"/>
-      <c r="C166" s="442"/>
-      <c r="D166" s="442"/>
-      <c r="E166" s="442"/>
-      <c r="F166" s="442"/>
-      <c r="G166" s="442"/>
+      <c r="A166" s="441"/>
+      <c r="B166" s="441"/>
+      <c r="C166" s="441"/>
+      <c r="D166" s="441"/>
+      <c r="E166" s="441"/>
+      <c r="F166" s="441"/>
+      <c r="G166" s="441"/>
       <c r="H166" s="5"/>
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
     </row>
     <row r="167" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="442"/>
-      <c r="B167" s="442"/>
-      <c r="C167" s="442"/>
-      <c r="D167" s="442"/>
-      <c r="E167" s="442"/>
-      <c r="F167" s="442"/>
-      <c r="G167" s="442"/>
+      <c r="A167" s="441"/>
+      <c r="B167" s="441"/>
+      <c r="C167" s="441"/>
+      <c r="D167" s="441"/>
+      <c r="E167" s="441"/>
+      <c r="F167" s="441"/>
+      <c r="G167" s="441"/>
       <c r="H167" s="5"/>
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
     </row>
     <row r="168" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="442"/>
-      <c r="B168" s="442"/>
-      <c r="C168" s="442"/>
-      <c r="D168" s="442"/>
-      <c r="E168" s="442"/>
-      <c r="F168" s="442"/>
-      <c r="G168" s="442"/>
+      <c r="A168" s="441"/>
+      <c r="B168" s="441"/>
+      <c r="C168" s="441"/>
+      <c r="D168" s="441"/>
+      <c r="E168" s="441"/>
+      <c r="F168" s="441"/>
+      <c r="G168" s="441"/>
       <c r="H168" s="5"/>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
     </row>
     <row r="169" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="442"/>
-      <c r="B169" s="442"/>
-      <c r="C169" s="442"/>
-      <c r="D169" s="442"/>
-      <c r="E169" s="442"/>
-      <c r="F169" s="442"/>
-      <c r="G169" s="442"/>
+      <c r="A169" s="441"/>
+      <c r="B169" s="441"/>
+      <c r="C169" s="441"/>
+      <c r="D169" s="441"/>
+      <c r="E169" s="441"/>
+      <c r="F169" s="441"/>
+      <c r="G169" s="441"/>
       <c r="H169" s="5"/>
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
     </row>
     <row r="170" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="442"/>
-      <c r="B170" s="442"/>
-      <c r="C170" s="442"/>
-      <c r="D170" s="442"/>
-      <c r="E170" s="442"/>
-      <c r="F170" s="442"/>
-      <c r="G170" s="442"/>
+      <c r="A170" s="441"/>
+      <c r="B170" s="441"/>
+      <c r="C170" s="441"/>
+      <c r="D170" s="441"/>
+      <c r="E170" s="441"/>
+      <c r="F170" s="441"/>
+      <c r="G170" s="441"/>
       <c r="H170" s="5"/>
       <c r="I170" s="5"/>
       <c r="J170" s="5"/>
     </row>
     <row r="171" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="442"/>
-      <c r="B171" s="442"/>
-      <c r="C171" s="442"/>
-      <c r="D171" s="442"/>
-      <c r="E171" s="442"/>
-      <c r="F171" s="442"/>
-      <c r="G171" s="442"/>
+      <c r="A171" s="441"/>
+      <c r="B171" s="441"/>
+      <c r="C171" s="441"/>
+      <c r="D171" s="441"/>
+      <c r="E171" s="441"/>
+      <c r="F171" s="441"/>
+      <c r="G171" s="441"/>
       <c r="H171" s="5"/>
       <c r="I171" s="5"/>
       <c r="J171" s="5"/>
     </row>
     <row r="172" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="442"/>
-      <c r="B172" s="442"/>
-      <c r="C172" s="442"/>
-      <c r="D172" s="442"/>
-      <c r="E172" s="442"/>
-      <c r="F172" s="442"/>
-      <c r="G172" s="442"/>
+      <c r="A172" s="441"/>
+      <c r="B172" s="441"/>
+      <c r="C172" s="441"/>
+      <c r="D172" s="441"/>
+      <c r="E172" s="441"/>
+      <c r="F172" s="441"/>
+      <c r="G172" s="441"/>
       <c r="H172" s="5"/>
       <c r="I172" s="5"/>
       <c r="J172" s="5"/>
     </row>
     <row r="173" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="443"/>
-      <c r="B173" s="443"/>
-      <c r="C173" s="443"/>
-      <c r="D173" s="443"/>
-      <c r="E173" s="443"/>
-      <c r="F173" s="443"/>
-      <c r="G173" s="443"/>
+      <c r="A173" s="442"/>
+      <c r="B173" s="442"/>
+      <c r="C173" s="442"/>
+      <c r="D173" s="442"/>
+      <c r="E173" s="442"/>
+      <c r="F173" s="442"/>
+      <c r="G173" s="442"/>
       <c r="H173" s="4"/>
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
     </row>
     <row r="174" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="443"/>
-      <c r="B174" s="443"/>
-      <c r="C174" s="443"/>
-      <c r="D174" s="443"/>
-      <c r="E174" s="443"/>
-      <c r="F174" s="443"/>
-      <c r="G174" s="443"/>
+      <c r="A174" s="442"/>
+      <c r="B174" s="442"/>
+      <c r="C174" s="442"/>
+      <c r="D174" s="442"/>
+      <c r="E174" s="442"/>
+      <c r="F174" s="442"/>
+      <c r="G174" s="442"/>
       <c r="H174" s="4"/>
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
     </row>
     <row r="175" spans="1:25" ht="10.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="443"/>
-      <c r="B175" s="443"/>
-      <c r="C175" s="443"/>
-      <c r="D175" s="443"/>
-      <c r="E175" s="443"/>
-      <c r="F175" s="443"/>
-      <c r="G175" s="443"/>
+      <c r="A175" s="442"/>
+      <c r="B175" s="442"/>
+      <c r="C175" s="442"/>
+      <c r="D175" s="442"/>
+      <c r="E175" s="442"/>
+      <c r="F175" s="442"/>
+      <c r="G175" s="442"/>
       <c r="H175" s="4"/>
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
     </row>
     <row r="176" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A176" s="443"/>
-      <c r="B176" s="443"/>
-      <c r="C176" s="443"/>
-      <c r="D176" s="443"/>
-      <c r="E176" s="443"/>
-      <c r="F176" s="443"/>
-      <c r="G176" s="443"/>
+      <c r="A176" s="442"/>
+      <c r="B176" s="442"/>
+      <c r="C176" s="442"/>
+      <c r="D176" s="442"/>
+      <c r="E176" s="442"/>
+      <c r="F176" s="442"/>
+      <c r="G176" s="442"/>
       <c r="H176" s="4"/>
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A177" s="443"/>
-      <c r="B177" s="443"/>
-      <c r="C177" s="443"/>
-      <c r="D177" s="443"/>
-      <c r="E177" s="443"/>
-      <c r="F177" s="443"/>
-      <c r="G177" s="443"/>
+      <c r="A177" s="442"/>
+      <c r="B177" s="442"/>
+      <c r="C177" s="442"/>
+      <c r="D177" s="442"/>
+      <c r="E177" s="442"/>
+      <c r="F177" s="442"/>
+      <c r="G177" s="442"/>
       <c r="H177" s="4"/>
       <c r="I177" s="4"/>
       <c r="J177" s="4"/>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A178" s="443"/>
-      <c r="B178" s="443"/>
-      <c r="C178" s="443"/>
-      <c r="D178" s="443"/>
-      <c r="E178" s="443"/>
-      <c r="F178" s="443"/>
-      <c r="G178" s="443"/>
+      <c r="A178" s="442"/>
+      <c r="B178" s="442"/>
+      <c r="C178" s="442"/>
+      <c r="D178" s="442"/>
+      <c r="E178" s="442"/>
+      <c r="F178" s="442"/>
+      <c r="G178" s="442"/>
       <c r="H178" s="4"/>
       <c r="I178" s="4"/>
       <c r="J178" s="4"/>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A179" s="443"/>
-      <c r="B179" s="443"/>
-      <c r="C179" s="443"/>
-      <c r="D179" s="443"/>
-      <c r="E179" s="443"/>
-      <c r="F179" s="443"/>
-      <c r="G179" s="443"/>
+      <c r="A179" s="442"/>
+      <c r="B179" s="442"/>
+      <c r="C179" s="442"/>
+      <c r="D179" s="442"/>
+      <c r="E179" s="442"/>
+      <c r="F179" s="442"/>
+      <c r="G179" s="442"/>
       <c r="H179" s="4"/>
       <c r="I179" s="4"/>
       <c r="J179" s="4"/>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A180" s="443"/>
-      <c r="B180" s="443"/>
-      <c r="C180" s="443"/>
-      <c r="D180" s="443"/>
-      <c r="E180" s="443"/>
-      <c r="F180" s="443"/>
-      <c r="G180" s="443"/>
+      <c r="A180" s="442"/>
+      <c r="B180" s="442"/>
+      <c r="C180" s="442"/>
+      <c r="D180" s="442"/>
+      <c r="E180" s="442"/>
+      <c r="F180" s="442"/>
+      <c r="G180" s="442"/>
       <c r="H180" s="4"/>
       <c r="I180" s="4"/>
       <c r="J180" s="4"/>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A181" s="443"/>
-      <c r="B181" s="443"/>
-      <c r="C181" s="443"/>
-      <c r="D181" s="443"/>
-      <c r="E181" s="443"/>
-      <c r="F181" s="443"/>
-      <c r="G181" s="443"/>
+      <c r="A181" s="442"/>
+      <c r="B181" s="442"/>
+      <c r="C181" s="442"/>
+      <c r="D181" s="442"/>
+      <c r="E181" s="442"/>
+      <c r="F181" s="442"/>
+      <c r="G181" s="442"/>
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
       <c r="J181" s="4"/>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A182" s="443"/>
-      <c r="B182" s="443"/>
-      <c r="C182" s="443"/>
-      <c r="D182" s="443"/>
-      <c r="E182" s="443"/>
-      <c r="F182" s="443"/>
-      <c r="G182" s="443"/>
+      <c r="A182" s="442"/>
+      <c r="B182" s="442"/>
+      <c r="C182" s="442"/>
+      <c r="D182" s="442"/>
+      <c r="E182" s="442"/>
+      <c r="F182" s="442"/>
+      <c r="G182" s="442"/>
       <c r="H182" s="4"/>
       <c r="I182" s="4"/>
       <c r="J182" s="4"/>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A183" s="443"/>
-      <c r="B183" s="443"/>
-      <c r="C183" s="443"/>
-      <c r="D183" s="443"/>
-      <c r="E183" s="443"/>
-      <c r="F183" s="443"/>
-      <c r="G183" s="443"/>
+      <c r="A183" s="442"/>
+      <c r="B183" s="442"/>
+      <c r="C183" s="442"/>
+      <c r="D183" s="442"/>
+      <c r="E183" s="442"/>
+      <c r="F183" s="442"/>
+      <c r="G183" s="442"/>
       <c r="H183" s="4"/>
       <c r="I183" s="4"/>
       <c r="J183" s="4"/>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A184" s="443"/>
-      <c r="B184" s="443"/>
-      <c r="C184" s="443"/>
-      <c r="D184" s="443"/>
-      <c r="E184" s="443"/>
-      <c r="F184" s="443"/>
-      <c r="G184" s="443"/>
+      <c r="A184" s="442"/>
+      <c r="B184" s="442"/>
+      <c r="C184" s="442"/>
+      <c r="D184" s="442"/>
+      <c r="E184" s="442"/>
+      <c r="F184" s="442"/>
+      <c r="G184" s="442"/>
       <c r="H184" s="4"/>
       <c r="I184" s="4"/>
       <c r="J184" s="4"/>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A185" s="443"/>
-      <c r="B185" s="443"/>
-      <c r="C185" s="443"/>
-      <c r="D185" s="443"/>
-      <c r="E185" s="443"/>
-      <c r="F185" s="443"/>
-      <c r="G185" s="443"/>
+      <c r="A185" s="442"/>
+      <c r="B185" s="442"/>
+      <c r="C185" s="442"/>
+      <c r="D185" s="442"/>
+      <c r="E185" s="442"/>
+      <c r="F185" s="442"/>
+      <c r="G185" s="442"/>
       <c r="H185" s="4"/>
       <c r="I185" s="4"/>
       <c r="J185" s="4"/>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A186" s="443"/>
-      <c r="B186" s="443"/>
-      <c r="C186" s="443"/>
-      <c r="D186" s="443"/>
-      <c r="E186" s="443"/>
-      <c r="F186" s="443"/>
-      <c r="G186" s="443"/>
+      <c r="A186" s="442"/>
+      <c r="B186" s="442"/>
+      <c r="C186" s="442"/>
+      <c r="D186" s="442"/>
+      <c r="E186" s="442"/>
+      <c r="F186" s="442"/>
+      <c r="G186" s="442"/>
       <c r="H186" s="4"/>
       <c r="I186" s="4"/>
       <c r="J186" s="4"/>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A187" s="443"/>
-      <c r="B187" s="443"/>
-      <c r="C187" s="443"/>
-      <c r="D187" s="443"/>
-      <c r="E187" s="443"/>
-      <c r="F187" s="443"/>
-      <c r="G187" s="443"/>
+      <c r="A187" s="442"/>
+      <c r="B187" s="442"/>
+      <c r="C187" s="442"/>
+      <c r="D187" s="442"/>
+      <c r="E187" s="442"/>
+      <c r="F187" s="442"/>
+      <c r="G187" s="442"/>
       <c r="H187" s="4"/>
       <c r="I187" s="4"/>
       <c r="J187" s="4"/>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A188" s="443"/>
-      <c r="B188" s="443"/>
-      <c r="C188" s="443"/>
-      <c r="D188" s="443"/>
-      <c r="E188" s="443"/>
-      <c r="F188" s="443"/>
-      <c r="G188" s="443"/>
+      <c r="A188" s="442"/>
+      <c r="B188" s="442"/>
+      <c r="C188" s="442"/>
+      <c r="D188" s="442"/>
+      <c r="E188" s="442"/>
+      <c r="F188" s="442"/>
+      <c r="G188" s="442"/>
       <c r="H188" s="4"/>
       <c r="I188" s="4"/>
       <c r="J188" s="4"/>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A189" s="443"/>
-      <c r="B189" s="443"/>
-      <c r="C189" s="443"/>
-      <c r="D189" s="443"/>
-      <c r="E189" s="443"/>
-      <c r="F189" s="443"/>
-      <c r="G189" s="443"/>
+      <c r="A189" s="442"/>
+      <c r="B189" s="442"/>
+      <c r="C189" s="442"/>
+      <c r="D189" s="442"/>
+      <c r="E189" s="442"/>
+      <c r="F189" s="442"/>
+      <c r="G189" s="442"/>
       <c r="H189" s="4"/>
       <c r="I189" s="4"/>
       <c r="J189" s="4"/>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A190" s="443"/>
-      <c r="B190" s="443"/>
-      <c r="C190" s="443"/>
-      <c r="D190" s="443"/>
-      <c r="E190" s="443"/>
-      <c r="F190" s="443"/>
-      <c r="G190" s="443"/>
+      <c r="A190" s="442"/>
+      <c r="B190" s="442"/>
+      <c r="C190" s="442"/>
+      <c r="D190" s="442"/>
+      <c r="E190" s="442"/>
+      <c r="F190" s="442"/>
+      <c r="G190" s="442"/>
       <c r="H190" s="4"/>
       <c r="I190" s="4"/>
       <c r="J190" s="4"/>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A191" s="443"/>
-      <c r="B191" s="443"/>
-      <c r="C191" s="443"/>
-      <c r="D191" s="443"/>
-      <c r="E191" s="443"/>
-      <c r="F191" s="443"/>
-      <c r="G191" s="443"/>
+      <c r="A191" s="442"/>
+      <c r="B191" s="442"/>
+      <c r="C191" s="442"/>
+      <c r="D191" s="442"/>
+      <c r="E191" s="442"/>
+      <c r="F191" s="442"/>
+      <c r="G191" s="442"/>
       <c r="H191" s="4"/>
       <c r="I191" s="4"/>
       <c r="J191" s="4"/>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A192" s="443"/>
-      <c r="B192" s="443"/>
-      <c r="C192" s="443"/>
-      <c r="D192" s="443"/>
-      <c r="E192" s="443"/>
-      <c r="F192" s="443"/>
-      <c r="G192" s="443"/>
+      <c r="A192" s="442"/>
+      <c r="B192" s="442"/>
+      <c r="C192" s="442"/>
+      <c r="D192" s="442"/>
+      <c r="E192" s="442"/>
+      <c r="F192" s="442"/>
+      <c r="G192" s="442"/>
       <c r="H192" s="4"/>
       <c r="I192" s="4"/>
       <c r="J192" s="4"/>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A193" s="443"/>
-      <c r="B193" s="443"/>
-      <c r="C193" s="443"/>
-      <c r="D193" s="443"/>
-      <c r="E193" s="443"/>
-      <c r="F193" s="443"/>
-      <c r="G193" s="443"/>
+      <c r="A193" s="442"/>
+      <c r="B193" s="442"/>
+      <c r="C193" s="442"/>
+      <c r="D193" s="442"/>
+      <c r="E193" s="442"/>
+      <c r="F193" s="442"/>
+      <c r="G193" s="442"/>
       <c r="H193" s="4"/>
       <c r="I193" s="4"/>
       <c r="J193" s="4"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A194" s="443"/>
-      <c r="B194" s="443"/>
-      <c r="C194" s="443"/>
-      <c r="D194" s="443"/>
-      <c r="E194" s="443"/>
-      <c r="F194" s="443"/>
-      <c r="G194" s="443"/>
+      <c r="A194" s="442"/>
+      <c r="B194" s="442"/>
+      <c r="C194" s="442"/>
+      <c r="D194" s="442"/>
+      <c r="E194" s="442"/>
+      <c r="F194" s="442"/>
+      <c r="G194" s="442"/>
       <c r="H194" s="4"/>
       <c r="I194" s="4"/>
       <c r="J194" s="4"/>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A195" s="443"/>
-      <c r="B195" s="443"/>
-      <c r="C195" s="443"/>
-      <c r="D195" s="443"/>
-      <c r="E195" s="443"/>
-      <c r="F195" s="443"/>
-      <c r="G195" s="443"/>
+      <c r="A195" s="442"/>
+      <c r="B195" s="442"/>
+      <c r="C195" s="442"/>
+      <c r="D195" s="442"/>
+      <c r="E195" s="442"/>
+      <c r="F195" s="442"/>
+      <c r="G195" s="442"/>
       <c r="H195" s="4"/>
       <c r="I195" s="4"/>
       <c r="J195" s="4"/>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A196" s="443"/>
-      <c r="B196" s="443"/>
-      <c r="C196" s="443"/>
-      <c r="D196" s="443"/>
-      <c r="E196" s="443"/>
-      <c r="F196" s="443"/>
-      <c r="G196" s="443"/>
+      <c r="A196" s="442"/>
+      <c r="B196" s="442"/>
+      <c r="C196" s="442"/>
+      <c r="D196" s="442"/>
+      <c r="E196" s="442"/>
+      <c r="F196" s="442"/>
+      <c r="G196" s="442"/>
       <c r="H196" s="4"/>
       <c r="I196" s="4"/>
       <c r="J196" s="4"/>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A197" s="443"/>
-      <c r="B197" s="443"/>
-      <c r="C197" s="443"/>
-      <c r="D197" s="443"/>
-      <c r="E197" s="443"/>
-      <c r="F197" s="443"/>
-      <c r="G197" s="443"/>
+      <c r="A197" s="442"/>
+      <c r="B197" s="442"/>
+      <c r="C197" s="442"/>
+      <c r="D197" s="442"/>
+      <c r="E197" s="442"/>
+      <c r="F197" s="442"/>
+      <c r="G197" s="442"/>
       <c r="H197" s="4"/>
       <c r="I197" s="4"/>
       <c r="J197" s="4"/>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A198" s="443"/>
-      <c r="B198" s="443"/>
-      <c r="C198" s="443"/>
-      <c r="D198" s="443"/>
-      <c r="E198" s="443"/>
-      <c r="F198" s="443"/>
-      <c r="G198" s="443"/>
+      <c r="A198" s="442"/>
+      <c r="B198" s="442"/>
+      <c r="C198" s="442"/>
+      <c r="D198" s="442"/>
+      <c r="E198" s="442"/>
+      <c r="F198" s="442"/>
+      <c r="G198" s="442"/>
       <c r="H198" s="4"/>
       <c r="I198" s="4"/>
       <c r="J198" s="4"/>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A199" s="443"/>
-      <c r="B199" s="443"/>
-      <c r="C199" s="443"/>
-      <c r="D199" s="443"/>
-      <c r="E199" s="443"/>
-      <c r="F199" s="443"/>
-      <c r="G199" s="443"/>
+      <c r="A199" s="442"/>
+      <c r="B199" s="442"/>
+      <c r="C199" s="442"/>
+      <c r="D199" s="442"/>
+      <c r="E199" s="442"/>
+      <c r="F199" s="442"/>
+      <c r="G199" s="442"/>
       <c r="H199" s="4"/>
       <c r="I199" s="4"/>
       <c r="J199" s="4"/>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A200" s="443"/>
-      <c r="B200" s="443"/>
-      <c r="C200" s="443"/>
-      <c r="D200" s="443"/>
-      <c r="E200" s="443"/>
-      <c r="F200" s="443"/>
-      <c r="G200" s="443"/>
+      <c r="A200" s="442"/>
+      <c r="B200" s="442"/>
+      <c r="C200" s="442"/>
+      <c r="D200" s="442"/>
+      <c r="E200" s="442"/>
+      <c r="F200" s="442"/>
+      <c r="G200" s="442"/>
       <c r="H200" s="4"/>
       <c r="I200" s="4"/>
       <c r="J200" s="4"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A201" s="443"/>
-      <c r="B201" s="443"/>
-      <c r="C201" s="443"/>
-      <c r="D201" s="443"/>
-      <c r="E201" s="443"/>
-      <c r="F201" s="443"/>
-      <c r="G201" s="443"/>
+      <c r="A201" s="442"/>
+      <c r="B201" s="442"/>
+      <c r="C201" s="442"/>
+      <c r="D201" s="442"/>
+      <c r="E201" s="442"/>
+      <c r="F201" s="442"/>
+      <c r="G201" s="442"/>
       <c r="H201" s="4"/>
       <c r="I201" s="4"/>
       <c r="J201" s="4"/>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A202" s="443"/>
-      <c r="B202" s="443"/>
-      <c r="C202" s="443"/>
-      <c r="D202" s="443"/>
-      <c r="E202" s="443"/>
-      <c r="F202" s="443"/>
-      <c r="G202" s="443"/>
+      <c r="A202" s="442"/>
+      <c r="B202" s="442"/>
+      <c r="C202" s="442"/>
+      <c r="D202" s="442"/>
+      <c r="E202" s="442"/>
+      <c r="F202" s="442"/>
+      <c r="G202" s="442"/>
       <c r="H202" s="4"/>
       <c r="I202" s="4"/>
       <c r="J202" s="4"/>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A203" s="443"/>
-      <c r="B203" s="443"/>
-      <c r="C203" s="443"/>
-      <c r="D203" s="443"/>
-      <c r="E203" s="443"/>
-      <c r="F203" s="443"/>
-      <c r="G203" s="443"/>
+      <c r="A203" s="442"/>
+      <c r="B203" s="442"/>
+      <c r="C203" s="442"/>
+      <c r="D203" s="442"/>
+      <c r="E203" s="442"/>
+      <c r="F203" s="442"/>
+      <c r="G203" s="442"/>
       <c r="H203" s="4"/>
       <c r="I203" s="4"/>
       <c r="J203" s="4"/>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A204" s="443"/>
-      <c r="B204" s="443"/>
-      <c r="C204" s="443"/>
-      <c r="D204" s="443"/>
-      <c r="E204" s="443"/>
-      <c r="F204" s="443"/>
-      <c r="G204" s="443"/>
+      <c r="A204" s="442"/>
+      <c r="B204" s="442"/>
+      <c r="C204" s="442"/>
+      <c r="D204" s="442"/>
+      <c r="E204" s="442"/>
+      <c r="F204" s="442"/>
+      <c r="G204" s="442"/>
       <c r="H204" s="4"/>
       <c r="I204" s="4"/>
       <c r="J204" s="4"/>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A205" s="443"/>
-      <c r="B205" s="443"/>
-      <c r="C205" s="443"/>
-      <c r="D205" s="443"/>
-      <c r="E205" s="443"/>
-      <c r="F205" s="443"/>
-      <c r="G205" s="443"/>
+      <c r="A205" s="442"/>
+      <c r="B205" s="442"/>
+      <c r="C205" s="442"/>
+      <c r="D205" s="442"/>
+      <c r="E205" s="442"/>
+      <c r="F205" s="442"/>
+      <c r="G205" s="442"/>
       <c r="H205" s="4"/>
       <c r="I205" s="4"/>
       <c r="J205" s="4"/>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A206" s="443"/>
-      <c r="B206" s="443"/>
-      <c r="C206" s="443"/>
-      <c r="D206" s="443"/>
-      <c r="E206" s="443"/>
-      <c r="F206" s="443"/>
-      <c r="G206" s="443"/>
+      <c r="A206" s="442"/>
+      <c r="B206" s="442"/>
+      <c r="C206" s="442"/>
+      <c r="D206" s="442"/>
+      <c r="E206" s="442"/>
+      <c r="F206" s="442"/>
+      <c r="G206" s="442"/>
       <c r="H206" s="4"/>
       <c r="I206" s="4"/>
       <c r="J206" s="4"/>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A207" s="443"/>
-      <c r="B207" s="443"/>
-      <c r="C207" s="443"/>
-      <c r="D207" s="443"/>
-      <c r="E207" s="443"/>
-      <c r="F207" s="443"/>
-      <c r="G207" s="443"/>
+      <c r="A207" s="442"/>
+      <c r="B207" s="442"/>
+      <c r="C207" s="442"/>
+      <c r="D207" s="442"/>
+      <c r="E207" s="442"/>
+      <c r="F207" s="442"/>
+      <c r="G207" s="442"/>
       <c r="H207" s="4"/>
       <c r="I207" s="4"/>
       <c r="J207" s="4"/>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A208" s="443"/>
-      <c r="B208" s="443"/>
-      <c r="C208" s="443"/>
-      <c r="D208" s="443"/>
-      <c r="E208" s="443"/>
-      <c r="F208" s="443"/>
-      <c r="G208" s="443"/>
+      <c r="A208" s="442"/>
+      <c r="B208" s="442"/>
+      <c r="C208" s="442"/>
+      <c r="D208" s="442"/>
+      <c r="E208" s="442"/>
+      <c r="F208" s="442"/>
+      <c r="G208" s="442"/>
       <c r="H208" s="4"/>
       <c r="I208" s="4"/>
       <c r="J208" s="4"/>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A209" s="443"/>
-      <c r="B209" s="443"/>
-      <c r="C209" s="443"/>
-      <c r="D209" s="443"/>
-      <c r="E209" s="443"/>
-      <c r="F209" s="443"/>
-      <c r="G209" s="443"/>
+      <c r="A209" s="442"/>
+      <c r="B209" s="442"/>
+      <c r="C209" s="442"/>
+      <c r="D209" s="442"/>
+      <c r="E209" s="442"/>
+      <c r="F209" s="442"/>
+      <c r="G209" s="442"/>
       <c r="H209" s="4"/>
       <c r="I209" s="4"/>
       <c r="J209" s="4"/>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A210" s="443"/>
-      <c r="B210" s="443"/>
-      <c r="C210" s="443"/>
-      <c r="D210" s="443"/>
-      <c r="E210" s="443"/>
-      <c r="F210" s="443"/>
-      <c r="G210" s="443"/>
+      <c r="A210" s="442"/>
+      <c r="B210" s="442"/>
+      <c r="C210" s="442"/>
+      <c r="D210" s="442"/>
+      <c r="E210" s="442"/>
+      <c r="F210" s="442"/>
+      <c r="G210" s="442"/>
       <c r="H210" s="4"/>
       <c r="I210" s="4"/>
       <c r="J210" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
-    <mergeCell ref="H49:J49"/>
+  <mergeCells count="523">
+    <mergeCell ref="N63:S63"/>
+    <mergeCell ref="N67:P67"/>
+    <mergeCell ref="U112:V112"/>
+    <mergeCell ref="W116:Y117"/>
+    <mergeCell ref="U114:V114"/>
+    <mergeCell ref="T116:V116"/>
+    <mergeCell ref="W71:Y71"/>
+    <mergeCell ref="W73:Y73"/>
+    <mergeCell ref="W65:Y65"/>
+    <mergeCell ref="W98:Y98"/>
+    <mergeCell ref="W100:Y100"/>
+    <mergeCell ref="W92:Y92"/>
+    <mergeCell ref="T73:V73"/>
+    <mergeCell ref="T75:V75"/>
+    <mergeCell ref="W88:Y88"/>
+    <mergeCell ref="W89:Y90"/>
+    <mergeCell ref="X111:Y111"/>
+    <mergeCell ref="N104:P104"/>
+    <mergeCell ref="Q90:S90"/>
+    <mergeCell ref="T67:V67"/>
+    <mergeCell ref="Q92:S92"/>
+    <mergeCell ref="N69:S69"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="K112:M112"/>
+    <mergeCell ref="T65:V65"/>
+    <mergeCell ref="U66:V66"/>
+    <mergeCell ref="N114:P114"/>
+    <mergeCell ref="N106:P106"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="K100:M100"/>
+    <mergeCell ref="Q113:S113"/>
+    <mergeCell ref="U110:V110"/>
+    <mergeCell ref="Q100:S100"/>
+    <mergeCell ref="Q106:S106"/>
+    <mergeCell ref="T92:V92"/>
+    <mergeCell ref="Q86:S86"/>
+    <mergeCell ref="Q88:S88"/>
+    <mergeCell ref="Q94:S94"/>
+    <mergeCell ref="T104:V104"/>
+    <mergeCell ref="T93:V93"/>
+    <mergeCell ref="N102:S102"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="Q114:S114"/>
+    <mergeCell ref="N109:P109"/>
+    <mergeCell ref="N110:P110"/>
+    <mergeCell ref="N94:P94"/>
+    <mergeCell ref="T134:V134"/>
+    <mergeCell ref="T126:V126"/>
+    <mergeCell ref="T130:V130"/>
+    <mergeCell ref="T128:V128"/>
+    <mergeCell ref="N140:S140"/>
+    <mergeCell ref="N144:P144"/>
+    <mergeCell ref="N134:S134"/>
+    <mergeCell ref="P135:Q135"/>
+    <mergeCell ref="N136:P136"/>
+    <mergeCell ref="N138:P138"/>
+    <mergeCell ref="Q138:S138"/>
+    <mergeCell ref="K98:M98"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="H140:J140"/>
+    <mergeCell ref="H138:J138"/>
+    <mergeCell ref="K105:M105"/>
+    <mergeCell ref="Q148:S149"/>
+    <mergeCell ref="Q150:S151"/>
+    <mergeCell ref="Q152:S153"/>
+    <mergeCell ref="Q154:S155"/>
+    <mergeCell ref="N152:P153"/>
+    <mergeCell ref="N146:P146"/>
     <mergeCell ref="N148:P149"/>
     <mergeCell ref="N150:P151"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="N116:P116"/>
-    <mergeCell ref="K116:M116"/>
-    <mergeCell ref="N111:P111"/>
-    <mergeCell ref="K108:M108"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K132:M132"/>
-    <mergeCell ref="K115:M115"/>
-    <mergeCell ref="K102:M102"/>
-    <mergeCell ref="H140:J140"/>
-    <mergeCell ref="H138:J138"/>
-    <mergeCell ref="H151:I151"/>
-    <mergeCell ref="Q114:S114"/>
-    <mergeCell ref="K65:M65"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="K90:M90"/>
-    <mergeCell ref="K92:M92"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="K64:M64"/>
-    <mergeCell ref="K66:M66"/>
-    <mergeCell ref="Q67:S67"/>
-    <mergeCell ref="Q65:S65"/>
-    <mergeCell ref="K67:M67"/>
-    <mergeCell ref="K110:M110"/>
-    <mergeCell ref="L114:M114"/>
-    <mergeCell ref="L104:M104"/>
-    <mergeCell ref="K105:M105"/>
-    <mergeCell ref="W51:Y51"/>
-    <mergeCell ref="W53:Y53"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="W39:Y39"/>
-    <mergeCell ref="U62:V62"/>
-    <mergeCell ref="T57:V57"/>
-    <mergeCell ref="T55:V55"/>
-    <mergeCell ref="T61:V61"/>
-    <mergeCell ref="W16:Y17"/>
-    <mergeCell ref="T37:V37"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="W25:Y25"/>
-    <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="W37:Y37"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="T31:V31"/>
-    <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="T33:V33"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="W31:Y31"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="W41:Y41"/>
-    <mergeCell ref="W44:Y45"/>
-    <mergeCell ref="T59:V59"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N61:S61"/>
-    <mergeCell ref="Q53:S53"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N35:S35"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="N57:P57"/>
-    <mergeCell ref="N55:P55"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="Q51:S51"/>
-    <mergeCell ref="K55:M55"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="Q92:S92"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="N69:S69"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="K106:M106"/>
+    <mergeCell ref="H122:J122"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="H136:J136"/>
+    <mergeCell ref="Q116:S117"/>
+    <mergeCell ref="H134:J134"/>
+    <mergeCell ref="H142:J142"/>
+    <mergeCell ref="Q136:S136"/>
+    <mergeCell ref="H120:J120"/>
+    <mergeCell ref="P141:Q141"/>
+    <mergeCell ref="H130:J130"/>
+    <mergeCell ref="I131:J131"/>
+    <mergeCell ref="K134:M134"/>
+    <mergeCell ref="H128:J128"/>
+    <mergeCell ref="I129:J129"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="F144:F145"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="T77:V77"/>
+    <mergeCell ref="T120:V120"/>
+    <mergeCell ref="T118:V118"/>
+    <mergeCell ref="T102:V102"/>
+    <mergeCell ref="K94:M94"/>
+    <mergeCell ref="N100:P100"/>
+    <mergeCell ref="G124:G125"/>
+    <mergeCell ref="G126:G127"/>
+    <mergeCell ref="G116:G117"/>
+    <mergeCell ref="T106:V106"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="G112:G113"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="G140:G141"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="T122:V122"/>
+    <mergeCell ref="T124:V124"/>
+    <mergeCell ref="H126:J126"/>
+    <mergeCell ref="K118:M118"/>
+    <mergeCell ref="K120:M120"/>
+    <mergeCell ref="K122:M122"/>
+    <mergeCell ref="K124:M124"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="Q124:S124"/>
+    <mergeCell ref="N120:P120"/>
+    <mergeCell ref="Q126:S126"/>
+    <mergeCell ref="Q104:S104"/>
+    <mergeCell ref="Q115:S115"/>
+    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="H112:J112"/>
+    <mergeCell ref="G152:G153"/>
+    <mergeCell ref="G154:G155"/>
+    <mergeCell ref="G142:G143"/>
+    <mergeCell ref="G144:G145"/>
+    <mergeCell ref="G146:G147"/>
+    <mergeCell ref="G148:G149"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="G94:G95"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="G138:G139"/>
+    <mergeCell ref="G128:G129"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="G122:G123"/>
+    <mergeCell ref="G134:G135"/>
+    <mergeCell ref="G136:G137"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="G150:G151"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="F148:F149"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="F146:F147"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="B146:B147"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="D146:D147"/>
+    <mergeCell ref="E146:E147"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="H98:J98"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="N25:P26"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N17:P17"/>
     <mergeCell ref="W154:Y155"/>
     <mergeCell ref="T148:V148"/>
     <mergeCell ref="W148:Y149"/>
@@ -10871,399 +11197,118 @@
     <mergeCell ref="W114:Y114"/>
     <mergeCell ref="T138:V138"/>
     <mergeCell ref="W86:Y86"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="W9:Y9"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="W15:Y15"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="Q27:S27"/>
-    <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="N25:P26"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="H43:J43"/>
     <mergeCell ref="F51:F52"/>
     <mergeCell ref="F53:F54"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="N61:S61"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N35:S35"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="N57:P57"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="Q51:S51"/>
+    <mergeCell ref="Q53:S53"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="W39:Y39"/>
+    <mergeCell ref="U62:V62"/>
+    <mergeCell ref="T57:V57"/>
+    <mergeCell ref="T55:V55"/>
+    <mergeCell ref="T61:V61"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="W41:Y41"/>
+    <mergeCell ref="W44:Y45"/>
+    <mergeCell ref="T53:V53"/>
+    <mergeCell ref="T59:V59"/>
+    <mergeCell ref="W56:Y57"/>
+    <mergeCell ref="K115:M115"/>
+    <mergeCell ref="K102:M102"/>
+    <mergeCell ref="H71:J71"/>
     <mergeCell ref="H75:J75"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="K110:M110"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="W16:Y17"/>
+    <mergeCell ref="T37:V37"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="W37:Y37"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="W31:Y31"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="T51:V51"/>
+    <mergeCell ref="W51:Y51"/>
+    <mergeCell ref="W53:Y53"/>
+    <mergeCell ref="T152:V152"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="K55:M55"/>
     <mergeCell ref="H114:J114"/>
     <mergeCell ref="H86:J86"/>
     <mergeCell ref="H88:J88"/>
-    <mergeCell ref="H90:J90"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="H98:J98"/>
-    <mergeCell ref="H108:J108"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="G114:G115"/>
-    <mergeCell ref="G110:G111"/>
-    <mergeCell ref="G112:G113"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="E148:E149"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="B146:B147"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="D146:D147"/>
-    <mergeCell ref="E146:E147"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="D134:D135"/>
-    <mergeCell ref="B144:B145"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="G150:G151"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="F148:F149"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="F146:F147"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="G152:G153"/>
-    <mergeCell ref="G154:G155"/>
-    <mergeCell ref="G142:G143"/>
-    <mergeCell ref="G144:G145"/>
-    <mergeCell ref="G146:G147"/>
-    <mergeCell ref="G148:G149"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="G86:G87"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="G94:G95"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="G138:G139"/>
-    <mergeCell ref="G128:G129"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="G122:G123"/>
-    <mergeCell ref="G134:G135"/>
-    <mergeCell ref="G136:G137"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="G120:G121"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="G140:G141"/>
-    <mergeCell ref="G132:G133"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="H100:J100"/>
-    <mergeCell ref="T122:V122"/>
-    <mergeCell ref="T124:V124"/>
-    <mergeCell ref="H126:J126"/>
-    <mergeCell ref="K118:M118"/>
-    <mergeCell ref="K120:M120"/>
-    <mergeCell ref="K122:M122"/>
-    <mergeCell ref="K124:M124"/>
-    <mergeCell ref="L126:M126"/>
-    <mergeCell ref="Q124:S124"/>
-    <mergeCell ref="N120:P120"/>
-    <mergeCell ref="Q126:S126"/>
-    <mergeCell ref="Q104:S104"/>
-    <mergeCell ref="Q115:S115"/>
-    <mergeCell ref="H104:J104"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="H112:J112"/>
-    <mergeCell ref="G124:G125"/>
-    <mergeCell ref="G126:G127"/>
-    <mergeCell ref="G116:G117"/>
-    <mergeCell ref="T106:V106"/>
-    <mergeCell ref="F144:F145"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="T77:V77"/>
-    <mergeCell ref="T120:V120"/>
-    <mergeCell ref="T118:V118"/>
-    <mergeCell ref="T102:V102"/>
-    <mergeCell ref="K94:M94"/>
-    <mergeCell ref="N100:P100"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="Q138:S138"/>
-    <mergeCell ref="N146:P146"/>
-    <mergeCell ref="H96:J96"/>
-    <mergeCell ref="K106:M106"/>
-    <mergeCell ref="H122:J122"/>
-    <mergeCell ref="I109:J109"/>
-    <mergeCell ref="H102:J102"/>
-    <mergeCell ref="H136:J136"/>
-    <mergeCell ref="Q116:S117"/>
-    <mergeCell ref="H134:J134"/>
-    <mergeCell ref="H142:J142"/>
-    <mergeCell ref="Q136:S136"/>
-    <mergeCell ref="H120:J120"/>
-    <mergeCell ref="P141:Q141"/>
-    <mergeCell ref="H130:J130"/>
-    <mergeCell ref="I131:J131"/>
-    <mergeCell ref="K134:M134"/>
-    <mergeCell ref="H128:J128"/>
-    <mergeCell ref="I129:J129"/>
-    <mergeCell ref="L135:M135"/>
-    <mergeCell ref="K98:M98"/>
-    <mergeCell ref="N94:P94"/>
-    <mergeCell ref="Q148:S149"/>
-    <mergeCell ref="Q150:S151"/>
-    <mergeCell ref="Q152:S153"/>
-    <mergeCell ref="Q154:S155"/>
-    <mergeCell ref="N152:P153"/>
-    <mergeCell ref="T134:V134"/>
-    <mergeCell ref="T126:V126"/>
-    <mergeCell ref="T130:V130"/>
-    <mergeCell ref="T128:V128"/>
-    <mergeCell ref="N140:S140"/>
-    <mergeCell ref="N144:P144"/>
-    <mergeCell ref="N134:S134"/>
-    <mergeCell ref="P135:Q135"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="T51:V51"/>
-    <mergeCell ref="T53:V53"/>
-    <mergeCell ref="T67:V67"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="K112:M112"/>
-    <mergeCell ref="T65:V65"/>
-    <mergeCell ref="U66:V66"/>
-    <mergeCell ref="N114:P114"/>
-    <mergeCell ref="N106:P106"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="K100:M100"/>
-    <mergeCell ref="Q113:S113"/>
-    <mergeCell ref="U110:V110"/>
-    <mergeCell ref="Q100:S100"/>
-    <mergeCell ref="Q106:S106"/>
-    <mergeCell ref="T92:V92"/>
-    <mergeCell ref="Q86:S86"/>
-    <mergeCell ref="Q88:S88"/>
-    <mergeCell ref="Q94:S94"/>
-    <mergeCell ref="T104:V104"/>
-    <mergeCell ref="T93:V93"/>
-    <mergeCell ref="N102:S102"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="W56:Y57"/>
-    <mergeCell ref="N136:P136"/>
-    <mergeCell ref="N138:P138"/>
-    <mergeCell ref="N109:P109"/>
-    <mergeCell ref="N110:P110"/>
-    <mergeCell ref="N63:S63"/>
-    <mergeCell ref="N67:P67"/>
-    <mergeCell ref="U112:V112"/>
-    <mergeCell ref="W116:Y117"/>
-    <mergeCell ref="U114:V114"/>
-    <mergeCell ref="T116:V116"/>
-    <mergeCell ref="W71:Y71"/>
-    <mergeCell ref="W73:Y73"/>
-    <mergeCell ref="W65:Y65"/>
-    <mergeCell ref="W98:Y98"/>
-    <mergeCell ref="W100:Y100"/>
-    <mergeCell ref="W92:Y92"/>
-    <mergeCell ref="T73:V73"/>
-    <mergeCell ref="T75:V75"/>
-    <mergeCell ref="W88:Y88"/>
-    <mergeCell ref="W89:Y90"/>
-    <mergeCell ref="X111:Y111"/>
-    <mergeCell ref="N104:P104"/>
-    <mergeCell ref="Q90:S90"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="K65:M65"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="K90:M90"/>
+    <mergeCell ref="K92:M92"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="K64:M64"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="Q67:S67"/>
+    <mergeCell ref="Q65:S65"/>
+    <mergeCell ref="K67:M67"/>
+    <mergeCell ref="N116:P116"/>
+    <mergeCell ref="K116:M116"/>
+    <mergeCell ref="N111:P111"/>
+    <mergeCell ref="K108:M108"/>
+    <mergeCell ref="K132:M132"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -11306,7 +11351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
